--- a/documents/Home.xlsx
+++ b/documents/Home.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="600" windowWidth="24615" windowHeight="11445" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="18705" windowHeight="6465" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="PaidTillDate" sheetId="1" r:id="rId1"/>
@@ -16,11 +16,12 @@
     <sheet name="Sheet2" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1:R20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="130">
   <si>
     <t>Item</t>
   </si>
@@ -407,6 +408,9 @@
   </si>
   <si>
     <t>JP Associates</t>
+  </si>
+  <si>
+    <t>Tata Power</t>
   </si>
 </sst>
 </file>
@@ -12369,7 +12373,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -12517,9 +12521,15 @@
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
+      <c r="A7" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="10">
+        <v>421</v>
+      </c>
+      <c r="C7" s="11">
+        <v>42914</v>
+      </c>
       <c r="D7" s="10"/>
       <c r="E7" s="11"/>
       <c r="F7" s="10"/>
@@ -12774,10 +12784,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C14"/>
+    <sheetView topLeftCell="C6" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12792,7 +12802,7 @@
     <col min="10" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="27" customFormat="1">
+    <row r="1" spans="1:16" s="27" customFormat="1">
       <c r="A1" s="12" t="s">
         <v>47</v>
       </c>
@@ -12827,7 +12837,7 @@
         <v>43075</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" s="14" t="s">
         <v>51</v>
       </c>
@@ -12871,8 +12881,11 @@
       <c r="O2">
         <v>40.9</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>42.35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="18" t="s">
         <v>52</v>
       </c>
@@ -12916,8 +12929,11 @@
       <c r="O3">
         <v>63</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>63.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="18" t="s">
         <v>53</v>
       </c>
@@ -12961,8 +12977,11 @@
       <c r="O4">
         <v>244.35</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="18" t="s">
         <v>54</v>
       </c>
@@ -13006,8 +13025,11 @@
       <c r="O5">
         <v>62.75</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>64.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="18" t="s">
         <v>55</v>
       </c>
@@ -13051,8 +13073,11 @@
       <c r="O6">
         <v>81.349999999999994</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>83.95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="18" t="s">
         <v>56</v>
       </c>
@@ -13096,8 +13121,11 @@
       <c r="O7">
         <v>91.05</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>92.55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="18" t="s">
         <v>57</v>
       </c>
@@ -13141,8 +13169,11 @@
       <c r="O8">
         <v>104.2</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>106.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="18" t="s">
         <v>58</v>
       </c>
@@ -13186,8 +13217,11 @@
       <c r="O9">
         <v>134.55000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>136.55000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="18" t="s">
         <v>59</v>
       </c>
@@ -13231,8 +13265,11 @@
       <c r="O10">
         <v>121.55</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>124.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="18" t="s">
         <v>60</v>
       </c>
@@ -13276,8 +13313,11 @@
       <c r="O11">
         <v>643</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>640.04999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="18" t="s">
         <v>61</v>
       </c>
@@ -13321,8 +13361,11 @@
       <c r="O12">
         <v>117</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>119.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="18" t="s">
         <v>62</v>
       </c>
@@ -13366,8 +13409,11 @@
       <c r="O13">
         <v>19.25</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>19.45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="18" t="s">
         <v>63</v>
       </c>
@@ -13411,8 +13457,11 @@
       <c r="O14">
         <v>81.2</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>81.900000000000006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="18" t="s">
         <v>64</v>
       </c>
@@ -13456,8 +13505,11 @@
       <c r="O15">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>49.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="18" t="s">
         <v>65</v>
       </c>
@@ -13501,8 +13553,11 @@
       <c r="O16">
         <v>36.299999999999997</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>36.799999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="18" t="s">
         <v>66</v>
       </c>
@@ -13546,8 +13601,11 @@
       <c r="O17">
         <v>56.4</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>57.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="18" t="s">
         <v>67</v>
       </c>
@@ -13591,8 +13649,11 @@
       <c r="O18">
         <v>23.8</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>23.95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="20" t="s">
         <v>68</v>
       </c>
@@ -13628,8 +13689,11 @@
       <c r="O19">
         <v>18.25</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>19.149999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="20" t="s">
         <v>69</v>
       </c>
@@ -13665,8 +13729,11 @@
       <c r="O20">
         <v>585</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="20" t="s">
         <v>70</v>
       </c>
@@ -13700,8 +13767,11 @@
       <c r="O21">
         <v>55.05</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>55.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="20" t="s">
         <v>71</v>
       </c>
@@ -13733,8 +13803,11 @@
       <c r="O22">
         <v>23.2</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>23.95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="20" t="s">
         <v>45</v>
       </c>
@@ -13764,8 +13837,11 @@
       <c r="O23">
         <v>512.20000000000005</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>521.95000000000005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="30" t="s">
         <v>116</v>
       </c>
@@ -13775,13 +13851,19 @@
       <c r="N24">
         <v>311</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>308.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="30" t="s">
         <v>117</v>
       </c>
       <c r="N25">
         <v>500.9</v>
+      </c>
+      <c r="P25">
+        <v>485.3</v>
       </c>
     </row>
   </sheetData>
@@ -13795,7 +13877,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13807,7 +13889,7 @@
     <col min="6" max="6" width="5" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="16" t="s">
         <v>4</v>
       </c>
@@ -13817,8 +13899,9 @@
       <c r="C1" s="16" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="16"/>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="16">
         <v>15000</v>
       </c>
@@ -13828,8 +13911,11 @@
       <c r="C2" s="16" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="16">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="16">
         <v>20000</v>
       </c>
@@ -13839,8 +13925,11 @@
       <c r="C3" s="16" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="16">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="16">
         <v>13000</v>
       </c>
@@ -13850,8 +13939,11 @@
       <c r="C4" s="16" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="16">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="16">
         <v>1000</v>
       </c>
@@ -13861,8 +13953,11 @@
       <c r="C5" s="16" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="16">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="16">
         <v>3000</v>
       </c>
@@ -13872,8 +13967,11 @@
       <c r="C6" s="16" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="16">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="16">
         <v>3000</v>
       </c>
@@ -13883,8 +13981,11 @@
       <c r="C7" s="16" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="16">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="16">
         <v>5000</v>
       </c>
@@ -13894,8 +13995,11 @@
       <c r="C8" s="16" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="16">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="16">
         <v>18870</v>
       </c>
@@ -13905,8 +14009,11 @@
       <c r="C9" s="16" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="16">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="16">
         <v>3000</v>
       </c>
@@ -13916,8 +14023,9 @@
       <c r="C10" s="16" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="16"/>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="16">
         <v>2100</v>
       </c>
@@ -13927,8 +14035,11 @@
       <c r="C11" s="16" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="16">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="16">
         <v>5000</v>
       </c>
@@ -13938,8 +14049,9 @@
       <c r="C12" s="16" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="16"/>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="16">
         <v>6000</v>
       </c>
@@ -13949,28 +14061,35 @@
       <c r="C13" s="16" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="16">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="16"/>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="16"/>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="16"/>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="16"/>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="16">
         <f>SUM(A2:A17)</f>
         <v>94970</v>
@@ -13982,8 +14101,12 @@
       <c r="C18" s="16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="16">
+        <f>SUM(D2:D17)</f>
+        <v>98600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="16">
         <v>112000</v>
       </c>
@@ -13993,8 +14116,9 @@
       <c r="C19" s="16" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="16"/>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="16">
         <f>A19-A18</f>
         <v>17030</v>
@@ -14005,6 +14129,10 @@
       </c>
       <c r="C20" s="16" t="s">
         <v>85</v>
+      </c>
+      <c r="D20" s="16">
+        <f>B19-D18</f>
+        <v>13400</v>
       </c>
     </row>
   </sheetData>

--- a/documents/Home.xlsx
+++ b/documents/Home.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="18705" windowHeight="6465" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="18705" windowHeight="6465" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="PaidTillDate" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,11 @@
     <sheet name="Sheet2" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:R20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="128">
   <si>
     <t>Item</t>
   </si>
@@ -275,9 +274,6 @@
     <t>SIP</t>
   </si>
   <si>
-    <t>Salary</t>
-  </si>
-  <si>
     <t>Thekedaar</t>
   </si>
   <si>
@@ -353,64 +349,61 @@
     <t>Bhel</t>
   </si>
   <si>
-    <t>407138365676 </t>
-  </si>
-  <si>
-    <t>Reliance Mutual Fund</t>
-  </si>
-  <si>
-    <t>1551643 </t>
-  </si>
-  <si>
-    <t>IDFC</t>
-  </si>
-  <si>
-    <t>ICICI Prudential</t>
-  </si>
-  <si>
-    <t>SBI Mutual Fund</t>
-  </si>
-  <si>
     <t>ITC</t>
   </si>
   <si>
     <t>SCHAND</t>
   </si>
   <si>
-    <t>80C</t>
-  </si>
-  <si>
-    <t>SBIN0003633</t>
-  </si>
-  <si>
-    <t>005801565788</t>
-  </si>
-  <si>
-    <t>30200155294</t>
-  </si>
-  <si>
-    <t>ICIC0000058</t>
-  </si>
-  <si>
-    <t>State Bank Of India</t>
-  </si>
-  <si>
-    <t>059399500001653</t>
-  </si>
-  <si>
-    <t>YESB0000593</t>
-  </si>
-  <si>
-    <t>Yes Bank Ltd</t>
-  </si>
-  <si>
-    <t>ICICI Bank Ltd</t>
-  </si>
-  <si>
     <t>JP Associates</t>
   </si>
   <si>
     <t>Tata Power</t>
+  </si>
+  <si>
+    <t>Monthly Expense (Rent + Kharcha)</t>
+  </si>
+  <si>
+    <t>HomeLoan</t>
+  </si>
+  <si>
+    <t>EMI Marriage</t>
+  </si>
+  <si>
+    <t>EMI Loan</t>
+  </si>
+  <si>
+    <t>Required</t>
+  </si>
+  <si>
+    <t>Estimates</t>
+  </si>
+  <si>
+    <t>Flooring</t>
+  </si>
+  <si>
+    <t>Outside Wall Stone</t>
+  </si>
+  <si>
+    <t>Bathroom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kitchen </t>
+  </si>
+  <si>
+    <t>Rooms almirahs</t>
+  </si>
+  <si>
+    <t>Beds</t>
+  </si>
+  <si>
+    <t>Electric Wiring</t>
+  </si>
+  <si>
+    <t>Paint</t>
+  </si>
+  <si>
+    <t>Gate</t>
   </si>
 </sst>
 </file>
@@ -421,11 +414,18 @@
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy"/>
     <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -551,60 +551,65 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -899,7 +904,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -993,7 +998,7 @@
       </c>
       <c r="H3" s="5">
         <f>H2-B25</f>
-        <v>265990</v>
+        <v>245990</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -1135,8 +1140,12 @@
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:26">
-      <c r="A18" s="5"/>
-      <c r="B18" s="2"/>
+      <c r="A18" s="8">
+        <v>42917</v>
+      </c>
+      <c r="B18" s="2">
+        <v>20000</v>
+      </c>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:26">
@@ -1175,7 +1184,7 @@
       </c>
       <c r="B25" s="2">
         <f>SUM(B2:B24)</f>
-        <v>292500</v>
+        <v>312500</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -12465,7 +12474,7 @@
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1">
       <c r="A4" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B4" s="10">
         <v>410</v>
@@ -12480,8 +12489,8 @@
       <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1">
-      <c r="A5" s="31" t="s">
-        <v>116</v>
+      <c r="A5" s="29" t="s">
+        <v>109</v>
       </c>
       <c r="B5" s="10">
         <v>622</v>
@@ -12496,8 +12505,8 @@
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1">
-      <c r="A6" s="31" t="s">
-        <v>128</v>
+      <c r="A6" s="29" t="s">
+        <v>111</v>
       </c>
       <c r="B6" s="10">
         <v>1739</v>
@@ -12521,8 +12530,8 @@
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1">
-      <c r="A7" s="31" t="s">
-        <v>129</v>
+      <c r="A7" s="29" t="s">
+        <v>112</v>
       </c>
       <c r="B7" s="10">
         <v>421</v>
@@ -12784,10 +12793,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView topLeftCell="C6" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12802,15 +12811,15 @@
     <col min="10" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="27" customFormat="1">
+    <row r="1" spans="1:17" s="27" customFormat="1">
       <c r="A1" s="12" t="s">
         <v>47</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>107</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>108</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>48</v>
@@ -12837,12 +12846,12 @@
         <v>43075</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" s="14" t="s">
         <v>51</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="15">
@@ -12884,13 +12893,16 @@
       <c r="P2">
         <v>42.35</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="Q2">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="18" t="s">
         <v>52</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="19">
@@ -12932,13 +12944,16 @@
       <c r="P3">
         <v>63.25</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3">
+        <v>63.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="18" t="s">
         <v>53</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="19">
@@ -12980,13 +12995,16 @@
       <c r="P4">
         <v>246</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4">
+        <v>244.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="18" t="s">
         <v>54</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="19">
@@ -13028,13 +13046,16 @@
       <c r="P5">
         <v>64.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5">
+        <v>64.650000000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="18" t="s">
         <v>55</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="19">
@@ -13076,13 +13097,16 @@
       <c r="P6">
         <v>83.95</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6">
+        <v>85.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="18" t="s">
         <v>56</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="19">
@@ -13124,13 +13148,16 @@
       <c r="P7">
         <v>92.55</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="Q7">
+        <v>93.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="18" t="s">
         <v>57</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="19">
@@ -13172,13 +13199,16 @@
       <c r="P8">
         <v>106.75</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Q8">
+        <v>108.35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="18" t="s">
         <v>58</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="19">
@@ -13220,8 +13250,11 @@
       <c r="P9">
         <v>136.55000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="Q9">
+        <v>135.30000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="18" t="s">
         <v>59</v>
       </c>
@@ -13268,13 +13301,16 @@
       <c r="P10">
         <v>124.6</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="Q10">
+        <v>123.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="18" t="s">
         <v>60</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="19">
@@ -13316,13 +13352,16 @@
       <c r="P11">
         <v>640.04999999999995</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="Q11">
+        <v>648.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="18" t="s">
         <v>61</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="19">
@@ -13364,13 +13403,16 @@
       <c r="P12">
         <v>119.8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="Q12">
+        <v>123.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="18" t="s">
         <v>62</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="19">
@@ -13412,13 +13454,16 @@
       <c r="P13">
         <v>19.45</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="Q13">
+        <v>19.850000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="18" t="s">
         <v>63</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="19">
@@ -13460,13 +13505,16 @@
       <c r="P14">
         <v>81.900000000000006</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="Q14">
+        <v>80.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="18" t="s">
         <v>64</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="19">
@@ -13508,13 +13556,16 @@
       <c r="P15">
         <v>49.7</v>
       </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="Q15">
+        <v>52.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="18" t="s">
         <v>65</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="19">
@@ -13556,13 +13607,16 @@
       <c r="P16">
         <v>36.799999999999997</v>
       </c>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="Q16">
+        <v>36.35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="18" t="s">
         <v>66</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="19">
@@ -13604,13 +13658,16 @@
       <c r="P17">
         <v>57.1</v>
       </c>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="Q17">
+        <v>58.35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="18" t="s">
         <v>67</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="19">
@@ -13652,13 +13709,16 @@
       <c r="P18">
         <v>23.95</v>
       </c>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="Q18">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="20" t="s">
         <v>68</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="16"/>
@@ -13692,13 +13752,16 @@
       <c r="P19">
         <v>19.149999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="Q19">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="20" t="s">
         <v>69</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="16"/>
@@ -13732,13 +13795,16 @@
       <c r="P20">
         <v>580</v>
       </c>
-    </row>
-    <row r="21" spans="1:16">
+      <c r="Q20">
+        <v>589.70000000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="20" t="s">
         <v>70</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="16"/>
@@ -13770,13 +13836,16 @@
       <c r="P21">
         <v>55.7</v>
       </c>
-    </row>
-    <row r="22" spans="1:16">
+      <c r="Q21">
+        <v>54.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="20" t="s">
         <v>71</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="16"/>
@@ -13806,13 +13875,16 @@
       <c r="P22">
         <v>23.95</v>
       </c>
-    </row>
-    <row r="23" spans="1:16">
+      <c r="Q22">
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="20" t="s">
         <v>45</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="10"/>
@@ -13840,10 +13912,13 @@
       <c r="P23">
         <v>521.95000000000005</v>
       </c>
-    </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="30" t="s">
-        <v>116</v>
+      <c r="Q23">
+        <v>545.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="28" t="s">
+        <v>109</v>
       </c>
       <c r="M24">
         <v>310.55</v>
@@ -13854,16 +13929,22 @@
       <c r="P24">
         <v>308.8</v>
       </c>
-    </row>
-    <row r="25" spans="1:16">
-      <c r="A25" s="30" t="s">
-        <v>117</v>
+      <c r="Q24">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="28" t="s">
+        <v>110</v>
       </c>
       <c r="N25">
         <v>500.9</v>
       </c>
       <c r="P25">
         <v>485.3</v>
+      </c>
+      <c r="Q25">
+        <v>469</v>
       </c>
     </row>
   </sheetData>
@@ -13874,10 +13955,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13887,9 +13968,12 @@
     <col min="3" max="3" width="20.42578125" style="21" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.140625" style="21"/>
     <col min="6" max="6" width="5" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:12">
       <c r="A1" s="16" t="s">
         <v>4</v>
       </c>
@@ -13900,8 +13984,17 @@
         <v>0</v>
       </c>
       <c r="D1" s="16"/>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="H1" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1" s="36">
+        <v>25000</v>
+      </c>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="16">
         <v>15000</v>
       </c>
@@ -13914,8 +14007,17 @@
       <c r="D2" s="16">
         <v>15000</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="H2" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" s="36">
+        <v>20000</v>
+      </c>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="16">
         <v>20000</v>
       </c>
@@ -13928,8 +14030,17 @@
       <c r="D3" s="16">
         <v>22000</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="H3" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="I3" s="36">
+        <v>15000</v>
+      </c>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="16">
         <v>13000</v>
       </c>
@@ -13942,8 +14053,17 @@
       <c r="D4" s="16">
         <v>13000</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="H4" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="I4" s="36">
+        <v>20000</v>
+      </c>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="16">
         <v>1000</v>
       </c>
@@ -13956,8 +14076,17 @@
       <c r="D5" s="16">
         <v>1000</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="H5" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="I5" s="36">
+        <v>20000</v>
+      </c>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="16">
         <v>3000</v>
       </c>
@@ -13970,8 +14099,17 @@
       <c r="D6" s="16">
         <v>2500</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="H6" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="I6" s="36">
+        <v>4139</v>
+      </c>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="16">
         <v>3000</v>
       </c>
@@ -13984,8 +14122,17 @@
       <c r="D7" s="16">
         <v>3000</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="H7" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" s="36">
+        <v>6000</v>
+      </c>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="16">
         <v>5000</v>
       </c>
@@ -13998,8 +14145,17 @@
       <c r="D8" s="16">
         <v>15000</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="H8" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="36">
+        <v>109004</v>
+      </c>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="16">
         <v>18870</v>
       </c>
@@ -14013,7 +14169,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:12">
       <c r="A10" s="16">
         <v>3000</v>
       </c>
@@ -14025,7 +14181,7 @@
       </c>
       <c r="D10" s="16"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:12">
       <c r="A11" s="16">
         <v>2100</v>
       </c>
@@ -14039,7 +14195,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:12">
       <c r="A12" s="16">
         <v>5000</v>
       </c>
@@ -14051,7 +14207,7 @@
       </c>
       <c r="D12" s="16"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:12">
       <c r="A13" s="16">
         <v>6000</v>
       </c>
@@ -14065,23 +14221,34 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:12">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:12">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
+    <row r="16" spans="1:12">
+      <c r="A16" s="16">
+        <f>SUM(A2:A15)</f>
+        <v>94970</v>
+      </c>
+      <c r="B16" s="16">
+        <f>SUM(B2:B15)</f>
+        <v>87968</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="16">
+        <f>SUM(D2:D15)</f>
+        <v>98600</v>
+      </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="16"/>
@@ -14090,50 +14257,10 @@
       <c r="D17" s="16"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="16">
-        <f>SUM(A2:A17)</f>
-        <v>94970</v>
-      </c>
-      <c r="B18" s="16">
-        <f>SUM(B2:B17)</f>
-        <v>87968</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="16">
-        <f>SUM(D2:D17)</f>
-        <v>98600</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="16">
-        <v>112000</v>
-      </c>
-      <c r="B19" s="16">
-        <v>112000</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" s="16"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="16">
-        <f>A19-A18</f>
-        <v>17030</v>
-      </c>
-      <c r="B20" s="16">
-        <f>B19-B18</f>
-        <v>24032</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" s="16">
-        <f>B19-D18</f>
-        <v>13400</v>
-      </c>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14142,101 +14269,114 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="B3" s="23" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="B4" s="23" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="C10" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10">
-        <v>737556</v>
-      </c>
-      <c r="E10" s="33">
-        <v>108403.13</v>
-      </c>
-      <c r="F10">
-        <v>194677</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="C11" s="32" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="D11">
-        <v>244833</v>
-      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="24">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="24"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="24"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="10"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="10"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="10"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" s="10"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="10"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="30"/>
+      <c r="E10" s="31"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="30"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" s="10"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="B25" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="C25" s="34" t="s">
-        <v>121</v>
-      </c>
+      <c r="A25" s="23"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="32"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="B26" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>120</v>
-      </c>
+      <c r="A26" s="23"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="32"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="C27" s="34" t="s">
-        <v>124</v>
-      </c>
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/Home.xlsx
+++ b/documents/Home.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2520" windowWidth="13965" windowHeight="5625" activeTab="1"/>
@@ -10,13 +10,15 @@
     <sheet name="PaidTillDate" sheetId="1" r:id="rId1"/>
     <sheet name="MyShare Pics" sheetId="5" r:id="rId2"/>
     <sheet name="Need" sheetId="6" r:id="rId3"/>
+    <sheet name="Profit" sheetId="7" r:id="rId4"/>
+    <sheet name="Actual Price Calculator" sheetId="8" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="156">
   <si>
     <t>Date</t>
   </si>
@@ -385,16 +387,115 @@
   </si>
   <si>
     <t>18/07/2017</t>
+  </si>
+  <si>
+    <t>Profit</t>
+  </si>
+  <si>
+    <t>Share</t>
+  </si>
+  <si>
+    <t>No Of shares</t>
+  </si>
+  <si>
+    <t>Bought Price</t>
+  </si>
+  <si>
+    <t>Buy Price Per Share</t>
+  </si>
+  <si>
+    <t>Sell Price Per Share</t>
+  </si>
+  <si>
+    <t>No of shares</t>
+  </si>
+  <si>
+    <t>IBULLS</t>
+  </si>
+  <si>
+    <t>Sintex</t>
+  </si>
+  <si>
+    <t>Sell Price</t>
+  </si>
+  <si>
+    <t>Fconsumer</t>
+  </si>
+  <si>
+    <t>National Alum</t>
+  </si>
+  <si>
+    <t>Price Bought</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brokerage </t>
+  </si>
+  <si>
+    <t>Brokerage Per Share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No of shares </t>
+  </si>
+  <si>
+    <t>Total Brokerage</t>
+  </si>
+  <si>
+    <t>Net Rate Per Share</t>
+  </si>
+  <si>
+    <t>GST</t>
+  </si>
+  <si>
+    <t>Idea</t>
+  </si>
+  <si>
+    <t>GST Total</t>
+  </si>
+  <si>
+    <t>Net Total Before Levies</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>STT Total</t>
+  </si>
+  <si>
+    <t>Transaction Charges</t>
+  </si>
+  <si>
+    <t>Transaction Charges total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stamp Duty </t>
+  </si>
+  <si>
+    <t>Stamp Duty Total</t>
+  </si>
+  <si>
+    <t> 0.0002</t>
+  </si>
+  <si>
+    <t>Actual Price Bought</t>
+  </si>
+  <si>
+    <t>Price Sold</t>
+  </si>
+  <si>
+    <t>Actual Price Sold</t>
+  </si>
+  <si>
+    <t>Total Taxes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -523,7 +624,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -564,6 +665,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -654,6 +756,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -688,6 +791,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -863,14 +967,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
@@ -879,7 +983,7 @@
     <col min="6" max="26" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -913,7 +1017,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="26">
         <v>42190</v>
       </c>
@@ -943,7 +1047,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="26">
         <v>42192</v>
       </c>
@@ -972,7 +1076,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="26">
         <v>42229</v>
       </c>
@@ -982,7 +1086,7 @@
       <c r="D4" s="29"/>
       <c r="E4" s="29"/>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
         <v>42230</v>
       </c>
@@ -994,7 +1098,7 @@
       </c>
       <c r="E5" s="29"/>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="26">
         <v>42255</v>
       </c>
@@ -1003,7 +1107,7 @@
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="26">
         <v>42262</v>
       </c>
@@ -1012,7 +1116,7 @@
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="26">
         <v>42282</v>
       </c>
@@ -1021,7 +1125,7 @@
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="26">
         <v>42299</v>
       </c>
@@ -1030,7 +1134,7 @@
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="26">
         <v>42373</v>
       </c>
@@ -1039,7 +1143,7 @@
       </c>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="26">
         <v>42553</v>
       </c>
@@ -1048,7 +1152,7 @@
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="26">
         <v>42640</v>
       </c>
@@ -1057,7 +1161,7 @@
       </c>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="27">
         <v>42768</v>
       </c>
@@ -1066,7 +1170,7 @@
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="27">
         <v>42796</v>
       </c>
@@ -1075,7 +1179,7 @@
       </c>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="27">
         <v>42829</v>
       </c>
@@ -1084,7 +1188,7 @@
       </c>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="28">
         <v>42856</v>
       </c>
@@ -1093,7 +1197,7 @@
       </c>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>42887</v>
       </c>
@@ -1102,7 +1206,7 @@
       </c>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="28">
         <v>42917</v>
       </c>
@@ -1111,37 +1215,37 @@
       </c>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="28"/>
       <c r="B19" s="25"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="28"/>
       <c r="B20" s="25"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="28"/>
       <c r="B21" s="25"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="28"/>
       <c r="B22" s="25"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="28"/>
       <c r="B23" s="25"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="29"/>
       <c r="B24" s="29"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
         <v>5</v>
       </c>
@@ -1174,4877 +1278,4877 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="E45" s="3"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="E48" s="3"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="E53" s="3"/>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="E54" s="3"/>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="E61" s="3"/>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="E62" s="3"/>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="E63" s="3"/>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="E64" s="3"/>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="E65" s="3"/>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="E66" s="3"/>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="E67" s="3"/>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="E68" s="3"/>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="E69" s="3"/>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="E70" s="3"/>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="E71" s="3"/>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="E72" s="3"/>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="E73" s="3"/>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="E74" s="3"/>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="E75" s="3"/>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="E76" s="3"/>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="E77" s="3"/>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="E78" s="3"/>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="E79" s="3"/>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="E80" s="3"/>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="E81" s="3"/>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="E82" s="3"/>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="E83" s="3"/>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="E84" s="3"/>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="E85" s="3"/>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="E86" s="3"/>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="E87" s="3"/>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="E88" s="3"/>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="E89" s="3"/>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="E90" s="3"/>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="E91" s="3"/>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="E92" s="3"/>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="E93" s="3"/>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="E94" s="3"/>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="E95" s="3"/>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="E96" s="3"/>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="E97" s="3"/>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="E98" s="3"/>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="E99" s="3"/>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="E100" s="3"/>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="E101" s="3"/>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="E102" s="3"/>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="E103" s="3"/>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="E104" s="3"/>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="E105" s="3"/>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="E106" s="3"/>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="E107" s="3"/>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="E108" s="3"/>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="E109" s="3"/>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="E110" s="3"/>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="E111" s="3"/>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="E112" s="3"/>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="E113" s="3"/>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="E114" s="3"/>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="E115" s="3"/>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="E116" s="3"/>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="E117" s="3"/>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="E118" s="3"/>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="E119" s="3"/>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="E120" s="3"/>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="E121" s="3"/>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="E122" s="3"/>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="E123" s="3"/>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="E124" s="3"/>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="E125" s="3"/>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="E126" s="3"/>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="E127" s="3"/>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="E128" s="3"/>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="E129" s="3"/>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="E130" s="3"/>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="E131" s="3"/>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="E132" s="3"/>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="E133" s="3"/>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="E134" s="3"/>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="E135" s="3"/>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="E136" s="3"/>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="E137" s="3"/>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="E138" s="3"/>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="E139" s="3"/>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="E140" s="3"/>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="E141" s="3"/>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="E142" s="3"/>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="E143" s="3"/>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="E144" s="3"/>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="E145" s="3"/>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="E146" s="3"/>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="E147" s="3"/>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="E148" s="3"/>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="E149" s="3"/>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="E150" s="3"/>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="E151" s="3"/>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="E152" s="3"/>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="E153" s="3"/>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="E154" s="3"/>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="E155" s="3"/>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="E156" s="3"/>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="E157" s="3"/>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="E158" s="3"/>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="E159" s="3"/>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="E160" s="3"/>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="E161" s="3"/>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="E162" s="3"/>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="E163" s="3"/>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="E164" s="3"/>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="E165" s="3"/>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="E166" s="3"/>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="E167" s="3"/>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="E168" s="3"/>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="E169" s="3"/>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="E170" s="3"/>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="E171" s="3"/>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="E172" s="3"/>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="E173" s="3"/>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="E174" s="3"/>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="E175" s="3"/>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="E176" s="3"/>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="E177" s="3"/>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="E178" s="3"/>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="E179" s="3"/>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="E180" s="3"/>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="E181" s="3"/>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="E182" s="3"/>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="E183" s="3"/>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="E184" s="3"/>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="E185" s="3"/>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="E186" s="3"/>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="E187" s="3"/>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="E188" s="3"/>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="E189" s="3"/>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="E190" s="3"/>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="E191" s="3"/>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="E192" s="3"/>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="E193" s="3"/>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="E194" s="3"/>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="E195" s="3"/>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="E196" s="3"/>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="E197" s="3"/>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="E198" s="3"/>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="E199" s="3"/>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="E200" s="3"/>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="E201" s="3"/>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="E202" s="3"/>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="E203" s="3"/>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="E204" s="3"/>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="E205" s="3"/>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="E206" s="3"/>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="E207" s="3"/>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="E208" s="3"/>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="E209" s="3"/>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="E210" s="3"/>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="E211" s="3"/>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="E212" s="3"/>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="E213" s="3"/>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="E214" s="3"/>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="E215" s="3"/>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="E216" s="3"/>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="E217" s="3"/>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="E218" s="3"/>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="E219" s="3"/>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="E220" s="3"/>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="3"/>
       <c r="B221" s="3"/>
       <c r="E221" s="3"/>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="3"/>
       <c r="B222" s="3"/>
       <c r="E222" s="3"/>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="3"/>
       <c r="B223" s="3"/>
       <c r="E223" s="3"/>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="3"/>
       <c r="B224" s="3"/>
       <c r="E224" s="3"/>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
       <c r="E225" s="3"/>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="3"/>
       <c r="B226" s="3"/>
       <c r="E226" s="3"/>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="3"/>
       <c r="B227" s="3"/>
       <c r="E227" s="3"/>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="3"/>
       <c r="B228" s="3"/>
       <c r="E228" s="3"/>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="3"/>
       <c r="B229" s="3"/>
       <c r="E229" s="3"/>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="3"/>
       <c r="B230" s="3"/>
       <c r="E230" s="3"/>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="3"/>
       <c r="B231" s="3"/>
       <c r="E231" s="3"/>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="3"/>
       <c r="B232" s="3"/>
       <c r="E232" s="3"/>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="3"/>
       <c r="B233" s="3"/>
       <c r="E233" s="3"/>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="3"/>
       <c r="B234" s="3"/>
       <c r="E234" s="3"/>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="3"/>
       <c r="B235" s="3"/>
       <c r="E235" s="3"/>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="3"/>
       <c r="B236" s="3"/>
       <c r="E236" s="3"/>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="3"/>
       <c r="B237" s="3"/>
       <c r="E237" s="3"/>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="3"/>
       <c r="B238" s="3"/>
       <c r="E238" s="3"/>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="3"/>
       <c r="B239" s="3"/>
       <c r="E239" s="3"/>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="3"/>
       <c r="B240" s="3"/>
       <c r="E240" s="3"/>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="3"/>
       <c r="B241" s="3"/>
       <c r="E241" s="3"/>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="3"/>
       <c r="B242" s="3"/>
       <c r="E242" s="3"/>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="3"/>
       <c r="B243" s="3"/>
       <c r="E243" s="3"/>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="3"/>
       <c r="B244" s="3"/>
       <c r="E244" s="3"/>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="3"/>
       <c r="B245" s="3"/>
       <c r="E245" s="3"/>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="3"/>
       <c r="B246" s="3"/>
       <c r="E246" s="3"/>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="3"/>
       <c r="B247" s="3"/>
       <c r="E247" s="3"/>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="3"/>
       <c r="B248" s="3"/>
       <c r="E248" s="3"/>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="3"/>
       <c r="B249" s="3"/>
       <c r="E249" s="3"/>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="3"/>
       <c r="B250" s="3"/>
       <c r="E250" s="3"/>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="3"/>
       <c r="B251" s="3"/>
       <c r="E251" s="3"/>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="3"/>
       <c r="B252" s="3"/>
       <c r="E252" s="3"/>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="3"/>
       <c r="B253" s="3"/>
       <c r="E253" s="3"/>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="3"/>
       <c r="B254" s="3"/>
       <c r="E254" s="3"/>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
       <c r="E255" s="3"/>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="3"/>
       <c r="B256" s="3"/>
       <c r="E256" s="3"/>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="3"/>
       <c r="B257" s="3"/>
       <c r="E257" s="3"/>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="3"/>
       <c r="B258" s="3"/>
       <c r="E258" s="3"/>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="3"/>
       <c r="B259" s="3"/>
       <c r="E259" s="3"/>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="3"/>
       <c r="B260" s="3"/>
       <c r="E260" s="3"/>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="3"/>
       <c r="B261" s="3"/>
       <c r="E261" s="3"/>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="3"/>
       <c r="B262" s="3"/>
       <c r="E262" s="3"/>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="3"/>
       <c r="B263" s="3"/>
       <c r="E263" s="3"/>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="3"/>
       <c r="B264" s="3"/>
       <c r="E264" s="3"/>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="3"/>
       <c r="B265" s="3"/>
       <c r="E265" s="3"/>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="3"/>
       <c r="B266" s="3"/>
       <c r="E266" s="3"/>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="3"/>
       <c r="B267" s="3"/>
       <c r="E267" s="3"/>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="3"/>
       <c r="B268" s="3"/>
       <c r="E268" s="3"/>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="3"/>
       <c r="B269" s="3"/>
       <c r="E269" s="3"/>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="3"/>
       <c r="B270" s="3"/>
       <c r="E270" s="3"/>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="3"/>
       <c r="B271" s="3"/>
       <c r="E271" s="3"/>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="3"/>
       <c r="B272" s="3"/>
       <c r="E272" s="3"/>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="3"/>
       <c r="B273" s="3"/>
       <c r="E273" s="3"/>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="3"/>
       <c r="B274" s="3"/>
       <c r="E274" s="3"/>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="3"/>
       <c r="B275" s="3"/>
       <c r="E275" s="3"/>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="3"/>
       <c r="B276" s="3"/>
       <c r="E276" s="3"/>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="3"/>
       <c r="B277" s="3"/>
       <c r="E277" s="3"/>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="3"/>
       <c r="B278" s="3"/>
       <c r="E278" s="3"/>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="3"/>
       <c r="B279" s="3"/>
       <c r="E279" s="3"/>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="3"/>
       <c r="B280" s="3"/>
       <c r="E280" s="3"/>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="3"/>
       <c r="B281" s="3"/>
       <c r="E281" s="3"/>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="3"/>
       <c r="B282" s="3"/>
       <c r="E282" s="3"/>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="3"/>
       <c r="B283" s="3"/>
       <c r="E283" s="3"/>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="3"/>
       <c r="B284" s="3"/>
       <c r="E284" s="3"/>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="3"/>
       <c r="B285" s="3"/>
       <c r="E285" s="3"/>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="3"/>
       <c r="B286" s="3"/>
       <c r="E286" s="3"/>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="3"/>
       <c r="B287" s="3"/>
       <c r="E287" s="3"/>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="3"/>
       <c r="B288" s="3"/>
       <c r="E288" s="3"/>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="3"/>
       <c r="B289" s="3"/>
       <c r="E289" s="3"/>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="3"/>
       <c r="B290" s="3"/>
       <c r="E290" s="3"/>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="3"/>
       <c r="B291" s="3"/>
       <c r="E291" s="3"/>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="3"/>
       <c r="B292" s="3"/>
       <c r="E292" s="3"/>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="3"/>
       <c r="B293" s="3"/>
       <c r="E293" s="3"/>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="3"/>
       <c r="B294" s="3"/>
       <c r="E294" s="3"/>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="3"/>
       <c r="B295" s="3"/>
       <c r="E295" s="3"/>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="3"/>
       <c r="B296" s="3"/>
       <c r="E296" s="3"/>
     </row>
-    <row r="297" spans="1:5">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="3"/>
       <c r="B297" s="3"/>
       <c r="E297" s="3"/>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="3"/>
       <c r="B298" s="3"/>
       <c r="E298" s="3"/>
     </row>
-    <row r="299" spans="1:5">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="3"/>
       <c r="B299" s="3"/>
       <c r="E299" s="3"/>
     </row>
-    <row r="300" spans="1:5">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="3"/>
       <c r="B300" s="3"/>
       <c r="E300" s="3"/>
     </row>
-    <row r="301" spans="1:5">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="3"/>
       <c r="B301" s="3"/>
       <c r="E301" s="3"/>
     </row>
-    <row r="302" spans="1:5">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="3"/>
       <c r="B302" s="3"/>
       <c r="E302" s="3"/>
     </row>
-    <row r="303" spans="1:5">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="3"/>
       <c r="B303" s="3"/>
       <c r="E303" s="3"/>
     </row>
-    <row r="304" spans="1:5">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="3"/>
       <c r="B304" s="3"/>
       <c r="E304" s="3"/>
     </row>
-    <row r="305" spans="1:5">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="3"/>
       <c r="B305" s="3"/>
       <c r="E305" s="3"/>
     </row>
-    <row r="306" spans="1:5">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="3"/>
       <c r="B306" s="3"/>
       <c r="E306" s="3"/>
     </row>
-    <row r="307" spans="1:5">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="3"/>
       <c r="B307" s="3"/>
       <c r="E307" s="3"/>
     </row>
-    <row r="308" spans="1:5">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="3"/>
       <c r="B308" s="3"/>
       <c r="E308" s="3"/>
     </row>
-    <row r="309" spans="1:5">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="3"/>
       <c r="B309" s="3"/>
       <c r="E309" s="3"/>
     </row>
-    <row r="310" spans="1:5">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="3"/>
       <c r="B310" s="3"/>
       <c r="E310" s="3"/>
     </row>
-    <row r="311" spans="1:5">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="3"/>
       <c r="B311" s="3"/>
       <c r="E311" s="3"/>
     </row>
-    <row r="312" spans="1:5">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="3"/>
       <c r="B312" s="3"/>
       <c r="E312" s="3"/>
     </row>
-    <row r="313" spans="1:5">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="3"/>
       <c r="B313" s="3"/>
       <c r="E313" s="3"/>
     </row>
-    <row r="314" spans="1:5">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="3"/>
       <c r="B314" s="3"/>
       <c r="E314" s="3"/>
     </row>
-    <row r="315" spans="1:5">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="3"/>
       <c r="B315" s="3"/>
       <c r="E315" s="3"/>
     </row>
-    <row r="316" spans="1:5">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="3"/>
       <c r="B316" s="3"/>
       <c r="E316" s="3"/>
     </row>
-    <row r="317" spans="1:5">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="3"/>
       <c r="B317" s="3"/>
       <c r="E317" s="3"/>
     </row>
-    <row r="318" spans="1:5">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="3"/>
       <c r="B318" s="3"/>
       <c r="E318" s="3"/>
     </row>
-    <row r="319" spans="1:5">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="3"/>
       <c r="B319" s="3"/>
       <c r="E319" s="3"/>
     </row>
-    <row r="320" spans="1:5">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="3"/>
       <c r="B320" s="3"/>
       <c r="E320" s="3"/>
     </row>
-    <row r="321" spans="1:5">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="3"/>
       <c r="B321" s="3"/>
       <c r="E321" s="3"/>
     </row>
-    <row r="322" spans="1:5">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="3"/>
       <c r="B322" s="3"/>
       <c r="E322" s="3"/>
     </row>
-    <row r="323" spans="1:5">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="3"/>
       <c r="B323" s="3"/>
       <c r="E323" s="3"/>
     </row>
-    <row r="324" spans="1:5">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="3"/>
       <c r="B324" s="3"/>
       <c r="E324" s="3"/>
     </row>
-    <row r="325" spans="1:5">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="3"/>
       <c r="B325" s="3"/>
       <c r="E325" s="3"/>
     </row>
-    <row r="326" spans="1:5">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="3"/>
       <c r="B326" s="3"/>
       <c r="E326" s="3"/>
     </row>
-    <row r="327" spans="1:5">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="3"/>
       <c r="B327" s="3"/>
       <c r="E327" s="3"/>
     </row>
-    <row r="328" spans="1:5">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="3"/>
       <c r="B328" s="3"/>
       <c r="E328" s="3"/>
     </row>
-    <row r="329" spans="1:5">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="3"/>
       <c r="B329" s="3"/>
       <c r="E329" s="3"/>
     </row>
-    <row r="330" spans="1:5">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="3"/>
       <c r="B330" s="3"/>
       <c r="E330" s="3"/>
     </row>
-    <row r="331" spans="1:5">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="3"/>
       <c r="B331" s="3"/>
       <c r="E331" s="3"/>
     </row>
-    <row r="332" spans="1:5">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="3"/>
       <c r="B332" s="3"/>
       <c r="E332" s="3"/>
     </row>
-    <row r="333" spans="1:5">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="3"/>
       <c r="B333" s="3"/>
       <c r="E333" s="3"/>
     </row>
-    <row r="334" spans="1:5">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="3"/>
       <c r="B334" s="3"/>
       <c r="E334" s="3"/>
     </row>
-    <row r="335" spans="1:5">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="3"/>
       <c r="B335" s="3"/>
       <c r="E335" s="3"/>
     </row>
-    <row r="336" spans="1:5">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="3"/>
       <c r="B336" s="3"/>
       <c r="E336" s="3"/>
     </row>
-    <row r="337" spans="1:5">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="3"/>
       <c r="B337" s="3"/>
       <c r="E337" s="3"/>
     </row>
-    <row r="338" spans="1:5">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="3"/>
       <c r="B338" s="3"/>
       <c r="E338" s="3"/>
     </row>
-    <row r="339" spans="1:5">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="3"/>
       <c r="B339" s="3"/>
       <c r="E339" s="3"/>
     </row>
-    <row r="340" spans="1:5">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="3"/>
       <c r="B340" s="3"/>
       <c r="E340" s="3"/>
     </row>
-    <row r="341" spans="1:5">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="3"/>
       <c r="B341" s="3"/>
       <c r="E341" s="3"/>
     </row>
-    <row r="342" spans="1:5">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="3"/>
       <c r="B342" s="3"/>
       <c r="E342" s="3"/>
     </row>
-    <row r="343" spans="1:5">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="3"/>
       <c r="B343" s="3"/>
       <c r="E343" s="3"/>
     </row>
-    <row r="344" spans="1:5">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="3"/>
       <c r="B344" s="3"/>
       <c r="E344" s="3"/>
     </row>
-    <row r="345" spans="1:5">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="3"/>
       <c r="B345" s="3"/>
       <c r="E345" s="3"/>
     </row>
-    <row r="346" spans="1:5">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="3"/>
       <c r="B346" s="3"/>
       <c r="E346" s="3"/>
     </row>
-    <row r="347" spans="1:5">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="3"/>
       <c r="B347" s="3"/>
       <c r="E347" s="3"/>
     </row>
-    <row r="348" spans="1:5">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="3"/>
       <c r="B348" s="3"/>
       <c r="E348" s="3"/>
     </row>
-    <row r="349" spans="1:5">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="3"/>
       <c r="B349" s="3"/>
       <c r="E349" s="3"/>
     </row>
-    <row r="350" spans="1:5">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="3"/>
       <c r="B350" s="3"/>
       <c r="E350" s="3"/>
     </row>
-    <row r="351" spans="1:5">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="3"/>
       <c r="B351" s="3"/>
       <c r="E351" s="3"/>
     </row>
-    <row r="352" spans="1:5">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="3"/>
       <c r="B352" s="3"/>
       <c r="E352" s="3"/>
     </row>
-    <row r="353" spans="1:5">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="3"/>
       <c r="B353" s="3"/>
       <c r="E353" s="3"/>
     </row>
-    <row r="354" spans="1:5">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="3"/>
       <c r="B354" s="3"/>
       <c r="E354" s="3"/>
     </row>
-    <row r="355" spans="1:5">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="3"/>
       <c r="B355" s="3"/>
       <c r="E355" s="3"/>
     </row>
-    <row r="356" spans="1:5">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="3"/>
       <c r="B356" s="3"/>
       <c r="E356" s="3"/>
     </row>
-    <row r="357" spans="1:5">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="3"/>
       <c r="B357" s="3"/>
       <c r="E357" s="3"/>
     </row>
-    <row r="358" spans="1:5">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="3"/>
       <c r="B358" s="3"/>
       <c r="E358" s="3"/>
     </row>
-    <row r="359" spans="1:5">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="3"/>
       <c r="B359" s="3"/>
       <c r="E359" s="3"/>
     </row>
-    <row r="360" spans="1:5">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="3"/>
       <c r="B360" s="3"/>
       <c r="E360" s="3"/>
     </row>
-    <row r="361" spans="1:5">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="3"/>
       <c r="B361" s="3"/>
       <c r="E361" s="3"/>
     </row>
-    <row r="362" spans="1:5">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="3"/>
       <c r="B362" s="3"/>
       <c r="E362" s="3"/>
     </row>
-    <row r="363" spans="1:5">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="3"/>
       <c r="B363" s="3"/>
       <c r="E363" s="3"/>
     </row>
-    <row r="364" spans="1:5">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="3"/>
       <c r="B364" s="3"/>
       <c r="E364" s="3"/>
     </row>
-    <row r="365" spans="1:5">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="3"/>
       <c r="B365" s="3"/>
       <c r="E365" s="3"/>
     </row>
-    <row r="366" spans="1:5">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="3"/>
       <c r="B366" s="3"/>
       <c r="E366" s="3"/>
     </row>
-    <row r="367" spans="1:5">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="3"/>
       <c r="B367" s="3"/>
       <c r="E367" s="3"/>
     </row>
-    <row r="368" spans="1:5">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="3"/>
       <c r="B368" s="3"/>
       <c r="E368" s="3"/>
     </row>
-    <row r="369" spans="1:5">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="3"/>
       <c r="B369" s="3"/>
       <c r="E369" s="3"/>
     </row>
-    <row r="370" spans="1:5">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="3"/>
       <c r="B370" s="3"/>
       <c r="E370" s="3"/>
     </row>
-    <row r="371" spans="1:5">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="3"/>
       <c r="B371" s="3"/>
       <c r="E371" s="3"/>
     </row>
-    <row r="372" spans="1:5">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="3"/>
       <c r="B372" s="3"/>
       <c r="E372" s="3"/>
     </row>
-    <row r="373" spans="1:5">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="3"/>
       <c r="B373" s="3"/>
       <c r="E373" s="3"/>
     </row>
-    <row r="374" spans="1:5">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="3"/>
       <c r="B374" s="3"/>
       <c r="E374" s="3"/>
     </row>
-    <row r="375" spans="1:5">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="3"/>
       <c r="B375" s="3"/>
       <c r="E375" s="3"/>
     </row>
-    <row r="376" spans="1:5">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="3"/>
       <c r="B376" s="3"/>
       <c r="E376" s="3"/>
     </row>
-    <row r="377" spans="1:5">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="3"/>
       <c r="B377" s="3"/>
       <c r="E377" s="3"/>
     </row>
-    <row r="378" spans="1:5">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="3"/>
       <c r="B378" s="3"/>
       <c r="E378" s="3"/>
     </row>
-    <row r="379" spans="1:5">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="3"/>
       <c r="B379" s="3"/>
       <c r="E379" s="3"/>
     </row>
-    <row r="380" spans="1:5">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="3"/>
       <c r="B380" s="3"/>
       <c r="E380" s="3"/>
     </row>
-    <row r="381" spans="1:5">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="3"/>
       <c r="B381" s="3"/>
       <c r="E381" s="3"/>
     </row>
-    <row r="382" spans="1:5">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="3"/>
       <c r="B382" s="3"/>
       <c r="E382" s="3"/>
     </row>
-    <row r="383" spans="1:5">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="3"/>
       <c r="B383" s="3"/>
       <c r="E383" s="3"/>
     </row>
-    <row r="384" spans="1:5">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="3"/>
       <c r="B384" s="3"/>
       <c r="E384" s="3"/>
     </row>
-    <row r="385" spans="1:5">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="3"/>
       <c r="B385" s="3"/>
       <c r="E385" s="3"/>
     </row>
-    <row r="386" spans="1:5">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="3"/>
       <c r="B386" s="3"/>
       <c r="E386" s="3"/>
     </row>
-    <row r="387" spans="1:5">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" s="3"/>
       <c r="B387" s="3"/>
       <c r="E387" s="3"/>
     </row>
-    <row r="388" spans="1:5">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="3"/>
       <c r="B388" s="3"/>
       <c r="E388" s="3"/>
     </row>
-    <row r="389" spans="1:5">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="3"/>
       <c r="B389" s="3"/>
       <c r="E389" s="3"/>
     </row>
-    <row r="390" spans="1:5">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" s="3"/>
       <c r="B390" s="3"/>
       <c r="E390" s="3"/>
     </row>
-    <row r="391" spans="1:5">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" s="3"/>
       <c r="B391" s="3"/>
       <c r="E391" s="3"/>
     </row>
-    <row r="392" spans="1:5">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" s="3"/>
       <c r="B392" s="3"/>
       <c r="E392" s="3"/>
     </row>
-    <row r="393" spans="1:5">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" s="3"/>
       <c r="B393" s="3"/>
       <c r="E393" s="3"/>
     </row>
-    <row r="394" spans="1:5">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="3"/>
       <c r="B394" s="3"/>
       <c r="E394" s="3"/>
     </row>
-    <row r="395" spans="1:5">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="3"/>
       <c r="B395" s="3"/>
       <c r="E395" s="3"/>
     </row>
-    <row r="396" spans="1:5">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" s="3"/>
       <c r="B396" s="3"/>
       <c r="E396" s="3"/>
     </row>
-    <row r="397" spans="1:5">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" s="3"/>
       <c r="B397" s="3"/>
       <c r="E397" s="3"/>
     </row>
-    <row r="398" spans="1:5">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" s="3"/>
       <c r="B398" s="3"/>
       <c r="E398" s="3"/>
     </row>
-    <row r="399" spans="1:5">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" s="3"/>
       <c r="B399" s="3"/>
       <c r="E399" s="3"/>
     </row>
-    <row r="400" spans="1:5">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="3"/>
       <c r="B400" s="3"/>
       <c r="E400" s="3"/>
     </row>
-    <row r="401" spans="1:5">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" s="3"/>
       <c r="B401" s="3"/>
       <c r="E401" s="3"/>
     </row>
-    <row r="402" spans="1:5">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" s="3"/>
       <c r="B402" s="3"/>
       <c r="E402" s="3"/>
     </row>
-    <row r="403" spans="1:5">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" s="3"/>
       <c r="B403" s="3"/>
       <c r="E403" s="3"/>
     </row>
-    <row r="404" spans="1:5">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" s="3"/>
       <c r="B404" s="3"/>
       <c r="E404" s="3"/>
     </row>
-    <row r="405" spans="1:5">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" s="3"/>
       <c r="B405" s="3"/>
       <c r="E405" s="3"/>
     </row>
-    <row r="406" spans="1:5">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" s="3"/>
       <c r="B406" s="3"/>
       <c r="E406" s="3"/>
     </row>
-    <row r="407" spans="1:5">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" s="3"/>
       <c r="B407" s="3"/>
       <c r="E407" s="3"/>
     </row>
-    <row r="408" spans="1:5">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" s="3"/>
       <c r="B408" s="3"/>
       <c r="E408" s="3"/>
     </row>
-    <row r="409" spans="1:5">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" s="3"/>
       <c r="B409" s="3"/>
       <c r="E409" s="3"/>
     </row>
-    <row r="410" spans="1:5">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" s="3"/>
       <c r="B410" s="3"/>
       <c r="E410" s="3"/>
     </row>
-    <row r="411" spans="1:5">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" s="3"/>
       <c r="B411" s="3"/>
       <c r="E411" s="3"/>
     </row>
-    <row r="412" spans="1:5">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" s="3"/>
       <c r="B412" s="3"/>
       <c r="E412" s="3"/>
     </row>
-    <row r="413" spans="1:5">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" s="3"/>
       <c r="B413" s="3"/>
       <c r="E413" s="3"/>
     </row>
-    <row r="414" spans="1:5">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" s="3"/>
       <c r="B414" s="3"/>
       <c r="E414" s="3"/>
     </row>
-    <row r="415" spans="1:5">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" s="3"/>
       <c r="B415" s="3"/>
       <c r="E415" s="3"/>
     </row>
-    <row r="416" spans="1:5">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" s="3"/>
       <c r="B416" s="3"/>
       <c r="E416" s="3"/>
     </row>
-    <row r="417" spans="1:5">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" s="3"/>
       <c r="B417" s="3"/>
       <c r="E417" s="3"/>
     </row>
-    <row r="418" spans="1:5">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" s="3"/>
       <c r="B418" s="3"/>
       <c r="E418" s="3"/>
     </row>
-    <row r="419" spans="1:5">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" s="3"/>
       <c r="B419" s="3"/>
       <c r="E419" s="3"/>
     </row>
-    <row r="420" spans="1:5">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" s="3"/>
       <c r="B420" s="3"/>
       <c r="E420" s="3"/>
     </row>
-    <row r="421" spans="1:5">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" s="3"/>
       <c r="B421" s="3"/>
       <c r="E421" s="3"/>
     </row>
-    <row r="422" spans="1:5">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" s="3"/>
       <c r="B422" s="3"/>
       <c r="E422" s="3"/>
     </row>
-    <row r="423" spans="1:5">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" s="3"/>
       <c r="B423" s="3"/>
       <c r="E423" s="3"/>
     </row>
-    <row r="424" spans="1:5">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" s="3"/>
       <c r="B424" s="3"/>
       <c r="E424" s="3"/>
     </row>
-    <row r="425" spans="1:5">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" s="3"/>
       <c r="B425" s="3"/>
       <c r="E425" s="3"/>
     </row>
-    <row r="426" spans="1:5">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" s="3"/>
       <c r="B426" s="3"/>
       <c r="E426" s="3"/>
     </row>
-    <row r="427" spans="1:5">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" s="3"/>
       <c r="B427" s="3"/>
       <c r="E427" s="3"/>
     </row>
-    <row r="428" spans="1:5">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" s="3"/>
       <c r="B428" s="3"/>
       <c r="E428" s="3"/>
     </row>
-    <row r="429" spans="1:5">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" s="3"/>
       <c r="B429" s="3"/>
       <c r="E429" s="3"/>
     </row>
-    <row r="430" spans="1:5">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" s="3"/>
       <c r="B430" s="3"/>
       <c r="E430" s="3"/>
     </row>
-    <row r="431" spans="1:5">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" s="3"/>
       <c r="B431" s="3"/>
       <c r="E431" s="3"/>
     </row>
-    <row r="432" spans="1:5">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" s="3"/>
       <c r="B432" s="3"/>
       <c r="E432" s="3"/>
     </row>
-    <row r="433" spans="1:5">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" s="3"/>
       <c r="B433" s="3"/>
       <c r="E433" s="3"/>
     </row>
-    <row r="434" spans="1:5">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" s="3"/>
       <c r="B434" s="3"/>
       <c r="E434" s="3"/>
     </row>
-    <row r="435" spans="1:5">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" s="3"/>
       <c r="B435" s="3"/>
       <c r="E435" s="3"/>
     </row>
-    <row r="436" spans="1:5">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" s="3"/>
       <c r="B436" s="3"/>
       <c r="E436" s="3"/>
     </row>
-    <row r="437" spans="1:5">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" s="3"/>
       <c r="B437" s="3"/>
       <c r="E437" s="3"/>
     </row>
-    <row r="438" spans="1:5">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" s="3"/>
       <c r="B438" s="3"/>
       <c r="E438" s="3"/>
     </row>
-    <row r="439" spans="1:5">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" s="3"/>
       <c r="B439" s="3"/>
       <c r="E439" s="3"/>
     </row>
-    <row r="440" spans="1:5">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" s="3"/>
       <c r="B440" s="3"/>
       <c r="E440" s="3"/>
     </row>
-    <row r="441" spans="1:5">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" s="3"/>
       <c r="B441" s="3"/>
       <c r="E441" s="3"/>
     </row>
-    <row r="442" spans="1:5">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" s="3"/>
       <c r="B442" s="3"/>
       <c r="E442" s="3"/>
     </row>
-    <row r="443" spans="1:5">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" s="3"/>
       <c r="B443" s="3"/>
       <c r="E443" s="3"/>
     </row>
-    <row r="444" spans="1:5">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" s="3"/>
       <c r="B444" s="3"/>
       <c r="E444" s="3"/>
     </row>
-    <row r="445" spans="1:5">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" s="3"/>
       <c r="B445" s="3"/>
       <c r="E445" s="3"/>
     </row>
-    <row r="446" spans="1:5">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" s="3"/>
       <c r="B446" s="3"/>
       <c r="E446" s="3"/>
     </row>
-    <row r="447" spans="1:5">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" s="3"/>
       <c r="B447" s="3"/>
       <c r="E447" s="3"/>
     </row>
-    <row r="448" spans="1:5">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" s="3"/>
       <c r="B448" s="3"/>
       <c r="E448" s="3"/>
     </row>
-    <row r="449" spans="1:5">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" s="3"/>
       <c r="B449" s="3"/>
       <c r="E449" s="3"/>
     </row>
-    <row r="450" spans="1:5">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" s="3"/>
       <c r="B450" s="3"/>
       <c r="E450" s="3"/>
     </row>
-    <row r="451" spans="1:5">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" s="3"/>
       <c r="B451" s="3"/>
       <c r="E451" s="3"/>
     </row>
-    <row r="452" spans="1:5">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" s="3"/>
       <c r="B452" s="3"/>
       <c r="E452" s="3"/>
     </row>
-    <row r="453" spans="1:5">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" s="3"/>
       <c r="B453" s="3"/>
       <c r="E453" s="3"/>
     </row>
-    <row r="454" spans="1:5">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454" s="3"/>
       <c r="B454" s="3"/>
       <c r="E454" s="3"/>
     </row>
-    <row r="455" spans="1:5">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455" s="3"/>
       <c r="B455" s="3"/>
       <c r="E455" s="3"/>
     </row>
-    <row r="456" spans="1:5">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456" s="3"/>
       <c r="B456" s="3"/>
       <c r="E456" s="3"/>
     </row>
-    <row r="457" spans="1:5">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457" s="3"/>
       <c r="B457" s="3"/>
       <c r="E457" s="3"/>
     </row>
-    <row r="458" spans="1:5">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458" s="3"/>
       <c r="B458" s="3"/>
       <c r="E458" s="3"/>
     </row>
-    <row r="459" spans="1:5">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459" s="3"/>
       <c r="B459" s="3"/>
       <c r="E459" s="3"/>
     </row>
-    <row r="460" spans="1:5">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460" s="3"/>
       <c r="B460" s="3"/>
       <c r="E460" s="3"/>
     </row>
-    <row r="461" spans="1:5">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461" s="3"/>
       <c r="B461" s="3"/>
       <c r="E461" s="3"/>
     </row>
-    <row r="462" spans="1:5">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462" s="3"/>
       <c r="B462" s="3"/>
       <c r="E462" s="3"/>
     </row>
-    <row r="463" spans="1:5">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463" s="3"/>
       <c r="B463" s="3"/>
       <c r="E463" s="3"/>
     </row>
-    <row r="464" spans="1:5">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464" s="3"/>
       <c r="B464" s="3"/>
       <c r="E464" s="3"/>
     </row>
-    <row r="465" spans="1:5">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465" s="3"/>
       <c r="B465" s="3"/>
       <c r="E465" s="3"/>
     </row>
-    <row r="466" spans="1:5">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466" s="3"/>
       <c r="B466" s="3"/>
       <c r="E466" s="3"/>
     </row>
-    <row r="467" spans="1:5">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467" s="3"/>
       <c r="B467" s="3"/>
       <c r="E467" s="3"/>
     </row>
-    <row r="468" spans="1:5">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468" s="3"/>
       <c r="B468" s="3"/>
       <c r="E468" s="3"/>
     </row>
-    <row r="469" spans="1:5">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469" s="3"/>
       <c r="B469" s="3"/>
       <c r="E469" s="3"/>
     </row>
-    <row r="470" spans="1:5">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470" s="3"/>
       <c r="B470" s="3"/>
       <c r="E470" s="3"/>
     </row>
-    <row r="471" spans="1:5">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471" s="3"/>
       <c r="B471" s="3"/>
       <c r="E471" s="3"/>
     </row>
-    <row r="472" spans="1:5">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472" s="3"/>
       <c r="B472" s="3"/>
       <c r="E472" s="3"/>
     </row>
-    <row r="473" spans="1:5">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473" s="3"/>
       <c r="B473" s="3"/>
       <c r="E473" s="3"/>
     </row>
-    <row r="474" spans="1:5">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474" s="3"/>
       <c r="B474" s="3"/>
       <c r="E474" s="3"/>
     </row>
-    <row r="475" spans="1:5">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475" s="3"/>
       <c r="B475" s="3"/>
       <c r="E475" s="3"/>
     </row>
-    <row r="476" spans="1:5">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476" s="3"/>
       <c r="B476" s="3"/>
       <c r="E476" s="3"/>
     </row>
-    <row r="477" spans="1:5">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477" s="3"/>
       <c r="B477" s="3"/>
       <c r="E477" s="3"/>
     </row>
-    <row r="478" spans="1:5">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478" s="3"/>
       <c r="B478" s="3"/>
       <c r="E478" s="3"/>
     </row>
-    <row r="479" spans="1:5">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479" s="3"/>
       <c r="B479" s="3"/>
       <c r="E479" s="3"/>
     </row>
-    <row r="480" spans="1:5">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480" s="3"/>
       <c r="B480" s="3"/>
       <c r="E480" s="3"/>
     </row>
-    <row r="481" spans="1:5">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481" s="3"/>
       <c r="B481" s="3"/>
       <c r="E481" s="3"/>
     </row>
-    <row r="482" spans="1:5">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482" s="3"/>
       <c r="B482" s="3"/>
       <c r="E482" s="3"/>
     </row>
-    <row r="483" spans="1:5">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483" s="3"/>
       <c r="B483" s="3"/>
       <c r="E483" s="3"/>
     </row>
-    <row r="484" spans="1:5">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484" s="3"/>
       <c r="B484" s="3"/>
       <c r="E484" s="3"/>
     </row>
-    <row r="485" spans="1:5">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485" s="3"/>
       <c r="B485" s="3"/>
       <c r="E485" s="3"/>
     </row>
-    <row r="486" spans="1:5">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486" s="3"/>
       <c r="B486" s="3"/>
       <c r="E486" s="3"/>
     </row>
-    <row r="487" spans="1:5">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487" s="3"/>
       <c r="B487" s="3"/>
       <c r="E487" s="3"/>
     </row>
-    <row r="488" spans="1:5">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488" s="3"/>
       <c r="B488" s="3"/>
       <c r="E488" s="3"/>
     </row>
-    <row r="489" spans="1:5">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489" s="3"/>
       <c r="B489" s="3"/>
       <c r="E489" s="3"/>
     </row>
-    <row r="490" spans="1:5">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490" s="3"/>
       <c r="B490" s="3"/>
       <c r="E490" s="3"/>
     </row>
-    <row r="491" spans="1:5">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491" s="3"/>
       <c r="B491" s="3"/>
       <c r="E491" s="3"/>
     </row>
-    <row r="492" spans="1:5">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492" s="3"/>
       <c r="B492" s="3"/>
       <c r="E492" s="3"/>
     </row>
-    <row r="493" spans="1:5">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A493" s="3"/>
       <c r="B493" s="3"/>
       <c r="E493" s="3"/>
     </row>
-    <row r="494" spans="1:5">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494" s="3"/>
       <c r="B494" s="3"/>
       <c r="E494" s="3"/>
     </row>
-    <row r="495" spans="1:5">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495" s="3"/>
       <c r="B495" s="3"/>
       <c r="E495" s="3"/>
     </row>
-    <row r="496" spans="1:5">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496" s="3"/>
       <c r="B496" s="3"/>
       <c r="E496" s="3"/>
     </row>
-    <row r="497" spans="1:5">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497" s="3"/>
       <c r="B497" s="3"/>
       <c r="E497" s="3"/>
     </row>
-    <row r="498" spans="1:5">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498" s="3"/>
       <c r="B498" s="3"/>
       <c r="E498" s="3"/>
     </row>
-    <row r="499" spans="1:5">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499" s="3"/>
       <c r="B499" s="3"/>
       <c r="E499" s="3"/>
     </row>
-    <row r="500" spans="1:5">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500" s="3"/>
       <c r="B500" s="3"/>
       <c r="E500" s="3"/>
     </row>
-    <row r="501" spans="1:5">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501" s="3"/>
       <c r="B501" s="3"/>
       <c r="E501" s="3"/>
     </row>
-    <row r="502" spans="1:5">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A502" s="3"/>
       <c r="B502" s="3"/>
       <c r="E502" s="3"/>
     </row>
-    <row r="503" spans="1:5">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A503" s="3"/>
       <c r="B503" s="3"/>
       <c r="E503" s="3"/>
     </row>
-    <row r="504" spans="1:5">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A504" s="3"/>
       <c r="B504" s="3"/>
       <c r="E504" s="3"/>
     </row>
-    <row r="505" spans="1:5">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A505" s="3"/>
       <c r="B505" s="3"/>
       <c r="E505" s="3"/>
     </row>
-    <row r="506" spans="1:5">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A506" s="3"/>
       <c r="B506" s="3"/>
       <c r="E506" s="3"/>
     </row>
-    <row r="507" spans="1:5">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A507" s="3"/>
       <c r="B507" s="3"/>
       <c r="E507" s="3"/>
     </row>
-    <row r="508" spans="1:5">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A508" s="3"/>
       <c r="B508" s="3"/>
       <c r="E508" s="3"/>
     </row>
-    <row r="509" spans="1:5">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A509" s="3"/>
       <c r="B509" s="3"/>
       <c r="E509" s="3"/>
     </row>
-    <row r="510" spans="1:5">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A510" s="3"/>
       <c r="B510" s="3"/>
       <c r="E510" s="3"/>
     </row>
-    <row r="511" spans="1:5">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A511" s="3"/>
       <c r="B511" s="3"/>
       <c r="E511" s="3"/>
     </row>
-    <row r="512" spans="1:5">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A512" s="3"/>
       <c r="B512" s="3"/>
       <c r="E512" s="3"/>
     </row>
-    <row r="513" spans="1:5">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A513" s="3"/>
       <c r="B513" s="3"/>
       <c r="E513" s="3"/>
     </row>
-    <row r="514" spans="1:5">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A514" s="3"/>
       <c r="B514" s="3"/>
       <c r="E514" s="3"/>
     </row>
-    <row r="515" spans="1:5">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A515" s="3"/>
       <c r="B515" s="3"/>
       <c r="E515" s="3"/>
     </row>
-    <row r="516" spans="1:5">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A516" s="3"/>
       <c r="B516" s="3"/>
       <c r="E516" s="3"/>
     </row>
-    <row r="517" spans="1:5">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A517" s="3"/>
       <c r="B517" s="3"/>
       <c r="E517" s="3"/>
     </row>
-    <row r="518" spans="1:5">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A518" s="3"/>
       <c r="B518" s="3"/>
       <c r="E518" s="3"/>
     </row>
-    <row r="519" spans="1:5">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A519" s="3"/>
       <c r="B519" s="3"/>
       <c r="E519" s="3"/>
     </row>
-    <row r="520" spans="1:5">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A520" s="3"/>
       <c r="B520" s="3"/>
       <c r="E520" s="3"/>
     </row>
-    <row r="521" spans="1:5">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A521" s="3"/>
       <c r="B521" s="3"/>
       <c r="E521" s="3"/>
     </row>
-    <row r="522" spans="1:5">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A522" s="3"/>
       <c r="B522" s="3"/>
       <c r="E522" s="3"/>
     </row>
-    <row r="523" spans="1:5">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A523" s="3"/>
       <c r="B523" s="3"/>
       <c r="E523" s="3"/>
     </row>
-    <row r="524" spans="1:5">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A524" s="3"/>
       <c r="B524" s="3"/>
       <c r="E524" s="3"/>
     </row>
-    <row r="525" spans="1:5">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A525" s="3"/>
       <c r="B525" s="3"/>
       <c r="E525" s="3"/>
     </row>
-    <row r="526" spans="1:5">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A526" s="3"/>
       <c r="B526" s="3"/>
       <c r="E526" s="3"/>
     </row>
-    <row r="527" spans="1:5">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A527" s="3"/>
       <c r="B527" s="3"/>
       <c r="E527" s="3"/>
     </row>
-    <row r="528" spans="1:5">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A528" s="3"/>
       <c r="B528" s="3"/>
       <c r="E528" s="3"/>
     </row>
-    <row r="529" spans="1:5">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A529" s="3"/>
       <c r="B529" s="3"/>
       <c r="E529" s="3"/>
     </row>
-    <row r="530" spans="1:5">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A530" s="3"/>
       <c r="B530" s="3"/>
       <c r="E530" s="3"/>
     </row>
-    <row r="531" spans="1:5">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A531" s="3"/>
       <c r="B531" s="3"/>
       <c r="E531" s="3"/>
     </row>
-    <row r="532" spans="1:5">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A532" s="3"/>
       <c r="B532" s="3"/>
       <c r="E532" s="3"/>
     </row>
-    <row r="533" spans="1:5">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A533" s="3"/>
       <c r="B533" s="3"/>
       <c r="E533" s="3"/>
     </row>
-    <row r="534" spans="1:5">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A534" s="3"/>
       <c r="B534" s="3"/>
       <c r="E534" s="3"/>
     </row>
-    <row r="535" spans="1:5">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A535" s="3"/>
       <c r="B535" s="3"/>
       <c r="E535" s="3"/>
     </row>
-    <row r="536" spans="1:5">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A536" s="3"/>
       <c r="B536" s="3"/>
       <c r="E536" s="3"/>
     </row>
-    <row r="537" spans="1:5">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A537" s="3"/>
       <c r="B537" s="3"/>
       <c r="E537" s="3"/>
     </row>
-    <row r="538" spans="1:5">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A538" s="3"/>
       <c r="B538" s="3"/>
       <c r="E538" s="3"/>
     </row>
-    <row r="539" spans="1:5">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A539" s="3"/>
       <c r="B539" s="3"/>
       <c r="E539" s="3"/>
     </row>
-    <row r="540" spans="1:5">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A540" s="3"/>
       <c r="B540" s="3"/>
       <c r="E540" s="3"/>
     </row>
-    <row r="541" spans="1:5">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A541" s="3"/>
       <c r="B541" s="3"/>
       <c r="E541" s="3"/>
     </row>
-    <row r="542" spans="1:5">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A542" s="3"/>
       <c r="B542" s="3"/>
       <c r="E542" s="3"/>
     </row>
-    <row r="543" spans="1:5">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A543" s="3"/>
       <c r="B543" s="3"/>
       <c r="E543" s="3"/>
     </row>
-    <row r="544" spans="1:5">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A544" s="3"/>
       <c r="B544" s="3"/>
       <c r="E544" s="3"/>
     </row>
-    <row r="545" spans="1:5">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A545" s="3"/>
       <c r="B545" s="3"/>
       <c r="E545" s="3"/>
     </row>
-    <row r="546" spans="1:5">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A546" s="3"/>
       <c r="B546" s="3"/>
       <c r="E546" s="3"/>
     </row>
-    <row r="547" spans="1:5">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A547" s="3"/>
       <c r="B547" s="3"/>
       <c r="E547" s="3"/>
     </row>
-    <row r="548" spans="1:5">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A548" s="3"/>
       <c r="B548" s="3"/>
       <c r="E548" s="3"/>
     </row>
-    <row r="549" spans="1:5">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A549" s="3"/>
       <c r="B549" s="3"/>
       <c r="E549" s="3"/>
     </row>
-    <row r="550" spans="1:5">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A550" s="3"/>
       <c r="B550" s="3"/>
       <c r="E550" s="3"/>
     </row>
-    <row r="551" spans="1:5">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A551" s="3"/>
       <c r="B551" s="3"/>
       <c r="E551" s="3"/>
     </row>
-    <row r="552" spans="1:5">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A552" s="3"/>
       <c r="B552" s="3"/>
       <c r="E552" s="3"/>
     </row>
-    <row r="553" spans="1:5">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A553" s="3"/>
       <c r="B553" s="3"/>
       <c r="E553" s="3"/>
     </row>
-    <row r="554" spans="1:5">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A554" s="3"/>
       <c r="B554" s="3"/>
       <c r="E554" s="3"/>
     </row>
-    <row r="555" spans="1:5">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A555" s="3"/>
       <c r="B555" s="3"/>
       <c r="E555" s="3"/>
     </row>
-    <row r="556" spans="1:5">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A556" s="3"/>
       <c r="B556" s="3"/>
       <c r="E556" s="3"/>
     </row>
-    <row r="557" spans="1:5">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A557" s="3"/>
       <c r="B557" s="3"/>
       <c r="E557" s="3"/>
     </row>
-    <row r="558" spans="1:5">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A558" s="3"/>
       <c r="B558" s="3"/>
       <c r="E558" s="3"/>
     </row>
-    <row r="559" spans="1:5">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A559" s="3"/>
       <c r="B559" s="3"/>
       <c r="E559" s="3"/>
     </row>
-    <row r="560" spans="1:5">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A560" s="3"/>
       <c r="B560" s="3"/>
       <c r="E560" s="3"/>
     </row>
-    <row r="561" spans="1:5">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A561" s="3"/>
       <c r="B561" s="3"/>
       <c r="E561" s="3"/>
     </row>
-    <row r="562" spans="1:5">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A562" s="3"/>
       <c r="B562" s="3"/>
       <c r="E562" s="3"/>
     </row>
-    <row r="563" spans="1:5">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A563" s="3"/>
       <c r="B563" s="3"/>
       <c r="E563" s="3"/>
     </row>
-    <row r="564" spans="1:5">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A564" s="3"/>
       <c r="B564" s="3"/>
       <c r="E564" s="3"/>
     </row>
-    <row r="565" spans="1:5">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A565" s="3"/>
       <c r="B565" s="3"/>
       <c r="E565" s="3"/>
     </row>
-    <row r="566" spans="1:5">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A566" s="3"/>
       <c r="B566" s="3"/>
       <c r="E566" s="3"/>
     </row>
-    <row r="567" spans="1:5">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A567" s="3"/>
       <c r="B567" s="3"/>
       <c r="E567" s="3"/>
     </row>
-    <row r="568" spans="1:5">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A568" s="3"/>
       <c r="B568" s="3"/>
       <c r="E568" s="3"/>
     </row>
-    <row r="569" spans="1:5">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A569" s="3"/>
       <c r="B569" s="3"/>
       <c r="E569" s="3"/>
     </row>
-    <row r="570" spans="1:5">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A570" s="3"/>
       <c r="B570" s="3"/>
       <c r="E570" s="3"/>
     </row>
-    <row r="571" spans="1:5">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A571" s="3"/>
       <c r="B571" s="3"/>
       <c r="E571" s="3"/>
     </row>
-    <row r="572" spans="1:5">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A572" s="3"/>
       <c r="B572" s="3"/>
       <c r="E572" s="3"/>
     </row>
-    <row r="573" spans="1:5">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A573" s="3"/>
       <c r="B573" s="3"/>
       <c r="E573" s="3"/>
     </row>
-    <row r="574" spans="1:5">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A574" s="3"/>
       <c r="B574" s="3"/>
       <c r="E574" s="3"/>
     </row>
-    <row r="575" spans="1:5">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A575" s="3"/>
       <c r="B575" s="3"/>
       <c r="E575" s="3"/>
     </row>
-    <row r="576" spans="1:5">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A576" s="3"/>
       <c r="B576" s="3"/>
       <c r="E576" s="3"/>
     </row>
-    <row r="577" spans="1:5">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A577" s="3"/>
       <c r="B577" s="3"/>
       <c r="E577" s="3"/>
     </row>
-    <row r="578" spans="1:5">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A578" s="3"/>
       <c r="B578" s="3"/>
       <c r="E578" s="3"/>
     </row>
-    <row r="579" spans="1:5">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A579" s="3"/>
       <c r="B579" s="3"/>
       <c r="E579" s="3"/>
     </row>
-    <row r="580" spans="1:5">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A580" s="3"/>
       <c r="B580" s="3"/>
       <c r="E580" s="3"/>
     </row>
-    <row r="581" spans="1:5">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A581" s="3"/>
       <c r="B581" s="3"/>
       <c r="E581" s="3"/>
     </row>
-    <row r="582" spans="1:5">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A582" s="3"/>
       <c r="B582" s="3"/>
       <c r="E582" s="3"/>
     </row>
-    <row r="583" spans="1:5">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A583" s="3"/>
       <c r="B583" s="3"/>
       <c r="E583" s="3"/>
     </row>
-    <row r="584" spans="1:5">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A584" s="3"/>
       <c r="B584" s="3"/>
       <c r="E584" s="3"/>
     </row>
-    <row r="585" spans="1:5">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A585" s="3"/>
       <c r="B585" s="3"/>
       <c r="E585" s="3"/>
     </row>
-    <row r="586" spans="1:5">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A586" s="3"/>
       <c r="B586" s="3"/>
       <c r="E586" s="3"/>
     </row>
-    <row r="587" spans="1:5">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A587" s="3"/>
       <c r="B587" s="3"/>
       <c r="E587" s="3"/>
     </row>
-    <row r="588" spans="1:5">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A588" s="3"/>
       <c r="B588" s="3"/>
       <c r="E588" s="3"/>
     </row>
-    <row r="589" spans="1:5">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A589" s="3"/>
       <c r="B589" s="3"/>
       <c r="E589" s="3"/>
     </row>
-    <row r="590" spans="1:5">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A590" s="3"/>
       <c r="B590" s="3"/>
       <c r="E590" s="3"/>
     </row>
-    <row r="591" spans="1:5">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A591" s="3"/>
       <c r="B591" s="3"/>
       <c r="E591" s="3"/>
     </row>
-    <row r="592" spans="1:5">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A592" s="3"/>
       <c r="B592" s="3"/>
       <c r="E592" s="3"/>
     </row>
-    <row r="593" spans="1:5">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A593" s="3"/>
       <c r="B593" s="3"/>
       <c r="E593" s="3"/>
     </row>
-    <row r="594" spans="1:5">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A594" s="3"/>
       <c r="B594" s="3"/>
       <c r="E594" s="3"/>
     </row>
-    <row r="595" spans="1:5">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A595" s="3"/>
       <c r="B595" s="3"/>
       <c r="E595" s="3"/>
     </row>
-    <row r="596" spans="1:5">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A596" s="3"/>
       <c r="B596" s="3"/>
       <c r="E596" s="3"/>
     </row>
-    <row r="597" spans="1:5">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A597" s="3"/>
       <c r="B597" s="3"/>
       <c r="E597" s="3"/>
     </row>
-    <row r="598" spans="1:5">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A598" s="3"/>
       <c r="B598" s="3"/>
       <c r="E598" s="3"/>
     </row>
-    <row r="599" spans="1:5">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A599" s="3"/>
       <c r="B599" s="3"/>
       <c r="E599" s="3"/>
     </row>
-    <row r="600" spans="1:5">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A600" s="3"/>
       <c r="B600" s="3"/>
       <c r="E600" s="3"/>
     </row>
-    <row r="601" spans="1:5">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A601" s="3"/>
       <c r="B601" s="3"/>
       <c r="E601" s="3"/>
     </row>
-    <row r="602" spans="1:5">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A602" s="3"/>
       <c r="B602" s="3"/>
       <c r="E602" s="3"/>
     </row>
-    <row r="603" spans="1:5">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A603" s="3"/>
       <c r="B603" s="3"/>
       <c r="E603" s="3"/>
     </row>
-    <row r="604" spans="1:5">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A604" s="3"/>
       <c r="B604" s="3"/>
       <c r="E604" s="3"/>
     </row>
-    <row r="605" spans="1:5">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A605" s="3"/>
       <c r="B605" s="3"/>
       <c r="E605" s="3"/>
     </row>
-    <row r="606" spans="1:5">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A606" s="3"/>
       <c r="B606" s="3"/>
       <c r="E606" s="3"/>
     </row>
-    <row r="607" spans="1:5">
+    <row r="607" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A607" s="3"/>
       <c r="B607" s="3"/>
       <c r="E607" s="3"/>
     </row>
-    <row r="608" spans="1:5">
+    <row r="608" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A608" s="3"/>
       <c r="B608" s="3"/>
       <c r="E608" s="3"/>
     </row>
-    <row r="609" spans="1:5">
+    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A609" s="3"/>
       <c r="B609" s="3"/>
       <c r="E609" s="3"/>
     </row>
-    <row r="610" spans="1:5">
+    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A610" s="3"/>
       <c r="B610" s="3"/>
       <c r="E610" s="3"/>
     </row>
-    <row r="611" spans="1:5">
+    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A611" s="3"/>
       <c r="B611" s="3"/>
       <c r="E611" s="3"/>
     </row>
-    <row r="612" spans="1:5">
+    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A612" s="3"/>
       <c r="B612" s="3"/>
       <c r="E612" s="3"/>
     </row>
-    <row r="613" spans="1:5">
+    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A613" s="3"/>
       <c r="B613" s="3"/>
       <c r="E613" s="3"/>
     </row>
-    <row r="614" spans="1:5">
+    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A614" s="3"/>
       <c r="B614" s="3"/>
       <c r="E614" s="3"/>
     </row>
-    <row r="615" spans="1:5">
+    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A615" s="3"/>
       <c r="B615" s="3"/>
       <c r="E615" s="3"/>
     </row>
-    <row r="616" spans="1:5">
+    <row r="616" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A616" s="3"/>
       <c r="B616" s="3"/>
       <c r="E616" s="3"/>
     </row>
-    <row r="617" spans="1:5">
+    <row r="617" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A617" s="3"/>
       <c r="B617" s="3"/>
       <c r="E617" s="3"/>
     </row>
-    <row r="618" spans="1:5">
+    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A618" s="3"/>
       <c r="B618" s="3"/>
       <c r="E618" s="3"/>
     </row>
-    <row r="619" spans="1:5">
+    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A619" s="3"/>
       <c r="B619" s="3"/>
       <c r="E619" s="3"/>
     </row>
-    <row r="620" spans="1:5">
+    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A620" s="3"/>
       <c r="B620" s="3"/>
       <c r="E620" s="3"/>
     </row>
-    <row r="621" spans="1:5">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A621" s="3"/>
       <c r="B621" s="3"/>
       <c r="E621" s="3"/>
     </row>
-    <row r="622" spans="1:5">
+    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A622" s="3"/>
       <c r="B622" s="3"/>
       <c r="E622" s="3"/>
     </row>
-    <row r="623" spans="1:5">
+    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A623" s="3"/>
       <c r="B623" s="3"/>
       <c r="E623" s="3"/>
     </row>
-    <row r="624" spans="1:5">
+    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A624" s="3"/>
       <c r="B624" s="3"/>
       <c r="E624" s="3"/>
     </row>
-    <row r="625" spans="1:5">
+    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A625" s="3"/>
       <c r="B625" s="3"/>
       <c r="E625" s="3"/>
     </row>
-    <row r="626" spans="1:5">
+    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A626" s="3"/>
       <c r="B626" s="3"/>
       <c r="E626" s="3"/>
     </row>
-    <row r="627" spans="1:5">
+    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A627" s="3"/>
       <c r="B627" s="3"/>
       <c r="E627" s="3"/>
     </row>
-    <row r="628" spans="1:5">
+    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A628" s="3"/>
       <c r="B628" s="3"/>
       <c r="E628" s="3"/>
     </row>
-    <row r="629" spans="1:5">
+    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A629" s="3"/>
       <c r="B629" s="3"/>
       <c r="E629" s="3"/>
     </row>
-    <row r="630" spans="1:5">
+    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A630" s="3"/>
       <c r="B630" s="3"/>
       <c r="E630" s="3"/>
     </row>
-    <row r="631" spans="1:5">
+    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A631" s="3"/>
       <c r="B631" s="3"/>
       <c r="E631" s="3"/>
     </row>
-    <row r="632" spans="1:5">
+    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A632" s="3"/>
       <c r="B632" s="3"/>
       <c r="E632" s="3"/>
     </row>
-    <row r="633" spans="1:5">
+    <row r="633" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A633" s="3"/>
       <c r="B633" s="3"/>
       <c r="E633" s="3"/>
     </row>
-    <row r="634" spans="1:5">
+    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A634" s="3"/>
       <c r="B634" s="3"/>
       <c r="E634" s="3"/>
     </row>
-    <row r="635" spans="1:5">
+    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A635" s="3"/>
       <c r="B635" s="3"/>
       <c r="E635" s="3"/>
     </row>
-    <row r="636" spans="1:5">
+    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A636" s="3"/>
       <c r="B636" s="3"/>
       <c r="E636" s="3"/>
     </row>
-    <row r="637" spans="1:5">
+    <row r="637" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A637" s="3"/>
       <c r="B637" s="3"/>
       <c r="E637" s="3"/>
     </row>
-    <row r="638" spans="1:5">
+    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A638" s="3"/>
       <c r="B638" s="3"/>
       <c r="E638" s="3"/>
     </row>
-    <row r="639" spans="1:5">
+    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A639" s="3"/>
       <c r="B639" s="3"/>
       <c r="E639" s="3"/>
     </row>
-    <row r="640" spans="1:5">
+    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A640" s="3"/>
       <c r="B640" s="3"/>
       <c r="E640" s="3"/>
     </row>
-    <row r="641" spans="1:5">
+    <row r="641" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A641" s="3"/>
       <c r="B641" s="3"/>
       <c r="E641" s="3"/>
     </row>
-    <row r="642" spans="1:5">
+    <row r="642" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A642" s="3"/>
       <c r="B642" s="3"/>
       <c r="E642" s="3"/>
     </row>
-    <row r="643" spans="1:5">
+    <row r="643" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A643" s="3"/>
       <c r="B643" s="3"/>
       <c r="E643" s="3"/>
     </row>
-    <row r="644" spans="1:5">
+    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A644" s="3"/>
       <c r="B644" s="3"/>
       <c r="E644" s="3"/>
     </row>
-    <row r="645" spans="1:5">
+    <row r="645" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A645" s="3"/>
       <c r="B645" s="3"/>
       <c r="E645" s="3"/>
     </row>
-    <row r="646" spans="1:5">
+    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A646" s="3"/>
       <c r="B646" s="3"/>
       <c r="E646" s="3"/>
     </row>
-    <row r="647" spans="1:5">
+    <row r="647" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A647" s="3"/>
       <c r="B647" s="3"/>
       <c r="E647" s="3"/>
     </row>
-    <row r="648" spans="1:5">
+    <row r="648" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A648" s="3"/>
       <c r="B648" s="3"/>
       <c r="E648" s="3"/>
     </row>
-    <row r="649" spans="1:5">
+    <row r="649" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A649" s="3"/>
       <c r="B649" s="3"/>
       <c r="E649" s="3"/>
     </row>
-    <row r="650" spans="1:5">
+    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A650" s="3"/>
       <c r="B650" s="3"/>
       <c r="E650" s="3"/>
     </row>
-    <row r="651" spans="1:5">
+    <row r="651" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A651" s="3"/>
       <c r="B651" s="3"/>
       <c r="E651" s="3"/>
     </row>
-    <row r="652" spans="1:5">
+    <row r="652" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A652" s="3"/>
       <c r="B652" s="3"/>
       <c r="E652" s="3"/>
     </row>
-    <row r="653" spans="1:5">
+    <row r="653" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A653" s="3"/>
       <c r="B653" s="3"/>
       <c r="E653" s="3"/>
     </row>
-    <row r="654" spans="1:5">
+    <row r="654" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A654" s="3"/>
       <c r="B654" s="3"/>
       <c r="E654" s="3"/>
     </row>
-    <row r="655" spans="1:5">
+    <row r="655" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A655" s="3"/>
       <c r="B655" s="3"/>
       <c r="E655" s="3"/>
     </row>
-    <row r="656" spans="1:5">
+    <row r="656" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A656" s="3"/>
       <c r="B656" s="3"/>
       <c r="E656" s="3"/>
     </row>
-    <row r="657" spans="1:5">
+    <row r="657" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A657" s="3"/>
       <c r="B657" s="3"/>
       <c r="E657" s="3"/>
     </row>
-    <row r="658" spans="1:5">
+    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A658" s="3"/>
       <c r="B658" s="3"/>
       <c r="E658" s="3"/>
     </row>
-    <row r="659" spans="1:5">
+    <row r="659" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A659" s="3"/>
       <c r="B659" s="3"/>
       <c r="E659" s="3"/>
     </row>
-    <row r="660" spans="1:5">
+    <row r="660" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A660" s="3"/>
       <c r="B660" s="3"/>
       <c r="E660" s="3"/>
     </row>
-    <row r="661" spans="1:5">
+    <row r="661" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A661" s="3"/>
       <c r="B661" s="3"/>
       <c r="E661" s="3"/>
     </row>
-    <row r="662" spans="1:5">
+    <row r="662" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A662" s="3"/>
       <c r="B662" s="3"/>
       <c r="E662" s="3"/>
     </row>
-    <row r="663" spans="1:5">
+    <row r="663" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A663" s="3"/>
       <c r="B663" s="3"/>
       <c r="E663" s="3"/>
     </row>
-    <row r="664" spans="1:5">
+    <row r="664" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A664" s="3"/>
       <c r="B664" s="3"/>
       <c r="E664" s="3"/>
     </row>
-    <row r="665" spans="1:5">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A665" s="3"/>
       <c r="B665" s="3"/>
       <c r="E665" s="3"/>
     </row>
-    <row r="666" spans="1:5">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A666" s="3"/>
       <c r="B666" s="3"/>
       <c r="E666" s="3"/>
     </row>
-    <row r="667" spans="1:5">
+    <row r="667" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A667" s="3"/>
       <c r="B667" s="3"/>
       <c r="E667" s="3"/>
     </row>
-    <row r="668" spans="1:5">
+    <row r="668" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A668" s="3"/>
       <c r="B668" s="3"/>
       <c r="E668" s="3"/>
     </row>
-    <row r="669" spans="1:5">
+    <row r="669" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A669" s="3"/>
       <c r="B669" s="3"/>
       <c r="E669" s="3"/>
     </row>
-    <row r="670" spans="1:5">
+    <row r="670" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A670" s="3"/>
       <c r="B670" s="3"/>
       <c r="E670" s="3"/>
     </row>
-    <row r="671" spans="1:5">
+    <row r="671" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A671" s="3"/>
       <c r="B671" s="3"/>
       <c r="E671" s="3"/>
     </row>
-    <row r="672" spans="1:5">
+    <row r="672" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A672" s="3"/>
       <c r="B672" s="3"/>
       <c r="E672" s="3"/>
     </row>
-    <row r="673" spans="1:5">
+    <row r="673" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A673" s="3"/>
       <c r="B673" s="3"/>
       <c r="E673" s="3"/>
     </row>
-    <row r="674" spans="1:5">
+    <row r="674" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A674" s="3"/>
       <c r="B674" s="3"/>
       <c r="E674" s="3"/>
     </row>
-    <row r="675" spans="1:5">
+    <row r="675" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A675" s="3"/>
       <c r="B675" s="3"/>
       <c r="E675" s="3"/>
     </row>
-    <row r="676" spans="1:5">
+    <row r="676" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A676" s="3"/>
       <c r="B676" s="3"/>
       <c r="E676" s="3"/>
     </row>
-    <row r="677" spans="1:5">
+    <row r="677" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A677" s="3"/>
       <c r="B677" s="3"/>
       <c r="E677" s="3"/>
     </row>
-    <row r="678" spans="1:5">
+    <row r="678" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A678" s="3"/>
       <c r="B678" s="3"/>
       <c r="E678" s="3"/>
     </row>
-    <row r="679" spans="1:5">
+    <row r="679" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A679" s="3"/>
       <c r="B679" s="3"/>
       <c r="E679" s="3"/>
     </row>
-    <row r="680" spans="1:5">
+    <row r="680" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A680" s="3"/>
       <c r="B680" s="3"/>
       <c r="E680" s="3"/>
     </row>
-    <row r="681" spans="1:5">
+    <row r="681" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A681" s="3"/>
       <c r="B681" s="3"/>
       <c r="E681" s="3"/>
     </row>
-    <row r="682" spans="1:5">
+    <row r="682" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A682" s="3"/>
       <c r="B682" s="3"/>
       <c r="E682" s="3"/>
     </row>
-    <row r="683" spans="1:5">
+    <row r="683" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A683" s="3"/>
       <c r="B683" s="3"/>
       <c r="E683" s="3"/>
     </row>
-    <row r="684" spans="1:5">
+    <row r="684" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A684" s="3"/>
       <c r="B684" s="3"/>
       <c r="E684" s="3"/>
     </row>
-    <row r="685" spans="1:5">
+    <row r="685" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A685" s="3"/>
       <c r="B685" s="3"/>
       <c r="E685" s="3"/>
     </row>
-    <row r="686" spans="1:5">
+    <row r="686" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A686" s="3"/>
       <c r="B686" s="3"/>
       <c r="E686" s="3"/>
     </row>
-    <row r="687" spans="1:5">
+    <row r="687" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A687" s="3"/>
       <c r="B687" s="3"/>
       <c r="E687" s="3"/>
     </row>
-    <row r="688" spans="1:5">
+    <row r="688" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A688" s="3"/>
       <c r="B688" s="3"/>
       <c r="E688" s="3"/>
     </row>
-    <row r="689" spans="1:5">
+    <row r="689" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A689" s="3"/>
       <c r="B689" s="3"/>
       <c r="E689" s="3"/>
     </row>
-    <row r="690" spans="1:5">
+    <row r="690" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A690" s="3"/>
       <c r="B690" s="3"/>
       <c r="E690" s="3"/>
     </row>
-    <row r="691" spans="1:5">
+    <row r="691" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A691" s="3"/>
       <c r="B691" s="3"/>
       <c r="E691" s="3"/>
     </row>
-    <row r="692" spans="1:5">
+    <row r="692" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A692" s="3"/>
       <c r="B692" s="3"/>
       <c r="E692" s="3"/>
     </row>
-    <row r="693" spans="1:5">
+    <row r="693" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A693" s="3"/>
       <c r="B693" s="3"/>
       <c r="E693" s="3"/>
     </row>
-    <row r="694" spans="1:5">
+    <row r="694" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A694" s="3"/>
       <c r="B694" s="3"/>
       <c r="E694" s="3"/>
     </row>
-    <row r="695" spans="1:5">
+    <row r="695" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A695" s="3"/>
       <c r="B695" s="3"/>
       <c r="E695" s="3"/>
     </row>
-    <row r="696" spans="1:5">
+    <row r="696" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A696" s="3"/>
       <c r="B696" s="3"/>
       <c r="E696" s="3"/>
     </row>
-    <row r="697" spans="1:5">
+    <row r="697" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A697" s="3"/>
       <c r="B697" s="3"/>
       <c r="E697" s="3"/>
     </row>
-    <row r="698" spans="1:5">
+    <row r="698" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A698" s="3"/>
       <c r="B698" s="3"/>
       <c r="E698" s="3"/>
     </row>
-    <row r="699" spans="1:5">
+    <row r="699" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A699" s="3"/>
       <c r="B699" s="3"/>
       <c r="E699" s="3"/>
     </row>
-    <row r="700" spans="1:5">
+    <row r="700" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A700" s="3"/>
       <c r="B700" s="3"/>
       <c r="E700" s="3"/>
     </row>
-    <row r="701" spans="1:5">
+    <row r="701" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A701" s="3"/>
       <c r="B701" s="3"/>
       <c r="E701" s="3"/>
     </row>
-    <row r="702" spans="1:5">
+    <row r="702" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A702" s="3"/>
       <c r="B702" s="3"/>
       <c r="E702" s="3"/>
     </row>
-    <row r="703" spans="1:5">
+    <row r="703" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A703" s="3"/>
       <c r="B703" s="3"/>
       <c r="E703" s="3"/>
     </row>
-    <row r="704" spans="1:5">
+    <row r="704" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A704" s="3"/>
       <c r="B704" s="3"/>
       <c r="E704" s="3"/>
     </row>
-    <row r="705" spans="1:5">
+    <row r="705" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A705" s="3"/>
       <c r="B705" s="3"/>
       <c r="E705" s="3"/>
     </row>
-    <row r="706" spans="1:5">
+    <row r="706" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A706" s="3"/>
       <c r="B706" s="3"/>
       <c r="E706" s="3"/>
     </row>
-    <row r="707" spans="1:5">
+    <row r="707" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A707" s="3"/>
       <c r="B707" s="3"/>
       <c r="E707" s="3"/>
     </row>
-    <row r="708" spans="1:5">
+    <row r="708" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A708" s="3"/>
       <c r="B708" s="3"/>
       <c r="E708" s="3"/>
     </row>
-    <row r="709" spans="1:5">
+    <row r="709" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A709" s="3"/>
       <c r="B709" s="3"/>
       <c r="E709" s="3"/>
     </row>
-    <row r="710" spans="1:5">
+    <row r="710" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A710" s="3"/>
       <c r="B710" s="3"/>
       <c r="E710" s="3"/>
     </row>
-    <row r="711" spans="1:5">
+    <row r="711" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A711" s="3"/>
       <c r="B711" s="3"/>
       <c r="E711" s="3"/>
     </row>
-    <row r="712" spans="1:5">
+    <row r="712" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A712" s="3"/>
       <c r="B712" s="3"/>
       <c r="E712" s="3"/>
     </row>
-    <row r="713" spans="1:5">
+    <row r="713" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A713" s="3"/>
       <c r="B713" s="3"/>
       <c r="E713" s="3"/>
     </row>
-    <row r="714" spans="1:5">
+    <row r="714" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A714" s="3"/>
       <c r="B714" s="3"/>
       <c r="E714" s="3"/>
     </row>
-    <row r="715" spans="1:5">
+    <row r="715" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A715" s="3"/>
       <c r="B715" s="3"/>
       <c r="E715" s="3"/>
     </row>
-    <row r="716" spans="1:5">
+    <row r="716" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A716" s="3"/>
       <c r="B716" s="3"/>
       <c r="E716" s="3"/>
     </row>
-    <row r="717" spans="1:5">
+    <row r="717" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A717" s="3"/>
       <c r="B717" s="3"/>
       <c r="E717" s="3"/>
     </row>
-    <row r="718" spans="1:5">
+    <row r="718" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A718" s="3"/>
       <c r="B718" s="3"/>
       <c r="E718" s="3"/>
     </row>
-    <row r="719" spans="1:5">
+    <row r="719" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A719" s="3"/>
       <c r="B719" s="3"/>
       <c r="E719" s="3"/>
     </row>
-    <row r="720" spans="1:5">
+    <row r="720" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A720" s="3"/>
       <c r="B720" s="3"/>
       <c r="E720" s="3"/>
     </row>
-    <row r="721" spans="1:5">
+    <row r="721" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A721" s="3"/>
       <c r="B721" s="3"/>
       <c r="E721" s="3"/>
     </row>
-    <row r="722" spans="1:5">
+    <row r="722" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A722" s="3"/>
       <c r="B722" s="3"/>
       <c r="E722" s="3"/>
     </row>
-    <row r="723" spans="1:5">
+    <row r="723" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A723" s="3"/>
       <c r="B723" s="3"/>
       <c r="E723" s="3"/>
     </row>
-    <row r="724" spans="1:5">
+    <row r="724" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A724" s="3"/>
       <c r="B724" s="3"/>
       <c r="E724" s="3"/>
     </row>
-    <row r="725" spans="1:5">
+    <row r="725" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A725" s="3"/>
       <c r="B725" s="3"/>
       <c r="E725" s="3"/>
     </row>
-    <row r="726" spans="1:5">
+    <row r="726" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A726" s="3"/>
       <c r="B726" s="3"/>
       <c r="E726" s="3"/>
     </row>
-    <row r="727" spans="1:5">
+    <row r="727" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A727" s="3"/>
       <c r="B727" s="3"/>
       <c r="E727" s="3"/>
     </row>
-    <row r="728" spans="1:5">
+    <row r="728" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A728" s="3"/>
       <c r="B728" s="3"/>
       <c r="E728" s="3"/>
     </row>
-    <row r="729" spans="1:5">
+    <row r="729" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A729" s="3"/>
       <c r="B729" s="3"/>
       <c r="E729" s="3"/>
     </row>
-    <row r="730" spans="1:5">
+    <row r="730" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A730" s="3"/>
       <c r="B730" s="3"/>
       <c r="E730" s="3"/>
     </row>
-    <row r="731" spans="1:5">
+    <row r="731" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A731" s="3"/>
       <c r="B731" s="3"/>
       <c r="E731" s="3"/>
     </row>
-    <row r="732" spans="1:5">
+    <row r="732" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A732" s="3"/>
       <c r="B732" s="3"/>
       <c r="E732" s="3"/>
     </row>
-    <row r="733" spans="1:5">
+    <row r="733" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A733" s="3"/>
       <c r="B733" s="3"/>
       <c r="E733" s="3"/>
     </row>
-    <row r="734" spans="1:5">
+    <row r="734" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A734" s="3"/>
       <c r="B734" s="3"/>
       <c r="E734" s="3"/>
     </row>
-    <row r="735" spans="1:5">
+    <row r="735" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A735" s="3"/>
       <c r="B735" s="3"/>
       <c r="E735" s="3"/>
     </row>
-    <row r="736" spans="1:5">
+    <row r="736" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A736" s="3"/>
       <c r="B736" s="3"/>
       <c r="E736" s="3"/>
     </row>
-    <row r="737" spans="1:5">
+    <row r="737" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A737" s="3"/>
       <c r="B737" s="3"/>
       <c r="E737" s="3"/>
     </row>
-    <row r="738" spans="1:5">
+    <row r="738" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A738" s="3"/>
       <c r="B738" s="3"/>
       <c r="E738" s="3"/>
     </row>
-    <row r="739" spans="1:5">
+    <row r="739" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A739" s="3"/>
       <c r="B739" s="3"/>
       <c r="E739" s="3"/>
     </row>
-    <row r="740" spans="1:5">
+    <row r="740" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A740" s="3"/>
       <c r="B740" s="3"/>
       <c r="E740" s="3"/>
     </row>
-    <row r="741" spans="1:5">
+    <row r="741" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A741" s="3"/>
       <c r="B741" s="3"/>
       <c r="E741" s="3"/>
     </row>
-    <row r="742" spans="1:5">
+    <row r="742" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A742" s="3"/>
       <c r="B742" s="3"/>
       <c r="E742" s="3"/>
     </row>
-    <row r="743" spans="1:5">
+    <row r="743" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A743" s="3"/>
       <c r="B743" s="3"/>
       <c r="E743" s="3"/>
     </row>
-    <row r="744" spans="1:5">
+    <row r="744" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A744" s="3"/>
       <c r="B744" s="3"/>
       <c r="E744" s="3"/>
     </row>
-    <row r="745" spans="1:5">
+    <row r="745" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A745" s="3"/>
       <c r="B745" s="3"/>
       <c r="E745" s="3"/>
     </row>
-    <row r="746" spans="1:5">
+    <row r="746" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A746" s="3"/>
       <c r="B746" s="3"/>
       <c r="E746" s="3"/>
     </row>
-    <row r="747" spans="1:5">
+    <row r="747" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A747" s="3"/>
       <c r="B747" s="3"/>
       <c r="E747" s="3"/>
     </row>
-    <row r="748" spans="1:5">
+    <row r="748" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A748" s="3"/>
       <c r="B748" s="3"/>
       <c r="E748" s="3"/>
     </row>
-    <row r="749" spans="1:5">
+    <row r="749" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A749" s="3"/>
       <c r="B749" s="3"/>
       <c r="E749" s="3"/>
     </row>
-    <row r="750" spans="1:5">
+    <row r="750" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A750" s="3"/>
       <c r="B750" s="3"/>
       <c r="E750" s="3"/>
     </row>
-    <row r="751" spans="1:5">
+    <row r="751" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A751" s="3"/>
       <c r="B751" s="3"/>
       <c r="E751" s="3"/>
     </row>
-    <row r="752" spans="1:5">
+    <row r="752" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A752" s="3"/>
       <c r="B752" s="3"/>
       <c r="E752" s="3"/>
     </row>
-    <row r="753" spans="1:5">
+    <row r="753" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A753" s="3"/>
       <c r="B753" s="3"/>
       <c r="E753" s="3"/>
     </row>
-    <row r="754" spans="1:5">
+    <row r="754" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A754" s="3"/>
       <c r="B754" s="3"/>
       <c r="E754" s="3"/>
     </row>
-    <row r="755" spans="1:5">
+    <row r="755" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A755" s="3"/>
       <c r="B755" s="3"/>
       <c r="E755" s="3"/>
     </row>
-    <row r="756" spans="1:5">
+    <row r="756" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A756" s="3"/>
       <c r="B756" s="3"/>
       <c r="E756" s="3"/>
     </row>
-    <row r="757" spans="1:5">
+    <row r="757" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A757" s="3"/>
       <c r="B757" s="3"/>
       <c r="E757" s="3"/>
     </row>
-    <row r="758" spans="1:5">
+    <row r="758" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A758" s="3"/>
       <c r="B758" s="3"/>
       <c r="E758" s="3"/>
     </row>
-    <row r="759" spans="1:5">
+    <row r="759" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A759" s="3"/>
       <c r="B759" s="3"/>
       <c r="E759" s="3"/>
     </row>
-    <row r="760" spans="1:5">
+    <row r="760" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A760" s="3"/>
       <c r="B760" s="3"/>
       <c r="E760" s="3"/>
     </row>
-    <row r="761" spans="1:5">
+    <row r="761" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A761" s="3"/>
       <c r="B761" s="3"/>
       <c r="E761" s="3"/>
     </row>
-    <row r="762" spans="1:5">
+    <row r="762" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A762" s="3"/>
       <c r="B762" s="3"/>
       <c r="E762" s="3"/>
     </row>
-    <row r="763" spans="1:5">
+    <row r="763" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A763" s="3"/>
       <c r="B763" s="3"/>
       <c r="E763" s="3"/>
     </row>
-    <row r="764" spans="1:5">
+    <row r="764" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A764" s="3"/>
       <c r="B764" s="3"/>
       <c r="E764" s="3"/>
     </row>
-    <row r="765" spans="1:5">
+    <row r="765" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A765" s="3"/>
       <c r="B765" s="3"/>
       <c r="E765" s="3"/>
     </row>
-    <row r="766" spans="1:5">
+    <row r="766" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A766" s="3"/>
       <c r="B766" s="3"/>
       <c r="E766" s="3"/>
     </row>
-    <row r="767" spans="1:5">
+    <row r="767" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A767" s="3"/>
       <c r="B767" s="3"/>
       <c r="E767" s="3"/>
     </row>
-    <row r="768" spans="1:5">
+    <row r="768" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A768" s="3"/>
       <c r="B768" s="3"/>
       <c r="E768" s="3"/>
     </row>
-    <row r="769" spans="1:5">
+    <row r="769" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A769" s="3"/>
       <c r="B769" s="3"/>
       <c r="E769" s="3"/>
     </row>
-    <row r="770" spans="1:5">
+    <row r="770" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A770" s="3"/>
       <c r="B770" s="3"/>
       <c r="E770" s="3"/>
     </row>
-    <row r="771" spans="1:5">
+    <row r="771" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A771" s="3"/>
       <c r="B771" s="3"/>
       <c r="E771" s="3"/>
     </row>
-    <row r="772" spans="1:5">
+    <row r="772" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A772" s="3"/>
       <c r="B772" s="3"/>
       <c r="E772" s="3"/>
     </row>
-    <row r="773" spans="1:5">
+    <row r="773" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A773" s="3"/>
       <c r="B773" s="3"/>
       <c r="E773" s="3"/>
     </row>
-    <row r="774" spans="1:5">
+    <row r="774" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A774" s="3"/>
       <c r="B774" s="3"/>
       <c r="E774" s="3"/>
     </row>
-    <row r="775" spans="1:5">
+    <row r="775" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A775" s="3"/>
       <c r="B775" s="3"/>
       <c r="E775" s="3"/>
     </row>
-    <row r="776" spans="1:5">
+    <row r="776" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A776" s="3"/>
       <c r="B776" s="3"/>
       <c r="E776" s="3"/>
     </row>
-    <row r="777" spans="1:5">
+    <row r="777" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A777" s="3"/>
       <c r="B777" s="3"/>
       <c r="E777" s="3"/>
     </row>
-    <row r="778" spans="1:5">
+    <row r="778" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A778" s="3"/>
       <c r="B778" s="3"/>
       <c r="E778" s="3"/>
     </row>
-    <row r="779" spans="1:5">
+    <row r="779" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A779" s="3"/>
       <c r="B779" s="3"/>
       <c r="E779" s="3"/>
     </row>
-    <row r="780" spans="1:5">
+    <row r="780" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A780" s="3"/>
       <c r="B780" s="3"/>
       <c r="E780" s="3"/>
     </row>
-    <row r="781" spans="1:5">
+    <row r="781" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A781" s="3"/>
       <c r="B781" s="3"/>
       <c r="E781" s="3"/>
     </row>
-    <row r="782" spans="1:5">
+    <row r="782" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A782" s="3"/>
       <c r="B782" s="3"/>
       <c r="E782" s="3"/>
     </row>
-    <row r="783" spans="1:5">
+    <row r="783" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A783" s="3"/>
       <c r="B783" s="3"/>
       <c r="E783" s="3"/>
     </row>
-    <row r="784" spans="1:5">
+    <row r="784" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A784" s="3"/>
       <c r="B784" s="3"/>
       <c r="E784" s="3"/>
     </row>
-    <row r="785" spans="1:5">
+    <row r="785" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A785" s="3"/>
       <c r="B785" s="3"/>
       <c r="E785" s="3"/>
     </row>
-    <row r="786" spans="1:5">
+    <row r="786" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A786" s="3"/>
       <c r="B786" s="3"/>
       <c r="E786" s="3"/>
     </row>
-    <row r="787" spans="1:5">
+    <row r="787" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A787" s="3"/>
       <c r="B787" s="3"/>
       <c r="E787" s="3"/>
     </row>
-    <row r="788" spans="1:5">
+    <row r="788" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A788" s="3"/>
       <c r="B788" s="3"/>
       <c r="E788" s="3"/>
     </row>
-    <row r="789" spans="1:5">
+    <row r="789" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A789" s="3"/>
       <c r="B789" s="3"/>
       <c r="E789" s="3"/>
     </row>
-    <row r="790" spans="1:5">
+    <row r="790" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A790" s="3"/>
       <c r="B790" s="3"/>
       <c r="E790" s="3"/>
     </row>
-    <row r="791" spans="1:5">
+    <row r="791" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A791" s="3"/>
       <c r="B791" s="3"/>
       <c r="E791" s="3"/>
     </row>
-    <row r="792" spans="1:5">
+    <row r="792" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A792" s="3"/>
       <c r="B792" s="3"/>
       <c r="E792" s="3"/>
     </row>
-    <row r="793" spans="1:5">
+    <row r="793" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A793" s="3"/>
       <c r="B793" s="3"/>
       <c r="E793" s="3"/>
     </row>
-    <row r="794" spans="1:5">
+    <row r="794" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A794" s="3"/>
       <c r="B794" s="3"/>
       <c r="E794" s="3"/>
     </row>
-    <row r="795" spans="1:5">
+    <row r="795" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A795" s="3"/>
       <c r="B795" s="3"/>
       <c r="E795" s="3"/>
     </row>
-    <row r="796" spans="1:5">
+    <row r="796" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A796" s="3"/>
       <c r="B796" s="3"/>
       <c r="E796" s="3"/>
     </row>
-    <row r="797" spans="1:5">
+    <row r="797" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A797" s="3"/>
       <c r="B797" s="3"/>
       <c r="E797" s="3"/>
     </row>
-    <row r="798" spans="1:5">
+    <row r="798" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A798" s="3"/>
       <c r="B798" s="3"/>
       <c r="E798" s="3"/>
     </row>
-    <row r="799" spans="1:5">
+    <row r="799" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A799" s="3"/>
       <c r="B799" s="3"/>
       <c r="E799" s="3"/>
     </row>
-    <row r="800" spans="1:5">
+    <row r="800" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A800" s="3"/>
       <c r="B800" s="3"/>
       <c r="E800" s="3"/>
     </row>
-    <row r="801" spans="1:5">
+    <row r="801" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A801" s="3"/>
       <c r="B801" s="3"/>
       <c r="E801" s="3"/>
     </row>
-    <row r="802" spans="1:5">
+    <row r="802" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A802" s="3"/>
       <c r="B802" s="3"/>
       <c r="E802" s="3"/>
     </row>
-    <row r="803" spans="1:5">
+    <row r="803" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A803" s="3"/>
       <c r="B803" s="3"/>
       <c r="E803" s="3"/>
     </row>
-    <row r="804" spans="1:5">
+    <row r="804" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A804" s="3"/>
       <c r="B804" s="3"/>
       <c r="E804" s="3"/>
     </row>
-    <row r="805" spans="1:5">
+    <row r="805" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A805" s="3"/>
       <c r="B805" s="3"/>
       <c r="E805" s="3"/>
     </row>
-    <row r="806" spans="1:5">
+    <row r="806" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A806" s="3"/>
       <c r="B806" s="3"/>
       <c r="E806" s="3"/>
     </row>
-    <row r="807" spans="1:5">
+    <row r="807" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A807" s="3"/>
       <c r="B807" s="3"/>
       <c r="E807" s="3"/>
     </row>
-    <row r="808" spans="1:5">
+    <row r="808" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A808" s="3"/>
       <c r="B808" s="3"/>
       <c r="E808" s="3"/>
     </row>
-    <row r="809" spans="1:5">
+    <row r="809" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A809" s="3"/>
       <c r="B809" s="3"/>
       <c r="E809" s="3"/>
     </row>
-    <row r="810" spans="1:5">
+    <row r="810" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A810" s="3"/>
       <c r="B810" s="3"/>
       <c r="E810" s="3"/>
     </row>
-    <row r="811" spans="1:5">
+    <row r="811" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A811" s="3"/>
       <c r="B811" s="3"/>
       <c r="E811" s="3"/>
     </row>
-    <row r="812" spans="1:5">
+    <row r="812" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A812" s="3"/>
       <c r="B812" s="3"/>
       <c r="E812" s="3"/>
     </row>
-    <row r="813" spans="1:5">
+    <row r="813" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A813" s="3"/>
       <c r="B813" s="3"/>
       <c r="E813" s="3"/>
     </row>
-    <row r="814" spans="1:5">
+    <row r="814" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A814" s="3"/>
       <c r="B814" s="3"/>
       <c r="E814" s="3"/>
     </row>
-    <row r="815" spans="1:5">
+    <row r="815" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A815" s="3"/>
       <c r="B815" s="3"/>
       <c r="E815" s="3"/>
     </row>
-    <row r="816" spans="1:5">
+    <row r="816" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A816" s="3"/>
       <c r="B816" s="3"/>
       <c r="E816" s="3"/>
     </row>
-    <row r="817" spans="1:5">
+    <row r="817" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A817" s="3"/>
       <c r="B817" s="3"/>
       <c r="E817" s="3"/>
     </row>
-    <row r="818" spans="1:5">
+    <row r="818" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A818" s="3"/>
       <c r="B818" s="3"/>
       <c r="E818" s="3"/>
     </row>
-    <row r="819" spans="1:5">
+    <row r="819" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A819" s="3"/>
       <c r="B819" s="3"/>
       <c r="E819" s="3"/>
     </row>
-    <row r="820" spans="1:5">
+    <row r="820" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A820" s="3"/>
       <c r="B820" s="3"/>
       <c r="E820" s="3"/>
     </row>
-    <row r="821" spans="1:5">
+    <row r="821" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A821" s="3"/>
       <c r="B821" s="3"/>
       <c r="E821" s="3"/>
     </row>
-    <row r="822" spans="1:5">
+    <row r="822" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A822" s="3"/>
       <c r="B822" s="3"/>
       <c r="E822" s="3"/>
     </row>
-    <row r="823" spans="1:5">
+    <row r="823" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A823" s="3"/>
       <c r="B823" s="3"/>
       <c r="E823" s="3"/>
     </row>
-    <row r="824" spans="1:5">
+    <row r="824" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A824" s="3"/>
       <c r="B824" s="3"/>
       <c r="E824" s="3"/>
     </row>
-    <row r="825" spans="1:5">
+    <row r="825" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A825" s="3"/>
       <c r="B825" s="3"/>
       <c r="E825" s="3"/>
     </row>
-    <row r="826" spans="1:5">
+    <row r="826" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A826" s="3"/>
       <c r="B826" s="3"/>
       <c r="E826" s="3"/>
     </row>
-    <row r="827" spans="1:5">
+    <row r="827" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A827" s="3"/>
       <c r="B827" s="3"/>
       <c r="E827" s="3"/>
     </row>
-    <row r="828" spans="1:5">
+    <row r="828" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A828" s="3"/>
       <c r="B828" s="3"/>
       <c r="E828" s="3"/>
     </row>
-    <row r="829" spans="1:5">
+    <row r="829" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A829" s="3"/>
       <c r="B829" s="3"/>
       <c r="E829" s="3"/>
     </row>
-    <row r="830" spans="1:5">
+    <row r="830" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A830" s="3"/>
       <c r="B830" s="3"/>
       <c r="E830" s="3"/>
     </row>
-    <row r="831" spans="1:5">
+    <row r="831" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A831" s="3"/>
       <c r="B831" s="3"/>
       <c r="E831" s="3"/>
     </row>
-    <row r="832" spans="1:5">
+    <row r="832" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A832" s="3"/>
       <c r="B832" s="3"/>
       <c r="E832" s="3"/>
     </row>
-    <row r="833" spans="1:5">
+    <row r="833" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A833" s="3"/>
       <c r="B833" s="3"/>
       <c r="E833" s="3"/>
     </row>
-    <row r="834" spans="1:5">
+    <row r="834" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A834" s="3"/>
       <c r="B834" s="3"/>
       <c r="E834" s="3"/>
     </row>
-    <row r="835" spans="1:5">
+    <row r="835" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A835" s="3"/>
       <c r="B835" s="3"/>
       <c r="E835" s="3"/>
     </row>
-    <row r="836" spans="1:5">
+    <row r="836" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A836" s="3"/>
       <c r="B836" s="3"/>
       <c r="E836" s="3"/>
     </row>
-    <row r="837" spans="1:5">
+    <row r="837" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A837" s="3"/>
       <c r="B837" s="3"/>
       <c r="E837" s="3"/>
     </row>
-    <row r="838" spans="1:5">
+    <row r="838" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A838" s="3"/>
       <c r="B838" s="3"/>
       <c r="E838" s="3"/>
     </row>
-    <row r="839" spans="1:5">
+    <row r="839" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A839" s="3"/>
       <c r="B839" s="3"/>
       <c r="E839" s="3"/>
     </row>
-    <row r="840" spans="1:5">
+    <row r="840" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A840" s="3"/>
       <c r="B840" s="3"/>
       <c r="E840" s="3"/>
     </row>
-    <row r="841" spans="1:5">
+    <row r="841" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A841" s="3"/>
       <c r="B841" s="3"/>
       <c r="E841" s="3"/>
     </row>
-    <row r="842" spans="1:5">
+    <row r="842" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A842" s="3"/>
       <c r="B842" s="3"/>
       <c r="E842" s="3"/>
     </row>
-    <row r="843" spans="1:5">
+    <row r="843" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A843" s="3"/>
       <c r="B843" s="3"/>
       <c r="E843" s="3"/>
     </row>
-    <row r="844" spans="1:5">
+    <row r="844" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A844" s="3"/>
       <c r="B844" s="3"/>
       <c r="E844" s="3"/>
     </row>
-    <row r="845" spans="1:5">
+    <row r="845" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A845" s="3"/>
       <c r="B845" s="3"/>
       <c r="E845" s="3"/>
     </row>
-    <row r="846" spans="1:5">
+    <row r="846" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A846" s="3"/>
       <c r="B846" s="3"/>
       <c r="E846" s="3"/>
     </row>
-    <row r="847" spans="1:5">
+    <row r="847" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A847" s="3"/>
       <c r="B847" s="3"/>
       <c r="E847" s="3"/>
     </row>
-    <row r="848" spans="1:5">
+    <row r="848" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A848" s="3"/>
       <c r="B848" s="3"/>
       <c r="E848" s="3"/>
     </row>
-    <row r="849" spans="1:5">
+    <row r="849" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A849" s="3"/>
       <c r="B849" s="3"/>
       <c r="E849" s="3"/>
     </row>
-    <row r="850" spans="1:5">
+    <row r="850" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A850" s="3"/>
       <c r="B850" s="3"/>
       <c r="E850" s="3"/>
     </row>
-    <row r="851" spans="1:5">
+    <row r="851" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A851" s="3"/>
       <c r="B851" s="3"/>
       <c r="E851" s="3"/>
     </row>
-    <row r="852" spans="1:5">
+    <row r="852" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A852" s="3"/>
       <c r="B852" s="3"/>
       <c r="E852" s="3"/>
     </row>
-    <row r="853" spans="1:5">
+    <row r="853" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A853" s="3"/>
       <c r="B853" s="3"/>
       <c r="E853" s="3"/>
     </row>
-    <row r="854" spans="1:5">
+    <row r="854" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A854" s="3"/>
       <c r="B854" s="3"/>
       <c r="E854" s="3"/>
     </row>
-    <row r="855" spans="1:5">
+    <row r="855" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A855" s="3"/>
       <c r="B855" s="3"/>
       <c r="E855" s="3"/>
     </row>
-    <row r="856" spans="1:5">
+    <row r="856" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A856" s="3"/>
       <c r="B856" s="3"/>
       <c r="E856" s="3"/>
     </row>
-    <row r="857" spans="1:5">
+    <row r="857" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A857" s="3"/>
       <c r="B857" s="3"/>
       <c r="E857" s="3"/>
     </row>
-    <row r="858" spans="1:5">
+    <row r="858" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A858" s="3"/>
       <c r="B858" s="3"/>
       <c r="E858" s="3"/>
     </row>
-    <row r="859" spans="1:5">
+    <row r="859" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A859" s="3"/>
       <c r="B859" s="3"/>
       <c r="E859" s="3"/>
     </row>
-    <row r="860" spans="1:5">
+    <row r="860" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A860" s="3"/>
       <c r="B860" s="3"/>
       <c r="E860" s="3"/>
     </row>
-    <row r="861" spans="1:5">
+    <row r="861" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A861" s="3"/>
       <c r="B861" s="3"/>
       <c r="E861" s="3"/>
     </row>
-    <row r="862" spans="1:5">
+    <row r="862" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A862" s="3"/>
       <c r="B862" s="3"/>
       <c r="E862" s="3"/>
     </row>
-    <row r="863" spans="1:5">
+    <row r="863" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A863" s="3"/>
       <c r="B863" s="3"/>
       <c r="E863" s="3"/>
     </row>
-    <row r="864" spans="1:5">
+    <row r="864" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A864" s="3"/>
       <c r="B864" s="3"/>
       <c r="E864" s="3"/>
     </row>
-    <row r="865" spans="1:5">
+    <row r="865" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A865" s="3"/>
       <c r="B865" s="3"/>
       <c r="E865" s="3"/>
     </row>
-    <row r="866" spans="1:5">
+    <row r="866" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A866" s="3"/>
       <c r="B866" s="3"/>
       <c r="E866" s="3"/>
     </row>
-    <row r="867" spans="1:5">
+    <row r="867" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A867" s="3"/>
       <c r="B867" s="3"/>
       <c r="E867" s="3"/>
     </row>
-    <row r="868" spans="1:5">
+    <row r="868" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A868" s="3"/>
       <c r="B868" s="3"/>
       <c r="E868" s="3"/>
     </row>
-    <row r="869" spans="1:5">
+    <row r="869" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A869" s="3"/>
       <c r="B869" s="3"/>
       <c r="E869" s="3"/>
     </row>
-    <row r="870" spans="1:5">
+    <row r="870" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A870" s="3"/>
       <c r="B870" s="3"/>
       <c r="E870" s="3"/>
     </row>
-    <row r="871" spans="1:5">
+    <row r="871" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A871" s="3"/>
       <c r="B871" s="3"/>
       <c r="E871" s="3"/>
     </row>
-    <row r="872" spans="1:5">
+    <row r="872" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A872" s="3"/>
       <c r="B872" s="3"/>
       <c r="E872" s="3"/>
     </row>
-    <row r="873" spans="1:5">
+    <row r="873" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A873" s="3"/>
       <c r="B873" s="3"/>
       <c r="E873" s="3"/>
     </row>
-    <row r="874" spans="1:5">
+    <row r="874" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A874" s="3"/>
       <c r="B874" s="3"/>
       <c r="E874" s="3"/>
     </row>
-    <row r="875" spans="1:5">
+    <row r="875" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A875" s="3"/>
       <c r="B875" s="3"/>
       <c r="E875" s="3"/>
     </row>
-    <row r="876" spans="1:5">
+    <row r="876" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A876" s="3"/>
       <c r="B876" s="3"/>
       <c r="E876" s="3"/>
     </row>
-    <row r="877" spans="1:5">
+    <row r="877" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A877" s="3"/>
       <c r="B877" s="3"/>
       <c r="E877" s="3"/>
     </row>
-    <row r="878" spans="1:5">
+    <row r="878" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A878" s="3"/>
       <c r="B878" s="3"/>
       <c r="E878" s="3"/>
     </row>
-    <row r="879" spans="1:5">
+    <row r="879" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A879" s="3"/>
       <c r="B879" s="3"/>
       <c r="E879" s="3"/>
     </row>
-    <row r="880" spans="1:5">
+    <row r="880" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A880" s="3"/>
       <c r="B880" s="3"/>
       <c r="E880" s="3"/>
     </row>
-    <row r="881" spans="1:5">
+    <row r="881" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A881" s="3"/>
       <c r="B881" s="3"/>
       <c r="E881" s="3"/>
     </row>
-    <row r="882" spans="1:5">
+    <row r="882" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A882" s="3"/>
       <c r="B882" s="3"/>
       <c r="E882" s="3"/>
     </row>
-    <row r="883" spans="1:5">
+    <row r="883" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A883" s="3"/>
       <c r="B883" s="3"/>
       <c r="E883" s="3"/>
     </row>
-    <row r="884" spans="1:5">
+    <row r="884" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A884" s="3"/>
       <c r="B884" s="3"/>
       <c r="E884" s="3"/>
     </row>
-    <row r="885" spans="1:5">
+    <row r="885" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A885" s="3"/>
       <c r="B885" s="3"/>
       <c r="E885" s="3"/>
     </row>
-    <row r="886" spans="1:5">
+    <row r="886" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A886" s="3"/>
       <c r="B886" s="3"/>
       <c r="E886" s="3"/>
     </row>
-    <row r="887" spans="1:5">
+    <row r="887" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A887" s="3"/>
       <c r="B887" s="3"/>
       <c r="E887" s="3"/>
     </row>
-    <row r="888" spans="1:5">
+    <row r="888" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A888" s="3"/>
       <c r="B888" s="3"/>
       <c r="E888" s="3"/>
     </row>
-    <row r="889" spans="1:5">
+    <row r="889" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A889" s="3"/>
       <c r="B889" s="3"/>
       <c r="E889" s="3"/>
     </row>
-    <row r="890" spans="1:5">
+    <row r="890" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A890" s="3"/>
       <c r="B890" s="3"/>
       <c r="E890" s="3"/>
     </row>
-    <row r="891" spans="1:5">
+    <row r="891" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A891" s="3"/>
       <c r="B891" s="3"/>
       <c r="E891" s="3"/>
     </row>
-    <row r="892" spans="1:5">
+    <row r="892" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A892" s="3"/>
       <c r="B892" s="3"/>
       <c r="E892" s="3"/>
     </row>
-    <row r="893" spans="1:5">
+    <row r="893" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A893" s="3"/>
       <c r="B893" s="3"/>
       <c r="E893" s="3"/>
     </row>
-    <row r="894" spans="1:5">
+    <row r="894" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A894" s="3"/>
       <c r="B894" s="3"/>
       <c r="E894" s="3"/>
     </row>
-    <row r="895" spans="1:5">
+    <row r="895" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A895" s="3"/>
       <c r="B895" s="3"/>
       <c r="E895" s="3"/>
     </row>
-    <row r="896" spans="1:5">
+    <row r="896" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A896" s="3"/>
       <c r="B896" s="3"/>
       <c r="E896" s="3"/>
     </row>
-    <row r="897" spans="1:5">
+    <row r="897" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A897" s="3"/>
       <c r="B897" s="3"/>
       <c r="E897" s="3"/>
     </row>
-    <row r="898" spans="1:5">
+    <row r="898" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A898" s="3"/>
       <c r="B898" s="3"/>
       <c r="E898" s="3"/>
     </row>
-    <row r="899" spans="1:5">
+    <row r="899" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A899" s="3"/>
       <c r="B899" s="3"/>
       <c r="E899" s="3"/>
     </row>
-    <row r="900" spans="1:5">
+    <row r="900" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A900" s="3"/>
       <c r="B900" s="3"/>
       <c r="E900" s="3"/>
     </row>
-    <row r="901" spans="1:5">
+    <row r="901" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A901" s="3"/>
       <c r="B901" s="3"/>
       <c r="E901" s="3"/>
     </row>
-    <row r="902" spans="1:5">
+    <row r="902" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A902" s="3"/>
       <c r="B902" s="3"/>
       <c r="E902" s="3"/>
     </row>
-    <row r="903" spans="1:5">
+    <row r="903" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A903" s="3"/>
       <c r="B903" s="3"/>
       <c r="E903" s="3"/>
     </row>
-    <row r="904" spans="1:5">
+    <row r="904" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A904" s="3"/>
       <c r="B904" s="3"/>
       <c r="E904" s="3"/>
     </row>
-    <row r="905" spans="1:5">
+    <row r="905" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A905" s="3"/>
       <c r="B905" s="3"/>
       <c r="E905" s="3"/>
     </row>
-    <row r="906" spans="1:5">
+    <row r="906" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A906" s="3"/>
       <c r="B906" s="3"/>
       <c r="E906" s="3"/>
     </row>
-    <row r="907" spans="1:5">
+    <row r="907" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A907" s="3"/>
       <c r="B907" s="3"/>
       <c r="E907" s="3"/>
     </row>
-    <row r="908" spans="1:5">
+    <row r="908" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A908" s="3"/>
       <c r="B908" s="3"/>
       <c r="E908" s="3"/>
     </row>
-    <row r="909" spans="1:5">
+    <row r="909" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A909" s="3"/>
       <c r="B909" s="3"/>
       <c r="E909" s="3"/>
     </row>
-    <row r="910" spans="1:5">
+    <row r="910" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A910" s="3"/>
       <c r="B910" s="3"/>
       <c r="E910" s="3"/>
     </row>
-    <row r="911" spans="1:5">
+    <row r="911" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A911" s="3"/>
       <c r="B911" s="3"/>
       <c r="E911" s="3"/>
     </row>
-    <row r="912" spans="1:5">
+    <row r="912" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A912" s="3"/>
       <c r="B912" s="3"/>
       <c r="E912" s="3"/>
     </row>
-    <row r="913" spans="1:5">
+    <row r="913" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A913" s="3"/>
       <c r="B913" s="3"/>
       <c r="E913" s="3"/>
     </row>
-    <row r="914" spans="1:5">
+    <row r="914" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A914" s="3"/>
       <c r="B914" s="3"/>
       <c r="E914" s="3"/>
     </row>
-    <row r="915" spans="1:5">
+    <row r="915" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A915" s="3"/>
       <c r="B915" s="3"/>
       <c r="E915" s="3"/>
     </row>
-    <row r="916" spans="1:5">
+    <row r="916" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A916" s="3"/>
       <c r="B916" s="3"/>
       <c r="E916" s="3"/>
     </row>
-    <row r="917" spans="1:5">
+    <row r="917" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A917" s="3"/>
       <c r="B917" s="3"/>
       <c r="E917" s="3"/>
     </row>
-    <row r="918" spans="1:5">
+    <row r="918" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A918" s="3"/>
       <c r="B918" s="3"/>
       <c r="E918" s="3"/>
     </row>
-    <row r="919" spans="1:5">
+    <row r="919" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A919" s="3"/>
       <c r="B919" s="3"/>
       <c r="E919" s="3"/>
     </row>
-    <row r="920" spans="1:5">
+    <row r="920" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A920" s="3"/>
       <c r="B920" s="3"/>
       <c r="E920" s="3"/>
     </row>
-    <row r="921" spans="1:5">
+    <row r="921" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A921" s="3"/>
       <c r="B921" s="3"/>
       <c r="E921" s="3"/>
     </row>
-    <row r="922" spans="1:5">
+    <row r="922" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A922" s="3"/>
       <c r="B922" s="3"/>
       <c r="E922" s="3"/>
     </row>
-    <row r="923" spans="1:5">
+    <row r="923" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A923" s="3"/>
       <c r="B923" s="3"/>
       <c r="E923" s="3"/>
     </row>
-    <row r="924" spans="1:5">
+    <row r="924" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A924" s="3"/>
       <c r="B924" s="3"/>
       <c r="E924" s="3"/>
     </row>
-    <row r="925" spans="1:5">
+    <row r="925" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A925" s="3"/>
       <c r="B925" s="3"/>
       <c r="E925" s="3"/>
     </row>
-    <row r="926" spans="1:5">
+    <row r="926" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A926" s="3"/>
       <c r="B926" s="3"/>
       <c r="E926" s="3"/>
     </row>
-    <row r="927" spans="1:5">
+    <row r="927" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A927" s="3"/>
       <c r="B927" s="3"/>
       <c r="E927" s="3"/>
     </row>
-    <row r="928" spans="1:5">
+    <row r="928" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A928" s="3"/>
       <c r="B928" s="3"/>
       <c r="E928" s="3"/>
     </row>
-    <row r="929" spans="1:5">
+    <row r="929" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A929" s="3"/>
       <c r="B929" s="3"/>
       <c r="E929" s="3"/>
     </row>
-    <row r="930" spans="1:5">
+    <row r="930" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A930" s="3"/>
       <c r="B930" s="3"/>
       <c r="E930" s="3"/>
     </row>
-    <row r="931" spans="1:5">
+    <row r="931" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A931" s="3"/>
       <c r="B931" s="3"/>
       <c r="E931" s="3"/>
     </row>
-    <row r="932" spans="1:5">
+    <row r="932" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A932" s="3"/>
       <c r="B932" s="3"/>
       <c r="E932" s="3"/>
     </row>
-    <row r="933" spans="1:5">
+    <row r="933" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A933" s="3"/>
       <c r="B933" s="3"/>
       <c r="E933" s="3"/>
     </row>
-    <row r="934" spans="1:5">
+    <row r="934" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A934" s="3"/>
       <c r="B934" s="3"/>
       <c r="E934" s="3"/>
     </row>
-    <row r="935" spans="1:5">
+    <row r="935" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A935" s="3"/>
       <c r="B935" s="3"/>
       <c r="E935" s="3"/>
     </row>
-    <row r="936" spans="1:5">
+    <row r="936" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A936" s="3"/>
       <c r="B936" s="3"/>
       <c r="E936" s="3"/>
     </row>
-    <row r="937" spans="1:5">
+    <row r="937" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A937" s="3"/>
       <c r="B937" s="3"/>
       <c r="E937" s="3"/>
     </row>
-    <row r="938" spans="1:5">
+    <row r="938" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A938" s="3"/>
       <c r="B938" s="3"/>
       <c r="E938" s="3"/>
     </row>
-    <row r="939" spans="1:5">
+    <row r="939" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A939" s="3"/>
       <c r="B939" s="3"/>
       <c r="E939" s="3"/>
     </row>
-    <row r="940" spans="1:5">
+    <row r="940" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A940" s="3"/>
       <c r="B940" s="3"/>
       <c r="E940" s="3"/>
     </row>
-    <row r="941" spans="1:5">
+    <row r="941" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A941" s="3"/>
       <c r="B941" s="3"/>
       <c r="E941" s="3"/>
     </row>
-    <row r="942" spans="1:5">
+    <row r="942" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A942" s="3"/>
       <c r="B942" s="3"/>
       <c r="E942" s="3"/>
     </row>
-    <row r="943" spans="1:5">
+    <row r="943" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A943" s="3"/>
       <c r="B943" s="3"/>
       <c r="E943" s="3"/>
     </row>
-    <row r="944" spans="1:5">
+    <row r="944" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A944" s="3"/>
       <c r="B944" s="3"/>
       <c r="E944" s="3"/>
     </row>
-    <row r="945" spans="1:5">
+    <row r="945" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A945" s="3"/>
       <c r="B945" s="3"/>
       <c r="E945" s="3"/>
     </row>
-    <row r="946" spans="1:5">
+    <row r="946" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A946" s="3"/>
       <c r="B946" s="3"/>
       <c r="E946" s="3"/>
     </row>
-    <row r="947" spans="1:5">
+    <row r="947" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A947" s="3"/>
       <c r="B947" s="3"/>
       <c r="E947" s="3"/>
     </row>
-    <row r="948" spans="1:5">
+    <row r="948" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A948" s="3"/>
       <c r="B948" s="3"/>
       <c r="E948" s="3"/>
     </row>
-    <row r="949" spans="1:5">
+    <row r="949" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A949" s="3"/>
       <c r="B949" s="3"/>
       <c r="E949" s="3"/>
     </row>
-    <row r="950" spans="1:5">
+    <row r="950" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A950" s="3"/>
       <c r="B950" s="3"/>
       <c r="E950" s="3"/>
     </row>
-    <row r="951" spans="1:5">
+    <row r="951" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A951" s="3"/>
       <c r="B951" s="3"/>
       <c r="E951" s="3"/>
     </row>
-    <row r="952" spans="1:5">
+    <row r="952" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A952" s="3"/>
       <c r="B952" s="3"/>
       <c r="E952" s="3"/>
     </row>
-    <row r="953" spans="1:5">
+    <row r="953" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A953" s="3"/>
       <c r="B953" s="3"/>
       <c r="E953" s="3"/>
     </row>
-    <row r="954" spans="1:5">
+    <row r="954" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A954" s="3"/>
       <c r="B954" s="3"/>
       <c r="E954" s="3"/>
     </row>
-    <row r="955" spans="1:5">
+    <row r="955" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A955" s="3"/>
       <c r="B955" s="3"/>
       <c r="E955" s="3"/>
     </row>
-    <row r="956" spans="1:5">
+    <row r="956" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A956" s="3"/>
       <c r="B956" s="3"/>
       <c r="E956" s="3"/>
     </row>
-    <row r="957" spans="1:5">
+    <row r="957" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A957" s="3"/>
       <c r="B957" s="3"/>
       <c r="E957" s="3"/>
     </row>
-    <row r="958" spans="1:5">
+    <row r="958" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A958" s="3"/>
       <c r="B958" s="3"/>
       <c r="E958" s="3"/>
     </row>
-    <row r="959" spans="1:5">
+    <row r="959" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A959" s="3"/>
       <c r="B959" s="3"/>
       <c r="E959" s="3"/>
     </row>
-    <row r="960" spans="1:5">
+    <row r="960" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A960" s="3"/>
       <c r="B960" s="3"/>
       <c r="E960" s="3"/>
     </row>
-    <row r="961" spans="1:5">
+    <row r="961" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A961" s="3"/>
       <c r="B961" s="3"/>
       <c r="E961" s="3"/>
     </row>
-    <row r="962" spans="1:5">
+    <row r="962" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A962" s="3"/>
       <c r="B962" s="3"/>
       <c r="E962" s="3"/>
     </row>
-    <row r="963" spans="1:5">
+    <row r="963" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A963" s="3"/>
       <c r="B963" s="3"/>
       <c r="E963" s="3"/>
     </row>
-    <row r="964" spans="1:5">
+    <row r="964" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A964" s="3"/>
       <c r="B964" s="3"/>
       <c r="E964" s="3"/>
     </row>
-    <row r="965" spans="1:5">
+    <row r="965" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A965" s="3"/>
       <c r="B965" s="3"/>
       <c r="E965" s="3"/>
     </row>
-    <row r="966" spans="1:5">
+    <row r="966" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A966" s="3"/>
       <c r="B966" s="3"/>
       <c r="E966" s="3"/>
     </row>
-    <row r="967" spans="1:5">
+    <row r="967" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A967" s="3"/>
       <c r="B967" s="3"/>
       <c r="E967" s="3"/>
     </row>
-    <row r="968" spans="1:5">
+    <row r="968" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A968" s="3"/>
       <c r="B968" s="3"/>
       <c r="E968" s="3"/>
     </row>
-    <row r="969" spans="1:5">
+    <row r="969" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A969" s="3"/>
       <c r="B969" s="3"/>
       <c r="E969" s="3"/>
     </row>
-    <row r="970" spans="1:5">
+    <row r="970" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A970" s="3"/>
       <c r="B970" s="3"/>
       <c r="E970" s="3"/>
     </row>
-    <row r="971" spans="1:5">
+    <row r="971" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A971" s="3"/>
       <c r="B971" s="3"/>
       <c r="E971" s="3"/>
     </row>
-    <row r="972" spans="1:5">
+    <row r="972" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A972" s="3"/>
       <c r="B972" s="3"/>
       <c r="E972" s="3"/>
     </row>
-    <row r="973" spans="1:5">
+    <row r="973" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A973" s="3"/>
       <c r="B973" s="3"/>
       <c r="E973" s="3"/>
     </row>
-    <row r="974" spans="1:5">
+    <row r="974" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A974" s="3"/>
       <c r="B974" s="3"/>
       <c r="E974" s="3"/>
     </row>
-    <row r="975" spans="1:5">
+    <row r="975" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A975" s="3"/>
       <c r="B975" s="3"/>
       <c r="E975" s="3"/>
     </row>
-    <row r="976" spans="1:5">
+    <row r="976" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A976" s="3"/>
       <c r="B976" s="3"/>
       <c r="E976" s="3"/>
     </row>
-    <row r="977" spans="1:5">
+    <row r="977" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A977" s="3"/>
       <c r="B977" s="3"/>
       <c r="E977" s="3"/>
     </row>
-    <row r="978" spans="1:5">
+    <row r="978" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A978" s="3"/>
       <c r="B978" s="3"/>
       <c r="E978" s="3"/>
     </row>
-    <row r="979" spans="1:5">
+    <row r="979" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A979" s="3"/>
       <c r="B979" s="3"/>
       <c r="E979" s="3"/>
     </row>
-    <row r="980" spans="1:5">
+    <row r="980" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A980" s="3"/>
       <c r="B980" s="3"/>
       <c r="E980" s="3"/>
     </row>
-    <row r="981" spans="1:5">
+    <row r="981" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A981" s="3"/>
       <c r="B981" s="3"/>
       <c r="E981" s="3"/>
     </row>
-    <row r="982" spans="1:5">
+    <row r="982" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A982" s="3"/>
       <c r="B982" s="3"/>
       <c r="E982" s="3"/>
     </row>
-    <row r="983" spans="1:5">
+    <row r="983" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A983" s="3"/>
       <c r="B983" s="3"/>
       <c r="E983" s="3"/>
     </row>
-    <row r="984" spans="1:5">
+    <row r="984" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A984" s="3"/>
       <c r="B984" s="3"/>
       <c r="E984" s="3"/>
     </row>
-    <row r="985" spans="1:5">
+    <row r="985" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A985" s="3"/>
       <c r="B985" s="3"/>
       <c r="E985" s="3"/>
     </row>
-    <row r="986" spans="1:5">
+    <row r="986" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A986" s="3"/>
       <c r="B986" s="3"/>
       <c r="E986" s="3"/>
     </row>
-    <row r="987" spans="1:5">
+    <row r="987" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A987" s="3"/>
       <c r="B987" s="3"/>
       <c r="E987" s="3"/>
     </row>
-    <row r="988" spans="1:5">
+    <row r="988" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A988" s="3"/>
       <c r="B988" s="3"/>
       <c r="E988" s="3"/>
     </row>
-    <row r="989" spans="1:5">
+    <row r="989" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A989" s="3"/>
       <c r="B989" s="3"/>
       <c r="E989" s="3"/>
     </row>
-    <row r="990" spans="1:5">
+    <row r="990" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A990" s="3"/>
       <c r="B990" s="3"/>
       <c r="E990" s="3"/>
     </row>
-    <row r="991" spans="1:5">
+    <row r="991" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A991" s="3"/>
       <c r="B991" s="3"/>
       <c r="E991" s="3"/>
     </row>
-    <row r="992" spans="1:5">
+    <row r="992" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A992" s="3"/>
       <c r="B992" s="3"/>
       <c r="E992" s="3"/>
     </row>
-    <row r="993" spans="1:5">
+    <row r="993" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A993" s="3"/>
       <c r="B993" s="3"/>
       <c r="E993" s="3"/>
     </row>
-    <row r="994" spans="1:5">
+    <row r="994" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A994" s="3"/>
       <c r="B994" s="3"/>
       <c r="E994" s="3"/>
     </row>
-    <row r="995" spans="1:5">
+    <row r="995" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A995" s="3"/>
       <c r="B995" s="3"/>
       <c r="E995" s="3"/>
     </row>
-    <row r="996" spans="1:5">
+    <row r="996" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A996" s="3"/>
       <c r="B996" s="3"/>
       <c r="E996" s="3"/>
     </row>
-    <row r="997" spans="1:5">
+    <row r="997" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A997" s="3"/>
       <c r="B997" s="3"/>
       <c r="E997" s="3"/>
     </row>
-    <row r="998" spans="1:5">
+    <row r="998" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A998" s="3"/>
       <c r="B998" s="3"/>
       <c r="E998" s="3"/>
     </row>
-    <row r="999" spans="1:5">
+    <row r="999" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A999" s="3"/>
       <c r="B999" s="3"/>
       <c r="E999" s="3"/>
     </row>
-    <row r="1000" spans="1:5">
+    <row r="1000" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1000" s="3"/>
       <c r="B1000" s="3"/>
       <c r="E1000" s="3"/>
@@ -6055,14 +6159,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
@@ -6071,7 +6175,7 @@
     <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="13" customFormat="1">
+    <row r="1" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
@@ -6109,7 +6213,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
@@ -6147,7 +6251,7 @@
         <v>43.45</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>15</v>
       </c>
@@ -6185,7 +6289,7 @@
         <v>62.4</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>16</v>
       </c>
@@ -6223,7 +6327,7 @@
         <v>248.75</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>17</v>
       </c>
@@ -6261,7 +6365,7 @@
         <v>68.8</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>18</v>
       </c>
@@ -6299,7 +6403,7 @@
         <v>87.4</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>19</v>
       </c>
@@ -6337,7 +6441,7 @@
         <v>105.7</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>20</v>
       </c>
@@ -6375,7 +6479,7 @@
         <v>119.75</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>21</v>
       </c>
@@ -6413,7 +6517,7 @@
         <v>143.05000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>22</v>
       </c>
@@ -6451,7 +6555,7 @@
         <v>122.95</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>23</v>
       </c>
@@ -6489,7 +6593,7 @@
         <v>736.65</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>24</v>
       </c>
@@ -6527,7 +6631,7 @@
         <v>139.9</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>25</v>
       </c>
@@ -6565,7 +6669,7 @@
         <v>17.649999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>26</v>
       </c>
@@ -6603,7 +6707,7 @@
         <v>82.2</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>27</v>
       </c>
@@ -6641,7 +6745,7 @@
         <v>51.5</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>28</v>
       </c>
@@ -6679,7 +6783,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>29</v>
       </c>
@@ -6717,7 +6821,7 @@
         <v>62.6</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>30</v>
       </c>
@@ -6755,7 +6859,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>31</v>
       </c>
@@ -6791,7 +6895,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>32</v>
       </c>
@@ -6827,7 +6931,7 @@
         <v>624.9</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>33</v>
       </c>
@@ -6863,7 +6967,7 @@
         <v>57.4</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>34</v>
       </c>
@@ -6899,7 +7003,7 @@
         <v>33.6</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>11</v>
       </c>
@@ -6935,7 +7039,7 @@
         <v>562.5</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>61</v>
       </c>
@@ -6971,7 +7075,7 @@
         <v>284.7</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>62</v>
       </c>
@@ -7007,7 +7111,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>75</v>
       </c>
@@ -7043,7 +7147,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>84</v>
       </c>
@@ -7070,14 +7174,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:E31"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="17.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.85546875" style="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="19" bestFit="1" customWidth="1"/>
@@ -7098,7 +7202,7 @@
     <col min="18" max="16384" width="17.85546875" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>63</v>
       </c>
@@ -7133,7 +7237,7 @@
       </c>
       <c r="Q1" s="5"/>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>64</v>
       </c>
@@ -7173,7 +7277,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>64</v>
       </c>
@@ -7214,7 +7318,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>106</v>
       </c>
@@ -7255,7 +7359,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>65</v>
       </c>
@@ -7290,7 +7394,7 @@
         <v>1250000</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>38</v>
       </c>
@@ -7332,7 +7436,7 @@
         <v>62500</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>36</v>
       </c>
@@ -7360,7 +7464,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>37</v>
       </c>
@@ -7388,7 +7492,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>5</v>
       </c>
@@ -7415,7 +7519,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G10" s="9" t="s">
         <v>82</v>
       </c>
@@ -7433,7 +7537,7 @@
       </c>
       <c r="N10" s="5"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G11" s="9" t="s">
         <v>83</v>
       </c>
@@ -7453,7 +7557,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G12" s="9" t="s">
         <v>86</v>
       </c>
@@ -7473,7 +7577,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G13" s="9" t="s">
         <v>5</v>
       </c>
@@ -7487,7 +7591,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D14" s="24"/>
       <c r="J14" s="15" t="s">
         <v>96</v>
@@ -7496,7 +7600,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D15" s="24"/>
       <c r="J15" s="15" t="s">
         <v>97</v>
@@ -7505,7 +7609,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D16" s="24"/>
       <c r="J16" s="15" t="s">
         <v>98</v>
@@ -7514,7 +7618,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="17" spans="4:11">
+    <row r="17" spans="4:11" x14ac:dyDescent="0.25">
       <c r="J17" s="15" t="s">
         <v>88</v>
       </c>
@@ -7522,7 +7626,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="4:11">
+    <row r="18" spans="4:11" x14ac:dyDescent="0.25">
       <c r="J18" s="15" t="s">
         <v>99</v>
       </c>
@@ -7530,7 +7634,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="19" spans="4:11">
+    <row r="19" spans="4:11" x14ac:dyDescent="0.25">
       <c r="J19" s="15" t="s">
         <v>100</v>
       </c>
@@ -7538,7 +7642,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="20" spans="4:11">
+    <row r="20" spans="4:11" x14ac:dyDescent="0.25">
       <c r="J20" s="15" t="s">
         <v>38</v>
       </c>
@@ -7546,7 +7650,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="21" spans="4:11">
+    <row r="21" spans="4:11" x14ac:dyDescent="0.25">
       <c r="J21" s="15" t="s">
         <v>101</v>
       </c>
@@ -7554,7 +7658,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="22" spans="4:11">
+    <row r="22" spans="4:11" x14ac:dyDescent="0.25">
       <c r="J22" s="15" t="s">
         <v>102</v>
       </c>
@@ -7562,7 +7666,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="23" spans="4:11">
+    <row r="23" spans="4:11" x14ac:dyDescent="0.25">
       <c r="J23" s="15" t="s">
         <v>103</v>
       </c>
@@ -7570,7 +7674,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="24" spans="4:11">
+    <row r="24" spans="4:11" x14ac:dyDescent="0.25">
       <c r="J24" s="15" t="s">
         <v>104</v>
       </c>
@@ -7578,7 +7682,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="25" spans="4:11">
+    <row r="25" spans="4:11" x14ac:dyDescent="0.25">
       <c r="J25" s="15" t="s">
         <v>105</v>
       </c>
@@ -7586,7 +7690,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="26" spans="4:11">
+    <row r="26" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D26" s="23"/>
       <c r="J26" s="15" t="s">
         <v>111</v>
@@ -7599,4 +7703,726 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I1">
+        <f>SUM(H2:H200)</f>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="5">
+        <v>290</v>
+      </c>
+      <c r="C2" s="5">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5">
+        <f>B2*C2</f>
+        <v>580</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5">
+        <f>E2*F2</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="5">
+        <v>170</v>
+      </c>
+      <c r="C3" s="5">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5">
+        <f>B3*C3</f>
+        <v>2040</v>
+      </c>
+      <c r="E3" s="5">
+        <v>180</v>
+      </c>
+      <c r="F3" s="5">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5">
+        <f t="shared" ref="G3:G18" si="0">E3*F3</f>
+        <v>2160</v>
+      </c>
+      <c r="H3" s="5">
+        <f t="shared" ref="H2:H19" si="1">G3-D3</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="5">
+        <v>34</v>
+      </c>
+      <c r="C4" s="5">
+        <v>11</v>
+      </c>
+      <c r="D4" s="5">
+        <f>B4*C4</f>
+        <v>374</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="5">
+        <v>38</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5">
+        <f>B5*C5</f>
+        <v>76</v>
+      </c>
+      <c r="E5" s="5">
+        <v>41</v>
+      </c>
+      <c r="F5" s="5">
+        <v>2</v>
+      </c>
+      <c r="G5" s="5">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="H5" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="5">
+        <v>71</v>
+      </c>
+      <c r="C6" s="5">
+        <v>11</v>
+      </c>
+      <c r="D6" s="5">
+        <f>B6*C6</f>
+        <v>781</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="5">
+        <v>92.1</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5">
+        <f>B7*C7</f>
+        <v>184.2</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5">
+        <f t="shared" ref="D8:D17" si="2">B8*C8</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="5">
+        <v>287.7</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="5">
+        <f>B2*B3</f>
+        <v>1.4384999999999999</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" s="5">
+        <f>E2*E3</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="5">
+        <f>B4*B5</f>
+        <v>1.4384999999999999</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" s="5">
+        <f>E4*E5</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="5">
+        <f>B2+B4</f>
+        <v>289.13849999999996</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" s="5">
+        <f>E2-E4</f>
+        <v>298.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" s="5">
+        <f>B7*B5</f>
+        <v>289.13849999999996</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="5">
+        <f>E7*E5</f>
+        <v>298.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" s="5">
+        <f>B9*B6</f>
+        <v>0.25892999999999999</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E10" s="5">
+        <f>E9*E6</f>
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B12" s="5">
+        <f>B11*B8</f>
+        <v>0.28913849999999996</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" s="5">
+        <f>E11*E8</f>
+        <v>0.29849999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B13" s="5">
+        <v>3.2499999999999997E-5</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E13" s="5">
+        <v>3.2499999999999997E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B14" s="5">
+        <f>B13*B8</f>
+        <v>9.3970012499999984E-3</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E14" s="5">
+        <f>E13*E8</f>
+        <v>9.7012499999999998E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="B17" s="5">
+        <f>B10+B12+B14+B16</f>
+        <v>0.85746550124999987</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="E17" s="5">
+        <f>E10+E12+E14+E16</f>
+        <v>0.87820125000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="B18" s="5">
+        <f>B8+B17</f>
+        <v>289.99596550124994</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="E18" s="5">
+        <f>E8-E17</f>
+        <v>297.62179874999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/documents/Home.xlsx
+++ b/documents/Home.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="13965" windowHeight="5625" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="13965" windowHeight="5625" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="PaidTillDate" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="155">
   <si>
     <t>Date</t>
   </si>
@@ -471,9 +471,6 @@
   </si>
   <si>
     <t>Stamp Duty Total</t>
-  </si>
-  <si>
-    <t> 0.0002</t>
   </si>
   <si>
     <t>Actual Price Bought</t>
@@ -624,7 +621,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -666,6 +663,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6162,8 +6160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7710,7 +7708,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8153,8 +8151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8170,13 +8168,13 @@
         <v>135</v>
       </c>
       <c r="B2" s="5">
-        <v>287.7</v>
+        <v>36.5</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E2" s="5">
-        <v>300</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -8199,14 +8197,14 @@
       </c>
       <c r="B4" s="5">
         <f>B2*B3</f>
-        <v>1.4384999999999999</v>
+        <v>0.1825</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>137</v>
       </c>
       <c r="E4" s="5">
         <f>E2*E3</f>
-        <v>1.5</v>
+        <v>0.20750000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -8229,14 +8227,14 @@
       </c>
       <c r="B6" s="5">
         <f>B4*B5</f>
-        <v>1.4384999999999999</v>
+        <v>0.1825</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>139</v>
       </c>
       <c r="E6" s="5">
         <f>E4*E5</f>
-        <v>1.5</v>
+        <v>0.20750000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -8245,14 +8243,14 @@
       </c>
       <c r="B7" s="5">
         <f>B2+B4</f>
-        <v>289.13849999999996</v>
+        <v>36.682499999999997</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>140</v>
       </c>
       <c r="E7" s="5">
         <f>E2-E4</f>
-        <v>298.5</v>
+        <v>41.292499999999997</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -8260,15 +8258,15 @@
         <v>144</v>
       </c>
       <c r="B8" s="5">
-        <f>B7*B5</f>
-        <v>289.13849999999996</v>
+        <f>ROUND(B7*B5,2)</f>
+        <v>36.68</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>144</v>
       </c>
       <c r="E8" s="5">
-        <f>E7*E5</f>
-        <v>298.5</v>
+        <f>ROUND(E7*E5,2)</f>
+        <v>41.29</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -8291,14 +8289,14 @@
       </c>
       <c r="B10" s="5">
         <f>B9*B6</f>
-        <v>0.25892999999999999</v>
+        <v>3.2849999999999997E-2</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>143</v>
       </c>
       <c r="E10" s="5">
         <f>E9*E6</f>
-        <v>0.27</v>
+        <v>3.7350000000000001E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -8321,14 +8319,14 @@
       </c>
       <c r="B12" s="5">
         <f>B11*B8</f>
-        <v>0.28913849999999996</v>
+        <v>3.6679999999999997E-2</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>146</v>
       </c>
       <c r="E12" s="5">
         <f>E11*E8</f>
-        <v>0.29849999999999999</v>
+        <v>4.129E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -8351,28 +8349,28 @@
       </c>
       <c r="B14" s="5">
         <f>B13*B8</f>
-        <v>9.3970012499999984E-3</v>
+        <v>1.1921E-3</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>148</v>
       </c>
       <c r="E14" s="5">
         <f>E13*E8</f>
-        <v>9.7012499999999998E-3</v>
+        <v>1.3419249999999999E-3</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="B15" s="34" t="s">
-        <v>151</v>
+      <c r="B15" s="35">
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="D15" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="E15" s="34" t="s">
-        <v>151</v>
+      <c r="E15" s="35">
+        <v>2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -8380,45 +8378,47 @@
         <v>150</v>
       </c>
       <c r="B16" s="5">
-        <v>0.3</v>
+        <f>B8*B15</f>
+        <v>7.3360000000000005E-3</v>
       </c>
       <c r="D16" s="34" t="s">
         <v>150</v>
       </c>
       <c r="E16" s="5">
-        <v>0.3</v>
+        <f>E8*E15</f>
+        <v>8.2579999999999997E-3</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B17" s="5">
         <f>B10+B12+B14+B16</f>
-        <v>0.85746550124999987</v>
+        <v>7.8058099999999991E-2</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E17" s="5">
         <f>E10+E12+E14+E16</f>
-        <v>0.87820125000000004</v>
+        <v>8.8239924999999997E-2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B18" s="5">
         <f>B8+B17</f>
-        <v>289.99596550124994</v>
+        <v>36.7580581</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E18" s="5">
         <f>E8-E17</f>
-        <v>297.62179874999998</v>
+        <v>41.201760074999996</v>
       </c>
     </row>
   </sheetData>

--- a/documents/Home.xlsx
+++ b/documents/Home.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="13965" windowHeight="5625" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="13965" windowHeight="5625" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PaidTillDate" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="161">
   <si>
     <t>Date</t>
   </si>
@@ -483,6 +483,24 @@
   </si>
   <si>
     <t>Total Taxes</t>
+  </si>
+  <si>
+    <t>20/7/2017</t>
+  </si>
+  <si>
+    <t>AURO PHARMA</t>
+  </si>
+  <si>
+    <t>AUROPHARMA</t>
+  </si>
+  <si>
+    <t>21/7/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELIANCE </t>
+  </si>
+  <si>
+    <t>RELIANCE</t>
   </si>
 </sst>
 </file>
@@ -621,7 +639,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -664,6 +682,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6158,10 +6177,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28:N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6171,9 +6190,10 @@
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
@@ -6210,8 +6230,14 @@
       <c r="L1" s="32" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="N1" s="32" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
@@ -6248,8 +6274,14 @@
       <c r="L2" s="5">
         <v>43.45</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="5">
+        <v>44.35</v>
+      </c>
+      <c r="N2" s="5">
+        <v>44.15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>15</v>
       </c>
@@ -6286,8 +6318,14 @@
       <c r="L3" s="5">
         <v>62.4</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" s="5">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="N3" s="5">
+        <v>65.349999999999994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>16</v>
       </c>
@@ -6324,8 +6362,14 @@
       <c r="L4" s="5">
         <v>248.75</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" s="5">
+        <v>255.4</v>
+      </c>
+      <c r="N4" s="5">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>17</v>
       </c>
@@ -6362,8 +6406,14 @@
       <c r="L5" s="5">
         <v>68.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" s="5">
+        <v>70</v>
+      </c>
+      <c r="N5" s="5">
+        <v>70.900000000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>18</v>
       </c>
@@ -6400,8 +6450,14 @@
       <c r="L6" s="5">
         <v>87.4</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" s="5">
+        <v>95.15</v>
+      </c>
+      <c r="N6" s="5">
+        <v>92.85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>19</v>
       </c>
@@ -6438,8 +6494,14 @@
       <c r="L7" s="5">
         <v>105.7</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" s="5">
+        <v>105.85</v>
+      </c>
+      <c r="N7" s="5">
+        <v>104.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>20</v>
       </c>
@@ -6476,8 +6538,14 @@
       <c r="L8" s="5">
         <v>119.75</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="5">
+        <v>123.7</v>
+      </c>
+      <c r="N8" s="5">
+        <v>123.55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>21</v>
       </c>
@@ -6514,8 +6582,14 @@
       <c r="L9" s="5">
         <v>143.05000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" s="5">
+        <v>146.30000000000001</v>
+      </c>
+      <c r="N9" s="5">
+        <v>145.65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>22</v>
       </c>
@@ -6552,8 +6626,14 @@
       <c r="L10" s="5">
         <v>122.95</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" s="5">
+        <v>126.9</v>
+      </c>
+      <c r="N10" s="5">
+        <v>128.80000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>23</v>
       </c>
@@ -6590,8 +6670,14 @@
       <c r="L11" s="5">
         <v>736.65</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" s="5">
+        <v>744.85</v>
+      </c>
+      <c r="N11" s="5">
+        <v>743.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>24</v>
       </c>
@@ -6628,8 +6714,14 @@
       <c r="L12" s="5">
         <v>139.9</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" s="5">
+        <v>140.80000000000001</v>
+      </c>
+      <c r="N12" s="5">
+        <v>139.65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>25</v>
       </c>
@@ -6666,8 +6758,14 @@
       <c r="L13" s="5">
         <v>17.649999999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" s="5">
+        <v>17.850000000000001</v>
+      </c>
+      <c r="N13" s="5">
+        <v>17.850000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>26</v>
       </c>
@@ -6704,8 +6802,14 @@
       <c r="L14" s="5">
         <v>82.2</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14" s="5">
+        <v>83</v>
+      </c>
+      <c r="N14" s="5">
+        <v>83.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>27</v>
       </c>
@@ -6742,8 +6846,14 @@
       <c r="L15" s="5">
         <v>51.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15" s="5">
+        <v>53</v>
+      </c>
+      <c r="N15" s="5">
+        <v>53.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>28</v>
       </c>
@@ -6780,8 +6890,14 @@
       <c r="L16" s="5">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16" s="5">
+        <v>34.35</v>
+      </c>
+      <c r="N16" s="5">
+        <v>35.450000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>29</v>
       </c>
@@ -6818,8 +6934,14 @@
       <c r="L17" s="5">
         <v>62.6</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17" s="5">
+        <v>62.9</v>
+      </c>
+      <c r="N17" s="5">
+        <v>62.55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>30</v>
       </c>
@@ -6856,8 +6978,14 @@
       <c r="L18" s="5">
         <v>26.1</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18" s="5">
+        <v>26.25</v>
+      </c>
+      <c r="N18" s="5">
+        <v>27.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>31</v>
       </c>
@@ -6892,8 +7020,14 @@
       <c r="L19" s="5">
         <v>28</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19" s="5">
+        <v>25.3</v>
+      </c>
+      <c r="N19" s="5">
+        <v>26.55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>32</v>
       </c>
@@ -6928,8 +7062,14 @@
       <c r="L20" s="5">
         <v>624.9</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20" s="5">
+        <v>621.20000000000005</v>
+      </c>
+      <c r="N20" s="5">
+        <v>624.54999999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>33</v>
       </c>
@@ -6964,8 +7104,14 @@
       <c r="L21" s="5">
         <v>57.4</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21" s="5">
+        <v>59</v>
+      </c>
+      <c r="N21" s="5">
+        <v>59.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>34</v>
       </c>
@@ -7000,8 +7146,14 @@
       <c r="L22" s="5">
         <v>33.6</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22" s="5">
+        <v>37.6</v>
+      </c>
+      <c r="N22" s="5">
+        <v>37.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>11</v>
       </c>
@@ -7036,8 +7188,14 @@
       <c r="L23" s="5">
         <v>562.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M23" s="5">
+        <v>557.35</v>
+      </c>
+      <c r="N23" s="5">
+        <v>553.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>61</v>
       </c>
@@ -7072,8 +7230,14 @@
       <c r="L24" s="33">
         <v>284.7</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M24" s="5">
+        <v>290</v>
+      </c>
+      <c r="N24" s="5">
+        <v>289.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>62</v>
       </c>
@@ -7108,8 +7272,14 @@
       <c r="L25" s="5">
         <v>511</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M25" s="5">
+        <v>536</v>
+      </c>
+      <c r="N25" s="5">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>75</v>
       </c>
@@ -7144,8 +7314,14 @@
       <c r="L26" s="5">
         <v>178</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26" s="5">
+        <v>177</v>
+      </c>
+      <c r="N26" s="5">
+        <v>184.7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>84</v>
       </c>
@@ -7163,6 +7339,56 @@
       <c r="K27" s="5"/>
       <c r="L27" s="5">
         <v>443.35</v>
+      </c>
+      <c r="M27" s="5">
+        <v>449.4</v>
+      </c>
+      <c r="N27" s="5">
+        <v>442.85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="36">
+        <v>1582.65</v>
       </c>
     </row>
   </sheetData>
@@ -7705,14 +7931,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" customWidth="1"/>
@@ -7722,29 +7949,29 @@
     <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="32" t="s">
         <v>123</v>
       </c>
       <c r="I1">
@@ -7752,7 +7979,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>61</v>
       </c>
@@ -7760,11 +7987,11 @@
         <v>290</v>
       </c>
       <c r="C2" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="5">
-        <f>B2*C2</f>
-        <v>580</v>
+        <f t="shared" ref="D2:D7" si="0">B2*C2</f>
+        <v>290</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -7773,8 +8000,14 @@
         <v>0</v>
       </c>
       <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <v>126</v>
+      </c>
+      <c r="K2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>130</v>
       </c>
@@ -7785,7 +8018,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="5">
-        <f>B3*C3</f>
+        <f t="shared" si="0"/>
         <v>2040</v>
       </c>
       <c r="E3" s="5">
@@ -7795,15 +8028,15 @@
         <v>12</v>
       </c>
       <c r="G3" s="5">
-        <f t="shared" ref="G3:G18" si="0">E3*F3</f>
+        <f t="shared" ref="G3:G18" si="1">E3*F3</f>
         <v>2160</v>
       </c>
       <c r="H3" s="5">
-        <f t="shared" ref="H2:H19" si="1">G3-D3</f>
+        <f t="shared" ref="H3:H5" si="2">G3-D3</f>
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>131</v>
       </c>
@@ -7814,18 +8047,18 @@
         <v>11</v>
       </c>
       <c r="D4" s="5">
-        <f>B4*C4</f>
+        <f t="shared" si="0"/>
         <v>374</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>133</v>
       </c>
@@ -7836,7 +8069,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="5">
-        <f>B5*C5</f>
+        <f t="shared" si="0"/>
         <v>76</v>
       </c>
       <c r="E5" s="5">
@@ -7846,37 +8079,37 @@
         <v>2</v>
       </c>
       <c r="G5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="H5" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>134</v>
       </c>
       <c r="B6" s="5">
-        <v>71</v>
+        <v>71.010000000000005</v>
       </c>
       <c r="C6" s="5">
         <v>11</v>
       </c>
       <c r="D6" s="5">
-        <f>B6*C6</f>
-        <v>781</v>
+        <f t="shared" si="0"/>
+        <v>781.11</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>142</v>
       </c>
@@ -7887,157 +8120,169 @@
         <v>2</v>
       </c>
       <c r="D7" s="5">
-        <f>B7*C7</f>
+        <f t="shared" si="0"/>
         <v>184.2</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="B8" s="5">
+        <v>770</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
       <c r="D8" s="5">
-        <f t="shared" ref="D8:D17" si="2">B8*C8</f>
-        <v>0</v>
+        <f t="shared" ref="D8:D17" si="3">B8*C8</f>
+        <v>770</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1595</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
       <c r="D9" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>B9*C9</f>
+        <v>1595</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H16" s="5"/>
@@ -8047,13 +8292,13 @@
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H17" s="5"/>
@@ -8066,7 +8311,7 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H18" s="5"/>
@@ -8143,7 +8388,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8151,7 +8396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>

--- a/documents/Home.xlsx
+++ b/documents/Home.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="13965" windowHeight="5625" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="13965" windowHeight="5625" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PaidTillDate" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="163">
   <si>
     <t>Date</t>
   </si>
@@ -501,6 +501,12 @@
   </si>
   <si>
     <t>RELIANCE</t>
+  </si>
+  <si>
+    <t>IDEA</t>
+  </si>
+  <si>
+    <t>BHARTIARTL</t>
   </si>
 </sst>
 </file>
@@ -6177,10 +6183,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28:N29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6278,7 +6284,7 @@
         <v>44.35</v>
       </c>
       <c r="N2" s="5">
-        <v>44.15</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -6322,7 +6328,7 @@
         <v>65.599999999999994</v>
       </c>
       <c r="N3" s="5">
-        <v>65.349999999999994</v>
+        <v>66.900000000000006</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -6366,7 +6372,7 @@
         <v>255.4</v>
       </c>
       <c r="N4" s="5">
-        <v>261</v>
+        <v>262.5</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -6410,7 +6416,7 @@
         <v>70</v>
       </c>
       <c r="N5" s="5">
-        <v>70.900000000000006</v>
+        <v>70.75</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -6454,7 +6460,7 @@
         <v>95.15</v>
       </c>
       <c r="N6" s="5">
-        <v>92.85</v>
+        <v>91.65</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -6498,7 +6504,7 @@
         <v>105.85</v>
       </c>
       <c r="N7" s="5">
-        <v>104.3</v>
+        <v>102.9</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -6542,7 +6548,7 @@
         <v>123.7</v>
       </c>
       <c r="N8" s="5">
-        <v>123.55</v>
+        <v>122.8</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -6586,7 +6592,7 @@
         <v>146.30000000000001</v>
       </c>
       <c r="N9" s="5">
-        <v>145.65</v>
+        <v>144.9</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -6630,7 +6636,7 @@
         <v>126.9</v>
       </c>
       <c r="N10" s="5">
-        <v>128.80000000000001</v>
+        <v>128.55000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -6674,7 +6680,7 @@
         <v>744.85</v>
       </c>
       <c r="N11" s="5">
-        <v>743.9</v>
+        <v>719.5</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -6718,7 +6724,7 @@
         <v>140.80000000000001</v>
       </c>
       <c r="N12" s="5">
-        <v>139.65</v>
+        <v>136.75</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -6762,7 +6768,7 @@
         <v>17.850000000000001</v>
       </c>
       <c r="N13" s="5">
-        <v>17.850000000000001</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -6806,7 +6812,7 @@
         <v>83</v>
       </c>
       <c r="N14" s="5">
-        <v>83.1</v>
+        <v>83.3</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -6850,7 +6856,7 @@
         <v>53</v>
       </c>
       <c r="N15" s="5">
-        <v>53.5</v>
+        <v>55.15</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -6894,7 +6900,7 @@
         <v>34.35</v>
       </c>
       <c r="N16" s="5">
-        <v>35.450000000000003</v>
+        <v>33.799999999999997</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -6938,7 +6944,7 @@
         <v>62.9</v>
       </c>
       <c r="N17" s="5">
-        <v>62.55</v>
+        <v>62.4</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -6982,7 +6988,7 @@
         <v>26.25</v>
       </c>
       <c r="N18" s="5">
-        <v>27.75</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -7066,7 +7072,7 @@
         <v>621.20000000000005</v>
       </c>
       <c r="N20" s="5">
-        <v>624.54999999999995</v>
+        <v>613</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -7108,7 +7114,7 @@
         <v>59</v>
       </c>
       <c r="N21" s="5">
-        <v>59.25</v>
+        <v>58.35</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -7150,7 +7156,7 @@
         <v>37.6</v>
       </c>
       <c r="N22" s="5">
-        <v>37.25</v>
+        <v>37.450000000000003</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -7192,7 +7198,7 @@
         <v>557.35</v>
       </c>
       <c r="N23" s="5">
-        <v>553.25</v>
+        <v>552.20000000000005</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -7234,7 +7240,7 @@
         <v>290</v>
       </c>
       <c r="N24" s="5">
-        <v>289.2</v>
+        <v>288.5</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -7276,7 +7282,7 @@
         <v>536</v>
       </c>
       <c r="N25" s="5">
-        <v>547</v>
+        <v>537</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -7318,7 +7324,7 @@
         <v>177</v>
       </c>
       <c r="N26" s="5">
-        <v>184.7</v>
+        <v>180.5</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -7344,7 +7350,7 @@
         <v>449.4</v>
       </c>
       <c r="N27" s="5">
-        <v>442.85</v>
+        <v>438.5</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -7366,7 +7372,7 @@
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5">
-        <v>748</v>
+        <v>744.65</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -7388,7 +7394,29 @@
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
       <c r="N29" s="36">
-        <v>1582.65</v>
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5">
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -7933,8 +7961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7976,7 +8004,7 @@
       </c>
       <c r="I1">
         <f>SUM(H2:H200)</f>
-        <v>126</v>
+        <v>172.20000000000005</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8035,6 +8063,12 @@
         <f t="shared" ref="H3:H5" si="2">G3-D3</f>
         <v>120</v>
       </c>
+      <c r="J3">
+        <v>172</v>
+      </c>
+      <c r="K3" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -8050,13 +8084,20 @@
         <f t="shared" si="0"/>
         <v>374</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="E4" s="5">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="F4" s="5">
+        <v>11</v>
+      </c>
       <c r="G4" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H4" s="5"/>
+        <v>420.20000000000005</v>
+      </c>
+      <c r="H4" s="5">
+        <f t="shared" si="2"/>
+        <v>46.200000000000045</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -8124,7 +8165,9 @@
         <v>184.2</v>
       </c>
       <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="F7" s="5">
+        <v>2</v>
+      </c>
       <c r="G7" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8136,14 +8179,14 @@
         <v>156</v>
       </c>
       <c r="B8" s="5">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="C8" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="5">
         <f t="shared" ref="D8:D17" si="3">B8*C8</f>
-        <v>770</v>
+        <v>1524</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -8176,12 +8219,18 @@
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
+      <c r="A10" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B10" s="5">
+        <v>90.2</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
       <c r="D10" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>90.2</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -8192,12 +8241,18 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
+      <c r="A11" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" s="5">
+        <v>410.1</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
       <c r="D11" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>410.1</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>

--- a/documents/Home.xlsx
+++ b/documents/Home.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2520" windowWidth="13965" windowHeight="5625" activeTab="1"/>
@@ -13,7 +13,7 @@
     <sheet name="Profit" sheetId="7" r:id="rId4"/>
     <sheet name="Actual Price Calculator" sheetId="8" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -512,11 +512,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -779,7 +779,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -814,7 +813,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -990,14 +988,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
@@ -1006,7 +1004,7 @@
     <col min="6" max="26" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -1040,7 +1038,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26">
       <c r="A2" s="26">
         <v>42190</v>
       </c>
@@ -1070,7 +1068,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26">
       <c r="A3" s="26">
         <v>42192</v>
       </c>
@@ -1099,7 +1097,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26">
       <c r="A4" s="26">
         <v>42229</v>
       </c>
@@ -1109,7 +1107,7 @@
       <c r="D4" s="29"/>
       <c r="E4" s="29"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26">
       <c r="A5" s="26">
         <v>42230</v>
       </c>
@@ -1121,7 +1119,7 @@
       </c>
       <c r="E5" s="29"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26">
       <c r="A6" s="26">
         <v>42255</v>
       </c>
@@ -1130,7 +1128,7 @@
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26">
       <c r="A7" s="26">
         <v>42262</v>
       </c>
@@ -1139,7 +1137,7 @@
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26">
       <c r="A8" s="26">
         <v>42282</v>
       </c>
@@ -1148,7 +1146,7 @@
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26">
       <c r="A9" s="26">
         <v>42299</v>
       </c>
@@ -1157,7 +1155,7 @@
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26">
       <c r="A10" s="26">
         <v>42373</v>
       </c>
@@ -1166,7 +1164,7 @@
       </c>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26">
       <c r="A11" s="26">
         <v>42553</v>
       </c>
@@ -1175,7 +1173,7 @@
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26">
       <c r="A12" s="26">
         <v>42640</v>
       </c>
@@ -1184,7 +1182,7 @@
       </c>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26">
       <c r="A13" s="27">
         <v>42768</v>
       </c>
@@ -1193,7 +1191,7 @@
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26">
       <c r="A14" s="27">
         <v>42796</v>
       </c>
@@ -1202,7 +1200,7 @@
       </c>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26">
       <c r="A15" s="27">
         <v>42829</v>
       </c>
@@ -1211,7 +1209,7 @@
       </c>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26">
       <c r="A16" s="28">
         <v>42856</v>
       </c>
@@ -1220,7 +1218,7 @@
       </c>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26">
       <c r="A17" s="28">
         <v>42887</v>
       </c>
@@ -1229,7 +1227,7 @@
       </c>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26">
       <c r="A18" s="28">
         <v>42917</v>
       </c>
@@ -1238,37 +1236,37 @@
       </c>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26">
       <c r="A19" s="28"/>
       <c r="B19" s="25"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26">
       <c r="A20" s="28"/>
       <c r="B20" s="25"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26">
       <c r="A21" s="28"/>
       <c r="B21" s="25"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26">
       <c r="A22" s="28"/>
       <c r="B22" s="25"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26">
       <c r="A23" s="28"/>
       <c r="B23" s="25"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26">
       <c r="A24" s="29"/>
       <c r="B24" s="29"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26">
       <c r="A25" s="27" t="s">
         <v>5</v>
       </c>
@@ -1301,4877 +1299,4877 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="E45" s="3"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="E48" s="3"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="E53" s="3"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="E54" s="3"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="E61" s="3"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="E62" s="3"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="E63" s="3"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="E64" s="3"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="E65" s="3"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="E66" s="3"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="E67" s="3"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="E68" s="3"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="E69" s="3"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="E70" s="3"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="E71" s="3"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="E72" s="3"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="E73" s="3"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="E74" s="3"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="E75" s="3"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="E76" s="3"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="E77" s="3"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="E78" s="3"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="E79" s="3"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="E80" s="3"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="E81" s="3"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="E82" s="3"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="E83" s="3"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="E84" s="3"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="E85" s="3"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="E86" s="3"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="E87" s="3"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="E88" s="3"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="E89" s="3"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="E90" s="3"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="E91" s="3"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="E92" s="3"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="E93" s="3"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="E94" s="3"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="E95" s="3"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="E96" s="3"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="E97" s="3"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="E98" s="3"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="E99" s="3"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="E100" s="3"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="E101" s="3"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="E102" s="3"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="E103" s="3"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="E104" s="3"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="E105" s="3"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="E106" s="3"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="E107" s="3"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="E108" s="3"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="E109" s="3"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="E110" s="3"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="E111" s="3"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="E112" s="3"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="E113" s="3"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="E114" s="3"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="E115" s="3"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="E116" s="3"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="E117" s="3"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="E118" s="3"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="E119" s="3"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="E120" s="3"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="E121" s="3"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="E122" s="3"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="E123" s="3"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="E124" s="3"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="E125" s="3"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="E126" s="3"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="E127" s="3"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="E128" s="3"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="E129" s="3"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="E130" s="3"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="E131" s="3"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="E132" s="3"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="E133" s="3"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="E134" s="3"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="E135" s="3"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="E136" s="3"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="E137" s="3"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="E138" s="3"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="E139" s="3"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="E140" s="3"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="E141" s="3"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="E142" s="3"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="E143" s="3"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="E144" s="3"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="E145" s="3"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="E146" s="3"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="E147" s="3"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="E148" s="3"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="E149" s="3"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="E150" s="3"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="E151" s="3"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="E152" s="3"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="E153" s="3"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="E154" s="3"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="E155" s="3"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="E156" s="3"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="E157" s="3"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="E158" s="3"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="E159" s="3"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="E160" s="3"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="E161" s="3"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="E162" s="3"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="E163" s="3"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="E164" s="3"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="E165" s="3"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="E166" s="3"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="E167" s="3"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="E168" s="3"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="E169" s="3"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="E170" s="3"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="E171" s="3"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="E172" s="3"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="E173" s="3"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="E174" s="3"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="E175" s="3"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="E176" s="3"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="E177" s="3"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="E178" s="3"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="E179" s="3"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="E180" s="3"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="E181" s="3"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="E182" s="3"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="E183" s="3"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="E184" s="3"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="E185" s="3"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="E186" s="3"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="E187" s="3"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="E188" s="3"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="E189" s="3"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="E190" s="3"/>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="E191" s="3"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="E192" s="3"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="E193" s="3"/>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="E194" s="3"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="E195" s="3"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="E196" s="3"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="E197" s="3"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="E198" s="3"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="E199" s="3"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="E200" s="3"/>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="E201" s="3"/>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="E202" s="3"/>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="E203" s="3"/>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="E204" s="3"/>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="E205" s="3"/>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="E206" s="3"/>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="E207" s="3"/>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="E208" s="3"/>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="E209" s="3"/>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="E210" s="3"/>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="E211" s="3"/>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="E212" s="3"/>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="E213" s="3"/>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="E214" s="3"/>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="E215" s="3"/>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="E216" s="3"/>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="E217" s="3"/>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="E218" s="3"/>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="E219" s="3"/>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="E220" s="3"/>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5">
       <c r="A221" s="3"/>
       <c r="B221" s="3"/>
       <c r="E221" s="3"/>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5">
       <c r="A222" s="3"/>
       <c r="B222" s="3"/>
       <c r="E222" s="3"/>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5">
       <c r="A223" s="3"/>
       <c r="B223" s="3"/>
       <c r="E223" s="3"/>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5">
       <c r="A224" s="3"/>
       <c r="B224" s="3"/>
       <c r="E224" s="3"/>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5">
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
       <c r="E225" s="3"/>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5">
       <c r="A226" s="3"/>
       <c r="B226" s="3"/>
       <c r="E226" s="3"/>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5">
       <c r="A227" s="3"/>
       <c r="B227" s="3"/>
       <c r="E227" s="3"/>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5">
       <c r="A228" s="3"/>
       <c r="B228" s="3"/>
       <c r="E228" s="3"/>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5">
       <c r="A229" s="3"/>
       <c r="B229" s="3"/>
       <c r="E229" s="3"/>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5">
       <c r="A230" s="3"/>
       <c r="B230" s="3"/>
       <c r="E230" s="3"/>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5">
       <c r="A231" s="3"/>
       <c r="B231" s="3"/>
       <c r="E231" s="3"/>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5">
       <c r="A232" s="3"/>
       <c r="B232" s="3"/>
       <c r="E232" s="3"/>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5">
       <c r="A233" s="3"/>
       <c r="B233" s="3"/>
       <c r="E233" s="3"/>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5">
       <c r="A234" s="3"/>
       <c r="B234" s="3"/>
       <c r="E234" s="3"/>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5">
       <c r="A235" s="3"/>
       <c r="B235" s="3"/>
       <c r="E235" s="3"/>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5">
       <c r="A236" s="3"/>
       <c r="B236" s="3"/>
       <c r="E236" s="3"/>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5">
       <c r="A237" s="3"/>
       <c r="B237" s="3"/>
       <c r="E237" s="3"/>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5">
       <c r="A238" s="3"/>
       <c r="B238" s="3"/>
       <c r="E238" s="3"/>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5">
       <c r="A239" s="3"/>
       <c r="B239" s="3"/>
       <c r="E239" s="3"/>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5">
       <c r="A240" s="3"/>
       <c r="B240" s="3"/>
       <c r="E240" s="3"/>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5">
       <c r="A241" s="3"/>
       <c r="B241" s="3"/>
       <c r="E241" s="3"/>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5">
       <c r="A242" s="3"/>
       <c r="B242" s="3"/>
       <c r="E242" s="3"/>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5">
       <c r="A243" s="3"/>
       <c r="B243" s="3"/>
       <c r="E243" s="3"/>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5">
       <c r="A244" s="3"/>
       <c r="B244" s="3"/>
       <c r="E244" s="3"/>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5">
       <c r="A245" s="3"/>
       <c r="B245" s="3"/>
       <c r="E245" s="3"/>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5">
       <c r="A246" s="3"/>
       <c r="B246" s="3"/>
       <c r="E246" s="3"/>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5">
       <c r="A247" s="3"/>
       <c r="B247" s="3"/>
       <c r="E247" s="3"/>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5">
       <c r="A248" s="3"/>
       <c r="B248" s="3"/>
       <c r="E248" s="3"/>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5">
       <c r="A249" s="3"/>
       <c r="B249" s="3"/>
       <c r="E249" s="3"/>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5">
       <c r="A250" s="3"/>
       <c r="B250" s="3"/>
       <c r="E250" s="3"/>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5">
       <c r="A251" s="3"/>
       <c r="B251" s="3"/>
       <c r="E251" s="3"/>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5">
       <c r="A252" s="3"/>
       <c r="B252" s="3"/>
       <c r="E252" s="3"/>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5">
       <c r="A253" s="3"/>
       <c r="B253" s="3"/>
       <c r="E253" s="3"/>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5">
       <c r="A254" s="3"/>
       <c r="B254" s="3"/>
       <c r="E254" s="3"/>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
       <c r="E255" s="3"/>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5">
       <c r="A256" s="3"/>
       <c r="B256" s="3"/>
       <c r="E256" s="3"/>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5">
       <c r="A257" s="3"/>
       <c r="B257" s="3"/>
       <c r="E257" s="3"/>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5">
       <c r="A258" s="3"/>
       <c r="B258" s="3"/>
       <c r="E258" s="3"/>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5">
       <c r="A259" s="3"/>
       <c r="B259" s="3"/>
       <c r="E259" s="3"/>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5">
       <c r="A260" s="3"/>
       <c r="B260" s="3"/>
       <c r="E260" s="3"/>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5">
       <c r="A261" s="3"/>
       <c r="B261" s="3"/>
       <c r="E261" s="3"/>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5">
       <c r="A262" s="3"/>
       <c r="B262" s="3"/>
       <c r="E262" s="3"/>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5">
       <c r="A263" s="3"/>
       <c r="B263" s="3"/>
       <c r="E263" s="3"/>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5">
       <c r="A264" s="3"/>
       <c r="B264" s="3"/>
       <c r="E264" s="3"/>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5">
       <c r="A265" s="3"/>
       <c r="B265" s="3"/>
       <c r="E265" s="3"/>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5">
       <c r="A266" s="3"/>
       <c r="B266" s="3"/>
       <c r="E266" s="3"/>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5">
       <c r="A267" s="3"/>
       <c r="B267" s="3"/>
       <c r="E267" s="3"/>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5">
       <c r="A268" s="3"/>
       <c r="B268" s="3"/>
       <c r="E268" s="3"/>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5">
       <c r="A269" s="3"/>
       <c r="B269" s="3"/>
       <c r="E269" s="3"/>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5">
       <c r="A270" s="3"/>
       <c r="B270" s="3"/>
       <c r="E270" s="3"/>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5">
       <c r="A271" s="3"/>
       <c r="B271" s="3"/>
       <c r="E271" s="3"/>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5">
       <c r="A272" s="3"/>
       <c r="B272" s="3"/>
       <c r="E272" s="3"/>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5">
       <c r="A273" s="3"/>
       <c r="B273" s="3"/>
       <c r="E273" s="3"/>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5">
       <c r="A274" s="3"/>
       <c r="B274" s="3"/>
       <c r="E274" s="3"/>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5">
       <c r="A275" s="3"/>
       <c r="B275" s="3"/>
       <c r="E275" s="3"/>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5">
       <c r="A276" s="3"/>
       <c r="B276" s="3"/>
       <c r="E276" s="3"/>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5">
       <c r="A277" s="3"/>
       <c r="B277" s="3"/>
       <c r="E277" s="3"/>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5">
       <c r="A278" s="3"/>
       <c r="B278" s="3"/>
       <c r="E278" s="3"/>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5">
       <c r="A279" s="3"/>
       <c r="B279" s="3"/>
       <c r="E279" s="3"/>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5">
       <c r="A280" s="3"/>
       <c r="B280" s="3"/>
       <c r="E280" s="3"/>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5">
       <c r="A281" s="3"/>
       <c r="B281" s="3"/>
       <c r="E281" s="3"/>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5">
       <c r="A282" s="3"/>
       <c r="B282" s="3"/>
       <c r="E282" s="3"/>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5">
       <c r="A283" s="3"/>
       <c r="B283" s="3"/>
       <c r="E283" s="3"/>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5">
       <c r="A284" s="3"/>
       <c r="B284" s="3"/>
       <c r="E284" s="3"/>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5">
       <c r="A285" s="3"/>
       <c r="B285" s="3"/>
       <c r="E285" s="3"/>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5">
       <c r="A286" s="3"/>
       <c r="B286" s="3"/>
       <c r="E286" s="3"/>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5">
       <c r="A287" s="3"/>
       <c r="B287" s="3"/>
       <c r="E287" s="3"/>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5">
       <c r="A288" s="3"/>
       <c r="B288" s="3"/>
       <c r="E288" s="3"/>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5">
       <c r="A289" s="3"/>
       <c r="B289" s="3"/>
       <c r="E289" s="3"/>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5">
       <c r="A290" s="3"/>
       <c r="B290" s="3"/>
       <c r="E290" s="3"/>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5">
       <c r="A291" s="3"/>
       <c r="B291" s="3"/>
       <c r="E291" s="3"/>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5">
       <c r="A292" s="3"/>
       <c r="B292" s="3"/>
       <c r="E292" s="3"/>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5">
       <c r="A293" s="3"/>
       <c r="B293" s="3"/>
       <c r="E293" s="3"/>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5">
       <c r="A294" s="3"/>
       <c r="B294" s="3"/>
       <c r="E294" s="3"/>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5">
       <c r="A295" s="3"/>
       <c r="B295" s="3"/>
       <c r="E295" s="3"/>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5">
       <c r="A296" s="3"/>
       <c r="B296" s="3"/>
       <c r="E296" s="3"/>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5">
       <c r="A297" s="3"/>
       <c r="B297" s="3"/>
       <c r="E297" s="3"/>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5">
       <c r="A298" s="3"/>
       <c r="B298" s="3"/>
       <c r="E298" s="3"/>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5">
       <c r="A299" s="3"/>
       <c r="B299" s="3"/>
       <c r="E299" s="3"/>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5">
       <c r="A300" s="3"/>
       <c r="B300" s="3"/>
       <c r="E300" s="3"/>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5">
       <c r="A301" s="3"/>
       <c r="B301" s="3"/>
       <c r="E301" s="3"/>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5">
       <c r="A302" s="3"/>
       <c r="B302" s="3"/>
       <c r="E302" s="3"/>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5">
       <c r="A303" s="3"/>
       <c r="B303" s="3"/>
       <c r="E303" s="3"/>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5">
       <c r="A304" s="3"/>
       <c r="B304" s="3"/>
       <c r="E304" s="3"/>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5">
       <c r="A305" s="3"/>
       <c r="B305" s="3"/>
       <c r="E305" s="3"/>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5">
       <c r="A306" s="3"/>
       <c r="B306" s="3"/>
       <c r="E306" s="3"/>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5">
       <c r="A307" s="3"/>
       <c r="B307" s="3"/>
       <c r="E307" s="3"/>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5">
       <c r="A308" s="3"/>
       <c r="B308" s="3"/>
       <c r="E308" s="3"/>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5">
       <c r="A309" s="3"/>
       <c r="B309" s="3"/>
       <c r="E309" s="3"/>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5">
       <c r="A310" s="3"/>
       <c r="B310" s="3"/>
       <c r="E310" s="3"/>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5">
       <c r="A311" s="3"/>
       <c r="B311" s="3"/>
       <c r="E311" s="3"/>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5">
       <c r="A312" s="3"/>
       <c r="B312" s="3"/>
       <c r="E312" s="3"/>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5">
       <c r="A313" s="3"/>
       <c r="B313" s="3"/>
       <c r="E313" s="3"/>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5">
       <c r="A314" s="3"/>
       <c r="B314" s="3"/>
       <c r="E314" s="3"/>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5">
       <c r="A315" s="3"/>
       <c r="B315" s="3"/>
       <c r="E315" s="3"/>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5">
       <c r="A316" s="3"/>
       <c r="B316" s="3"/>
       <c r="E316" s="3"/>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5">
       <c r="A317" s="3"/>
       <c r="B317" s="3"/>
       <c r="E317" s="3"/>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5">
       <c r="A318" s="3"/>
       <c r="B318" s="3"/>
       <c r="E318" s="3"/>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5">
       <c r="A319" s="3"/>
       <c r="B319" s="3"/>
       <c r="E319" s="3"/>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5">
       <c r="A320" s="3"/>
       <c r="B320" s="3"/>
       <c r="E320" s="3"/>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5">
       <c r="A321" s="3"/>
       <c r="B321" s="3"/>
       <c r="E321" s="3"/>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5">
       <c r="A322" s="3"/>
       <c r="B322" s="3"/>
       <c r="E322" s="3"/>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5">
       <c r="A323" s="3"/>
       <c r="B323" s="3"/>
       <c r="E323" s="3"/>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5">
       <c r="A324" s="3"/>
       <c r="B324" s="3"/>
       <c r="E324" s="3"/>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5">
       <c r="A325" s="3"/>
       <c r="B325" s="3"/>
       <c r="E325" s="3"/>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5">
       <c r="A326" s="3"/>
       <c r="B326" s="3"/>
       <c r="E326" s="3"/>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5">
       <c r="A327" s="3"/>
       <c r="B327" s="3"/>
       <c r="E327" s="3"/>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5">
       <c r="A328" s="3"/>
       <c r="B328" s="3"/>
       <c r="E328" s="3"/>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5">
       <c r="A329" s="3"/>
       <c r="B329" s="3"/>
       <c r="E329" s="3"/>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5">
       <c r="A330" s="3"/>
       <c r="B330" s="3"/>
       <c r="E330" s="3"/>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5">
       <c r="A331" s="3"/>
       <c r="B331" s="3"/>
       <c r="E331" s="3"/>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5">
       <c r="A332" s="3"/>
       <c r="B332" s="3"/>
       <c r="E332" s="3"/>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5">
       <c r="A333" s="3"/>
       <c r="B333" s="3"/>
       <c r="E333" s="3"/>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5">
       <c r="A334" s="3"/>
       <c r="B334" s="3"/>
       <c r="E334" s="3"/>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5">
       <c r="A335" s="3"/>
       <c r="B335" s="3"/>
       <c r="E335" s="3"/>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5">
       <c r="A336" s="3"/>
       <c r="B336" s="3"/>
       <c r="E336" s="3"/>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5">
       <c r="A337" s="3"/>
       <c r="B337" s="3"/>
       <c r="E337" s="3"/>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5">
       <c r="A338" s="3"/>
       <c r="B338" s="3"/>
       <c r="E338" s="3"/>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5">
       <c r="A339" s="3"/>
       <c r="B339" s="3"/>
       <c r="E339" s="3"/>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5">
       <c r="A340" s="3"/>
       <c r="B340" s="3"/>
       <c r="E340" s="3"/>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5">
       <c r="A341" s="3"/>
       <c r="B341" s="3"/>
       <c r="E341" s="3"/>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5">
       <c r="A342" s="3"/>
       <c r="B342" s="3"/>
       <c r="E342" s="3"/>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5">
       <c r="A343" s="3"/>
       <c r="B343" s="3"/>
       <c r="E343" s="3"/>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5">
       <c r="A344" s="3"/>
       <c r="B344" s="3"/>
       <c r="E344" s="3"/>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5">
       <c r="A345" s="3"/>
       <c r="B345" s="3"/>
       <c r="E345" s="3"/>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5">
       <c r="A346" s="3"/>
       <c r="B346" s="3"/>
       <c r="E346" s="3"/>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5">
       <c r="A347" s="3"/>
       <c r="B347" s="3"/>
       <c r="E347" s="3"/>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5">
       <c r="A348" s="3"/>
       <c r="B348" s="3"/>
       <c r="E348" s="3"/>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5">
       <c r="A349" s="3"/>
       <c r="B349" s="3"/>
       <c r="E349" s="3"/>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5">
       <c r="A350" s="3"/>
       <c r="B350" s="3"/>
       <c r="E350" s="3"/>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5">
       <c r="A351" s="3"/>
       <c r="B351" s="3"/>
       <c r="E351" s="3"/>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5">
       <c r="A352" s="3"/>
       <c r="B352" s="3"/>
       <c r="E352" s="3"/>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5">
       <c r="A353" s="3"/>
       <c r="B353" s="3"/>
       <c r="E353" s="3"/>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5">
       <c r="A354" s="3"/>
       <c r="B354" s="3"/>
       <c r="E354" s="3"/>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5">
       <c r="A355" s="3"/>
       <c r="B355" s="3"/>
       <c r="E355" s="3"/>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5">
       <c r="A356" s="3"/>
       <c r="B356" s="3"/>
       <c r="E356" s="3"/>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5">
       <c r="A357" s="3"/>
       <c r="B357" s="3"/>
       <c r="E357" s="3"/>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5">
       <c r="A358" s="3"/>
       <c r="B358" s="3"/>
       <c r="E358" s="3"/>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5">
       <c r="A359" s="3"/>
       <c r="B359" s="3"/>
       <c r="E359" s="3"/>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5">
       <c r="A360" s="3"/>
       <c r="B360" s="3"/>
       <c r="E360" s="3"/>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5">
       <c r="A361" s="3"/>
       <c r="B361" s="3"/>
       <c r="E361" s="3"/>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5">
       <c r="A362" s="3"/>
       <c r="B362" s="3"/>
       <c r="E362" s="3"/>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5">
       <c r="A363" s="3"/>
       <c r="B363" s="3"/>
       <c r="E363" s="3"/>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5">
       <c r="A364" s="3"/>
       <c r="B364" s="3"/>
       <c r="E364" s="3"/>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5">
       <c r="A365" s="3"/>
       <c r="B365" s="3"/>
       <c r="E365" s="3"/>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5">
       <c r="A366" s="3"/>
       <c r="B366" s="3"/>
       <c r="E366" s="3"/>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5">
       <c r="A367" s="3"/>
       <c r="B367" s="3"/>
       <c r="E367" s="3"/>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5">
       <c r="A368" s="3"/>
       <c r="B368" s="3"/>
       <c r="E368" s="3"/>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5">
       <c r="A369" s="3"/>
       <c r="B369" s="3"/>
       <c r="E369" s="3"/>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5">
       <c r="A370" s="3"/>
       <c r="B370" s="3"/>
       <c r="E370" s="3"/>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5">
       <c r="A371" s="3"/>
       <c r="B371" s="3"/>
       <c r="E371" s="3"/>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5">
       <c r="A372" s="3"/>
       <c r="B372" s="3"/>
       <c r="E372" s="3"/>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5">
       <c r="A373" s="3"/>
       <c r="B373" s="3"/>
       <c r="E373" s="3"/>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5">
       <c r="A374" s="3"/>
       <c r="B374" s="3"/>
       <c r="E374" s="3"/>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5">
       <c r="A375" s="3"/>
       <c r="B375" s="3"/>
       <c r="E375" s="3"/>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5">
       <c r="A376" s="3"/>
       <c r="B376" s="3"/>
       <c r="E376" s="3"/>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5">
       <c r="A377" s="3"/>
       <c r="B377" s="3"/>
       <c r="E377" s="3"/>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5">
       <c r="A378" s="3"/>
       <c r="B378" s="3"/>
       <c r="E378" s="3"/>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5">
       <c r="A379" s="3"/>
       <c r="B379" s="3"/>
       <c r="E379" s="3"/>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5">
       <c r="A380" s="3"/>
       <c r="B380" s="3"/>
       <c r="E380" s="3"/>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5">
       <c r="A381" s="3"/>
       <c r="B381" s="3"/>
       <c r="E381" s="3"/>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5">
       <c r="A382" s="3"/>
       <c r="B382" s="3"/>
       <c r="E382" s="3"/>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5">
       <c r="A383" s="3"/>
       <c r="B383" s="3"/>
       <c r="E383" s="3"/>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5">
       <c r="A384" s="3"/>
       <c r="B384" s="3"/>
       <c r="E384" s="3"/>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5">
       <c r="A385" s="3"/>
       <c r="B385" s="3"/>
       <c r="E385" s="3"/>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5">
       <c r="A386" s="3"/>
       <c r="B386" s="3"/>
       <c r="E386" s="3"/>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5">
       <c r="A387" s="3"/>
       <c r="B387" s="3"/>
       <c r="E387" s="3"/>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5">
       <c r="A388" s="3"/>
       <c r="B388" s="3"/>
       <c r="E388" s="3"/>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5">
       <c r="A389" s="3"/>
       <c r="B389" s="3"/>
       <c r="E389" s="3"/>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5">
       <c r="A390" s="3"/>
       <c r="B390" s="3"/>
       <c r="E390" s="3"/>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5">
       <c r="A391" s="3"/>
       <c r="B391" s="3"/>
       <c r="E391" s="3"/>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5">
       <c r="A392" s="3"/>
       <c r="B392" s="3"/>
       <c r="E392" s="3"/>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5">
       <c r="A393" s="3"/>
       <c r="B393" s="3"/>
       <c r="E393" s="3"/>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5">
       <c r="A394" s="3"/>
       <c r="B394" s="3"/>
       <c r="E394" s="3"/>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5">
       <c r="A395" s="3"/>
       <c r="B395" s="3"/>
       <c r="E395" s="3"/>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5">
       <c r="A396" s="3"/>
       <c r="B396" s="3"/>
       <c r="E396" s="3"/>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5">
       <c r="A397" s="3"/>
       <c r="B397" s="3"/>
       <c r="E397" s="3"/>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5">
       <c r="A398" s="3"/>
       <c r="B398" s="3"/>
       <c r="E398" s="3"/>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5">
       <c r="A399" s="3"/>
       <c r="B399" s="3"/>
       <c r="E399" s="3"/>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5">
       <c r="A400" s="3"/>
       <c r="B400" s="3"/>
       <c r="E400" s="3"/>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5">
       <c r="A401" s="3"/>
       <c r="B401" s="3"/>
       <c r="E401" s="3"/>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5">
       <c r="A402" s="3"/>
       <c r="B402" s="3"/>
       <c r="E402" s="3"/>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5">
       <c r="A403" s="3"/>
       <c r="B403" s="3"/>
       <c r="E403" s="3"/>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5">
       <c r="A404" s="3"/>
       <c r="B404" s="3"/>
       <c r="E404" s="3"/>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5">
       <c r="A405" s="3"/>
       <c r="B405" s="3"/>
       <c r="E405" s="3"/>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5">
       <c r="A406" s="3"/>
       <c r="B406" s="3"/>
       <c r="E406" s="3"/>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5">
       <c r="A407" s="3"/>
       <c r="B407" s="3"/>
       <c r="E407" s="3"/>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5">
       <c r="A408" s="3"/>
       <c r="B408" s="3"/>
       <c r="E408" s="3"/>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5">
       <c r="A409" s="3"/>
       <c r="B409" s="3"/>
       <c r="E409" s="3"/>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5">
       <c r="A410" s="3"/>
       <c r="B410" s="3"/>
       <c r="E410" s="3"/>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5">
       <c r="A411" s="3"/>
       <c r="B411" s="3"/>
       <c r="E411" s="3"/>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:5">
       <c r="A412" s="3"/>
       <c r="B412" s="3"/>
       <c r="E412" s="3"/>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5">
       <c r="A413" s="3"/>
       <c r="B413" s="3"/>
       <c r="E413" s="3"/>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5">
       <c r="A414" s="3"/>
       <c r="B414" s="3"/>
       <c r="E414" s="3"/>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5">
       <c r="A415" s="3"/>
       <c r="B415" s="3"/>
       <c r="E415" s="3"/>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5">
       <c r="A416" s="3"/>
       <c r="B416" s="3"/>
       <c r="E416" s="3"/>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5">
       <c r="A417" s="3"/>
       <c r="B417" s="3"/>
       <c r="E417" s="3"/>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:5">
       <c r="A418" s="3"/>
       <c r="B418" s="3"/>
       <c r="E418" s="3"/>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5">
       <c r="A419" s="3"/>
       <c r="B419" s="3"/>
       <c r="E419" s="3"/>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5">
       <c r="A420" s="3"/>
       <c r="B420" s="3"/>
       <c r="E420" s="3"/>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:5">
       <c r="A421" s="3"/>
       <c r="B421" s="3"/>
       <c r="E421" s="3"/>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:5">
       <c r="A422" s="3"/>
       <c r="B422" s="3"/>
       <c r="E422" s="3"/>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:5">
       <c r="A423" s="3"/>
       <c r="B423" s="3"/>
       <c r="E423" s="3"/>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:5">
       <c r="A424" s="3"/>
       <c r="B424" s="3"/>
       <c r="E424" s="3"/>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:5">
       <c r="A425" s="3"/>
       <c r="B425" s="3"/>
       <c r="E425" s="3"/>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:5">
       <c r="A426" s="3"/>
       <c r="B426" s="3"/>
       <c r="E426" s="3"/>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:5">
       <c r="A427" s="3"/>
       <c r="B427" s="3"/>
       <c r="E427" s="3"/>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:5">
       <c r="A428" s="3"/>
       <c r="B428" s="3"/>
       <c r="E428" s="3"/>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:5">
       <c r="A429" s="3"/>
       <c r="B429" s="3"/>
       <c r="E429" s="3"/>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:5">
       <c r="A430" s="3"/>
       <c r="B430" s="3"/>
       <c r="E430" s="3"/>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:5">
       <c r="A431" s="3"/>
       <c r="B431" s="3"/>
       <c r="E431" s="3"/>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:5">
       <c r="A432" s="3"/>
       <c r="B432" s="3"/>
       <c r="E432" s="3"/>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:5">
       <c r="A433" s="3"/>
       <c r="B433" s="3"/>
       <c r="E433" s="3"/>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5">
       <c r="A434" s="3"/>
       <c r="B434" s="3"/>
       <c r="E434" s="3"/>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5">
       <c r="A435" s="3"/>
       <c r="B435" s="3"/>
       <c r="E435" s="3"/>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:5">
       <c r="A436" s="3"/>
       <c r="B436" s="3"/>
       <c r="E436" s="3"/>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:5">
       <c r="A437" s="3"/>
       <c r="B437" s="3"/>
       <c r="E437" s="3"/>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:5">
       <c r="A438" s="3"/>
       <c r="B438" s="3"/>
       <c r="E438" s="3"/>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5">
       <c r="A439" s="3"/>
       <c r="B439" s="3"/>
       <c r="E439" s="3"/>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:5">
       <c r="A440" s="3"/>
       <c r="B440" s="3"/>
       <c r="E440" s="3"/>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:5">
       <c r="A441" s="3"/>
       <c r="B441" s="3"/>
       <c r="E441" s="3"/>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:5">
       <c r="A442" s="3"/>
       <c r="B442" s="3"/>
       <c r="E442" s="3"/>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:5">
       <c r="A443" s="3"/>
       <c r="B443" s="3"/>
       <c r="E443" s="3"/>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:5">
       <c r="A444" s="3"/>
       <c r="B444" s="3"/>
       <c r="E444" s="3"/>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:5">
       <c r="A445" s="3"/>
       <c r="B445" s="3"/>
       <c r="E445" s="3"/>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:5">
       <c r="A446" s="3"/>
       <c r="B446" s="3"/>
       <c r="E446" s="3"/>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:5">
       <c r="A447" s="3"/>
       <c r="B447" s="3"/>
       <c r="E447" s="3"/>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:5">
       <c r="A448" s="3"/>
       <c r="B448" s="3"/>
       <c r="E448" s="3"/>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:5">
       <c r="A449" s="3"/>
       <c r="B449" s="3"/>
       <c r="E449" s="3"/>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:5">
       <c r="A450" s="3"/>
       <c r="B450" s="3"/>
       <c r="E450" s="3"/>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:5">
       <c r="A451" s="3"/>
       <c r="B451" s="3"/>
       <c r="E451" s="3"/>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:5">
       <c r="A452" s="3"/>
       <c r="B452" s="3"/>
       <c r="E452" s="3"/>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:5">
       <c r="A453" s="3"/>
       <c r="B453" s="3"/>
       <c r="E453" s="3"/>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:5">
       <c r="A454" s="3"/>
       <c r="B454" s="3"/>
       <c r="E454" s="3"/>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:5">
       <c r="A455" s="3"/>
       <c r="B455" s="3"/>
       <c r="E455" s="3"/>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:5">
       <c r="A456" s="3"/>
       <c r="B456" s="3"/>
       <c r="E456" s="3"/>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:5">
       <c r="A457" s="3"/>
       <c r="B457" s="3"/>
       <c r="E457" s="3"/>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:5">
       <c r="A458" s="3"/>
       <c r="B458" s="3"/>
       <c r="E458" s="3"/>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:5">
       <c r="A459" s="3"/>
       <c r="B459" s="3"/>
       <c r="E459" s="3"/>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:5">
       <c r="A460" s="3"/>
       <c r="B460" s="3"/>
       <c r="E460" s="3"/>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:5">
       <c r="A461" s="3"/>
       <c r="B461" s="3"/>
       <c r="E461" s="3"/>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:5">
       <c r="A462" s="3"/>
       <c r="B462" s="3"/>
       <c r="E462" s="3"/>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:5">
       <c r="A463" s="3"/>
       <c r="B463" s="3"/>
       <c r="E463" s="3"/>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:5">
       <c r="A464" s="3"/>
       <c r="B464" s="3"/>
       <c r="E464" s="3"/>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:5">
       <c r="A465" s="3"/>
       <c r="B465" s="3"/>
       <c r="E465" s="3"/>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:5">
       <c r="A466" s="3"/>
       <c r="B466" s="3"/>
       <c r="E466" s="3"/>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:5">
       <c r="A467" s="3"/>
       <c r="B467" s="3"/>
       <c r="E467" s="3"/>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:5">
       <c r="A468" s="3"/>
       <c r="B468" s="3"/>
       <c r="E468" s="3"/>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:5">
       <c r="A469" s="3"/>
       <c r="B469" s="3"/>
       <c r="E469" s="3"/>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:5">
       <c r="A470" s="3"/>
       <c r="B470" s="3"/>
       <c r="E470" s="3"/>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:5">
       <c r="A471" s="3"/>
       <c r="B471" s="3"/>
       <c r="E471" s="3"/>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:5">
       <c r="A472" s="3"/>
       <c r="B472" s="3"/>
       <c r="E472" s="3"/>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:5">
       <c r="A473" s="3"/>
       <c r="B473" s="3"/>
       <c r="E473" s="3"/>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:5">
       <c r="A474" s="3"/>
       <c r="B474" s="3"/>
       <c r="E474" s="3"/>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:5">
       <c r="A475" s="3"/>
       <c r="B475" s="3"/>
       <c r="E475" s="3"/>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:5">
       <c r="A476" s="3"/>
       <c r="B476" s="3"/>
       <c r="E476" s="3"/>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:5">
       <c r="A477" s="3"/>
       <c r="B477" s="3"/>
       <c r="E477" s="3"/>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:5">
       <c r="A478" s="3"/>
       <c r="B478" s="3"/>
       <c r="E478" s="3"/>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:5">
       <c r="A479" s="3"/>
       <c r="B479" s="3"/>
       <c r="E479" s="3"/>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:5">
       <c r="A480" s="3"/>
       <c r="B480" s="3"/>
       <c r="E480" s="3"/>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:5">
       <c r="A481" s="3"/>
       <c r="B481" s="3"/>
       <c r="E481" s="3"/>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:5">
       <c r="A482" s="3"/>
       <c r="B482" s="3"/>
       <c r="E482" s="3"/>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:5">
       <c r="A483" s="3"/>
       <c r="B483" s="3"/>
       <c r="E483" s="3"/>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:5">
       <c r="A484" s="3"/>
       <c r="B484" s="3"/>
       <c r="E484" s="3"/>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:5">
       <c r="A485" s="3"/>
       <c r="B485" s="3"/>
       <c r="E485" s="3"/>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:5">
       <c r="A486" s="3"/>
       <c r="B486" s="3"/>
       <c r="E486" s="3"/>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:5">
       <c r="A487" s="3"/>
       <c r="B487" s="3"/>
       <c r="E487" s="3"/>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:5">
       <c r="A488" s="3"/>
       <c r="B488" s="3"/>
       <c r="E488" s="3"/>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:5">
       <c r="A489" s="3"/>
       <c r="B489" s="3"/>
       <c r="E489" s="3"/>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:5">
       <c r="A490" s="3"/>
       <c r="B490" s="3"/>
       <c r="E490" s="3"/>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:5">
       <c r="A491" s="3"/>
       <c r="B491" s="3"/>
       <c r="E491" s="3"/>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:5">
       <c r="A492" s="3"/>
       <c r="B492" s="3"/>
       <c r="E492" s="3"/>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:5">
       <c r="A493" s="3"/>
       <c r="B493" s="3"/>
       <c r="E493" s="3"/>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:5">
       <c r="A494" s="3"/>
       <c r="B494" s="3"/>
       <c r="E494" s="3"/>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:5">
       <c r="A495" s="3"/>
       <c r="B495" s="3"/>
       <c r="E495" s="3"/>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:5">
       <c r="A496" s="3"/>
       <c r="B496" s="3"/>
       <c r="E496" s="3"/>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:5">
       <c r="A497" s="3"/>
       <c r="B497" s="3"/>
       <c r="E497" s="3"/>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:5">
       <c r="A498" s="3"/>
       <c r="B498" s="3"/>
       <c r="E498" s="3"/>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:5">
       <c r="A499" s="3"/>
       <c r="B499" s="3"/>
       <c r="E499" s="3"/>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:5">
       <c r="A500" s="3"/>
       <c r="B500" s="3"/>
       <c r="E500" s="3"/>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:5">
       <c r="A501" s="3"/>
       <c r="B501" s="3"/>
       <c r="E501" s="3"/>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:5">
       <c r="A502" s="3"/>
       <c r="B502" s="3"/>
       <c r="E502" s="3"/>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:5">
       <c r="A503" s="3"/>
       <c r="B503" s="3"/>
       <c r="E503" s="3"/>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:5">
       <c r="A504" s="3"/>
       <c r="B504" s="3"/>
       <c r="E504" s="3"/>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:5">
       <c r="A505" s="3"/>
       <c r="B505" s="3"/>
       <c r="E505" s="3"/>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:5">
       <c r="A506" s="3"/>
       <c r="B506" s="3"/>
       <c r="E506" s="3"/>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:5">
       <c r="A507" s="3"/>
       <c r="B507" s="3"/>
       <c r="E507" s="3"/>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:5">
       <c r="A508" s="3"/>
       <c r="B508" s="3"/>
       <c r="E508" s="3"/>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:5">
       <c r="A509" s="3"/>
       <c r="B509" s="3"/>
       <c r="E509" s="3"/>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:5">
       <c r="A510" s="3"/>
       <c r="B510" s="3"/>
       <c r="E510" s="3"/>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:5">
       <c r="A511" s="3"/>
       <c r="B511" s="3"/>
       <c r="E511" s="3"/>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:5">
       <c r="A512" s="3"/>
       <c r="B512" s="3"/>
       <c r="E512" s="3"/>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:5">
       <c r="A513" s="3"/>
       <c r="B513" s="3"/>
       <c r="E513" s="3"/>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:5">
       <c r="A514" s="3"/>
       <c r="B514" s="3"/>
       <c r="E514" s="3"/>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:5">
       <c r="A515" s="3"/>
       <c r="B515" s="3"/>
       <c r="E515" s="3"/>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:5">
       <c r="A516" s="3"/>
       <c r="B516" s="3"/>
       <c r="E516" s="3"/>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:5">
       <c r="A517" s="3"/>
       <c r="B517" s="3"/>
       <c r="E517" s="3"/>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:5">
       <c r="A518" s="3"/>
       <c r="B518" s="3"/>
       <c r="E518" s="3"/>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:5">
       <c r="A519" s="3"/>
       <c r="B519" s="3"/>
       <c r="E519" s="3"/>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:5">
       <c r="A520" s="3"/>
       <c r="B520" s="3"/>
       <c r="E520" s="3"/>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:5">
       <c r="A521" s="3"/>
       <c r="B521" s="3"/>
       <c r="E521" s="3"/>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:5">
       <c r="A522" s="3"/>
       <c r="B522" s="3"/>
       <c r="E522" s="3"/>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:5">
       <c r="A523" s="3"/>
       <c r="B523" s="3"/>
       <c r="E523" s="3"/>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:5">
       <c r="A524" s="3"/>
       <c r="B524" s="3"/>
       <c r="E524" s="3"/>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:5">
       <c r="A525" s="3"/>
       <c r="B525" s="3"/>
       <c r="E525" s="3"/>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:5">
       <c r="A526" s="3"/>
       <c r="B526" s="3"/>
       <c r="E526" s="3"/>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:5">
       <c r="A527" s="3"/>
       <c r="B527" s="3"/>
       <c r="E527" s="3"/>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:5">
       <c r="A528" s="3"/>
       <c r="B528" s="3"/>
       <c r="E528" s="3"/>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:5">
       <c r="A529" s="3"/>
       <c r="B529" s="3"/>
       <c r="E529" s="3"/>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:5">
       <c r="A530" s="3"/>
       <c r="B530" s="3"/>
       <c r="E530" s="3"/>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:5">
       <c r="A531" s="3"/>
       <c r="B531" s="3"/>
       <c r="E531" s="3"/>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:5">
       <c r="A532" s="3"/>
       <c r="B532" s="3"/>
       <c r="E532" s="3"/>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:5">
       <c r="A533" s="3"/>
       <c r="B533" s="3"/>
       <c r="E533" s="3"/>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:5">
       <c r="A534" s="3"/>
       <c r="B534" s="3"/>
       <c r="E534" s="3"/>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:5">
       <c r="A535" s="3"/>
       <c r="B535" s="3"/>
       <c r="E535" s="3"/>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:5">
       <c r="A536" s="3"/>
       <c r="B536" s="3"/>
       <c r="E536" s="3"/>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:5">
       <c r="A537" s="3"/>
       <c r="B537" s="3"/>
       <c r="E537" s="3"/>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:5">
       <c r="A538" s="3"/>
       <c r="B538" s="3"/>
       <c r="E538" s="3"/>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:5">
       <c r="A539" s="3"/>
       <c r="B539" s="3"/>
       <c r="E539" s="3"/>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:5">
       <c r="A540" s="3"/>
       <c r="B540" s="3"/>
       <c r="E540" s="3"/>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:5">
       <c r="A541" s="3"/>
       <c r="B541" s="3"/>
       <c r="E541" s="3"/>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:5">
       <c r="A542" s="3"/>
       <c r="B542" s="3"/>
       <c r="E542" s="3"/>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:5">
       <c r="A543" s="3"/>
       <c r="B543" s="3"/>
       <c r="E543" s="3"/>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:5">
       <c r="A544" s="3"/>
       <c r="B544" s="3"/>
       <c r="E544" s="3"/>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:5">
       <c r="A545" s="3"/>
       <c r="B545" s="3"/>
       <c r="E545" s="3"/>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:5">
       <c r="A546" s="3"/>
       <c r="B546" s="3"/>
       <c r="E546" s="3"/>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:5">
       <c r="A547" s="3"/>
       <c r="B547" s="3"/>
       <c r="E547" s="3"/>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:5">
       <c r="A548" s="3"/>
       <c r="B548" s="3"/>
       <c r="E548" s="3"/>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:5">
       <c r="A549" s="3"/>
       <c r="B549" s="3"/>
       <c r="E549" s="3"/>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:5">
       <c r="A550" s="3"/>
       <c r="B550" s="3"/>
       <c r="E550" s="3"/>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:5">
       <c r="A551" s="3"/>
       <c r="B551" s="3"/>
       <c r="E551" s="3"/>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:5">
       <c r="A552" s="3"/>
       <c r="B552" s="3"/>
       <c r="E552" s="3"/>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:5">
       <c r="A553" s="3"/>
       <c r="B553" s="3"/>
       <c r="E553" s="3"/>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:5">
       <c r="A554" s="3"/>
       <c r="B554" s="3"/>
       <c r="E554" s="3"/>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:5">
       <c r="A555" s="3"/>
       <c r="B555" s="3"/>
       <c r="E555" s="3"/>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:5">
       <c r="A556" s="3"/>
       <c r="B556" s="3"/>
       <c r="E556" s="3"/>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:5">
       <c r="A557" s="3"/>
       <c r="B557" s="3"/>
       <c r="E557" s="3"/>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:5">
       <c r="A558" s="3"/>
       <c r="B558" s="3"/>
       <c r="E558" s="3"/>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:5">
       <c r="A559" s="3"/>
       <c r="B559" s="3"/>
       <c r="E559" s="3"/>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:5">
       <c r="A560" s="3"/>
       <c r="B560" s="3"/>
       <c r="E560" s="3"/>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:5">
       <c r="A561" s="3"/>
       <c r="B561" s="3"/>
       <c r="E561" s="3"/>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:5">
       <c r="A562" s="3"/>
       <c r="B562" s="3"/>
       <c r="E562" s="3"/>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:5">
       <c r="A563" s="3"/>
       <c r="B563" s="3"/>
       <c r="E563" s="3"/>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:5">
       <c r="A564" s="3"/>
       <c r="B564" s="3"/>
       <c r="E564" s="3"/>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:5">
       <c r="A565" s="3"/>
       <c r="B565" s="3"/>
       <c r="E565" s="3"/>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:5">
       <c r="A566" s="3"/>
       <c r="B566" s="3"/>
       <c r="E566" s="3"/>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:5">
       <c r="A567" s="3"/>
       <c r="B567" s="3"/>
       <c r="E567" s="3"/>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:5">
       <c r="A568" s="3"/>
       <c r="B568" s="3"/>
       <c r="E568" s="3"/>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:5">
       <c r="A569" s="3"/>
       <c r="B569" s="3"/>
       <c r="E569" s="3"/>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:5">
       <c r="A570" s="3"/>
       <c r="B570" s="3"/>
       <c r="E570" s="3"/>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:5">
       <c r="A571" s="3"/>
       <c r="B571" s="3"/>
       <c r="E571" s="3"/>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:5">
       <c r="A572" s="3"/>
       <c r="B572" s="3"/>
       <c r="E572" s="3"/>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:5">
       <c r="A573" s="3"/>
       <c r="B573" s="3"/>
       <c r="E573" s="3"/>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:5">
       <c r="A574" s="3"/>
       <c r="B574" s="3"/>
       <c r="E574" s="3"/>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:5">
       <c r="A575" s="3"/>
       <c r="B575" s="3"/>
       <c r="E575" s="3"/>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:5">
       <c r="A576" s="3"/>
       <c r="B576" s="3"/>
       <c r="E576" s="3"/>
     </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:5">
       <c r="A577" s="3"/>
       <c r="B577" s="3"/>
       <c r="E577" s="3"/>
     </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:5">
       <c r="A578" s="3"/>
       <c r="B578" s="3"/>
       <c r="E578" s="3"/>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:5">
       <c r="A579" s="3"/>
       <c r="B579" s="3"/>
       <c r="E579" s="3"/>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:5">
       <c r="A580" s="3"/>
       <c r="B580" s="3"/>
       <c r="E580" s="3"/>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:5">
       <c r="A581" s="3"/>
       <c r="B581" s="3"/>
       <c r="E581" s="3"/>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:5">
       <c r="A582" s="3"/>
       <c r="B582" s="3"/>
       <c r="E582" s="3"/>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:5">
       <c r="A583" s="3"/>
       <c r="B583" s="3"/>
       <c r="E583" s="3"/>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:5">
       <c r="A584" s="3"/>
       <c r="B584" s="3"/>
       <c r="E584" s="3"/>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:5">
       <c r="A585" s="3"/>
       <c r="B585" s="3"/>
       <c r="E585" s="3"/>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:5">
       <c r="A586" s="3"/>
       <c r="B586" s="3"/>
       <c r="E586" s="3"/>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:5">
       <c r="A587" s="3"/>
       <c r="B587" s="3"/>
       <c r="E587" s="3"/>
     </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:5">
       <c r="A588" s="3"/>
       <c r="B588" s="3"/>
       <c r="E588" s="3"/>
     </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:5">
       <c r="A589" s="3"/>
       <c r="B589" s="3"/>
       <c r="E589" s="3"/>
     </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:5">
       <c r="A590" s="3"/>
       <c r="B590" s="3"/>
       <c r="E590" s="3"/>
     </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:5">
       <c r="A591" s="3"/>
       <c r="B591" s="3"/>
       <c r="E591" s="3"/>
     </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:5">
       <c r="A592" s="3"/>
       <c r="B592" s="3"/>
       <c r="E592" s="3"/>
     </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:5">
       <c r="A593" s="3"/>
       <c r="B593" s="3"/>
       <c r="E593" s="3"/>
     </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:5">
       <c r="A594" s="3"/>
       <c r="B594" s="3"/>
       <c r="E594" s="3"/>
     </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:5">
       <c r="A595" s="3"/>
       <c r="B595" s="3"/>
       <c r="E595" s="3"/>
     </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:5">
       <c r="A596" s="3"/>
       <c r="B596" s="3"/>
       <c r="E596" s="3"/>
     </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:5">
       <c r="A597" s="3"/>
       <c r="B597" s="3"/>
       <c r="E597" s="3"/>
     </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:5">
       <c r="A598" s="3"/>
       <c r="B598" s="3"/>
       <c r="E598" s="3"/>
     </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:5">
       <c r="A599" s="3"/>
       <c r="B599" s="3"/>
       <c r="E599" s="3"/>
     </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:5">
       <c r="A600" s="3"/>
       <c r="B600" s="3"/>
       <c r="E600" s="3"/>
     </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:5">
       <c r="A601" s="3"/>
       <c r="B601" s="3"/>
       <c r="E601" s="3"/>
     </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:5">
       <c r="A602" s="3"/>
       <c r="B602" s="3"/>
       <c r="E602" s="3"/>
     </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:5">
       <c r="A603" s="3"/>
       <c r="B603" s="3"/>
       <c r="E603" s="3"/>
     </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:5">
       <c r="A604" s="3"/>
       <c r="B604" s="3"/>
       <c r="E604" s="3"/>
     </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:5">
       <c r="A605" s="3"/>
       <c r="B605" s="3"/>
       <c r="E605" s="3"/>
     </row>
-    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:5">
       <c r="A606" s="3"/>
       <c r="B606" s="3"/>
       <c r="E606" s="3"/>
     </row>
-    <row r="607" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:5">
       <c r="A607" s="3"/>
       <c r="B607" s="3"/>
       <c r="E607" s="3"/>
     </row>
-    <row r="608" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:5">
       <c r="A608" s="3"/>
       <c r="B608" s="3"/>
       <c r="E608" s="3"/>
     </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:5">
       <c r="A609" s="3"/>
       <c r="B609" s="3"/>
       <c r="E609" s="3"/>
     </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:5">
       <c r="A610" s="3"/>
       <c r="B610" s="3"/>
       <c r="E610" s="3"/>
     </row>
-    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:5">
       <c r="A611" s="3"/>
       <c r="B611" s="3"/>
       <c r="E611" s="3"/>
     </row>
-    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:5">
       <c r="A612" s="3"/>
       <c r="B612" s="3"/>
       <c r="E612" s="3"/>
     </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:5">
       <c r="A613" s="3"/>
       <c r="B613" s="3"/>
       <c r="E613" s="3"/>
     </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:5">
       <c r="A614" s="3"/>
       <c r="B614" s="3"/>
       <c r="E614" s="3"/>
     </row>
-    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:5">
       <c r="A615" s="3"/>
       <c r="B615" s="3"/>
       <c r="E615" s="3"/>
     </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:5">
       <c r="A616" s="3"/>
       <c r="B616" s="3"/>
       <c r="E616" s="3"/>
     </row>
-    <row r="617" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:5">
       <c r="A617" s="3"/>
       <c r="B617" s="3"/>
       <c r="E617" s="3"/>
     </row>
-    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:5">
       <c r="A618" s="3"/>
       <c r="B618" s="3"/>
       <c r="E618" s="3"/>
     </row>
-    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:5">
       <c r="A619" s="3"/>
       <c r="B619" s="3"/>
       <c r="E619" s="3"/>
     </row>
-    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:5">
       <c r="A620" s="3"/>
       <c r="B620" s="3"/>
       <c r="E620" s="3"/>
     </row>
-    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:5">
       <c r="A621" s="3"/>
       <c r="B621" s="3"/>
       <c r="E621" s="3"/>
     </row>
-    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:5">
       <c r="A622" s="3"/>
       <c r="B622" s="3"/>
       <c r="E622" s="3"/>
     </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:5">
       <c r="A623" s="3"/>
       <c r="B623" s="3"/>
       <c r="E623" s="3"/>
     </row>
-    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:5">
       <c r="A624" s="3"/>
       <c r="B624" s="3"/>
       <c r="E624" s="3"/>
     </row>
-    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:5">
       <c r="A625" s="3"/>
       <c r="B625" s="3"/>
       <c r="E625" s="3"/>
     </row>
-    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:5">
       <c r="A626" s="3"/>
       <c r="B626" s="3"/>
       <c r="E626" s="3"/>
     </row>
-    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:5">
       <c r="A627" s="3"/>
       <c r="B627" s="3"/>
       <c r="E627" s="3"/>
     </row>
-    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:5">
       <c r="A628" s="3"/>
       <c r="B628" s="3"/>
       <c r="E628" s="3"/>
     </row>
-    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:5">
       <c r="A629" s="3"/>
       <c r="B629" s="3"/>
       <c r="E629" s="3"/>
     </row>
-    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:5">
       <c r="A630" s="3"/>
       <c r="B630" s="3"/>
       <c r="E630" s="3"/>
     </row>
-    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:5">
       <c r="A631" s="3"/>
       <c r="B631" s="3"/>
       <c r="E631" s="3"/>
     </row>
-    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:5">
       <c r="A632" s="3"/>
       <c r="B632" s="3"/>
       <c r="E632" s="3"/>
     </row>
-    <row r="633" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:5">
       <c r="A633" s="3"/>
       <c r="B633" s="3"/>
       <c r="E633" s="3"/>
     </row>
-    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:5">
       <c r="A634" s="3"/>
       <c r="B634" s="3"/>
       <c r="E634" s="3"/>
     </row>
-    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:5">
       <c r="A635" s="3"/>
       <c r="B635" s="3"/>
       <c r="E635" s="3"/>
     </row>
-    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:5">
       <c r="A636" s="3"/>
       <c r="B636" s="3"/>
       <c r="E636" s="3"/>
     </row>
-    <row r="637" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:5">
       <c r="A637" s="3"/>
       <c r="B637" s="3"/>
       <c r="E637" s="3"/>
     </row>
-    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:5">
       <c r="A638" s="3"/>
       <c r="B638" s="3"/>
       <c r="E638" s="3"/>
     </row>
-    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:5">
       <c r="A639" s="3"/>
       <c r="B639" s="3"/>
       <c r="E639" s="3"/>
     </row>
-    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:5">
       <c r="A640" s="3"/>
       <c r="B640" s="3"/>
       <c r="E640" s="3"/>
     </row>
-    <row r="641" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:5">
       <c r="A641" s="3"/>
       <c r="B641" s="3"/>
       <c r="E641" s="3"/>
     </row>
-    <row r="642" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:5">
       <c r="A642" s="3"/>
       <c r="B642" s="3"/>
       <c r="E642" s="3"/>
     </row>
-    <row r="643" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:5">
       <c r="A643" s="3"/>
       <c r="B643" s="3"/>
       <c r="E643" s="3"/>
     </row>
-    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:5">
       <c r="A644" s="3"/>
       <c r="B644" s="3"/>
       <c r="E644" s="3"/>
     </row>
-    <row r="645" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:5">
       <c r="A645" s="3"/>
       <c r="B645" s="3"/>
       <c r="E645" s="3"/>
     </row>
-    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:5">
       <c r="A646" s="3"/>
       <c r="B646" s="3"/>
       <c r="E646" s="3"/>
     </row>
-    <row r="647" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:5">
       <c r="A647" s="3"/>
       <c r="B647" s="3"/>
       <c r="E647" s="3"/>
     </row>
-    <row r="648" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:5">
       <c r="A648" s="3"/>
       <c r="B648" s="3"/>
       <c r="E648" s="3"/>
     </row>
-    <row r="649" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:5">
       <c r="A649" s="3"/>
       <c r="B649" s="3"/>
       <c r="E649" s="3"/>
     </row>
-    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:5">
       <c r="A650" s="3"/>
       <c r="B650" s="3"/>
       <c r="E650" s="3"/>
     </row>
-    <row r="651" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:5">
       <c r="A651" s="3"/>
       <c r="B651" s="3"/>
       <c r="E651" s="3"/>
     </row>
-    <row r="652" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:5">
       <c r="A652" s="3"/>
       <c r="B652" s="3"/>
       <c r="E652" s="3"/>
     </row>
-    <row r="653" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:5">
       <c r="A653" s="3"/>
       <c r="B653" s="3"/>
       <c r="E653" s="3"/>
     </row>
-    <row r="654" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:5">
       <c r="A654" s="3"/>
       <c r="B654" s="3"/>
       <c r="E654" s="3"/>
     </row>
-    <row r="655" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:5">
       <c r="A655" s="3"/>
       <c r="B655" s="3"/>
       <c r="E655" s="3"/>
     </row>
-    <row r="656" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:5">
       <c r="A656" s="3"/>
       <c r="B656" s="3"/>
       <c r="E656" s="3"/>
     </row>
-    <row r="657" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:5">
       <c r="A657" s="3"/>
       <c r="B657" s="3"/>
       <c r="E657" s="3"/>
     </row>
-    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:5">
       <c r="A658" s="3"/>
       <c r="B658" s="3"/>
       <c r="E658" s="3"/>
     </row>
-    <row r="659" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:5">
       <c r="A659" s="3"/>
       <c r="B659" s="3"/>
       <c r="E659" s="3"/>
     </row>
-    <row r="660" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:5">
       <c r="A660" s="3"/>
       <c r="B660" s="3"/>
       <c r="E660" s="3"/>
     </row>
-    <row r="661" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:5">
       <c r="A661" s="3"/>
       <c r="B661" s="3"/>
       <c r="E661" s="3"/>
     </row>
-    <row r="662" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:5">
       <c r="A662" s="3"/>
       <c r="B662" s="3"/>
       <c r="E662" s="3"/>
     </row>
-    <row r="663" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:5">
       <c r="A663" s="3"/>
       <c r="B663" s="3"/>
       <c r="E663" s="3"/>
     </row>
-    <row r="664" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:5">
       <c r="A664" s="3"/>
       <c r="B664" s="3"/>
       <c r="E664" s="3"/>
     </row>
-    <row r="665" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:5">
       <c r="A665" s="3"/>
       <c r="B665" s="3"/>
       <c r="E665" s="3"/>
     </row>
-    <row r="666" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:5">
       <c r="A666" s="3"/>
       <c r="B666" s="3"/>
       <c r="E666" s="3"/>
     </row>
-    <row r="667" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:5">
       <c r="A667" s="3"/>
       <c r="B667" s="3"/>
       <c r="E667" s="3"/>
     </row>
-    <row r="668" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:5">
       <c r="A668" s="3"/>
       <c r="B668" s="3"/>
       <c r="E668" s="3"/>
     </row>
-    <row r="669" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:5">
       <c r="A669" s="3"/>
       <c r="B669" s="3"/>
       <c r="E669" s="3"/>
     </row>
-    <row r="670" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:5">
       <c r="A670" s="3"/>
       <c r="B670" s="3"/>
       <c r="E670" s="3"/>
     </row>
-    <row r="671" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:5">
       <c r="A671" s="3"/>
       <c r="B671" s="3"/>
       <c r="E671" s="3"/>
     </row>
-    <row r="672" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:5">
       <c r="A672" s="3"/>
       <c r="B672" s="3"/>
       <c r="E672" s="3"/>
     </row>
-    <row r="673" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:5">
       <c r="A673" s="3"/>
       <c r="B673" s="3"/>
       <c r="E673" s="3"/>
     </row>
-    <row r="674" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:5">
       <c r="A674" s="3"/>
       <c r="B674" s="3"/>
       <c r="E674" s="3"/>
     </row>
-    <row r="675" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:5">
       <c r="A675" s="3"/>
       <c r="B675" s="3"/>
       <c r="E675" s="3"/>
     </row>
-    <row r="676" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:5">
       <c r="A676" s="3"/>
       <c r="B676" s="3"/>
       <c r="E676" s="3"/>
     </row>
-    <row r="677" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:5">
       <c r="A677" s="3"/>
       <c r="B677" s="3"/>
       <c r="E677" s="3"/>
     </row>
-    <row r="678" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:5">
       <c r="A678" s="3"/>
       <c r="B678" s="3"/>
       <c r="E678" s="3"/>
     </row>
-    <row r="679" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:5">
       <c r="A679" s="3"/>
       <c r="B679" s="3"/>
       <c r="E679" s="3"/>
     </row>
-    <row r="680" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:5">
       <c r="A680" s="3"/>
       <c r="B680" s="3"/>
       <c r="E680" s="3"/>
     </row>
-    <row r="681" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:5">
       <c r="A681" s="3"/>
       <c r="B681" s="3"/>
       <c r="E681" s="3"/>
     </row>
-    <row r="682" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:5">
       <c r="A682" s="3"/>
       <c r="B682" s="3"/>
       <c r="E682" s="3"/>
     </row>
-    <row r="683" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:5">
       <c r="A683" s="3"/>
       <c r="B683" s="3"/>
       <c r="E683" s="3"/>
     </row>
-    <row r="684" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:5">
       <c r="A684" s="3"/>
       <c r="B684" s="3"/>
       <c r="E684" s="3"/>
     </row>
-    <row r="685" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:5">
       <c r="A685" s="3"/>
       <c r="B685" s="3"/>
       <c r="E685" s="3"/>
     </row>
-    <row r="686" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:5">
       <c r="A686" s="3"/>
       <c r="B686" s="3"/>
       <c r="E686" s="3"/>
     </row>
-    <row r="687" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:5">
       <c r="A687" s="3"/>
       <c r="B687" s="3"/>
       <c r="E687" s="3"/>
     </row>
-    <row r="688" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:5">
       <c r="A688" s="3"/>
       <c r="B688" s="3"/>
       <c r="E688" s="3"/>
     </row>
-    <row r="689" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:5">
       <c r="A689" s="3"/>
       <c r="B689" s="3"/>
       <c r="E689" s="3"/>
     </row>
-    <row r="690" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:5">
       <c r="A690" s="3"/>
       <c r="B690" s="3"/>
       <c r="E690" s="3"/>
     </row>
-    <row r="691" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:5">
       <c r="A691" s="3"/>
       <c r="B691" s="3"/>
       <c r="E691" s="3"/>
     </row>
-    <row r="692" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:5">
       <c r="A692" s="3"/>
       <c r="B692" s="3"/>
       <c r="E692" s="3"/>
     </row>
-    <row r="693" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:5">
       <c r="A693" s="3"/>
       <c r="B693" s="3"/>
       <c r="E693" s="3"/>
     </row>
-    <row r="694" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:5">
       <c r="A694" s="3"/>
       <c r="B694" s="3"/>
       <c r="E694" s="3"/>
     </row>
-    <row r="695" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:5">
       <c r="A695" s="3"/>
       <c r="B695" s="3"/>
       <c r="E695" s="3"/>
     </row>
-    <row r="696" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:5">
       <c r="A696" s="3"/>
       <c r="B696" s="3"/>
       <c r="E696" s="3"/>
     </row>
-    <row r="697" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:5">
       <c r="A697" s="3"/>
       <c r="B697" s="3"/>
       <c r="E697" s="3"/>
     </row>
-    <row r="698" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:5">
       <c r="A698" s="3"/>
       <c r="B698" s="3"/>
       <c r="E698" s="3"/>
     </row>
-    <row r="699" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:5">
       <c r="A699" s="3"/>
       <c r="B699" s="3"/>
       <c r="E699" s="3"/>
     </row>
-    <row r="700" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:5">
       <c r="A700" s="3"/>
       <c r="B700" s="3"/>
       <c r="E700" s="3"/>
     </row>
-    <row r="701" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:5">
       <c r="A701" s="3"/>
       <c r="B701" s="3"/>
       <c r="E701" s="3"/>
     </row>
-    <row r="702" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:5">
       <c r="A702" s="3"/>
       <c r="B702" s="3"/>
       <c r="E702" s="3"/>
     </row>
-    <row r="703" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:5">
       <c r="A703" s="3"/>
       <c r="B703" s="3"/>
       <c r="E703" s="3"/>
     </row>
-    <row r="704" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:5">
       <c r="A704" s="3"/>
       <c r="B704" s="3"/>
       <c r="E704" s="3"/>
     </row>
-    <row r="705" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:5">
       <c r="A705" s="3"/>
       <c r="B705" s="3"/>
       <c r="E705" s="3"/>
     </row>
-    <row r="706" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:5">
       <c r="A706" s="3"/>
       <c r="B706" s="3"/>
       <c r="E706" s="3"/>
     </row>
-    <row r="707" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:5">
       <c r="A707" s="3"/>
       <c r="B707" s="3"/>
       <c r="E707" s="3"/>
     </row>
-    <row r="708" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:5">
       <c r="A708" s="3"/>
       <c r="B708" s="3"/>
       <c r="E708" s="3"/>
     </row>
-    <row r="709" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:5">
       <c r="A709" s="3"/>
       <c r="B709" s="3"/>
       <c r="E709" s="3"/>
     </row>
-    <row r="710" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:5">
       <c r="A710" s="3"/>
       <c r="B710" s="3"/>
       <c r="E710" s="3"/>
     </row>
-    <row r="711" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:5">
       <c r="A711" s="3"/>
       <c r="B711" s="3"/>
       <c r="E711" s="3"/>
     </row>
-    <row r="712" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:5">
       <c r="A712" s="3"/>
       <c r="B712" s="3"/>
       <c r="E712" s="3"/>
     </row>
-    <row r="713" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:5">
       <c r="A713" s="3"/>
       <c r="B713" s="3"/>
       <c r="E713" s="3"/>
     </row>
-    <row r="714" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:5">
       <c r="A714" s="3"/>
       <c r="B714" s="3"/>
       <c r="E714" s="3"/>
     </row>
-    <row r="715" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:5">
       <c r="A715" s="3"/>
       <c r="B715" s="3"/>
       <c r="E715" s="3"/>
     </row>
-    <row r="716" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:5">
       <c r="A716" s="3"/>
       <c r="B716" s="3"/>
       <c r="E716" s="3"/>
     </row>
-    <row r="717" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:5">
       <c r="A717" s="3"/>
       <c r="B717" s="3"/>
       <c r="E717" s="3"/>
     </row>
-    <row r="718" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:5">
       <c r="A718" s="3"/>
       <c r="B718" s="3"/>
       <c r="E718" s="3"/>
     </row>
-    <row r="719" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:5">
       <c r="A719" s="3"/>
       <c r="B719" s="3"/>
       <c r="E719" s="3"/>
     </row>
-    <row r="720" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:5">
       <c r="A720" s="3"/>
       <c r="B720" s="3"/>
       <c r="E720" s="3"/>
     </row>
-    <row r="721" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:5">
       <c r="A721" s="3"/>
       <c r="B721" s="3"/>
       <c r="E721" s="3"/>
     </row>
-    <row r="722" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:5">
       <c r="A722" s="3"/>
       <c r="B722" s="3"/>
       <c r="E722" s="3"/>
     </row>
-    <row r="723" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:5">
       <c r="A723" s="3"/>
       <c r="B723" s="3"/>
       <c r="E723" s="3"/>
     </row>
-    <row r="724" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:5">
       <c r="A724" s="3"/>
       <c r="B724" s="3"/>
       <c r="E724" s="3"/>
     </row>
-    <row r="725" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:5">
       <c r="A725" s="3"/>
       <c r="B725" s="3"/>
       <c r="E725" s="3"/>
     </row>
-    <row r="726" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:5">
       <c r="A726" s="3"/>
       <c r="B726" s="3"/>
       <c r="E726" s="3"/>
     </row>
-    <row r="727" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:5">
       <c r="A727" s="3"/>
       <c r="B727" s="3"/>
       <c r="E727" s="3"/>
     </row>
-    <row r="728" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:5">
       <c r="A728" s="3"/>
       <c r="B728" s="3"/>
       <c r="E728" s="3"/>
     </row>
-    <row r="729" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:5">
       <c r="A729" s="3"/>
       <c r="B729" s="3"/>
       <c r="E729" s="3"/>
     </row>
-    <row r="730" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:5">
       <c r="A730" s="3"/>
       <c r="B730" s="3"/>
       <c r="E730" s="3"/>
     </row>
-    <row r="731" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:5">
       <c r="A731" s="3"/>
       <c r="B731" s="3"/>
       <c r="E731" s="3"/>
     </row>
-    <row r="732" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:5">
       <c r="A732" s="3"/>
       <c r="B732" s="3"/>
       <c r="E732" s="3"/>
     </row>
-    <row r="733" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:5">
       <c r="A733" s="3"/>
       <c r="B733" s="3"/>
       <c r="E733" s="3"/>
     </row>
-    <row r="734" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:5">
       <c r="A734" s="3"/>
       <c r="B734" s="3"/>
       <c r="E734" s="3"/>
     </row>
-    <row r="735" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:5">
       <c r="A735" s="3"/>
       <c r="B735" s="3"/>
       <c r="E735" s="3"/>
     </row>
-    <row r="736" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:5">
       <c r="A736" s="3"/>
       <c r="B736" s="3"/>
       <c r="E736" s="3"/>
     </row>
-    <row r="737" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:5">
       <c r="A737" s="3"/>
       <c r="B737" s="3"/>
       <c r="E737" s="3"/>
     </row>
-    <row r="738" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:5">
       <c r="A738" s="3"/>
       <c r="B738" s="3"/>
       <c r="E738" s="3"/>
     </row>
-    <row r="739" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:5">
       <c r="A739" s="3"/>
       <c r="B739" s="3"/>
       <c r="E739" s="3"/>
     </row>
-    <row r="740" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:5">
       <c r="A740" s="3"/>
       <c r="B740" s="3"/>
       <c r="E740" s="3"/>
     </row>
-    <row r="741" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:5">
       <c r="A741" s="3"/>
       <c r="B741" s="3"/>
       <c r="E741" s="3"/>
     </row>
-    <row r="742" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:5">
       <c r="A742" s="3"/>
       <c r="B742" s="3"/>
       <c r="E742" s="3"/>
     </row>
-    <row r="743" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:5">
       <c r="A743" s="3"/>
       <c r="B743" s="3"/>
       <c r="E743" s="3"/>
     </row>
-    <row r="744" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:5">
       <c r="A744" s="3"/>
       <c r="B744" s="3"/>
       <c r="E744" s="3"/>
     </row>
-    <row r="745" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:5">
       <c r="A745" s="3"/>
       <c r="B745" s="3"/>
       <c r="E745" s="3"/>
     </row>
-    <row r="746" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:5">
       <c r="A746" s="3"/>
       <c r="B746" s="3"/>
       <c r="E746" s="3"/>
     </row>
-    <row r="747" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:5">
       <c r="A747" s="3"/>
       <c r="B747" s="3"/>
       <c r="E747" s="3"/>
     </row>
-    <row r="748" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:5">
       <c r="A748" s="3"/>
       <c r="B748" s="3"/>
       <c r="E748" s="3"/>
     </row>
-    <row r="749" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:5">
       <c r="A749" s="3"/>
       <c r="B749" s="3"/>
       <c r="E749" s="3"/>
     </row>
-    <row r="750" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:5">
       <c r="A750" s="3"/>
       <c r="B750" s="3"/>
       <c r="E750" s="3"/>
     </row>
-    <row r="751" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:5">
       <c r="A751" s="3"/>
       <c r="B751" s="3"/>
       <c r="E751" s="3"/>
     </row>
-    <row r="752" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:5">
       <c r="A752" s="3"/>
       <c r="B752" s="3"/>
       <c r="E752" s="3"/>
     </row>
-    <row r="753" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:5">
       <c r="A753" s="3"/>
       <c r="B753" s="3"/>
       <c r="E753" s="3"/>
     </row>
-    <row r="754" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:5">
       <c r="A754" s="3"/>
       <c r="B754" s="3"/>
       <c r="E754" s="3"/>
     </row>
-    <row r="755" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:5">
       <c r="A755" s="3"/>
       <c r="B755" s="3"/>
       <c r="E755" s="3"/>
     </row>
-    <row r="756" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:5">
       <c r="A756" s="3"/>
       <c r="B756" s="3"/>
       <c r="E756" s="3"/>
     </row>
-    <row r="757" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:5">
       <c r="A757" s="3"/>
       <c r="B757" s="3"/>
       <c r="E757" s="3"/>
     </row>
-    <row r="758" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:5">
       <c r="A758" s="3"/>
       <c r="B758" s="3"/>
       <c r="E758" s="3"/>
     </row>
-    <row r="759" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:5">
       <c r="A759" s="3"/>
       <c r="B759" s="3"/>
       <c r="E759" s="3"/>
     </row>
-    <row r="760" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:5">
       <c r="A760" s="3"/>
       <c r="B760" s="3"/>
       <c r="E760" s="3"/>
     </row>
-    <row r="761" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:5">
       <c r="A761" s="3"/>
       <c r="B761" s="3"/>
       <c r="E761" s="3"/>
     </row>
-    <row r="762" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:5">
       <c r="A762" s="3"/>
       <c r="B762" s="3"/>
       <c r="E762" s="3"/>
     </row>
-    <row r="763" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:5">
       <c r="A763" s="3"/>
       <c r="B763" s="3"/>
       <c r="E763" s="3"/>
     </row>
-    <row r="764" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:5">
       <c r="A764" s="3"/>
       <c r="B764" s="3"/>
       <c r="E764" s="3"/>
     </row>
-    <row r="765" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:5">
       <c r="A765" s="3"/>
       <c r="B765" s="3"/>
       <c r="E765" s="3"/>
     </row>
-    <row r="766" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:5">
       <c r="A766" s="3"/>
       <c r="B766" s="3"/>
       <c r="E766" s="3"/>
     </row>
-    <row r="767" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:5">
       <c r="A767" s="3"/>
       <c r="B767" s="3"/>
       <c r="E767" s="3"/>
     </row>
-    <row r="768" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:5">
       <c r="A768" s="3"/>
       <c r="B768" s="3"/>
       <c r="E768" s="3"/>
     </row>
-    <row r="769" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:5">
       <c r="A769" s="3"/>
       <c r="B769" s="3"/>
       <c r="E769" s="3"/>
     </row>
-    <row r="770" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:5">
       <c r="A770" s="3"/>
       <c r="B770" s="3"/>
       <c r="E770" s="3"/>
     </row>
-    <row r="771" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:5">
       <c r="A771" s="3"/>
       <c r="B771" s="3"/>
       <c r="E771" s="3"/>
     </row>
-    <row r="772" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:5">
       <c r="A772" s="3"/>
       <c r="B772" s="3"/>
       <c r="E772" s="3"/>
     </row>
-    <row r="773" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:5">
       <c r="A773" s="3"/>
       <c r="B773" s="3"/>
       <c r="E773" s="3"/>
     </row>
-    <row r="774" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:5">
       <c r="A774" s="3"/>
       <c r="B774" s="3"/>
       <c r="E774" s="3"/>
     </row>
-    <row r="775" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:5">
       <c r="A775" s="3"/>
       <c r="B775" s="3"/>
       <c r="E775" s="3"/>
     </row>
-    <row r="776" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:5">
       <c r="A776" s="3"/>
       <c r="B776" s="3"/>
       <c r="E776" s="3"/>
     </row>
-    <row r="777" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:5">
       <c r="A777" s="3"/>
       <c r="B777" s="3"/>
       <c r="E777" s="3"/>
     </row>
-    <row r="778" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:5">
       <c r="A778" s="3"/>
       <c r="B778" s="3"/>
       <c r="E778" s="3"/>
     </row>
-    <row r="779" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:5">
       <c r="A779" s="3"/>
       <c r="B779" s="3"/>
       <c r="E779" s="3"/>
     </row>
-    <row r="780" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:5">
       <c r="A780" s="3"/>
       <c r="B780" s="3"/>
       <c r="E780" s="3"/>
     </row>
-    <row r="781" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:5">
       <c r="A781" s="3"/>
       <c r="B781" s="3"/>
       <c r="E781" s="3"/>
     </row>
-    <row r="782" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:5">
       <c r="A782" s="3"/>
       <c r="B782" s="3"/>
       <c r="E782" s="3"/>
     </row>
-    <row r="783" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:5">
       <c r="A783" s="3"/>
       <c r="B783" s="3"/>
       <c r="E783" s="3"/>
     </row>
-    <row r="784" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:5">
       <c r="A784" s="3"/>
       <c r="B784" s="3"/>
       <c r="E784" s="3"/>
     </row>
-    <row r="785" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:5">
       <c r="A785" s="3"/>
       <c r="B785" s="3"/>
       <c r="E785" s="3"/>
     </row>
-    <row r="786" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:5">
       <c r="A786" s="3"/>
       <c r="B786" s="3"/>
       <c r="E786" s="3"/>
     </row>
-    <row r="787" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:5">
       <c r="A787" s="3"/>
       <c r="B787" s="3"/>
       <c r="E787" s="3"/>
     </row>
-    <row r="788" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:5">
       <c r="A788" s="3"/>
       <c r="B788" s="3"/>
       <c r="E788" s="3"/>
     </row>
-    <row r="789" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:5">
       <c r="A789" s="3"/>
       <c r="B789" s="3"/>
       <c r="E789" s="3"/>
     </row>
-    <row r="790" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:5">
       <c r="A790" s="3"/>
       <c r="B790" s="3"/>
       <c r="E790" s="3"/>
     </row>
-    <row r="791" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:5">
       <c r="A791" s="3"/>
       <c r="B791" s="3"/>
       <c r="E791" s="3"/>
     </row>
-    <row r="792" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:5">
       <c r="A792" s="3"/>
       <c r="B792" s="3"/>
       <c r="E792" s="3"/>
     </row>
-    <row r="793" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:5">
       <c r="A793" s="3"/>
       <c r="B793" s="3"/>
       <c r="E793" s="3"/>
     </row>
-    <row r="794" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:5">
       <c r="A794" s="3"/>
       <c r="B794" s="3"/>
       <c r="E794" s="3"/>
     </row>
-    <row r="795" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:5">
       <c r="A795" s="3"/>
       <c r="B795" s="3"/>
       <c r="E795" s="3"/>
     </row>
-    <row r="796" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:5">
       <c r="A796" s="3"/>
       <c r="B796" s="3"/>
       <c r="E796" s="3"/>
     </row>
-    <row r="797" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:5">
       <c r="A797" s="3"/>
       <c r="B797" s="3"/>
       <c r="E797" s="3"/>
     </row>
-    <row r="798" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:5">
       <c r="A798" s="3"/>
       <c r="B798" s="3"/>
       <c r="E798" s="3"/>
     </row>
-    <row r="799" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:5">
       <c r="A799" s="3"/>
       <c r="B799" s="3"/>
       <c r="E799" s="3"/>
     </row>
-    <row r="800" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:5">
       <c r="A800" s="3"/>
       <c r="B800" s="3"/>
       <c r="E800" s="3"/>
     </row>
-    <row r="801" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:5">
       <c r="A801" s="3"/>
       <c r="B801" s="3"/>
       <c r="E801" s="3"/>
     </row>
-    <row r="802" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:5">
       <c r="A802" s="3"/>
       <c r="B802" s="3"/>
       <c r="E802" s="3"/>
     </row>
-    <row r="803" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:5">
       <c r="A803" s="3"/>
       <c r="B803" s="3"/>
       <c r="E803" s="3"/>
     </row>
-    <row r="804" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:5">
       <c r="A804" s="3"/>
       <c r="B804" s="3"/>
       <c r="E804" s="3"/>
     </row>
-    <row r="805" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:5">
       <c r="A805" s="3"/>
       <c r="B805" s="3"/>
       <c r="E805" s="3"/>
     </row>
-    <row r="806" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:5">
       <c r="A806" s="3"/>
       <c r="B806" s="3"/>
       <c r="E806" s="3"/>
     </row>
-    <row r="807" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:5">
       <c r="A807" s="3"/>
       <c r="B807" s="3"/>
       <c r="E807" s="3"/>
     </row>
-    <row r="808" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:5">
       <c r="A808" s="3"/>
       <c r="B808" s="3"/>
       <c r="E808" s="3"/>
     </row>
-    <row r="809" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:5">
       <c r="A809" s="3"/>
       <c r="B809" s="3"/>
       <c r="E809" s="3"/>
     </row>
-    <row r="810" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:5">
       <c r="A810" s="3"/>
       <c r="B810" s="3"/>
       <c r="E810" s="3"/>
     </row>
-    <row r="811" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:5">
       <c r="A811" s="3"/>
       <c r="B811" s="3"/>
       <c r="E811" s="3"/>
     </row>
-    <row r="812" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:5">
       <c r="A812" s="3"/>
       <c r="B812" s="3"/>
       <c r="E812" s="3"/>
     </row>
-    <row r="813" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:5">
       <c r="A813" s="3"/>
       <c r="B813" s="3"/>
       <c r="E813" s="3"/>
     </row>
-    <row r="814" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:5">
       <c r="A814" s="3"/>
       <c r="B814" s="3"/>
       <c r="E814" s="3"/>
     </row>
-    <row r="815" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:5">
       <c r="A815" s="3"/>
       <c r="B815" s="3"/>
       <c r="E815" s="3"/>
     </row>
-    <row r="816" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:5">
       <c r="A816" s="3"/>
       <c r="B816" s="3"/>
       <c r="E816" s="3"/>
     </row>
-    <row r="817" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:5">
       <c r="A817" s="3"/>
       <c r="B817" s="3"/>
       <c r="E817" s="3"/>
     </row>
-    <row r="818" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:5">
       <c r="A818" s="3"/>
       <c r="B818" s="3"/>
       <c r="E818" s="3"/>
     </row>
-    <row r="819" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:5">
       <c r="A819" s="3"/>
       <c r="B819" s="3"/>
       <c r="E819" s="3"/>
     </row>
-    <row r="820" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:5">
       <c r="A820" s="3"/>
       <c r="B820" s="3"/>
       <c r="E820" s="3"/>
     </row>
-    <row r="821" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:5">
       <c r="A821" s="3"/>
       <c r="B821" s="3"/>
       <c r="E821" s="3"/>
     </row>
-    <row r="822" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:5">
       <c r="A822" s="3"/>
       <c r="B822" s="3"/>
       <c r="E822" s="3"/>
     </row>
-    <row r="823" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:5">
       <c r="A823" s="3"/>
       <c r="B823" s="3"/>
       <c r="E823" s="3"/>
     </row>
-    <row r="824" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:5">
       <c r="A824" s="3"/>
       <c r="B824" s="3"/>
       <c r="E824" s="3"/>
     </row>
-    <row r="825" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:5">
       <c r="A825" s="3"/>
       <c r="B825" s="3"/>
       <c r="E825" s="3"/>
     </row>
-    <row r="826" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:5">
       <c r="A826" s="3"/>
       <c r="B826" s="3"/>
       <c r="E826" s="3"/>
     </row>
-    <row r="827" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:5">
       <c r="A827" s="3"/>
       <c r="B827" s="3"/>
       <c r="E827" s="3"/>
     </row>
-    <row r="828" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:5">
       <c r="A828" s="3"/>
       <c r="B828" s="3"/>
       <c r="E828" s="3"/>
     </row>
-    <row r="829" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:5">
       <c r="A829" s="3"/>
       <c r="B829" s="3"/>
       <c r="E829" s="3"/>
     </row>
-    <row r="830" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:5">
       <c r="A830" s="3"/>
       <c r="B830" s="3"/>
       <c r="E830" s="3"/>
     </row>
-    <row r="831" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:5">
       <c r="A831" s="3"/>
       <c r="B831" s="3"/>
       <c r="E831" s="3"/>
     </row>
-    <row r="832" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:5">
       <c r="A832" s="3"/>
       <c r="B832" s="3"/>
       <c r="E832" s="3"/>
     </row>
-    <row r="833" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:5">
       <c r="A833" s="3"/>
       <c r="B833" s="3"/>
       <c r="E833" s="3"/>
     </row>
-    <row r="834" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:5">
       <c r="A834" s="3"/>
       <c r="B834" s="3"/>
       <c r="E834" s="3"/>
     </row>
-    <row r="835" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:5">
       <c r="A835" s="3"/>
       <c r="B835" s="3"/>
       <c r="E835" s="3"/>
     </row>
-    <row r="836" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:5">
       <c r="A836" s="3"/>
       <c r="B836" s="3"/>
       <c r="E836" s="3"/>
     </row>
-    <row r="837" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:5">
       <c r="A837" s="3"/>
       <c r="B837" s="3"/>
       <c r="E837" s="3"/>
     </row>
-    <row r="838" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:5">
       <c r="A838" s="3"/>
       <c r="B838" s="3"/>
       <c r="E838" s="3"/>
     </row>
-    <row r="839" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:5">
       <c r="A839" s="3"/>
       <c r="B839" s="3"/>
       <c r="E839" s="3"/>
     </row>
-    <row r="840" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:5">
       <c r="A840" s="3"/>
       <c r="B840" s="3"/>
       <c r="E840" s="3"/>
     </row>
-    <row r="841" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:5">
       <c r="A841" s="3"/>
       <c r="B841" s="3"/>
       <c r="E841" s="3"/>
     </row>
-    <row r="842" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:5">
       <c r="A842" s="3"/>
       <c r="B842" s="3"/>
       <c r="E842" s="3"/>
     </row>
-    <row r="843" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:5">
       <c r="A843" s="3"/>
       <c r="B843" s="3"/>
       <c r="E843" s="3"/>
     </row>
-    <row r="844" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:5">
       <c r="A844" s="3"/>
       <c r="B844" s="3"/>
       <c r="E844" s="3"/>
     </row>
-    <row r="845" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:5">
       <c r="A845" s="3"/>
       <c r="B845" s="3"/>
       <c r="E845" s="3"/>
     </row>
-    <row r="846" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:5">
       <c r="A846" s="3"/>
       <c r="B846" s="3"/>
       <c r="E846" s="3"/>
     </row>
-    <row r="847" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:5">
       <c r="A847" s="3"/>
       <c r="B847" s="3"/>
       <c r="E847" s="3"/>
     </row>
-    <row r="848" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:5">
       <c r="A848" s="3"/>
       <c r="B848" s="3"/>
       <c r="E848" s="3"/>
     </row>
-    <row r="849" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:5">
       <c r="A849" s="3"/>
       <c r="B849" s="3"/>
       <c r="E849" s="3"/>
     </row>
-    <row r="850" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:5">
       <c r="A850" s="3"/>
       <c r="B850" s="3"/>
       <c r="E850" s="3"/>
     </row>
-    <row r="851" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:5">
       <c r="A851" s="3"/>
       <c r="B851" s="3"/>
       <c r="E851" s="3"/>
     </row>
-    <row r="852" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:5">
       <c r="A852" s="3"/>
       <c r="B852" s="3"/>
       <c r="E852" s="3"/>
     </row>
-    <row r="853" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:5">
       <c r="A853" s="3"/>
       <c r="B853" s="3"/>
       <c r="E853" s="3"/>
     </row>
-    <row r="854" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:5">
       <c r="A854" s="3"/>
       <c r="B854" s="3"/>
       <c r="E854" s="3"/>
     </row>
-    <row r="855" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:5">
       <c r="A855" s="3"/>
       <c r="B855" s="3"/>
       <c r="E855" s="3"/>
     </row>
-    <row r="856" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:5">
       <c r="A856" s="3"/>
       <c r="B856" s="3"/>
       <c r="E856" s="3"/>
     </row>
-    <row r="857" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:5">
       <c r="A857" s="3"/>
       <c r="B857" s="3"/>
       <c r="E857" s="3"/>
     </row>
-    <row r="858" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:5">
       <c r="A858" s="3"/>
       <c r="B858" s="3"/>
       <c r="E858" s="3"/>
     </row>
-    <row r="859" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:5">
       <c r="A859" s="3"/>
       <c r="B859" s="3"/>
       <c r="E859" s="3"/>
     </row>
-    <row r="860" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:5">
       <c r="A860" s="3"/>
       <c r="B860" s="3"/>
       <c r="E860" s="3"/>
     </row>
-    <row r="861" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:5">
       <c r="A861" s="3"/>
       <c r="B861" s="3"/>
       <c r="E861" s="3"/>
     </row>
-    <row r="862" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:5">
       <c r="A862" s="3"/>
       <c r="B862" s="3"/>
       <c r="E862" s="3"/>
     </row>
-    <row r="863" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:5">
       <c r="A863" s="3"/>
       <c r="B863" s="3"/>
       <c r="E863" s="3"/>
     </row>
-    <row r="864" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:5">
       <c r="A864" s="3"/>
       <c r="B864" s="3"/>
       <c r="E864" s="3"/>
     </row>
-    <row r="865" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:5">
       <c r="A865" s="3"/>
       <c r="B865" s="3"/>
       <c r="E865" s="3"/>
     </row>
-    <row r="866" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:5">
       <c r="A866" s="3"/>
       <c r="B866" s="3"/>
       <c r="E866" s="3"/>
     </row>
-    <row r="867" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:5">
       <c r="A867" s="3"/>
       <c r="B867" s="3"/>
       <c r="E867" s="3"/>
     </row>
-    <row r="868" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:5">
       <c r="A868" s="3"/>
       <c r="B868" s="3"/>
       <c r="E868" s="3"/>
     </row>
-    <row r="869" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:5">
       <c r="A869" s="3"/>
       <c r="B869" s="3"/>
       <c r="E869" s="3"/>
     </row>
-    <row r="870" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:5">
       <c r="A870" s="3"/>
       <c r="B870" s="3"/>
       <c r="E870" s="3"/>
     </row>
-    <row r="871" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:5">
       <c r="A871" s="3"/>
       <c r="B871" s="3"/>
       <c r="E871" s="3"/>
     </row>
-    <row r="872" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:5">
       <c r="A872" s="3"/>
       <c r="B872" s="3"/>
       <c r="E872" s="3"/>
     </row>
-    <row r="873" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:5">
       <c r="A873" s="3"/>
       <c r="B873" s="3"/>
       <c r="E873" s="3"/>
     </row>
-    <row r="874" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:5">
       <c r="A874" s="3"/>
       <c r="B874" s="3"/>
       <c r="E874" s="3"/>
     </row>
-    <row r="875" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:5">
       <c r="A875" s="3"/>
       <c r="B875" s="3"/>
       <c r="E875" s="3"/>
     </row>
-    <row r="876" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:5">
       <c r="A876" s="3"/>
       <c r="B876" s="3"/>
       <c r="E876" s="3"/>
     </row>
-    <row r="877" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:5">
       <c r="A877" s="3"/>
       <c r="B877" s="3"/>
       <c r="E877" s="3"/>
     </row>
-    <row r="878" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:5">
       <c r="A878" s="3"/>
       <c r="B878" s="3"/>
       <c r="E878" s="3"/>
     </row>
-    <row r="879" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:5">
       <c r="A879" s="3"/>
       <c r="B879" s="3"/>
       <c r="E879" s="3"/>
     </row>
-    <row r="880" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:5">
       <c r="A880" s="3"/>
       <c r="B880" s="3"/>
       <c r="E880" s="3"/>
     </row>
-    <row r="881" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:5">
       <c r="A881" s="3"/>
       <c r="B881" s="3"/>
       <c r="E881" s="3"/>
     </row>
-    <row r="882" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:5">
       <c r="A882" s="3"/>
       <c r="B882" s="3"/>
       <c r="E882" s="3"/>
     </row>
-    <row r="883" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:5">
       <c r="A883" s="3"/>
       <c r="B883" s="3"/>
       <c r="E883" s="3"/>
     </row>
-    <row r="884" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:5">
       <c r="A884" s="3"/>
       <c r="B884" s="3"/>
       <c r="E884" s="3"/>
     </row>
-    <row r="885" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:5">
       <c r="A885" s="3"/>
       <c r="B885" s="3"/>
       <c r="E885" s="3"/>
     </row>
-    <row r="886" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:5">
       <c r="A886" s="3"/>
       <c r="B886" s="3"/>
       <c r="E886" s="3"/>
     </row>
-    <row r="887" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:5">
       <c r="A887" s="3"/>
       <c r="B887" s="3"/>
       <c r="E887" s="3"/>
     </row>
-    <row r="888" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:5">
       <c r="A888" s="3"/>
       <c r="B888" s="3"/>
       <c r="E888" s="3"/>
     </row>
-    <row r="889" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:5">
       <c r="A889" s="3"/>
       <c r="B889" s="3"/>
       <c r="E889" s="3"/>
     </row>
-    <row r="890" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:5">
       <c r="A890" s="3"/>
       <c r="B890" s="3"/>
       <c r="E890" s="3"/>
     </row>
-    <row r="891" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:5">
       <c r="A891" s="3"/>
       <c r="B891" s="3"/>
       <c r="E891" s="3"/>
     </row>
-    <row r="892" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:5">
       <c r="A892" s="3"/>
       <c r="B892" s="3"/>
       <c r="E892" s="3"/>
     </row>
-    <row r="893" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:5">
       <c r="A893" s="3"/>
       <c r="B893" s="3"/>
       <c r="E893" s="3"/>
     </row>
-    <row r="894" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:5">
       <c r="A894" s="3"/>
       <c r="B894" s="3"/>
       <c r="E894" s="3"/>
     </row>
-    <row r="895" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:5">
       <c r="A895" s="3"/>
       <c r="B895" s="3"/>
       <c r="E895" s="3"/>
     </row>
-    <row r="896" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:5">
       <c r="A896" s="3"/>
       <c r="B896" s="3"/>
       <c r="E896" s="3"/>
     </row>
-    <row r="897" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:5">
       <c r="A897" s="3"/>
       <c r="B897" s="3"/>
       <c r="E897" s="3"/>
     </row>
-    <row r="898" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:5">
       <c r="A898" s="3"/>
       <c r="B898" s="3"/>
       <c r="E898" s="3"/>
     </row>
-    <row r="899" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:5">
       <c r="A899" s="3"/>
       <c r="B899" s="3"/>
       <c r="E899" s="3"/>
     </row>
-    <row r="900" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:5">
       <c r="A900" s="3"/>
       <c r="B900" s="3"/>
       <c r="E900" s="3"/>
     </row>
-    <row r="901" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:5">
       <c r="A901" s="3"/>
       <c r="B901" s="3"/>
       <c r="E901" s="3"/>
     </row>
-    <row r="902" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:5">
       <c r="A902" s="3"/>
       <c r="B902" s="3"/>
       <c r="E902" s="3"/>
     </row>
-    <row r="903" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:5">
       <c r="A903" s="3"/>
       <c r="B903" s="3"/>
       <c r="E903" s="3"/>
     </row>
-    <row r="904" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:5">
       <c r="A904" s="3"/>
       <c r="B904" s="3"/>
       <c r="E904" s="3"/>
     </row>
-    <row r="905" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:5">
       <c r="A905" s="3"/>
       <c r="B905" s="3"/>
       <c r="E905" s="3"/>
     </row>
-    <row r="906" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:5">
       <c r="A906" s="3"/>
       <c r="B906" s="3"/>
       <c r="E906" s="3"/>
     </row>
-    <row r="907" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:5">
       <c r="A907" s="3"/>
       <c r="B907" s="3"/>
       <c r="E907" s="3"/>
     </row>
-    <row r="908" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:5">
       <c r="A908" s="3"/>
       <c r="B908" s="3"/>
       <c r="E908" s="3"/>
     </row>
-    <row r="909" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:5">
       <c r="A909" s="3"/>
       <c r="B909" s="3"/>
       <c r="E909" s="3"/>
     </row>
-    <row r="910" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:5">
       <c r="A910" s="3"/>
       <c r="B910" s="3"/>
       <c r="E910" s="3"/>
     </row>
-    <row r="911" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:5">
       <c r="A911" s="3"/>
       <c r="B911" s="3"/>
       <c r="E911" s="3"/>
     </row>
-    <row r="912" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:5">
       <c r="A912" s="3"/>
       <c r="B912" s="3"/>
       <c r="E912" s="3"/>
     </row>
-    <row r="913" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:5">
       <c r="A913" s="3"/>
       <c r="B913" s="3"/>
       <c r="E913" s="3"/>
     </row>
-    <row r="914" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:5">
       <c r="A914" s="3"/>
       <c r="B914" s="3"/>
       <c r="E914" s="3"/>
     </row>
-    <row r="915" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:5">
       <c r="A915" s="3"/>
       <c r="B915" s="3"/>
       <c r="E915" s="3"/>
     </row>
-    <row r="916" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:5">
       <c r="A916" s="3"/>
       <c r="B916" s="3"/>
       <c r="E916" s="3"/>
     </row>
-    <row r="917" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:5">
       <c r="A917" s="3"/>
       <c r="B917" s="3"/>
       <c r="E917" s="3"/>
     </row>
-    <row r="918" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:5">
       <c r="A918" s="3"/>
       <c r="B918" s="3"/>
       <c r="E918" s="3"/>
     </row>
-    <row r="919" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:5">
       <c r="A919" s="3"/>
       <c r="B919" s="3"/>
       <c r="E919" s="3"/>
     </row>
-    <row r="920" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:5">
       <c r="A920" s="3"/>
       <c r="B920" s="3"/>
       <c r="E920" s="3"/>
     </row>
-    <row r="921" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:5">
       <c r="A921" s="3"/>
       <c r="B921" s="3"/>
       <c r="E921" s="3"/>
     </row>
-    <row r="922" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:5">
       <c r="A922" s="3"/>
       <c r="B922" s="3"/>
       <c r="E922" s="3"/>
     </row>
-    <row r="923" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:5">
       <c r="A923" s="3"/>
       <c r="B923" s="3"/>
       <c r="E923" s="3"/>
     </row>
-    <row r="924" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:5">
       <c r="A924" s="3"/>
       <c r="B924" s="3"/>
       <c r="E924" s="3"/>
     </row>
-    <row r="925" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:5">
       <c r="A925" s="3"/>
       <c r="B925" s="3"/>
       <c r="E925" s="3"/>
     </row>
-    <row r="926" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:5">
       <c r="A926" s="3"/>
       <c r="B926" s="3"/>
       <c r="E926" s="3"/>
     </row>
-    <row r="927" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:5">
       <c r="A927" s="3"/>
       <c r="B927" s="3"/>
       <c r="E927" s="3"/>
     </row>
-    <row r="928" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:5">
       <c r="A928" s="3"/>
       <c r="B928" s="3"/>
       <c r="E928" s="3"/>
     </row>
-    <row r="929" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:5">
       <c r="A929" s="3"/>
       <c r="B929" s="3"/>
       <c r="E929" s="3"/>
     </row>
-    <row r="930" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:5">
       <c r="A930" s="3"/>
       <c r="B930" s="3"/>
       <c r="E930" s="3"/>
     </row>
-    <row r="931" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:5">
       <c r="A931" s="3"/>
       <c r="B931" s="3"/>
       <c r="E931" s="3"/>
     </row>
-    <row r="932" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:5">
       <c r="A932" s="3"/>
       <c r="B932" s="3"/>
       <c r="E932" s="3"/>
     </row>
-    <row r="933" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:5">
       <c r="A933" s="3"/>
       <c r="B933" s="3"/>
       <c r="E933" s="3"/>
     </row>
-    <row r="934" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:5">
       <c r="A934" s="3"/>
       <c r="B934" s="3"/>
       <c r="E934" s="3"/>
     </row>
-    <row r="935" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:5">
       <c r="A935" s="3"/>
       <c r="B935" s="3"/>
       <c r="E935" s="3"/>
     </row>
-    <row r="936" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:5">
       <c r="A936" s="3"/>
       <c r="B936" s="3"/>
       <c r="E936" s="3"/>
     </row>
-    <row r="937" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:5">
       <c r="A937" s="3"/>
       <c r="B937" s="3"/>
       <c r="E937" s="3"/>
     </row>
-    <row r="938" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:5">
       <c r="A938" s="3"/>
       <c r="B938" s="3"/>
       <c r="E938" s="3"/>
     </row>
-    <row r="939" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:5">
       <c r="A939" s="3"/>
       <c r="B939" s="3"/>
       <c r="E939" s="3"/>
     </row>
-    <row r="940" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:5">
       <c r="A940" s="3"/>
       <c r="B940" s="3"/>
       <c r="E940" s="3"/>
     </row>
-    <row r="941" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:5">
       <c r="A941" s="3"/>
       <c r="B941" s="3"/>
       <c r="E941" s="3"/>
     </row>
-    <row r="942" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:5">
       <c r="A942" s="3"/>
       <c r="B942" s="3"/>
       <c r="E942" s="3"/>
     </row>
-    <row r="943" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:5">
       <c r="A943" s="3"/>
       <c r="B943" s="3"/>
       <c r="E943" s="3"/>
     </row>
-    <row r="944" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:5">
       <c r="A944" s="3"/>
       <c r="B944" s="3"/>
       <c r="E944" s="3"/>
     </row>
-    <row r="945" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:5">
       <c r="A945" s="3"/>
       <c r="B945" s="3"/>
       <c r="E945" s="3"/>
     </row>
-    <row r="946" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:5">
       <c r="A946" s="3"/>
       <c r="B946" s="3"/>
       <c r="E946" s="3"/>
     </row>
-    <row r="947" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:5">
       <c r="A947" s="3"/>
       <c r="B947" s="3"/>
       <c r="E947" s="3"/>
     </row>
-    <row r="948" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:5">
       <c r="A948" s="3"/>
       <c r="B948" s="3"/>
       <c r="E948" s="3"/>
     </row>
-    <row r="949" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:5">
       <c r="A949" s="3"/>
       <c r="B949" s="3"/>
       <c r="E949" s="3"/>
     </row>
-    <row r="950" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:5">
       <c r="A950" s="3"/>
       <c r="B950" s="3"/>
       <c r="E950" s="3"/>
     </row>
-    <row r="951" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:5">
       <c r="A951" s="3"/>
       <c r="B951" s="3"/>
       <c r="E951" s="3"/>
     </row>
-    <row r="952" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:5">
       <c r="A952" s="3"/>
       <c r="B952" s="3"/>
       <c r="E952" s="3"/>
     </row>
-    <row r="953" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:5">
       <c r="A953" s="3"/>
       <c r="B953" s="3"/>
       <c r="E953" s="3"/>
     </row>
-    <row r="954" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:5">
       <c r="A954" s="3"/>
       <c r="B954" s="3"/>
       <c r="E954" s="3"/>
     </row>
-    <row r="955" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:5">
       <c r="A955" s="3"/>
       <c r="B955" s="3"/>
       <c r="E955" s="3"/>
     </row>
-    <row r="956" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:5">
       <c r="A956" s="3"/>
       <c r="B956" s="3"/>
       <c r="E956" s="3"/>
     </row>
-    <row r="957" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:5">
       <c r="A957" s="3"/>
       <c r="B957" s="3"/>
       <c r="E957" s="3"/>
     </row>
-    <row r="958" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:5">
       <c r="A958" s="3"/>
       <c r="B958" s="3"/>
       <c r="E958" s="3"/>
     </row>
-    <row r="959" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:5">
       <c r="A959" s="3"/>
       <c r="B959" s="3"/>
       <c r="E959" s="3"/>
     </row>
-    <row r="960" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:5">
       <c r="A960" s="3"/>
       <c r="B960" s="3"/>
       <c r="E960" s="3"/>
     </row>
-    <row r="961" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:5">
       <c r="A961" s="3"/>
       <c r="B961" s="3"/>
       <c r="E961" s="3"/>
     </row>
-    <row r="962" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:5">
       <c r="A962" s="3"/>
       <c r="B962" s="3"/>
       <c r="E962" s="3"/>
     </row>
-    <row r="963" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:5">
       <c r="A963" s="3"/>
       <c r="B963" s="3"/>
       <c r="E963" s="3"/>
     </row>
-    <row r="964" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:5">
       <c r="A964" s="3"/>
       <c r="B964" s="3"/>
       <c r="E964" s="3"/>
     </row>
-    <row r="965" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:5">
       <c r="A965" s="3"/>
       <c r="B965" s="3"/>
       <c r="E965" s="3"/>
     </row>
-    <row r="966" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:5">
       <c r="A966" s="3"/>
       <c r="B966" s="3"/>
       <c r="E966" s="3"/>
     </row>
-    <row r="967" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:5">
       <c r="A967" s="3"/>
       <c r="B967" s="3"/>
       <c r="E967" s="3"/>
     </row>
-    <row r="968" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:5">
       <c r="A968" s="3"/>
       <c r="B968" s="3"/>
       <c r="E968" s="3"/>
     </row>
-    <row r="969" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:5">
       <c r="A969" s="3"/>
       <c r="B969" s="3"/>
       <c r="E969" s="3"/>
     </row>
-    <row r="970" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:5">
       <c r="A970" s="3"/>
       <c r="B970" s="3"/>
       <c r="E970" s="3"/>
     </row>
-    <row r="971" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:5">
       <c r="A971" s="3"/>
       <c r="B971" s="3"/>
       <c r="E971" s="3"/>
     </row>
-    <row r="972" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:5">
       <c r="A972" s="3"/>
       <c r="B972" s="3"/>
       <c r="E972" s="3"/>
     </row>
-    <row r="973" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:5">
       <c r="A973" s="3"/>
       <c r="B973" s="3"/>
       <c r="E973" s="3"/>
     </row>
-    <row r="974" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:5">
       <c r="A974" s="3"/>
       <c r="B974" s="3"/>
       <c r="E974" s="3"/>
     </row>
-    <row r="975" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:5">
       <c r="A975" s="3"/>
       <c r="B975" s="3"/>
       <c r="E975" s="3"/>
     </row>
-    <row r="976" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:5">
       <c r="A976" s="3"/>
       <c r="B976" s="3"/>
       <c r="E976" s="3"/>
     </row>
-    <row r="977" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:5">
       <c r="A977" s="3"/>
       <c r="B977" s="3"/>
       <c r="E977" s="3"/>
     </row>
-    <row r="978" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:5">
       <c r="A978" s="3"/>
       <c r="B978" s="3"/>
       <c r="E978" s="3"/>
     </row>
-    <row r="979" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:5">
       <c r="A979" s="3"/>
       <c r="B979" s="3"/>
       <c r="E979" s="3"/>
     </row>
-    <row r="980" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:5">
       <c r="A980" s="3"/>
       <c r="B980" s="3"/>
       <c r="E980" s="3"/>
     </row>
-    <row r="981" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:5">
       <c r="A981" s="3"/>
       <c r="B981" s="3"/>
       <c r="E981" s="3"/>
     </row>
-    <row r="982" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:5">
       <c r="A982" s="3"/>
       <c r="B982" s="3"/>
       <c r="E982" s="3"/>
     </row>
-    <row r="983" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:5">
       <c r="A983" s="3"/>
       <c r="B983" s="3"/>
       <c r="E983" s="3"/>
     </row>
-    <row r="984" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:5">
       <c r="A984" s="3"/>
       <c r="B984" s="3"/>
       <c r="E984" s="3"/>
     </row>
-    <row r="985" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:5">
       <c r="A985" s="3"/>
       <c r="B985" s="3"/>
       <c r="E985" s="3"/>
     </row>
-    <row r="986" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:5">
       <c r="A986" s="3"/>
       <c r="B986" s="3"/>
       <c r="E986" s="3"/>
     </row>
-    <row r="987" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:5">
       <c r="A987" s="3"/>
       <c r="B987" s="3"/>
       <c r="E987" s="3"/>
     </row>
-    <row r="988" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:5">
       <c r="A988" s="3"/>
       <c r="B988" s="3"/>
       <c r="E988" s="3"/>
     </row>
-    <row r="989" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:5">
       <c r="A989" s="3"/>
       <c r="B989" s="3"/>
       <c r="E989" s="3"/>
     </row>
-    <row r="990" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:5">
       <c r="A990" s="3"/>
       <c r="B990" s="3"/>
       <c r="E990" s="3"/>
     </row>
-    <row r="991" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:5">
       <c r="A991" s="3"/>
       <c r="B991" s="3"/>
       <c r="E991" s="3"/>
     </row>
-    <row r="992" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:5">
       <c r="A992" s="3"/>
       <c r="B992" s="3"/>
       <c r="E992" s="3"/>
     </row>
-    <row r="993" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:5">
       <c r="A993" s="3"/>
       <c r="B993" s="3"/>
       <c r="E993" s="3"/>
     </row>
-    <row r="994" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:5">
       <c r="A994" s="3"/>
       <c r="B994" s="3"/>
       <c r="E994" s="3"/>
     </row>
-    <row r="995" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:5">
       <c r="A995" s="3"/>
       <c r="B995" s="3"/>
       <c r="E995" s="3"/>
     </row>
-    <row r="996" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:5">
       <c r="A996" s="3"/>
       <c r="B996" s="3"/>
       <c r="E996" s="3"/>
     </row>
-    <row r="997" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:5">
       <c r="A997" s="3"/>
       <c r="B997" s="3"/>
       <c r="E997" s="3"/>
     </row>
-    <row r="998" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:5">
       <c r="A998" s="3"/>
       <c r="B998" s="3"/>
       <c r="E998" s="3"/>
     </row>
-    <row r="999" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:5">
       <c r="A999" s="3"/>
       <c r="B999" s="3"/>
       <c r="E999" s="3"/>
     </row>
-    <row r="1000" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:5">
       <c r="A1000" s="3"/>
       <c r="B1000" s="3"/>
       <c r="E1000" s="3"/>
@@ -6182,14 +6180,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="A2" sqref="A2:A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
@@ -6199,7 +6197,7 @@
     <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="13" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
@@ -6243,7 +6241,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
@@ -6287,7 +6285,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="10" t="s">
         <v>15</v>
       </c>
@@ -6331,7 +6329,7 @@
         <v>66.900000000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="10" t="s">
         <v>16</v>
       </c>
@@ -6375,7 +6373,7 @@
         <v>262.5</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="10" t="s">
         <v>17</v>
       </c>
@@ -6419,7 +6417,7 @@
         <v>70.75</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="10" t="s">
         <v>18</v>
       </c>
@@ -6463,7 +6461,7 @@
         <v>91.65</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="10" t="s">
         <v>19</v>
       </c>
@@ -6507,7 +6505,7 @@
         <v>102.9</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" s="10" t="s">
         <v>20</v>
       </c>
@@ -6551,7 +6549,7 @@
         <v>122.8</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" s="10" t="s">
         <v>21</v>
       </c>
@@ -6595,7 +6593,7 @@
         <v>144.9</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="10" t="s">
         <v>22</v>
       </c>
@@ -6639,7 +6637,7 @@
         <v>128.55000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="10" t="s">
         <v>23</v>
       </c>
@@ -6683,7 +6681,7 @@
         <v>719.5</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" s="10" t="s">
         <v>24</v>
       </c>
@@ -6727,7 +6725,7 @@
         <v>136.75</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" s="10" t="s">
         <v>25</v>
       </c>
@@ -6771,7 +6769,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" s="10" t="s">
         <v>26</v>
       </c>
@@ -6815,7 +6813,7 @@
         <v>83.3</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15" s="10" t="s">
         <v>27</v>
       </c>
@@ -6859,7 +6857,7 @@
         <v>55.15</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16" s="10" t="s">
         <v>28</v>
       </c>
@@ -6903,7 +6901,7 @@
         <v>33.799999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14">
       <c r="A17" s="10" t="s">
         <v>29</v>
       </c>
@@ -6947,7 +6945,7 @@
         <v>62.4</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
       <c r="A18" s="10" t="s">
         <v>30</v>
       </c>
@@ -6991,7 +6989,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14">
       <c r="A19" s="12" t="s">
         <v>31</v>
       </c>
@@ -7033,7 +7031,7 @@
         <v>26.55</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14">
       <c r="A20" s="12" t="s">
         <v>32</v>
       </c>
@@ -7075,7 +7073,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14">
       <c r="A21" s="12" t="s">
         <v>33</v>
       </c>
@@ -7117,7 +7115,7 @@
         <v>58.35</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14">
       <c r="A22" s="12" t="s">
         <v>34</v>
       </c>
@@ -7159,7 +7157,7 @@
         <v>37.450000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14">
       <c r="A23" s="12" t="s">
         <v>11</v>
       </c>
@@ -7201,7 +7199,7 @@
         <v>552.20000000000005</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14">
       <c r="A24" s="12" t="s">
         <v>61</v>
       </c>
@@ -7243,7 +7241,7 @@
         <v>288.5</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14">
       <c r="A25" s="12" t="s">
         <v>62</v>
       </c>
@@ -7285,7 +7283,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14">
       <c r="A26" s="12" t="s">
         <v>75</v>
       </c>
@@ -7327,7 +7325,7 @@
         <v>180.5</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14">
       <c r="A27" s="12" t="s">
         <v>84</v>
       </c>
@@ -7353,7 +7351,7 @@
         <v>438.5</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14">
       <c r="A28" s="12" t="s">
         <v>157</v>
       </c>
@@ -7375,7 +7373,7 @@
         <v>744.65</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14">
       <c r="A29" s="12" t="s">
         <v>160</v>
       </c>
@@ -7394,10 +7392,10 @@
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
       <c r="N29" s="36">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="12" t="s">
         <v>162</v>
       </c>
@@ -7416,7 +7414,7 @@
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -7426,14 +7424,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31.85546875" style="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="19" bestFit="1" customWidth="1"/>
@@ -7454,7 +7452,7 @@
     <col min="18" max="16384" width="17.85546875" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="9" t="s">
         <v>63</v>
       </c>
@@ -7489,7 +7487,7 @@
       </c>
       <c r="Q1" s="5"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" s="9" t="s">
         <v>64</v>
       </c>
@@ -7529,7 +7527,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3" s="9" t="s">
         <v>64</v>
       </c>
@@ -7570,7 +7568,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4" s="9" t="s">
         <v>106</v>
       </c>
@@ -7611,7 +7609,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5" s="9" t="s">
         <v>65</v>
       </c>
@@ -7646,7 +7644,7 @@
         <v>1250000</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6" s="9" t="s">
         <v>38</v>
       </c>
@@ -7688,7 +7686,7 @@
         <v>62500</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7" s="9" t="s">
         <v>36</v>
       </c>
@@ -7716,7 +7714,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="A8" s="9" t="s">
         <v>37</v>
       </c>
@@ -7744,7 +7742,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9" s="9" t="s">
         <v>5</v>
       </c>
@@ -7771,7 +7769,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="G10" s="9" t="s">
         <v>82</v>
       </c>
@@ -7789,7 +7787,7 @@
       </c>
       <c r="N10" s="5"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="G11" s="9" t="s">
         <v>83</v>
       </c>
@@ -7809,7 +7807,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="G12" s="9" t="s">
         <v>86</v>
       </c>
@@ -7829,7 +7827,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="G13" s="9" t="s">
         <v>5</v>
       </c>
@@ -7843,7 +7841,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="D14" s="24"/>
       <c r="J14" s="15" t="s">
         <v>96</v>
@@ -7852,7 +7850,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="D15" s="24"/>
       <c r="J15" s="15" t="s">
         <v>97</v>
@@ -7861,7 +7859,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="D16" s="24"/>
       <c r="J16" s="15" t="s">
         <v>98</v>
@@ -7870,7 +7868,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="17" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:11">
       <c r="J17" s="15" t="s">
         <v>88</v>
       </c>
@@ -7878,7 +7876,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:11">
       <c r="J18" s="15" t="s">
         <v>99</v>
       </c>
@@ -7886,7 +7884,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="19" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:11">
       <c r="J19" s="15" t="s">
         <v>100</v>
       </c>
@@ -7894,7 +7892,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="20" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:11">
       <c r="J20" s="15" t="s">
         <v>38</v>
       </c>
@@ -7902,7 +7900,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="21" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:11">
       <c r="J21" s="15" t="s">
         <v>101</v>
       </c>
@@ -7910,7 +7908,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="22" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:11">
       <c r="J22" s="15" t="s">
         <v>102</v>
       </c>
@@ -7918,7 +7916,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="23" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:11">
       <c r="J23" s="15" t="s">
         <v>103</v>
       </c>
@@ -7926,7 +7924,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="24" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:11">
       <c r="J24" s="15" t="s">
         <v>104</v>
       </c>
@@ -7934,7 +7932,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="25" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:11">
       <c r="J25" s="15" t="s">
         <v>105</v>
       </c>
@@ -7942,7 +7940,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="26" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:11">
       <c r="D26" s="23"/>
       <c r="J26" s="15" t="s">
         <v>111</v>
@@ -7958,14 +7956,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -7977,7 +7975,7 @@
     <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="32" t="s">
         <v>124</v>
       </c>
@@ -8007,7 +8005,7 @@
         <v>172.20000000000005</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>61</v>
       </c>
@@ -8035,7 +8033,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>130</v>
       </c>
@@ -8070,7 +8068,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>131</v>
       </c>
@@ -8099,7 +8097,7 @@
         <v>46.200000000000045</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>133</v>
       </c>
@@ -8128,7 +8126,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>134</v>
       </c>
@@ -8150,7 +8148,7 @@
       </c>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>142</v>
       </c>
@@ -8174,7 +8172,7 @@
       </c>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15" customHeight="1">
       <c r="A8" s="34" t="s">
         <v>156</v>
       </c>
@@ -8196,7 +8194,7 @@
       </c>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>159</v>
       </c>
@@ -8218,7 +8216,7 @@
       </c>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>161</v>
       </c>
@@ -8240,7 +8238,7 @@
       </c>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>162</v>
       </c>
@@ -8262,7 +8260,7 @@
       </c>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15" customHeight="1">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -8278,7 +8276,7 @@
       </c>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15" customHeight="1">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -8294,7 +8292,7 @@
       </c>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15" customHeight="1">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -8310,7 +8308,7 @@
       </c>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15" customHeight="1">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -8326,7 +8324,7 @@
       </c>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15" customHeight="1">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -8342,7 +8340,7 @@
       </c>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15" customHeight="1">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -8358,7 +8356,7 @@
       </c>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15" customHeight="1">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -8371,7 +8369,7 @@
       </c>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15" customHeight="1">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -8381,7 +8379,7 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15" customHeight="1">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -8391,7 +8389,7 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15" customHeight="1">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -8401,7 +8399,7 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15" customHeight="1">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -8411,7 +8409,7 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15" customHeight="1">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -8421,7 +8419,7 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15" customHeight="1">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -8431,7 +8429,7 @@
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15" customHeight="1">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -8448,14 +8446,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -8463,7 +8461,7 @@
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
         <v>135</v>
       </c>
@@ -8477,7 +8475,7 @@
         <v>41.5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
         <v>136</v>
       </c>
@@ -8491,7 +8489,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
         <v>137</v>
       </c>
@@ -8507,7 +8505,7 @@
         <v>0.20750000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
         <v>138</v>
       </c>
@@ -8521,7 +8519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
         <v>139</v>
       </c>
@@ -8537,7 +8535,7 @@
         <v>0.20750000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
         <v>140</v>
       </c>
@@ -8553,7 +8551,7 @@
         <v>41.292499999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
         <v>144</v>
       </c>
@@ -8569,7 +8567,7 @@
         <v>41.29</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
         <v>141</v>
       </c>
@@ -8583,7 +8581,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
         <v>143</v>
       </c>
@@ -8599,7 +8597,7 @@
         <v>3.7350000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
         <v>145</v>
       </c>
@@ -8613,7 +8611,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
         <v>146</v>
       </c>
@@ -8629,7 +8627,7 @@
         <v>4.129E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
         <v>147</v>
       </c>
@@ -8643,7 +8641,7 @@
         <v>3.2499999999999997E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="5" t="s">
         <v>148</v>
       </c>
@@ -8659,7 +8657,7 @@
         <v>1.3419249999999999E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="34" t="s">
         <v>149</v>
       </c>
@@ -8673,7 +8671,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="34" t="s">
         <v>150</v>
       </c>
@@ -8689,7 +8687,7 @@
         <v>8.2579999999999997E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="34" t="s">
         <v>154</v>
       </c>
@@ -8705,7 +8703,7 @@
         <v>8.8239924999999997E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="34" t="s">
         <v>151</v>
       </c>

--- a/documents/Home.xlsx
+++ b/documents/Home.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2520" windowWidth="13965" windowHeight="5625" activeTab="1"/>
@@ -13,12 +13,12 @@
     <sheet name="Profit" sheetId="7" r:id="rId4"/>
     <sheet name="Actual Price Calculator" sheetId="8" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="166">
   <si>
     <t>Date</t>
   </si>
@@ -507,16 +507,25 @@
   </si>
   <si>
     <t>BHARTIARTL</t>
+  </si>
+  <si>
+    <t>24/07/2017</t>
+  </si>
+  <si>
+    <t>24/7/2017</t>
+  </si>
+  <si>
+    <t>MRPL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -577,18 +586,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -645,7 +648,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -685,7 +688,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -779,6 +781,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -813,6 +816,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -988,14 +992,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
@@ -1004,7 +1008,7 @@
     <col min="6" max="26" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -1038,7 +1042,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="26">
         <v>42190</v>
       </c>
@@ -1068,7 +1072,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="26">
         <v>42192</v>
       </c>
@@ -1097,7 +1101,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="26">
         <v>42229</v>
       </c>
@@ -1107,7 +1111,7 @@
       <c r="D4" s="29"/>
       <c r="E4" s="29"/>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
         <v>42230</v>
       </c>
@@ -1119,7 +1123,7 @@
       </c>
       <c r="E5" s="29"/>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="26">
         <v>42255</v>
       </c>
@@ -1128,7 +1132,7 @@
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="26">
         <v>42262</v>
       </c>
@@ -1137,7 +1141,7 @@
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="26">
         <v>42282</v>
       </c>
@@ -1146,7 +1150,7 @@
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="26">
         <v>42299</v>
       </c>
@@ -1155,7 +1159,7 @@
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="26">
         <v>42373</v>
       </c>
@@ -1164,7 +1168,7 @@
       </c>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="26">
         <v>42553</v>
       </c>
@@ -1173,7 +1177,7 @@
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="26">
         <v>42640</v>
       </c>
@@ -1182,7 +1186,7 @@
       </c>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="27">
         <v>42768</v>
       </c>
@@ -1191,7 +1195,7 @@
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="27">
         <v>42796</v>
       </c>
@@ -1200,7 +1204,7 @@
       </c>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="27">
         <v>42829</v>
       </c>
@@ -1209,7 +1213,7 @@
       </c>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="28">
         <v>42856</v>
       </c>
@@ -1218,7 +1222,7 @@
       </c>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>42887</v>
       </c>
@@ -1227,7 +1231,7 @@
       </c>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="28">
         <v>42917</v>
       </c>
@@ -1236,37 +1240,37 @@
       </c>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="28"/>
       <c r="B19" s="25"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="28"/>
       <c r="B20" s="25"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="28"/>
       <c r="B21" s="25"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="28"/>
       <c r="B22" s="25"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="28"/>
       <c r="B23" s="25"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="29"/>
       <c r="B24" s="29"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
         <v>5</v>
       </c>
@@ -1299,4877 +1303,4877 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="E45" s="3"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="E48" s="3"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="E53" s="3"/>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="E54" s="3"/>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="E61" s="3"/>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="E62" s="3"/>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="E63" s="3"/>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="E64" s="3"/>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="E65" s="3"/>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="E66" s="3"/>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="E67" s="3"/>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="E68" s="3"/>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="E69" s="3"/>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="E70" s="3"/>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="E71" s="3"/>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="E72" s="3"/>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="E73" s="3"/>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="E74" s="3"/>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="E75" s="3"/>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="E76" s="3"/>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="E77" s="3"/>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="E78" s="3"/>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="E79" s="3"/>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="E80" s="3"/>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="E81" s="3"/>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="E82" s="3"/>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="E83" s="3"/>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="E84" s="3"/>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="E85" s="3"/>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="E86" s="3"/>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="E87" s="3"/>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="E88" s="3"/>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="E89" s="3"/>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="E90" s="3"/>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="E91" s="3"/>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="E92" s="3"/>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="E93" s="3"/>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="E94" s="3"/>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="E95" s="3"/>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="E96" s="3"/>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="E97" s="3"/>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="E98" s="3"/>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="E99" s="3"/>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="E100" s="3"/>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="E101" s="3"/>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="E102" s="3"/>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="E103" s="3"/>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="E104" s="3"/>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="E105" s="3"/>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="E106" s="3"/>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="E107" s="3"/>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="E108" s="3"/>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="E109" s="3"/>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="E110" s="3"/>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="E111" s="3"/>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="E112" s="3"/>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="E113" s="3"/>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="E114" s="3"/>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="E115" s="3"/>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="E116" s="3"/>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="E117" s="3"/>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="E118" s="3"/>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="E119" s="3"/>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="E120" s="3"/>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="E121" s="3"/>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="E122" s="3"/>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="E123" s="3"/>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="E124" s="3"/>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="E125" s="3"/>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="E126" s="3"/>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="E127" s="3"/>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="E128" s="3"/>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="E129" s="3"/>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="E130" s="3"/>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="E131" s="3"/>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="E132" s="3"/>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="E133" s="3"/>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="E134" s="3"/>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="E135" s="3"/>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="E136" s="3"/>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="E137" s="3"/>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="E138" s="3"/>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="E139" s="3"/>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="E140" s="3"/>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="E141" s="3"/>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="E142" s="3"/>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="E143" s="3"/>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="E144" s="3"/>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="E145" s="3"/>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="E146" s="3"/>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="E147" s="3"/>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="E148" s="3"/>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="E149" s="3"/>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="E150" s="3"/>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="E151" s="3"/>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="E152" s="3"/>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="E153" s="3"/>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="E154" s="3"/>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="E155" s="3"/>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="E156" s="3"/>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="E157" s="3"/>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="E158" s="3"/>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="E159" s="3"/>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="E160" s="3"/>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="E161" s="3"/>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="E162" s="3"/>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="E163" s="3"/>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="E164" s="3"/>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="E165" s="3"/>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="E166" s="3"/>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="E167" s="3"/>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="E168" s="3"/>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="E169" s="3"/>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="E170" s="3"/>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="E171" s="3"/>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="E172" s="3"/>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="E173" s="3"/>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="E174" s="3"/>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="E175" s="3"/>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="E176" s="3"/>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="E177" s="3"/>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="E178" s="3"/>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="E179" s="3"/>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="E180" s="3"/>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="E181" s="3"/>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="E182" s="3"/>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="E183" s="3"/>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="E184" s="3"/>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="E185" s="3"/>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="E186" s="3"/>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="E187" s="3"/>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="E188" s="3"/>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="E189" s="3"/>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="E190" s="3"/>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="E191" s="3"/>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="E192" s="3"/>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="E193" s="3"/>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="E194" s="3"/>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="E195" s="3"/>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="E196" s="3"/>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="E197" s="3"/>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="E198" s="3"/>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="E199" s="3"/>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="E200" s="3"/>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="E201" s="3"/>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="E202" s="3"/>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="E203" s="3"/>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="E204" s="3"/>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="E205" s="3"/>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="E206" s="3"/>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="E207" s="3"/>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="E208" s="3"/>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="E209" s="3"/>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="E210" s="3"/>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="E211" s="3"/>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="E212" s="3"/>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="E213" s="3"/>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="E214" s="3"/>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="E215" s="3"/>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="E216" s="3"/>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="E217" s="3"/>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="E218" s="3"/>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="E219" s="3"/>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="E220" s="3"/>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="3"/>
       <c r="B221" s="3"/>
       <c r="E221" s="3"/>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="3"/>
       <c r="B222" s="3"/>
       <c r="E222" s="3"/>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="3"/>
       <c r="B223" s="3"/>
       <c r="E223" s="3"/>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="3"/>
       <c r="B224" s="3"/>
       <c r="E224" s="3"/>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
       <c r="E225" s="3"/>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="3"/>
       <c r="B226" s="3"/>
       <c r="E226" s="3"/>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="3"/>
       <c r="B227" s="3"/>
       <c r="E227" s="3"/>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="3"/>
       <c r="B228" s="3"/>
       <c r="E228" s="3"/>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="3"/>
       <c r="B229" s="3"/>
       <c r="E229" s="3"/>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="3"/>
       <c r="B230" s="3"/>
       <c r="E230" s="3"/>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="3"/>
       <c r="B231" s="3"/>
       <c r="E231" s="3"/>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="3"/>
       <c r="B232" s="3"/>
       <c r="E232" s="3"/>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="3"/>
       <c r="B233" s="3"/>
       <c r="E233" s="3"/>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="3"/>
       <c r="B234" s="3"/>
       <c r="E234" s="3"/>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="3"/>
       <c r="B235" s="3"/>
       <c r="E235" s="3"/>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="3"/>
       <c r="B236" s="3"/>
       <c r="E236" s="3"/>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="3"/>
       <c r="B237" s="3"/>
       <c r="E237" s="3"/>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="3"/>
       <c r="B238" s="3"/>
       <c r="E238" s="3"/>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="3"/>
       <c r="B239" s="3"/>
       <c r="E239" s="3"/>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="3"/>
       <c r="B240" s="3"/>
       <c r="E240" s="3"/>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="3"/>
       <c r="B241" s="3"/>
       <c r="E241" s="3"/>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="3"/>
       <c r="B242" s="3"/>
       <c r="E242" s="3"/>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="3"/>
       <c r="B243" s="3"/>
       <c r="E243" s="3"/>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="3"/>
       <c r="B244" s="3"/>
       <c r="E244" s="3"/>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="3"/>
       <c r="B245" s="3"/>
       <c r="E245" s="3"/>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="3"/>
       <c r="B246" s="3"/>
       <c r="E246" s="3"/>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="3"/>
       <c r="B247" s="3"/>
       <c r="E247" s="3"/>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="3"/>
       <c r="B248" s="3"/>
       <c r="E248" s="3"/>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="3"/>
       <c r="B249" s="3"/>
       <c r="E249" s="3"/>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="3"/>
       <c r="B250" s="3"/>
       <c r="E250" s="3"/>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="3"/>
       <c r="B251" s="3"/>
       <c r="E251" s="3"/>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="3"/>
       <c r="B252" s="3"/>
       <c r="E252" s="3"/>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="3"/>
       <c r="B253" s="3"/>
       <c r="E253" s="3"/>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="3"/>
       <c r="B254" s="3"/>
       <c r="E254" s="3"/>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
       <c r="E255" s="3"/>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="3"/>
       <c r="B256" s="3"/>
       <c r="E256" s="3"/>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="3"/>
       <c r="B257" s="3"/>
       <c r="E257" s="3"/>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="3"/>
       <c r="B258" s="3"/>
       <c r="E258" s="3"/>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="3"/>
       <c r="B259" s="3"/>
       <c r="E259" s="3"/>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="3"/>
       <c r="B260" s="3"/>
       <c r="E260" s="3"/>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="3"/>
       <c r="B261" s="3"/>
       <c r="E261" s="3"/>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="3"/>
       <c r="B262" s="3"/>
       <c r="E262" s="3"/>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="3"/>
       <c r="B263" s="3"/>
       <c r="E263" s="3"/>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="3"/>
       <c r="B264" s="3"/>
       <c r="E264" s="3"/>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="3"/>
       <c r="B265" s="3"/>
       <c r="E265" s="3"/>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="3"/>
       <c r="B266" s="3"/>
       <c r="E266" s="3"/>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="3"/>
       <c r="B267" s="3"/>
       <c r="E267" s="3"/>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="3"/>
       <c r="B268" s="3"/>
       <c r="E268" s="3"/>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="3"/>
       <c r="B269" s="3"/>
       <c r="E269" s="3"/>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="3"/>
       <c r="B270" s="3"/>
       <c r="E270" s="3"/>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="3"/>
       <c r="B271" s="3"/>
       <c r="E271" s="3"/>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="3"/>
       <c r="B272" s="3"/>
       <c r="E272" s="3"/>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="3"/>
       <c r="B273" s="3"/>
       <c r="E273" s="3"/>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="3"/>
       <c r="B274" s="3"/>
       <c r="E274" s="3"/>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="3"/>
       <c r="B275" s="3"/>
       <c r="E275" s="3"/>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="3"/>
       <c r="B276" s="3"/>
       <c r="E276" s="3"/>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="3"/>
       <c r="B277" s="3"/>
       <c r="E277" s="3"/>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="3"/>
       <c r="B278" s="3"/>
       <c r="E278" s="3"/>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="3"/>
       <c r="B279" s="3"/>
       <c r="E279" s="3"/>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="3"/>
       <c r="B280" s="3"/>
       <c r="E280" s="3"/>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="3"/>
       <c r="B281" s="3"/>
       <c r="E281" s="3"/>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="3"/>
       <c r="B282" s="3"/>
       <c r="E282" s="3"/>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="3"/>
       <c r="B283" s="3"/>
       <c r="E283" s="3"/>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="3"/>
       <c r="B284" s="3"/>
       <c r="E284" s="3"/>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="3"/>
       <c r="B285" s="3"/>
       <c r="E285" s="3"/>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="3"/>
       <c r="B286" s="3"/>
       <c r="E286" s="3"/>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="3"/>
       <c r="B287" s="3"/>
       <c r="E287" s="3"/>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="3"/>
       <c r="B288" s="3"/>
       <c r="E288" s="3"/>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="3"/>
       <c r="B289" s="3"/>
       <c r="E289" s="3"/>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="3"/>
       <c r="B290" s="3"/>
       <c r="E290" s="3"/>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="3"/>
       <c r="B291" s="3"/>
       <c r="E291" s="3"/>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="3"/>
       <c r="B292" s="3"/>
       <c r="E292" s="3"/>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="3"/>
       <c r="B293" s="3"/>
       <c r="E293" s="3"/>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="3"/>
       <c r="B294" s="3"/>
       <c r="E294" s="3"/>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="3"/>
       <c r="B295" s="3"/>
       <c r="E295" s="3"/>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="3"/>
       <c r="B296" s="3"/>
       <c r="E296" s="3"/>
     </row>
-    <row r="297" spans="1:5">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="3"/>
       <c r="B297" s="3"/>
       <c r="E297" s="3"/>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="3"/>
       <c r="B298" s="3"/>
       <c r="E298" s="3"/>
     </row>
-    <row r="299" spans="1:5">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="3"/>
       <c r="B299" s="3"/>
       <c r="E299" s="3"/>
     </row>
-    <row r="300" spans="1:5">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="3"/>
       <c r="B300" s="3"/>
       <c r="E300" s="3"/>
     </row>
-    <row r="301" spans="1:5">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="3"/>
       <c r="B301" s="3"/>
       <c r="E301" s="3"/>
     </row>
-    <row r="302" spans="1:5">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="3"/>
       <c r="B302" s="3"/>
       <c r="E302" s="3"/>
     </row>
-    <row r="303" spans="1:5">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="3"/>
       <c r="B303" s="3"/>
       <c r="E303" s="3"/>
     </row>
-    <row r="304" spans="1:5">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="3"/>
       <c r="B304" s="3"/>
       <c r="E304" s="3"/>
     </row>
-    <row r="305" spans="1:5">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="3"/>
       <c r="B305" s="3"/>
       <c r="E305" s="3"/>
     </row>
-    <row r="306" spans="1:5">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="3"/>
       <c r="B306" s="3"/>
       <c r="E306" s="3"/>
     </row>
-    <row r="307" spans="1:5">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="3"/>
       <c r="B307" s="3"/>
       <c r="E307" s="3"/>
     </row>
-    <row r="308" spans="1:5">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="3"/>
       <c r="B308" s="3"/>
       <c r="E308" s="3"/>
     </row>
-    <row r="309" spans="1:5">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="3"/>
       <c r="B309" s="3"/>
       <c r="E309" s="3"/>
     </row>
-    <row r="310" spans="1:5">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="3"/>
       <c r="B310" s="3"/>
       <c r="E310" s="3"/>
     </row>
-    <row r="311" spans="1:5">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="3"/>
       <c r="B311" s="3"/>
       <c r="E311" s="3"/>
     </row>
-    <row r="312" spans="1:5">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="3"/>
       <c r="B312" s="3"/>
       <c r="E312" s="3"/>
     </row>
-    <row r="313" spans="1:5">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="3"/>
       <c r="B313" s="3"/>
       <c r="E313" s="3"/>
     </row>
-    <row r="314" spans="1:5">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="3"/>
       <c r="B314" s="3"/>
       <c r="E314" s="3"/>
     </row>
-    <row r="315" spans="1:5">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="3"/>
       <c r="B315" s="3"/>
       <c r="E315" s="3"/>
     </row>
-    <row r="316" spans="1:5">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="3"/>
       <c r="B316" s="3"/>
       <c r="E316" s="3"/>
     </row>
-    <row r="317" spans="1:5">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="3"/>
       <c r="B317" s="3"/>
       <c r="E317" s="3"/>
     </row>
-    <row r="318" spans="1:5">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="3"/>
       <c r="B318" s="3"/>
       <c r="E318" s="3"/>
     </row>
-    <row r="319" spans="1:5">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="3"/>
       <c r="B319" s="3"/>
       <c r="E319" s="3"/>
     </row>
-    <row r="320" spans="1:5">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="3"/>
       <c r="B320" s="3"/>
       <c r="E320" s="3"/>
     </row>
-    <row r="321" spans="1:5">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="3"/>
       <c r="B321" s="3"/>
       <c r="E321" s="3"/>
     </row>
-    <row r="322" spans="1:5">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="3"/>
       <c r="B322" s="3"/>
       <c r="E322" s="3"/>
     </row>
-    <row r="323" spans="1:5">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="3"/>
       <c r="B323" s="3"/>
       <c r="E323" s="3"/>
     </row>
-    <row r="324" spans="1:5">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="3"/>
       <c r="B324" s="3"/>
       <c r="E324" s="3"/>
     </row>
-    <row r="325" spans="1:5">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="3"/>
       <c r="B325" s="3"/>
       <c r="E325" s="3"/>
     </row>
-    <row r="326" spans="1:5">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="3"/>
       <c r="B326" s="3"/>
       <c r="E326" s="3"/>
     </row>
-    <row r="327" spans="1:5">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="3"/>
       <c r="B327" s="3"/>
       <c r="E327" s="3"/>
     </row>
-    <row r="328" spans="1:5">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="3"/>
       <c r="B328" s="3"/>
       <c r="E328" s="3"/>
     </row>
-    <row r="329" spans="1:5">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="3"/>
       <c r="B329" s="3"/>
       <c r="E329" s="3"/>
     </row>
-    <row r="330" spans="1:5">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="3"/>
       <c r="B330" s="3"/>
       <c r="E330" s="3"/>
     </row>
-    <row r="331" spans="1:5">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="3"/>
       <c r="B331" s="3"/>
       <c r="E331" s="3"/>
     </row>
-    <row r="332" spans="1:5">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="3"/>
       <c r="B332" s="3"/>
       <c r="E332" s="3"/>
     </row>
-    <row r="333" spans="1:5">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="3"/>
       <c r="B333" s="3"/>
       <c r="E333" s="3"/>
     </row>
-    <row r="334" spans="1:5">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="3"/>
       <c r="B334" s="3"/>
       <c r="E334" s="3"/>
     </row>
-    <row r="335" spans="1:5">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="3"/>
       <c r="B335" s="3"/>
       <c r="E335" s="3"/>
     </row>
-    <row r="336" spans="1:5">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="3"/>
       <c r="B336" s="3"/>
       <c r="E336" s="3"/>
     </row>
-    <row r="337" spans="1:5">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="3"/>
       <c r="B337" s="3"/>
       <c r="E337" s="3"/>
     </row>
-    <row r="338" spans="1:5">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="3"/>
       <c r="B338" s="3"/>
       <c r="E338" s="3"/>
     </row>
-    <row r="339" spans="1:5">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="3"/>
       <c r="B339" s="3"/>
       <c r="E339" s="3"/>
     </row>
-    <row r="340" spans="1:5">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="3"/>
       <c r="B340" s="3"/>
       <c r="E340" s="3"/>
     </row>
-    <row r="341" spans="1:5">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="3"/>
       <c r="B341" s="3"/>
       <c r="E341" s="3"/>
     </row>
-    <row r="342" spans="1:5">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="3"/>
       <c r="B342" s="3"/>
       <c r="E342" s="3"/>
     </row>
-    <row r="343" spans="1:5">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="3"/>
       <c r="B343" s="3"/>
       <c r="E343" s="3"/>
     </row>
-    <row r="344" spans="1:5">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="3"/>
       <c r="B344" s="3"/>
       <c r="E344" s="3"/>
     </row>
-    <row r="345" spans="1:5">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="3"/>
       <c r="B345" s="3"/>
       <c r="E345" s="3"/>
     </row>
-    <row r="346" spans="1:5">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="3"/>
       <c r="B346" s="3"/>
       <c r="E346" s="3"/>
     </row>
-    <row r="347" spans="1:5">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="3"/>
       <c r="B347" s="3"/>
       <c r="E347" s="3"/>
     </row>
-    <row r="348" spans="1:5">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="3"/>
       <c r="B348" s="3"/>
       <c r="E348" s="3"/>
     </row>
-    <row r="349" spans="1:5">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="3"/>
       <c r="B349" s="3"/>
       <c r="E349" s="3"/>
     </row>
-    <row r="350" spans="1:5">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="3"/>
       <c r="B350" s="3"/>
       <c r="E350" s="3"/>
     </row>
-    <row r="351" spans="1:5">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="3"/>
       <c r="B351" s="3"/>
       <c r="E351" s="3"/>
     </row>
-    <row r="352" spans="1:5">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="3"/>
       <c r="B352" s="3"/>
       <c r="E352" s="3"/>
     </row>
-    <row r="353" spans="1:5">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="3"/>
       <c r="B353" s="3"/>
       <c r="E353" s="3"/>
     </row>
-    <row r="354" spans="1:5">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="3"/>
       <c r="B354" s="3"/>
       <c r="E354" s="3"/>
     </row>
-    <row r="355" spans="1:5">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="3"/>
       <c r="B355" s="3"/>
       <c r="E355" s="3"/>
     </row>
-    <row r="356" spans="1:5">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="3"/>
       <c r="B356" s="3"/>
       <c r="E356" s="3"/>
     </row>
-    <row r="357" spans="1:5">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="3"/>
       <c r="B357" s="3"/>
       <c r="E357" s="3"/>
     </row>
-    <row r="358" spans="1:5">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="3"/>
       <c r="B358" s="3"/>
       <c r="E358" s="3"/>
     </row>
-    <row r="359" spans="1:5">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="3"/>
       <c r="B359" s="3"/>
       <c r="E359" s="3"/>
     </row>
-    <row r="360" spans="1:5">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="3"/>
       <c r="B360" s="3"/>
       <c r="E360" s="3"/>
     </row>
-    <row r="361" spans="1:5">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="3"/>
       <c r="B361" s="3"/>
       <c r="E361" s="3"/>
     </row>
-    <row r="362" spans="1:5">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="3"/>
       <c r="B362" s="3"/>
       <c r="E362" s="3"/>
     </row>
-    <row r="363" spans="1:5">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="3"/>
       <c r="B363" s="3"/>
       <c r="E363" s="3"/>
     </row>
-    <row r="364" spans="1:5">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="3"/>
       <c r="B364" s="3"/>
       <c r="E364" s="3"/>
     </row>
-    <row r="365" spans="1:5">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="3"/>
       <c r="B365" s="3"/>
       <c r="E365" s="3"/>
     </row>
-    <row r="366" spans="1:5">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="3"/>
       <c r="B366" s="3"/>
       <c r="E366" s="3"/>
     </row>
-    <row r="367" spans="1:5">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="3"/>
       <c r="B367" s="3"/>
       <c r="E367" s="3"/>
     </row>
-    <row r="368" spans="1:5">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="3"/>
       <c r="B368" s="3"/>
       <c r="E368" s="3"/>
     </row>
-    <row r="369" spans="1:5">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="3"/>
       <c r="B369" s="3"/>
       <c r="E369" s="3"/>
     </row>
-    <row r="370" spans="1:5">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="3"/>
       <c r="B370" s="3"/>
       <c r="E370" s="3"/>
     </row>
-    <row r="371" spans="1:5">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="3"/>
       <c r="B371" s="3"/>
       <c r="E371" s="3"/>
     </row>
-    <row r="372" spans="1:5">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="3"/>
       <c r="B372" s="3"/>
       <c r="E372" s="3"/>
     </row>
-    <row r="373" spans="1:5">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="3"/>
       <c r="B373" s="3"/>
       <c r="E373" s="3"/>
     </row>
-    <row r="374" spans="1:5">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="3"/>
       <c r="B374" s="3"/>
       <c r="E374" s="3"/>
     </row>
-    <row r="375" spans="1:5">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="3"/>
       <c r="B375" s="3"/>
       <c r="E375" s="3"/>
     </row>
-    <row r="376" spans="1:5">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="3"/>
       <c r="B376" s="3"/>
       <c r="E376" s="3"/>
     </row>
-    <row r="377" spans="1:5">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="3"/>
       <c r="B377" s="3"/>
       <c r="E377" s="3"/>
     </row>
-    <row r="378" spans="1:5">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="3"/>
       <c r="B378" s="3"/>
       <c r="E378" s="3"/>
     </row>
-    <row r="379" spans="1:5">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="3"/>
       <c r="B379" s="3"/>
       <c r="E379" s="3"/>
     </row>
-    <row r="380" spans="1:5">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="3"/>
       <c r="B380" s="3"/>
       <c r="E380" s="3"/>
     </row>
-    <row r="381" spans="1:5">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="3"/>
       <c r="B381" s="3"/>
       <c r="E381" s="3"/>
     </row>
-    <row r="382" spans="1:5">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="3"/>
       <c r="B382" s="3"/>
       <c r="E382" s="3"/>
     </row>
-    <row r="383" spans="1:5">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="3"/>
       <c r="B383" s="3"/>
       <c r="E383" s="3"/>
     </row>
-    <row r="384" spans="1:5">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="3"/>
       <c r="B384" s="3"/>
       <c r="E384" s="3"/>
     </row>
-    <row r="385" spans="1:5">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="3"/>
       <c r="B385" s="3"/>
       <c r="E385" s="3"/>
     </row>
-    <row r="386" spans="1:5">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="3"/>
       <c r="B386" s="3"/>
       <c r="E386" s="3"/>
     </row>
-    <row r="387" spans="1:5">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" s="3"/>
       <c r="B387" s="3"/>
       <c r="E387" s="3"/>
     </row>
-    <row r="388" spans="1:5">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="3"/>
       <c r="B388" s="3"/>
       <c r="E388" s="3"/>
     </row>
-    <row r="389" spans="1:5">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="3"/>
       <c r="B389" s="3"/>
       <c r="E389" s="3"/>
     </row>
-    <row r="390" spans="1:5">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" s="3"/>
       <c r="B390" s="3"/>
       <c r="E390" s="3"/>
     </row>
-    <row r="391" spans="1:5">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" s="3"/>
       <c r="B391" s="3"/>
       <c r="E391" s="3"/>
     </row>
-    <row r="392" spans="1:5">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" s="3"/>
       <c r="B392" s="3"/>
       <c r="E392" s="3"/>
     </row>
-    <row r="393" spans="1:5">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" s="3"/>
       <c r="B393" s="3"/>
       <c r="E393" s="3"/>
     </row>
-    <row r="394" spans="1:5">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="3"/>
       <c r="B394" s="3"/>
       <c r="E394" s="3"/>
     </row>
-    <row r="395" spans="1:5">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="3"/>
       <c r="B395" s="3"/>
       <c r="E395" s="3"/>
     </row>
-    <row r="396" spans="1:5">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" s="3"/>
       <c r="B396" s="3"/>
       <c r="E396" s="3"/>
     </row>
-    <row r="397" spans="1:5">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" s="3"/>
       <c r="B397" s="3"/>
       <c r="E397" s="3"/>
     </row>
-    <row r="398" spans="1:5">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" s="3"/>
       <c r="B398" s="3"/>
       <c r="E398" s="3"/>
     </row>
-    <row r="399" spans="1:5">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" s="3"/>
       <c r="B399" s="3"/>
       <c r="E399" s="3"/>
     </row>
-    <row r="400" spans="1:5">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="3"/>
       <c r="B400" s="3"/>
       <c r="E400" s="3"/>
     </row>
-    <row r="401" spans="1:5">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" s="3"/>
       <c r="B401" s="3"/>
       <c r="E401" s="3"/>
     </row>
-    <row r="402" spans="1:5">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" s="3"/>
       <c r="B402" s="3"/>
       <c r="E402" s="3"/>
     </row>
-    <row r="403" spans="1:5">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" s="3"/>
       <c r="B403" s="3"/>
       <c r="E403" s="3"/>
     </row>
-    <row r="404" spans="1:5">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" s="3"/>
       <c r="B404" s="3"/>
       <c r="E404" s="3"/>
     </row>
-    <row r="405" spans="1:5">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" s="3"/>
       <c r="B405" s="3"/>
       <c r="E405" s="3"/>
     </row>
-    <row r="406" spans="1:5">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" s="3"/>
       <c r="B406" s="3"/>
       <c r="E406" s="3"/>
     </row>
-    <row r="407" spans="1:5">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" s="3"/>
       <c r="B407" s="3"/>
       <c r="E407" s="3"/>
     </row>
-    <row r="408" spans="1:5">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" s="3"/>
       <c r="B408" s="3"/>
       <c r="E408" s="3"/>
     </row>
-    <row r="409" spans="1:5">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" s="3"/>
       <c r="B409" s="3"/>
       <c r="E409" s="3"/>
     </row>
-    <row r="410" spans="1:5">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" s="3"/>
       <c r="B410" s="3"/>
       <c r="E410" s="3"/>
     </row>
-    <row r="411" spans="1:5">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" s="3"/>
       <c r="B411" s="3"/>
       <c r="E411" s="3"/>
     </row>
-    <row r="412" spans="1:5">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" s="3"/>
       <c r="B412" s="3"/>
       <c r="E412" s="3"/>
     </row>
-    <row r="413" spans="1:5">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" s="3"/>
       <c r="B413" s="3"/>
       <c r="E413" s="3"/>
     </row>
-    <row r="414" spans="1:5">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" s="3"/>
       <c r="B414" s="3"/>
       <c r="E414" s="3"/>
     </row>
-    <row r="415" spans="1:5">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" s="3"/>
       <c r="B415" s="3"/>
       <c r="E415" s="3"/>
     </row>
-    <row r="416" spans="1:5">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" s="3"/>
       <c r="B416" s="3"/>
       <c r="E416" s="3"/>
     </row>
-    <row r="417" spans="1:5">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" s="3"/>
       <c r="B417" s="3"/>
       <c r="E417" s="3"/>
     </row>
-    <row r="418" spans="1:5">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" s="3"/>
       <c r="B418" s="3"/>
       <c r="E418" s="3"/>
     </row>
-    <row r="419" spans="1:5">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" s="3"/>
       <c r="B419" s="3"/>
       <c r="E419" s="3"/>
     </row>
-    <row r="420" spans="1:5">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" s="3"/>
       <c r="B420" s="3"/>
       <c r="E420" s="3"/>
     </row>
-    <row r="421" spans="1:5">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" s="3"/>
       <c r="B421" s="3"/>
       <c r="E421" s="3"/>
     </row>
-    <row r="422" spans="1:5">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" s="3"/>
       <c r="B422" s="3"/>
       <c r="E422" s="3"/>
     </row>
-    <row r="423" spans="1:5">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" s="3"/>
       <c r="B423" s="3"/>
       <c r="E423" s="3"/>
     </row>
-    <row r="424" spans="1:5">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" s="3"/>
       <c r="B424" s="3"/>
       <c r="E424" s="3"/>
     </row>
-    <row r="425" spans="1:5">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" s="3"/>
       <c r="B425" s="3"/>
       <c r="E425" s="3"/>
     </row>
-    <row r="426" spans="1:5">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" s="3"/>
       <c r="B426" s="3"/>
       <c r="E426" s="3"/>
     </row>
-    <row r="427" spans="1:5">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" s="3"/>
       <c r="B427" s="3"/>
       <c r="E427" s="3"/>
     </row>
-    <row r="428" spans="1:5">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" s="3"/>
       <c r="B428" s="3"/>
       <c r="E428" s="3"/>
     </row>
-    <row r="429" spans="1:5">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" s="3"/>
       <c r="B429" s="3"/>
       <c r="E429" s="3"/>
     </row>
-    <row r="430" spans="1:5">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" s="3"/>
       <c r="B430" s="3"/>
       <c r="E430" s="3"/>
     </row>
-    <row r="431" spans="1:5">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" s="3"/>
       <c r="B431" s="3"/>
       <c r="E431" s="3"/>
     </row>
-    <row r="432" spans="1:5">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" s="3"/>
       <c r="B432" s="3"/>
       <c r="E432" s="3"/>
     </row>
-    <row r="433" spans="1:5">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" s="3"/>
       <c r="B433" s="3"/>
       <c r="E433" s="3"/>
     </row>
-    <row r="434" spans="1:5">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" s="3"/>
       <c r="B434" s="3"/>
       <c r="E434" s="3"/>
     </row>
-    <row r="435" spans="1:5">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" s="3"/>
       <c r="B435" s="3"/>
       <c r="E435" s="3"/>
     </row>
-    <row r="436" spans="1:5">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" s="3"/>
       <c r="B436" s="3"/>
       <c r="E436" s="3"/>
     </row>
-    <row r="437" spans="1:5">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" s="3"/>
       <c r="B437" s="3"/>
       <c r="E437" s="3"/>
     </row>
-    <row r="438" spans="1:5">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" s="3"/>
       <c r="B438" s="3"/>
       <c r="E438" s="3"/>
     </row>
-    <row r="439" spans="1:5">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" s="3"/>
       <c r="B439" s="3"/>
       <c r="E439" s="3"/>
     </row>
-    <row r="440" spans="1:5">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" s="3"/>
       <c r="B440" s="3"/>
       <c r="E440" s="3"/>
     </row>
-    <row r="441" spans="1:5">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" s="3"/>
       <c r="B441" s="3"/>
       <c r="E441" s="3"/>
     </row>
-    <row r="442" spans="1:5">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" s="3"/>
       <c r="B442" s="3"/>
       <c r="E442" s="3"/>
     </row>
-    <row r="443" spans="1:5">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" s="3"/>
       <c r="B443" s="3"/>
       <c r="E443" s="3"/>
     </row>
-    <row r="444" spans="1:5">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" s="3"/>
       <c r="B444" s="3"/>
       <c r="E444" s="3"/>
     </row>
-    <row r="445" spans="1:5">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" s="3"/>
       <c r="B445" s="3"/>
       <c r="E445" s="3"/>
     </row>
-    <row r="446" spans="1:5">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" s="3"/>
       <c r="B446" s="3"/>
       <c r="E446" s="3"/>
     </row>
-    <row r="447" spans="1:5">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" s="3"/>
       <c r="B447" s="3"/>
       <c r="E447" s="3"/>
     </row>
-    <row r="448" spans="1:5">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" s="3"/>
       <c r="B448" s="3"/>
       <c r="E448" s="3"/>
     </row>
-    <row r="449" spans="1:5">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" s="3"/>
       <c r="B449" s="3"/>
       <c r="E449" s="3"/>
     </row>
-    <row r="450" spans="1:5">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" s="3"/>
       <c r="B450" s="3"/>
       <c r="E450" s="3"/>
     </row>
-    <row r="451" spans="1:5">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" s="3"/>
       <c r="B451" s="3"/>
       <c r="E451" s="3"/>
     </row>
-    <row r="452" spans="1:5">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" s="3"/>
       <c r="B452" s="3"/>
       <c r="E452" s="3"/>
     </row>
-    <row r="453" spans="1:5">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" s="3"/>
       <c r="B453" s="3"/>
       <c r="E453" s="3"/>
     </row>
-    <row r="454" spans="1:5">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454" s="3"/>
       <c r="B454" s="3"/>
       <c r="E454" s="3"/>
     </row>
-    <row r="455" spans="1:5">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455" s="3"/>
       <c r="B455" s="3"/>
       <c r="E455" s="3"/>
     </row>
-    <row r="456" spans="1:5">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456" s="3"/>
       <c r="B456" s="3"/>
       <c r="E456" s="3"/>
     </row>
-    <row r="457" spans="1:5">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457" s="3"/>
       <c r="B457" s="3"/>
       <c r="E457" s="3"/>
     </row>
-    <row r="458" spans="1:5">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458" s="3"/>
       <c r="B458" s="3"/>
       <c r="E458" s="3"/>
     </row>
-    <row r="459" spans="1:5">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459" s="3"/>
       <c r="B459" s="3"/>
       <c r="E459" s="3"/>
     </row>
-    <row r="460" spans="1:5">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460" s="3"/>
       <c r="B460" s="3"/>
       <c r="E460" s="3"/>
     </row>
-    <row r="461" spans="1:5">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461" s="3"/>
       <c r="B461" s="3"/>
       <c r="E461" s="3"/>
     </row>
-    <row r="462" spans="1:5">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462" s="3"/>
       <c r="B462" s="3"/>
       <c r="E462" s="3"/>
     </row>
-    <row r="463" spans="1:5">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463" s="3"/>
       <c r="B463" s="3"/>
       <c r="E463" s="3"/>
     </row>
-    <row r="464" spans="1:5">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464" s="3"/>
       <c r="B464" s="3"/>
       <c r="E464" s="3"/>
     </row>
-    <row r="465" spans="1:5">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465" s="3"/>
       <c r="B465" s="3"/>
       <c r="E465" s="3"/>
     </row>
-    <row r="466" spans="1:5">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466" s="3"/>
       <c r="B466" s="3"/>
       <c r="E466" s="3"/>
     </row>
-    <row r="467" spans="1:5">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467" s="3"/>
       <c r="B467" s="3"/>
       <c r="E467" s="3"/>
     </row>
-    <row r="468" spans="1:5">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468" s="3"/>
       <c r="B468" s="3"/>
       <c r="E468" s="3"/>
     </row>
-    <row r="469" spans="1:5">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469" s="3"/>
       <c r="B469" s="3"/>
       <c r="E469" s="3"/>
     </row>
-    <row r="470" spans="1:5">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470" s="3"/>
       <c r="B470" s="3"/>
       <c r="E470" s="3"/>
     </row>
-    <row r="471" spans="1:5">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471" s="3"/>
       <c r="B471" s="3"/>
       <c r="E471" s="3"/>
     </row>
-    <row r="472" spans="1:5">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472" s="3"/>
       <c r="B472" s="3"/>
       <c r="E472" s="3"/>
     </row>
-    <row r="473" spans="1:5">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473" s="3"/>
       <c r="B473" s="3"/>
       <c r="E473" s="3"/>
     </row>
-    <row r="474" spans="1:5">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474" s="3"/>
       <c r="B474" s="3"/>
       <c r="E474" s="3"/>
     </row>
-    <row r="475" spans="1:5">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475" s="3"/>
       <c r="B475" s="3"/>
       <c r="E475" s="3"/>
     </row>
-    <row r="476" spans="1:5">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476" s="3"/>
       <c r="B476" s="3"/>
       <c r="E476" s="3"/>
     </row>
-    <row r="477" spans="1:5">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477" s="3"/>
       <c r="B477" s="3"/>
       <c r="E477" s="3"/>
     </row>
-    <row r="478" spans="1:5">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478" s="3"/>
       <c r="B478" s="3"/>
       <c r="E478" s="3"/>
     </row>
-    <row r="479" spans="1:5">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479" s="3"/>
       <c r="B479" s="3"/>
       <c r="E479" s="3"/>
     </row>
-    <row r="480" spans="1:5">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480" s="3"/>
       <c r="B480" s="3"/>
       <c r="E480" s="3"/>
     </row>
-    <row r="481" spans="1:5">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481" s="3"/>
       <c r="B481" s="3"/>
       <c r="E481" s="3"/>
     </row>
-    <row r="482" spans="1:5">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482" s="3"/>
       <c r="B482" s="3"/>
       <c r="E482" s="3"/>
     </row>
-    <row r="483" spans="1:5">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483" s="3"/>
       <c r="B483" s="3"/>
       <c r="E483" s="3"/>
     </row>
-    <row r="484" spans="1:5">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484" s="3"/>
       <c r="B484" s="3"/>
       <c r="E484" s="3"/>
     </row>
-    <row r="485" spans="1:5">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485" s="3"/>
       <c r="B485" s="3"/>
       <c r="E485" s="3"/>
     </row>
-    <row r="486" spans="1:5">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486" s="3"/>
       <c r="B486" s="3"/>
       <c r="E486" s="3"/>
     </row>
-    <row r="487" spans="1:5">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487" s="3"/>
       <c r="B487" s="3"/>
       <c r="E487" s="3"/>
     </row>
-    <row r="488" spans="1:5">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488" s="3"/>
       <c r="B488" s="3"/>
       <c r="E488" s="3"/>
     </row>
-    <row r="489" spans="1:5">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489" s="3"/>
       <c r="B489" s="3"/>
       <c r="E489" s="3"/>
     </row>
-    <row r="490" spans="1:5">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490" s="3"/>
       <c r="B490" s="3"/>
       <c r="E490" s="3"/>
     </row>
-    <row r="491" spans="1:5">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491" s="3"/>
       <c r="B491" s="3"/>
       <c r="E491" s="3"/>
     </row>
-    <row r="492" spans="1:5">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492" s="3"/>
       <c r="B492" s="3"/>
       <c r="E492" s="3"/>
     </row>
-    <row r="493" spans="1:5">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A493" s="3"/>
       <c r="B493" s="3"/>
       <c r="E493" s="3"/>
     </row>
-    <row r="494" spans="1:5">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494" s="3"/>
       <c r="B494" s="3"/>
       <c r="E494" s="3"/>
     </row>
-    <row r="495" spans="1:5">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495" s="3"/>
       <c r="B495" s="3"/>
       <c r="E495" s="3"/>
     </row>
-    <row r="496" spans="1:5">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496" s="3"/>
       <c r="B496" s="3"/>
       <c r="E496" s="3"/>
     </row>
-    <row r="497" spans="1:5">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497" s="3"/>
       <c r="B497" s="3"/>
       <c r="E497" s="3"/>
     </row>
-    <row r="498" spans="1:5">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498" s="3"/>
       <c r="B498" s="3"/>
       <c r="E498" s="3"/>
     </row>
-    <row r="499" spans="1:5">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499" s="3"/>
       <c r="B499" s="3"/>
       <c r="E499" s="3"/>
     </row>
-    <row r="500" spans="1:5">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500" s="3"/>
       <c r="B500" s="3"/>
       <c r="E500" s="3"/>
     </row>
-    <row r="501" spans="1:5">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501" s="3"/>
       <c r="B501" s="3"/>
       <c r="E501" s="3"/>
     </row>
-    <row r="502" spans="1:5">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A502" s="3"/>
       <c r="B502" s="3"/>
       <c r="E502" s="3"/>
     </row>
-    <row r="503" spans="1:5">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A503" s="3"/>
       <c r="B503" s="3"/>
       <c r="E503" s="3"/>
     </row>
-    <row r="504" spans="1:5">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A504" s="3"/>
       <c r="B504" s="3"/>
       <c r="E504" s="3"/>
     </row>
-    <row r="505" spans="1:5">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A505" s="3"/>
       <c r="B505" s="3"/>
       <c r="E505" s="3"/>
     </row>
-    <row r="506" spans="1:5">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A506" s="3"/>
       <c r="B506" s="3"/>
       <c r="E506" s="3"/>
     </row>
-    <row r="507" spans="1:5">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A507" s="3"/>
       <c r="B507" s="3"/>
       <c r="E507" s="3"/>
     </row>
-    <row r="508" spans="1:5">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A508" s="3"/>
       <c r="B508" s="3"/>
       <c r="E508" s="3"/>
     </row>
-    <row r="509" spans="1:5">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A509" s="3"/>
       <c r="B509" s="3"/>
       <c r="E509" s="3"/>
     </row>
-    <row r="510" spans="1:5">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A510" s="3"/>
       <c r="B510" s="3"/>
       <c r="E510" s="3"/>
     </row>
-    <row r="511" spans="1:5">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A511" s="3"/>
       <c r="B511" s="3"/>
       <c r="E511" s="3"/>
     </row>
-    <row r="512" spans="1:5">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A512" s="3"/>
       <c r="B512" s="3"/>
       <c r="E512" s="3"/>
     </row>
-    <row r="513" spans="1:5">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A513" s="3"/>
       <c r="B513" s="3"/>
       <c r="E513" s="3"/>
     </row>
-    <row r="514" spans="1:5">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A514" s="3"/>
       <c r="B514" s="3"/>
       <c r="E514" s="3"/>
     </row>
-    <row r="515" spans="1:5">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A515" s="3"/>
       <c r="B515" s="3"/>
       <c r="E515" s="3"/>
     </row>
-    <row r="516" spans="1:5">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A516" s="3"/>
       <c r="B516" s="3"/>
       <c r="E516" s="3"/>
     </row>
-    <row r="517" spans="1:5">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A517" s="3"/>
       <c r="B517" s="3"/>
       <c r="E517" s="3"/>
     </row>
-    <row r="518" spans="1:5">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A518" s="3"/>
       <c r="B518" s="3"/>
       <c r="E518" s="3"/>
     </row>
-    <row r="519" spans="1:5">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A519" s="3"/>
       <c r="B519" s="3"/>
       <c r="E519" s="3"/>
     </row>
-    <row r="520" spans="1:5">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A520" s="3"/>
       <c r="B520" s="3"/>
       <c r="E520" s="3"/>
     </row>
-    <row r="521" spans="1:5">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A521" s="3"/>
       <c r="B521" s="3"/>
       <c r="E521" s="3"/>
     </row>
-    <row r="522" spans="1:5">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A522" s="3"/>
       <c r="B522" s="3"/>
       <c r="E522" s="3"/>
     </row>
-    <row r="523" spans="1:5">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A523" s="3"/>
       <c r="B523" s="3"/>
       <c r="E523" s="3"/>
     </row>
-    <row r="524" spans="1:5">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A524" s="3"/>
       <c r="B524" s="3"/>
       <c r="E524" s="3"/>
     </row>
-    <row r="525" spans="1:5">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A525" s="3"/>
       <c r="B525" s="3"/>
       <c r="E525" s="3"/>
     </row>
-    <row r="526" spans="1:5">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A526" s="3"/>
       <c r="B526" s="3"/>
       <c r="E526" s="3"/>
     </row>
-    <row r="527" spans="1:5">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A527" s="3"/>
       <c r="B527" s="3"/>
       <c r="E527" s="3"/>
     </row>
-    <row r="528" spans="1:5">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A528" s="3"/>
       <c r="B528" s="3"/>
       <c r="E528" s="3"/>
     </row>
-    <row r="529" spans="1:5">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A529" s="3"/>
       <c r="B529" s="3"/>
       <c r="E529" s="3"/>
     </row>
-    <row r="530" spans="1:5">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A530" s="3"/>
       <c r="B530" s="3"/>
       <c r="E530" s="3"/>
     </row>
-    <row r="531" spans="1:5">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A531" s="3"/>
       <c r="B531" s="3"/>
       <c r="E531" s="3"/>
     </row>
-    <row r="532" spans="1:5">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A532" s="3"/>
       <c r="B532" s="3"/>
       <c r="E532" s="3"/>
     </row>
-    <row r="533" spans="1:5">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A533" s="3"/>
       <c r="B533" s="3"/>
       <c r="E533" s="3"/>
     </row>
-    <row r="534" spans="1:5">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A534" s="3"/>
       <c r="B534" s="3"/>
       <c r="E534" s="3"/>
     </row>
-    <row r="535" spans="1:5">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A535" s="3"/>
       <c r="B535" s="3"/>
       <c r="E535" s="3"/>
     </row>
-    <row r="536" spans="1:5">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A536" s="3"/>
       <c r="B536" s="3"/>
       <c r="E536" s="3"/>
     </row>
-    <row r="537" spans="1:5">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A537" s="3"/>
       <c r="B537" s="3"/>
       <c r="E537" s="3"/>
     </row>
-    <row r="538" spans="1:5">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A538" s="3"/>
       <c r="B538" s="3"/>
       <c r="E538" s="3"/>
     </row>
-    <row r="539" spans="1:5">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A539" s="3"/>
       <c r="B539" s="3"/>
       <c r="E539" s="3"/>
     </row>
-    <row r="540" spans="1:5">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A540" s="3"/>
       <c r="B540" s="3"/>
       <c r="E540" s="3"/>
     </row>
-    <row r="541" spans="1:5">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A541" s="3"/>
       <c r="B541" s="3"/>
       <c r="E541" s="3"/>
     </row>
-    <row r="542" spans="1:5">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A542" s="3"/>
       <c r="B542" s="3"/>
       <c r="E542" s="3"/>
     </row>
-    <row r="543" spans="1:5">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A543" s="3"/>
       <c r="B543" s="3"/>
       <c r="E543" s="3"/>
     </row>
-    <row r="544" spans="1:5">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A544" s="3"/>
       <c r="B544" s="3"/>
       <c r="E544" s="3"/>
     </row>
-    <row r="545" spans="1:5">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A545" s="3"/>
       <c r="B545" s="3"/>
       <c r="E545" s="3"/>
     </row>
-    <row r="546" spans="1:5">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A546" s="3"/>
       <c r="B546" s="3"/>
       <c r="E546" s="3"/>
     </row>
-    <row r="547" spans="1:5">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A547" s="3"/>
       <c r="B547" s="3"/>
       <c r="E547" s="3"/>
     </row>
-    <row r="548" spans="1:5">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A548" s="3"/>
       <c r="B548" s="3"/>
       <c r="E548" s="3"/>
     </row>
-    <row r="549" spans="1:5">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A549" s="3"/>
       <c r="B549" s="3"/>
       <c r="E549" s="3"/>
     </row>
-    <row r="550" spans="1:5">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A550" s="3"/>
       <c r="B550" s="3"/>
       <c r="E550" s="3"/>
     </row>
-    <row r="551" spans="1:5">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A551" s="3"/>
       <c r="B551" s="3"/>
       <c r="E551" s="3"/>
     </row>
-    <row r="552" spans="1:5">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A552" s="3"/>
       <c r="B552" s="3"/>
       <c r="E552" s="3"/>
     </row>
-    <row r="553" spans="1:5">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A553" s="3"/>
       <c r="B553" s="3"/>
       <c r="E553" s="3"/>
     </row>
-    <row r="554" spans="1:5">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A554" s="3"/>
       <c r="B554" s="3"/>
       <c r="E554" s="3"/>
     </row>
-    <row r="555" spans="1:5">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A555" s="3"/>
       <c r="B555" s="3"/>
       <c r="E555" s="3"/>
     </row>
-    <row r="556" spans="1:5">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A556" s="3"/>
       <c r="B556" s="3"/>
       <c r="E556" s="3"/>
     </row>
-    <row r="557" spans="1:5">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A557" s="3"/>
       <c r="B557" s="3"/>
       <c r="E557" s="3"/>
     </row>
-    <row r="558" spans="1:5">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A558" s="3"/>
       <c r="B558" s="3"/>
       <c r="E558" s="3"/>
     </row>
-    <row r="559" spans="1:5">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A559" s="3"/>
       <c r="B559" s="3"/>
       <c r="E559" s="3"/>
     </row>
-    <row r="560" spans="1:5">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A560" s="3"/>
       <c r="B560" s="3"/>
       <c r="E560" s="3"/>
     </row>
-    <row r="561" spans="1:5">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A561" s="3"/>
       <c r="B561" s="3"/>
       <c r="E561" s="3"/>
     </row>
-    <row r="562" spans="1:5">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A562" s="3"/>
       <c r="B562" s="3"/>
       <c r="E562" s="3"/>
     </row>
-    <row r="563" spans="1:5">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A563" s="3"/>
       <c r="B563" s="3"/>
       <c r="E563" s="3"/>
     </row>
-    <row r="564" spans="1:5">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A564" s="3"/>
       <c r="B564" s="3"/>
       <c r="E564" s="3"/>
     </row>
-    <row r="565" spans="1:5">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A565" s="3"/>
       <c r="B565" s="3"/>
       <c r="E565" s="3"/>
     </row>
-    <row r="566" spans="1:5">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A566" s="3"/>
       <c r="B566" s="3"/>
       <c r="E566" s="3"/>
     </row>
-    <row r="567" spans="1:5">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A567" s="3"/>
       <c r="B567" s="3"/>
       <c r="E567" s="3"/>
     </row>
-    <row r="568" spans="1:5">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A568" s="3"/>
       <c r="B568" s="3"/>
       <c r="E568" s="3"/>
     </row>
-    <row r="569" spans="1:5">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A569" s="3"/>
       <c r="B569" s="3"/>
       <c r="E569" s="3"/>
     </row>
-    <row r="570" spans="1:5">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A570" s="3"/>
       <c r="B570" s="3"/>
       <c r="E570" s="3"/>
     </row>
-    <row r="571" spans="1:5">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A571" s="3"/>
       <c r="B571" s="3"/>
       <c r="E571" s="3"/>
     </row>
-    <row r="572" spans="1:5">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A572" s="3"/>
       <c r="B572" s="3"/>
       <c r="E572" s="3"/>
     </row>
-    <row r="573" spans="1:5">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A573" s="3"/>
       <c r="B573" s="3"/>
       <c r="E573" s="3"/>
     </row>
-    <row r="574" spans="1:5">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A574" s="3"/>
       <c r="B574" s="3"/>
       <c r="E574" s="3"/>
     </row>
-    <row r="575" spans="1:5">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A575" s="3"/>
       <c r="B575" s="3"/>
       <c r="E575" s="3"/>
     </row>
-    <row r="576" spans="1:5">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A576" s="3"/>
       <c r="B576" s="3"/>
       <c r="E576" s="3"/>
     </row>
-    <row r="577" spans="1:5">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A577" s="3"/>
       <c r="B577" s="3"/>
       <c r="E577" s="3"/>
     </row>
-    <row r="578" spans="1:5">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A578" s="3"/>
       <c r="B578" s="3"/>
       <c r="E578" s="3"/>
     </row>
-    <row r="579" spans="1:5">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A579" s="3"/>
       <c r="B579" s="3"/>
       <c r="E579" s="3"/>
     </row>
-    <row r="580" spans="1:5">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A580" s="3"/>
       <c r="B580" s="3"/>
       <c r="E580" s="3"/>
     </row>
-    <row r="581" spans="1:5">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A581" s="3"/>
       <c r="B581" s="3"/>
       <c r="E581" s="3"/>
     </row>
-    <row r="582" spans="1:5">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A582" s="3"/>
       <c r="B582" s="3"/>
       <c r="E582" s="3"/>
     </row>
-    <row r="583" spans="1:5">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A583" s="3"/>
       <c r="B583" s="3"/>
       <c r="E583" s="3"/>
     </row>
-    <row r="584" spans="1:5">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A584" s="3"/>
       <c r="B584" s="3"/>
       <c r="E584" s="3"/>
     </row>
-    <row r="585" spans="1:5">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A585" s="3"/>
       <c r="B585" s="3"/>
       <c r="E585" s="3"/>
     </row>
-    <row r="586" spans="1:5">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A586" s="3"/>
       <c r="B586" s="3"/>
       <c r="E586" s="3"/>
     </row>
-    <row r="587" spans="1:5">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A587" s="3"/>
       <c r="B587" s="3"/>
       <c r="E587" s="3"/>
     </row>
-    <row r="588" spans="1:5">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A588" s="3"/>
       <c r="B588" s="3"/>
       <c r="E588" s="3"/>
     </row>
-    <row r="589" spans="1:5">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A589" s="3"/>
       <c r="B589" s="3"/>
       <c r="E589" s="3"/>
     </row>
-    <row r="590" spans="1:5">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A590" s="3"/>
       <c r="B590" s="3"/>
       <c r="E590" s="3"/>
     </row>
-    <row r="591" spans="1:5">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A591" s="3"/>
       <c r="B591" s="3"/>
       <c r="E591" s="3"/>
     </row>
-    <row r="592" spans="1:5">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A592" s="3"/>
       <c r="B592" s="3"/>
       <c r="E592" s="3"/>
     </row>
-    <row r="593" spans="1:5">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A593" s="3"/>
       <c r="B593" s="3"/>
       <c r="E593" s="3"/>
     </row>
-    <row r="594" spans="1:5">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A594" s="3"/>
       <c r="B594" s="3"/>
       <c r="E594" s="3"/>
     </row>
-    <row r="595" spans="1:5">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A595" s="3"/>
       <c r="B595" s="3"/>
       <c r="E595" s="3"/>
     </row>
-    <row r="596" spans="1:5">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A596" s="3"/>
       <c r="B596" s="3"/>
       <c r="E596" s="3"/>
     </row>
-    <row r="597" spans="1:5">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A597" s="3"/>
       <c r="B597" s="3"/>
       <c r="E597" s="3"/>
     </row>
-    <row r="598" spans="1:5">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A598" s="3"/>
       <c r="B598" s="3"/>
       <c r="E598" s="3"/>
     </row>
-    <row r="599" spans="1:5">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A599" s="3"/>
       <c r="B599" s="3"/>
       <c r="E599" s="3"/>
     </row>
-    <row r="600" spans="1:5">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A600" s="3"/>
       <c r="B600" s="3"/>
       <c r="E600" s="3"/>
     </row>
-    <row r="601" spans="1:5">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A601" s="3"/>
       <c r="B601" s="3"/>
       <c r="E601" s="3"/>
     </row>
-    <row r="602" spans="1:5">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A602" s="3"/>
       <c r="B602" s="3"/>
       <c r="E602" s="3"/>
     </row>
-    <row r="603" spans="1:5">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A603" s="3"/>
       <c r="B603" s="3"/>
       <c r="E603" s="3"/>
     </row>
-    <row r="604" spans="1:5">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A604" s="3"/>
       <c r="B604" s="3"/>
       <c r="E604" s="3"/>
     </row>
-    <row r="605" spans="1:5">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A605" s="3"/>
       <c r="B605" s="3"/>
       <c r="E605" s="3"/>
     </row>
-    <row r="606" spans="1:5">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A606" s="3"/>
       <c r="B606" s="3"/>
       <c r="E606" s="3"/>
     </row>
-    <row r="607" spans="1:5">
+    <row r="607" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A607" s="3"/>
       <c r="B607" s="3"/>
       <c r="E607" s="3"/>
     </row>
-    <row r="608" spans="1:5">
+    <row r="608" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A608" s="3"/>
       <c r="B608" s="3"/>
       <c r="E608" s="3"/>
     </row>
-    <row r="609" spans="1:5">
+    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A609" s="3"/>
       <c r="B609" s="3"/>
       <c r="E609" s="3"/>
     </row>
-    <row r="610" spans="1:5">
+    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A610" s="3"/>
       <c r="B610" s="3"/>
       <c r="E610" s="3"/>
     </row>
-    <row r="611" spans="1:5">
+    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A611" s="3"/>
       <c r="B611" s="3"/>
       <c r="E611" s="3"/>
     </row>
-    <row r="612" spans="1:5">
+    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A612" s="3"/>
       <c r="B612" s="3"/>
       <c r="E612" s="3"/>
     </row>
-    <row r="613" spans="1:5">
+    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A613" s="3"/>
       <c r="B613" s="3"/>
       <c r="E613" s="3"/>
     </row>
-    <row r="614" spans="1:5">
+    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A614" s="3"/>
       <c r="B614" s="3"/>
       <c r="E614" s="3"/>
     </row>
-    <row r="615" spans="1:5">
+    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A615" s="3"/>
       <c r="B615" s="3"/>
       <c r="E615" s="3"/>
     </row>
-    <row r="616" spans="1:5">
+    <row r="616" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A616" s="3"/>
       <c r="B616" s="3"/>
       <c r="E616" s="3"/>
     </row>
-    <row r="617" spans="1:5">
+    <row r="617" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A617" s="3"/>
       <c r="B617" s="3"/>
       <c r="E617" s="3"/>
     </row>
-    <row r="618" spans="1:5">
+    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A618" s="3"/>
       <c r="B618" s="3"/>
       <c r="E618" s="3"/>
     </row>
-    <row r="619" spans="1:5">
+    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A619" s="3"/>
       <c r="B619" s="3"/>
       <c r="E619" s="3"/>
     </row>
-    <row r="620" spans="1:5">
+    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A620" s="3"/>
       <c r="B620" s="3"/>
       <c r="E620" s="3"/>
     </row>
-    <row r="621" spans="1:5">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A621" s="3"/>
       <c r="B621" s="3"/>
       <c r="E621" s="3"/>
     </row>
-    <row r="622" spans="1:5">
+    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A622" s="3"/>
       <c r="B622" s="3"/>
       <c r="E622" s="3"/>
     </row>
-    <row r="623" spans="1:5">
+    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A623" s="3"/>
       <c r="B623" s="3"/>
       <c r="E623" s="3"/>
     </row>
-    <row r="624" spans="1:5">
+    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A624" s="3"/>
       <c r="B624" s="3"/>
       <c r="E624" s="3"/>
     </row>
-    <row r="625" spans="1:5">
+    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A625" s="3"/>
       <c r="B625" s="3"/>
       <c r="E625" s="3"/>
     </row>
-    <row r="626" spans="1:5">
+    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A626" s="3"/>
       <c r="B626" s="3"/>
       <c r="E626" s="3"/>
     </row>
-    <row r="627" spans="1:5">
+    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A627" s="3"/>
       <c r="B627" s="3"/>
       <c r="E627" s="3"/>
     </row>
-    <row r="628" spans="1:5">
+    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A628" s="3"/>
       <c r="B628" s="3"/>
       <c r="E628" s="3"/>
     </row>
-    <row r="629" spans="1:5">
+    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A629" s="3"/>
       <c r="B629" s="3"/>
       <c r="E629" s="3"/>
     </row>
-    <row r="630" spans="1:5">
+    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A630" s="3"/>
       <c r="B630" s="3"/>
       <c r="E630" s="3"/>
     </row>
-    <row r="631" spans="1:5">
+    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A631" s="3"/>
       <c r="B631" s="3"/>
       <c r="E631" s="3"/>
     </row>
-    <row r="632" spans="1:5">
+    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A632" s="3"/>
       <c r="B632" s="3"/>
       <c r="E632" s="3"/>
     </row>
-    <row r="633" spans="1:5">
+    <row r="633" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A633" s="3"/>
       <c r="B633" s="3"/>
       <c r="E633" s="3"/>
     </row>
-    <row r="634" spans="1:5">
+    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A634" s="3"/>
       <c r="B634" s="3"/>
       <c r="E634" s="3"/>
     </row>
-    <row r="635" spans="1:5">
+    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A635" s="3"/>
       <c r="B635" s="3"/>
       <c r="E635" s="3"/>
     </row>
-    <row r="636" spans="1:5">
+    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A636" s="3"/>
       <c r="B636" s="3"/>
       <c r="E636" s="3"/>
     </row>
-    <row r="637" spans="1:5">
+    <row r="637" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A637" s="3"/>
       <c r="B637" s="3"/>
       <c r="E637" s="3"/>
     </row>
-    <row r="638" spans="1:5">
+    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A638" s="3"/>
       <c r="B638" s="3"/>
       <c r="E638" s="3"/>
     </row>
-    <row r="639" spans="1:5">
+    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A639" s="3"/>
       <c r="B639" s="3"/>
       <c r="E639" s="3"/>
     </row>
-    <row r="640" spans="1:5">
+    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A640" s="3"/>
       <c r="B640" s="3"/>
       <c r="E640" s="3"/>
     </row>
-    <row r="641" spans="1:5">
+    <row r="641" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A641" s="3"/>
       <c r="B641" s="3"/>
       <c r="E641" s="3"/>
     </row>
-    <row r="642" spans="1:5">
+    <row r="642" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A642" s="3"/>
       <c r="B642" s="3"/>
       <c r="E642" s="3"/>
     </row>
-    <row r="643" spans="1:5">
+    <row r="643" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A643" s="3"/>
       <c r="B643" s="3"/>
       <c r="E643" s="3"/>
     </row>
-    <row r="644" spans="1:5">
+    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A644" s="3"/>
       <c r="B644" s="3"/>
       <c r="E644" s="3"/>
     </row>
-    <row r="645" spans="1:5">
+    <row r="645" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A645" s="3"/>
       <c r="B645" s="3"/>
       <c r="E645" s="3"/>
     </row>
-    <row r="646" spans="1:5">
+    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A646" s="3"/>
       <c r="B646" s="3"/>
       <c r="E646" s="3"/>
     </row>
-    <row r="647" spans="1:5">
+    <row r="647" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A647" s="3"/>
       <c r="B647" s="3"/>
       <c r="E647" s="3"/>
     </row>
-    <row r="648" spans="1:5">
+    <row r="648" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A648" s="3"/>
       <c r="B648" s="3"/>
       <c r="E648" s="3"/>
     </row>
-    <row r="649" spans="1:5">
+    <row r="649" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A649" s="3"/>
       <c r="B649" s="3"/>
       <c r="E649" s="3"/>
     </row>
-    <row r="650" spans="1:5">
+    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A650" s="3"/>
       <c r="B650" s="3"/>
       <c r="E650" s="3"/>
     </row>
-    <row r="651" spans="1:5">
+    <row r="651" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A651" s="3"/>
       <c r="B651" s="3"/>
       <c r="E651" s="3"/>
     </row>
-    <row r="652" spans="1:5">
+    <row r="652" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A652" s="3"/>
       <c r="B652" s="3"/>
       <c r="E652" s="3"/>
     </row>
-    <row r="653" spans="1:5">
+    <row r="653" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A653" s="3"/>
       <c r="B653" s="3"/>
       <c r="E653" s="3"/>
     </row>
-    <row r="654" spans="1:5">
+    <row r="654" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A654" s="3"/>
       <c r="B654" s="3"/>
       <c r="E654" s="3"/>
     </row>
-    <row r="655" spans="1:5">
+    <row r="655" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A655" s="3"/>
       <c r="B655" s="3"/>
       <c r="E655" s="3"/>
     </row>
-    <row r="656" spans="1:5">
+    <row r="656" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A656" s="3"/>
       <c r="B656" s="3"/>
       <c r="E656" s="3"/>
     </row>
-    <row r="657" spans="1:5">
+    <row r="657" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A657" s="3"/>
       <c r="B657" s="3"/>
       <c r="E657" s="3"/>
     </row>
-    <row r="658" spans="1:5">
+    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A658" s="3"/>
       <c r="B658" s="3"/>
       <c r="E658" s="3"/>
     </row>
-    <row r="659" spans="1:5">
+    <row r="659" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A659" s="3"/>
       <c r="B659" s="3"/>
       <c r="E659" s="3"/>
     </row>
-    <row r="660" spans="1:5">
+    <row r="660" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A660" s="3"/>
       <c r="B660" s="3"/>
       <c r="E660" s="3"/>
     </row>
-    <row r="661" spans="1:5">
+    <row r="661" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A661" s="3"/>
       <c r="B661" s="3"/>
       <c r="E661" s="3"/>
     </row>
-    <row r="662" spans="1:5">
+    <row r="662" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A662" s="3"/>
       <c r="B662" s="3"/>
       <c r="E662" s="3"/>
     </row>
-    <row r="663" spans="1:5">
+    <row r="663" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A663" s="3"/>
       <c r="B663" s="3"/>
       <c r="E663" s="3"/>
     </row>
-    <row r="664" spans="1:5">
+    <row r="664" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A664" s="3"/>
       <c r="B664" s="3"/>
       <c r="E664" s="3"/>
     </row>
-    <row r="665" spans="1:5">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A665" s="3"/>
       <c r="B665" s="3"/>
       <c r="E665" s="3"/>
     </row>
-    <row r="666" spans="1:5">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A666" s="3"/>
       <c r="B666" s="3"/>
       <c r="E666" s="3"/>
     </row>
-    <row r="667" spans="1:5">
+    <row r="667" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A667" s="3"/>
       <c r="B667" s="3"/>
       <c r="E667" s="3"/>
     </row>
-    <row r="668" spans="1:5">
+    <row r="668" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A668" s="3"/>
       <c r="B668" s="3"/>
       <c r="E668" s="3"/>
     </row>
-    <row r="669" spans="1:5">
+    <row r="669" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A669" s="3"/>
       <c r="B669" s="3"/>
       <c r="E669" s="3"/>
     </row>
-    <row r="670" spans="1:5">
+    <row r="670" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A670" s="3"/>
       <c r="B670" s="3"/>
       <c r="E670" s="3"/>
     </row>
-    <row r="671" spans="1:5">
+    <row r="671" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A671" s="3"/>
       <c r="B671" s="3"/>
       <c r="E671" s="3"/>
     </row>
-    <row r="672" spans="1:5">
+    <row r="672" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A672" s="3"/>
       <c r="B672" s="3"/>
       <c r="E672" s="3"/>
     </row>
-    <row r="673" spans="1:5">
+    <row r="673" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A673" s="3"/>
       <c r="B673" s="3"/>
       <c r="E673" s="3"/>
     </row>
-    <row r="674" spans="1:5">
+    <row r="674" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A674" s="3"/>
       <c r="B674" s="3"/>
       <c r="E674" s="3"/>
     </row>
-    <row r="675" spans="1:5">
+    <row r="675" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A675" s="3"/>
       <c r="B675" s="3"/>
       <c r="E675" s="3"/>
     </row>
-    <row r="676" spans="1:5">
+    <row r="676" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A676" s="3"/>
       <c r="B676" s="3"/>
       <c r="E676" s="3"/>
     </row>
-    <row r="677" spans="1:5">
+    <row r="677" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A677" s="3"/>
       <c r="B677" s="3"/>
       <c r="E677" s="3"/>
     </row>
-    <row r="678" spans="1:5">
+    <row r="678" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A678" s="3"/>
       <c r="B678" s="3"/>
       <c r="E678" s="3"/>
     </row>
-    <row r="679" spans="1:5">
+    <row r="679" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A679" s="3"/>
       <c r="B679" s="3"/>
       <c r="E679" s="3"/>
     </row>
-    <row r="680" spans="1:5">
+    <row r="680" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A680" s="3"/>
       <c r="B680" s="3"/>
       <c r="E680" s="3"/>
     </row>
-    <row r="681" spans="1:5">
+    <row r="681" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A681" s="3"/>
       <c r="B681" s="3"/>
       <c r="E681" s="3"/>
     </row>
-    <row r="682" spans="1:5">
+    <row r="682" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A682" s="3"/>
       <c r="B682" s="3"/>
       <c r="E682" s="3"/>
     </row>
-    <row r="683" spans="1:5">
+    <row r="683" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A683" s="3"/>
       <c r="B683" s="3"/>
       <c r="E683" s="3"/>
     </row>
-    <row r="684" spans="1:5">
+    <row r="684" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A684" s="3"/>
       <c r="B684" s="3"/>
       <c r="E684" s="3"/>
     </row>
-    <row r="685" spans="1:5">
+    <row r="685" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A685" s="3"/>
       <c r="B685" s="3"/>
       <c r="E685" s="3"/>
     </row>
-    <row r="686" spans="1:5">
+    <row r="686" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A686" s="3"/>
       <c r="B686" s="3"/>
       <c r="E686" s="3"/>
     </row>
-    <row r="687" spans="1:5">
+    <row r="687" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A687" s="3"/>
       <c r="B687" s="3"/>
       <c r="E687" s="3"/>
     </row>
-    <row r="688" spans="1:5">
+    <row r="688" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A688" s="3"/>
       <c r="B688" s="3"/>
       <c r="E688" s="3"/>
     </row>
-    <row r="689" spans="1:5">
+    <row r="689" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A689" s="3"/>
       <c r="B689" s="3"/>
       <c r="E689" s="3"/>
     </row>
-    <row r="690" spans="1:5">
+    <row r="690" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A690" s="3"/>
       <c r="B690" s="3"/>
       <c r="E690" s="3"/>
     </row>
-    <row r="691" spans="1:5">
+    <row r="691" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A691" s="3"/>
       <c r="B691" s="3"/>
       <c r="E691" s="3"/>
     </row>
-    <row r="692" spans="1:5">
+    <row r="692" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A692" s="3"/>
       <c r="B692" s="3"/>
       <c r="E692" s="3"/>
     </row>
-    <row r="693" spans="1:5">
+    <row r="693" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A693" s="3"/>
       <c r="B693" s="3"/>
       <c r="E693" s="3"/>
     </row>
-    <row r="694" spans="1:5">
+    <row r="694" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A694" s="3"/>
       <c r="B694" s="3"/>
       <c r="E694" s="3"/>
     </row>
-    <row r="695" spans="1:5">
+    <row r="695" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A695" s="3"/>
       <c r="B695" s="3"/>
       <c r="E695" s="3"/>
     </row>
-    <row r="696" spans="1:5">
+    <row r="696" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A696" s="3"/>
       <c r="B696" s="3"/>
       <c r="E696" s="3"/>
     </row>
-    <row r="697" spans="1:5">
+    <row r="697" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A697" s="3"/>
       <c r="B697" s="3"/>
       <c r="E697" s="3"/>
     </row>
-    <row r="698" spans="1:5">
+    <row r="698" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A698" s="3"/>
       <c r="B698" s="3"/>
       <c r="E698" s="3"/>
     </row>
-    <row r="699" spans="1:5">
+    <row r="699" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A699" s="3"/>
       <c r="B699" s="3"/>
       <c r="E699" s="3"/>
     </row>
-    <row r="700" spans="1:5">
+    <row r="700" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A700" s="3"/>
       <c r="B700" s="3"/>
       <c r="E700" s="3"/>
     </row>
-    <row r="701" spans="1:5">
+    <row r="701" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A701" s="3"/>
       <c r="B701" s="3"/>
       <c r="E701" s="3"/>
     </row>
-    <row r="702" spans="1:5">
+    <row r="702" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A702" s="3"/>
       <c r="B702" s="3"/>
       <c r="E702" s="3"/>
     </row>
-    <row r="703" spans="1:5">
+    <row r="703" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A703" s="3"/>
       <c r="B703" s="3"/>
       <c r="E703" s="3"/>
     </row>
-    <row r="704" spans="1:5">
+    <row r="704" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A704" s="3"/>
       <c r="B704" s="3"/>
       <c r="E704" s="3"/>
     </row>
-    <row r="705" spans="1:5">
+    <row r="705" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A705" s="3"/>
       <c r="B705" s="3"/>
       <c r="E705" s="3"/>
     </row>
-    <row r="706" spans="1:5">
+    <row r="706" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A706" s="3"/>
       <c r="B706" s="3"/>
       <c r="E706" s="3"/>
     </row>
-    <row r="707" spans="1:5">
+    <row r="707" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A707" s="3"/>
       <c r="B707" s="3"/>
       <c r="E707" s="3"/>
     </row>
-    <row r="708" spans="1:5">
+    <row r="708" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A708" s="3"/>
       <c r="B708" s="3"/>
       <c r="E708" s="3"/>
     </row>
-    <row r="709" spans="1:5">
+    <row r="709" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A709" s="3"/>
       <c r="B709" s="3"/>
       <c r="E709" s="3"/>
     </row>
-    <row r="710" spans="1:5">
+    <row r="710" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A710" s="3"/>
       <c r="B710" s="3"/>
       <c r="E710" s="3"/>
     </row>
-    <row r="711" spans="1:5">
+    <row r="711" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A711" s="3"/>
       <c r="B711" s="3"/>
       <c r="E711" s="3"/>
     </row>
-    <row r="712" spans="1:5">
+    <row r="712" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A712" s="3"/>
       <c r="B712" s="3"/>
       <c r="E712" s="3"/>
     </row>
-    <row r="713" spans="1:5">
+    <row r="713" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A713" s="3"/>
       <c r="B713" s="3"/>
       <c r="E713" s="3"/>
     </row>
-    <row r="714" spans="1:5">
+    <row r="714" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A714" s="3"/>
       <c r="B714" s="3"/>
       <c r="E714" s="3"/>
     </row>
-    <row r="715" spans="1:5">
+    <row r="715" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A715" s="3"/>
       <c r="B715" s="3"/>
       <c r="E715" s="3"/>
     </row>
-    <row r="716" spans="1:5">
+    <row r="716" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A716" s="3"/>
       <c r="B716" s="3"/>
       <c r="E716" s="3"/>
     </row>
-    <row r="717" spans="1:5">
+    <row r="717" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A717" s="3"/>
       <c r="B717" s="3"/>
       <c r="E717" s="3"/>
     </row>
-    <row r="718" spans="1:5">
+    <row r="718" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A718" s="3"/>
       <c r="B718" s="3"/>
       <c r="E718" s="3"/>
     </row>
-    <row r="719" spans="1:5">
+    <row r="719" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A719" s="3"/>
       <c r="B719" s="3"/>
       <c r="E719" s="3"/>
     </row>
-    <row r="720" spans="1:5">
+    <row r="720" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A720" s="3"/>
       <c r="B720" s="3"/>
       <c r="E720" s="3"/>
     </row>
-    <row r="721" spans="1:5">
+    <row r="721" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A721" s="3"/>
       <c r="B721" s="3"/>
       <c r="E721" s="3"/>
     </row>
-    <row r="722" spans="1:5">
+    <row r="722" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A722" s="3"/>
       <c r="B722" s="3"/>
       <c r="E722" s="3"/>
     </row>
-    <row r="723" spans="1:5">
+    <row r="723" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A723" s="3"/>
       <c r="B723" s="3"/>
       <c r="E723" s="3"/>
     </row>
-    <row r="724" spans="1:5">
+    <row r="724" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A724" s="3"/>
       <c r="B724" s="3"/>
       <c r="E724" s="3"/>
     </row>
-    <row r="725" spans="1:5">
+    <row r="725" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A725" s="3"/>
       <c r="B725" s="3"/>
       <c r="E725" s="3"/>
     </row>
-    <row r="726" spans="1:5">
+    <row r="726" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A726" s="3"/>
       <c r="B726" s="3"/>
       <c r="E726" s="3"/>
     </row>
-    <row r="727" spans="1:5">
+    <row r="727" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A727" s="3"/>
       <c r="B727" s="3"/>
       <c r="E727" s="3"/>
     </row>
-    <row r="728" spans="1:5">
+    <row r="728" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A728" s="3"/>
       <c r="B728" s="3"/>
       <c r="E728" s="3"/>
     </row>
-    <row r="729" spans="1:5">
+    <row r="729" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A729" s="3"/>
       <c r="B729" s="3"/>
       <c r="E729" s="3"/>
     </row>
-    <row r="730" spans="1:5">
+    <row r="730" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A730" s="3"/>
       <c r="B730" s="3"/>
       <c r="E730" s="3"/>
     </row>
-    <row r="731" spans="1:5">
+    <row r="731" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A731" s="3"/>
       <c r="B731" s="3"/>
       <c r="E731" s="3"/>
     </row>
-    <row r="732" spans="1:5">
+    <row r="732" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A732" s="3"/>
       <c r="B732" s="3"/>
       <c r="E732" s="3"/>
     </row>
-    <row r="733" spans="1:5">
+    <row r="733" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A733" s="3"/>
       <c r="B733" s="3"/>
       <c r="E733" s="3"/>
     </row>
-    <row r="734" spans="1:5">
+    <row r="734" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A734" s="3"/>
       <c r="B734" s="3"/>
       <c r="E734" s="3"/>
     </row>
-    <row r="735" spans="1:5">
+    <row r="735" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A735" s="3"/>
       <c r="B735" s="3"/>
       <c r="E735" s="3"/>
     </row>
-    <row r="736" spans="1:5">
+    <row r="736" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A736" s="3"/>
       <c r="B736" s="3"/>
       <c r="E736" s="3"/>
     </row>
-    <row r="737" spans="1:5">
+    <row r="737" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A737" s="3"/>
       <c r="B737" s="3"/>
       <c r="E737" s="3"/>
     </row>
-    <row r="738" spans="1:5">
+    <row r="738" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A738" s="3"/>
       <c r="B738" s="3"/>
       <c r="E738" s="3"/>
     </row>
-    <row r="739" spans="1:5">
+    <row r="739" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A739" s="3"/>
       <c r="B739" s="3"/>
       <c r="E739" s="3"/>
     </row>
-    <row r="740" spans="1:5">
+    <row r="740" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A740" s="3"/>
       <c r="B740" s="3"/>
       <c r="E740" s="3"/>
     </row>
-    <row r="741" spans="1:5">
+    <row r="741" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A741" s="3"/>
       <c r="B741" s="3"/>
       <c r="E741" s="3"/>
     </row>
-    <row r="742" spans="1:5">
+    <row r="742" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A742" s="3"/>
       <c r="B742" s="3"/>
       <c r="E742" s="3"/>
     </row>
-    <row r="743" spans="1:5">
+    <row r="743" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A743" s="3"/>
       <c r="B743" s="3"/>
       <c r="E743" s="3"/>
     </row>
-    <row r="744" spans="1:5">
+    <row r="744" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A744" s="3"/>
       <c r="B744" s="3"/>
       <c r="E744" s="3"/>
     </row>
-    <row r="745" spans="1:5">
+    <row r="745" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A745" s="3"/>
       <c r="B745" s="3"/>
       <c r="E745" s="3"/>
     </row>
-    <row r="746" spans="1:5">
+    <row r="746" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A746" s="3"/>
       <c r="B746" s="3"/>
       <c r="E746" s="3"/>
     </row>
-    <row r="747" spans="1:5">
+    <row r="747" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A747" s="3"/>
       <c r="B747" s="3"/>
       <c r="E747" s="3"/>
     </row>
-    <row r="748" spans="1:5">
+    <row r="748" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A748" s="3"/>
       <c r="B748" s="3"/>
       <c r="E748" s="3"/>
     </row>
-    <row r="749" spans="1:5">
+    <row r="749" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A749" s="3"/>
       <c r="B749" s="3"/>
       <c r="E749" s="3"/>
     </row>
-    <row r="750" spans="1:5">
+    <row r="750" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A750" s="3"/>
       <c r="B750" s="3"/>
       <c r="E750" s="3"/>
     </row>
-    <row r="751" spans="1:5">
+    <row r="751" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A751" s="3"/>
       <c r="B751" s="3"/>
       <c r="E751" s="3"/>
     </row>
-    <row r="752" spans="1:5">
+    <row r="752" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A752" s="3"/>
       <c r="B752" s="3"/>
       <c r="E752" s="3"/>
     </row>
-    <row r="753" spans="1:5">
+    <row r="753" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A753" s="3"/>
       <c r="B753" s="3"/>
       <c r="E753" s="3"/>
     </row>
-    <row r="754" spans="1:5">
+    <row r="754" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A754" s="3"/>
       <c r="B754" s="3"/>
       <c r="E754" s="3"/>
     </row>
-    <row r="755" spans="1:5">
+    <row r="755" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A755" s="3"/>
       <c r="B755" s="3"/>
       <c r="E755" s="3"/>
     </row>
-    <row r="756" spans="1:5">
+    <row r="756" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A756" s="3"/>
       <c r="B756" s="3"/>
       <c r="E756" s="3"/>
     </row>
-    <row r="757" spans="1:5">
+    <row r="757" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A757" s="3"/>
       <c r="B757" s="3"/>
       <c r="E757" s="3"/>
     </row>
-    <row r="758" spans="1:5">
+    <row r="758" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A758" s="3"/>
       <c r="B758" s="3"/>
       <c r="E758" s="3"/>
     </row>
-    <row r="759" spans="1:5">
+    <row r="759" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A759" s="3"/>
       <c r="B759" s="3"/>
       <c r="E759" s="3"/>
     </row>
-    <row r="760" spans="1:5">
+    <row r="760" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A760" s="3"/>
       <c r="B760" s="3"/>
       <c r="E760" s="3"/>
     </row>
-    <row r="761" spans="1:5">
+    <row r="761" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A761" s="3"/>
       <c r="B761" s="3"/>
       <c r="E761" s="3"/>
     </row>
-    <row r="762" spans="1:5">
+    <row r="762" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A762" s="3"/>
       <c r="B762" s="3"/>
       <c r="E762" s="3"/>
     </row>
-    <row r="763" spans="1:5">
+    <row r="763" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A763" s="3"/>
       <c r="B763" s="3"/>
       <c r="E763" s="3"/>
     </row>
-    <row r="764" spans="1:5">
+    <row r="764" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A764" s="3"/>
       <c r="B764" s="3"/>
       <c r="E764" s="3"/>
     </row>
-    <row r="765" spans="1:5">
+    <row r="765" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A765" s="3"/>
       <c r="B765" s="3"/>
       <c r="E765" s="3"/>
     </row>
-    <row r="766" spans="1:5">
+    <row r="766" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A766" s="3"/>
       <c r="B766" s="3"/>
       <c r="E766" s="3"/>
     </row>
-    <row r="767" spans="1:5">
+    <row r="767" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A767" s="3"/>
       <c r="B767" s="3"/>
       <c r="E767" s="3"/>
     </row>
-    <row r="768" spans="1:5">
+    <row r="768" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A768" s="3"/>
       <c r="B768" s="3"/>
       <c r="E768" s="3"/>
     </row>
-    <row r="769" spans="1:5">
+    <row r="769" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A769" s="3"/>
       <c r="B769" s="3"/>
       <c r="E769" s="3"/>
     </row>
-    <row r="770" spans="1:5">
+    <row r="770" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A770" s="3"/>
       <c r="B770" s="3"/>
       <c r="E770" s="3"/>
     </row>
-    <row r="771" spans="1:5">
+    <row r="771" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A771" s="3"/>
       <c r="B771" s="3"/>
       <c r="E771" s="3"/>
     </row>
-    <row r="772" spans="1:5">
+    <row r="772" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A772" s="3"/>
       <c r="B772" s="3"/>
       <c r="E772" s="3"/>
     </row>
-    <row r="773" spans="1:5">
+    <row r="773" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A773" s="3"/>
       <c r="B773" s="3"/>
       <c r="E773" s="3"/>
     </row>
-    <row r="774" spans="1:5">
+    <row r="774" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A774" s="3"/>
       <c r="B774" s="3"/>
       <c r="E774" s="3"/>
     </row>
-    <row r="775" spans="1:5">
+    <row r="775" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A775" s="3"/>
       <c r="B775" s="3"/>
       <c r="E775" s="3"/>
     </row>
-    <row r="776" spans="1:5">
+    <row r="776" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A776" s="3"/>
       <c r="B776" s="3"/>
       <c r="E776" s="3"/>
     </row>
-    <row r="777" spans="1:5">
+    <row r="777" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A777" s="3"/>
       <c r="B777" s="3"/>
       <c r="E777" s="3"/>
     </row>
-    <row r="778" spans="1:5">
+    <row r="778" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A778" s="3"/>
       <c r="B778" s="3"/>
       <c r="E778" s="3"/>
     </row>
-    <row r="779" spans="1:5">
+    <row r="779" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A779" s="3"/>
       <c r="B779" s="3"/>
       <c r="E779" s="3"/>
     </row>
-    <row r="780" spans="1:5">
+    <row r="780" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A780" s="3"/>
       <c r="B780" s="3"/>
       <c r="E780" s="3"/>
     </row>
-    <row r="781" spans="1:5">
+    <row r="781" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A781" s="3"/>
       <c r="B781" s="3"/>
       <c r="E781" s="3"/>
     </row>
-    <row r="782" spans="1:5">
+    <row r="782" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A782" s="3"/>
       <c r="B782" s="3"/>
       <c r="E782" s="3"/>
     </row>
-    <row r="783" spans="1:5">
+    <row r="783" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A783" s="3"/>
       <c r="B783" s="3"/>
       <c r="E783" s="3"/>
     </row>
-    <row r="784" spans="1:5">
+    <row r="784" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A784" s="3"/>
       <c r="B784" s="3"/>
       <c r="E784" s="3"/>
     </row>
-    <row r="785" spans="1:5">
+    <row r="785" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A785" s="3"/>
       <c r="B785" s="3"/>
       <c r="E785" s="3"/>
     </row>
-    <row r="786" spans="1:5">
+    <row r="786" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A786" s="3"/>
       <c r="B786" s="3"/>
       <c r="E786" s="3"/>
     </row>
-    <row r="787" spans="1:5">
+    <row r="787" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A787" s="3"/>
       <c r="B787" s="3"/>
       <c r="E787" s="3"/>
     </row>
-    <row r="788" spans="1:5">
+    <row r="788" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A788" s="3"/>
       <c r="B788" s="3"/>
       <c r="E788" s="3"/>
     </row>
-    <row r="789" spans="1:5">
+    <row r="789" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A789" s="3"/>
       <c r="B789" s="3"/>
       <c r="E789" s="3"/>
     </row>
-    <row r="790" spans="1:5">
+    <row r="790" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A790" s="3"/>
       <c r="B790" s="3"/>
       <c r="E790" s="3"/>
     </row>
-    <row r="791" spans="1:5">
+    <row r="791" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A791" s="3"/>
       <c r="B791" s="3"/>
       <c r="E791" s="3"/>
     </row>
-    <row r="792" spans="1:5">
+    <row r="792" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A792" s="3"/>
       <c r="B792" s="3"/>
       <c r="E792" s="3"/>
     </row>
-    <row r="793" spans="1:5">
+    <row r="793" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A793" s="3"/>
       <c r="B793" s="3"/>
       <c r="E793" s="3"/>
     </row>
-    <row r="794" spans="1:5">
+    <row r="794" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A794" s="3"/>
       <c r="B794" s="3"/>
       <c r="E794" s="3"/>
     </row>
-    <row r="795" spans="1:5">
+    <row r="795" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A795" s="3"/>
       <c r="B795" s="3"/>
       <c r="E795" s="3"/>
     </row>
-    <row r="796" spans="1:5">
+    <row r="796" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A796" s="3"/>
       <c r="B796" s="3"/>
       <c r="E796" s="3"/>
     </row>
-    <row r="797" spans="1:5">
+    <row r="797" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A797" s="3"/>
       <c r="B797" s="3"/>
       <c r="E797" s="3"/>
     </row>
-    <row r="798" spans="1:5">
+    <row r="798" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A798" s="3"/>
       <c r="B798" s="3"/>
       <c r="E798" s="3"/>
     </row>
-    <row r="799" spans="1:5">
+    <row r="799" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A799" s="3"/>
       <c r="B799" s="3"/>
       <c r="E799" s="3"/>
     </row>
-    <row r="800" spans="1:5">
+    <row r="800" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A800" s="3"/>
       <c r="B800" s="3"/>
       <c r="E800" s="3"/>
     </row>
-    <row r="801" spans="1:5">
+    <row r="801" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A801" s="3"/>
       <c r="B801" s="3"/>
       <c r="E801" s="3"/>
     </row>
-    <row r="802" spans="1:5">
+    <row r="802" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A802" s="3"/>
       <c r="B802" s="3"/>
       <c r="E802" s="3"/>
     </row>
-    <row r="803" spans="1:5">
+    <row r="803" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A803" s="3"/>
       <c r="B803" s="3"/>
       <c r="E803" s="3"/>
     </row>
-    <row r="804" spans="1:5">
+    <row r="804" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A804" s="3"/>
       <c r="B804" s="3"/>
       <c r="E804" s="3"/>
     </row>
-    <row r="805" spans="1:5">
+    <row r="805" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A805" s="3"/>
       <c r="B805" s="3"/>
       <c r="E805" s="3"/>
     </row>
-    <row r="806" spans="1:5">
+    <row r="806" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A806" s="3"/>
       <c r="B806" s="3"/>
       <c r="E806" s="3"/>
     </row>
-    <row r="807" spans="1:5">
+    <row r="807" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A807" s="3"/>
       <c r="B807" s="3"/>
       <c r="E807" s="3"/>
     </row>
-    <row r="808" spans="1:5">
+    <row r="808" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A808" s="3"/>
       <c r="B808" s="3"/>
       <c r="E808" s="3"/>
     </row>
-    <row r="809" spans="1:5">
+    <row r="809" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A809" s="3"/>
       <c r="B809" s="3"/>
       <c r="E809" s="3"/>
     </row>
-    <row r="810" spans="1:5">
+    <row r="810" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A810" s="3"/>
       <c r="B810" s="3"/>
       <c r="E810" s="3"/>
     </row>
-    <row r="811" spans="1:5">
+    <row r="811" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A811" s="3"/>
       <c r="B811" s="3"/>
       <c r="E811" s="3"/>
     </row>
-    <row r="812" spans="1:5">
+    <row r="812" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A812" s="3"/>
       <c r="B812" s="3"/>
       <c r="E812" s="3"/>
     </row>
-    <row r="813" spans="1:5">
+    <row r="813" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A813" s="3"/>
       <c r="B813" s="3"/>
       <c r="E813" s="3"/>
     </row>
-    <row r="814" spans="1:5">
+    <row r="814" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A814" s="3"/>
       <c r="B814" s="3"/>
       <c r="E814" s="3"/>
     </row>
-    <row r="815" spans="1:5">
+    <row r="815" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A815" s="3"/>
       <c r="B815" s="3"/>
       <c r="E815" s="3"/>
     </row>
-    <row r="816" spans="1:5">
+    <row r="816" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A816" s="3"/>
       <c r="B816" s="3"/>
       <c r="E816" s="3"/>
     </row>
-    <row r="817" spans="1:5">
+    <row r="817" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A817" s="3"/>
       <c r="B817" s="3"/>
       <c r="E817" s="3"/>
     </row>
-    <row r="818" spans="1:5">
+    <row r="818" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A818" s="3"/>
       <c r="B818" s="3"/>
       <c r="E818" s="3"/>
     </row>
-    <row r="819" spans="1:5">
+    <row r="819" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A819" s="3"/>
       <c r="B819" s="3"/>
       <c r="E819" s="3"/>
     </row>
-    <row r="820" spans="1:5">
+    <row r="820" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A820" s="3"/>
       <c r="B820" s="3"/>
       <c r="E820" s="3"/>
     </row>
-    <row r="821" spans="1:5">
+    <row r="821" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A821" s="3"/>
       <c r="B821" s="3"/>
       <c r="E821" s="3"/>
     </row>
-    <row r="822" spans="1:5">
+    <row r="822" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A822" s="3"/>
       <c r="B822" s="3"/>
       <c r="E822" s="3"/>
     </row>
-    <row r="823" spans="1:5">
+    <row r="823" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A823" s="3"/>
       <c r="B823" s="3"/>
       <c r="E823" s="3"/>
     </row>
-    <row r="824" spans="1:5">
+    <row r="824" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A824" s="3"/>
       <c r="B824" s="3"/>
       <c r="E824" s="3"/>
     </row>
-    <row r="825" spans="1:5">
+    <row r="825" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A825" s="3"/>
       <c r="B825" s="3"/>
       <c r="E825" s="3"/>
     </row>
-    <row r="826" spans="1:5">
+    <row r="826" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A826" s="3"/>
       <c r="B826" s="3"/>
       <c r="E826" s="3"/>
     </row>
-    <row r="827" spans="1:5">
+    <row r="827" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A827" s="3"/>
       <c r="B827" s="3"/>
       <c r="E827" s="3"/>
     </row>
-    <row r="828" spans="1:5">
+    <row r="828" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A828" s="3"/>
       <c r="B828" s="3"/>
       <c r="E828" s="3"/>
     </row>
-    <row r="829" spans="1:5">
+    <row r="829" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A829" s="3"/>
       <c r="B829" s="3"/>
       <c r="E829" s="3"/>
     </row>
-    <row r="830" spans="1:5">
+    <row r="830" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A830" s="3"/>
       <c r="B830" s="3"/>
       <c r="E830" s="3"/>
     </row>
-    <row r="831" spans="1:5">
+    <row r="831" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A831" s="3"/>
       <c r="B831" s="3"/>
       <c r="E831" s="3"/>
     </row>
-    <row r="832" spans="1:5">
+    <row r="832" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A832" s="3"/>
       <c r="B832" s="3"/>
       <c r="E832" s="3"/>
     </row>
-    <row r="833" spans="1:5">
+    <row r="833" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A833" s="3"/>
       <c r="B833" s="3"/>
       <c r="E833" s="3"/>
     </row>
-    <row r="834" spans="1:5">
+    <row r="834" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A834" s="3"/>
       <c r="B834" s="3"/>
       <c r="E834" s="3"/>
     </row>
-    <row r="835" spans="1:5">
+    <row r="835" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A835" s="3"/>
       <c r="B835" s="3"/>
       <c r="E835" s="3"/>
     </row>
-    <row r="836" spans="1:5">
+    <row r="836" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A836" s="3"/>
       <c r="B836" s="3"/>
       <c r="E836" s="3"/>
     </row>
-    <row r="837" spans="1:5">
+    <row r="837" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A837" s="3"/>
       <c r="B837" s="3"/>
       <c r="E837" s="3"/>
     </row>
-    <row r="838" spans="1:5">
+    <row r="838" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A838" s="3"/>
       <c r="B838" s="3"/>
       <c r="E838" s="3"/>
     </row>
-    <row r="839" spans="1:5">
+    <row r="839" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A839" s="3"/>
       <c r="B839" s="3"/>
       <c r="E839" s="3"/>
     </row>
-    <row r="840" spans="1:5">
+    <row r="840" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A840" s="3"/>
       <c r="B840" s="3"/>
       <c r="E840" s="3"/>
     </row>
-    <row r="841" spans="1:5">
+    <row r="841" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A841" s="3"/>
       <c r="B841" s="3"/>
       <c r="E841" s="3"/>
     </row>
-    <row r="842" spans="1:5">
+    <row r="842" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A842" s="3"/>
       <c r="B842" s="3"/>
       <c r="E842" s="3"/>
     </row>
-    <row r="843" spans="1:5">
+    <row r="843" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A843" s="3"/>
       <c r="B843" s="3"/>
       <c r="E843" s="3"/>
     </row>
-    <row r="844" spans="1:5">
+    <row r="844" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A844" s="3"/>
       <c r="B844" s="3"/>
       <c r="E844" s="3"/>
     </row>
-    <row r="845" spans="1:5">
+    <row r="845" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A845" s="3"/>
       <c r="B845" s="3"/>
       <c r="E845" s="3"/>
     </row>
-    <row r="846" spans="1:5">
+    <row r="846" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A846" s="3"/>
       <c r="B846" s="3"/>
       <c r="E846" s="3"/>
     </row>
-    <row r="847" spans="1:5">
+    <row r="847" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A847" s="3"/>
       <c r="B847" s="3"/>
       <c r="E847" s="3"/>
     </row>
-    <row r="848" spans="1:5">
+    <row r="848" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A848" s="3"/>
       <c r="B848" s="3"/>
       <c r="E848" s="3"/>
     </row>
-    <row r="849" spans="1:5">
+    <row r="849" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A849" s="3"/>
       <c r="B849" s="3"/>
       <c r="E849" s="3"/>
     </row>
-    <row r="850" spans="1:5">
+    <row r="850" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A850" s="3"/>
       <c r="B850" s="3"/>
       <c r="E850" s="3"/>
     </row>
-    <row r="851" spans="1:5">
+    <row r="851" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A851" s="3"/>
       <c r="B851" s="3"/>
       <c r="E851" s="3"/>
     </row>
-    <row r="852" spans="1:5">
+    <row r="852" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A852" s="3"/>
       <c r="B852" s="3"/>
       <c r="E852" s="3"/>
     </row>
-    <row r="853" spans="1:5">
+    <row r="853" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A853" s="3"/>
       <c r="B853" s="3"/>
       <c r="E853" s="3"/>
     </row>
-    <row r="854" spans="1:5">
+    <row r="854" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A854" s="3"/>
       <c r="B854" s="3"/>
       <c r="E854" s="3"/>
     </row>
-    <row r="855" spans="1:5">
+    <row r="855" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A855" s="3"/>
       <c r="B855" s="3"/>
       <c r="E855" s="3"/>
     </row>
-    <row r="856" spans="1:5">
+    <row r="856" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A856" s="3"/>
       <c r="B856" s="3"/>
       <c r="E856" s="3"/>
     </row>
-    <row r="857" spans="1:5">
+    <row r="857" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A857" s="3"/>
       <c r="B857" s="3"/>
       <c r="E857" s="3"/>
     </row>
-    <row r="858" spans="1:5">
+    <row r="858" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A858" s="3"/>
       <c r="B858" s="3"/>
       <c r="E858" s="3"/>
     </row>
-    <row r="859" spans="1:5">
+    <row r="859" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A859" s="3"/>
       <c r="B859" s="3"/>
       <c r="E859" s="3"/>
     </row>
-    <row r="860" spans="1:5">
+    <row r="860" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A860" s="3"/>
       <c r="B860" s="3"/>
       <c r="E860" s="3"/>
     </row>
-    <row r="861" spans="1:5">
+    <row r="861" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A861" s="3"/>
       <c r="B861" s="3"/>
       <c r="E861" s="3"/>
     </row>
-    <row r="862" spans="1:5">
+    <row r="862" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A862" s="3"/>
       <c r="B862" s="3"/>
       <c r="E862" s="3"/>
     </row>
-    <row r="863" spans="1:5">
+    <row r="863" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A863" s="3"/>
       <c r="B863" s="3"/>
       <c r="E863" s="3"/>
     </row>
-    <row r="864" spans="1:5">
+    <row r="864" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A864" s="3"/>
       <c r="B864" s="3"/>
       <c r="E864" s="3"/>
     </row>
-    <row r="865" spans="1:5">
+    <row r="865" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A865" s="3"/>
       <c r="B865" s="3"/>
       <c r="E865" s="3"/>
     </row>
-    <row r="866" spans="1:5">
+    <row r="866" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A866" s="3"/>
       <c r="B866" s="3"/>
       <c r="E866" s="3"/>
     </row>
-    <row r="867" spans="1:5">
+    <row r="867" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A867" s="3"/>
       <c r="B867" s="3"/>
       <c r="E867" s="3"/>
     </row>
-    <row r="868" spans="1:5">
+    <row r="868" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A868" s="3"/>
       <c r="B868" s="3"/>
       <c r="E868" s="3"/>
     </row>
-    <row r="869" spans="1:5">
+    <row r="869" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A869" s="3"/>
       <c r="B869" s="3"/>
       <c r="E869" s="3"/>
     </row>
-    <row r="870" spans="1:5">
+    <row r="870" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A870" s="3"/>
       <c r="B870" s="3"/>
       <c r="E870" s="3"/>
     </row>
-    <row r="871" spans="1:5">
+    <row r="871" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A871" s="3"/>
       <c r="B871" s="3"/>
       <c r="E871" s="3"/>
     </row>
-    <row r="872" spans="1:5">
+    <row r="872" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A872" s="3"/>
       <c r="B872" s="3"/>
       <c r="E872" s="3"/>
     </row>
-    <row r="873" spans="1:5">
+    <row r="873" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A873" s="3"/>
       <c r="B873" s="3"/>
       <c r="E873" s="3"/>
     </row>
-    <row r="874" spans="1:5">
+    <row r="874" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A874" s="3"/>
       <c r="B874" s="3"/>
       <c r="E874" s="3"/>
     </row>
-    <row r="875" spans="1:5">
+    <row r="875" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A875" s="3"/>
       <c r="B875" s="3"/>
       <c r="E875" s="3"/>
     </row>
-    <row r="876" spans="1:5">
+    <row r="876" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A876" s="3"/>
       <c r="B876" s="3"/>
       <c r="E876" s="3"/>
     </row>
-    <row r="877" spans="1:5">
+    <row r="877" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A877" s="3"/>
       <c r="B877" s="3"/>
       <c r="E877" s="3"/>
     </row>
-    <row r="878" spans="1:5">
+    <row r="878" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A878" s="3"/>
       <c r="B878" s="3"/>
       <c r="E878" s="3"/>
     </row>
-    <row r="879" spans="1:5">
+    <row r="879" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A879" s="3"/>
       <c r="B879" s="3"/>
       <c r="E879" s="3"/>
     </row>
-    <row r="880" spans="1:5">
+    <row r="880" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A880" s="3"/>
       <c r="B880" s="3"/>
       <c r="E880" s="3"/>
     </row>
-    <row r="881" spans="1:5">
+    <row r="881" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A881" s="3"/>
       <c r="B881" s="3"/>
       <c r="E881" s="3"/>
     </row>
-    <row r="882" spans="1:5">
+    <row r="882" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A882" s="3"/>
       <c r="B882" s="3"/>
       <c r="E882" s="3"/>
     </row>
-    <row r="883" spans="1:5">
+    <row r="883" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A883" s="3"/>
       <c r="B883" s="3"/>
       <c r="E883" s="3"/>
     </row>
-    <row r="884" spans="1:5">
+    <row r="884" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A884" s="3"/>
       <c r="B884" s="3"/>
       <c r="E884" s="3"/>
     </row>
-    <row r="885" spans="1:5">
+    <row r="885" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A885" s="3"/>
       <c r="B885" s="3"/>
       <c r="E885" s="3"/>
     </row>
-    <row r="886" spans="1:5">
+    <row r="886" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A886" s="3"/>
       <c r="B886" s="3"/>
       <c r="E886" s="3"/>
     </row>
-    <row r="887" spans="1:5">
+    <row r="887" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A887" s="3"/>
       <c r="B887" s="3"/>
       <c r="E887" s="3"/>
     </row>
-    <row r="888" spans="1:5">
+    <row r="888" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A888" s="3"/>
       <c r="B888" s="3"/>
       <c r="E888" s="3"/>
     </row>
-    <row r="889" spans="1:5">
+    <row r="889" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A889" s="3"/>
       <c r="B889" s="3"/>
       <c r="E889" s="3"/>
     </row>
-    <row r="890" spans="1:5">
+    <row r="890" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A890" s="3"/>
       <c r="B890" s="3"/>
       <c r="E890" s="3"/>
     </row>
-    <row r="891" spans="1:5">
+    <row r="891" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A891" s="3"/>
       <c r="B891" s="3"/>
       <c r="E891" s="3"/>
     </row>
-    <row r="892" spans="1:5">
+    <row r="892" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A892" s="3"/>
       <c r="B892" s="3"/>
       <c r="E892" s="3"/>
     </row>
-    <row r="893" spans="1:5">
+    <row r="893" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A893" s="3"/>
       <c r="B893" s="3"/>
       <c r="E893" s="3"/>
     </row>
-    <row r="894" spans="1:5">
+    <row r="894" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A894" s="3"/>
       <c r="B894" s="3"/>
       <c r="E894" s="3"/>
     </row>
-    <row r="895" spans="1:5">
+    <row r="895" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A895" s="3"/>
       <c r="B895" s="3"/>
       <c r="E895" s="3"/>
     </row>
-    <row r="896" spans="1:5">
+    <row r="896" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A896" s="3"/>
       <c r="B896" s="3"/>
       <c r="E896" s="3"/>
     </row>
-    <row r="897" spans="1:5">
+    <row r="897" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A897" s="3"/>
       <c r="B897" s="3"/>
       <c r="E897" s="3"/>
     </row>
-    <row r="898" spans="1:5">
+    <row r="898" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A898" s="3"/>
       <c r="B898" s="3"/>
       <c r="E898" s="3"/>
     </row>
-    <row r="899" spans="1:5">
+    <row r="899" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A899" s="3"/>
       <c r="B899" s="3"/>
       <c r="E899" s="3"/>
     </row>
-    <row r="900" spans="1:5">
+    <row r="900" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A900" s="3"/>
       <c r="B900" s="3"/>
       <c r="E900" s="3"/>
     </row>
-    <row r="901" spans="1:5">
+    <row r="901" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A901" s="3"/>
       <c r="B901" s="3"/>
       <c r="E901" s="3"/>
     </row>
-    <row r="902" spans="1:5">
+    <row r="902" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A902" s="3"/>
       <c r="B902" s="3"/>
       <c r="E902" s="3"/>
     </row>
-    <row r="903" spans="1:5">
+    <row r="903" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A903" s="3"/>
       <c r="B903" s="3"/>
       <c r="E903" s="3"/>
     </row>
-    <row r="904" spans="1:5">
+    <row r="904" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A904" s="3"/>
       <c r="B904" s="3"/>
       <c r="E904" s="3"/>
     </row>
-    <row r="905" spans="1:5">
+    <row r="905" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A905" s="3"/>
       <c r="B905" s="3"/>
       <c r="E905" s="3"/>
     </row>
-    <row r="906" spans="1:5">
+    <row r="906" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A906" s="3"/>
       <c r="B906" s="3"/>
       <c r="E906" s="3"/>
     </row>
-    <row r="907" spans="1:5">
+    <row r="907" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A907" s="3"/>
       <c r="B907" s="3"/>
       <c r="E907" s="3"/>
     </row>
-    <row r="908" spans="1:5">
+    <row r="908" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A908" s="3"/>
       <c r="B908" s="3"/>
       <c r="E908" s="3"/>
     </row>
-    <row r="909" spans="1:5">
+    <row r="909" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A909" s="3"/>
       <c r="B909" s="3"/>
       <c r="E909" s="3"/>
     </row>
-    <row r="910" spans="1:5">
+    <row r="910" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A910" s="3"/>
       <c r="B910" s="3"/>
       <c r="E910" s="3"/>
     </row>
-    <row r="911" spans="1:5">
+    <row r="911" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A911" s="3"/>
       <c r="B911" s="3"/>
       <c r="E911" s="3"/>
     </row>
-    <row r="912" spans="1:5">
+    <row r="912" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A912" s="3"/>
       <c r="B912" s="3"/>
       <c r="E912" s="3"/>
     </row>
-    <row r="913" spans="1:5">
+    <row r="913" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A913" s="3"/>
       <c r="B913" s="3"/>
       <c r="E913" s="3"/>
     </row>
-    <row r="914" spans="1:5">
+    <row r="914" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A914" s="3"/>
       <c r="B914" s="3"/>
       <c r="E914" s="3"/>
     </row>
-    <row r="915" spans="1:5">
+    <row r="915" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A915" s="3"/>
       <c r="B915" s="3"/>
       <c r="E915" s="3"/>
     </row>
-    <row r="916" spans="1:5">
+    <row r="916" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A916" s="3"/>
       <c r="B916" s="3"/>
       <c r="E916" s="3"/>
     </row>
-    <row r="917" spans="1:5">
+    <row r="917" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A917" s="3"/>
       <c r="B917" s="3"/>
       <c r="E917" s="3"/>
     </row>
-    <row r="918" spans="1:5">
+    <row r="918" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A918" s="3"/>
       <c r="B918" s="3"/>
       <c r="E918" s="3"/>
     </row>
-    <row r="919" spans="1:5">
+    <row r="919" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A919" s="3"/>
       <c r="B919" s="3"/>
       <c r="E919" s="3"/>
     </row>
-    <row r="920" spans="1:5">
+    <row r="920" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A920" s="3"/>
       <c r="B920" s="3"/>
       <c r="E920" s="3"/>
     </row>
-    <row r="921" spans="1:5">
+    <row r="921" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A921" s="3"/>
       <c r="B921" s="3"/>
       <c r="E921" s="3"/>
     </row>
-    <row r="922" spans="1:5">
+    <row r="922" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A922" s="3"/>
       <c r="B922" s="3"/>
       <c r="E922" s="3"/>
     </row>
-    <row r="923" spans="1:5">
+    <row r="923" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A923" s="3"/>
       <c r="B923" s="3"/>
       <c r="E923" s="3"/>
     </row>
-    <row r="924" spans="1:5">
+    <row r="924" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A924" s="3"/>
       <c r="B924" s="3"/>
       <c r="E924" s="3"/>
     </row>
-    <row r="925" spans="1:5">
+    <row r="925" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A925" s="3"/>
       <c r="B925" s="3"/>
       <c r="E925" s="3"/>
     </row>
-    <row r="926" spans="1:5">
+    <row r="926" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A926" s="3"/>
       <c r="B926" s="3"/>
       <c r="E926" s="3"/>
     </row>
-    <row r="927" spans="1:5">
+    <row r="927" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A927" s="3"/>
       <c r="B927" s="3"/>
       <c r="E927" s="3"/>
     </row>
-    <row r="928" spans="1:5">
+    <row r="928" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A928" s="3"/>
       <c r="B928" s="3"/>
       <c r="E928" s="3"/>
     </row>
-    <row r="929" spans="1:5">
+    <row r="929" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A929" s="3"/>
       <c r="B929" s="3"/>
       <c r="E929" s="3"/>
     </row>
-    <row r="930" spans="1:5">
+    <row r="930" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A930" s="3"/>
       <c r="B930" s="3"/>
       <c r="E930" s="3"/>
     </row>
-    <row r="931" spans="1:5">
+    <row r="931" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A931" s="3"/>
       <c r="B931" s="3"/>
       <c r="E931" s="3"/>
     </row>
-    <row r="932" spans="1:5">
+    <row r="932" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A932" s="3"/>
       <c r="B932" s="3"/>
       <c r="E932" s="3"/>
     </row>
-    <row r="933" spans="1:5">
+    <row r="933" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A933" s="3"/>
       <c r="B933" s="3"/>
       <c r="E933" s="3"/>
     </row>
-    <row r="934" spans="1:5">
+    <row r="934" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A934" s="3"/>
       <c r="B934" s="3"/>
       <c r="E934" s="3"/>
     </row>
-    <row r="935" spans="1:5">
+    <row r="935" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A935" s="3"/>
       <c r="B935" s="3"/>
       <c r="E935" s="3"/>
     </row>
-    <row r="936" spans="1:5">
+    <row r="936" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A936" s="3"/>
       <c r="B936" s="3"/>
       <c r="E936" s="3"/>
     </row>
-    <row r="937" spans="1:5">
+    <row r="937" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A937" s="3"/>
       <c r="B937" s="3"/>
       <c r="E937" s="3"/>
     </row>
-    <row r="938" spans="1:5">
+    <row r="938" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A938" s="3"/>
       <c r="B938" s="3"/>
       <c r="E938" s="3"/>
     </row>
-    <row r="939" spans="1:5">
+    <row r="939" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A939" s="3"/>
       <c r="B939" s="3"/>
       <c r="E939" s="3"/>
     </row>
-    <row r="940" spans="1:5">
+    <row r="940" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A940" s="3"/>
       <c r="B940" s="3"/>
       <c r="E940" s="3"/>
     </row>
-    <row r="941" spans="1:5">
+    <row r="941" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A941" s="3"/>
       <c r="B941" s="3"/>
       <c r="E941" s="3"/>
     </row>
-    <row r="942" spans="1:5">
+    <row r="942" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A942" s="3"/>
       <c r="B942" s="3"/>
       <c r="E942" s="3"/>
     </row>
-    <row r="943" spans="1:5">
+    <row r="943" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A943" s="3"/>
       <c r="B943" s="3"/>
       <c r="E943" s="3"/>
     </row>
-    <row r="944" spans="1:5">
+    <row r="944" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A944" s="3"/>
       <c r="B944" s="3"/>
       <c r="E944" s="3"/>
     </row>
-    <row r="945" spans="1:5">
+    <row r="945" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A945" s="3"/>
       <c r="B945" s="3"/>
       <c r="E945" s="3"/>
     </row>
-    <row r="946" spans="1:5">
+    <row r="946" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A946" s="3"/>
       <c r="B946" s="3"/>
       <c r="E946" s="3"/>
     </row>
-    <row r="947" spans="1:5">
+    <row r="947" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A947" s="3"/>
       <c r="B947" s="3"/>
       <c r="E947" s="3"/>
     </row>
-    <row r="948" spans="1:5">
+    <row r="948" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A948" s="3"/>
       <c r="B948" s="3"/>
       <c r="E948" s="3"/>
     </row>
-    <row r="949" spans="1:5">
+    <row r="949" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A949" s="3"/>
       <c r="B949" s="3"/>
       <c r="E949" s="3"/>
     </row>
-    <row r="950" spans="1:5">
+    <row r="950" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A950" s="3"/>
       <c r="B950" s="3"/>
       <c r="E950" s="3"/>
     </row>
-    <row r="951" spans="1:5">
+    <row r="951" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A951" s="3"/>
       <c r="B951" s="3"/>
       <c r="E951" s="3"/>
     </row>
-    <row r="952" spans="1:5">
+    <row r="952" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A952" s="3"/>
       <c r="B952" s="3"/>
       <c r="E952" s="3"/>
     </row>
-    <row r="953" spans="1:5">
+    <row r="953" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A953" s="3"/>
       <c r="B953" s="3"/>
       <c r="E953" s="3"/>
     </row>
-    <row r="954" spans="1:5">
+    <row r="954" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A954" s="3"/>
       <c r="B954" s="3"/>
       <c r="E954" s="3"/>
     </row>
-    <row r="955" spans="1:5">
+    <row r="955" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A955" s="3"/>
       <c r="B955" s="3"/>
       <c r="E955" s="3"/>
     </row>
-    <row r="956" spans="1:5">
+    <row r="956" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A956" s="3"/>
       <c r="B956" s="3"/>
       <c r="E956" s="3"/>
     </row>
-    <row r="957" spans="1:5">
+    <row r="957" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A957" s="3"/>
       <c r="B957" s="3"/>
       <c r="E957" s="3"/>
     </row>
-    <row r="958" spans="1:5">
+    <row r="958" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A958" s="3"/>
       <c r="B958" s="3"/>
       <c r="E958" s="3"/>
     </row>
-    <row r="959" spans="1:5">
+    <row r="959" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A959" s="3"/>
       <c r="B959" s="3"/>
       <c r="E959" s="3"/>
     </row>
-    <row r="960" spans="1:5">
+    <row r="960" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A960" s="3"/>
       <c r="B960" s="3"/>
       <c r="E960" s="3"/>
     </row>
-    <row r="961" spans="1:5">
+    <row r="961" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A961" s="3"/>
       <c r="B961" s="3"/>
       <c r="E961" s="3"/>
     </row>
-    <row r="962" spans="1:5">
+    <row r="962" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A962" s="3"/>
       <c r="B962" s="3"/>
       <c r="E962" s="3"/>
     </row>
-    <row r="963" spans="1:5">
+    <row r="963" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A963" s="3"/>
       <c r="B963" s="3"/>
       <c r="E963" s="3"/>
     </row>
-    <row r="964" spans="1:5">
+    <row r="964" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A964" s="3"/>
       <c r="B964" s="3"/>
       <c r="E964" s="3"/>
     </row>
-    <row r="965" spans="1:5">
+    <row r="965" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A965" s="3"/>
       <c r="B965" s="3"/>
       <c r="E965" s="3"/>
     </row>
-    <row r="966" spans="1:5">
+    <row r="966" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A966" s="3"/>
       <c r="B966" s="3"/>
       <c r="E966" s="3"/>
     </row>
-    <row r="967" spans="1:5">
+    <row r="967" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A967" s="3"/>
       <c r="B967" s="3"/>
       <c r="E967" s="3"/>
     </row>
-    <row r="968" spans="1:5">
+    <row r="968" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A968" s="3"/>
       <c r="B968" s="3"/>
       <c r="E968" s="3"/>
     </row>
-    <row r="969" spans="1:5">
+    <row r="969" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A969" s="3"/>
       <c r="B969" s="3"/>
       <c r="E969" s="3"/>
     </row>
-    <row r="970" spans="1:5">
+    <row r="970" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A970" s="3"/>
       <c r="B970" s="3"/>
       <c r="E970" s="3"/>
     </row>
-    <row r="971" spans="1:5">
+    <row r="971" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A971" s="3"/>
       <c r="B971" s="3"/>
       <c r="E971" s="3"/>
     </row>
-    <row r="972" spans="1:5">
+    <row r="972" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A972" s="3"/>
       <c r="B972" s="3"/>
       <c r="E972" s="3"/>
     </row>
-    <row r="973" spans="1:5">
+    <row r="973" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A973" s="3"/>
       <c r="B973" s="3"/>
       <c r="E973" s="3"/>
     </row>
-    <row r="974" spans="1:5">
+    <row r="974" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A974" s="3"/>
       <c r="B974" s="3"/>
       <c r="E974" s="3"/>
     </row>
-    <row r="975" spans="1:5">
+    <row r="975" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A975" s="3"/>
       <c r="B975" s="3"/>
       <c r="E975" s="3"/>
     </row>
-    <row r="976" spans="1:5">
+    <row r="976" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A976" s="3"/>
       <c r="B976" s="3"/>
       <c r="E976" s="3"/>
     </row>
-    <row r="977" spans="1:5">
+    <row r="977" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A977" s="3"/>
       <c r="B977" s="3"/>
       <c r="E977" s="3"/>
     </row>
-    <row r="978" spans="1:5">
+    <row r="978" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A978" s="3"/>
       <c r="B978" s="3"/>
       <c r="E978" s="3"/>
     </row>
-    <row r="979" spans="1:5">
+    <row r="979" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A979" s="3"/>
       <c r="B979" s="3"/>
       <c r="E979" s="3"/>
     </row>
-    <row r="980" spans="1:5">
+    <row r="980" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A980" s="3"/>
       <c r="B980" s="3"/>
       <c r="E980" s="3"/>
     </row>
-    <row r="981" spans="1:5">
+    <row r="981" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A981" s="3"/>
       <c r="B981" s="3"/>
       <c r="E981" s="3"/>
     </row>
-    <row r="982" spans="1:5">
+    <row r="982" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A982" s="3"/>
       <c r="B982" s="3"/>
       <c r="E982" s="3"/>
     </row>
-    <row r="983" spans="1:5">
+    <row r="983" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A983" s="3"/>
       <c r="B983" s="3"/>
       <c r="E983" s="3"/>
     </row>
-    <row r="984" spans="1:5">
+    <row r="984" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A984" s="3"/>
       <c r="B984" s="3"/>
       <c r="E984" s="3"/>
     </row>
-    <row r="985" spans="1:5">
+    <row r="985" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A985" s="3"/>
       <c r="B985" s="3"/>
       <c r="E985" s="3"/>
     </row>
-    <row r="986" spans="1:5">
+    <row r="986" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A986" s="3"/>
       <c r="B986" s="3"/>
       <c r="E986" s="3"/>
     </row>
-    <row r="987" spans="1:5">
+    <row r="987" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A987" s="3"/>
       <c r="B987" s="3"/>
       <c r="E987" s="3"/>
     </row>
-    <row r="988" spans="1:5">
+    <row r="988" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A988" s="3"/>
       <c r="B988" s="3"/>
       <c r="E988" s="3"/>
     </row>
-    <row r="989" spans="1:5">
+    <row r="989" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A989" s="3"/>
       <c r="B989" s="3"/>
       <c r="E989" s="3"/>
     </row>
-    <row r="990" spans="1:5">
+    <row r="990" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A990" s="3"/>
       <c r="B990" s="3"/>
       <c r="E990" s="3"/>
     </row>
-    <row r="991" spans="1:5">
+    <row r="991" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A991" s="3"/>
       <c r="B991" s="3"/>
       <c r="E991" s="3"/>
     </row>
-    <row r="992" spans="1:5">
+    <row r="992" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A992" s="3"/>
       <c r="B992" s="3"/>
       <c r="E992" s="3"/>
     </row>
-    <row r="993" spans="1:5">
+    <row r="993" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A993" s="3"/>
       <c r="B993" s="3"/>
       <c r="E993" s="3"/>
     </row>
-    <row r="994" spans="1:5">
+    <row r="994" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A994" s="3"/>
       <c r="B994" s="3"/>
       <c r="E994" s="3"/>
     </row>
-    <row r="995" spans="1:5">
+    <row r="995" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A995" s="3"/>
       <c r="B995" s="3"/>
       <c r="E995" s="3"/>
     </row>
-    <row r="996" spans="1:5">
+    <row r="996" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A996" s="3"/>
       <c r="B996" s="3"/>
       <c r="E996" s="3"/>
     </row>
-    <row r="997" spans="1:5">
+    <row r="997" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A997" s="3"/>
       <c r="B997" s="3"/>
       <c r="E997" s="3"/>
     </row>
-    <row r="998" spans="1:5">
+    <row r="998" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A998" s="3"/>
       <c r="B998" s="3"/>
       <c r="E998" s="3"/>
     </row>
-    <row r="999" spans="1:5">
+    <row r="999" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A999" s="3"/>
       <c r="B999" s="3"/>
       <c r="E999" s="3"/>
     </row>
-    <row r="1000" spans="1:5">
+    <row r="1000" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1000" s="3"/>
       <c r="B1000" s="3"/>
       <c r="E1000" s="3"/>
@@ -6180,24 +6184,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A30"/>
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="13" customFormat="1">
+    <row r="1" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
@@ -6240,8 +6246,11 @@
       <c r="N1" s="32" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="32" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
@@ -6284,8 +6293,11 @@
       <c r="N2" s="5">
         <v>43.75</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2" s="5">
+        <v>44.15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>15</v>
       </c>
@@ -6328,8 +6340,11 @@
       <c r="N3" s="5">
         <v>66.900000000000006</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3" s="5">
+        <v>66.55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>16</v>
       </c>
@@ -6372,8 +6387,11 @@
       <c r="N4" s="5">
         <v>262.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4" s="5">
+        <v>258.39999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>17</v>
       </c>
@@ -6416,8 +6434,11 @@
       <c r="N5" s="5">
         <v>70.75</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5" s="5">
+        <v>70.400000000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>18</v>
       </c>
@@ -6460,8 +6481,11 @@
       <c r="N6" s="5">
         <v>91.65</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6" s="5">
+        <v>96.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>19</v>
       </c>
@@ -6504,8 +6528,11 @@
       <c r="N7" s="5">
         <v>102.9</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7" s="5">
+        <v>105.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>20</v>
       </c>
@@ -6548,8 +6575,11 @@
       <c r="N8" s="5">
         <v>122.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8" s="5">
+        <v>121.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>21</v>
       </c>
@@ -6592,8 +6622,11 @@
       <c r="N9" s="5">
         <v>144.9</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9" s="5">
+        <v>145.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>22</v>
       </c>
@@ -6636,8 +6669,11 @@
       <c r="N10" s="5">
         <v>128.55000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10" s="5">
+        <v>124.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>23</v>
       </c>
@@ -6680,8 +6716,11 @@
       <c r="N11" s="5">
         <v>719.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11" s="5">
+        <v>676.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>24</v>
       </c>
@@ -6724,8 +6763,11 @@
       <c r="N12" s="5">
         <v>136.75</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12" s="5">
+        <v>140.80000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>25</v>
       </c>
@@ -6768,8 +6810,11 @@
       <c r="N13" s="5">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13" s="5">
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>26</v>
       </c>
@@ -6812,8 +6857,11 @@
       <c r="N14" s="5">
         <v>83.3</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14" s="5">
+        <v>82.95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>27</v>
       </c>
@@ -6856,8 +6904,11 @@
       <c r="N15" s="5">
         <v>55.15</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15" s="5">
+        <v>58.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>28</v>
       </c>
@@ -6900,8 +6951,11 @@
       <c r="N16" s="5">
         <v>33.799999999999997</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16" s="5">
+        <v>32.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>29</v>
       </c>
@@ -6944,8 +6998,11 @@
       <c r="N17" s="5">
         <v>62.4</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17" s="5">
+        <v>63.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>30</v>
       </c>
@@ -6988,8 +7045,11 @@
       <c r="N18" s="5">
         <v>27.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18" s="5">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>31</v>
       </c>
@@ -7030,8 +7090,11 @@
       <c r="N19" s="5">
         <v>26.55</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19" s="5">
+        <v>24.75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>32</v>
       </c>
@@ -7072,8 +7135,11 @@
       <c r="N20" s="5">
         <v>613</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20" s="5">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>33</v>
       </c>
@@ -7114,8 +7180,11 @@
       <c r="N21" s="5">
         <v>58.35</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21" s="5">
+        <v>58.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>34</v>
       </c>
@@ -7156,8 +7225,11 @@
       <c r="N22" s="5">
         <v>37.450000000000003</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22" s="5">
+        <v>37.049999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>11</v>
       </c>
@@ -7198,8 +7270,11 @@
       <c r="N23" s="5">
         <v>552.20000000000005</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23" s="5">
+        <v>552.79999999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>61</v>
       </c>
@@ -7228,20 +7303,23 @@
       <c r="J24" s="5">
         <v>333</v>
       </c>
-      <c r="K24" s="33">
+      <c r="K24" s="17">
         <v>323.25</v>
       </c>
-      <c r="L24" s="33">
+      <c r="L24" s="17">
         <v>284.7</v>
       </c>
-      <c r="M24" s="5">
+      <c r="M24" s="17">
         <v>290</v>
       </c>
       <c r="N24" s="5">
         <v>288.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24" s="5">
+        <v>291.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>62</v>
       </c>
@@ -7282,8 +7360,11 @@
       <c r="N25" s="5">
         <v>537</v>
       </c>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="O25" s="5">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>75</v>
       </c>
@@ -7324,8 +7405,11 @@
       <c r="N26" s="5">
         <v>180.5</v>
       </c>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="O26" s="5">
+        <v>189.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>84</v>
       </c>
@@ -7350,8 +7434,11 @@
       <c r="N27" s="5">
         <v>438.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:14">
+      <c r="O27" s="5">
+        <v>437.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>157</v>
       </c>
@@ -7372,8 +7459,11 @@
       <c r="N28" s="5">
         <v>744.65</v>
       </c>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="O28" s="5">
+        <v>751.95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>160</v>
       </c>
@@ -7391,11 +7481,14 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
-      <c r="N29" s="36">
+      <c r="N29" s="35">
         <v>1584</v>
       </c>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="O29" s="35">
+        <v>1602.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>162</v>
       </c>
@@ -7416,6 +7509,32 @@
       <c r="N30" s="5">
         <v>411</v>
       </c>
+      <c r="O30" s="5">
+        <v>427.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5">
+        <v>123.15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7424,14 +7543,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="17.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.85546875" style="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="19" bestFit="1" customWidth="1"/>
@@ -7452,7 +7571,7 @@
     <col min="18" max="16384" width="17.85546875" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>63</v>
       </c>
@@ -7487,7 +7606,7 @@
       </c>
       <c r="Q1" s="5"/>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>64</v>
       </c>
@@ -7527,7 +7646,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>64</v>
       </c>
@@ -7568,7 +7687,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>106</v>
       </c>
@@ -7609,7 +7728,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>65</v>
       </c>
@@ -7644,7 +7763,7 @@
         <v>1250000</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>38</v>
       </c>
@@ -7686,7 +7805,7 @@
         <v>62500</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>36</v>
       </c>
@@ -7714,7 +7833,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>37</v>
       </c>
@@ -7742,7 +7861,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>5</v>
       </c>
@@ -7769,7 +7888,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G10" s="9" t="s">
         <v>82</v>
       </c>
@@ -7787,7 +7906,7 @@
       </c>
       <c r="N10" s="5"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G11" s="9" t="s">
         <v>83</v>
       </c>
@@ -7807,7 +7926,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G12" s="9" t="s">
         <v>86</v>
       </c>
@@ -7827,7 +7946,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G13" s="9" t="s">
         <v>5</v>
       </c>
@@ -7841,7 +7960,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D14" s="24"/>
       <c r="J14" s="15" t="s">
         <v>96</v>
@@ -7850,7 +7969,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D15" s="24"/>
       <c r="J15" s="15" t="s">
         <v>97</v>
@@ -7859,7 +7978,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D16" s="24"/>
       <c r="J16" s="15" t="s">
         <v>98</v>
@@ -7868,7 +7987,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="17" spans="4:11">
+    <row r="17" spans="4:11" x14ac:dyDescent="0.25">
       <c r="J17" s="15" t="s">
         <v>88</v>
       </c>
@@ -7876,7 +7995,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="4:11">
+    <row r="18" spans="4:11" x14ac:dyDescent="0.25">
       <c r="J18" s="15" t="s">
         <v>99</v>
       </c>
@@ -7884,7 +8003,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="19" spans="4:11">
+    <row r="19" spans="4:11" x14ac:dyDescent="0.25">
       <c r="J19" s="15" t="s">
         <v>100</v>
       </c>
@@ -7892,7 +8011,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="20" spans="4:11">
+    <row r="20" spans="4:11" x14ac:dyDescent="0.25">
       <c r="J20" s="15" t="s">
         <v>38</v>
       </c>
@@ -7900,7 +8019,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="21" spans="4:11">
+    <row r="21" spans="4:11" x14ac:dyDescent="0.25">
       <c r="J21" s="15" t="s">
         <v>101</v>
       </c>
@@ -7908,7 +8027,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="22" spans="4:11">
+    <row r="22" spans="4:11" x14ac:dyDescent="0.25">
       <c r="J22" s="15" t="s">
         <v>102</v>
       </c>
@@ -7916,7 +8035,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="23" spans="4:11">
+    <row r="23" spans="4:11" x14ac:dyDescent="0.25">
       <c r="J23" s="15" t="s">
         <v>103</v>
       </c>
@@ -7924,7 +8043,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="24" spans="4:11">
+    <row r="24" spans="4:11" x14ac:dyDescent="0.25">
       <c r="J24" s="15" t="s">
         <v>104</v>
       </c>
@@ -7932,7 +8051,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="25" spans="4:11">
+    <row r="25" spans="4:11" x14ac:dyDescent="0.25">
       <c r="J25" s="15" t="s">
         <v>105</v>
       </c>
@@ -7940,7 +8059,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="26" spans="4:11">
+    <row r="26" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D26" s="23"/>
       <c r="J26" s="15" t="s">
         <v>111</v>
@@ -7956,14 +8075,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -7975,7 +8094,7 @@
     <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>124</v>
       </c>
@@ -8002,22 +8121,22 @@
       </c>
       <c r="I1">
         <f>SUM(H2:H200)</f>
-        <v>172.20000000000005</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1">
+        <v>180.10000000000002</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>61</v>
       </c>
       <c r="B2" s="5">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="C2" s="5">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D2" s="5">
         <f t="shared" ref="D2:D7" si="0">B2*C2</f>
-        <v>290</v>
+        <v>6216</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -8033,7 +8152,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>130</v>
       </c>
@@ -8068,7 +8187,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>131</v>
       </c>
@@ -8096,8 +8215,14 @@
         <f t="shared" si="2"/>
         <v>46.200000000000045</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1">
+      <c r="J4">
+        <v>180</v>
+      </c>
+      <c r="K4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>133</v>
       </c>
@@ -8126,7 +8251,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1">
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>134</v>
       </c>
@@ -8148,7 +8273,7 @@
       </c>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>142</v>
       </c>
@@ -8172,8 +8297,8 @@
       </c>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1">
-      <c r="A8" s="34" t="s">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="33" t="s">
         <v>156</v>
       </c>
       <c r="B8" s="5">
@@ -8194,7 +8319,7 @@
       </c>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>159</v>
       </c>
@@ -8216,7 +8341,7 @@
       </c>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>161</v>
       </c>
@@ -8238,7 +8363,7 @@
       </c>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>162</v>
       </c>
@@ -8252,21 +8377,34 @@
         <f t="shared" si="3"/>
         <v>410.1</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="E11" s="5">
+        <v>418</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1</v>
+      </c>
       <c r="G11" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
+        <v>418</v>
+      </c>
+      <c r="H11" s="5">
+        <f t="shared" ref="H11" si="4">G11-D11</f>
+        <v>7.8999999999999773</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B12" s="5">
+        <v>121</v>
+      </c>
+      <c r="C12" s="5">
+        <v>35</v>
+      </c>
       <c r="D12" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4235</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -8276,13 +8414,19 @@
       </c>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" s="5">
+        <v>200.25</v>
+      </c>
+      <c r="C13" s="5">
+        <v>25</v>
+      </c>
       <c r="D13" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5006.25</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -8292,7 +8436,7 @@
       </c>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1">
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -8308,7 +8452,7 @@
       </c>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1">
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -8324,7 +8468,7 @@
       </c>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1">
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -8340,7 +8484,7 @@
       </c>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -8356,7 +8500,7 @@
       </c>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -8369,7 +8513,7 @@
       </c>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -8379,7 +8523,7 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -8389,7 +8533,7 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -8399,7 +8543,7 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -8409,7 +8553,7 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1">
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -8419,7 +8563,7 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1">
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -8429,7 +8573,7 @@
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1">
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -8446,14 +8590,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -8461,21 +8605,21 @@
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>135</v>
       </c>
       <c r="B2" s="5">
         <v>36.5</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="33" t="s">
         <v>152</v>
       </c>
       <c r="E2" s="5">
         <v>41.5</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>136</v>
       </c>
@@ -8489,7 +8633,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>137</v>
       </c>
@@ -8505,7 +8649,7 @@
         <v>0.20750000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>138</v>
       </c>
@@ -8519,7 +8663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>139</v>
       </c>
@@ -8535,7 +8679,7 @@
         <v>0.20750000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>140</v>
       </c>
@@ -8551,7 +8695,7 @@
         <v>41.292499999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>144</v>
       </c>
@@ -8567,7 +8711,7 @@
         <v>41.29</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>141</v>
       </c>
@@ -8581,7 +8725,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>143</v>
       </c>
@@ -8597,7 +8741,7 @@
         <v>3.7350000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>145</v>
       </c>
@@ -8611,7 +8755,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>146</v>
       </c>
@@ -8627,7 +8771,7 @@
         <v>4.129E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>147</v>
       </c>
@@ -8641,7 +8785,7 @@
         <v>3.2499999999999997E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>148</v>
       </c>
@@ -8657,29 +8801,29 @@
         <v>1.3419249999999999E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="34" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="B15" s="35">
+      <c r="B15" s="34">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="E15" s="35">
+      <c r="E15" s="34">
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="34" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="33" t="s">
         <v>150</v>
       </c>
       <c r="B16" s="5">
         <f>B8*B15</f>
         <v>7.3360000000000005E-3</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="33" t="s">
         <v>150</v>
       </c>
       <c r="E16" s="5">
@@ -8687,15 +8831,15 @@
         <v>8.2579999999999997E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="34" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="33" t="s">
         <v>154</v>
       </c>
       <c r="B17" s="5">
         <f>B10+B12+B14+B16</f>
         <v>7.8058099999999991E-2</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="33" t="s">
         <v>154</v>
       </c>
       <c r="E17" s="5">
@@ -8703,15 +8847,15 @@
         <v>8.8239924999999997E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="34" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="33" t="s">
         <v>151</v>
       </c>
       <c r="B18" s="5">
         <f>B8+B17</f>
         <v>36.7580581</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="33" t="s">
         <v>153</v>
       </c>
       <c r="E18" s="5">

--- a/documents/Home.xlsx
+++ b/documents/Home.xlsx
@@ -12,13 +12,14 @@
     <sheet name="Need" sheetId="6" r:id="rId3"/>
     <sheet name="Profit" sheetId="7" r:id="rId4"/>
     <sheet name="Actual Price Calculator" sheetId="8" r:id="rId5"/>
+    <sheet name="Spent" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="168">
   <si>
     <t>Date</t>
   </si>
@@ -59,9 +60,6 @@
     <t>Share Name</t>
   </si>
   <si>
-    <t>15/04/2015</t>
-  </si>
-  <si>
     <t>Reliance power</t>
   </si>
   <si>
@@ -383,12 +381,6 @@
     <t>Total Daily Investment</t>
   </si>
   <si>
-    <t>17/7/2017</t>
-  </si>
-  <si>
-    <t>18/07/2017</t>
-  </si>
-  <si>
     <t>Profit</t>
   </si>
   <si>
@@ -509,13 +501,28 @@
     <t>BHARTIARTL</t>
   </si>
   <si>
-    <t>24/07/2017</t>
-  </si>
-  <si>
     <t>24/7/2017</t>
   </si>
   <si>
     <t>MRPL</t>
+  </si>
+  <si>
+    <t>25/07/2017</t>
+  </si>
+  <si>
+    <t>26/07/2017</t>
+  </si>
+  <si>
+    <t>Cement</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>27/07/2017</t>
+  </si>
+  <si>
+    <t>HATHWAY</t>
   </si>
 </sst>
 </file>
@@ -525,7 +532,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -561,12 +568,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
@@ -648,7 +649,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -657,21 +658,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -679,7 +676,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -687,10 +684,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1009,17 +1007,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2"/>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="25"/>
+      <c r="E1" s="23"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -1043,16 +1041,16 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="26">
+      <c r="A2" s="24">
         <v>42190</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B2" s="23">
         <v>20000</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="27" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -1073,16 +1071,16 @@
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="26">
+      <c r="A3" s="24">
         <v>42192</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="23">
         <v>10000</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="27" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -1102,179 +1100,179 @@
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="26">
+      <c r="A4" s="24">
         <v>42229</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="23">
         <v>25000</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="26">
+      <c r="A5" s="24">
         <v>42230</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="23">
         <v>15500</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="29"/>
+      <c r="E5" s="27"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="26">
+      <c r="A6" s="24">
         <v>42255</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="23">
         <v>30000</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="26">
+      <c r="A7" s="24">
         <v>42262</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="23">
         <v>25000</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="26">
+      <c r="A8" s="24">
         <v>42282</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="23">
         <v>30000</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="26">
+      <c r="A9" s="24">
         <v>42299</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="23">
         <v>30000</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="26">
+      <c r="A10" s="24">
         <v>42373</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="23">
         <v>15000</v>
       </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="26">
+      <c r="A11" s="24">
         <v>42553</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="23">
         <v>30000</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="26">
+      <c r="A12" s="24">
         <v>42640</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="23">
         <v>12000</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="27">
+      <c r="A13" s="25">
         <v>42768</v>
       </c>
-      <c r="B13" s="25">
+      <c r="B13" s="23">
         <v>10000</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="27">
+      <c r="A14" s="25">
         <v>42796</v>
       </c>
-      <c r="B14" s="25">
+      <c r="B14" s="23">
         <v>10000</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="27">
+      <c r="A15" s="25">
         <v>42829</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B15" s="23">
         <v>10000</v>
       </c>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="28">
+      <c r="A16" s="26">
         <v>42856</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B16" s="23">
         <v>10000</v>
       </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="28">
+      <c r="A17" s="26">
         <v>42887</v>
       </c>
-      <c r="B17" s="25">
+      <c r="B17" s="23">
         <v>10000</v>
       </c>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="28">
+      <c r="A18" s="26">
         <v>42917</v>
       </c>
-      <c r="B18" s="25">
+      <c r="B18" s="23">
         <v>20000</v>
       </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="25"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="23"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" s="25"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="23"/>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="25"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="23"/>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
-      <c r="B22" s="25"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="23"/>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" s="25"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="23"/>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
       <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="25">
+      <c r="B25" s="23">
         <f>SUM(B2:B24)</f>
         <v>312500</v>
       </c>
@@ -6185,1356 +6183,876 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="14">
+        <v>42921</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="5">
+        <v>42.45</v>
+      </c>
+      <c r="D2" s="5">
+        <v>43.75</v>
+      </c>
+      <c r="E2" s="5">
+        <v>44.15</v>
+      </c>
+      <c r="F2" s="5">
+        <v>44.45</v>
+      </c>
+      <c r="G2" s="31">
+        <v>45.1</v>
+      </c>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="5">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="D3" s="5">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="E3" s="5">
+        <v>66.55</v>
+      </c>
+      <c r="F3" s="5">
+        <v>68</v>
+      </c>
+      <c r="G3" s="31">
+        <v>67.5</v>
+      </c>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="5">
+        <v>247.3</v>
+      </c>
+      <c r="D4" s="5">
+        <v>262.5</v>
+      </c>
+      <c r="E4" s="5">
+        <v>258.39999999999998</v>
+      </c>
+      <c r="F4" s="5">
+        <v>260.5</v>
+      </c>
+      <c r="G4" s="31">
+        <v>255.5</v>
+      </c>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="5">
+        <v>67.3</v>
+      </c>
+      <c r="D5" s="5">
+        <v>70.75</v>
+      </c>
+      <c r="E5" s="5">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="F5" s="5">
+        <v>70.95</v>
+      </c>
+      <c r="G5" s="31">
+        <v>70.150000000000006</v>
+      </c>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="5">
+        <v>83.3</v>
+      </c>
+      <c r="D6" s="5">
+        <v>91.65</v>
+      </c>
+      <c r="E6" s="5">
+        <v>96.9</v>
+      </c>
+      <c r="F6" s="5">
+        <v>95.5</v>
+      </c>
+      <c r="G6" s="31">
+        <v>92.35</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="5">
+        <v>102.05</v>
+      </c>
+      <c r="D7" s="5">
+        <v>102.9</v>
+      </c>
+      <c r="E7" s="5">
+        <v>105.1</v>
+      </c>
+      <c r="F7" s="5">
+        <v>106.1</v>
+      </c>
+      <c r="G7" s="31">
+        <v>105.35</v>
+      </c>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="5">
+        <v>111.1</v>
+      </c>
+      <c r="D8" s="5">
+        <v>122.8</v>
+      </c>
+      <c r="E8" s="5">
+        <v>121.3</v>
+      </c>
+      <c r="F8" s="5">
+        <v>124</v>
+      </c>
+      <c r="G8" s="31">
+        <v>122.5</v>
+      </c>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="5">
+        <v>134.15</v>
+      </c>
+      <c r="D9" s="5">
+        <v>144.9</v>
+      </c>
+      <c r="E9" s="5">
+        <v>145.4</v>
+      </c>
+      <c r="F9" s="5">
+        <v>143.94999999999999</v>
+      </c>
+      <c r="G9" s="31">
+        <v>142.5</v>
+      </c>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="5">
+        <v>124</v>
+      </c>
+      <c r="D10" s="5">
+        <v>128.55000000000001</v>
+      </c>
+      <c r="E10" s="5">
+        <v>124.6</v>
+      </c>
+      <c r="F10" s="5">
+        <v>123.1</v>
+      </c>
+      <c r="G10" s="31">
+        <v>121.85</v>
+      </c>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="5">
+        <v>657.75</v>
+      </c>
+      <c r="D11" s="5">
+        <v>719.5</v>
+      </c>
+      <c r="E11" s="5">
+        <v>676.5</v>
+      </c>
+      <c r="F11" s="5">
+        <v>680.4</v>
+      </c>
+      <c r="G11" s="31">
+        <v>660</v>
+      </c>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="5">
+        <v>131.25</v>
+      </c>
+      <c r="D12" s="5">
+        <v>136.75</v>
+      </c>
+      <c r="E12" s="5">
+        <v>140.80000000000001</v>
+      </c>
+      <c r="F12" s="5">
+        <v>151.19999999999999</v>
+      </c>
+      <c r="G12" s="31">
+        <v>152.55000000000001</v>
+      </c>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="5">
+        <v>18.95</v>
+      </c>
+      <c r="D13" s="5">
+        <v>18</v>
+      </c>
+      <c r="E13" s="5">
+        <v>18.75</v>
+      </c>
+      <c r="F13" s="5">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="G13" s="31">
+        <v>19.350000000000001</v>
+      </c>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="5">
+        <v>81.650000000000006</v>
+      </c>
+      <c r="D14" s="5">
+        <v>83.3</v>
+      </c>
+      <c r="E14" s="5">
+        <v>82.95</v>
+      </c>
+      <c r="F14" s="5">
+        <v>82.55</v>
+      </c>
+      <c r="G14" s="31">
+        <v>82.1</v>
+      </c>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="5">
+        <v>52.8</v>
+      </c>
+      <c r="D15" s="5">
+        <v>55.15</v>
+      </c>
+      <c r="E15" s="5">
+        <v>58.1</v>
+      </c>
+      <c r="F15" s="5">
+        <v>58.7</v>
+      </c>
+      <c r="G15" s="31">
+        <v>56.45</v>
+      </c>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="5">
+        <v>36.35</v>
+      </c>
+      <c r="D16" s="5">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="E16" s="5">
+        <v>32.9</v>
+      </c>
+      <c r="F16" s="5">
+        <v>34.4</v>
+      </c>
+      <c r="G16" s="31">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="5">
+        <v>59.8</v>
+      </c>
+      <c r="D17" s="5">
+        <v>62.4</v>
+      </c>
+      <c r="E17" s="5">
+        <v>63.4</v>
+      </c>
+      <c r="F17" s="5">
+        <v>64</v>
+      </c>
+      <c r="G17" s="31">
+        <v>63.3</v>
+      </c>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="5">
+        <v>25.55</v>
+      </c>
+      <c r="D18" s="5">
+        <v>27.5</v>
+      </c>
+      <c r="E18" s="5">
+        <v>27.2</v>
+      </c>
+      <c r="F18" s="5">
+        <v>26.85</v>
+      </c>
+      <c r="G18" s="31">
+        <v>27.25</v>
+      </c>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="5">
+        <v>24.4</v>
+      </c>
+      <c r="D19" s="5">
+        <v>26.55</v>
+      </c>
+      <c r="E19" s="5">
+        <v>24.75</v>
+      </c>
+      <c r="F19" s="5">
+        <v>25.6</v>
+      </c>
+      <c r="G19" s="31">
+        <v>24.9</v>
+      </c>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="5">
+        <v>577.5</v>
+      </c>
+      <c r="D20" s="5">
+        <v>613</v>
+      </c>
+      <c r="E20" s="5">
+        <v>611</v>
+      </c>
+      <c r="F20" s="5">
+        <v>608</v>
+      </c>
+      <c r="G20" s="31">
+        <v>600</v>
+      </c>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="5">
+        <v>60.55</v>
+      </c>
+      <c r="D21" s="5">
+        <v>58.35</v>
+      </c>
+      <c r="E21" s="5">
+        <v>58.4</v>
+      </c>
+      <c r="F21" s="5">
+        <v>58.5</v>
+      </c>
+      <c r="G21" s="31">
+        <v>57.6</v>
+      </c>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="5">
+        <v>25.7</v>
+      </c>
+      <c r="D22" s="5">
+        <v>37.450000000000003</v>
+      </c>
+      <c r="E22" s="5">
+        <v>37.049999999999997</v>
+      </c>
+      <c r="F22" s="5">
+        <v>36.65</v>
+      </c>
+      <c r="G22" s="31">
+        <v>34.85</v>
+      </c>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="5">
+        <v>550.29999999999995</v>
+      </c>
+      <c r="D23" s="5">
+        <v>552.20000000000005</v>
+      </c>
+      <c r="E23" s="5">
+        <v>552.79999999999995</v>
+      </c>
+      <c r="F23" s="5">
+        <v>566.15</v>
+      </c>
+      <c r="G23" s="31">
+        <v>561.04999999999995</v>
+      </c>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="16">
-        <v>42919</v>
-      </c>
-      <c r="E1" s="16">
-        <v>42920</v>
-      </c>
-      <c r="F1" s="16">
-        <v>42921</v>
-      </c>
-      <c r="G1" s="16">
-        <v>42922</v>
-      </c>
-      <c r="H1" s="16">
-        <v>42923</v>
-      </c>
-      <c r="I1" s="16">
-        <v>43015</v>
-      </c>
-      <c r="J1" s="16">
-        <v>43046</v>
-      </c>
-      <c r="K1" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="L1" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="M1" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="N1" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="O1" s="32" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="8">
-        <v>47.5</v>
-      </c>
-      <c r="D2" s="5">
-        <v>42.6</v>
-      </c>
-      <c r="E2" s="5">
-        <v>42</v>
-      </c>
-      <c r="F2" s="5">
-        <v>42.45</v>
-      </c>
-      <c r="G2" s="5">
-        <v>42.75</v>
-      </c>
-      <c r="H2" s="5">
-        <v>42.85</v>
-      </c>
-      <c r="I2" s="5">
-        <v>42.85</v>
-      </c>
-      <c r="J2" s="5">
-        <v>43.8</v>
-      </c>
-      <c r="K2" s="5">
-        <v>44.05</v>
-      </c>
-      <c r="L2" s="5">
-        <v>43.45</v>
-      </c>
-      <c r="M2" s="5">
-        <v>44.35</v>
-      </c>
-      <c r="N2" s="5">
-        <v>43.75</v>
-      </c>
-      <c r="O2" s="5">
-        <v>44.15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="11">
-        <v>65</v>
-      </c>
-      <c r="D3" s="5">
-        <v>65</v>
-      </c>
-      <c r="E3" s="5">
-        <v>66.45</v>
-      </c>
-      <c r="F3" s="5">
-        <v>67.599999999999994</v>
-      </c>
-      <c r="G3" s="5">
-        <v>64.2</v>
-      </c>
-      <c r="H3" s="5">
-        <v>64.25</v>
-      </c>
-      <c r="I3" s="5">
-        <v>65.2</v>
-      </c>
-      <c r="J3" s="5">
-        <v>64.25</v>
-      </c>
-      <c r="K3" s="5">
-        <v>62.5</v>
-      </c>
-      <c r="L3" s="5">
-        <v>62.4</v>
-      </c>
-      <c r="M3" s="5">
-        <v>65.599999999999994</v>
-      </c>
-      <c r="N3" s="5">
-        <v>66.900000000000006</v>
-      </c>
-      <c r="O3" s="5">
-        <v>66.55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="11">
-        <v>290</v>
-      </c>
-      <c r="D4" s="5">
-        <v>249</v>
-      </c>
-      <c r="E4" s="5">
-        <v>247</v>
-      </c>
-      <c r="F4" s="5">
-        <v>247.3</v>
-      </c>
-      <c r="G4" s="5">
-        <v>251.5</v>
-      </c>
-      <c r="H4" s="5">
-        <v>250.55</v>
-      </c>
-      <c r="I4" s="5">
-        <v>250.55</v>
-      </c>
-      <c r="J4" s="5">
-        <v>258.3</v>
-      </c>
-      <c r="K4" s="5">
-        <v>247.2</v>
-      </c>
-      <c r="L4" s="5">
-        <v>248.75</v>
-      </c>
-      <c r="M4" s="5">
-        <v>255.4</v>
-      </c>
-      <c r="N4" s="5">
-        <v>262.5</v>
-      </c>
-      <c r="O4" s="5">
-        <v>258.39999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="11">
+      <c r="B24" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="5">
+        <v>331.65</v>
+      </c>
+      <c r="D24" s="5">
+        <v>288.5</v>
+      </c>
+      <c r="E24" s="5">
+        <v>291.5</v>
+      </c>
+      <c r="F24" s="5">
+        <v>293.35000000000002</v>
+      </c>
+      <c r="G24" s="31">
+        <v>291.7</v>
+      </c>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="5">
+        <v>483.4</v>
+      </c>
+      <c r="D25" s="5">
+        <v>537</v>
+      </c>
+      <c r="E25" s="5">
+        <v>523</v>
+      </c>
+      <c r="F25" s="5">
+        <v>524.04999999999995</v>
+      </c>
+      <c r="G25" s="31">
+        <v>515</v>
+      </c>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="5">
-        <v>64.650000000000006</v>
-      </c>
-      <c r="E5" s="5">
-        <v>67.099999999999994</v>
-      </c>
-      <c r="F5" s="5">
-        <v>67.3</v>
-      </c>
-      <c r="G5" s="5">
-        <v>68.8</v>
-      </c>
-      <c r="H5" s="5">
-        <v>67.400000000000006</v>
-      </c>
-      <c r="I5" s="5">
-        <v>67.400000000000006</v>
-      </c>
-      <c r="J5" s="5">
-        <v>68.25</v>
-      </c>
-      <c r="K5" s="5">
-        <v>69.900000000000006</v>
-      </c>
-      <c r="L5" s="5">
-        <v>68.8</v>
-      </c>
-      <c r="M5" s="5">
-        <v>70</v>
-      </c>
-      <c r="N5" s="5">
-        <v>70.75</v>
-      </c>
-      <c r="O5" s="5">
-        <v>70.400000000000006</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="11">
-        <v>87</v>
-      </c>
-      <c r="D6" s="5">
-        <v>85.8</v>
-      </c>
-      <c r="E6" s="5">
-        <v>83.95</v>
-      </c>
-      <c r="F6" s="5">
-        <v>83.3</v>
-      </c>
-      <c r="G6" s="5">
-        <v>82.45</v>
-      </c>
-      <c r="H6" s="5">
-        <v>83.3</v>
-      </c>
-      <c r="I6" s="5">
-        <v>84.2</v>
-      </c>
-      <c r="J6" s="5">
-        <v>87.05</v>
-      </c>
-      <c r="K6" s="5">
-        <v>88.75</v>
-      </c>
-      <c r="L6" s="5">
-        <v>87.4</v>
-      </c>
-      <c r="M6" s="5">
-        <v>95.15</v>
-      </c>
-      <c r="N6" s="5">
-        <v>91.65</v>
-      </c>
-      <c r="O6" s="5">
-        <v>96.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="11">
+      <c r="B26" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="5">
+        <v>174.25</v>
+      </c>
+      <c r="D26" s="5">
+        <v>180.5</v>
+      </c>
+      <c r="E26" s="5">
+        <v>189.9</v>
+      </c>
+      <c r="F26" s="5">
+        <v>196</v>
+      </c>
+      <c r="G26" s="31">
+        <v>196.55</v>
+      </c>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="5">
-        <v>100.55</v>
-      </c>
-      <c r="E7" s="5">
-        <v>99.65</v>
-      </c>
-      <c r="F7" s="5">
-        <v>102.05</v>
-      </c>
-      <c r="G7" s="5">
-        <v>102</v>
-      </c>
-      <c r="H7" s="5">
-        <v>104.15</v>
-      </c>
-      <c r="I7" s="5">
-        <v>104.15</v>
-      </c>
-      <c r="J7" s="5">
-        <v>105.4</v>
-      </c>
-      <c r="K7" s="5">
-        <v>108.35</v>
-      </c>
-      <c r="L7" s="5">
-        <v>105.7</v>
-      </c>
-      <c r="M7" s="5">
-        <v>105.85</v>
-      </c>
-      <c r="N7" s="5">
-        <v>102.9</v>
-      </c>
-      <c r="O7" s="5">
-        <v>105.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="11">
-        <v>134</v>
-      </c>
-      <c r="D8" s="5">
-        <v>113.55</v>
-      </c>
-      <c r="E8" s="5">
-        <v>111.65</v>
-      </c>
-      <c r="F8" s="5">
-        <v>111.1</v>
-      </c>
-      <c r="G8" s="5">
-        <v>113.3</v>
-      </c>
-      <c r="H8" s="5">
-        <v>115.95</v>
-      </c>
-      <c r="I8" s="5">
-        <v>115.95</v>
-      </c>
-      <c r="J8" s="5">
-        <v>117.5</v>
-      </c>
-      <c r="K8" s="5">
-        <v>120.3</v>
-      </c>
-      <c r="L8" s="5">
-        <v>119.75</v>
-      </c>
-      <c r="M8" s="5">
-        <v>123.7</v>
-      </c>
-      <c r="N8" s="5">
-        <v>122.8</v>
-      </c>
-      <c r="O8" s="5">
-        <v>121.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="11">
-        <v>173</v>
-      </c>
-      <c r="D9" s="5">
-        <v>135.30000000000001</v>
-      </c>
-      <c r="E9" s="5">
-        <v>133.80000000000001</v>
-      </c>
-      <c r="F9" s="5">
-        <v>134.15</v>
-      </c>
-      <c r="G9" s="5">
-        <v>135.69999999999999</v>
-      </c>
-      <c r="H9" s="5">
-        <v>135.05000000000001</v>
-      </c>
-      <c r="I9" s="5">
-        <v>135.05000000000001</v>
-      </c>
-      <c r="J9" s="5">
-        <v>137.5</v>
-      </c>
-      <c r="K9" s="5">
-        <v>141.19999999999999</v>
-      </c>
-      <c r="L9" s="5">
-        <v>143.05000000000001</v>
-      </c>
-      <c r="M9" s="5">
-        <v>146.30000000000001</v>
-      </c>
-      <c r="N9" s="5">
-        <v>144.9</v>
-      </c>
-      <c r="O9" s="5">
-        <v>145.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="11">
-        <v>163</v>
-      </c>
-      <c r="D10" s="5">
-        <v>124.75</v>
-      </c>
-      <c r="E10" s="5">
-        <v>122.7</v>
-      </c>
-      <c r="F10" s="5">
-        <v>124</v>
-      </c>
-      <c r="G10" s="5">
-        <v>125.4</v>
-      </c>
-      <c r="H10" s="5">
-        <v>126</v>
-      </c>
-      <c r="I10" s="5">
-        <v>126</v>
-      </c>
-      <c r="J10" s="5">
-        <v>126.65</v>
-      </c>
-      <c r="K10" s="5">
-        <v>124.9</v>
-      </c>
-      <c r="L10" s="5">
-        <v>122.95</v>
-      </c>
-      <c r="M10" s="5">
-        <v>126.9</v>
-      </c>
-      <c r="N10" s="5">
-        <v>128.55000000000001</v>
-      </c>
-      <c r="O10" s="5">
-        <v>124.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="11">
-        <v>650</v>
-      </c>
-      <c r="D11" s="5">
-        <v>671</v>
-      </c>
-      <c r="E11" s="5">
-        <v>657.8</v>
-      </c>
-      <c r="F11" s="5">
-        <v>657.75</v>
-      </c>
-      <c r="G11" s="5">
-        <v>656.1</v>
-      </c>
-      <c r="H11" s="5">
-        <v>680.4</v>
-      </c>
-      <c r="I11" s="5">
-        <v>680.4</v>
-      </c>
-      <c r="J11" s="5">
-        <v>733.15</v>
-      </c>
-      <c r="K11" s="5">
-        <v>732.9</v>
-      </c>
-      <c r="L11" s="5">
-        <v>736.65</v>
-      </c>
-      <c r="M11" s="5">
-        <v>744.85</v>
-      </c>
-      <c r="N11" s="5">
-        <v>719.5</v>
-      </c>
-      <c r="O11" s="5">
-        <v>676.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="11">
-        <v>125</v>
-      </c>
-      <c r="D12" s="5">
-        <v>128.75</v>
-      </c>
-      <c r="E12" s="5">
-        <v>125.95</v>
-      </c>
-      <c r="F12" s="5">
-        <v>131.25</v>
-      </c>
-      <c r="G12" s="5">
-        <v>130.9</v>
-      </c>
-      <c r="H12" s="5">
-        <v>131.85</v>
-      </c>
-      <c r="I12" s="5">
-        <v>132.15</v>
-      </c>
-      <c r="J12" s="5">
-        <v>134.19999999999999</v>
-      </c>
-      <c r="K12" s="5">
-        <v>141.4</v>
-      </c>
-      <c r="L12" s="5">
-        <v>139.9</v>
-      </c>
-      <c r="M12" s="5">
-        <v>140.80000000000001</v>
-      </c>
-      <c r="N12" s="5">
-        <v>136.75</v>
-      </c>
-      <c r="O12" s="5">
-        <v>140.80000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="11">
-        <v>16</v>
-      </c>
-      <c r="D13" s="5">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="E13" s="5">
-        <v>18.5</v>
-      </c>
-      <c r="F13" s="5">
-        <v>18.95</v>
-      </c>
-      <c r="G13" s="5">
-        <v>19</v>
-      </c>
-      <c r="H13" s="5">
-        <v>19.2</v>
-      </c>
-      <c r="I13" s="5">
-        <v>19</v>
-      </c>
-      <c r="J13" s="5">
-        <v>18.95</v>
-      </c>
-      <c r="K13" s="5">
-        <v>18</v>
-      </c>
-      <c r="L13" s="5">
-        <v>17.649999999999999</v>
-      </c>
-      <c r="M13" s="5">
-        <v>17.850000000000001</v>
-      </c>
-      <c r="N13" s="5">
-        <v>18</v>
-      </c>
-      <c r="O13" s="5">
-        <v>18.75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="11">
-        <v>85</v>
-      </c>
-      <c r="D14" s="5">
-        <v>80.55</v>
-      </c>
-      <c r="E14" s="5">
-        <v>81.55</v>
-      </c>
-      <c r="F14" s="5">
-        <v>81.650000000000006</v>
-      </c>
-      <c r="G14" s="5">
-        <v>81.95</v>
-      </c>
-      <c r="H14" s="5">
-        <v>81.650000000000006</v>
-      </c>
-      <c r="I14" s="5">
-        <v>89</v>
-      </c>
-      <c r="J14" s="5">
-        <v>83.4</v>
-      </c>
-      <c r="K14" s="5">
-        <v>83.4</v>
-      </c>
-      <c r="L14" s="5">
-        <v>82.2</v>
-      </c>
-      <c r="M14" s="5">
+      <c r="B27" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="N14" s="5">
-        <v>83.3</v>
-      </c>
-      <c r="O14" s="5">
-        <v>82.95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="11">
-        <v>41</v>
-      </c>
-      <c r="D15" s="5">
-        <v>52.5</v>
-      </c>
-      <c r="E15" s="5">
-        <v>51.7</v>
-      </c>
-      <c r="F15" s="5">
-        <v>52.8</v>
-      </c>
-      <c r="G15" s="5">
-        <v>51.3</v>
-      </c>
-      <c r="H15" s="5">
-        <v>51.4</v>
-      </c>
-      <c r="I15" s="5">
-        <v>51.4</v>
-      </c>
-      <c r="J15" s="5">
-        <v>51.5</v>
-      </c>
-      <c r="K15" s="5">
-        <v>56.55</v>
-      </c>
-      <c r="L15" s="5">
-        <v>51.5</v>
-      </c>
-      <c r="M15" s="5">
-        <v>53</v>
-      </c>
-      <c r="N15" s="5">
-        <v>55.15</v>
-      </c>
-      <c r="O15" s="5">
-        <v>58.1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="11">
-        <v>37</v>
-      </c>
-      <c r="D16" s="5">
-        <v>36.65</v>
-      </c>
-      <c r="E16" s="5">
-        <v>36.25</v>
-      </c>
-      <c r="F16" s="5">
-        <v>36.35</v>
-      </c>
-      <c r="G16" s="5">
-        <v>36.200000000000003</v>
-      </c>
-      <c r="H16" s="5">
-        <v>36.15</v>
-      </c>
-      <c r="I16" s="5">
-        <v>36.450000000000003</v>
-      </c>
-      <c r="J16" s="5">
-        <v>36.1</v>
-      </c>
-      <c r="K16" s="5">
-        <v>34.1</v>
-      </c>
-      <c r="L16" s="5">
-        <v>34</v>
-      </c>
-      <c r="M16" s="5">
-        <v>34.35</v>
-      </c>
-      <c r="N16" s="5">
-        <v>33.799999999999997</v>
-      </c>
-      <c r="O16" s="5">
-        <v>32.9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="11">
-        <v>63</v>
-      </c>
-      <c r="D17" s="5">
-        <v>58.8</v>
-      </c>
-      <c r="E17" s="5">
-        <v>58.2</v>
-      </c>
-      <c r="F17" s="5">
-        <v>59.8</v>
-      </c>
-      <c r="G17" s="5">
-        <v>59.55</v>
-      </c>
-      <c r="H17" s="5">
-        <v>61.85</v>
-      </c>
-      <c r="I17" s="5">
-        <v>61.85</v>
-      </c>
-      <c r="J17" s="5">
-        <v>63.1</v>
-      </c>
-      <c r="K17" s="5">
-        <v>61.75</v>
-      </c>
-      <c r="L17" s="5">
-        <v>62.6</v>
-      </c>
-      <c r="M17" s="5">
-        <v>62.9</v>
-      </c>
-      <c r="N17" s="5">
-        <v>62.4</v>
-      </c>
-      <c r="O17" s="5">
-        <v>63.4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="11">
-        <v>29</v>
-      </c>
-      <c r="D18" s="5">
-        <v>25.75</v>
-      </c>
-      <c r="E18" s="5">
-        <v>25.2</v>
-      </c>
-      <c r="F18" s="5">
-        <v>25.55</v>
-      </c>
-      <c r="G18" s="5">
-        <v>26</v>
-      </c>
-      <c r="H18" s="5">
-        <v>26.25</v>
-      </c>
-      <c r="I18" s="5">
-        <v>26.5</v>
-      </c>
-      <c r="J18" s="5">
-        <v>26.5</v>
-      </c>
-      <c r="K18" s="5">
-        <v>26.4</v>
-      </c>
-      <c r="L18" s="5">
-        <v>26.1</v>
-      </c>
-      <c r="M18" s="5">
-        <v>26.25</v>
-      </c>
-      <c r="N18" s="5">
-        <v>27.5</v>
-      </c>
-      <c r="O18" s="5">
-        <v>27.2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="5">
-        <v>22.15</v>
-      </c>
-      <c r="E19" s="5">
-        <v>23.25</v>
-      </c>
-      <c r="F19" s="5">
-        <v>24.4</v>
-      </c>
-      <c r="G19" s="5">
-        <v>25.6</v>
-      </c>
-      <c r="H19" s="5">
-        <v>26.85</v>
-      </c>
-      <c r="I19" s="5">
-        <v>26</v>
-      </c>
-      <c r="J19" s="5">
-        <v>28.15</v>
-      </c>
-      <c r="K19" s="5">
-        <v>29.45</v>
-      </c>
-      <c r="L19" s="5">
-        <v>28</v>
-      </c>
-      <c r="M19" s="5">
-        <v>25.3</v>
-      </c>
-      <c r="N19" s="5">
-        <v>26.55</v>
-      </c>
-      <c r="O19" s="5">
-        <v>24.75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="5">
-        <v>588.25</v>
-      </c>
-      <c r="E20" s="5">
-        <v>578</v>
-      </c>
-      <c r="F20" s="5">
-        <v>577.5</v>
-      </c>
-      <c r="G20" s="5">
-        <v>652</v>
-      </c>
-      <c r="H20" s="5">
-        <v>643.15</v>
-      </c>
-      <c r="I20" s="5">
-        <v>643.15</v>
-      </c>
-      <c r="J20" s="5">
-        <v>633</v>
-      </c>
-      <c r="K20" s="5">
-        <v>625.5</v>
-      </c>
-      <c r="L20" s="5">
-        <v>624.9</v>
-      </c>
-      <c r="M20" s="5">
-        <v>621.20000000000005</v>
-      </c>
-      <c r="N20" s="5">
-        <v>613</v>
-      </c>
-      <c r="O20" s="5">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="5">
-        <v>54.15</v>
-      </c>
-      <c r="E21" s="5">
-        <v>54.85</v>
-      </c>
-      <c r="F21" s="5">
-        <v>60.55</v>
-      </c>
-      <c r="G21" s="5">
-        <v>60.15</v>
-      </c>
-      <c r="H21" s="5">
-        <v>60</v>
-      </c>
-      <c r="I21" s="5">
-        <v>63.05</v>
-      </c>
-      <c r="J21" s="5">
-        <v>56.45</v>
-      </c>
-      <c r="K21" s="5">
-        <v>56.05</v>
-      </c>
-      <c r="L21" s="5">
-        <v>57.4</v>
-      </c>
-      <c r="M21" s="5">
-        <v>59</v>
-      </c>
-      <c r="N21" s="5">
-        <v>58.35</v>
-      </c>
-      <c r="O21" s="5">
-        <v>58.4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="5">
-        <v>25.1</v>
-      </c>
-      <c r="E22" s="5">
-        <v>25.5</v>
-      </c>
-      <c r="F22" s="5">
-        <v>25.7</v>
-      </c>
-      <c r="G22" s="5">
-        <v>26.2</v>
-      </c>
-      <c r="H22" s="5">
-        <v>26.35</v>
-      </c>
-      <c r="I22" s="5">
-        <v>26.35</v>
-      </c>
-      <c r="J22" s="5">
-        <v>26.95</v>
-      </c>
-      <c r="K22" s="5">
-        <v>31.95</v>
-      </c>
-      <c r="L22" s="5">
-        <v>33.6</v>
-      </c>
-      <c r="M22" s="5">
-        <v>37.6</v>
-      </c>
-      <c r="N22" s="5">
-        <v>37.450000000000003</v>
-      </c>
-      <c r="O22" s="5">
-        <v>37.049999999999997</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5">
-        <v>550.75</v>
-      </c>
-      <c r="E23" s="5">
-        <v>546.15</v>
-      </c>
-      <c r="F23" s="5">
-        <v>550.29999999999995</v>
-      </c>
-      <c r="G23" s="5">
-        <v>554.1</v>
-      </c>
-      <c r="H23" s="5">
-        <v>552.29999999999995</v>
-      </c>
-      <c r="I23" s="5">
-        <v>558.15</v>
-      </c>
-      <c r="J23" s="5">
-        <v>558.45000000000005</v>
-      </c>
-      <c r="K23" s="5">
-        <v>559.6</v>
-      </c>
-      <c r="L23" s="5">
-        <v>562.5</v>
-      </c>
-      <c r="M23" s="5">
-        <v>557.35</v>
-      </c>
-      <c r="N23" s="5">
-        <v>552.20000000000005</v>
-      </c>
-      <c r="O23" s="5">
-        <v>552.79999999999995</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5">
-        <v>342.8</v>
-      </c>
-      <c r="E24" s="5">
-        <v>337.95</v>
-      </c>
-      <c r="F24" s="5">
-        <v>331.65</v>
-      </c>
-      <c r="G24" s="5">
-        <v>337.1</v>
-      </c>
-      <c r="H24" s="5">
-        <v>334.5</v>
-      </c>
-      <c r="I24" s="5">
-        <v>334.3</v>
-      </c>
-      <c r="J24" s="5">
-        <v>333</v>
-      </c>
-      <c r="K24" s="17">
-        <v>323.25</v>
-      </c>
-      <c r="L24" s="17">
-        <v>284.7</v>
-      </c>
-      <c r="M24" s="17">
-        <v>290</v>
-      </c>
-      <c r="N24" s="5">
-        <v>288.5</v>
-      </c>
-      <c r="O24" s="5">
-        <v>291.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5">
-        <v>483</v>
-      </c>
-      <c r="E25" s="5">
-        <v>477</v>
-      </c>
-      <c r="F25" s="5">
-        <v>483.4</v>
-      </c>
-      <c r="G25" s="5">
-        <v>488.15</v>
-      </c>
-      <c r="H25" s="5">
-        <v>495.95</v>
-      </c>
-      <c r="I25" s="5">
-        <v>495.95</v>
-      </c>
-      <c r="J25" s="5">
-        <v>492</v>
-      </c>
-      <c r="K25" s="5">
-        <v>513</v>
-      </c>
-      <c r="L25" s="5">
-        <v>511</v>
-      </c>
-      <c r="M25" s="5">
-        <v>536</v>
-      </c>
-      <c r="N25" s="5">
-        <v>537</v>
-      </c>
-      <c r="O25" s="5">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5">
-        <v>172.55</v>
-      </c>
-      <c r="E26" s="5">
-        <v>171.6</v>
-      </c>
-      <c r="F26" s="5">
-        <v>174.25</v>
-      </c>
-      <c r="G26" s="5">
-        <v>166.65</v>
-      </c>
-      <c r="H26" s="5">
-        <v>172.5</v>
-      </c>
-      <c r="I26" s="5">
-        <v>175</v>
-      </c>
-      <c r="J26" s="5">
-        <v>175.95</v>
-      </c>
-      <c r="K26" s="5">
-        <v>178.6</v>
-      </c>
-      <c r="L26" s="5">
-        <v>178</v>
-      </c>
-      <c r="M26" s="5">
-        <v>177</v>
-      </c>
-      <c r="N26" s="5">
-        <v>180.5</v>
-      </c>
-      <c r="O26" s="5">
-        <v>189.9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>84</v>
-      </c>
       <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5">
-        <v>443.35</v>
-      </c>
-      <c r="M27" s="5">
-        <v>449.4</v>
-      </c>
-      <c r="N27" s="5">
+      <c r="D27" s="5">
         <v>438.5</v>
       </c>
-      <c r="O27" s="5">
+      <c r="E27" s="5">
         <v>437.4</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="F27" s="5">
+        <v>439</v>
+      </c>
+      <c r="G27" s="31">
+        <v>450.5</v>
+      </c>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5">
+        <v>744.65</v>
+      </c>
+      <c r="E28" s="5">
+        <v>751.95</v>
+      </c>
+      <c r="F28" s="5">
+        <v>748.7</v>
+      </c>
+      <c r="G28" s="34">
+        <v>739.1</v>
+      </c>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B29" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5">
-        <v>744.65</v>
-      </c>
-      <c r="O28" s="5">
-        <v>751.95</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>160</v>
-      </c>
       <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="35">
+      <c r="D29" s="33">
         <v>1584</v>
       </c>
-      <c r="O29" s="35">
+      <c r="E29" s="33">
         <v>1602.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>162</v>
+      <c r="F29" s="33">
+        <v>1622.9</v>
+      </c>
+      <c r="G29" s="34">
+        <v>1592.8</v>
+      </c>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>159</v>
       </c>
       <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5">
+      <c r="D30" s="5">
         <v>411</v>
       </c>
-      <c r="O30" s="5">
+      <c r="E30" s="5">
         <v>427.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F30" s="5">
+        <v>426.5</v>
+      </c>
+      <c r="G30" s="31">
+        <v>414.05</v>
+      </c>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>165</v>
+        <v>161</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>161</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5">
+      <c r="E31" s="5">
         <v>123.15</v>
       </c>
+      <c r="F31" s="5">
+        <v>121.05</v>
+      </c>
+      <c r="G31" s="31">
+        <v>122.6</v>
+      </c>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7552,135 +7070,135 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="19" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="19" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" style="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6" style="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" style="19" customWidth="1"/>
-    <col min="13" max="14" width="17.85546875" style="19"/>
-    <col min="15" max="15" width="9.28515625" style="19" customWidth="1"/>
-    <col min="16" max="16" width="23.140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8" style="19" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="17.85546875" style="19"/>
+    <col min="1" max="1" width="31.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="17" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" style="17" customWidth="1"/>
+    <col min="13" max="14" width="17.85546875" style="17"/>
+    <col min="15" max="15" width="9.28515625" style="17" customWidth="1"/>
+    <col min="16" max="16" width="23.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8" style="17" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="17.85546875" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="9">
+      <c r="A1" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="8">
         <v>25000</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="9" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="8"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>66</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>67</v>
       </c>
       <c r="J1" s="5">
         <f>SUM(K2:K100)</f>
         <v>142350</v>
       </c>
       <c r="K1" s="5"/>
-      <c r="M1" s="14" t="s">
-        <v>107</v>
+      <c r="M1" s="12" t="s">
+        <v>106</v>
       </c>
       <c r="N1" s="5">
         <v>112000</v>
       </c>
-      <c r="P1" s="14" t="s">
-        <v>115</v>
+      <c r="P1" s="12" t="s">
+        <v>114</v>
       </c>
       <c r="Q1" s="5"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="9">
+      <c r="A2" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="8">
         <v>15000</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" s="9">
+      <c r="C2" s="18"/>
+      <c r="D2" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="8">
         <v>40000</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="H2" s="9">
+      <c r="F2" s="18"/>
+      <c r="G2" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" s="8">
         <v>100000</v>
       </c>
-      <c r="J2" s="14" t="s">
-        <v>87</v>
+      <c r="J2" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="K2" s="5">
         <v>5000</v>
       </c>
-      <c r="M2" s="14" t="s">
-        <v>108</v>
+      <c r="M2" s="12" t="s">
+        <v>107</v>
       </c>
       <c r="N2" s="5">
         <v>3000</v>
       </c>
-      <c r="P2" s="14" t="s">
-        <v>119</v>
+      <c r="P2" s="12" t="s">
+        <v>118</v>
       </c>
       <c r="Q2" s="5">
         <v>5000</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="9">
+      <c r="A3" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="8">
         <v>20000</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="9">
+      <c r="C3" s="19"/>
+      <c r="D3" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="8">
         <v>15000</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="H3" s="9">
+      <c r="F3" s="18"/>
+      <c r="G3" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="8">
         <v>50000</v>
       </c>
-      <c r="J3" s="14" t="s">
-        <v>88</v>
+      <c r="J3" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="K3" s="5">
         <v>500</v>
       </c>
-      <c r="M3" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="N3" s="31">
+      <c r="M3" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="N3" s="29">
         <v>2200</v>
       </c>
-      <c r="P3" s="14" t="s">
-        <v>116</v>
+      <c r="P3" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="Q3" s="5">
         <f>Q2/2</f>
@@ -7688,75 +7206,75 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B4" s="9">
+      <c r="A4" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="8">
         <v>40000</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="9">
+      <c r="C4" s="18"/>
+      <c r="D4" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="8">
         <v>20000</v>
       </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="H4" s="9">
+      <c r="F4" s="18"/>
+      <c r="G4" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="8">
         <v>30000</v>
       </c>
-      <c r="J4" s="14" t="s">
-        <v>89</v>
+      <c r="J4" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="K4" s="5">
         <v>3000</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="M4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="17">
+      <c r="N4" s="15">
         <f>SUM(N1:N3)</f>
         <v>117200</v>
       </c>
-      <c r="P4" s="15" t="s">
-        <v>117</v>
+      <c r="P4" s="13" t="s">
+        <v>116</v>
       </c>
       <c r="Q4" s="5">
         <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="9">
+      <c r="A5" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="8">
         <v>4139</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E5" s="9">
+      <c r="C5" s="18"/>
+      <c r="D5" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="8">
         <v>20000</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" s="9">
+      <c r="F5" s="18"/>
+      <c r="G5" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="8">
         <v>50000</v>
       </c>
-      <c r="J5" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="K5" s="17">
+      <c r="J5" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="K5" s="15">
         <v>500</v>
       </c>
-      <c r="P5" s="15" t="s">
-        <v>118</v>
+      <c r="P5" s="13" t="s">
+        <v>117</v>
       </c>
       <c r="Q5" s="5">
         <f>Q3*Q4</f>
@@ -7764,41 +7282,41 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="9">
+      <c r="A6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="8">
         <v>6000</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="9">
+      <c r="C6" s="18"/>
+      <c r="D6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="8">
         <v>3000</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="H6" s="9">
+      <c r="F6" s="18"/>
+      <c r="G6" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="8">
         <v>100000</v>
       </c>
-      <c r="J6" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" s="17">
+      <c r="J6" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="15">
         <v>900</v>
       </c>
-      <c r="M6" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="N6" s="19">
+      <c r="M6" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="N6" s="17">
         <f>J1-N4</f>
         <v>25150</v>
       </c>
-      <c r="P6" s="15" t="s">
-        <v>120</v>
+      <c r="P6" s="13" t="s">
+        <v>119</v>
       </c>
       <c r="Q6" s="5">
         <f>Q5/20</f>
@@ -7806,265 +7324,265 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="8">
+        <v>3000</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="8">
+        <v>5000</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="8">
+        <v>40000</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" s="15">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="9">
-        <v>3000</v>
-      </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="9" t="s">
+      <c r="B8" s="8">
+        <v>10000</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="9">
-        <v>5000</v>
-      </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="9" t="s">
+      <c r="E8" s="8">
+        <v>10000</v>
+      </c>
+      <c r="F8" s="18"/>
+      <c r="G8" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="H7" s="9">
-        <v>40000</v>
-      </c>
-      <c r="J7" s="15" t="s">
+      <c r="H8" s="8">
+        <v>30000</v>
+      </c>
+      <c r="J8" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K8" s="15">
         <v>400</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="9">
-        <v>10000</v>
-      </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E8" s="9">
-        <v>10000</v>
-      </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="H8" s="9">
-        <v>30000</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="K8" s="17">
-        <v>400</v>
-      </c>
-    </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>123139</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <f>SUM(E2:E8)</f>
         <v>113000</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="H9" s="9">
+      <c r="G9" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="8">
         <v>200000</v>
       </c>
-      <c r="J9" s="15" t="s">
+      <c r="J9" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="K9" s="15">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G10" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="8">
+        <v>187000</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="15">
+        <v>3000</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="N10" s="5"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G11" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" s="8">
+        <v>300000</v>
+      </c>
+      <c r="J11" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="K9" s="17">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G10" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="H10" s="9">
-        <v>187000</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="K10" s="17">
-        <v>3000</v>
-      </c>
-      <c r="M10" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="N10" s="5"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G11" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="H11" s="9">
-        <v>300000</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="K11" s="17">
+      <c r="K11" s="15">
         <v>1000</v>
       </c>
-      <c r="M11" s="14" t="s">
-        <v>109</v>
+      <c r="M11" s="12" t="s">
+        <v>108</v>
       </c>
       <c r="N11" s="5">
         <v>5000</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G12" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="H12" s="9">
+      <c r="G12" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12" s="8">
         <v>250000</v>
       </c>
-      <c r="J12" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="K12" s="17">
+      <c r="J12" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="15">
         <v>2000</v>
       </c>
-      <c r="M12" s="14" t="s">
-        <v>110</v>
+      <c r="M12" s="12" t="s">
+        <v>109</v>
       </c>
       <c r="N12" s="5">
         <v>5000</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="8">
         <v>1337000</v>
       </c>
-      <c r="J13" s="15" t="s">
+      <c r="J13" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="K13" s="15">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D14" s="22"/>
+      <c r="J14" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="K13" s="17">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D14" s="24"/>
-      <c r="J14" s="15" t="s">
+      <c r="K14" s="15">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D15" s="22"/>
+      <c r="J15" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K15" s="15">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D16" s="22"/>
+      <c r="J16" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="K16" s="15">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="J17" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="K17" s="15">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="J18" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K18" s="15">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="19" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="J19" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="K19" s="15">
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D15" s="24"/>
-      <c r="J15" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="K15" s="17">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D16" s="24"/>
-      <c r="J16" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="K16" s="17">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="17" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="J17" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="K17" s="17">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="18" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="J18" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="K18" s="17">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="19" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="J19" s="15" t="s">
+    <row r="20" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="J20" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K20" s="15">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="21" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="J21" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="K19" s="17">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="20" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="J20" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="K20" s="17">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="21" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="J21" s="15" t="s">
+      <c r="K21" s="15">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="22" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="J22" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="K21" s="17">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="22" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="J22" s="15" t="s">
+      <c r="K22" s="15">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="23" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="J23" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="K22" s="17">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="23" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="J23" s="15" t="s">
+      <c r="K23" s="15">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="24" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="J24" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="K23" s="17">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="24" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="J24" s="15" t="s">
+      <c r="K24" s="15">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="25" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="J25" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="K24" s="17">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="25" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="J25" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="K25" s="17">
+      <c r="K25" s="15">
         <v>10000</v>
       </c>
     </row>
     <row r="26" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D26" s="23"/>
-      <c r="J26" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="K26" s="17">
+      <c r="D26" s="21"/>
+      <c r="J26" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K26" s="15">
         <v>10000</v>
       </c>
     </row>
@@ -8079,7 +7597,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8095,29 +7613,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="F1" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="E1" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="F1" s="32" t="s">
+      <c r="G1" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="G1" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="H1" s="32" t="s">
-        <v>123</v>
+      <c r="H1" s="30" t="s">
+        <v>120</v>
       </c>
       <c r="I1">
         <f>SUM(H2:H200)</f>
@@ -8126,17 +7644,17 @@
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="5">
         <v>296</v>
       </c>
       <c r="C2" s="5">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D2" s="5">
         <f t="shared" ref="D2:D7" si="0">B2*C2</f>
-        <v>6216</v>
+        <v>10064</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -8149,12 +7667,12 @@
         <v>126</v>
       </c>
       <c r="K2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B3" s="5">
         <v>170</v>
@@ -8184,12 +7702,12 @@
         <v>172</v>
       </c>
       <c r="K3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B4" s="5">
         <v>34</v>
@@ -8219,12 +7737,12 @@
         <v>180</v>
       </c>
       <c r="K4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B5" s="5">
         <v>38</v>
@@ -8253,7 +7771,7 @@
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B6" s="5">
         <v>71.010000000000005</v>
@@ -8275,7 +7793,7 @@
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B7" s="5">
         <v>92.1</v>
@@ -8298,8 +7816,8 @@
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
-        <v>156</v>
+      <c r="A8" s="31" t="s">
+        <v>153</v>
       </c>
       <c r="B8" s="5">
         <v>762</v>
@@ -8321,7 +7839,7 @@
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B9" s="5">
         <v>1595</v>
@@ -8343,7 +7861,7 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B10" s="5">
         <v>90.2</v>
@@ -8365,7 +7883,7 @@
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B11" s="5">
         <v>410.1</v>
@@ -8394,7 +7912,7 @@
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B12" s="5">
         <v>121</v>
@@ -8416,17 +7934,17 @@
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B13" s="5">
         <v>200.25</v>
       </c>
       <c r="C13" s="5">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="D13" s="5">
         <f t="shared" si="3"/>
-        <v>5006.25</v>
+        <v>14017.5</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -8437,12 +7955,18 @@
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
+      <c r="A14" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B14" s="5">
+        <v>34.25</v>
+      </c>
+      <c r="C14" s="5">
+        <v>110</v>
+      </c>
       <c r="D14" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3767.5</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -8607,13 +8131,13 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B2" s="5">
         <v>36.5</v>
       </c>
-      <c r="D2" s="33" t="s">
-        <v>152</v>
+      <c r="D2" s="31" t="s">
+        <v>149</v>
       </c>
       <c r="E2" s="5">
         <v>41.5</v>
@@ -8621,13 +8145,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B3" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E3" s="5">
         <v>5.0000000000000001E-3</v>
@@ -8635,14 +8159,14 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B4" s="5">
         <f>B2*B3</f>
         <v>0.1825</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E4" s="5">
         <f>E2*E3</f>
@@ -8651,13 +8175,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B5" s="5">
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
@@ -8665,14 +8189,14 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B6" s="5">
         <f>B4*B5</f>
         <v>0.1825</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E6" s="5">
         <f>E4*E5</f>
@@ -8681,14 +8205,14 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B7" s="5">
         <f>B2+B4</f>
         <v>36.682499999999997</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E7" s="5">
         <f>E2-E4</f>
@@ -8697,14 +8221,14 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B8" s="5">
         <f>ROUND(B7*B5,2)</f>
         <v>36.68</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E8" s="5">
         <f>ROUND(E7*E5,2)</f>
@@ -8713,13 +8237,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B9" s="5">
         <v>0.18</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E9" s="5">
         <v>0.18</v>
@@ -8727,14 +8251,14 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B10" s="5">
         <f>B9*B6</f>
         <v>3.2849999999999997E-2</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E10" s="5">
         <f>E9*E6</f>
@@ -8743,13 +8267,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B11" s="5">
         <v>1E-3</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E11" s="5">
         <v>1E-3</v>
@@ -8757,14 +8281,14 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B12" s="5">
         <f>B11*B8</f>
         <v>3.6679999999999997E-2</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E12" s="5">
         <f>E11*E8</f>
@@ -8773,13 +8297,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B13" s="5">
         <v>3.2499999999999997E-5</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E13" s="5">
         <v>3.2499999999999997E-5</v>
@@ -8787,14 +8311,14 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B14" s="5">
         <f>B13*B8</f>
         <v>1.1921E-3</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E14" s="5">
         <f>E13*E8</f>
@@ -8802,29 +8326,29 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="B15" s="34">
+      <c r="A15" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="B15" s="32">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="D15" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="E15" s="34">
+      <c r="D15" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" s="32">
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="33" t="s">
-        <v>150</v>
+      <c r="A16" s="31" t="s">
+        <v>147</v>
       </c>
       <c r="B16" s="5">
         <f>B8*B15</f>
         <v>7.3360000000000005E-3</v>
       </c>
-      <c r="D16" s="33" t="s">
-        <v>150</v>
+      <c r="D16" s="31" t="s">
+        <v>147</v>
       </c>
       <c r="E16" s="5">
         <f>E8*E15</f>
@@ -8832,15 +8356,15 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
-        <v>154</v>
+      <c r="A17" s="31" t="s">
+        <v>151</v>
       </c>
       <c r="B17" s="5">
         <f>B10+B12+B14+B16</f>
         <v>7.8058099999999991E-2</v>
       </c>
-      <c r="D17" s="33" t="s">
-        <v>154</v>
+      <c r="D17" s="31" t="s">
+        <v>151</v>
       </c>
       <c r="E17" s="5">
         <f>E10+E12+E14+E16</f>
@@ -8848,15 +8372,15 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="33" t="s">
-        <v>151</v>
+      <c r="A18" s="31" t="s">
+        <v>148</v>
       </c>
       <c r="B18" s="5">
         <f>B8+B17</f>
         <v>36.7580581</v>
       </c>
-      <c r="D18" s="33" t="s">
-        <v>153</v>
+      <c r="D18" s="31" t="s">
+        <v>150</v>
       </c>
       <c r="E18" s="5">
         <f>E8-E17</f>
@@ -8867,4 +8391,35 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/documents/Home.xlsx
+++ b/documents/Home.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="169">
   <si>
     <t>Date</t>
   </si>
@@ -523,6 +523,9 @@
   </si>
   <si>
     <t>HATHWAY</t>
+  </si>
+  <si>
+    <t>28/07/2017</t>
   </si>
 </sst>
 </file>
@@ -6185,8 +6188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6195,7 +6198,7 @@
     <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -6220,7 +6223,9 @@
       <c r="G1" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="H1" s="31"/>
+      <c r="H1" s="30" t="s">
+        <v>168</v>
+      </c>
       <c r="I1" s="31"/>
       <c r="J1" s="31"/>
       <c r="K1" s="31"/>
@@ -6248,7 +6253,9 @@
       <c r="G2" s="31">
         <v>45.1</v>
       </c>
-      <c r="H2" s="31"/>
+      <c r="H2" s="31">
+        <v>45.25</v>
+      </c>
       <c r="I2" s="31"/>
       <c r="J2" s="31"/>
       <c r="K2" s="31"/>
@@ -6276,7 +6283,9 @@
       <c r="G3" s="31">
         <v>67.5</v>
       </c>
-      <c r="H3" s="31"/>
+      <c r="H3" s="31">
+        <v>72</v>
+      </c>
       <c r="I3" s="31"/>
       <c r="J3" s="31"/>
       <c r="K3" s="31"/>
@@ -6304,7 +6313,9 @@
       <c r="G4" s="31">
         <v>255.5</v>
       </c>
-      <c r="H4" s="31"/>
+      <c r="H4" s="31">
+        <v>251.1</v>
+      </c>
       <c r="I4" s="31"/>
       <c r="J4" s="31"/>
       <c r="K4" s="31"/>
@@ -6332,7 +6343,9 @@
       <c r="G5" s="31">
         <v>70.150000000000006</v>
       </c>
-      <c r="H5" s="31"/>
+      <c r="H5" s="31">
+        <v>69.45</v>
+      </c>
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
       <c r="K5" s="31"/>
@@ -6360,7 +6373,9 @@
       <c r="G6" s="31">
         <v>92.35</v>
       </c>
-      <c r="H6" s="31"/>
+      <c r="H6" s="31">
+        <v>95.4</v>
+      </c>
       <c r="I6" s="31"/>
       <c r="J6" s="31"/>
       <c r="K6" s="31"/>
@@ -6388,7 +6403,9 @@
       <c r="G7" s="31">
         <v>105.35</v>
       </c>
-      <c r="H7" s="31"/>
+      <c r="H7" s="31">
+        <v>109.45</v>
+      </c>
       <c r="I7" s="31"/>
       <c r="J7" s="31"/>
       <c r="K7" s="31"/>
@@ -6416,7 +6433,9 @@
       <c r="G8" s="31">
         <v>122.5</v>
       </c>
-      <c r="H8" s="31"/>
+      <c r="H8" s="31">
+        <v>122.5</v>
+      </c>
       <c r="I8" s="31"/>
       <c r="J8" s="31"/>
       <c r="K8" s="31"/>
@@ -6444,7 +6463,9 @@
       <c r="G9" s="31">
         <v>142.5</v>
       </c>
-      <c r="H9" s="31"/>
+      <c r="H9" s="31">
+        <v>143.75</v>
+      </c>
       <c r="I9" s="31"/>
       <c r="J9" s="31"/>
       <c r="K9" s="31"/>
@@ -6472,7 +6493,9 @@
       <c r="G10" s="31">
         <v>121.85</v>
       </c>
-      <c r="H10" s="31"/>
+      <c r="H10" s="31">
+        <v>123.75</v>
+      </c>
       <c r="I10" s="31"/>
       <c r="J10" s="31"/>
       <c r="K10" s="31"/>
@@ -6500,7 +6523,9 @@
       <c r="G11" s="31">
         <v>660</v>
       </c>
-      <c r="H11" s="31"/>
+      <c r="H11" s="31">
+        <v>675</v>
+      </c>
       <c r="I11" s="31"/>
       <c r="J11" s="31"/>
       <c r="K11" s="31"/>
@@ -6528,7 +6553,9 @@
       <c r="G12" s="31">
         <v>152.55000000000001</v>
       </c>
-      <c r="H12" s="31"/>
+      <c r="H12" s="31">
+        <v>149.80000000000001</v>
+      </c>
       <c r="I12" s="31"/>
       <c r="J12" s="31"/>
       <c r="K12" s="31"/>
@@ -6556,7 +6583,9 @@
       <c r="G13" s="31">
         <v>19.350000000000001</v>
       </c>
-      <c r="H13" s="31"/>
+      <c r="H13" s="31">
+        <v>18.95</v>
+      </c>
       <c r="I13" s="31"/>
       <c r="J13" s="31"/>
       <c r="K13" s="31"/>
@@ -6584,7 +6613,9 @@
       <c r="G14" s="31">
         <v>82.1</v>
       </c>
-      <c r="H14" s="31"/>
+      <c r="H14" s="31">
+        <v>82.55</v>
+      </c>
       <c r="I14" s="31"/>
       <c r="J14" s="31"/>
       <c r="K14" s="31"/>
@@ -6612,7 +6643,9 @@
       <c r="G15" s="31">
         <v>56.45</v>
       </c>
-      <c r="H15" s="31"/>
+      <c r="H15" s="31">
+        <v>57.15</v>
+      </c>
       <c r="I15" s="31"/>
       <c r="J15" s="31"/>
       <c r="K15" s="31"/>
@@ -6640,7 +6673,9 @@
       <c r="G16" s="31">
         <v>33.200000000000003</v>
       </c>
-      <c r="H16" s="31"/>
+      <c r="H16" s="31">
+        <v>33</v>
+      </c>
       <c r="I16" s="31"/>
       <c r="J16" s="31"/>
       <c r="K16" s="31"/>
@@ -6668,7 +6703,9 @@
       <c r="G17" s="31">
         <v>63.3</v>
       </c>
-      <c r="H17" s="31"/>
+      <c r="H17" s="31">
+        <v>62.6</v>
+      </c>
       <c r="I17" s="31"/>
       <c r="J17" s="31"/>
       <c r="K17" s="31"/>
@@ -6696,7 +6733,9 @@
       <c r="G18" s="31">
         <v>27.25</v>
       </c>
-      <c r="H18" s="31"/>
+      <c r="H18" s="31">
+        <v>27.05</v>
+      </c>
       <c r="I18" s="31"/>
       <c r="J18" s="31"/>
       <c r="K18" s="31"/>
@@ -6724,7 +6763,9 @@
       <c r="G19" s="31">
         <v>24.9</v>
       </c>
-      <c r="H19" s="31"/>
+      <c r="H19" s="31">
+        <v>24.85</v>
+      </c>
       <c r="I19" s="31"/>
       <c r="J19" s="31"/>
       <c r="K19" s="31"/>
@@ -6752,7 +6793,9 @@
       <c r="G20" s="31">
         <v>600</v>
       </c>
-      <c r="H20" s="31"/>
+      <c r="H20" s="31">
+        <v>595.95000000000005</v>
+      </c>
       <c r="I20" s="31"/>
       <c r="J20" s="31"/>
       <c r="K20" s="31"/>
@@ -6780,7 +6823,9 @@
       <c r="G21" s="31">
         <v>57.6</v>
       </c>
-      <c r="H21" s="31"/>
+      <c r="H21" s="31">
+        <v>59.5</v>
+      </c>
       <c r="I21" s="31"/>
       <c r="J21" s="31"/>
       <c r="K21" s="31"/>
@@ -6808,7 +6853,9 @@
       <c r="G22" s="31">
         <v>34.85</v>
       </c>
-      <c r="H22" s="31"/>
+      <c r="H22" s="31">
+        <v>36.200000000000003</v>
+      </c>
       <c r="I22" s="31"/>
       <c r="J22" s="31"/>
       <c r="K22" s="31"/>
@@ -6836,7 +6883,9 @@
       <c r="G23" s="31">
         <v>561.04999999999995</v>
       </c>
-      <c r="H23" s="31"/>
+      <c r="H23" s="31">
+        <v>552</v>
+      </c>
       <c r="I23" s="31"/>
       <c r="J23" s="31"/>
       <c r="K23" s="31"/>
@@ -6864,7 +6913,9 @@
       <c r="G24" s="31">
         <v>291.7</v>
       </c>
-      <c r="H24" s="31"/>
+      <c r="H24" s="31">
+        <v>290.35000000000002</v>
+      </c>
       <c r="I24" s="31"/>
       <c r="J24" s="31"/>
       <c r="K24" s="31"/>
@@ -6892,7 +6943,9 @@
       <c r="G25" s="31">
         <v>515</v>
       </c>
-      <c r="H25" s="31"/>
+      <c r="H25" s="31">
+        <v>503.55</v>
+      </c>
       <c r="I25" s="31"/>
       <c r="J25" s="31"/>
       <c r="K25" s="31"/>
@@ -6920,7 +6973,9 @@
       <c r="G26" s="31">
         <v>196.55</v>
       </c>
-      <c r="H26" s="31"/>
+      <c r="H26" s="31">
+        <v>195.2</v>
+      </c>
       <c r="I26" s="31"/>
       <c r="J26" s="31"/>
       <c r="K26" s="31"/>
@@ -6946,7 +7001,9 @@
       <c r="G27" s="31">
         <v>450.5</v>
       </c>
-      <c r="H27" s="31"/>
+      <c r="H27" s="31">
+        <v>453</v>
+      </c>
       <c r="I27" s="31"/>
       <c r="J27" s="31"/>
       <c r="K27" s="31"/>
@@ -6972,7 +7029,9 @@
       <c r="G28" s="34">
         <v>739.1</v>
       </c>
-      <c r="H28" s="31"/>
+      <c r="H28" s="31">
+        <v>724.95</v>
+      </c>
       <c r="I28" s="31"/>
       <c r="J28" s="31"/>
       <c r="K28" s="31"/>
@@ -6998,7 +7057,9 @@
       <c r="G29" s="34">
         <v>1592.8</v>
       </c>
-      <c r="H29" s="31"/>
+      <c r="H29" s="34">
+        <v>1594</v>
+      </c>
       <c r="I29" s="31"/>
       <c r="J29" s="31"/>
       <c r="K29" s="31"/>
@@ -7024,7 +7085,9 @@
       <c r="G30" s="31">
         <v>414.05</v>
       </c>
-      <c r="H30" s="31"/>
+      <c r="H30" s="31">
+        <v>412.95</v>
+      </c>
       <c r="I30" s="31"/>
       <c r="J30" s="31"/>
       <c r="K30" s="31"/>
@@ -7048,7 +7111,9 @@
       <c r="G31" s="31">
         <v>122.6</v>
       </c>
-      <c r="H31" s="31"/>
+      <c r="H31" s="31">
+        <v>124.3</v>
+      </c>
       <c r="I31" s="31"/>
       <c r="J31" s="31"/>
       <c r="K31" s="31"/>
@@ -7597,7 +7662,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="B7" sqref="B7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7777,11 +7842,11 @@
         <v>71.010000000000005</v>
       </c>
       <c r="C6" s="5">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D6" s="5">
         <f t="shared" si="0"/>
-        <v>781.11</v>
+        <v>1420.2</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>

--- a/documents/Home.xlsx
+++ b/documents/Home.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="170">
   <si>
     <t>Date</t>
   </si>
@@ -526,6 +526,9 @@
   </si>
   <si>
     <t>28/07/2017</t>
+  </si>
+  <si>
+    <t>31/07/2017</t>
   </si>
 </sst>
 </file>
@@ -6188,8 +6191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6198,7 +6201,7 @@
     <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -6226,7 +6229,9 @@
       <c r="H1" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="I1" s="31"/>
+      <c r="I1" s="30" t="s">
+        <v>169</v>
+      </c>
       <c r="J1" s="31"/>
       <c r="K1" s="31"/>
       <c r="L1" s="31"/>
@@ -6256,7 +6261,9 @@
       <c r="H2" s="31">
         <v>45.25</v>
       </c>
-      <c r="I2" s="31"/>
+      <c r="I2" s="31">
+        <v>45.15</v>
+      </c>
       <c r="J2" s="31"/>
       <c r="K2" s="31"/>
       <c r="L2" s="31"/>
@@ -6286,7 +6293,9 @@
       <c r="H3" s="31">
         <v>72</v>
       </c>
-      <c r="I3" s="31"/>
+      <c r="I3" s="31">
+        <v>70</v>
+      </c>
       <c r="J3" s="31"/>
       <c r="K3" s="31"/>
       <c r="L3" s="31"/>
@@ -6316,7 +6325,9 @@
       <c r="H4" s="31">
         <v>251.1</v>
       </c>
-      <c r="I4" s="31"/>
+      <c r="I4" s="31">
+        <v>249.65</v>
+      </c>
       <c r="J4" s="31"/>
       <c r="K4" s="31"/>
       <c r="L4" s="31"/>
@@ -6346,7 +6357,9 @@
       <c r="H5" s="31">
         <v>69.45</v>
       </c>
-      <c r="I5" s="31"/>
+      <c r="I5" s="31">
+        <v>70</v>
+      </c>
       <c r="J5" s="31"/>
       <c r="K5" s="31"/>
       <c r="L5" s="31"/>
@@ -6376,7 +6389,9 @@
       <c r="H6" s="31">
         <v>95.4</v>
       </c>
-      <c r="I6" s="31"/>
+      <c r="I6" s="31">
+        <v>92.35</v>
+      </c>
       <c r="J6" s="31"/>
       <c r="K6" s="31"/>
       <c r="L6" s="31"/>
@@ -6406,7 +6421,9 @@
       <c r="H7" s="31">
         <v>109.45</v>
       </c>
-      <c r="I7" s="31"/>
+      <c r="I7" s="31">
+        <v>109.15</v>
+      </c>
       <c r="J7" s="31"/>
       <c r="K7" s="31"/>
       <c r="L7" s="31"/>
@@ -6436,7 +6453,9 @@
       <c r="H8" s="31">
         <v>122.5</v>
       </c>
-      <c r="I8" s="31"/>
+      <c r="I8" s="31">
+        <v>126.6</v>
+      </c>
       <c r="J8" s="31"/>
       <c r="K8" s="31"/>
       <c r="L8" s="31"/>
@@ -6466,7 +6485,9 @@
       <c r="H9" s="31">
         <v>143.75</v>
       </c>
-      <c r="I9" s="31"/>
+      <c r="I9" s="31">
+        <v>144.80000000000001</v>
+      </c>
       <c r="J9" s="31"/>
       <c r="K9" s="31"/>
       <c r="L9" s="31"/>
@@ -6496,7 +6517,9 @@
       <c r="H10" s="31">
         <v>123.75</v>
       </c>
-      <c r="I10" s="31"/>
+      <c r="I10" s="31">
+        <v>124.5</v>
+      </c>
       <c r="J10" s="31"/>
       <c r="K10" s="31"/>
       <c r="L10" s="31"/>
@@ -6526,7 +6549,9 @@
       <c r="H11" s="31">
         <v>675</v>
       </c>
-      <c r="I11" s="31"/>
+      <c r="I11" s="31">
+        <v>672.95</v>
+      </c>
       <c r="J11" s="31"/>
       <c r="K11" s="31"/>
       <c r="L11" s="31"/>
@@ -6556,7 +6581,9 @@
       <c r="H12" s="31">
         <v>149.80000000000001</v>
       </c>
-      <c r="I12" s="31"/>
+      <c r="I12" s="31">
+        <v>152.94999999999999</v>
+      </c>
       <c r="J12" s="31"/>
       <c r="K12" s="31"/>
       <c r="L12" s="31"/>
@@ -6586,7 +6613,9 @@
       <c r="H13" s="31">
         <v>18.95</v>
       </c>
-      <c r="I13" s="31"/>
+      <c r="I13" s="31">
+        <v>18.75</v>
+      </c>
       <c r="J13" s="31"/>
       <c r="K13" s="31"/>
       <c r="L13" s="31"/>
@@ -6616,7 +6645,9 @@
       <c r="H14" s="31">
         <v>82.55</v>
       </c>
-      <c r="I14" s="31"/>
+      <c r="I14" s="31">
+        <v>82</v>
+      </c>
       <c r="J14" s="31"/>
       <c r="K14" s="31"/>
       <c r="L14" s="31"/>
@@ -6646,7 +6677,9 @@
       <c r="H15" s="31">
         <v>57.15</v>
       </c>
-      <c r="I15" s="31"/>
+      <c r="I15" s="31">
+        <v>55.55</v>
+      </c>
       <c r="J15" s="31"/>
       <c r="K15" s="31"/>
       <c r="L15" s="31"/>
@@ -6676,7 +6709,9 @@
       <c r="H16" s="31">
         <v>33</v>
       </c>
-      <c r="I16" s="31"/>
+      <c r="I16" s="31">
+        <v>32.5</v>
+      </c>
       <c r="J16" s="31"/>
       <c r="K16" s="31"/>
       <c r="L16" s="31"/>
@@ -6706,7 +6741,9 @@
       <c r="H17" s="31">
         <v>62.6</v>
       </c>
-      <c r="I17" s="31"/>
+      <c r="I17" s="31">
+        <v>63.3</v>
+      </c>
       <c r="J17" s="31"/>
       <c r="K17" s="31"/>
       <c r="L17" s="31"/>
@@ -6736,7 +6773,9 @@
       <c r="H18" s="31">
         <v>27.05</v>
       </c>
-      <c r="I18" s="31"/>
+      <c r="I18" s="31">
+        <v>27</v>
+      </c>
       <c r="J18" s="31"/>
       <c r="K18" s="31"/>
       <c r="L18" s="31"/>
@@ -6766,7 +6805,9 @@
       <c r="H19" s="31">
         <v>24.85</v>
       </c>
-      <c r="I19" s="31"/>
+      <c r="I19" s="31">
+        <v>24.7</v>
+      </c>
       <c r="J19" s="31"/>
       <c r="K19" s="31"/>
       <c r="L19" s="31"/>
@@ -6796,7 +6837,9 @@
       <c r="H20" s="31">
         <v>595.95000000000005</v>
       </c>
-      <c r="I20" s="31"/>
+      <c r="I20" s="31">
+        <v>599</v>
+      </c>
       <c r="J20" s="31"/>
       <c r="K20" s="31"/>
       <c r="L20" s="31"/>
@@ -6826,7 +6869,9 @@
       <c r="H21" s="31">
         <v>59.5</v>
       </c>
-      <c r="I21" s="31"/>
+      <c r="I21" s="31">
+        <v>58.7</v>
+      </c>
       <c r="J21" s="31"/>
       <c r="K21" s="31"/>
       <c r="L21" s="31"/>
@@ -6856,7 +6901,9 @@
       <c r="H22" s="31">
         <v>36.200000000000003</v>
       </c>
-      <c r="I22" s="31"/>
+      <c r="I22" s="31">
+        <v>37.25</v>
+      </c>
       <c r="J22" s="31"/>
       <c r="K22" s="31"/>
       <c r="L22" s="31"/>
@@ -6886,7 +6933,9 @@
       <c r="H23" s="31">
         <v>552</v>
       </c>
-      <c r="I23" s="31"/>
+      <c r="I23" s="31">
+        <v>567.6</v>
+      </c>
       <c r="J23" s="31"/>
       <c r="K23" s="31"/>
       <c r="L23" s="31"/>
@@ -6916,7 +6965,9 @@
       <c r="H24" s="31">
         <v>290.35000000000002</v>
       </c>
-      <c r="I24" s="31"/>
+      <c r="I24" s="31">
+        <v>285.25</v>
+      </c>
       <c r="J24" s="31"/>
       <c r="K24" s="31"/>
       <c r="L24" s="31"/>
@@ -6946,7 +6997,9 @@
       <c r="H25" s="31">
         <v>503.55</v>
       </c>
-      <c r="I25" s="31"/>
+      <c r="I25" s="31">
+        <v>501.4</v>
+      </c>
       <c r="J25" s="31"/>
       <c r="K25" s="31"/>
       <c r="L25" s="31"/>
@@ -6976,7 +7029,9 @@
       <c r="H26" s="31">
         <v>195.2</v>
       </c>
-      <c r="I26" s="31"/>
+      <c r="I26" s="31">
+        <v>190.05</v>
+      </c>
       <c r="J26" s="31"/>
       <c r="K26" s="31"/>
       <c r="L26" s="31"/>
@@ -7004,7 +7059,9 @@
       <c r="H27" s="31">
         <v>453</v>
       </c>
-      <c r="I27" s="31"/>
+      <c r="I27" s="31">
+        <v>440.7</v>
+      </c>
       <c r="J27" s="31"/>
       <c r="K27" s="31"/>
       <c r="L27" s="31"/>
@@ -7032,7 +7089,9 @@
       <c r="H28" s="31">
         <v>724.95</v>
       </c>
-      <c r="I28" s="31"/>
+      <c r="I28" s="31">
+        <v>718.65</v>
+      </c>
       <c r="J28" s="31"/>
       <c r="K28" s="31"/>
       <c r="L28" s="31"/>
@@ -7060,7 +7119,9 @@
       <c r="H29" s="34">
         <v>1594</v>
       </c>
-      <c r="I29" s="31"/>
+      <c r="I29" s="34">
+        <v>1615.45</v>
+      </c>
       <c r="J29" s="31"/>
       <c r="K29" s="31"/>
       <c r="L29" s="31"/>
@@ -7088,7 +7149,9 @@
       <c r="H30" s="31">
         <v>412.95</v>
       </c>
-      <c r="I30" s="31"/>
+      <c r="I30" s="31">
+        <v>420</v>
+      </c>
       <c r="J30" s="31"/>
       <c r="K30" s="31"/>
       <c r="L30" s="31"/>
@@ -7114,7 +7177,9 @@
       <c r="H31" s="31">
         <v>124.3</v>
       </c>
-      <c r="I31" s="31"/>
+      <c r="I31" s="31">
+        <v>123.75</v>
+      </c>
       <c r="J31" s="31"/>
       <c r="K31" s="31"/>
       <c r="L31" s="31"/>
@@ -7662,7 +7727,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:D7"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7704,7 +7769,7 @@
       </c>
       <c r="I1">
         <f>SUM(H2:H200)</f>
-        <v>180.10000000000002</v>
+        <v>297.70000000000039</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7715,11 +7780,11 @@
         <v>296</v>
       </c>
       <c r="C2" s="5">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D2" s="5">
         <f t="shared" ref="D2:D7" si="0">B2*C2</f>
-        <v>10064</v>
+        <v>10656</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -7760,7 +7825,7 @@
         <v>2160</v>
       </c>
       <c r="H3" s="5">
-        <f t="shared" ref="H3:H5" si="2">G3-D3</f>
+        <f t="shared" ref="H3:H4" si="2">G3-D3</f>
         <v>120</v>
       </c>
       <c r="J3">
@@ -7830,8 +7895,14 @@
         <v>82</v>
       </c>
       <c r="H5" s="5">
-        <f t="shared" si="2"/>
+        <f>G5-D5</f>
         <v>6</v>
+      </c>
+      <c r="J5">
+        <v>298</v>
+      </c>
+      <c r="K5" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7971,7 +8042,7 @@
         <v>418</v>
       </c>
       <c r="H11" s="5">
-        <f t="shared" ref="H11" si="4">G11-D11</f>
+        <f t="shared" ref="H11:H12" si="4">G11-D11</f>
         <v>7.8999999999999773</v>
       </c>
     </row>
@@ -7989,13 +8060,20 @@
         <f t="shared" si="3"/>
         <v>4235</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="E12" s="5">
+        <v>124.36</v>
+      </c>
+      <c r="F12" s="5">
+        <v>35</v>
+      </c>
       <c r="G12" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="5"/>
+        <v>4352.6000000000004</v>
+      </c>
+      <c r="H12" s="5">
+        <f t="shared" si="4"/>
+        <v>117.60000000000036</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
@@ -8027,11 +8105,11 @@
         <v>34.25</v>
       </c>
       <c r="C14" s="5">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="D14" s="5">
         <f t="shared" si="3"/>
-        <v>3767.5</v>
+        <v>5822.5</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>

--- a/documents/Home.xlsx
+++ b/documents/Home.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="156">
   <si>
     <t>Date</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Reliance power</t>
   </si>
   <si>
-    <t xml:space="preserve">Jsw energy </t>
-  </si>
-  <si>
     <t xml:space="preserve">Coal India </t>
   </si>
   <si>
@@ -75,24 +72,9 @@
     <t xml:space="preserve">Idea </t>
   </si>
   <si>
-    <t xml:space="preserve">Ashok Leyland </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NMDC Ltd </t>
-  </si>
-  <si>
     <t xml:space="preserve">BHEL </t>
   </si>
   <si>
-    <t xml:space="preserve">PFC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Divis Lab </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jindal Steel </t>
-  </si>
-  <si>
     <t xml:space="preserve">GMR </t>
   </si>
   <si>
@@ -108,18 +90,6 @@
     <t xml:space="preserve">Sail </t>
   </si>
   <si>
-    <t xml:space="preserve">IFCI </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Videocon Industries </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hindustan Composite </t>
-  </si>
-  <si>
-    <t xml:space="preserve">idfc </t>
-  </si>
-  <si>
     <t>sintex</t>
   </si>
   <si>
@@ -138,9 +108,6 @@
     <t>RPOWER</t>
   </si>
   <si>
-    <t xml:space="preserve">JSWENERGY </t>
-  </si>
-  <si>
     <t xml:space="preserve">COALINDIA </t>
   </si>
   <si>
@@ -150,21 +117,9 @@
     <t xml:space="preserve">IDEA </t>
   </si>
   <si>
-    <t xml:space="preserve">ASHOKLEY </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NMDC </t>
-  </si>
-  <si>
     <t>BHEL </t>
   </si>
   <si>
-    <t>DIVISLAB</t>
-  </si>
-  <si>
-    <t>JINDALSTEL </t>
-  </si>
-  <si>
     <t>GMRINFRA </t>
   </si>
   <si>
@@ -180,18 +135,6 @@
     <t>SAIL </t>
   </si>
   <si>
-    <t>IFCI </t>
-  </si>
-  <si>
-    <t>VIDEOIND </t>
-  </si>
-  <si>
-    <t>HINDCOMPOS </t>
-  </si>
-  <si>
-    <t>IDFC </t>
-  </si>
-  <si>
     <t>SINTEX </t>
   </si>
   <si>
@@ -529,6 +472,21 @@
   </si>
   <si>
     <t>31/07/2017</t>
+  </si>
+  <si>
+    <t>CENTRALBK</t>
+  </si>
+  <si>
+    <t>SBI</t>
+  </si>
+  <si>
+    <t>ICICI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICICIBANK </t>
+  </si>
+  <si>
+    <t>SBIN</t>
   </si>
 </sst>
 </file>
@@ -6189,10 +6147,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+      <selection activeCell="J2" sqref="J2:J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6202,46 +6160,50 @@
     <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="C1" s="14">
         <v>42921</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="J1" s="31"/>
+        <v>150</v>
+      </c>
+      <c r="J1" s="14">
+        <v>42743</v>
+      </c>
       <c r="K1" s="31"/>
       <c r="L1" s="31"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C2" s="5">
         <v>42.45</v>
@@ -6264,927 +6226,681 @@
       <c r="I2" s="31">
         <v>45.15</v>
       </c>
-      <c r="J2" s="31"/>
+      <c r="J2" s="31">
+        <v>44.25</v>
+      </c>
       <c r="K2" s="31"/>
       <c r="L2" s="31"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C3" s="5">
-        <v>67.599999999999994</v>
+        <v>247.3</v>
       </c>
       <c r="D3" s="5">
-        <v>66.900000000000006</v>
+        <v>262.5</v>
       </c>
       <c r="E3" s="5">
-        <v>66.55</v>
+        <v>258.39999999999998</v>
       </c>
       <c r="F3" s="5">
-        <v>68</v>
+        <v>260.5</v>
       </c>
       <c r="G3" s="31">
-        <v>67.5</v>
+        <v>255.5</v>
       </c>
       <c r="H3" s="31">
-        <v>72</v>
+        <v>251.1</v>
       </c>
       <c r="I3" s="31">
-        <v>70</v>
-      </c>
-      <c r="J3" s="31"/>
+        <v>249.65</v>
+      </c>
+      <c r="J3" s="31">
+        <v>251.8</v>
+      </c>
       <c r="K3" s="31"/>
       <c r="L3" s="31"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C4" s="5">
-        <v>247.3</v>
+        <v>67.3</v>
       </c>
       <c r="D4" s="5">
-        <v>262.5</v>
+        <v>70.75</v>
       </c>
       <c r="E4" s="5">
-        <v>258.39999999999998</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="F4" s="5">
-        <v>260.5</v>
+        <v>70.95</v>
       </c>
       <c r="G4" s="31">
-        <v>255.5</v>
+        <v>70.150000000000006</v>
       </c>
       <c r="H4" s="31">
-        <v>251.1</v>
+        <v>69.45</v>
       </c>
       <c r="I4" s="31">
-        <v>249.65</v>
-      </c>
-      <c r="J4" s="31"/>
+        <v>70</v>
+      </c>
+      <c r="J4" s="31">
+        <v>70</v>
+      </c>
       <c r="K4" s="31"/>
       <c r="L4" s="31"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C5" s="5">
-        <v>67.3</v>
+        <v>83.3</v>
       </c>
       <c r="D5" s="5">
-        <v>70.75</v>
+        <v>91.65</v>
       </c>
       <c r="E5" s="5">
-        <v>70.400000000000006</v>
+        <v>96.9</v>
       </c>
       <c r="F5" s="5">
-        <v>70.95</v>
+        <v>95.5</v>
       </c>
       <c r="G5" s="31">
-        <v>70.150000000000006</v>
+        <v>92.35</v>
       </c>
       <c r="H5" s="31">
-        <v>69.45</v>
+        <v>95.4</v>
       </c>
       <c r="I5" s="31">
-        <v>70</v>
-      </c>
-      <c r="J5" s="31"/>
+        <v>92.35</v>
+      </c>
+      <c r="J5" s="31">
+        <v>92.3</v>
+      </c>
       <c r="K5" s="31"/>
       <c r="L5" s="31"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C6" s="5">
-        <v>83.3</v>
+        <v>134.15</v>
       </c>
       <c r="D6" s="5">
-        <v>91.65</v>
+        <v>144.9</v>
       </c>
       <c r="E6" s="5">
-        <v>96.9</v>
+        <v>145.4</v>
       </c>
       <c r="F6" s="5">
-        <v>95.5</v>
+        <v>143.94999999999999</v>
       </c>
       <c r="G6" s="31">
-        <v>92.35</v>
+        <v>142.5</v>
       </c>
       <c r="H6" s="31">
-        <v>95.4</v>
+        <v>143.75</v>
       </c>
       <c r="I6" s="31">
-        <v>92.35</v>
-      </c>
-      <c r="J6" s="31"/>
+        <v>144.80000000000001</v>
+      </c>
+      <c r="J6" s="31">
+        <v>144.35</v>
+      </c>
       <c r="K6" s="31"/>
       <c r="L6" s="31"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C7" s="5">
-        <v>102.05</v>
+        <v>18.95</v>
       </c>
       <c r="D7" s="5">
-        <v>102.9</v>
+        <v>18</v>
       </c>
       <c r="E7" s="5">
-        <v>105.1</v>
+        <v>18.75</v>
       </c>
       <c r="F7" s="5">
-        <v>106.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="G7" s="31">
-        <v>105.35</v>
+        <v>19.350000000000001</v>
       </c>
       <c r="H7" s="31">
-        <v>109.45</v>
+        <v>18.95</v>
       </c>
       <c r="I7" s="31">
-        <v>109.15</v>
-      </c>
-      <c r="J7" s="31"/>
+        <v>18.75</v>
+      </c>
+      <c r="J7" s="31">
+        <v>18.7</v>
+      </c>
       <c r="K7" s="31"/>
       <c r="L7" s="31"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C8" s="5">
-        <v>111.1</v>
+        <v>81.650000000000006</v>
       </c>
       <c r="D8" s="5">
-        <v>122.8</v>
+        <v>83.3</v>
       </c>
       <c r="E8" s="5">
-        <v>121.3</v>
+        <v>82.95</v>
       </c>
       <c r="F8" s="5">
-        <v>124</v>
+        <v>82.55</v>
       </c>
       <c r="G8" s="31">
-        <v>122.5</v>
+        <v>82.1</v>
       </c>
       <c r="H8" s="31">
-        <v>122.5</v>
+        <v>82.55</v>
       </c>
       <c r="I8" s="31">
-        <v>126.6</v>
-      </c>
-      <c r="J8" s="31"/>
+        <v>82</v>
+      </c>
+      <c r="J8" s="31">
+        <v>83.25</v>
+      </c>
       <c r="K8" s="31"/>
       <c r="L8" s="31"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C9" s="5">
-        <v>134.15</v>
+        <v>52.8</v>
       </c>
       <c r="D9" s="5">
-        <v>144.9</v>
+        <v>55.15</v>
       </c>
       <c r="E9" s="5">
-        <v>145.4</v>
+        <v>58.1</v>
       </c>
       <c r="F9" s="5">
-        <v>143.94999999999999</v>
+        <v>58.7</v>
       </c>
       <c r="G9" s="31">
-        <v>142.5</v>
+        <v>56.45</v>
       </c>
       <c r="H9" s="31">
-        <v>143.75</v>
+        <v>57.15</v>
       </c>
       <c r="I9" s="31">
-        <v>144.80000000000001</v>
-      </c>
-      <c r="J9" s="31"/>
+        <v>55.55</v>
+      </c>
+      <c r="J9" s="31">
+        <v>55.3</v>
+      </c>
       <c r="K9" s="31"/>
       <c r="L9" s="31"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C10" s="5">
-        <v>124</v>
+        <v>36.35</v>
       </c>
       <c r="D10" s="5">
-        <v>128.55000000000001</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="E10" s="5">
-        <v>124.6</v>
+        <v>32.9</v>
       </c>
       <c r="F10" s="5">
-        <v>123.1</v>
+        <v>34.4</v>
       </c>
       <c r="G10" s="31">
-        <v>121.85</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="H10" s="31">
-        <v>123.75</v>
+        <v>33</v>
       </c>
       <c r="I10" s="31">
-        <v>124.5</v>
-      </c>
-      <c r="J10" s="31"/>
+        <v>32.5</v>
+      </c>
+      <c r="J10" s="31">
+        <v>32.6</v>
+      </c>
       <c r="K10" s="31"/>
       <c r="L10" s="31"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C11" s="5">
-        <v>657.75</v>
+        <v>59.8</v>
       </c>
       <c r="D11" s="5">
-        <v>719.5</v>
+        <v>62.4</v>
       </c>
       <c r="E11" s="5">
-        <v>676.5</v>
+        <v>63.4</v>
       </c>
       <c r="F11" s="5">
-        <v>680.4</v>
+        <v>64</v>
       </c>
       <c r="G11" s="31">
-        <v>660</v>
+        <v>63.3</v>
       </c>
       <c r="H11" s="31">
-        <v>675</v>
+        <v>62.6</v>
       </c>
       <c r="I11" s="31">
-        <v>672.95</v>
-      </c>
-      <c r="J11" s="31"/>
+        <v>63.3</v>
+      </c>
+      <c r="J11" s="31">
+        <v>63.25</v>
+      </c>
       <c r="K11" s="31"/>
       <c r="L11" s="31"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C12" s="5">
-        <v>131.25</v>
+        <v>25.7</v>
       </c>
       <c r="D12" s="5">
-        <v>136.75</v>
+        <v>37.450000000000003</v>
       </c>
       <c r="E12" s="5">
-        <v>140.80000000000001</v>
+        <v>37.049999999999997</v>
       </c>
       <c r="F12" s="5">
-        <v>151.19999999999999</v>
+        <v>36.65</v>
       </c>
       <c r="G12" s="31">
-        <v>152.55000000000001</v>
+        <v>34.85</v>
       </c>
       <c r="H12" s="31">
-        <v>149.80000000000001</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="I12" s="31">
-        <v>152.94999999999999</v>
-      </c>
-      <c r="J12" s="31"/>
+        <v>37.25</v>
+      </c>
+      <c r="J12" s="31">
+        <v>36.25</v>
+      </c>
       <c r="K12" s="31"/>
       <c r="L12" s="31"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>24</v>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C13" s="5">
-        <v>18.95</v>
+        <v>550.29999999999995</v>
       </c>
       <c r="D13" s="5">
-        <v>18</v>
+        <v>552.20000000000005</v>
       </c>
       <c r="E13" s="5">
-        <v>18.75</v>
+        <v>552.79999999999995</v>
       </c>
       <c r="F13" s="5">
-        <v>19.100000000000001</v>
+        <v>566.15</v>
       </c>
       <c r="G13" s="31">
-        <v>19.350000000000001</v>
+        <v>561.04999999999995</v>
       </c>
       <c r="H13" s="31">
-        <v>18.95</v>
+        <v>552</v>
       </c>
       <c r="I13" s="31">
-        <v>18.75</v>
-      </c>
-      <c r="J13" s="31"/>
+        <v>567.6</v>
+      </c>
+      <c r="J13" s="31">
+        <v>570.95000000000005</v>
+      </c>
       <c r="K13" s="31"/>
       <c r="L13" s="31"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>49</v>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="C14" s="5">
-        <v>81.650000000000006</v>
+        <v>331.65</v>
       </c>
       <c r="D14" s="5">
-        <v>83.3</v>
+        <v>288.5</v>
       </c>
       <c r="E14" s="5">
-        <v>82.95</v>
+        <v>291.5</v>
       </c>
       <c r="F14" s="5">
-        <v>82.55</v>
+        <v>293.35000000000002</v>
       </c>
       <c r="G14" s="31">
-        <v>82.1</v>
+        <v>291.7</v>
       </c>
       <c r="H14" s="31">
-        <v>82.55</v>
+        <v>290.35000000000002</v>
       </c>
       <c r="I14" s="31">
-        <v>82</v>
-      </c>
-      <c r="J14" s="31"/>
+        <v>285.25</v>
+      </c>
+      <c r="J14" s="31">
+        <v>287.75</v>
+      </c>
       <c r="K14" s="31"/>
       <c r="L14" s="31"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>50</v>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="C15" s="5">
-        <v>52.8</v>
+        <v>483.4</v>
       </c>
       <c r="D15" s="5">
-        <v>55.15</v>
+        <v>537</v>
       </c>
       <c r="E15" s="5">
-        <v>58.1</v>
+        <v>523</v>
       </c>
       <c r="F15" s="5">
-        <v>58.7</v>
+        <v>524.04999999999995</v>
       </c>
       <c r="G15" s="31">
-        <v>56.45</v>
+        <v>515</v>
       </c>
       <c r="H15" s="31">
-        <v>57.15</v>
+        <v>503.55</v>
       </c>
       <c r="I15" s="31">
-        <v>55.55</v>
-      </c>
-      <c r="J15" s="31"/>
+        <v>501.4</v>
+      </c>
+      <c r="J15" s="31">
+        <v>497</v>
+      </c>
       <c r="K15" s="31"/>
       <c r="L15" s="31"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>51</v>
+      <c r="N15" s="11"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="C16" s="5">
-        <v>36.35</v>
+        <v>174.25</v>
       </c>
       <c r="D16" s="5">
-        <v>33.799999999999997</v>
+        <v>180.5</v>
       </c>
       <c r="E16" s="5">
-        <v>32.9</v>
+        <v>189.9</v>
       </c>
       <c r="F16" s="5">
-        <v>34.4</v>
+        <v>196</v>
       </c>
       <c r="G16" s="31">
-        <v>33.200000000000003</v>
+        <v>196.55</v>
       </c>
       <c r="H16" s="31">
-        <v>33</v>
+        <v>195.2</v>
       </c>
       <c r="I16" s="31">
-        <v>32.5</v>
-      </c>
-      <c r="J16" s="31"/>
+        <v>190.05</v>
+      </c>
+      <c r="J16" s="31">
+        <v>195.15</v>
+      </c>
       <c r="K16" s="31"/>
       <c r="L16" s="31"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="5">
-        <v>59.8</v>
-      </c>
+      <c r="A17" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="5"/>
       <c r="D17" s="5">
-        <v>62.4</v>
+        <v>438.5</v>
       </c>
       <c r="E17" s="5">
-        <v>63.4</v>
+        <v>437.4</v>
       </c>
       <c r="F17" s="5">
-        <v>64</v>
+        <v>439</v>
       </c>
       <c r="G17" s="31">
-        <v>63.3</v>
+        <v>450.5</v>
       </c>
       <c r="H17" s="31">
-        <v>62.6</v>
+        <v>453</v>
       </c>
       <c r="I17" s="31">
-        <v>63.3</v>
-      </c>
-      <c r="J17" s="31"/>
+        <v>440.7</v>
+      </c>
+      <c r="J17" s="31">
+        <v>449</v>
+      </c>
       <c r="K17" s="31"/>
       <c r="L17" s="31"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="5">
-        <v>25.55</v>
-      </c>
+      <c r="A18" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="5"/>
       <c r="D18" s="5">
-        <v>27.5</v>
+        <v>744.65</v>
       </c>
       <c r="E18" s="5">
-        <v>27.2</v>
+        <v>751.95</v>
       </c>
       <c r="F18" s="5">
-        <v>26.85</v>
-      </c>
-      <c r="G18" s="31">
-        <v>27.25</v>
+        <v>748.7</v>
+      </c>
+      <c r="G18" s="34">
+        <v>739.1</v>
       </c>
       <c r="H18" s="31">
-        <v>27.05</v>
+        <v>724.95</v>
       </c>
       <c r="I18" s="31">
-        <v>27</v>
-      </c>
-      <c r="J18" s="31"/>
+        <v>718.65</v>
+      </c>
+      <c r="J18" s="31">
+        <v>736</v>
+      </c>
       <c r="K18" s="31"/>
       <c r="L18" s="31"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="5">
-        <v>24.4</v>
-      </c>
-      <c r="D19" s="5">
-        <v>26.55</v>
-      </c>
-      <c r="E19" s="5">
-        <v>24.75</v>
-      </c>
-      <c r="F19" s="5">
-        <v>25.6</v>
-      </c>
-      <c r="G19" s="31">
-        <v>24.9</v>
-      </c>
-      <c r="H19" s="31">
-        <v>24.85</v>
-      </c>
-      <c r="I19" s="31">
-        <v>24.7</v>
-      </c>
-      <c r="J19" s="31"/>
+        <v>138</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="33">
+        <v>1584</v>
+      </c>
+      <c r="E19" s="33">
+        <v>1602.5</v>
+      </c>
+      <c r="F19" s="33">
+        <v>1622.9</v>
+      </c>
+      <c r="G19" s="34">
+        <v>1592.8</v>
+      </c>
+      <c r="H19" s="34">
+        <v>1594</v>
+      </c>
+      <c r="I19" s="34">
+        <v>1615.45</v>
+      </c>
+      <c r="J19" s="34">
+        <v>1605.8</v>
+      </c>
       <c r="K19" s="31"/>
       <c r="L19" s="31"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="5">
-        <v>577.5</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" s="5"/>
       <c r="D20" s="5">
-        <v>613</v>
+        <v>411</v>
       </c>
       <c r="E20" s="5">
-        <v>611</v>
+        <v>427.5</v>
       </c>
       <c r="F20" s="5">
-        <v>608</v>
+        <v>426.5</v>
       </c>
       <c r="G20" s="31">
-        <v>600</v>
+        <v>414.05</v>
       </c>
       <c r="H20" s="31">
-        <v>595.95000000000005</v>
+        <v>412.95</v>
       </c>
       <c r="I20" s="31">
-        <v>599</v>
-      </c>
-      <c r="J20" s="31"/>
+        <v>420</v>
+      </c>
+      <c r="J20" s="31">
+        <v>419.5</v>
+      </c>
       <c r="K20" s="31"/>
       <c r="L20" s="31"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>32</v>
+      <c r="A21" s="5" t="s">
+        <v>151</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="5">
-        <v>60.55</v>
-      </c>
-      <c r="D21" s="5">
-        <v>58.35</v>
-      </c>
-      <c r="E21" s="5">
-        <v>58.4</v>
-      </c>
-      <c r="F21" s="5">
-        <v>58.5</v>
-      </c>
-      <c r="G21" s="31">
-        <v>57.6</v>
-      </c>
-      <c r="H21" s="31">
-        <v>59.5</v>
-      </c>
-      <c r="I21" s="31">
-        <v>58.7</v>
-      </c>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
+        <v>151</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5">
+        <v>89.3</v>
+      </c>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="5">
-        <v>25.7</v>
-      </c>
-      <c r="D22" s="5">
-        <v>37.450000000000003</v>
-      </c>
-      <c r="E22" s="5">
-        <v>37.049999999999997</v>
-      </c>
-      <c r="F22" s="5">
-        <v>36.65</v>
-      </c>
-      <c r="G22" s="31">
-        <v>34.85</v>
-      </c>
-      <c r="H22" s="31">
-        <v>36.200000000000003</v>
-      </c>
-      <c r="I22" s="31">
-        <v>37.25</v>
-      </c>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
+        <v>152</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5">
+        <v>309.25</v>
+      </c>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="5">
-        <v>550.29999999999995</v>
-      </c>
-      <c r="D23" s="5">
-        <v>552.20000000000005</v>
-      </c>
-      <c r="E23" s="5">
-        <v>552.79999999999995</v>
-      </c>
-      <c r="F23" s="5">
-        <v>566.15</v>
-      </c>
-      <c r="G23" s="31">
-        <v>561.04999999999995</v>
-      </c>
-      <c r="H23" s="31">
-        <v>552</v>
-      </c>
-      <c r="I23" s="31">
-        <v>567.6</v>
-      </c>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="5">
-        <v>331.65</v>
-      </c>
-      <c r="D24" s="5">
-        <v>288.5</v>
-      </c>
-      <c r="E24" s="5">
-        <v>291.5</v>
-      </c>
-      <c r="F24" s="5">
-        <v>293.35000000000002</v>
-      </c>
-      <c r="G24" s="31">
-        <v>291.7</v>
-      </c>
-      <c r="H24" s="31">
-        <v>290.35000000000002</v>
-      </c>
-      <c r="I24" s="31">
-        <v>285.25</v>
-      </c>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="5">
-        <v>483.4</v>
-      </c>
-      <c r="D25" s="5">
-        <v>537</v>
-      </c>
-      <c r="E25" s="5">
-        <v>523</v>
-      </c>
-      <c r="F25" s="5">
-        <v>524.04999999999995</v>
-      </c>
-      <c r="G25" s="31">
-        <v>515</v>
-      </c>
-      <c r="H25" s="31">
-        <v>503.55</v>
-      </c>
-      <c r="I25" s="31">
-        <v>501.4</v>
-      </c>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" s="5">
-        <v>174.25</v>
-      </c>
-      <c r="D26" s="5">
-        <v>180.5</v>
-      </c>
-      <c r="E26" s="5">
-        <v>189.9</v>
-      </c>
-      <c r="F26" s="5">
-        <v>196</v>
-      </c>
-      <c r="G26" s="31">
-        <v>196.55</v>
-      </c>
-      <c r="H26" s="31">
-        <v>195.2</v>
-      </c>
-      <c r="I26" s="31">
-        <v>190.05</v>
-      </c>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5">
-        <v>438.5</v>
-      </c>
-      <c r="E27" s="5">
-        <v>437.4</v>
-      </c>
-      <c r="F27" s="5">
-        <v>439</v>
-      </c>
-      <c r="G27" s="31">
-        <v>450.5</v>
-      </c>
-      <c r="H27" s="31">
-        <v>453</v>
-      </c>
-      <c r="I27" s="31">
-        <v>440.7</v>
-      </c>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="B28" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5">
-        <v>744.65</v>
-      </c>
-      <c r="E28" s="5">
-        <v>751.95</v>
-      </c>
-      <c r="F28" s="5">
-        <v>748.7</v>
-      </c>
-      <c r="G28" s="34">
-        <v>739.1</v>
-      </c>
-      <c r="H28" s="31">
-        <v>724.95</v>
-      </c>
-      <c r="I28" s="31">
-        <v>718.65</v>
-      </c>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="33">
-        <v>1584</v>
-      </c>
-      <c r="E29" s="33">
-        <v>1602.5</v>
-      </c>
-      <c r="F29" s="33">
-        <v>1622.9</v>
-      </c>
-      <c r="G29" s="34">
-        <v>1592.8</v>
-      </c>
-      <c r="H29" s="34">
-        <v>1594</v>
-      </c>
-      <c r="I29" s="34">
-        <v>1615.45</v>
-      </c>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5">
-        <v>411</v>
-      </c>
-      <c r="E30" s="5">
-        <v>427.5</v>
-      </c>
-      <c r="F30" s="5">
-        <v>426.5</v>
-      </c>
-      <c r="G30" s="31">
-        <v>414.05</v>
-      </c>
-      <c r="H30" s="31">
-        <v>412.95</v>
-      </c>
-      <c r="I30" s="31">
-        <v>420</v>
-      </c>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5">
-        <v>123.15</v>
-      </c>
-      <c r="F31" s="5">
-        <v>121.05</v>
-      </c>
-      <c r="G31" s="31">
-        <v>122.6</v>
-      </c>
-      <c r="H31" s="31">
-        <v>124.3</v>
-      </c>
-      <c r="I31" s="31">
-        <v>123.75</v>
-      </c>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="31"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5">
+        <v>302.7</v>
+      </c>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
     </row>
   </sheetData>
+  <sortState ref="N1:N37">
+    <sortCondition ref="N13"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7221,22 +6937,22 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="B1" s="8">
         <v>25000</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="8" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="18"/>
       <c r="G1" s="8" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="J1" s="5">
         <f>SUM(K2:K100)</f>
@@ -7244,51 +6960,51 @@
       </c>
       <c r="K1" s="5"/>
       <c r="M1" s="12" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="N1" s="5">
         <v>112000</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="Q1" s="5"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B2" s="8">
         <v>15000</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="8" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="E2" s="8">
         <v>40000</v>
       </c>
       <c r="F2" s="18"/>
       <c r="G2" s="8" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="H2" s="8">
         <v>100000</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="K2" s="5">
         <v>5000</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="N2" s="5">
         <v>3000</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="Q2" s="5">
         <v>5000</v>
@@ -7296,39 +7012,39 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B3" s="8">
         <v>20000</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="8" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="E3" s="8">
         <v>15000</v>
       </c>
       <c r="F3" s="18"/>
       <c r="G3" s="8" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="H3" s="8">
         <v>50000</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="K3" s="5">
         <v>500</v>
       </c>
       <c r="M3" s="28" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="N3" s="29">
         <v>2200</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="Q3" s="5">
         <f>Q2/2</f>
@@ -7337,27 +7053,27 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="B4" s="8">
         <v>40000</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="8" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="E4" s="8">
         <v>20000</v>
       </c>
       <c r="F4" s="18"/>
       <c r="G4" s="8" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="H4" s="8">
         <v>30000</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="K4" s="5">
         <v>3000</v>
@@ -7370,7 +7086,7 @@
         <v>117200</v>
       </c>
       <c r="P4" s="13" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="Q4" s="5">
         <v>500</v>
@@ -7378,33 +7094,33 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="B5" s="8">
         <v>4139</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="8" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="E5" s="8">
         <v>20000</v>
       </c>
       <c r="F5" s="18"/>
       <c r="G5" s="8" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="H5" s="8">
         <v>50000</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K5" s="15">
         <v>500</v>
       </c>
       <c r="P5" s="13" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="Q5" s="5">
         <f>Q3*Q4</f>
@@ -7413,40 +7129,40 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B6" s="8">
         <v>6000</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="8" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E6" s="8">
         <v>3000</v>
       </c>
       <c r="F6" s="18"/>
       <c r="G6" s="8" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="H6" s="8">
         <v>100000</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="K6" s="15">
         <v>900</v>
       </c>
       <c r="M6" s="21" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="N6" s="17">
         <f>J1-N4</f>
         <v>25150</v>
       </c>
       <c r="P6" s="13" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="Q6" s="5">
         <f>Q5/20</f>
@@ -7455,27 +7171,27 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B7" s="8">
         <v>3000</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="8" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="E7" s="8">
         <v>5000</v>
       </c>
       <c r="F7" s="18"/>
       <c r="G7" s="8" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="H7" s="8">
         <v>40000</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="K7" s="15">
         <v>400</v>
@@ -7483,27 +7199,27 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B8" s="8">
         <v>10000</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="8" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="E8" s="8">
         <v>10000</v>
       </c>
       <c r="F8" s="18"/>
       <c r="G8" s="8" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="H8" s="8">
         <v>30000</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="K8" s="15">
         <v>400</v>
@@ -7524,13 +7240,13 @@
         <v>113000</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="H9" s="8">
         <v>200000</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="K9" s="15">
         <v>400</v>
@@ -7538,37 +7254,37 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G10" s="8" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="H10" s="8">
         <v>187000</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K10" s="15">
         <v>3000</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="N10" s="5"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G11" s="8" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="H11" s="8">
         <v>300000</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="K11" s="15">
         <v>1000</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="N11" s="5">
         <v>5000</v>
@@ -7576,19 +7292,19 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G12" s="8" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="H12" s="8">
         <v>250000</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K12" s="15">
         <v>2000</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="N12" s="5">
         <v>5000</v>
@@ -7602,7 +7318,7 @@
         <v>1337000</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="K13" s="15">
         <v>750</v>
@@ -7611,7 +7327,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D14" s="22"/>
       <c r="J14" s="13" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="K14" s="15">
         <v>2000</v>
@@ -7620,7 +7336,7 @@
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D15" s="22"/>
       <c r="J15" s="13" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="K15" s="15">
         <v>13000</v>
@@ -7629,7 +7345,7 @@
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D16" s="22"/>
       <c r="J16" s="13" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="K16" s="15">
         <v>500</v>
@@ -7637,7 +7353,7 @@
     </row>
     <row r="17" spans="4:11" x14ac:dyDescent="0.25">
       <c r="J17" s="13" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="K17" s="15">
         <v>500</v>
@@ -7645,7 +7361,7 @@
     </row>
     <row r="18" spans="4:11" x14ac:dyDescent="0.25">
       <c r="J18" s="13" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="K18" s="15">
         <v>500</v>
@@ -7653,7 +7369,7 @@
     </row>
     <row r="19" spans="4:11" x14ac:dyDescent="0.25">
       <c r="J19" s="13" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="K19" s="15">
         <v>2000</v>
@@ -7661,7 +7377,7 @@
     </row>
     <row r="20" spans="4:11" x14ac:dyDescent="0.25">
       <c r="J20" s="13" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="K20" s="15">
         <v>6000</v>
@@ -7669,7 +7385,7 @@
     </row>
     <row r="21" spans="4:11" x14ac:dyDescent="0.25">
       <c r="J21" s="13" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="K21" s="15">
         <v>5000</v>
@@ -7677,7 +7393,7 @@
     </row>
     <row r="22" spans="4:11" x14ac:dyDescent="0.25">
       <c r="J22" s="13" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="K22" s="15">
         <v>15000</v>
@@ -7685,7 +7401,7 @@
     </row>
     <row r="23" spans="4:11" x14ac:dyDescent="0.25">
       <c r="J23" s="13" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="K23" s="15">
         <v>20000</v>
@@ -7693,7 +7409,7 @@
     </row>
     <row r="24" spans="4:11" x14ac:dyDescent="0.25">
       <c r="J24" s="13" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="K24" s="15">
         <v>40000</v>
@@ -7701,7 +7417,7 @@
     </row>
     <row r="25" spans="4:11" x14ac:dyDescent="0.25">
       <c r="J25" s="13" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="K25" s="15">
         <v>10000</v>
@@ -7710,7 +7426,7 @@
     <row r="26" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D26" s="21"/>
       <c r="J26" s="13" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="K26" s="15">
         <v>10000</v>
@@ -7744,28 +7460,28 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="I1">
         <f>SUM(H2:H200)</f>
@@ -7774,7 +7490,7 @@
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B2" s="5">
         <v>296</v>
@@ -7797,12 +7513,12 @@
         <v>126</v>
       </c>
       <c r="K2" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="B3" s="5">
         <v>170</v>
@@ -7832,12 +7548,12 @@
         <v>172</v>
       </c>
       <c r="K3" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="B4" s="5">
         <v>34</v>
@@ -7867,12 +7583,12 @@
         <v>180</v>
       </c>
       <c r="K4" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="B5" s="5">
         <v>38</v>
@@ -7902,12 +7618,12 @@
         <v>298</v>
       </c>
       <c r="K5" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="B6" s="5">
         <v>71.010000000000005</v>
@@ -7929,7 +7645,7 @@
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="B7" s="5">
         <v>92.1</v>
@@ -7953,7 +7669,7 @@
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="B8" s="5">
         <v>762</v>
@@ -7975,7 +7691,7 @@
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="B9" s="5">
         <v>1595</v>
@@ -7997,7 +7713,7 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="B10" s="5">
         <v>90.2</v>
@@ -8019,7 +7735,7 @@
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="B11" s="5">
         <v>410.1</v>
@@ -8048,7 +7764,7 @@
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="B12" s="5">
         <v>121</v>
@@ -8077,7 +7793,7 @@
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="B13" s="5">
         <v>200.25</v>
@@ -8099,7 +7815,7 @@
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="B14" s="5">
         <v>34.25</v>
@@ -8274,13 +7990,13 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="B2" s="5">
         <v>36.5</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="E2" s="5">
         <v>41.5</v>
@@ -8288,13 +8004,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="B3" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="E3" s="5">
         <v>5.0000000000000001E-3</v>
@@ -8302,14 +8018,14 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="B4" s="5">
         <f>B2*B3</f>
         <v>0.1825</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="E4" s="5">
         <f>E2*E3</f>
@@ -8318,13 +8034,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="B5" s="5">
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
@@ -8332,14 +8048,14 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="B6" s="5">
         <f>B4*B5</f>
         <v>0.1825</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="E6" s="5">
         <f>E4*E5</f>
@@ -8348,14 +8064,14 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="B7" s="5">
         <f>B2+B4</f>
         <v>36.682499999999997</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="E7" s="5">
         <f>E2-E4</f>
@@ -8364,14 +8080,14 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="B8" s="5">
         <f>ROUND(B7*B5,2)</f>
         <v>36.68</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="E8" s="5">
         <f>ROUND(E7*E5,2)</f>
@@ -8380,13 +8096,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="B9" s="5">
         <v>0.18</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="E9" s="5">
         <v>0.18</v>
@@ -8394,14 +8110,14 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="B10" s="5">
         <f>B9*B6</f>
         <v>3.2849999999999997E-2</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="E10" s="5">
         <f>E9*E6</f>
@@ -8410,13 +8126,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="B11" s="5">
         <v>1E-3</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="E11" s="5">
         <v>1E-3</v>
@@ -8424,14 +8140,14 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="B12" s="5">
         <f>B11*B8</f>
         <v>3.6679999999999997E-2</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="E12" s="5">
         <f>E11*E8</f>
@@ -8440,13 +8156,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="B13" s="5">
         <v>3.2499999999999997E-5</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="E13" s="5">
         <v>3.2499999999999997E-5</v>
@@ -8454,14 +8170,14 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="B14" s="5">
         <f>B13*B8</f>
         <v>1.1921E-3</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="E14" s="5">
         <f>E13*E8</f>
@@ -8470,13 +8186,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="B15" s="32">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="E15" s="32">
         <v>2.0000000000000001E-4</v>
@@ -8484,14 +8200,14 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="B16" s="5">
         <f>B8*B15</f>
         <v>7.3360000000000005E-3</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="E16" s="5">
         <f>E8*E15</f>
@@ -8500,14 +8216,14 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="B17" s="5">
         <f>B10+B12+B14+B16</f>
         <v>7.8058099999999991E-2</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="E17" s="5">
         <f>E10+E12+E14+E16</f>
@@ -8516,14 +8232,14 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="B18" s="5">
         <f>B8+B17</f>
         <v>36.7580581</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="E18" s="5">
         <f>E8-E17</f>
@@ -8548,7 +8264,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -8559,7 +8275,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/documents/Home.xlsx
+++ b/documents/Home.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="13965" windowHeight="5625" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="13965" windowHeight="5625" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="PaidTillDate" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
     <sheet name="Actual Price Calculator" sheetId="8" r:id="rId5"/>
     <sheet name="Spent" sheetId="9" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="165">
   <si>
     <t>Date</t>
   </si>
@@ -487,16 +487,43 @@
   </si>
   <si>
     <t>SBIN</t>
+  </si>
+  <si>
+    <t>Reliance</t>
+  </si>
+  <si>
+    <t>Coal India</t>
+  </si>
+  <si>
+    <t>GMR</t>
+  </si>
+  <si>
+    <t>Sail</t>
+  </si>
+  <si>
+    <t>Per Month</t>
+  </si>
+  <si>
+    <t>Total Spent</t>
+  </si>
+  <si>
+    <t>Demat</t>
+  </si>
+  <si>
+    <t>Loan</t>
+  </si>
+  <si>
+    <t>IDFC Bank</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -613,7 +640,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -653,6 +680,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -743,7 +773,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -778,7 +807,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -954,14 +982,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H3"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
@@ -970,7 +998,7 @@
     <col min="6" max="26" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -1004,7 +1032,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26">
       <c r="A2" s="24">
         <v>42190</v>
       </c>
@@ -1034,7 +1062,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26">
       <c r="A3" s="24">
         <v>42192</v>
       </c>
@@ -1052,7 +1080,7 @@
       </c>
       <c r="H3" s="4">
         <f>H2-B25</f>
-        <v>245990</v>
+        <v>195990</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -1063,7 +1091,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26">
       <c r="A4" s="24">
         <v>42229</v>
       </c>
@@ -1073,7 +1101,7 @@
       <c r="D4" s="27"/>
       <c r="E4" s="27"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26">
       <c r="A5" s="24">
         <v>42230</v>
       </c>
@@ -1085,7 +1113,7 @@
       </c>
       <c r="E5" s="27"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26">
       <c r="A6" s="24">
         <v>42255</v>
       </c>
@@ -1094,7 +1122,7 @@
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26">
       <c r="A7" s="24">
         <v>42262</v>
       </c>
@@ -1103,7 +1131,7 @@
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26">
       <c r="A8" s="24">
         <v>42282</v>
       </c>
@@ -1112,7 +1140,7 @@
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26">
       <c r="A9" s="24">
         <v>42299</v>
       </c>
@@ -1121,7 +1149,7 @@
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26">
       <c r="A10" s="24">
         <v>42373</v>
       </c>
@@ -1130,7 +1158,7 @@
       </c>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26">
       <c r="A11" s="24">
         <v>42553</v>
       </c>
@@ -1139,7 +1167,7 @@
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26">
       <c r="A12" s="24">
         <v>42640</v>
       </c>
@@ -1148,7 +1176,7 @@
       </c>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26">
       <c r="A13" s="25">
         <v>42768</v>
       </c>
@@ -1157,7 +1185,7 @@
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26">
       <c r="A14" s="25">
         <v>42796</v>
       </c>
@@ -1166,7 +1194,7 @@
       </c>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26">
       <c r="A15" s="25">
         <v>42829</v>
       </c>
@@ -1175,7 +1203,7 @@
       </c>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26">
       <c r="A16" s="26">
         <v>42856</v>
       </c>
@@ -1184,7 +1212,7 @@
       </c>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26">
       <c r="A17" s="26">
         <v>42887</v>
       </c>
@@ -1193,7 +1221,7 @@
       </c>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26">
       <c r="A18" s="26">
         <v>42917</v>
       </c>
@@ -1202,43 +1230,47 @@
       </c>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
-      <c r="B19" s="23"/>
+    <row r="19" spans="1:26">
+      <c r="A19" s="26">
+        <v>42948</v>
+      </c>
+      <c r="B19" s="23">
+        <v>50000</v>
+      </c>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26">
       <c r="A20" s="26"/>
       <c r="B20" s="23"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26">
       <c r="A21" s="26"/>
       <c r="B21" s="23"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26">
       <c r="A22" s="26"/>
       <c r="B22" s="23"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26">
       <c r="A23" s="26"/>
       <c r="B23" s="23"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26">
       <c r="A24" s="27"/>
       <c r="B24" s="27"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26">
       <c r="A25" s="25" t="s">
         <v>5</v>
       </c>
       <c r="B25" s="23">
         <f>SUM(B2:B24)</f>
-        <v>312500</v>
+        <v>362500</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1265,4877 +1297,4877 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="E45" s="3"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="E48" s="3"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="E53" s="3"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="E54" s="3"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="E61" s="3"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="E62" s="3"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="E63" s="3"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="E64" s="3"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="E65" s="3"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="E66" s="3"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="E67" s="3"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="E68" s="3"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="E69" s="3"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="E70" s="3"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="E71" s="3"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="E72" s="3"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="E73" s="3"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="E74" s="3"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="E75" s="3"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="E76" s="3"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="E77" s="3"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="E78" s="3"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="E79" s="3"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="E80" s="3"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="E81" s="3"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="E82" s="3"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="E83" s="3"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="E84" s="3"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="E85" s="3"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="E86" s="3"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="E87" s="3"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="E88" s="3"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="E89" s="3"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="E90" s="3"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="E91" s="3"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="E92" s="3"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="E93" s="3"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="E94" s="3"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="E95" s="3"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="E96" s="3"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="E97" s="3"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="E98" s="3"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="E99" s="3"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="E100" s="3"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="E101" s="3"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="E102" s="3"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="E103" s="3"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="E104" s="3"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="E105" s="3"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="E106" s="3"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="E107" s="3"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="E108" s="3"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="E109" s="3"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="E110" s="3"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="E111" s="3"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="E112" s="3"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="E113" s="3"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="E114" s="3"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="E115" s="3"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="E116" s="3"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="E117" s="3"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="E118" s="3"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="E119" s="3"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="E120" s="3"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="E121" s="3"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="E122" s="3"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="E123" s="3"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="E124" s="3"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="E125" s="3"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="E126" s="3"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="E127" s="3"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="E128" s="3"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="E129" s="3"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="E130" s="3"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="E131" s="3"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="E132" s="3"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="E133" s="3"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="E134" s="3"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="E135" s="3"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="E136" s="3"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="E137" s="3"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="E138" s="3"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="E139" s="3"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="E140" s="3"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="E141" s="3"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="E142" s="3"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="E143" s="3"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="E144" s="3"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="E145" s="3"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="E146" s="3"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="E147" s="3"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="E148" s="3"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="E149" s="3"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="E150" s="3"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="E151" s="3"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="E152" s="3"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="E153" s="3"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="E154" s="3"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="E155" s="3"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="E156" s="3"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="E157" s="3"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="E158" s="3"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="E159" s="3"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="E160" s="3"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="E161" s="3"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="E162" s="3"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="E163" s="3"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="E164" s="3"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="E165" s="3"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="E166" s="3"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="E167" s="3"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="E168" s="3"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="E169" s="3"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="E170" s="3"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="E171" s="3"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="E172" s="3"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="E173" s="3"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="E174" s="3"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="E175" s="3"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="E176" s="3"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="E177" s="3"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="E178" s="3"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="E179" s="3"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="E180" s="3"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="E181" s="3"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="E182" s="3"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="E183" s="3"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="E184" s="3"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="E185" s="3"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="E186" s="3"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="E187" s="3"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="E188" s="3"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="E189" s="3"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="E190" s="3"/>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="E191" s="3"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="E192" s="3"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="E193" s="3"/>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="E194" s="3"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="E195" s="3"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="E196" s="3"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="E197" s="3"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="E198" s="3"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="E199" s="3"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="E200" s="3"/>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="E201" s="3"/>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="E202" s="3"/>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="E203" s="3"/>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="E204" s="3"/>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="E205" s="3"/>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="E206" s="3"/>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="E207" s="3"/>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="E208" s="3"/>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="E209" s="3"/>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="E210" s="3"/>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="E211" s="3"/>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="E212" s="3"/>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="E213" s="3"/>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="E214" s="3"/>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="E215" s="3"/>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="E216" s="3"/>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="E217" s="3"/>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="E218" s="3"/>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="E219" s="3"/>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="E220" s="3"/>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5">
       <c r="A221" s="3"/>
       <c r="B221" s="3"/>
       <c r="E221" s="3"/>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5">
       <c r="A222" s="3"/>
       <c r="B222" s="3"/>
       <c r="E222" s="3"/>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5">
       <c r="A223" s="3"/>
       <c r="B223" s="3"/>
       <c r="E223" s="3"/>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5">
       <c r="A224" s="3"/>
       <c r="B224" s="3"/>
       <c r="E224" s="3"/>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5">
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
       <c r="E225" s="3"/>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5">
       <c r="A226" s="3"/>
       <c r="B226" s="3"/>
       <c r="E226" s="3"/>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5">
       <c r="A227" s="3"/>
       <c r="B227" s="3"/>
       <c r="E227" s="3"/>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5">
       <c r="A228" s="3"/>
       <c r="B228" s="3"/>
       <c r="E228" s="3"/>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5">
       <c r="A229" s="3"/>
       <c r="B229" s="3"/>
       <c r="E229" s="3"/>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5">
       <c r="A230" s="3"/>
       <c r="B230" s="3"/>
       <c r="E230" s="3"/>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5">
       <c r="A231" s="3"/>
       <c r="B231" s="3"/>
       <c r="E231" s="3"/>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5">
       <c r="A232" s="3"/>
       <c r="B232" s="3"/>
       <c r="E232" s="3"/>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5">
       <c r="A233" s="3"/>
       <c r="B233" s="3"/>
       <c r="E233" s="3"/>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5">
       <c r="A234" s="3"/>
       <c r="B234" s="3"/>
       <c r="E234" s="3"/>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5">
       <c r="A235" s="3"/>
       <c r="B235" s="3"/>
       <c r="E235" s="3"/>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5">
       <c r="A236" s="3"/>
       <c r="B236" s="3"/>
       <c r="E236" s="3"/>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5">
       <c r="A237" s="3"/>
       <c r="B237" s="3"/>
       <c r="E237" s="3"/>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5">
       <c r="A238" s="3"/>
       <c r="B238" s="3"/>
       <c r="E238" s="3"/>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5">
       <c r="A239" s="3"/>
       <c r="B239" s="3"/>
       <c r="E239" s="3"/>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5">
       <c r="A240" s="3"/>
       <c r="B240" s="3"/>
       <c r="E240" s="3"/>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5">
       <c r="A241" s="3"/>
       <c r="B241" s="3"/>
       <c r="E241" s="3"/>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5">
       <c r="A242" s="3"/>
       <c r="B242" s="3"/>
       <c r="E242" s="3"/>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5">
       <c r="A243" s="3"/>
       <c r="B243" s="3"/>
       <c r="E243" s="3"/>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5">
       <c r="A244" s="3"/>
       <c r="B244" s="3"/>
       <c r="E244" s="3"/>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5">
       <c r="A245" s="3"/>
       <c r="B245" s="3"/>
       <c r="E245" s="3"/>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5">
       <c r="A246" s="3"/>
       <c r="B246" s="3"/>
       <c r="E246" s="3"/>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5">
       <c r="A247" s="3"/>
       <c r="B247" s="3"/>
       <c r="E247" s="3"/>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5">
       <c r="A248" s="3"/>
       <c r="B248" s="3"/>
       <c r="E248" s="3"/>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5">
       <c r="A249" s="3"/>
       <c r="B249" s="3"/>
       <c r="E249" s="3"/>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5">
       <c r="A250" s="3"/>
       <c r="B250" s="3"/>
       <c r="E250" s="3"/>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5">
       <c r="A251" s="3"/>
       <c r="B251" s="3"/>
       <c r="E251" s="3"/>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5">
       <c r="A252" s="3"/>
       <c r="B252" s="3"/>
       <c r="E252" s="3"/>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5">
       <c r="A253" s="3"/>
       <c r="B253" s="3"/>
       <c r="E253" s="3"/>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5">
       <c r="A254" s="3"/>
       <c r="B254" s="3"/>
       <c r="E254" s="3"/>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
       <c r="E255" s="3"/>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5">
       <c r="A256" s="3"/>
       <c r="B256" s="3"/>
       <c r="E256" s="3"/>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5">
       <c r="A257" s="3"/>
       <c r="B257" s="3"/>
       <c r="E257" s="3"/>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5">
       <c r="A258" s="3"/>
       <c r="B258" s="3"/>
       <c r="E258" s="3"/>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5">
       <c r="A259" s="3"/>
       <c r="B259" s="3"/>
       <c r="E259" s="3"/>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5">
       <c r="A260" s="3"/>
       <c r="B260" s="3"/>
       <c r="E260" s="3"/>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5">
       <c r="A261" s="3"/>
       <c r="B261" s="3"/>
       <c r="E261" s="3"/>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5">
       <c r="A262" s="3"/>
       <c r="B262" s="3"/>
       <c r="E262" s="3"/>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5">
       <c r="A263" s="3"/>
       <c r="B263" s="3"/>
       <c r="E263" s="3"/>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5">
       <c r="A264" s="3"/>
       <c r="B264" s="3"/>
       <c r="E264" s="3"/>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5">
       <c r="A265" s="3"/>
       <c r="B265" s="3"/>
       <c r="E265" s="3"/>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5">
       <c r="A266" s="3"/>
       <c r="B266" s="3"/>
       <c r="E266" s="3"/>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5">
       <c r="A267" s="3"/>
       <c r="B267" s="3"/>
       <c r="E267" s="3"/>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5">
       <c r="A268" s="3"/>
       <c r="B268" s="3"/>
       <c r="E268" s="3"/>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5">
       <c r="A269" s="3"/>
       <c r="B269" s="3"/>
       <c r="E269" s="3"/>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5">
       <c r="A270" s="3"/>
       <c r="B270" s="3"/>
       <c r="E270" s="3"/>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5">
       <c r="A271" s="3"/>
       <c r="B271" s="3"/>
       <c r="E271" s="3"/>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5">
       <c r="A272" s="3"/>
       <c r="B272" s="3"/>
       <c r="E272" s="3"/>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5">
       <c r="A273" s="3"/>
       <c r="B273" s="3"/>
       <c r="E273" s="3"/>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5">
       <c r="A274" s="3"/>
       <c r="B274" s="3"/>
       <c r="E274" s="3"/>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5">
       <c r="A275" s="3"/>
       <c r="B275" s="3"/>
       <c r="E275" s="3"/>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5">
       <c r="A276" s="3"/>
       <c r="B276" s="3"/>
       <c r="E276" s="3"/>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5">
       <c r="A277" s="3"/>
       <c r="B277" s="3"/>
       <c r="E277" s="3"/>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5">
       <c r="A278" s="3"/>
       <c r="B278" s="3"/>
       <c r="E278" s="3"/>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5">
       <c r="A279" s="3"/>
       <c r="B279" s="3"/>
       <c r="E279" s="3"/>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5">
       <c r="A280" s="3"/>
       <c r="B280" s="3"/>
       <c r="E280" s="3"/>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5">
       <c r="A281" s="3"/>
       <c r="B281" s="3"/>
       <c r="E281" s="3"/>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5">
       <c r="A282" s="3"/>
       <c r="B282" s="3"/>
       <c r="E282" s="3"/>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5">
       <c r="A283" s="3"/>
       <c r="B283" s="3"/>
       <c r="E283" s="3"/>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5">
       <c r="A284" s="3"/>
       <c r="B284" s="3"/>
       <c r="E284" s="3"/>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5">
       <c r="A285" s="3"/>
       <c r="B285" s="3"/>
       <c r="E285" s="3"/>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5">
       <c r="A286" s="3"/>
       <c r="B286" s="3"/>
       <c r="E286" s="3"/>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5">
       <c r="A287" s="3"/>
       <c r="B287" s="3"/>
       <c r="E287" s="3"/>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5">
       <c r="A288" s="3"/>
       <c r="B288" s="3"/>
       <c r="E288" s="3"/>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5">
       <c r="A289" s="3"/>
       <c r="B289" s="3"/>
       <c r="E289" s="3"/>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5">
       <c r="A290" s="3"/>
       <c r="B290" s="3"/>
       <c r="E290" s="3"/>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5">
       <c r="A291" s="3"/>
       <c r="B291" s="3"/>
       <c r="E291" s="3"/>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5">
       <c r="A292" s="3"/>
       <c r="B292" s="3"/>
       <c r="E292" s="3"/>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5">
       <c r="A293" s="3"/>
       <c r="B293" s="3"/>
       <c r="E293" s="3"/>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5">
       <c r="A294" s="3"/>
       <c r="B294" s="3"/>
       <c r="E294" s="3"/>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5">
       <c r="A295" s="3"/>
       <c r="B295" s="3"/>
       <c r="E295" s="3"/>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5">
       <c r="A296" s="3"/>
       <c r="B296" s="3"/>
       <c r="E296" s="3"/>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5">
       <c r="A297" s="3"/>
       <c r="B297" s="3"/>
       <c r="E297" s="3"/>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5">
       <c r="A298" s="3"/>
       <c r="B298" s="3"/>
       <c r="E298" s="3"/>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5">
       <c r="A299" s="3"/>
       <c r="B299" s="3"/>
       <c r="E299" s="3"/>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5">
       <c r="A300" s="3"/>
       <c r="B300" s="3"/>
       <c r="E300" s="3"/>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5">
       <c r="A301" s="3"/>
       <c r="B301" s="3"/>
       <c r="E301" s="3"/>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5">
       <c r="A302" s="3"/>
       <c r="B302" s="3"/>
       <c r="E302" s="3"/>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5">
       <c r="A303" s="3"/>
       <c r="B303" s="3"/>
       <c r="E303" s="3"/>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5">
       <c r="A304" s="3"/>
       <c r="B304" s="3"/>
       <c r="E304" s="3"/>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5">
       <c r="A305" s="3"/>
       <c r="B305" s="3"/>
       <c r="E305" s="3"/>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5">
       <c r="A306" s="3"/>
       <c r="B306" s="3"/>
       <c r="E306" s="3"/>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5">
       <c r="A307" s="3"/>
       <c r="B307" s="3"/>
       <c r="E307" s="3"/>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5">
       <c r="A308" s="3"/>
       <c r="B308" s="3"/>
       <c r="E308" s="3"/>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5">
       <c r="A309" s="3"/>
       <c r="B309" s="3"/>
       <c r="E309" s="3"/>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5">
       <c r="A310" s="3"/>
       <c r="B310" s="3"/>
       <c r="E310" s="3"/>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5">
       <c r="A311" s="3"/>
       <c r="B311" s="3"/>
       <c r="E311" s="3"/>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5">
       <c r="A312" s="3"/>
       <c r="B312" s="3"/>
       <c r="E312" s="3"/>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5">
       <c r="A313" s="3"/>
       <c r="B313" s="3"/>
       <c r="E313" s="3"/>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5">
       <c r="A314" s="3"/>
       <c r="B314" s="3"/>
       <c r="E314" s="3"/>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5">
       <c r="A315" s="3"/>
       <c r="B315" s="3"/>
       <c r="E315" s="3"/>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5">
       <c r="A316" s="3"/>
       <c r="B316" s="3"/>
       <c r="E316" s="3"/>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5">
       <c r="A317" s="3"/>
       <c r="B317" s="3"/>
       <c r="E317" s="3"/>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5">
       <c r="A318" s="3"/>
       <c r="B318" s="3"/>
       <c r="E318" s="3"/>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5">
       <c r="A319" s="3"/>
       <c r="B319" s="3"/>
       <c r="E319" s="3"/>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5">
       <c r="A320" s="3"/>
       <c r="B320" s="3"/>
       <c r="E320" s="3"/>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5">
       <c r="A321" s="3"/>
       <c r="B321" s="3"/>
       <c r="E321" s="3"/>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5">
       <c r="A322" s="3"/>
       <c r="B322" s="3"/>
       <c r="E322" s="3"/>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5">
       <c r="A323" s="3"/>
       <c r="B323" s="3"/>
       <c r="E323" s="3"/>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5">
       <c r="A324" s="3"/>
       <c r="B324" s="3"/>
       <c r="E324" s="3"/>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5">
       <c r="A325" s="3"/>
       <c r="B325" s="3"/>
       <c r="E325" s="3"/>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5">
       <c r="A326" s="3"/>
       <c r="B326" s="3"/>
       <c r="E326" s="3"/>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5">
       <c r="A327" s="3"/>
       <c r="B327" s="3"/>
       <c r="E327" s="3"/>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5">
       <c r="A328" s="3"/>
       <c r="B328" s="3"/>
       <c r="E328" s="3"/>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5">
       <c r="A329" s="3"/>
       <c r="B329" s="3"/>
       <c r="E329" s="3"/>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5">
       <c r="A330" s="3"/>
       <c r="B330" s="3"/>
       <c r="E330" s="3"/>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5">
       <c r="A331" s="3"/>
       <c r="B331" s="3"/>
       <c r="E331" s="3"/>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5">
       <c r="A332" s="3"/>
       <c r="B332" s="3"/>
       <c r="E332" s="3"/>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5">
       <c r="A333" s="3"/>
       <c r="B333" s="3"/>
       <c r="E333" s="3"/>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5">
       <c r="A334" s="3"/>
       <c r="B334" s="3"/>
       <c r="E334" s="3"/>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5">
       <c r="A335" s="3"/>
       <c r="B335" s="3"/>
       <c r="E335" s="3"/>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5">
       <c r="A336" s="3"/>
       <c r="B336" s="3"/>
       <c r="E336" s="3"/>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5">
       <c r="A337" s="3"/>
       <c r="B337" s="3"/>
       <c r="E337" s="3"/>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5">
       <c r="A338" s="3"/>
       <c r="B338" s="3"/>
       <c r="E338" s="3"/>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5">
       <c r="A339" s="3"/>
       <c r="B339" s="3"/>
       <c r="E339" s="3"/>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5">
       <c r="A340" s="3"/>
       <c r="B340" s="3"/>
       <c r="E340" s="3"/>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5">
       <c r="A341" s="3"/>
       <c r="B341" s="3"/>
       <c r="E341" s="3"/>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5">
       <c r="A342" s="3"/>
       <c r="B342" s="3"/>
       <c r="E342" s="3"/>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5">
       <c r="A343" s="3"/>
       <c r="B343" s="3"/>
       <c r="E343" s="3"/>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5">
       <c r="A344" s="3"/>
       <c r="B344" s="3"/>
       <c r="E344" s="3"/>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5">
       <c r="A345" s="3"/>
       <c r="B345" s="3"/>
       <c r="E345" s="3"/>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5">
       <c r="A346" s="3"/>
       <c r="B346" s="3"/>
       <c r="E346" s="3"/>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5">
       <c r="A347" s="3"/>
       <c r="B347" s="3"/>
       <c r="E347" s="3"/>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5">
       <c r="A348" s="3"/>
       <c r="B348" s="3"/>
       <c r="E348" s="3"/>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5">
       <c r="A349" s="3"/>
       <c r="B349" s="3"/>
       <c r="E349" s="3"/>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5">
       <c r="A350" s="3"/>
       <c r="B350" s="3"/>
       <c r="E350" s="3"/>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5">
       <c r="A351" s="3"/>
       <c r="B351" s="3"/>
       <c r="E351" s="3"/>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5">
       <c r="A352" s="3"/>
       <c r="B352" s="3"/>
       <c r="E352" s="3"/>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5">
       <c r="A353" s="3"/>
       <c r="B353" s="3"/>
       <c r="E353" s="3"/>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5">
       <c r="A354" s="3"/>
       <c r="B354" s="3"/>
       <c r="E354" s="3"/>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5">
       <c r="A355" s="3"/>
       <c r="B355" s="3"/>
       <c r="E355" s="3"/>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5">
       <c r="A356" s="3"/>
       <c r="B356" s="3"/>
       <c r="E356" s="3"/>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5">
       <c r="A357" s="3"/>
       <c r="B357" s="3"/>
       <c r="E357" s="3"/>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5">
       <c r="A358" s="3"/>
       <c r="B358" s="3"/>
       <c r="E358" s="3"/>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5">
       <c r="A359" s="3"/>
       <c r="B359" s="3"/>
       <c r="E359" s="3"/>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5">
       <c r="A360" s="3"/>
       <c r="B360" s="3"/>
       <c r="E360" s="3"/>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5">
       <c r="A361" s="3"/>
       <c r="B361" s="3"/>
       <c r="E361" s="3"/>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5">
       <c r="A362" s="3"/>
       <c r="B362" s="3"/>
       <c r="E362" s="3"/>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5">
       <c r="A363" s="3"/>
       <c r="B363" s="3"/>
       <c r="E363" s="3"/>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5">
       <c r="A364" s="3"/>
       <c r="B364" s="3"/>
       <c r="E364" s="3"/>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5">
       <c r="A365" s="3"/>
       <c r="B365" s="3"/>
       <c r="E365" s="3"/>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5">
       <c r="A366" s="3"/>
       <c r="B366" s="3"/>
       <c r="E366" s="3"/>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5">
       <c r="A367" s="3"/>
       <c r="B367" s="3"/>
       <c r="E367" s="3"/>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5">
       <c r="A368" s="3"/>
       <c r="B368" s="3"/>
       <c r="E368" s="3"/>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5">
       <c r="A369" s="3"/>
       <c r="B369" s="3"/>
       <c r="E369" s="3"/>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5">
       <c r="A370" s="3"/>
       <c r="B370" s="3"/>
       <c r="E370" s="3"/>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5">
       <c r="A371" s="3"/>
       <c r="B371" s="3"/>
       <c r="E371" s="3"/>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5">
       <c r="A372" s="3"/>
       <c r="B372" s="3"/>
       <c r="E372" s="3"/>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5">
       <c r="A373" s="3"/>
       <c r="B373" s="3"/>
       <c r="E373" s="3"/>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5">
       <c r="A374" s="3"/>
       <c r="B374" s="3"/>
       <c r="E374" s="3"/>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5">
       <c r="A375" s="3"/>
       <c r="B375" s="3"/>
       <c r="E375" s="3"/>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5">
       <c r="A376" s="3"/>
       <c r="B376" s="3"/>
       <c r="E376" s="3"/>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5">
       <c r="A377" s="3"/>
       <c r="B377" s="3"/>
       <c r="E377" s="3"/>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5">
       <c r="A378" s="3"/>
       <c r="B378" s="3"/>
       <c r="E378" s="3"/>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5">
       <c r="A379" s="3"/>
       <c r="B379" s="3"/>
       <c r="E379" s="3"/>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5">
       <c r="A380" s="3"/>
       <c r="B380" s="3"/>
       <c r="E380" s="3"/>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5">
       <c r="A381" s="3"/>
       <c r="B381" s="3"/>
       <c r="E381" s="3"/>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5">
       <c r="A382" s="3"/>
       <c r="B382" s="3"/>
       <c r="E382" s="3"/>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5">
       <c r="A383" s="3"/>
       <c r="B383" s="3"/>
       <c r="E383" s="3"/>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5">
       <c r="A384" s="3"/>
       <c r="B384" s="3"/>
       <c r="E384" s="3"/>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5">
       <c r="A385" s="3"/>
       <c r="B385" s="3"/>
       <c r="E385" s="3"/>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5">
       <c r="A386" s="3"/>
       <c r="B386" s="3"/>
       <c r="E386" s="3"/>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5">
       <c r="A387" s="3"/>
       <c r="B387" s="3"/>
       <c r="E387" s="3"/>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5">
       <c r="A388" s="3"/>
       <c r="B388" s="3"/>
       <c r="E388" s="3"/>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5">
       <c r="A389" s="3"/>
       <c r="B389" s="3"/>
       <c r="E389" s="3"/>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5">
       <c r="A390" s="3"/>
       <c r="B390" s="3"/>
       <c r="E390" s="3"/>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5">
       <c r="A391" s="3"/>
       <c r="B391" s="3"/>
       <c r="E391" s="3"/>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5">
       <c r="A392" s="3"/>
       <c r="B392" s="3"/>
       <c r="E392" s="3"/>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5">
       <c r="A393" s="3"/>
       <c r="B393" s="3"/>
       <c r="E393" s="3"/>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5">
       <c r="A394" s="3"/>
       <c r="B394" s="3"/>
       <c r="E394" s="3"/>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5">
       <c r="A395" s="3"/>
       <c r="B395" s="3"/>
       <c r="E395" s="3"/>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5">
       <c r="A396" s="3"/>
       <c r="B396" s="3"/>
       <c r="E396" s="3"/>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5">
       <c r="A397" s="3"/>
       <c r="B397" s="3"/>
       <c r="E397" s="3"/>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5">
       <c r="A398" s="3"/>
       <c r="B398" s="3"/>
       <c r="E398" s="3"/>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5">
       <c r="A399" s="3"/>
       <c r="B399" s="3"/>
       <c r="E399" s="3"/>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5">
       <c r="A400" s="3"/>
       <c r="B400" s="3"/>
       <c r="E400" s="3"/>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5">
       <c r="A401" s="3"/>
       <c r="B401" s="3"/>
       <c r="E401" s="3"/>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5">
       <c r="A402" s="3"/>
       <c r="B402" s="3"/>
       <c r="E402" s="3"/>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5">
       <c r="A403" s="3"/>
       <c r="B403" s="3"/>
       <c r="E403" s="3"/>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5">
       <c r="A404" s="3"/>
       <c r="B404" s="3"/>
       <c r="E404" s="3"/>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5">
       <c r="A405" s="3"/>
       <c r="B405" s="3"/>
       <c r="E405" s="3"/>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5">
       <c r="A406" s="3"/>
       <c r="B406" s="3"/>
       <c r="E406" s="3"/>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5">
       <c r="A407" s="3"/>
       <c r="B407" s="3"/>
       <c r="E407" s="3"/>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5">
       <c r="A408" s="3"/>
       <c r="B408" s="3"/>
       <c r="E408" s="3"/>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5">
       <c r="A409" s="3"/>
       <c r="B409" s="3"/>
       <c r="E409" s="3"/>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5">
       <c r="A410" s="3"/>
       <c r="B410" s="3"/>
       <c r="E410" s="3"/>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5">
       <c r="A411" s="3"/>
       <c r="B411" s="3"/>
       <c r="E411" s="3"/>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:5">
       <c r="A412" s="3"/>
       <c r="B412" s="3"/>
       <c r="E412" s="3"/>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5">
       <c r="A413" s="3"/>
       <c r="B413" s="3"/>
       <c r="E413" s="3"/>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5">
       <c r="A414" s="3"/>
       <c r="B414" s="3"/>
       <c r="E414" s="3"/>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5">
       <c r="A415" s="3"/>
       <c r="B415" s="3"/>
       <c r="E415" s="3"/>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5">
       <c r="A416" s="3"/>
       <c r="B416" s="3"/>
       <c r="E416" s="3"/>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5">
       <c r="A417" s="3"/>
       <c r="B417" s="3"/>
       <c r="E417" s="3"/>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:5">
       <c r="A418" s="3"/>
       <c r="B418" s="3"/>
       <c r="E418" s="3"/>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5">
       <c r="A419" s="3"/>
       <c r="B419" s="3"/>
       <c r="E419" s="3"/>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5">
       <c r="A420" s="3"/>
       <c r="B420" s="3"/>
       <c r="E420" s="3"/>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:5">
       <c r="A421" s="3"/>
       <c r="B421" s="3"/>
       <c r="E421" s="3"/>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:5">
       <c r="A422" s="3"/>
       <c r="B422" s="3"/>
       <c r="E422" s="3"/>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:5">
       <c r="A423" s="3"/>
       <c r="B423" s="3"/>
       <c r="E423" s="3"/>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:5">
       <c r="A424" s="3"/>
       <c r="B424" s="3"/>
       <c r="E424" s="3"/>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:5">
       <c r="A425" s="3"/>
       <c r="B425" s="3"/>
       <c r="E425" s="3"/>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:5">
       <c r="A426" s="3"/>
       <c r="B426" s="3"/>
       <c r="E426" s="3"/>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:5">
       <c r="A427" s="3"/>
       <c r="B427" s="3"/>
       <c r="E427" s="3"/>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:5">
       <c r="A428" s="3"/>
       <c r="B428" s="3"/>
       <c r="E428" s="3"/>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:5">
       <c r="A429" s="3"/>
       <c r="B429" s="3"/>
       <c r="E429" s="3"/>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:5">
       <c r="A430" s="3"/>
       <c r="B430" s="3"/>
       <c r="E430" s="3"/>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:5">
       <c r="A431" s="3"/>
       <c r="B431" s="3"/>
       <c r="E431" s="3"/>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:5">
       <c r="A432" s="3"/>
       <c r="B432" s="3"/>
       <c r="E432" s="3"/>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:5">
       <c r="A433" s="3"/>
       <c r="B433" s="3"/>
       <c r="E433" s="3"/>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5">
       <c r="A434" s="3"/>
       <c r="B434" s="3"/>
       <c r="E434" s="3"/>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5">
       <c r="A435" s="3"/>
       <c r="B435" s="3"/>
       <c r="E435" s="3"/>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:5">
       <c r="A436" s="3"/>
       <c r="B436" s="3"/>
       <c r="E436" s="3"/>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:5">
       <c r="A437" s="3"/>
       <c r="B437" s="3"/>
       <c r="E437" s="3"/>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:5">
       <c r="A438" s="3"/>
       <c r="B438" s="3"/>
       <c r="E438" s="3"/>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5">
       <c r="A439" s="3"/>
       <c r="B439" s="3"/>
       <c r="E439" s="3"/>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:5">
       <c r="A440" s="3"/>
       <c r="B440" s="3"/>
       <c r="E440" s="3"/>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:5">
       <c r="A441" s="3"/>
       <c r="B441" s="3"/>
       <c r="E441" s="3"/>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:5">
       <c r="A442" s="3"/>
       <c r="B442" s="3"/>
       <c r="E442" s="3"/>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:5">
       <c r="A443" s="3"/>
       <c r="B443" s="3"/>
       <c r="E443" s="3"/>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:5">
       <c r="A444" s="3"/>
       <c r="B444" s="3"/>
       <c r="E444" s="3"/>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:5">
       <c r="A445" s="3"/>
       <c r="B445" s="3"/>
       <c r="E445" s="3"/>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:5">
       <c r="A446" s="3"/>
       <c r="B446" s="3"/>
       <c r="E446" s="3"/>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:5">
       <c r="A447" s="3"/>
       <c r="B447" s="3"/>
       <c r="E447" s="3"/>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:5">
       <c r="A448" s="3"/>
       <c r="B448" s="3"/>
       <c r="E448" s="3"/>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:5">
       <c r="A449" s="3"/>
       <c r="B449" s="3"/>
       <c r="E449" s="3"/>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:5">
       <c r="A450" s="3"/>
       <c r="B450" s="3"/>
       <c r="E450" s="3"/>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:5">
       <c r="A451" s="3"/>
       <c r="B451" s="3"/>
       <c r="E451" s="3"/>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:5">
       <c r="A452" s="3"/>
       <c r="B452" s="3"/>
       <c r="E452" s="3"/>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:5">
       <c r="A453" s="3"/>
       <c r="B453" s="3"/>
       <c r="E453" s="3"/>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:5">
       <c r="A454" s="3"/>
       <c r="B454" s="3"/>
       <c r="E454" s="3"/>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:5">
       <c r="A455" s="3"/>
       <c r="B455" s="3"/>
       <c r="E455" s="3"/>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:5">
       <c r="A456" s="3"/>
       <c r="B456" s="3"/>
       <c r="E456" s="3"/>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:5">
       <c r="A457" s="3"/>
       <c r="B457" s="3"/>
       <c r="E457" s="3"/>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:5">
       <c r="A458" s="3"/>
       <c r="B458" s="3"/>
       <c r="E458" s="3"/>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:5">
       <c r="A459" s="3"/>
       <c r="B459" s="3"/>
       <c r="E459" s="3"/>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:5">
       <c r="A460" s="3"/>
       <c r="B460" s="3"/>
       <c r="E460" s="3"/>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:5">
       <c r="A461" s="3"/>
       <c r="B461" s="3"/>
       <c r="E461" s="3"/>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:5">
       <c r="A462" s="3"/>
       <c r="B462" s="3"/>
       <c r="E462" s="3"/>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:5">
       <c r="A463" s="3"/>
       <c r="B463" s="3"/>
       <c r="E463" s="3"/>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:5">
       <c r="A464" s="3"/>
       <c r="B464" s="3"/>
       <c r="E464" s="3"/>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:5">
       <c r="A465" s="3"/>
       <c r="B465" s="3"/>
       <c r="E465" s="3"/>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:5">
       <c r="A466" s="3"/>
       <c r="B466" s="3"/>
       <c r="E466" s="3"/>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:5">
       <c r="A467" s="3"/>
       <c r="B467" s="3"/>
       <c r="E467" s="3"/>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:5">
       <c r="A468" s="3"/>
       <c r="B468" s="3"/>
       <c r="E468" s="3"/>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:5">
       <c r="A469" s="3"/>
       <c r="B469" s="3"/>
       <c r="E469" s="3"/>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:5">
       <c r="A470" s="3"/>
       <c r="B470" s="3"/>
       <c r="E470" s="3"/>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:5">
       <c r="A471" s="3"/>
       <c r="B471" s="3"/>
       <c r="E471" s="3"/>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:5">
       <c r="A472" s="3"/>
       <c r="B472" s="3"/>
       <c r="E472" s="3"/>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:5">
       <c r="A473" s="3"/>
       <c r="B473" s="3"/>
       <c r="E473" s="3"/>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:5">
       <c r="A474" s="3"/>
       <c r="B474" s="3"/>
       <c r="E474" s="3"/>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:5">
       <c r="A475" s="3"/>
       <c r="B475" s="3"/>
       <c r="E475" s="3"/>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:5">
       <c r="A476" s="3"/>
       <c r="B476" s="3"/>
       <c r="E476" s="3"/>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:5">
       <c r="A477" s="3"/>
       <c r="B477" s="3"/>
       <c r="E477" s="3"/>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:5">
       <c r="A478" s="3"/>
       <c r="B478" s="3"/>
       <c r="E478" s="3"/>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:5">
       <c r="A479" s="3"/>
       <c r="B479" s="3"/>
       <c r="E479" s="3"/>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:5">
       <c r="A480" s="3"/>
       <c r="B480" s="3"/>
       <c r="E480" s="3"/>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:5">
       <c r="A481" s="3"/>
       <c r="B481" s="3"/>
       <c r="E481" s="3"/>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:5">
       <c r="A482" s="3"/>
       <c r="B482" s="3"/>
       <c r="E482" s="3"/>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:5">
       <c r="A483" s="3"/>
       <c r="B483" s="3"/>
       <c r="E483" s="3"/>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:5">
       <c r="A484" s="3"/>
       <c r="B484" s="3"/>
       <c r="E484" s="3"/>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:5">
       <c r="A485" s="3"/>
       <c r="B485" s="3"/>
       <c r="E485" s="3"/>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:5">
       <c r="A486" s="3"/>
       <c r="B486" s="3"/>
       <c r="E486" s="3"/>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:5">
       <c r="A487" s="3"/>
       <c r="B487" s="3"/>
       <c r="E487" s="3"/>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:5">
       <c r="A488" s="3"/>
       <c r="B488" s="3"/>
       <c r="E488" s="3"/>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:5">
       <c r="A489" s="3"/>
       <c r="B489" s="3"/>
       <c r="E489" s="3"/>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:5">
       <c r="A490" s="3"/>
       <c r="B490" s="3"/>
       <c r="E490" s="3"/>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:5">
       <c r="A491" s="3"/>
       <c r="B491" s="3"/>
       <c r="E491" s="3"/>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:5">
       <c r="A492" s="3"/>
       <c r="B492" s="3"/>
       <c r="E492" s="3"/>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:5">
       <c r="A493" s="3"/>
       <c r="B493" s="3"/>
       <c r="E493" s="3"/>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:5">
       <c r="A494" s="3"/>
       <c r="B494" s="3"/>
       <c r="E494" s="3"/>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:5">
       <c r="A495" s="3"/>
       <c r="B495" s="3"/>
       <c r="E495" s="3"/>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:5">
       <c r="A496" s="3"/>
       <c r="B496" s="3"/>
       <c r="E496" s="3"/>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:5">
       <c r="A497" s="3"/>
       <c r="B497" s="3"/>
       <c r="E497" s="3"/>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:5">
       <c r="A498" s="3"/>
       <c r="B498" s="3"/>
       <c r="E498" s="3"/>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:5">
       <c r="A499" s="3"/>
       <c r="B499" s="3"/>
       <c r="E499" s="3"/>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:5">
       <c r="A500" s="3"/>
       <c r="B500" s="3"/>
       <c r="E500" s="3"/>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:5">
       <c r="A501" s="3"/>
       <c r="B501" s="3"/>
       <c r="E501" s="3"/>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:5">
       <c r="A502" s="3"/>
       <c r="B502" s="3"/>
       <c r="E502" s="3"/>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:5">
       <c r="A503" s="3"/>
       <c r="B503" s="3"/>
       <c r="E503" s="3"/>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:5">
       <c r="A504" s="3"/>
       <c r="B504" s="3"/>
       <c r="E504" s="3"/>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:5">
       <c r="A505" s="3"/>
       <c r="B505" s="3"/>
       <c r="E505" s="3"/>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:5">
       <c r="A506" s="3"/>
       <c r="B506" s="3"/>
       <c r="E506" s="3"/>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:5">
       <c r="A507" s="3"/>
       <c r="B507" s="3"/>
       <c r="E507" s="3"/>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:5">
       <c r="A508" s="3"/>
       <c r="B508" s="3"/>
       <c r="E508" s="3"/>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:5">
       <c r="A509" s="3"/>
       <c r="B509" s="3"/>
       <c r="E509" s="3"/>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:5">
       <c r="A510" s="3"/>
       <c r="B510" s="3"/>
       <c r="E510" s="3"/>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:5">
       <c r="A511" s="3"/>
       <c r="B511" s="3"/>
       <c r="E511" s="3"/>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:5">
       <c r="A512" s="3"/>
       <c r="B512" s="3"/>
       <c r="E512" s="3"/>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:5">
       <c r="A513" s="3"/>
       <c r="B513" s="3"/>
       <c r="E513" s="3"/>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:5">
       <c r="A514" s="3"/>
       <c r="B514" s="3"/>
       <c r="E514" s="3"/>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:5">
       <c r="A515" s="3"/>
       <c r="B515" s="3"/>
       <c r="E515" s="3"/>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:5">
       <c r="A516" s="3"/>
       <c r="B516" s="3"/>
       <c r="E516" s="3"/>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:5">
       <c r="A517" s="3"/>
       <c r="B517" s="3"/>
       <c r="E517" s="3"/>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:5">
       <c r="A518" s="3"/>
       <c r="B518" s="3"/>
       <c r="E518" s="3"/>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:5">
       <c r="A519" s="3"/>
       <c r="B519" s="3"/>
       <c r="E519" s="3"/>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:5">
       <c r="A520" s="3"/>
       <c r="B520" s="3"/>
       <c r="E520" s="3"/>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:5">
       <c r="A521" s="3"/>
       <c r="B521" s="3"/>
       <c r="E521" s="3"/>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:5">
       <c r="A522" s="3"/>
       <c r="B522" s="3"/>
       <c r="E522" s="3"/>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:5">
       <c r="A523" s="3"/>
       <c r="B523" s="3"/>
       <c r="E523" s="3"/>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:5">
       <c r="A524" s="3"/>
       <c r="B524" s="3"/>
       <c r="E524" s="3"/>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:5">
       <c r="A525" s="3"/>
       <c r="B525" s="3"/>
       <c r="E525" s="3"/>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:5">
       <c r="A526" s="3"/>
       <c r="B526" s="3"/>
       <c r="E526" s="3"/>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:5">
       <c r="A527" s="3"/>
       <c r="B527" s="3"/>
       <c r="E527" s="3"/>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:5">
       <c r="A528" s="3"/>
       <c r="B528" s="3"/>
       <c r="E528" s="3"/>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:5">
       <c r="A529" s="3"/>
       <c r="B529" s="3"/>
       <c r="E529" s="3"/>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:5">
       <c r="A530" s="3"/>
       <c r="B530" s="3"/>
       <c r="E530" s="3"/>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:5">
       <c r="A531" s="3"/>
       <c r="B531" s="3"/>
       <c r="E531" s="3"/>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:5">
       <c r="A532" s="3"/>
       <c r="B532" s="3"/>
       <c r="E532" s="3"/>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:5">
       <c r="A533" s="3"/>
       <c r="B533" s="3"/>
       <c r="E533" s="3"/>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:5">
       <c r="A534" s="3"/>
       <c r="B534" s="3"/>
       <c r="E534" s="3"/>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:5">
       <c r="A535" s="3"/>
       <c r="B535" s="3"/>
       <c r="E535" s="3"/>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:5">
       <c r="A536" s="3"/>
       <c r="B536" s="3"/>
       <c r="E536" s="3"/>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:5">
       <c r="A537" s="3"/>
       <c r="B537" s="3"/>
       <c r="E537" s="3"/>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:5">
       <c r="A538" s="3"/>
       <c r="B538" s="3"/>
       <c r="E538" s="3"/>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:5">
       <c r="A539" s="3"/>
       <c r="B539" s="3"/>
       <c r="E539" s="3"/>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:5">
       <c r="A540" s="3"/>
       <c r="B540" s="3"/>
       <c r="E540" s="3"/>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:5">
       <c r="A541" s="3"/>
       <c r="B541" s="3"/>
       <c r="E541" s="3"/>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:5">
       <c r="A542" s="3"/>
       <c r="B542" s="3"/>
       <c r="E542" s="3"/>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:5">
       <c r="A543" s="3"/>
       <c r="B543" s="3"/>
       <c r="E543" s="3"/>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:5">
       <c r="A544" s="3"/>
       <c r="B544" s="3"/>
       <c r="E544" s="3"/>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:5">
       <c r="A545" s="3"/>
       <c r="B545" s="3"/>
       <c r="E545" s="3"/>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:5">
       <c r="A546" s="3"/>
       <c r="B546" s="3"/>
       <c r="E546" s="3"/>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:5">
       <c r="A547" s="3"/>
       <c r="B547" s="3"/>
       <c r="E547" s="3"/>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:5">
       <c r="A548" s="3"/>
       <c r="B548" s="3"/>
       <c r="E548" s="3"/>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:5">
       <c r="A549" s="3"/>
       <c r="B549" s="3"/>
       <c r="E549" s="3"/>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:5">
       <c r="A550" s="3"/>
       <c r="B550" s="3"/>
       <c r="E550" s="3"/>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:5">
       <c r="A551" s="3"/>
       <c r="B551" s="3"/>
       <c r="E551" s="3"/>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:5">
       <c r="A552" s="3"/>
       <c r="B552" s="3"/>
       <c r="E552" s="3"/>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:5">
       <c r="A553" s="3"/>
       <c r="B553" s="3"/>
       <c r="E553" s="3"/>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:5">
       <c r="A554" s="3"/>
       <c r="B554" s="3"/>
       <c r="E554" s="3"/>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:5">
       <c r="A555" s="3"/>
       <c r="B555" s="3"/>
       <c r="E555" s="3"/>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:5">
       <c r="A556" s="3"/>
       <c r="B556" s="3"/>
       <c r="E556" s="3"/>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:5">
       <c r="A557" s="3"/>
       <c r="B557" s="3"/>
       <c r="E557" s="3"/>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:5">
       <c r="A558" s="3"/>
       <c r="B558" s="3"/>
       <c r="E558" s="3"/>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:5">
       <c r="A559" s="3"/>
       <c r="B559" s="3"/>
       <c r="E559" s="3"/>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:5">
       <c r="A560" s="3"/>
       <c r="B560" s="3"/>
       <c r="E560" s="3"/>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:5">
       <c r="A561" s="3"/>
       <c r="B561" s="3"/>
       <c r="E561" s="3"/>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:5">
       <c r="A562" s="3"/>
       <c r="B562" s="3"/>
       <c r="E562" s="3"/>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:5">
       <c r="A563" s="3"/>
       <c r="B563" s="3"/>
       <c r="E563" s="3"/>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:5">
       <c r="A564" s="3"/>
       <c r="B564" s="3"/>
       <c r="E564" s="3"/>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:5">
       <c r="A565" s="3"/>
       <c r="B565" s="3"/>
       <c r="E565" s="3"/>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:5">
       <c r="A566" s="3"/>
       <c r="B566" s="3"/>
       <c r="E566" s="3"/>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:5">
       <c r="A567" s="3"/>
       <c r="B567" s="3"/>
       <c r="E567" s="3"/>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:5">
       <c r="A568" s="3"/>
       <c r="B568" s="3"/>
       <c r="E568" s="3"/>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:5">
       <c r="A569" s="3"/>
       <c r="B569" s="3"/>
       <c r="E569" s="3"/>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:5">
       <c r="A570" s="3"/>
       <c r="B570" s="3"/>
       <c r="E570" s="3"/>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:5">
       <c r="A571" s="3"/>
       <c r="B571" s="3"/>
       <c r="E571" s="3"/>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:5">
       <c r="A572" s="3"/>
       <c r="B572" s="3"/>
       <c r="E572" s="3"/>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:5">
       <c r="A573" s="3"/>
       <c r="B573" s="3"/>
       <c r="E573" s="3"/>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:5">
       <c r="A574" s="3"/>
       <c r="B574" s="3"/>
       <c r="E574" s="3"/>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:5">
       <c r="A575" s="3"/>
       <c r="B575" s="3"/>
       <c r="E575" s="3"/>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:5">
       <c r="A576" s="3"/>
       <c r="B576" s="3"/>
       <c r="E576" s="3"/>
     </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:5">
       <c r="A577" s="3"/>
       <c r="B577" s="3"/>
       <c r="E577" s="3"/>
     </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:5">
       <c r="A578" s="3"/>
       <c r="B578" s="3"/>
       <c r="E578" s="3"/>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:5">
       <c r="A579" s="3"/>
       <c r="B579" s="3"/>
       <c r="E579" s="3"/>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:5">
       <c r="A580" s="3"/>
       <c r="B580" s="3"/>
       <c r="E580" s="3"/>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:5">
       <c r="A581" s="3"/>
       <c r="B581" s="3"/>
       <c r="E581" s="3"/>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:5">
       <c r="A582" s="3"/>
       <c r="B582" s="3"/>
       <c r="E582" s="3"/>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:5">
       <c r="A583" s="3"/>
       <c r="B583" s="3"/>
       <c r="E583" s="3"/>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:5">
       <c r="A584" s="3"/>
       <c r="B584" s="3"/>
       <c r="E584" s="3"/>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:5">
       <c r="A585" s="3"/>
       <c r="B585" s="3"/>
       <c r="E585" s="3"/>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:5">
       <c r="A586" s="3"/>
       <c r="B586" s="3"/>
       <c r="E586" s="3"/>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:5">
       <c r="A587" s="3"/>
       <c r="B587" s="3"/>
       <c r="E587" s="3"/>
     </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:5">
       <c r="A588" s="3"/>
       <c r="B588" s="3"/>
       <c r="E588" s="3"/>
     </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:5">
       <c r="A589" s="3"/>
       <c r="B589" s="3"/>
       <c r="E589" s="3"/>
     </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:5">
       <c r="A590" s="3"/>
       <c r="B590" s="3"/>
       <c r="E590" s="3"/>
     </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:5">
       <c r="A591" s="3"/>
       <c r="B591" s="3"/>
       <c r="E591" s="3"/>
     </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:5">
       <c r="A592" s="3"/>
       <c r="B592" s="3"/>
       <c r="E592" s="3"/>
     </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:5">
       <c r="A593" s="3"/>
       <c r="B593" s="3"/>
       <c r="E593" s="3"/>
     </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:5">
       <c r="A594" s="3"/>
       <c r="B594" s="3"/>
       <c r="E594" s="3"/>
     </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:5">
       <c r="A595" s="3"/>
       <c r="B595" s="3"/>
       <c r="E595" s="3"/>
     </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:5">
       <c r="A596" s="3"/>
       <c r="B596" s="3"/>
       <c r="E596" s="3"/>
     </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:5">
       <c r="A597" s="3"/>
       <c r="B597" s="3"/>
       <c r="E597" s="3"/>
     </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:5">
       <c r="A598" s="3"/>
       <c r="B598" s="3"/>
       <c r="E598" s="3"/>
     </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:5">
       <c r="A599" s="3"/>
       <c r="B599" s="3"/>
       <c r="E599" s="3"/>
     </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:5">
       <c r="A600" s="3"/>
       <c r="B600" s="3"/>
       <c r="E600" s="3"/>
     </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:5">
       <c r="A601" s="3"/>
       <c r="B601" s="3"/>
       <c r="E601" s="3"/>
     </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:5">
       <c r="A602" s="3"/>
       <c r="B602" s="3"/>
       <c r="E602" s="3"/>
     </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:5">
       <c r="A603" s="3"/>
       <c r="B603" s="3"/>
       <c r="E603" s="3"/>
     </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:5">
       <c r="A604" s="3"/>
       <c r="B604" s="3"/>
       <c r="E604" s="3"/>
     </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:5">
       <c r="A605" s="3"/>
       <c r="B605" s="3"/>
       <c r="E605" s="3"/>
     </row>
-    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:5">
       <c r="A606" s="3"/>
       <c r="B606" s="3"/>
       <c r="E606" s="3"/>
     </row>
-    <row r="607" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:5">
       <c r="A607" s="3"/>
       <c r="B607" s="3"/>
       <c r="E607" s="3"/>
     </row>
-    <row r="608" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:5">
       <c r="A608" s="3"/>
       <c r="B608" s="3"/>
       <c r="E608" s="3"/>
     </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:5">
       <c r="A609" s="3"/>
       <c r="B609" s="3"/>
       <c r="E609" s="3"/>
     </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:5">
       <c r="A610" s="3"/>
       <c r="B610" s="3"/>
       <c r="E610" s="3"/>
     </row>
-    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:5">
       <c r="A611" s="3"/>
       <c r="B611" s="3"/>
       <c r="E611" s="3"/>
     </row>
-    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:5">
       <c r="A612" s="3"/>
       <c r="B612" s="3"/>
       <c r="E612" s="3"/>
     </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:5">
       <c r="A613" s="3"/>
       <c r="B613" s="3"/>
       <c r="E613" s="3"/>
     </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:5">
       <c r="A614" s="3"/>
       <c r="B614" s="3"/>
       <c r="E614" s="3"/>
     </row>
-    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:5">
       <c r="A615" s="3"/>
       <c r="B615" s="3"/>
       <c r="E615" s="3"/>
     </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:5">
       <c r="A616" s="3"/>
       <c r="B616" s="3"/>
       <c r="E616" s="3"/>
     </row>
-    <row r="617" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:5">
       <c r="A617" s="3"/>
       <c r="B617" s="3"/>
       <c r="E617" s="3"/>
     </row>
-    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:5">
       <c r="A618" s="3"/>
       <c r="B618" s="3"/>
       <c r="E618" s="3"/>
     </row>
-    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:5">
       <c r="A619" s="3"/>
       <c r="B619" s="3"/>
       <c r="E619" s="3"/>
     </row>
-    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:5">
       <c r="A620" s="3"/>
       <c r="B620" s="3"/>
       <c r="E620" s="3"/>
     </row>
-    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:5">
       <c r="A621" s="3"/>
       <c r="B621" s="3"/>
       <c r="E621" s="3"/>
     </row>
-    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:5">
       <c r="A622" s="3"/>
       <c r="B622" s="3"/>
       <c r="E622" s="3"/>
     </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:5">
       <c r="A623" s="3"/>
       <c r="B623" s="3"/>
       <c r="E623" s="3"/>
     </row>
-    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:5">
       <c r="A624" s="3"/>
       <c r="B624" s="3"/>
       <c r="E624" s="3"/>
     </row>
-    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:5">
       <c r="A625" s="3"/>
       <c r="B625" s="3"/>
       <c r="E625" s="3"/>
     </row>
-    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:5">
       <c r="A626" s="3"/>
       <c r="B626" s="3"/>
       <c r="E626" s="3"/>
     </row>
-    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:5">
       <c r="A627" s="3"/>
       <c r="B627" s="3"/>
       <c r="E627" s="3"/>
     </row>
-    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:5">
       <c r="A628" s="3"/>
       <c r="B628" s="3"/>
       <c r="E628" s="3"/>
     </row>
-    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:5">
       <c r="A629" s="3"/>
       <c r="B629" s="3"/>
       <c r="E629" s="3"/>
     </row>
-    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:5">
       <c r="A630" s="3"/>
       <c r="B630" s="3"/>
       <c r="E630" s="3"/>
     </row>
-    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:5">
       <c r="A631" s="3"/>
       <c r="B631" s="3"/>
       <c r="E631" s="3"/>
     </row>
-    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:5">
       <c r="A632" s="3"/>
       <c r="B632" s="3"/>
       <c r="E632" s="3"/>
     </row>
-    <row r="633" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:5">
       <c r="A633" s="3"/>
       <c r="B633" s="3"/>
       <c r="E633" s="3"/>
     </row>
-    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:5">
       <c r="A634" s="3"/>
       <c r="B634" s="3"/>
       <c r="E634" s="3"/>
     </row>
-    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:5">
       <c r="A635" s="3"/>
       <c r="B635" s="3"/>
       <c r="E635" s="3"/>
     </row>
-    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:5">
       <c r="A636" s="3"/>
       <c r="B636" s="3"/>
       <c r="E636" s="3"/>
     </row>
-    <row r="637" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:5">
       <c r="A637" s="3"/>
       <c r="B637" s="3"/>
       <c r="E637" s="3"/>
     </row>
-    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:5">
       <c r="A638" s="3"/>
       <c r="B638" s="3"/>
       <c r="E638" s="3"/>
     </row>
-    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:5">
       <c r="A639" s="3"/>
       <c r="B639" s="3"/>
       <c r="E639" s="3"/>
     </row>
-    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:5">
       <c r="A640" s="3"/>
       <c r="B640" s="3"/>
       <c r="E640" s="3"/>
     </row>
-    <row r="641" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:5">
       <c r="A641" s="3"/>
       <c r="B641" s="3"/>
       <c r="E641" s="3"/>
     </row>
-    <row r="642" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:5">
       <c r="A642" s="3"/>
       <c r="B642" s="3"/>
       <c r="E642" s="3"/>
     </row>
-    <row r="643" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:5">
       <c r="A643" s="3"/>
       <c r="B643" s="3"/>
       <c r="E643" s="3"/>
     </row>
-    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:5">
       <c r="A644" s="3"/>
       <c r="B644" s="3"/>
       <c r="E644" s="3"/>
     </row>
-    <row r="645" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:5">
       <c r="A645" s="3"/>
       <c r="B645" s="3"/>
       <c r="E645" s="3"/>
     </row>
-    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:5">
       <c r="A646" s="3"/>
       <c r="B646" s="3"/>
       <c r="E646" s="3"/>
     </row>
-    <row r="647" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:5">
       <c r="A647" s="3"/>
       <c r="B647" s="3"/>
       <c r="E647" s="3"/>
     </row>
-    <row r="648" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:5">
       <c r="A648" s="3"/>
       <c r="B648" s="3"/>
       <c r="E648" s="3"/>
     </row>
-    <row r="649" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:5">
       <c r="A649" s="3"/>
       <c r="B649" s="3"/>
       <c r="E649" s="3"/>
     </row>
-    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:5">
       <c r="A650" s="3"/>
       <c r="B650" s="3"/>
       <c r="E650" s="3"/>
     </row>
-    <row r="651" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:5">
       <c r="A651" s="3"/>
       <c r="B651" s="3"/>
       <c r="E651" s="3"/>
     </row>
-    <row r="652" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:5">
       <c r="A652" s="3"/>
       <c r="B652" s="3"/>
       <c r="E652" s="3"/>
     </row>
-    <row r="653" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:5">
       <c r="A653" s="3"/>
       <c r="B653" s="3"/>
       <c r="E653" s="3"/>
     </row>
-    <row r="654" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:5">
       <c r="A654" s="3"/>
       <c r="B654" s="3"/>
       <c r="E654" s="3"/>
     </row>
-    <row r="655" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:5">
       <c r="A655" s="3"/>
       <c r="B655" s="3"/>
       <c r="E655" s="3"/>
     </row>
-    <row r="656" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:5">
       <c r="A656" s="3"/>
       <c r="B656" s="3"/>
       <c r="E656" s="3"/>
     </row>
-    <row r="657" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:5">
       <c r="A657" s="3"/>
       <c r="B657" s="3"/>
       <c r="E657" s="3"/>
     </row>
-    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:5">
       <c r="A658" s="3"/>
       <c r="B658" s="3"/>
       <c r="E658" s="3"/>
     </row>
-    <row r="659" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:5">
       <c r="A659" s="3"/>
       <c r="B659" s="3"/>
       <c r="E659" s="3"/>
     </row>
-    <row r="660" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:5">
       <c r="A660" s="3"/>
       <c r="B660" s="3"/>
       <c r="E660" s="3"/>
     </row>
-    <row r="661" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:5">
       <c r="A661" s="3"/>
       <c r="B661" s="3"/>
       <c r="E661" s="3"/>
     </row>
-    <row r="662" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:5">
       <c r="A662" s="3"/>
       <c r="B662" s="3"/>
       <c r="E662" s="3"/>
     </row>
-    <row r="663" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:5">
       <c r="A663" s="3"/>
       <c r="B663" s="3"/>
       <c r="E663" s="3"/>
     </row>
-    <row r="664" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:5">
       <c r="A664" s="3"/>
       <c r="B664" s="3"/>
       <c r="E664" s="3"/>
     </row>
-    <row r="665" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:5">
       <c r="A665" s="3"/>
       <c r="B665" s="3"/>
       <c r="E665" s="3"/>
     </row>
-    <row r="666" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:5">
       <c r="A666" s="3"/>
       <c r="B666" s="3"/>
       <c r="E666" s="3"/>
     </row>
-    <row r="667" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:5">
       <c r="A667" s="3"/>
       <c r="B667" s="3"/>
       <c r="E667" s="3"/>
     </row>
-    <row r="668" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:5">
       <c r="A668" s="3"/>
       <c r="B668" s="3"/>
       <c r="E668" s="3"/>
     </row>
-    <row r="669" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:5">
       <c r="A669" s="3"/>
       <c r="B669" s="3"/>
       <c r="E669" s="3"/>
     </row>
-    <row r="670" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:5">
       <c r="A670" s="3"/>
       <c r="B670" s="3"/>
       <c r="E670" s="3"/>
     </row>
-    <row r="671" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:5">
       <c r="A671" s="3"/>
       <c r="B671" s="3"/>
       <c r="E671" s="3"/>
     </row>
-    <row r="672" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:5">
       <c r="A672" s="3"/>
       <c r="B672" s="3"/>
       <c r="E672" s="3"/>
     </row>
-    <row r="673" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:5">
       <c r="A673" s="3"/>
       <c r="B673" s="3"/>
       <c r="E673" s="3"/>
     </row>
-    <row r="674" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:5">
       <c r="A674" s="3"/>
       <c r="B674" s="3"/>
       <c r="E674" s="3"/>
     </row>
-    <row r="675" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:5">
       <c r="A675" s="3"/>
       <c r="B675" s="3"/>
       <c r="E675" s="3"/>
     </row>
-    <row r="676" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:5">
       <c r="A676" s="3"/>
       <c r="B676" s="3"/>
       <c r="E676" s="3"/>
     </row>
-    <row r="677" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:5">
       <c r="A677" s="3"/>
       <c r="B677" s="3"/>
       <c r="E677" s="3"/>
     </row>
-    <row r="678" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:5">
       <c r="A678" s="3"/>
       <c r="B678" s="3"/>
       <c r="E678" s="3"/>
     </row>
-    <row r="679" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:5">
       <c r="A679" s="3"/>
       <c r="B679" s="3"/>
       <c r="E679" s="3"/>
     </row>
-    <row r="680" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:5">
       <c r="A680" s="3"/>
       <c r="B680" s="3"/>
       <c r="E680" s="3"/>
     </row>
-    <row r="681" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:5">
       <c r="A681" s="3"/>
       <c r="B681" s="3"/>
       <c r="E681" s="3"/>
     </row>
-    <row r="682" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:5">
       <c r="A682" s="3"/>
       <c r="B682" s="3"/>
       <c r="E682" s="3"/>
     </row>
-    <row r="683" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:5">
       <c r="A683" s="3"/>
       <c r="B683" s="3"/>
       <c r="E683" s="3"/>
     </row>
-    <row r="684" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:5">
       <c r="A684" s="3"/>
       <c r="B684" s="3"/>
       <c r="E684" s="3"/>
     </row>
-    <row r="685" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:5">
       <c r="A685" s="3"/>
       <c r="B685" s="3"/>
       <c r="E685" s="3"/>
     </row>
-    <row r="686" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:5">
       <c r="A686" s="3"/>
       <c r="B686" s="3"/>
       <c r="E686" s="3"/>
     </row>
-    <row r="687" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:5">
       <c r="A687" s="3"/>
       <c r="B687" s="3"/>
       <c r="E687" s="3"/>
     </row>
-    <row r="688" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:5">
       <c r="A688" s="3"/>
       <c r="B688" s="3"/>
       <c r="E688" s="3"/>
     </row>
-    <row r="689" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:5">
       <c r="A689" s="3"/>
       <c r="B689" s="3"/>
       <c r="E689" s="3"/>
     </row>
-    <row r="690" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:5">
       <c r="A690" s="3"/>
       <c r="B690" s="3"/>
       <c r="E690" s="3"/>
     </row>
-    <row r="691" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:5">
       <c r="A691" s="3"/>
       <c r="B691" s="3"/>
       <c r="E691" s="3"/>
     </row>
-    <row r="692" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:5">
       <c r="A692" s="3"/>
       <c r="B692" s="3"/>
       <c r="E692" s="3"/>
     </row>
-    <row r="693" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:5">
       <c r="A693" s="3"/>
       <c r="B693" s="3"/>
       <c r="E693" s="3"/>
     </row>
-    <row r="694" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:5">
       <c r="A694" s="3"/>
       <c r="B694" s="3"/>
       <c r="E694" s="3"/>
     </row>
-    <row r="695" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:5">
       <c r="A695" s="3"/>
       <c r="B695" s="3"/>
       <c r="E695" s="3"/>
     </row>
-    <row r="696" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:5">
       <c r="A696" s="3"/>
       <c r="B696" s="3"/>
       <c r="E696" s="3"/>
     </row>
-    <row r="697" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:5">
       <c r="A697" s="3"/>
       <c r="B697" s="3"/>
       <c r="E697" s="3"/>
     </row>
-    <row r="698" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:5">
       <c r="A698" s="3"/>
       <c r="B698" s="3"/>
       <c r="E698" s="3"/>
     </row>
-    <row r="699" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:5">
       <c r="A699" s="3"/>
       <c r="B699" s="3"/>
       <c r="E699" s="3"/>
     </row>
-    <row r="700" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:5">
       <c r="A700" s="3"/>
       <c r="B700" s="3"/>
       <c r="E700" s="3"/>
     </row>
-    <row r="701" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:5">
       <c r="A701" s="3"/>
       <c r="B701" s="3"/>
       <c r="E701" s="3"/>
     </row>
-    <row r="702" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:5">
       <c r="A702" s="3"/>
       <c r="B702" s="3"/>
       <c r="E702" s="3"/>
     </row>
-    <row r="703" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:5">
       <c r="A703" s="3"/>
       <c r="B703" s="3"/>
       <c r="E703" s="3"/>
     </row>
-    <row r="704" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:5">
       <c r="A704" s="3"/>
       <c r="B704" s="3"/>
       <c r="E704" s="3"/>
     </row>
-    <row r="705" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:5">
       <c r="A705" s="3"/>
       <c r="B705" s="3"/>
       <c r="E705" s="3"/>
     </row>
-    <row r="706" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:5">
       <c r="A706" s="3"/>
       <c r="B706" s="3"/>
       <c r="E706" s="3"/>
     </row>
-    <row r="707" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:5">
       <c r="A707" s="3"/>
       <c r="B707" s="3"/>
       <c r="E707" s="3"/>
     </row>
-    <row r="708" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:5">
       <c r="A708" s="3"/>
       <c r="B708" s="3"/>
       <c r="E708" s="3"/>
     </row>
-    <row r="709" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:5">
       <c r="A709" s="3"/>
       <c r="B709" s="3"/>
       <c r="E709" s="3"/>
     </row>
-    <row r="710" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:5">
       <c r="A710" s="3"/>
       <c r="B710" s="3"/>
       <c r="E710" s="3"/>
     </row>
-    <row r="711" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:5">
       <c r="A711" s="3"/>
       <c r="B711" s="3"/>
       <c r="E711" s="3"/>
     </row>
-    <row r="712" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:5">
       <c r="A712" s="3"/>
       <c r="B712" s="3"/>
       <c r="E712" s="3"/>
     </row>
-    <row r="713" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:5">
       <c r="A713" s="3"/>
       <c r="B713" s="3"/>
       <c r="E713" s="3"/>
     </row>
-    <row r="714" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:5">
       <c r="A714" s="3"/>
       <c r="B714" s="3"/>
       <c r="E714" s="3"/>
     </row>
-    <row r="715" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:5">
       <c r="A715" s="3"/>
       <c r="B715" s="3"/>
       <c r="E715" s="3"/>
     </row>
-    <row r="716" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:5">
       <c r="A716" s="3"/>
       <c r="B716" s="3"/>
       <c r="E716" s="3"/>
     </row>
-    <row r="717" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:5">
       <c r="A717" s="3"/>
       <c r="B717" s="3"/>
       <c r="E717" s="3"/>
     </row>
-    <row r="718" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:5">
       <c r="A718" s="3"/>
       <c r="B718" s="3"/>
       <c r="E718" s="3"/>
     </row>
-    <row r="719" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:5">
       <c r="A719" s="3"/>
       <c r="B719" s="3"/>
       <c r="E719" s="3"/>
     </row>
-    <row r="720" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:5">
       <c r="A720" s="3"/>
       <c r="B720" s="3"/>
       <c r="E720" s="3"/>
     </row>
-    <row r="721" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:5">
       <c r="A721" s="3"/>
       <c r="B721" s="3"/>
       <c r="E721" s="3"/>
     </row>
-    <row r="722" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:5">
       <c r="A722" s="3"/>
       <c r="B722" s="3"/>
       <c r="E722" s="3"/>
     </row>
-    <row r="723" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:5">
       <c r="A723" s="3"/>
       <c r="B723" s="3"/>
       <c r="E723" s="3"/>
     </row>
-    <row r="724" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:5">
       <c r="A724" s="3"/>
       <c r="B724" s="3"/>
       <c r="E724" s="3"/>
     </row>
-    <row r="725" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:5">
       <c r="A725" s="3"/>
       <c r="B725" s="3"/>
       <c r="E725" s="3"/>
     </row>
-    <row r="726" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:5">
       <c r="A726" s="3"/>
       <c r="B726" s="3"/>
       <c r="E726" s="3"/>
     </row>
-    <row r="727" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:5">
       <c r="A727" s="3"/>
       <c r="B727" s="3"/>
       <c r="E727" s="3"/>
     </row>
-    <row r="728" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:5">
       <c r="A728" s="3"/>
       <c r="B728" s="3"/>
       <c r="E728" s="3"/>
     </row>
-    <row r="729" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:5">
       <c r="A729" s="3"/>
       <c r="B729" s="3"/>
       <c r="E729" s="3"/>
     </row>
-    <row r="730" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:5">
       <c r="A730" s="3"/>
       <c r="B730" s="3"/>
       <c r="E730" s="3"/>
     </row>
-    <row r="731" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:5">
       <c r="A731" s="3"/>
       <c r="B731" s="3"/>
       <c r="E731" s="3"/>
     </row>
-    <row r="732" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:5">
       <c r="A732" s="3"/>
       <c r="B732" s="3"/>
       <c r="E732" s="3"/>
     </row>
-    <row r="733" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:5">
       <c r="A733" s="3"/>
       <c r="B733" s="3"/>
       <c r="E733" s="3"/>
     </row>
-    <row r="734" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:5">
       <c r="A734" s="3"/>
       <c r="B734" s="3"/>
       <c r="E734" s="3"/>
     </row>
-    <row r="735" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:5">
       <c r="A735" s="3"/>
       <c r="B735" s="3"/>
       <c r="E735" s="3"/>
     </row>
-    <row r="736" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:5">
       <c r="A736" s="3"/>
       <c r="B736" s="3"/>
       <c r="E736" s="3"/>
     </row>
-    <row r="737" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:5">
       <c r="A737" s="3"/>
       <c r="B737" s="3"/>
       <c r="E737" s="3"/>
     </row>
-    <row r="738" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:5">
       <c r="A738" s="3"/>
       <c r="B738" s="3"/>
       <c r="E738" s="3"/>
     </row>
-    <row r="739" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:5">
       <c r="A739" s="3"/>
       <c r="B739" s="3"/>
       <c r="E739" s="3"/>
     </row>
-    <row r="740" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:5">
       <c r="A740" s="3"/>
       <c r="B740" s="3"/>
       <c r="E740" s="3"/>
     </row>
-    <row r="741" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:5">
       <c r="A741" s="3"/>
       <c r="B741" s="3"/>
       <c r="E741" s="3"/>
     </row>
-    <row r="742" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:5">
       <c r="A742" s="3"/>
       <c r="B742" s="3"/>
       <c r="E742" s="3"/>
     </row>
-    <row r="743" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:5">
       <c r="A743" s="3"/>
       <c r="B743" s="3"/>
       <c r="E743" s="3"/>
     </row>
-    <row r="744" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:5">
       <c r="A744" s="3"/>
       <c r="B744" s="3"/>
       <c r="E744" s="3"/>
     </row>
-    <row r="745" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:5">
       <c r="A745" s="3"/>
       <c r="B745" s="3"/>
       <c r="E745" s="3"/>
     </row>
-    <row r="746" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:5">
       <c r="A746" s="3"/>
       <c r="B746" s="3"/>
       <c r="E746" s="3"/>
     </row>
-    <row r="747" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:5">
       <c r="A747" s="3"/>
       <c r="B747" s="3"/>
       <c r="E747" s="3"/>
     </row>
-    <row r="748" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:5">
       <c r="A748" s="3"/>
       <c r="B748" s="3"/>
       <c r="E748" s="3"/>
     </row>
-    <row r="749" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:5">
       <c r="A749" s="3"/>
       <c r="B749" s="3"/>
       <c r="E749" s="3"/>
     </row>
-    <row r="750" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:5">
       <c r="A750" s="3"/>
       <c r="B750" s="3"/>
       <c r="E750" s="3"/>
     </row>
-    <row r="751" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:5">
       <c r="A751" s="3"/>
       <c r="B751" s="3"/>
       <c r="E751" s="3"/>
     </row>
-    <row r="752" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:5">
       <c r="A752" s="3"/>
       <c r="B752" s="3"/>
       <c r="E752" s="3"/>
     </row>
-    <row r="753" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:5">
       <c r="A753" s="3"/>
       <c r="B753" s="3"/>
       <c r="E753" s="3"/>
     </row>
-    <row r="754" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:5">
       <c r="A754" s="3"/>
       <c r="B754" s="3"/>
       <c r="E754" s="3"/>
     </row>
-    <row r="755" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:5">
       <c r="A755" s="3"/>
       <c r="B755" s="3"/>
       <c r="E755" s="3"/>
     </row>
-    <row r="756" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:5">
       <c r="A756" s="3"/>
       <c r="B756" s="3"/>
       <c r="E756" s="3"/>
     </row>
-    <row r="757" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:5">
       <c r="A757" s="3"/>
       <c r="B757" s="3"/>
       <c r="E757" s="3"/>
     </row>
-    <row r="758" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:5">
       <c r="A758" s="3"/>
       <c r="B758" s="3"/>
       <c r="E758" s="3"/>
     </row>
-    <row r="759" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:5">
       <c r="A759" s="3"/>
       <c r="B759" s="3"/>
       <c r="E759" s="3"/>
     </row>
-    <row r="760" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:5">
       <c r="A760" s="3"/>
       <c r="B760" s="3"/>
       <c r="E760" s="3"/>
     </row>
-    <row r="761" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:5">
       <c r="A761" s="3"/>
       <c r="B761" s="3"/>
       <c r="E761" s="3"/>
     </row>
-    <row r="762" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:5">
       <c r="A762" s="3"/>
       <c r="B762" s="3"/>
       <c r="E762" s="3"/>
     </row>
-    <row r="763" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:5">
       <c r="A763" s="3"/>
       <c r="B763" s="3"/>
       <c r="E763" s="3"/>
     </row>
-    <row r="764" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:5">
       <c r="A764" s="3"/>
       <c r="B764" s="3"/>
       <c r="E764" s="3"/>
     </row>
-    <row r="765" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:5">
       <c r="A765" s="3"/>
       <c r="B765" s="3"/>
       <c r="E765" s="3"/>
     </row>
-    <row r="766" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:5">
       <c r="A766" s="3"/>
       <c r="B766" s="3"/>
       <c r="E766" s="3"/>
     </row>
-    <row r="767" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:5">
       <c r="A767" s="3"/>
       <c r="B767" s="3"/>
       <c r="E767" s="3"/>
     </row>
-    <row r="768" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:5">
       <c r="A768" s="3"/>
       <c r="B768" s="3"/>
       <c r="E768" s="3"/>
     </row>
-    <row r="769" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:5">
       <c r="A769" s="3"/>
       <c r="B769" s="3"/>
       <c r="E769" s="3"/>
     </row>
-    <row r="770" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:5">
       <c r="A770" s="3"/>
       <c r="B770" s="3"/>
       <c r="E770" s="3"/>
     </row>
-    <row r="771" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:5">
       <c r="A771" s="3"/>
       <c r="B771" s="3"/>
       <c r="E771" s="3"/>
     </row>
-    <row r="772" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:5">
       <c r="A772" s="3"/>
       <c r="B772" s="3"/>
       <c r="E772" s="3"/>
     </row>
-    <row r="773" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:5">
       <c r="A773" s="3"/>
       <c r="B773" s="3"/>
       <c r="E773" s="3"/>
     </row>
-    <row r="774" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:5">
       <c r="A774" s="3"/>
       <c r="B774" s="3"/>
       <c r="E774" s="3"/>
     </row>
-    <row r="775" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:5">
       <c r="A775" s="3"/>
       <c r="B775" s="3"/>
       <c r="E775" s="3"/>
     </row>
-    <row r="776" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:5">
       <c r="A776" s="3"/>
       <c r="B776" s="3"/>
       <c r="E776" s="3"/>
     </row>
-    <row r="777" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:5">
       <c r="A777" s="3"/>
       <c r="B777" s="3"/>
       <c r="E777" s="3"/>
     </row>
-    <row r="778" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:5">
       <c r="A778" s="3"/>
       <c r="B778" s="3"/>
       <c r="E778" s="3"/>
     </row>
-    <row r="779" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:5">
       <c r="A779" s="3"/>
       <c r="B779" s="3"/>
       <c r="E779" s="3"/>
     </row>
-    <row r="780" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:5">
       <c r="A780" s="3"/>
       <c r="B780" s="3"/>
       <c r="E780" s="3"/>
     </row>
-    <row r="781" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:5">
       <c r="A781" s="3"/>
       <c r="B781" s="3"/>
       <c r="E781" s="3"/>
     </row>
-    <row r="782" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:5">
       <c r="A782" s="3"/>
       <c r="B782" s="3"/>
       <c r="E782" s="3"/>
     </row>
-    <row r="783" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:5">
       <c r="A783" s="3"/>
       <c r="B783" s="3"/>
       <c r="E783" s="3"/>
     </row>
-    <row r="784" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:5">
       <c r="A784" s="3"/>
       <c r="B784" s="3"/>
       <c r="E784" s="3"/>
     </row>
-    <row r="785" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:5">
       <c r="A785" s="3"/>
       <c r="B785" s="3"/>
       <c r="E785" s="3"/>
     </row>
-    <row r="786" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:5">
       <c r="A786" s="3"/>
       <c r="B786" s="3"/>
       <c r="E786" s="3"/>
     </row>
-    <row r="787" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:5">
       <c r="A787" s="3"/>
       <c r="B787" s="3"/>
       <c r="E787" s="3"/>
     </row>
-    <row r="788" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:5">
       <c r="A788" s="3"/>
       <c r="B788" s="3"/>
       <c r="E788" s="3"/>
     </row>
-    <row r="789" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:5">
       <c r="A789" s="3"/>
       <c r="B789" s="3"/>
       <c r="E789" s="3"/>
     </row>
-    <row r="790" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:5">
       <c r="A790" s="3"/>
       <c r="B790" s="3"/>
       <c r="E790" s="3"/>
     </row>
-    <row r="791" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:5">
       <c r="A791" s="3"/>
       <c r="B791" s="3"/>
       <c r="E791" s="3"/>
     </row>
-    <row r="792" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:5">
       <c r="A792" s="3"/>
       <c r="B792" s="3"/>
       <c r="E792" s="3"/>
     </row>
-    <row r="793" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:5">
       <c r="A793" s="3"/>
       <c r="B793" s="3"/>
       <c r="E793" s="3"/>
     </row>
-    <row r="794" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:5">
       <c r="A794" s="3"/>
       <c r="B794" s="3"/>
       <c r="E794" s="3"/>
     </row>
-    <row r="795" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:5">
       <c r="A795" s="3"/>
       <c r="B795" s="3"/>
       <c r="E795" s="3"/>
     </row>
-    <row r="796" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:5">
       <c r="A796" s="3"/>
       <c r="B796" s="3"/>
       <c r="E796" s="3"/>
     </row>
-    <row r="797" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:5">
       <c r="A797" s="3"/>
       <c r="B797" s="3"/>
       <c r="E797" s="3"/>
     </row>
-    <row r="798" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:5">
       <c r="A798" s="3"/>
       <c r="B798" s="3"/>
       <c r="E798" s="3"/>
     </row>
-    <row r="799" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:5">
       <c r="A799" s="3"/>
       <c r="B799" s="3"/>
       <c r="E799" s="3"/>
     </row>
-    <row r="800" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:5">
       <c r="A800" s="3"/>
       <c r="B800" s="3"/>
       <c r="E800" s="3"/>
     </row>
-    <row r="801" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:5">
       <c r="A801" s="3"/>
       <c r="B801" s="3"/>
       <c r="E801" s="3"/>
     </row>
-    <row r="802" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:5">
       <c r="A802" s="3"/>
       <c r="B802" s="3"/>
       <c r="E802" s="3"/>
     </row>
-    <row r="803" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:5">
       <c r="A803" s="3"/>
       <c r="B803" s="3"/>
       <c r="E803" s="3"/>
     </row>
-    <row r="804" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:5">
       <c r="A804" s="3"/>
       <c r="B804" s="3"/>
       <c r="E804" s="3"/>
     </row>
-    <row r="805" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:5">
       <c r="A805" s="3"/>
       <c r="B805" s="3"/>
       <c r="E805" s="3"/>
     </row>
-    <row r="806" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:5">
       <c r="A806" s="3"/>
       <c r="B806" s="3"/>
       <c r="E806" s="3"/>
     </row>
-    <row r="807" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:5">
       <c r="A807" s="3"/>
       <c r="B807" s="3"/>
       <c r="E807" s="3"/>
     </row>
-    <row r="808" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:5">
       <c r="A808" s="3"/>
       <c r="B808" s="3"/>
       <c r="E808" s="3"/>
     </row>
-    <row r="809" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:5">
       <c r="A809" s="3"/>
       <c r="B809" s="3"/>
       <c r="E809" s="3"/>
     </row>
-    <row r="810" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:5">
       <c r="A810" s="3"/>
       <c r="B810" s="3"/>
       <c r="E810" s="3"/>
     </row>
-    <row r="811" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:5">
       <c r="A811" s="3"/>
       <c r="B811" s="3"/>
       <c r="E811" s="3"/>
     </row>
-    <row r="812" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:5">
       <c r="A812" s="3"/>
       <c r="B812" s="3"/>
       <c r="E812" s="3"/>
     </row>
-    <row r="813" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:5">
       <c r="A813" s="3"/>
       <c r="B813" s="3"/>
       <c r="E813" s="3"/>
     </row>
-    <row r="814" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:5">
       <c r="A814" s="3"/>
       <c r="B814" s="3"/>
       <c r="E814" s="3"/>
     </row>
-    <row r="815" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:5">
       <c r="A815" s="3"/>
       <c r="B815" s="3"/>
       <c r="E815" s="3"/>
     </row>
-    <row r="816" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:5">
       <c r="A816" s="3"/>
       <c r="B816" s="3"/>
       <c r="E816" s="3"/>
     </row>
-    <row r="817" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:5">
       <c r="A817" s="3"/>
       <c r="B817" s="3"/>
       <c r="E817" s="3"/>
     </row>
-    <row r="818" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:5">
       <c r="A818" s="3"/>
       <c r="B818" s="3"/>
       <c r="E818" s="3"/>
     </row>
-    <row r="819" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:5">
       <c r="A819" s="3"/>
       <c r="B819" s="3"/>
       <c r="E819" s="3"/>
     </row>
-    <row r="820" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:5">
       <c r="A820" s="3"/>
       <c r="B820" s="3"/>
       <c r="E820" s="3"/>
     </row>
-    <row r="821" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:5">
       <c r="A821" s="3"/>
       <c r="B821" s="3"/>
       <c r="E821" s="3"/>
     </row>
-    <row r="822" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:5">
       <c r="A822" s="3"/>
       <c r="B822" s="3"/>
       <c r="E822" s="3"/>
     </row>
-    <row r="823" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:5">
       <c r="A823" s="3"/>
       <c r="B823" s="3"/>
       <c r="E823" s="3"/>
     </row>
-    <row r="824" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:5">
       <c r="A824" s="3"/>
       <c r="B824" s="3"/>
       <c r="E824" s="3"/>
     </row>
-    <row r="825" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:5">
       <c r="A825" s="3"/>
       <c r="B825" s="3"/>
       <c r="E825" s="3"/>
     </row>
-    <row r="826" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:5">
       <c r="A826" s="3"/>
       <c r="B826" s="3"/>
       <c r="E826" s="3"/>
     </row>
-    <row r="827" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:5">
       <c r="A827" s="3"/>
       <c r="B827" s="3"/>
       <c r="E827" s="3"/>
     </row>
-    <row r="828" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:5">
       <c r="A828" s="3"/>
       <c r="B828" s="3"/>
       <c r="E828" s="3"/>
     </row>
-    <row r="829" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:5">
       <c r="A829" s="3"/>
       <c r="B829" s="3"/>
       <c r="E829" s="3"/>
     </row>
-    <row r="830" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:5">
       <c r="A830" s="3"/>
       <c r="B830" s="3"/>
       <c r="E830" s="3"/>
     </row>
-    <row r="831" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:5">
       <c r="A831" s="3"/>
       <c r="B831" s="3"/>
       <c r="E831" s="3"/>
     </row>
-    <row r="832" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:5">
       <c r="A832" s="3"/>
       <c r="B832" s="3"/>
       <c r="E832" s="3"/>
     </row>
-    <row r="833" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:5">
       <c r="A833" s="3"/>
       <c r="B833" s="3"/>
       <c r="E833" s="3"/>
     </row>
-    <row r="834" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:5">
       <c r="A834" s="3"/>
       <c r="B834" s="3"/>
       <c r="E834" s="3"/>
     </row>
-    <row r="835" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:5">
       <c r="A835" s="3"/>
       <c r="B835" s="3"/>
       <c r="E835" s="3"/>
     </row>
-    <row r="836" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:5">
       <c r="A836" s="3"/>
       <c r="B836" s="3"/>
       <c r="E836" s="3"/>
     </row>
-    <row r="837" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:5">
       <c r="A837" s="3"/>
       <c r="B837" s="3"/>
       <c r="E837" s="3"/>
     </row>
-    <row r="838" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:5">
       <c r="A838" s="3"/>
       <c r="B838" s="3"/>
       <c r="E838" s="3"/>
     </row>
-    <row r="839" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:5">
       <c r="A839" s="3"/>
       <c r="B839" s="3"/>
       <c r="E839" s="3"/>
     </row>
-    <row r="840" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:5">
       <c r="A840" s="3"/>
       <c r="B840" s="3"/>
       <c r="E840" s="3"/>
     </row>
-    <row r="841" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:5">
       <c r="A841" s="3"/>
       <c r="B841" s="3"/>
       <c r="E841" s="3"/>
     </row>
-    <row r="842" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:5">
       <c r="A842" s="3"/>
       <c r="B842" s="3"/>
       <c r="E842" s="3"/>
     </row>
-    <row r="843" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:5">
       <c r="A843" s="3"/>
       <c r="B843" s="3"/>
       <c r="E843" s="3"/>
     </row>
-    <row r="844" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:5">
       <c r="A844" s="3"/>
       <c r="B844" s="3"/>
       <c r="E844" s="3"/>
     </row>
-    <row r="845" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:5">
       <c r="A845" s="3"/>
       <c r="B845" s="3"/>
       <c r="E845" s="3"/>
     </row>
-    <row r="846" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:5">
       <c r="A846" s="3"/>
       <c r="B846" s="3"/>
       <c r="E846" s="3"/>
     </row>
-    <row r="847" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:5">
       <c r="A847" s="3"/>
       <c r="B847" s="3"/>
       <c r="E847" s="3"/>
     </row>
-    <row r="848" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:5">
       <c r="A848" s="3"/>
       <c r="B848" s="3"/>
       <c r="E848" s="3"/>
     </row>
-    <row r="849" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:5">
       <c r="A849" s="3"/>
       <c r="B849" s="3"/>
       <c r="E849" s="3"/>
     </row>
-    <row r="850" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:5">
       <c r="A850" s="3"/>
       <c r="B850" s="3"/>
       <c r="E850" s="3"/>
     </row>
-    <row r="851" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:5">
       <c r="A851" s="3"/>
       <c r="B851" s="3"/>
       <c r="E851" s="3"/>
     </row>
-    <row r="852" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:5">
       <c r="A852" s="3"/>
       <c r="B852" s="3"/>
       <c r="E852" s="3"/>
     </row>
-    <row r="853" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:5">
       <c r="A853" s="3"/>
       <c r="B853" s="3"/>
       <c r="E853" s="3"/>
     </row>
-    <row r="854" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:5">
       <c r="A854" s="3"/>
       <c r="B854" s="3"/>
       <c r="E854" s="3"/>
     </row>
-    <row r="855" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:5">
       <c r="A855" s="3"/>
       <c r="B855" s="3"/>
       <c r="E855" s="3"/>
     </row>
-    <row r="856" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:5">
       <c r="A856" s="3"/>
       <c r="B856" s="3"/>
       <c r="E856" s="3"/>
     </row>
-    <row r="857" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:5">
       <c r="A857" s="3"/>
       <c r="B857" s="3"/>
       <c r="E857" s="3"/>
     </row>
-    <row r="858" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:5">
       <c r="A858" s="3"/>
       <c r="B858" s="3"/>
       <c r="E858" s="3"/>
     </row>
-    <row r="859" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:5">
       <c r="A859" s="3"/>
       <c r="B859" s="3"/>
       <c r="E859" s="3"/>
     </row>
-    <row r="860" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:5">
       <c r="A860" s="3"/>
       <c r="B860" s="3"/>
       <c r="E860" s="3"/>
     </row>
-    <row r="861" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:5">
       <c r="A861" s="3"/>
       <c r="B861" s="3"/>
       <c r="E861" s="3"/>
     </row>
-    <row r="862" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:5">
       <c r="A862" s="3"/>
       <c r="B862" s="3"/>
       <c r="E862" s="3"/>
     </row>
-    <row r="863" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:5">
       <c r="A863" s="3"/>
       <c r="B863" s="3"/>
       <c r="E863" s="3"/>
     </row>
-    <row r="864" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:5">
       <c r="A864" s="3"/>
       <c r="B864" s="3"/>
       <c r="E864" s="3"/>
     </row>
-    <row r="865" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:5">
       <c r="A865" s="3"/>
       <c r="B865" s="3"/>
       <c r="E865" s="3"/>
     </row>
-    <row r="866" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:5">
       <c r="A866" s="3"/>
       <c r="B866" s="3"/>
       <c r="E866" s="3"/>
     </row>
-    <row r="867" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:5">
       <c r="A867" s="3"/>
       <c r="B867" s="3"/>
       <c r="E867" s="3"/>
     </row>
-    <row r="868" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:5">
       <c r="A868" s="3"/>
       <c r="B868" s="3"/>
       <c r="E868" s="3"/>
     </row>
-    <row r="869" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:5">
       <c r="A869" s="3"/>
       <c r="B869" s="3"/>
       <c r="E869" s="3"/>
     </row>
-    <row r="870" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:5">
       <c r="A870" s="3"/>
       <c r="B870" s="3"/>
       <c r="E870" s="3"/>
     </row>
-    <row r="871" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:5">
       <c r="A871" s="3"/>
       <c r="B871" s="3"/>
       <c r="E871" s="3"/>
     </row>
-    <row r="872" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:5">
       <c r="A872" s="3"/>
       <c r="B872" s="3"/>
       <c r="E872" s="3"/>
     </row>
-    <row r="873" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:5">
       <c r="A873" s="3"/>
       <c r="B873" s="3"/>
       <c r="E873" s="3"/>
     </row>
-    <row r="874" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:5">
       <c r="A874" s="3"/>
       <c r="B874" s="3"/>
       <c r="E874" s="3"/>
     </row>
-    <row r="875" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:5">
       <c r="A875" s="3"/>
       <c r="B875" s="3"/>
       <c r="E875" s="3"/>
     </row>
-    <row r="876" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:5">
       <c r="A876" s="3"/>
       <c r="B876" s="3"/>
       <c r="E876" s="3"/>
     </row>
-    <row r="877" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:5">
       <c r="A877" s="3"/>
       <c r="B877" s="3"/>
       <c r="E877" s="3"/>
     </row>
-    <row r="878" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:5">
       <c r="A878" s="3"/>
       <c r="B878" s="3"/>
       <c r="E878" s="3"/>
     </row>
-    <row r="879" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:5">
       <c r="A879" s="3"/>
       <c r="B879" s="3"/>
       <c r="E879" s="3"/>
     </row>
-    <row r="880" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:5">
       <c r="A880" s="3"/>
       <c r="B880" s="3"/>
       <c r="E880" s="3"/>
     </row>
-    <row r="881" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:5">
       <c r="A881" s="3"/>
       <c r="B881" s="3"/>
       <c r="E881" s="3"/>
     </row>
-    <row r="882" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:5">
       <c r="A882" s="3"/>
       <c r="B882" s="3"/>
       <c r="E882" s="3"/>
     </row>
-    <row r="883" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:5">
       <c r="A883" s="3"/>
       <c r="B883" s="3"/>
       <c r="E883" s="3"/>
     </row>
-    <row r="884" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:5">
       <c r="A884" s="3"/>
       <c r="B884" s="3"/>
       <c r="E884" s="3"/>
     </row>
-    <row r="885" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:5">
       <c r="A885" s="3"/>
       <c r="B885" s="3"/>
       <c r="E885" s="3"/>
     </row>
-    <row r="886" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:5">
       <c r="A886" s="3"/>
       <c r="B886" s="3"/>
       <c r="E886" s="3"/>
     </row>
-    <row r="887" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:5">
       <c r="A887" s="3"/>
       <c r="B887" s="3"/>
       <c r="E887" s="3"/>
     </row>
-    <row r="888" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:5">
       <c r="A888" s="3"/>
       <c r="B888" s="3"/>
       <c r="E888" s="3"/>
     </row>
-    <row r="889" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:5">
       <c r="A889" s="3"/>
       <c r="B889" s="3"/>
       <c r="E889" s="3"/>
     </row>
-    <row r="890" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:5">
       <c r="A890" s="3"/>
       <c r="B890" s="3"/>
       <c r="E890" s="3"/>
     </row>
-    <row r="891" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:5">
       <c r="A891" s="3"/>
       <c r="B891" s="3"/>
       <c r="E891" s="3"/>
     </row>
-    <row r="892" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:5">
       <c r="A892" s="3"/>
       <c r="B892" s="3"/>
       <c r="E892" s="3"/>
     </row>
-    <row r="893" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:5">
       <c r="A893" s="3"/>
       <c r="B893" s="3"/>
       <c r="E893" s="3"/>
     </row>
-    <row r="894" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:5">
       <c r="A894" s="3"/>
       <c r="B894" s="3"/>
       <c r="E894" s="3"/>
     </row>
-    <row r="895" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:5">
       <c r="A895" s="3"/>
       <c r="B895" s="3"/>
       <c r="E895" s="3"/>
     </row>
-    <row r="896" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:5">
       <c r="A896" s="3"/>
       <c r="B896" s="3"/>
       <c r="E896" s="3"/>
     </row>
-    <row r="897" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:5">
       <c r="A897" s="3"/>
       <c r="B897" s="3"/>
       <c r="E897" s="3"/>
     </row>
-    <row r="898" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:5">
       <c r="A898" s="3"/>
       <c r="B898" s="3"/>
       <c r="E898" s="3"/>
     </row>
-    <row r="899" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:5">
       <c r="A899" s="3"/>
       <c r="B899" s="3"/>
       <c r="E899" s="3"/>
     </row>
-    <row r="900" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:5">
       <c r="A900" s="3"/>
       <c r="B900" s="3"/>
       <c r="E900" s="3"/>
     </row>
-    <row r="901" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:5">
       <c r="A901" s="3"/>
       <c r="B901" s="3"/>
       <c r="E901" s="3"/>
     </row>
-    <row r="902" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:5">
       <c r="A902" s="3"/>
       <c r="B902" s="3"/>
       <c r="E902" s="3"/>
     </row>
-    <row r="903" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:5">
       <c r="A903" s="3"/>
       <c r="B903" s="3"/>
       <c r="E903" s="3"/>
     </row>
-    <row r="904" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:5">
       <c r="A904" s="3"/>
       <c r="B904" s="3"/>
       <c r="E904" s="3"/>
     </row>
-    <row r="905" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:5">
       <c r="A905" s="3"/>
       <c r="B905" s="3"/>
       <c r="E905" s="3"/>
     </row>
-    <row r="906" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:5">
       <c r="A906" s="3"/>
       <c r="B906" s="3"/>
       <c r="E906" s="3"/>
     </row>
-    <row r="907" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:5">
       <c r="A907" s="3"/>
       <c r="B907" s="3"/>
       <c r="E907" s="3"/>
     </row>
-    <row r="908" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:5">
       <c r="A908" s="3"/>
       <c r="B908" s="3"/>
       <c r="E908" s="3"/>
     </row>
-    <row r="909" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:5">
       <c r="A909" s="3"/>
       <c r="B909" s="3"/>
       <c r="E909" s="3"/>
     </row>
-    <row r="910" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:5">
       <c r="A910" s="3"/>
       <c r="B910" s="3"/>
       <c r="E910" s="3"/>
     </row>
-    <row r="911" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:5">
       <c r="A911" s="3"/>
       <c r="B911" s="3"/>
       <c r="E911" s="3"/>
     </row>
-    <row r="912" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:5">
       <c r="A912" s="3"/>
       <c r="B912" s="3"/>
       <c r="E912" s="3"/>
     </row>
-    <row r="913" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:5">
       <c r="A913" s="3"/>
       <c r="B913" s="3"/>
       <c r="E913" s="3"/>
     </row>
-    <row r="914" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:5">
       <c r="A914" s="3"/>
       <c r="B914" s="3"/>
       <c r="E914" s="3"/>
     </row>
-    <row r="915" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:5">
       <c r="A915" s="3"/>
       <c r="B915" s="3"/>
       <c r="E915" s="3"/>
     </row>
-    <row r="916" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:5">
       <c r="A916" s="3"/>
       <c r="B916" s="3"/>
       <c r="E916" s="3"/>
     </row>
-    <row r="917" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:5">
       <c r="A917" s="3"/>
       <c r="B917" s="3"/>
       <c r="E917" s="3"/>
     </row>
-    <row r="918" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:5">
       <c r="A918" s="3"/>
       <c r="B918" s="3"/>
       <c r="E918" s="3"/>
     </row>
-    <row r="919" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:5">
       <c r="A919" s="3"/>
       <c r="B919" s="3"/>
       <c r="E919" s="3"/>
     </row>
-    <row r="920" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:5">
       <c r="A920" s="3"/>
       <c r="B920" s="3"/>
       <c r="E920" s="3"/>
     </row>
-    <row r="921" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:5">
       <c r="A921" s="3"/>
       <c r="B921" s="3"/>
       <c r="E921" s="3"/>
     </row>
-    <row r="922" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:5">
       <c r="A922" s="3"/>
       <c r="B922" s="3"/>
       <c r="E922" s="3"/>
     </row>
-    <row r="923" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:5">
       <c r="A923" s="3"/>
       <c r="B923" s="3"/>
       <c r="E923" s="3"/>
     </row>
-    <row r="924" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:5">
       <c r="A924" s="3"/>
       <c r="B924" s="3"/>
       <c r="E924" s="3"/>
     </row>
-    <row r="925" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:5">
       <c r="A925" s="3"/>
       <c r="B925" s="3"/>
       <c r="E925" s="3"/>
     </row>
-    <row r="926" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:5">
       <c r="A926" s="3"/>
       <c r="B926" s="3"/>
       <c r="E926" s="3"/>
     </row>
-    <row r="927" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:5">
       <c r="A927" s="3"/>
       <c r="B927" s="3"/>
       <c r="E927" s="3"/>
     </row>
-    <row r="928" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:5">
       <c r="A928" s="3"/>
       <c r="B928" s="3"/>
       <c r="E928" s="3"/>
     </row>
-    <row r="929" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:5">
       <c r="A929" s="3"/>
       <c r="B929" s="3"/>
       <c r="E929" s="3"/>
     </row>
-    <row r="930" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:5">
       <c r="A930" s="3"/>
       <c r="B930" s="3"/>
       <c r="E930" s="3"/>
     </row>
-    <row r="931" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:5">
       <c r="A931" s="3"/>
       <c r="B931" s="3"/>
       <c r="E931" s="3"/>
     </row>
-    <row r="932" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:5">
       <c r="A932" s="3"/>
       <c r="B932" s="3"/>
       <c r="E932" s="3"/>
     </row>
-    <row r="933" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:5">
       <c r="A933" s="3"/>
       <c r="B933" s="3"/>
       <c r="E933" s="3"/>
     </row>
-    <row r="934" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:5">
       <c r="A934" s="3"/>
       <c r="B934" s="3"/>
       <c r="E934" s="3"/>
     </row>
-    <row r="935" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:5">
       <c r="A935" s="3"/>
       <c r="B935" s="3"/>
       <c r="E935" s="3"/>
     </row>
-    <row r="936" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:5">
       <c r="A936" s="3"/>
       <c r="B936" s="3"/>
       <c r="E936" s="3"/>
     </row>
-    <row r="937" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:5">
       <c r="A937" s="3"/>
       <c r="B937" s="3"/>
       <c r="E937" s="3"/>
     </row>
-    <row r="938" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:5">
       <c r="A938" s="3"/>
       <c r="B938" s="3"/>
       <c r="E938" s="3"/>
     </row>
-    <row r="939" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:5">
       <c r="A939" s="3"/>
       <c r="B939" s="3"/>
       <c r="E939" s="3"/>
     </row>
-    <row r="940" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:5">
       <c r="A940" s="3"/>
       <c r="B940" s="3"/>
       <c r="E940" s="3"/>
     </row>
-    <row r="941" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:5">
       <c r="A941" s="3"/>
       <c r="B941" s="3"/>
       <c r="E941" s="3"/>
     </row>
-    <row r="942" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:5">
       <c r="A942" s="3"/>
       <c r="B942" s="3"/>
       <c r="E942" s="3"/>
     </row>
-    <row r="943" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:5">
       <c r="A943" s="3"/>
       <c r="B943" s="3"/>
       <c r="E943" s="3"/>
     </row>
-    <row r="944" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:5">
       <c r="A944" s="3"/>
       <c r="B944" s="3"/>
       <c r="E944" s="3"/>
     </row>
-    <row r="945" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:5">
       <c r="A945" s="3"/>
       <c r="B945" s="3"/>
       <c r="E945" s="3"/>
     </row>
-    <row r="946" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:5">
       <c r="A946" s="3"/>
       <c r="B946" s="3"/>
       <c r="E946" s="3"/>
     </row>
-    <row r="947" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:5">
       <c r="A947" s="3"/>
       <c r="B947" s="3"/>
       <c r="E947" s="3"/>
     </row>
-    <row r="948" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:5">
       <c r="A948" s="3"/>
       <c r="B948" s="3"/>
       <c r="E948" s="3"/>
     </row>
-    <row r="949" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:5">
       <c r="A949" s="3"/>
       <c r="B949" s="3"/>
       <c r="E949" s="3"/>
     </row>
-    <row r="950" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:5">
       <c r="A950" s="3"/>
       <c r="B950" s="3"/>
       <c r="E950" s="3"/>
     </row>
-    <row r="951" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:5">
       <c r="A951" s="3"/>
       <c r="B951" s="3"/>
       <c r="E951" s="3"/>
     </row>
-    <row r="952" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:5">
       <c r="A952" s="3"/>
       <c r="B952" s="3"/>
       <c r="E952" s="3"/>
     </row>
-    <row r="953" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:5">
       <c r="A953" s="3"/>
       <c r="B953" s="3"/>
       <c r="E953" s="3"/>
     </row>
-    <row r="954" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:5">
       <c r="A954" s="3"/>
       <c r="B954" s="3"/>
       <c r="E954" s="3"/>
     </row>
-    <row r="955" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:5">
       <c r="A955" s="3"/>
       <c r="B955" s="3"/>
       <c r="E955" s="3"/>
     </row>
-    <row r="956" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:5">
       <c r="A956" s="3"/>
       <c r="B956" s="3"/>
       <c r="E956" s="3"/>
     </row>
-    <row r="957" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:5">
       <c r="A957" s="3"/>
       <c r="B957" s="3"/>
       <c r="E957" s="3"/>
     </row>
-    <row r="958" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:5">
       <c r="A958" s="3"/>
       <c r="B958" s="3"/>
       <c r="E958" s="3"/>
     </row>
-    <row r="959" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:5">
       <c r="A959" s="3"/>
       <c r="B959" s="3"/>
       <c r="E959" s="3"/>
     </row>
-    <row r="960" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:5">
       <c r="A960" s="3"/>
       <c r="B960" s="3"/>
       <c r="E960" s="3"/>
     </row>
-    <row r="961" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:5">
       <c r="A961" s="3"/>
       <c r="B961" s="3"/>
       <c r="E961" s="3"/>
     </row>
-    <row r="962" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:5">
       <c r="A962" s="3"/>
       <c r="B962" s="3"/>
       <c r="E962" s="3"/>
     </row>
-    <row r="963" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:5">
       <c r="A963" s="3"/>
       <c r="B963" s="3"/>
       <c r="E963" s="3"/>
     </row>
-    <row r="964" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:5">
       <c r="A964" s="3"/>
       <c r="B964" s="3"/>
       <c r="E964" s="3"/>
     </row>
-    <row r="965" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:5">
       <c r="A965" s="3"/>
       <c r="B965" s="3"/>
       <c r="E965" s="3"/>
     </row>
-    <row r="966" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:5">
       <c r="A966" s="3"/>
       <c r="B966" s="3"/>
       <c r="E966" s="3"/>
     </row>
-    <row r="967" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:5">
       <c r="A967" s="3"/>
       <c r="B967" s="3"/>
       <c r="E967" s="3"/>
     </row>
-    <row r="968" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:5">
       <c r="A968" s="3"/>
       <c r="B968" s="3"/>
       <c r="E968" s="3"/>
     </row>
-    <row r="969" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:5">
       <c r="A969" s="3"/>
       <c r="B969" s="3"/>
       <c r="E969" s="3"/>
     </row>
-    <row r="970" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:5">
       <c r="A970" s="3"/>
       <c r="B970" s="3"/>
       <c r="E970" s="3"/>
     </row>
-    <row r="971" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:5">
       <c r="A971" s="3"/>
       <c r="B971" s="3"/>
       <c r="E971" s="3"/>
     </row>
-    <row r="972" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:5">
       <c r="A972" s="3"/>
       <c r="B972" s="3"/>
       <c r="E972" s="3"/>
     </row>
-    <row r="973" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:5">
       <c r="A973" s="3"/>
       <c r="B973" s="3"/>
       <c r="E973" s="3"/>
     </row>
-    <row r="974" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:5">
       <c r="A974" s="3"/>
       <c r="B974" s="3"/>
       <c r="E974" s="3"/>
     </row>
-    <row r="975" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:5">
       <c r="A975" s="3"/>
       <c r="B975" s="3"/>
       <c r="E975" s="3"/>
     </row>
-    <row r="976" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:5">
       <c r="A976" s="3"/>
       <c r="B976" s="3"/>
       <c r="E976" s="3"/>
     </row>
-    <row r="977" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:5">
       <c r="A977" s="3"/>
       <c r="B977" s="3"/>
       <c r="E977" s="3"/>
     </row>
-    <row r="978" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:5">
       <c r="A978" s="3"/>
       <c r="B978" s="3"/>
       <c r="E978" s="3"/>
     </row>
-    <row r="979" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:5">
       <c r="A979" s="3"/>
       <c r="B979" s="3"/>
       <c r="E979" s="3"/>
     </row>
-    <row r="980" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:5">
       <c r="A980" s="3"/>
       <c r="B980" s="3"/>
       <c r="E980" s="3"/>
     </row>
-    <row r="981" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:5">
       <c r="A981" s="3"/>
       <c r="B981" s="3"/>
       <c r="E981" s="3"/>
     </row>
-    <row r="982" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:5">
       <c r="A982" s="3"/>
       <c r="B982" s="3"/>
       <c r="E982" s="3"/>
     </row>
-    <row r="983" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:5">
       <c r="A983" s="3"/>
       <c r="B983" s="3"/>
       <c r="E983" s="3"/>
     </row>
-    <row r="984" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:5">
       <c r="A984" s="3"/>
       <c r="B984" s="3"/>
       <c r="E984" s="3"/>
     </row>
-    <row r="985" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:5">
       <c r="A985" s="3"/>
       <c r="B985" s="3"/>
       <c r="E985" s="3"/>
     </row>
-    <row r="986" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:5">
       <c r="A986" s="3"/>
       <c r="B986" s="3"/>
       <c r="E986" s="3"/>
     </row>
-    <row r="987" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:5">
       <c r="A987" s="3"/>
       <c r="B987" s="3"/>
       <c r="E987" s="3"/>
     </row>
-    <row r="988" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:5">
       <c r="A988" s="3"/>
       <c r="B988" s="3"/>
       <c r="E988" s="3"/>
     </row>
-    <row r="989" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:5">
       <c r="A989" s="3"/>
       <c r="B989" s="3"/>
       <c r="E989" s="3"/>
     </row>
-    <row r="990" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:5">
       <c r="A990" s="3"/>
       <c r="B990" s="3"/>
       <c r="E990" s="3"/>
     </row>
-    <row r="991" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:5">
       <c r="A991" s="3"/>
       <c r="B991" s="3"/>
       <c r="E991" s="3"/>
     </row>
-    <row r="992" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:5">
       <c r="A992" s="3"/>
       <c r="B992" s="3"/>
       <c r="E992" s="3"/>
     </row>
-    <row r="993" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:5">
       <c r="A993" s="3"/>
       <c r="B993" s="3"/>
       <c r="E993" s="3"/>
     </row>
-    <row r="994" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:5">
       <c r="A994" s="3"/>
       <c r="B994" s="3"/>
       <c r="E994" s="3"/>
     </row>
-    <row r="995" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:5">
       <c r="A995" s="3"/>
       <c r="B995" s="3"/>
       <c r="E995" s="3"/>
     </row>
-    <row r="996" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:5">
       <c r="A996" s="3"/>
       <c r="B996" s="3"/>
       <c r="E996" s="3"/>
     </row>
-    <row r="997" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:5">
       <c r="A997" s="3"/>
       <c r="B997" s="3"/>
       <c r="E997" s="3"/>
     </row>
-    <row r="998" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:5">
       <c r="A998" s="3"/>
       <c r="B998" s="3"/>
       <c r="E998" s="3"/>
     </row>
-    <row r="999" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:5">
       <c r="A999" s="3"/>
       <c r="B999" s="3"/>
       <c r="E999" s="3"/>
     </row>
-    <row r="1000" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:5">
       <c r="A1000" s="3"/>
       <c r="B1000" s="3"/>
       <c r="E1000" s="3"/>
@@ -6146,14 +6178,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J22" sqref="J22:J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
@@ -6163,7 +6195,7 @@
     <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="11" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
@@ -6198,7 +6230,7 @@
       <c r="L1" s="31"/>
       <c r="N1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" s="7" t="s">
         <v>13</v>
       </c>
@@ -6232,7 +6264,7 @@
       <c r="K2" s="31"/>
       <c r="L2" s="31"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="9" t="s">
         <v>14</v>
       </c>
@@ -6266,7 +6298,7 @@
       <c r="K3" s="31"/>
       <c r="L3" s="31"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="9" t="s">
         <v>15</v>
       </c>
@@ -6300,7 +6332,7 @@
       <c r="K4" s="31"/>
       <c r="L4" s="31"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="9" t="s">
         <v>16</v>
       </c>
@@ -6334,7 +6366,7 @@
       <c r="K5" s="31"/>
       <c r="L5" s="31"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="9" t="s">
         <v>17</v>
       </c>
@@ -6368,7 +6400,7 @@
       <c r="K6" s="31"/>
       <c r="L6" s="31"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="9" t="s">
         <v>18</v>
       </c>
@@ -6402,7 +6434,7 @@
       <c r="K7" s="31"/>
       <c r="L7" s="31"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" s="9" t="s">
         <v>19</v>
       </c>
@@ -6436,7 +6468,7 @@
       <c r="K8" s="31"/>
       <c r="L8" s="31"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" s="9" t="s">
         <v>20</v>
       </c>
@@ -6470,7 +6502,7 @@
       <c r="K9" s="31"/>
       <c r="L9" s="31"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="9" t="s">
         <v>21</v>
       </c>
@@ -6504,7 +6536,7 @@
       <c r="K10" s="31"/>
       <c r="L10" s="31"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="9" t="s">
         <v>22</v>
       </c>
@@ -6538,7 +6570,7 @@
       <c r="K11" s="31"/>
       <c r="L11" s="31"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" s="10" t="s">
         <v>23</v>
       </c>
@@ -6572,7 +6604,7 @@
       <c r="K12" s="31"/>
       <c r="L12" s="31"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -6606,7 +6638,7 @@
       <c r="K13" s="31"/>
       <c r="L13" s="31"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" s="10" t="s">
         <v>41</v>
       </c>
@@ -6640,7 +6672,7 @@
       <c r="K14" s="31"/>
       <c r="L14" s="31"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15" s="10" t="s">
         <v>42</v>
       </c>
@@ -6675,7 +6707,7 @@
       <c r="L15" s="31"/>
       <c r="N15" s="11"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16" s="10" t="s">
         <v>55</v>
       </c>
@@ -6709,7 +6741,7 @@
       <c r="K16" s="31"/>
       <c r="L16" s="31"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="A17" s="10" t="s">
         <v>64</v>
       </c>
@@ -6741,7 +6773,7 @@
       <c r="K17" s="31"/>
       <c r="L17" s="31"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" s="10" t="s">
         <v>135</v>
       </c>
@@ -6773,7 +6805,7 @@
       <c r="K18" s="31"/>
       <c r="L18" s="31"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12">
       <c r="A19" s="10" t="s">
         <v>138</v>
       </c>
@@ -6805,7 +6837,7 @@
       <c r="K19" s="31"/>
       <c r="L19" s="31"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="A20" s="10" t="s">
         <v>140</v>
       </c>
@@ -6837,7 +6869,7 @@
       <c r="K20" s="31"/>
       <c r="L20" s="31"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12">
       <c r="A21" s="5" t="s">
         <v>151</v>
       </c>
@@ -6857,7 +6889,7 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="A22" s="10" t="s">
         <v>152</v>
       </c>
@@ -6877,7 +6909,7 @@
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
       <c r="A23" s="10" t="s">
         <v>153</v>
       </c>
@@ -6907,14 +6939,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31.85546875" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="17" bestFit="1" customWidth="1"/>
@@ -6935,7 +6967,7 @@
     <col min="18" max="16384" width="17.85546875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="8" t="s">
         <v>43</v>
       </c>
@@ -6970,7 +7002,7 @@
       </c>
       <c r="Q1" s="5"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" s="8" t="s">
         <v>44</v>
       </c>
@@ -7010,7 +7042,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3" s="8" t="s">
         <v>44</v>
       </c>
@@ -7051,7 +7083,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4" s="8" t="s">
         <v>86</v>
       </c>
@@ -7092,7 +7124,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5" s="8" t="s">
         <v>45</v>
       </c>
@@ -7127,7 +7159,7 @@
         <v>1250000</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6" s="8" t="s">
         <v>27</v>
       </c>
@@ -7169,7 +7201,7 @@
         <v>62500</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7" s="8" t="s">
         <v>25</v>
       </c>
@@ -7197,7 +7229,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="A8" s="8" t="s">
         <v>26</v>
       </c>
@@ -7225,7 +7257,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9" s="8" t="s">
         <v>5</v>
       </c>
@@ -7252,7 +7284,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="G10" s="8" t="s">
         <v>62</v>
       </c>
@@ -7270,7 +7302,7 @@
       </c>
       <c r="N10" s="5"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="G11" s="8" t="s">
         <v>63</v>
       </c>
@@ -7290,7 +7322,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="G12" s="8" t="s">
         <v>66</v>
       </c>
@@ -7304,13 +7336,13 @@
         <v>2000</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="N12" s="5">
         <v>5000</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="G13" s="8" t="s">
         <v>5</v>
       </c>
@@ -7324,7 +7356,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="D14" s="22"/>
       <c r="J14" s="13" t="s">
         <v>76</v>
@@ -7332,8 +7364,9 @@
       <c r="K14" s="15">
         <v>2000</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P14" s="36"/>
+    </row>
+    <row r="15" spans="1:17">
       <c r="D15" s="22"/>
       <c r="J15" s="13" t="s">
         <v>77</v>
@@ -7342,7 +7375,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="D16" s="22"/>
       <c r="J16" s="13" t="s">
         <v>78</v>
@@ -7351,7 +7384,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="17" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:11">
       <c r="J17" s="13" t="s">
         <v>68</v>
       </c>
@@ -7359,7 +7392,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:11">
       <c r="J18" s="13" t="s">
         <v>79</v>
       </c>
@@ -7367,7 +7400,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="19" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:11">
       <c r="J19" s="13" t="s">
         <v>80</v>
       </c>
@@ -7375,7 +7408,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="20" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:11">
       <c r="J20" s="13" t="s">
         <v>27</v>
       </c>
@@ -7383,7 +7416,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="21" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:11">
       <c r="J21" s="13" t="s">
         <v>81</v>
       </c>
@@ -7391,7 +7424,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="22" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:11">
       <c r="J22" s="13" t="s">
         <v>82</v>
       </c>
@@ -7399,7 +7432,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="23" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:11">
       <c r="J23" s="13" t="s">
         <v>83</v>
       </c>
@@ -7407,7 +7440,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="24" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:11">
       <c r="J24" s="13" t="s">
         <v>84</v>
       </c>
@@ -7415,7 +7448,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="25" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:11">
       <c r="J25" s="13" t="s">
         <v>85</v>
       </c>
@@ -7423,7 +7456,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="26" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:11">
       <c r="D26" s="21"/>
       <c r="J26" s="13" t="s">
         <v>91</v>
@@ -7439,14 +7472,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="M3" sqref="M3:P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -7458,7 +7491,7 @@
     <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" s="30" t="s">
         <v>102</v>
       </c>
@@ -7488,7 +7521,7 @@
         <v>297.70000000000039</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="15" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>41</v>
       </c>
@@ -7515,8 +7548,11 @@
       <c r="K2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N2" s="35" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>108</v>
       </c>
@@ -7550,8 +7586,21 @@
       <c r="K3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M3" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="N3" s="5">
+        <v>2</v>
+      </c>
+      <c r="O3" s="5">
+        <v>309.25</v>
+      </c>
+      <c r="P3" s="5">
+        <f>N3*O3</f>
+        <v>618.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>109</v>
       </c>
@@ -7585,8 +7634,21 @@
       <c r="K4" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M4" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="N4" s="5">
+        <v>2</v>
+      </c>
+      <c r="O4" s="5">
+        <v>302.7</v>
+      </c>
+      <c r="P4" s="5">
+        <f t="shared" ref="P4:P10" si="3">N4*O4</f>
+        <v>605.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>111</v>
       </c>
@@ -7620,8 +7682,21 @@
       <c r="K5" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M5" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="5">
+        <v>2</v>
+      </c>
+      <c r="O5" s="5">
+        <v>287</v>
+      </c>
+      <c r="P5" s="5">
+        <f t="shared" si="3"/>
+        <v>574</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>112</v>
       </c>
@@ -7642,8 +7717,21 @@
         <v>0</v>
       </c>
       <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M6" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="N6" s="5">
+        <v>1</v>
+      </c>
+      <c r="O6" s="5">
+        <v>1600</v>
+      </c>
+      <c r="P6" s="5">
+        <f t="shared" si="3"/>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>120</v>
       </c>
@@ -7666,8 +7754,21 @@
         <v>0</v>
       </c>
       <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M7" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="N7" s="5">
+        <v>2</v>
+      </c>
+      <c r="O7" s="5">
+        <v>250</v>
+      </c>
+      <c r="P7" s="5">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15" customHeight="1">
       <c r="A8" s="31" t="s">
         <v>134</v>
       </c>
@@ -7678,7 +7779,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="5">
-        <f t="shared" ref="D8:D17" si="3">B8*C8</f>
+        <f t="shared" ref="D8:D17" si="4">B8*C8</f>
         <v>1524</v>
       </c>
       <c r="E8" s="5"/>
@@ -7688,8 +7789,21 @@
         <v>0</v>
       </c>
       <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M8" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="N8" s="5">
+        <v>50</v>
+      </c>
+      <c r="O8" s="5">
+        <v>19</v>
+      </c>
+      <c r="P8" s="5">
+        <f t="shared" si="3"/>
+        <v>950</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>137</v>
       </c>
@@ -7710,8 +7824,21 @@
         <v>0</v>
       </c>
       <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M9" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="N9" s="5">
+        <v>2</v>
+      </c>
+      <c r="O9" s="5">
+        <v>63</v>
+      </c>
+      <c r="P9" s="5">
+        <f t="shared" si="3"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>139</v>
       </c>
@@ -7722,7 +7849,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>90.2</v>
       </c>
       <c r="E10" s="5"/>
@@ -7732,8 +7859,21 @@
         <v>0</v>
       </c>
       <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M10" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="N10" s="29">
+        <v>2</v>
+      </c>
+      <c r="O10" s="29">
+        <v>60</v>
+      </c>
+      <c r="P10" s="29">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>140</v>
       </c>
@@ -7744,7 +7884,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>410.1</v>
       </c>
       <c r="E11" s="5">
@@ -7758,11 +7898,26 @@
         <v>418</v>
       </c>
       <c r="H11" s="5">
-        <f t="shared" ref="H11:H12" si="4">G11-D11</f>
+        <f t="shared" ref="H11:H12" si="5">G11-D11</f>
         <v>7.8999999999999773</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M11" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="5">
+        <f>SUM(N3:N10)</f>
+        <v>63</v>
+      </c>
+      <c r="O11" s="5">
+        <f>SUM(O3:O10)</f>
+        <v>2890.95</v>
+      </c>
+      <c r="P11" s="5">
+        <f>SUM(P3:P10)</f>
+        <v>5093.8999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>142</v>
       </c>
@@ -7773,7 +7928,7 @@
         <v>35</v>
       </c>
       <c r="D12" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4235</v>
       </c>
       <c r="E12" s="5">
@@ -7787,11 +7942,11 @@
         <v>4352.6000000000004</v>
       </c>
       <c r="H12" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>117.60000000000036</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="15" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>108</v>
       </c>
@@ -7802,7 +7957,7 @@
         <v>70</v>
       </c>
       <c r="D13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14017.5</v>
       </c>
       <c r="E13" s="5"/>
@@ -7813,7 +7968,7 @@
       </c>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="15" customHeight="1">
       <c r="A14" s="5" t="s">
         <v>148</v>
       </c>
@@ -7824,7 +7979,7 @@
         <v>170</v>
       </c>
       <c r="D14" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5822.5</v>
       </c>
       <c r="E14" s="5"/>
@@ -7835,12 +7990,12 @@
       </c>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="15" customHeight="1">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E15" s="5"/>
@@ -7851,12 +8006,12 @@
       </c>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="15" customHeight="1">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E16" s="5"/>
@@ -7867,12 +8022,12 @@
       </c>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15" customHeight="1">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E17" s="5"/>
@@ -7883,7 +8038,7 @@
       </c>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15" customHeight="1">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -7896,7 +8051,7 @@
       </c>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15" customHeight="1">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -7906,7 +8061,7 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15" customHeight="1">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -7916,7 +8071,7 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15" customHeight="1">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -7926,7 +8081,7 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15" customHeight="1">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -7936,7 +8091,7 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15" customHeight="1">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -7946,7 +8101,7 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15" customHeight="1">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -7956,7 +8111,7 @@
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15" customHeight="1">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -7973,14 +8128,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -7988,7 +8143,7 @@
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
         <v>113</v>
       </c>
@@ -8002,7 +8157,7 @@
         <v>41.5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
         <v>114</v>
       </c>
@@ -8016,7 +8171,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
         <v>115</v>
       </c>
@@ -8032,7 +8187,7 @@
         <v>0.20750000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
         <v>116</v>
       </c>
@@ -8046,7 +8201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
         <v>117</v>
       </c>
@@ -8062,7 +8217,7 @@
         <v>0.20750000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
         <v>118</v>
       </c>
@@ -8078,7 +8233,7 @@
         <v>41.292499999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
         <v>122</v>
       </c>
@@ -8094,7 +8249,7 @@
         <v>41.29</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
         <v>119</v>
       </c>
@@ -8108,7 +8263,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
         <v>121</v>
       </c>
@@ -8124,7 +8279,7 @@
         <v>3.7350000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
         <v>123</v>
       </c>
@@ -8138,7 +8293,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
         <v>124</v>
       </c>
@@ -8154,7 +8309,7 @@
         <v>4.129E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
         <v>125</v>
       </c>
@@ -8168,7 +8323,7 @@
         <v>3.2499999999999997E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="5" t="s">
         <v>126</v>
       </c>
@@ -8184,7 +8339,7 @@
         <v>1.3419249999999999E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="31" t="s">
         <v>127</v>
       </c>
@@ -8198,7 +8353,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="31" t="s">
         <v>128</v>
       </c>
@@ -8214,7 +8369,7 @@
         <v>8.2579999999999997E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="31" t="s">
         <v>132</v>
       </c>
@@ -8230,7 +8385,7 @@
         <v>8.8239924999999997E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="31" t="s">
         <v>129</v>
       </c>
@@ -8253,29 +8408,106 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="E1" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1" s="5">
+        <v>1475389</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="5" t="s">
         <v>145</v>
+      </c>
+      <c r="B2" s="5">
+        <v>7600</v>
+      </c>
+      <c r="C2" s="37">
+        <v>42941</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="F2" s="5">
+        <f>SUM(B2:B200)</f>
+        <v>205600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="5">
+        <v>50000</v>
+      </c>
+      <c r="C3" s="37">
+        <v>42948</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="5">
+        <f>F1-F2</f>
+        <v>1269789</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="5">
+        <v>23000</v>
+      </c>
+      <c r="C4" s="37">
+        <v>42948</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="5">
+        <v>25000</v>
+      </c>
+      <c r="C5" s="37">
+        <v>42948</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" s="5">
+        <v>100000</v>
+      </c>
+      <c r="C6" s="37">
+        <v>42941</v>
       </c>
     </row>
   </sheetData>

--- a/documents/Home.xlsx
+++ b/documents/Home.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="13965" windowHeight="5625" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="13965" windowHeight="5625" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PaidTillDate" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
     <sheet name="Actual Price Calculator" sheetId="8" r:id="rId5"/>
     <sheet name="Spent" sheetId="9" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="164">
   <si>
     <t>Date</t>
   </si>
@@ -90,9 +90,6 @@
     <t xml:space="preserve">Sail </t>
   </si>
   <si>
-    <t>sintex</t>
-  </si>
-  <si>
     <t>Milk</t>
   </si>
   <si>
@@ -135,9 +132,6 @@
     <t>SAIL </t>
   </si>
   <si>
-    <t>SINTEX </t>
-  </si>
-  <si>
     <t xml:space="preserve">TATASTEEL </t>
   </si>
   <si>
@@ -450,12 +444,6 @@
     <t>MRPL</t>
   </si>
   <si>
-    <t>25/07/2017</t>
-  </si>
-  <si>
-    <t>26/07/2017</t>
-  </si>
-  <si>
     <t>Cement</t>
   </si>
   <si>
@@ -514,16 +502,25 @@
   </si>
   <si>
     <t>IDFC Bank</t>
+  </si>
+  <si>
+    <t>IDFCBANK</t>
+  </si>
+  <si>
+    <t>SINTEX</t>
+  </si>
+  <si>
+    <t>HDIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -640,7 +637,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -678,7 +675,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -773,6 +769,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -807,6 +804,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -982,14 +980,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
@@ -998,7 +996,7 @@
     <col min="6" max="26" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -1032,7 +1030,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="24">
         <v>42190</v>
       </c>
@@ -1062,7 +1060,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="24">
         <v>42192</v>
       </c>
@@ -1091,7 +1089,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="24">
         <v>42229</v>
       </c>
@@ -1101,7 +1099,7 @@
       <c r="D4" s="27"/>
       <c r="E4" s="27"/>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="24">
         <v>42230</v>
       </c>
@@ -1113,7 +1111,7 @@
       </c>
       <c r="E5" s="27"/>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="24">
         <v>42255</v>
       </c>
@@ -1122,7 +1120,7 @@
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="24">
         <v>42262</v>
       </c>
@@ -1131,7 +1129,7 @@
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="24">
         <v>42282</v>
       </c>
@@ -1140,7 +1138,7 @@
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="24">
         <v>42299</v>
       </c>
@@ -1149,7 +1147,7 @@
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="24">
         <v>42373</v>
       </c>
@@ -1158,7 +1156,7 @@
       </c>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
         <v>42553</v>
       </c>
@@ -1167,7 +1165,7 @@
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
         <v>42640</v>
       </c>
@@ -1176,7 +1174,7 @@
       </c>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
         <v>42768</v>
       </c>
@@ -1185,7 +1183,7 @@
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
         <v>42796</v>
       </c>
@@ -1194,7 +1192,7 @@
       </c>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="25">
         <v>42829</v>
       </c>
@@ -1203,7 +1201,7 @@
       </c>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="26">
         <v>42856</v>
       </c>
@@ -1212,7 +1210,7 @@
       </c>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="26">
         <v>42887</v>
       </c>
@@ -1221,7 +1219,7 @@
       </c>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="26">
         <v>42917</v>
       </c>
@@ -1230,7 +1228,7 @@
       </c>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="26">
         <v>42948</v>
       </c>
@@ -1239,32 +1237,32 @@
       </c>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="26"/>
       <c r="B20" s="23"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="26"/>
       <c r="B21" s="23"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="23"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="26"/>
       <c r="B23" s="23"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="27"/>
       <c r="B24" s="27"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
         <v>5</v>
       </c>
@@ -1297,4877 +1295,4877 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="E45" s="3"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="E48" s="3"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="E53" s="3"/>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="E54" s="3"/>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="E61" s="3"/>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="E62" s="3"/>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="E63" s="3"/>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="E64" s="3"/>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="E65" s="3"/>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="E66" s="3"/>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="E67" s="3"/>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="E68" s="3"/>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="E69" s="3"/>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="E70" s="3"/>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="E71" s="3"/>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="E72" s="3"/>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="E73" s="3"/>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="E74" s="3"/>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="E75" s="3"/>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="E76" s="3"/>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="E77" s="3"/>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="E78" s="3"/>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="E79" s="3"/>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="E80" s="3"/>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="E81" s="3"/>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="E82" s="3"/>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="E83" s="3"/>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="E84" s="3"/>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="E85" s="3"/>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="E86" s="3"/>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="E87" s="3"/>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="E88" s="3"/>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="E89" s="3"/>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="E90" s="3"/>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="E91" s="3"/>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="E92" s="3"/>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="E93" s="3"/>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="E94" s="3"/>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="E95" s="3"/>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="E96" s="3"/>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="E97" s="3"/>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="E98" s="3"/>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="E99" s="3"/>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="E100" s="3"/>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="E101" s="3"/>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="E102" s="3"/>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="E103" s="3"/>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="E104" s="3"/>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="E105" s="3"/>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="E106" s="3"/>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="E107" s="3"/>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="E108" s="3"/>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="E109" s="3"/>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="E110" s="3"/>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="E111" s="3"/>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="E112" s="3"/>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="E113" s="3"/>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="E114" s="3"/>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="E115" s="3"/>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="E116" s="3"/>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="E117" s="3"/>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="E118" s="3"/>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="E119" s="3"/>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="E120" s="3"/>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="E121" s="3"/>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="E122" s="3"/>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="E123" s="3"/>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="E124" s="3"/>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="E125" s="3"/>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="E126" s="3"/>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="E127" s="3"/>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="E128" s="3"/>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="E129" s="3"/>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="E130" s="3"/>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="E131" s="3"/>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="E132" s="3"/>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="E133" s="3"/>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="E134" s="3"/>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="E135" s="3"/>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="E136" s="3"/>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="E137" s="3"/>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="E138" s="3"/>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="E139" s="3"/>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="E140" s="3"/>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="E141" s="3"/>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="E142" s="3"/>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="E143" s="3"/>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="E144" s="3"/>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="E145" s="3"/>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="E146" s="3"/>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="E147" s="3"/>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="E148" s="3"/>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="E149" s="3"/>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="E150" s="3"/>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="E151" s="3"/>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="E152" s="3"/>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="E153" s="3"/>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="E154" s="3"/>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="E155" s="3"/>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="E156" s="3"/>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="E157" s="3"/>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="E158" s="3"/>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="E159" s="3"/>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="E160" s="3"/>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="E161" s="3"/>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="E162" s="3"/>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="E163" s="3"/>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="E164" s="3"/>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="E165" s="3"/>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="E166" s="3"/>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="E167" s="3"/>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="E168" s="3"/>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="E169" s="3"/>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="E170" s="3"/>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="E171" s="3"/>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="E172" s="3"/>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="E173" s="3"/>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="E174" s="3"/>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="E175" s="3"/>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="E176" s="3"/>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="E177" s="3"/>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="E178" s="3"/>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="E179" s="3"/>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="E180" s="3"/>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="E181" s="3"/>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="E182" s="3"/>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="E183" s="3"/>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="E184" s="3"/>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="E185" s="3"/>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="E186" s="3"/>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="E187" s="3"/>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="E188" s="3"/>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="E189" s="3"/>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="E190" s="3"/>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="E191" s="3"/>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="E192" s="3"/>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="E193" s="3"/>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="E194" s="3"/>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="E195" s="3"/>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="E196" s="3"/>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="E197" s="3"/>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="E198" s="3"/>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="E199" s="3"/>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="E200" s="3"/>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="E201" s="3"/>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="E202" s="3"/>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="E203" s="3"/>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="E204" s="3"/>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="E205" s="3"/>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="E206" s="3"/>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="E207" s="3"/>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="E208" s="3"/>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="E209" s="3"/>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="E210" s="3"/>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="E211" s="3"/>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="E212" s="3"/>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="E213" s="3"/>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="E214" s="3"/>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="E215" s="3"/>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="E216" s="3"/>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="E217" s="3"/>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="E218" s="3"/>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="E219" s="3"/>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="E220" s="3"/>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="3"/>
       <c r="B221" s="3"/>
       <c r="E221" s="3"/>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="3"/>
       <c r="B222" s="3"/>
       <c r="E222" s="3"/>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="3"/>
       <c r="B223" s="3"/>
       <c r="E223" s="3"/>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="3"/>
       <c r="B224" s="3"/>
       <c r="E224" s="3"/>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
       <c r="E225" s="3"/>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="3"/>
       <c r="B226" s="3"/>
       <c r="E226" s="3"/>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="3"/>
       <c r="B227" s="3"/>
       <c r="E227" s="3"/>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="3"/>
       <c r="B228" s="3"/>
       <c r="E228" s="3"/>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="3"/>
       <c r="B229" s="3"/>
       <c r="E229" s="3"/>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="3"/>
       <c r="B230" s="3"/>
       <c r="E230" s="3"/>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="3"/>
       <c r="B231" s="3"/>
       <c r="E231" s="3"/>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="3"/>
       <c r="B232" s="3"/>
       <c r="E232" s="3"/>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="3"/>
       <c r="B233" s="3"/>
       <c r="E233" s="3"/>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="3"/>
       <c r="B234" s="3"/>
       <c r="E234" s="3"/>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="3"/>
       <c r="B235" s="3"/>
       <c r="E235" s="3"/>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="3"/>
       <c r="B236" s="3"/>
       <c r="E236" s="3"/>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="3"/>
       <c r="B237" s="3"/>
       <c r="E237" s="3"/>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="3"/>
       <c r="B238" s="3"/>
       <c r="E238" s="3"/>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="3"/>
       <c r="B239" s="3"/>
       <c r="E239" s="3"/>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="3"/>
       <c r="B240" s="3"/>
       <c r="E240" s="3"/>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="3"/>
       <c r="B241" s="3"/>
       <c r="E241" s="3"/>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="3"/>
       <c r="B242" s="3"/>
       <c r="E242" s="3"/>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="3"/>
       <c r="B243" s="3"/>
       <c r="E243" s="3"/>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="3"/>
       <c r="B244" s="3"/>
       <c r="E244" s="3"/>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="3"/>
       <c r="B245" s="3"/>
       <c r="E245" s="3"/>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="3"/>
       <c r="B246" s="3"/>
       <c r="E246" s="3"/>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="3"/>
       <c r="B247" s="3"/>
       <c r="E247" s="3"/>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="3"/>
       <c r="B248" s="3"/>
       <c r="E248" s="3"/>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="3"/>
       <c r="B249" s="3"/>
       <c r="E249" s="3"/>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="3"/>
       <c r="B250" s="3"/>
       <c r="E250" s="3"/>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="3"/>
       <c r="B251" s="3"/>
       <c r="E251" s="3"/>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="3"/>
       <c r="B252" s="3"/>
       <c r="E252" s="3"/>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="3"/>
       <c r="B253" s="3"/>
       <c r="E253" s="3"/>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="3"/>
       <c r="B254" s="3"/>
       <c r="E254" s="3"/>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
       <c r="E255" s="3"/>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="3"/>
       <c r="B256" s="3"/>
       <c r="E256" s="3"/>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="3"/>
       <c r="B257" s="3"/>
       <c r="E257" s="3"/>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="3"/>
       <c r="B258" s="3"/>
       <c r="E258" s="3"/>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="3"/>
       <c r="B259" s="3"/>
       <c r="E259" s="3"/>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="3"/>
       <c r="B260" s="3"/>
       <c r="E260" s="3"/>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="3"/>
       <c r="B261" s="3"/>
       <c r="E261" s="3"/>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="3"/>
       <c r="B262" s="3"/>
       <c r="E262" s="3"/>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="3"/>
       <c r="B263" s="3"/>
       <c r="E263" s="3"/>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="3"/>
       <c r="B264" s="3"/>
       <c r="E264" s="3"/>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="3"/>
       <c r="B265" s="3"/>
       <c r="E265" s="3"/>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="3"/>
       <c r="B266" s="3"/>
       <c r="E266" s="3"/>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="3"/>
       <c r="B267" s="3"/>
       <c r="E267" s="3"/>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="3"/>
       <c r="B268" s="3"/>
       <c r="E268" s="3"/>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="3"/>
       <c r="B269" s="3"/>
       <c r="E269" s="3"/>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="3"/>
       <c r="B270" s="3"/>
       <c r="E270" s="3"/>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="3"/>
       <c r="B271" s="3"/>
       <c r="E271" s="3"/>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="3"/>
       <c r="B272" s="3"/>
       <c r="E272" s="3"/>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="3"/>
       <c r="B273" s="3"/>
       <c r="E273" s="3"/>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="3"/>
       <c r="B274" s="3"/>
       <c r="E274" s="3"/>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="3"/>
       <c r="B275" s="3"/>
       <c r="E275" s="3"/>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="3"/>
       <c r="B276" s="3"/>
       <c r="E276" s="3"/>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="3"/>
       <c r="B277" s="3"/>
       <c r="E277" s="3"/>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="3"/>
       <c r="B278" s="3"/>
       <c r="E278" s="3"/>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="3"/>
       <c r="B279" s="3"/>
       <c r="E279" s="3"/>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="3"/>
       <c r="B280" s="3"/>
       <c r="E280" s="3"/>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="3"/>
       <c r="B281" s="3"/>
       <c r="E281" s="3"/>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="3"/>
       <c r="B282" s="3"/>
       <c r="E282" s="3"/>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="3"/>
       <c r="B283" s="3"/>
       <c r="E283" s="3"/>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="3"/>
       <c r="B284" s="3"/>
       <c r="E284" s="3"/>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="3"/>
       <c r="B285" s="3"/>
       <c r="E285" s="3"/>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="3"/>
       <c r="B286" s="3"/>
       <c r="E286" s="3"/>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="3"/>
       <c r="B287" s="3"/>
       <c r="E287" s="3"/>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="3"/>
       <c r="B288" s="3"/>
       <c r="E288" s="3"/>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="3"/>
       <c r="B289" s="3"/>
       <c r="E289" s="3"/>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="3"/>
       <c r="B290" s="3"/>
       <c r="E290" s="3"/>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="3"/>
       <c r="B291" s="3"/>
       <c r="E291" s="3"/>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="3"/>
       <c r="B292" s="3"/>
       <c r="E292" s="3"/>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="3"/>
       <c r="B293" s="3"/>
       <c r="E293" s="3"/>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="3"/>
       <c r="B294" s="3"/>
       <c r="E294" s="3"/>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="3"/>
       <c r="B295" s="3"/>
       <c r="E295" s="3"/>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="3"/>
       <c r="B296" s="3"/>
       <c r="E296" s="3"/>
     </row>
-    <row r="297" spans="1:5">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="3"/>
       <c r="B297" s="3"/>
       <c r="E297" s="3"/>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="3"/>
       <c r="B298" s="3"/>
       <c r="E298" s="3"/>
     </row>
-    <row r="299" spans="1:5">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="3"/>
       <c r="B299" s="3"/>
       <c r="E299" s="3"/>
     </row>
-    <row r="300" spans="1:5">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="3"/>
       <c r="B300" s="3"/>
       <c r="E300" s="3"/>
     </row>
-    <row r="301" spans="1:5">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="3"/>
       <c r="B301" s="3"/>
       <c r="E301" s="3"/>
     </row>
-    <row r="302" spans="1:5">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="3"/>
       <c r="B302" s="3"/>
       <c r="E302" s="3"/>
     </row>
-    <row r="303" spans="1:5">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="3"/>
       <c r="B303" s="3"/>
       <c r="E303" s="3"/>
     </row>
-    <row r="304" spans="1:5">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="3"/>
       <c r="B304" s="3"/>
       <c r="E304" s="3"/>
     </row>
-    <row r="305" spans="1:5">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="3"/>
       <c r="B305" s="3"/>
       <c r="E305" s="3"/>
     </row>
-    <row r="306" spans="1:5">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="3"/>
       <c r="B306" s="3"/>
       <c r="E306" s="3"/>
     </row>
-    <row r="307" spans="1:5">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="3"/>
       <c r="B307" s="3"/>
       <c r="E307" s="3"/>
     </row>
-    <row r="308" spans="1:5">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="3"/>
       <c r="B308" s="3"/>
       <c r="E308" s="3"/>
     </row>
-    <row r="309" spans="1:5">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="3"/>
       <c r="B309" s="3"/>
       <c r="E309" s="3"/>
     </row>
-    <row r="310" spans="1:5">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="3"/>
       <c r="B310" s="3"/>
       <c r="E310" s="3"/>
     </row>
-    <row r="311" spans="1:5">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="3"/>
       <c r="B311" s="3"/>
       <c r="E311" s="3"/>
     </row>
-    <row r="312" spans="1:5">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="3"/>
       <c r="B312" s="3"/>
       <c r="E312" s="3"/>
     </row>
-    <row r="313" spans="1:5">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="3"/>
       <c r="B313" s="3"/>
       <c r="E313" s="3"/>
     </row>
-    <row r="314" spans="1:5">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="3"/>
       <c r="B314" s="3"/>
       <c r="E314" s="3"/>
     </row>
-    <row r="315" spans="1:5">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="3"/>
       <c r="B315" s="3"/>
       <c r="E315" s="3"/>
     </row>
-    <row r="316" spans="1:5">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="3"/>
       <c r="B316" s="3"/>
       <c r="E316" s="3"/>
     </row>
-    <row r="317" spans="1:5">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="3"/>
       <c r="B317" s="3"/>
       <c r="E317" s="3"/>
     </row>
-    <row r="318" spans="1:5">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="3"/>
       <c r="B318" s="3"/>
       <c r="E318" s="3"/>
     </row>
-    <row r="319" spans="1:5">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="3"/>
       <c r="B319" s="3"/>
       <c r="E319" s="3"/>
     </row>
-    <row r="320" spans="1:5">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="3"/>
       <c r="B320" s="3"/>
       <c r="E320" s="3"/>
     </row>
-    <row r="321" spans="1:5">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="3"/>
       <c r="B321" s="3"/>
       <c r="E321" s="3"/>
     </row>
-    <row r="322" spans="1:5">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="3"/>
       <c r="B322" s="3"/>
       <c r="E322" s="3"/>
     </row>
-    <row r="323" spans="1:5">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="3"/>
       <c r="B323" s="3"/>
       <c r="E323" s="3"/>
     </row>
-    <row r="324" spans="1:5">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="3"/>
       <c r="B324" s="3"/>
       <c r="E324" s="3"/>
     </row>
-    <row r="325" spans="1:5">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="3"/>
       <c r="B325" s="3"/>
       <c r="E325" s="3"/>
     </row>
-    <row r="326" spans="1:5">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="3"/>
       <c r="B326" s="3"/>
       <c r="E326" s="3"/>
     </row>
-    <row r="327" spans="1:5">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="3"/>
       <c r="B327" s="3"/>
       <c r="E327" s="3"/>
     </row>
-    <row r="328" spans="1:5">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="3"/>
       <c r="B328" s="3"/>
       <c r="E328" s="3"/>
     </row>
-    <row r="329" spans="1:5">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="3"/>
       <c r="B329" s="3"/>
       <c r="E329" s="3"/>
     </row>
-    <row r="330" spans="1:5">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="3"/>
       <c r="B330" s="3"/>
       <c r="E330" s="3"/>
     </row>
-    <row r="331" spans="1:5">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="3"/>
       <c r="B331" s="3"/>
       <c r="E331" s="3"/>
     </row>
-    <row r="332" spans="1:5">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="3"/>
       <c r="B332" s="3"/>
       <c r="E332" s="3"/>
     </row>
-    <row r="333" spans="1:5">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="3"/>
       <c r="B333" s="3"/>
       <c r="E333" s="3"/>
     </row>
-    <row r="334" spans="1:5">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="3"/>
       <c r="B334" s="3"/>
       <c r="E334" s="3"/>
     </row>
-    <row r="335" spans="1:5">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="3"/>
       <c r="B335" s="3"/>
       <c r="E335" s="3"/>
     </row>
-    <row r="336" spans="1:5">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="3"/>
       <c r="B336" s="3"/>
       <c r="E336" s="3"/>
     </row>
-    <row r="337" spans="1:5">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="3"/>
       <c r="B337" s="3"/>
       <c r="E337" s="3"/>
     </row>
-    <row r="338" spans="1:5">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="3"/>
       <c r="B338" s="3"/>
       <c r="E338" s="3"/>
     </row>
-    <row r="339" spans="1:5">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="3"/>
       <c r="B339" s="3"/>
       <c r="E339" s="3"/>
     </row>
-    <row r="340" spans="1:5">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="3"/>
       <c r="B340" s="3"/>
       <c r="E340" s="3"/>
     </row>
-    <row r="341" spans="1:5">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="3"/>
       <c r="B341" s="3"/>
       <c r="E341" s="3"/>
     </row>
-    <row r="342" spans="1:5">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="3"/>
       <c r="B342" s="3"/>
       <c r="E342" s="3"/>
     </row>
-    <row r="343" spans="1:5">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="3"/>
       <c r="B343" s="3"/>
       <c r="E343" s="3"/>
     </row>
-    <row r="344" spans="1:5">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="3"/>
       <c r="B344" s="3"/>
       <c r="E344" s="3"/>
     </row>
-    <row r="345" spans="1:5">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="3"/>
       <c r="B345" s="3"/>
       <c r="E345" s="3"/>
     </row>
-    <row r="346" spans="1:5">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="3"/>
       <c r="B346" s="3"/>
       <c r="E346" s="3"/>
     </row>
-    <row r="347" spans="1:5">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="3"/>
       <c r="B347" s="3"/>
       <c r="E347" s="3"/>
     </row>
-    <row r="348" spans="1:5">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="3"/>
       <c r="B348" s="3"/>
       <c r="E348" s="3"/>
     </row>
-    <row r="349" spans="1:5">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="3"/>
       <c r="B349" s="3"/>
       <c r="E349" s="3"/>
     </row>
-    <row r="350" spans="1:5">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="3"/>
       <c r="B350" s="3"/>
       <c r="E350" s="3"/>
     </row>
-    <row r="351" spans="1:5">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="3"/>
       <c r="B351" s="3"/>
       <c r="E351" s="3"/>
     </row>
-    <row r="352" spans="1:5">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="3"/>
       <c r="B352" s="3"/>
       <c r="E352" s="3"/>
     </row>
-    <row r="353" spans="1:5">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="3"/>
       <c r="B353" s="3"/>
       <c r="E353" s="3"/>
     </row>
-    <row r="354" spans="1:5">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="3"/>
       <c r="B354" s="3"/>
       <c r="E354" s="3"/>
     </row>
-    <row r="355" spans="1:5">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="3"/>
       <c r="B355" s="3"/>
       <c r="E355" s="3"/>
     </row>
-    <row r="356" spans="1:5">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="3"/>
       <c r="B356" s="3"/>
       <c r="E356" s="3"/>
     </row>
-    <row r="357" spans="1:5">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="3"/>
       <c r="B357" s="3"/>
       <c r="E357" s="3"/>
     </row>
-    <row r="358" spans="1:5">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="3"/>
       <c r="B358" s="3"/>
       <c r="E358" s="3"/>
     </row>
-    <row r="359" spans="1:5">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="3"/>
       <c r="B359" s="3"/>
       <c r="E359" s="3"/>
     </row>
-    <row r="360" spans="1:5">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="3"/>
       <c r="B360" s="3"/>
       <c r="E360" s="3"/>
     </row>
-    <row r="361" spans="1:5">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="3"/>
       <c r="B361" s="3"/>
       <c r="E361" s="3"/>
     </row>
-    <row r="362" spans="1:5">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="3"/>
       <c r="B362" s="3"/>
       <c r="E362" s="3"/>
     </row>
-    <row r="363" spans="1:5">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="3"/>
       <c r="B363" s="3"/>
       <c r="E363" s="3"/>
     </row>
-    <row r="364" spans="1:5">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="3"/>
       <c r="B364" s="3"/>
       <c r="E364" s="3"/>
     </row>
-    <row r="365" spans="1:5">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="3"/>
       <c r="B365" s="3"/>
       <c r="E365" s="3"/>
     </row>
-    <row r="366" spans="1:5">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="3"/>
       <c r="B366" s="3"/>
       <c r="E366" s="3"/>
     </row>
-    <row r="367" spans="1:5">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="3"/>
       <c r="B367" s="3"/>
       <c r="E367" s="3"/>
     </row>
-    <row r="368" spans="1:5">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="3"/>
       <c r="B368" s="3"/>
       <c r="E368" s="3"/>
     </row>
-    <row r="369" spans="1:5">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="3"/>
       <c r="B369" s="3"/>
       <c r="E369" s="3"/>
     </row>
-    <row r="370" spans="1:5">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="3"/>
       <c r="B370" s="3"/>
       <c r="E370" s="3"/>
     </row>
-    <row r="371" spans="1:5">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="3"/>
       <c r="B371" s="3"/>
       <c r="E371" s="3"/>
     </row>
-    <row r="372" spans="1:5">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="3"/>
       <c r="B372" s="3"/>
       <c r="E372" s="3"/>
     </row>
-    <row r="373" spans="1:5">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="3"/>
       <c r="B373" s="3"/>
       <c r="E373" s="3"/>
     </row>
-    <row r="374" spans="1:5">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="3"/>
       <c r="B374" s="3"/>
       <c r="E374" s="3"/>
     </row>
-    <row r="375" spans="1:5">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="3"/>
       <c r="B375" s="3"/>
       <c r="E375" s="3"/>
     </row>
-    <row r="376" spans="1:5">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="3"/>
       <c r="B376" s="3"/>
       <c r="E376" s="3"/>
     </row>
-    <row r="377" spans="1:5">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="3"/>
       <c r="B377" s="3"/>
       <c r="E377" s="3"/>
     </row>
-    <row r="378" spans="1:5">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="3"/>
       <c r="B378" s="3"/>
       <c r="E378" s="3"/>
     </row>
-    <row r="379" spans="1:5">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="3"/>
       <c r="B379" s="3"/>
       <c r="E379" s="3"/>
     </row>
-    <row r="380" spans="1:5">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="3"/>
       <c r="B380" s="3"/>
       <c r="E380" s="3"/>
     </row>
-    <row r="381" spans="1:5">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="3"/>
       <c r="B381" s="3"/>
       <c r="E381" s="3"/>
     </row>
-    <row r="382" spans="1:5">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="3"/>
       <c r="B382" s="3"/>
       <c r="E382" s="3"/>
     </row>
-    <row r="383" spans="1:5">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="3"/>
       <c r="B383" s="3"/>
       <c r="E383" s="3"/>
     </row>
-    <row r="384" spans="1:5">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="3"/>
       <c r="B384" s="3"/>
       <c r="E384" s="3"/>
     </row>
-    <row r="385" spans="1:5">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="3"/>
       <c r="B385" s="3"/>
       <c r="E385" s="3"/>
     </row>
-    <row r="386" spans="1:5">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="3"/>
       <c r="B386" s="3"/>
       <c r="E386" s="3"/>
     </row>
-    <row r="387" spans="1:5">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" s="3"/>
       <c r="B387" s="3"/>
       <c r="E387" s="3"/>
     </row>
-    <row r="388" spans="1:5">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="3"/>
       <c r="B388" s="3"/>
       <c r="E388" s="3"/>
     </row>
-    <row r="389" spans="1:5">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="3"/>
       <c r="B389" s="3"/>
       <c r="E389" s="3"/>
     </row>
-    <row r="390" spans="1:5">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" s="3"/>
       <c r="B390" s="3"/>
       <c r="E390" s="3"/>
     </row>
-    <row r="391" spans="1:5">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" s="3"/>
       <c r="B391" s="3"/>
       <c r="E391" s="3"/>
     </row>
-    <row r="392" spans="1:5">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" s="3"/>
       <c r="B392" s="3"/>
       <c r="E392" s="3"/>
     </row>
-    <row r="393" spans="1:5">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" s="3"/>
       <c r="B393" s="3"/>
       <c r="E393" s="3"/>
     </row>
-    <row r="394" spans="1:5">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="3"/>
       <c r="B394" s="3"/>
       <c r="E394" s="3"/>
     </row>
-    <row r="395" spans="1:5">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="3"/>
       <c r="B395" s="3"/>
       <c r="E395" s="3"/>
     </row>
-    <row r="396" spans="1:5">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" s="3"/>
       <c r="B396" s="3"/>
       <c r="E396" s="3"/>
     </row>
-    <row r="397" spans="1:5">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" s="3"/>
       <c r="B397" s="3"/>
       <c r="E397" s="3"/>
     </row>
-    <row r="398" spans="1:5">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" s="3"/>
       <c r="B398" s="3"/>
       <c r="E398" s="3"/>
     </row>
-    <row r="399" spans="1:5">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" s="3"/>
       <c r="B399" s="3"/>
       <c r="E399" s="3"/>
     </row>
-    <row r="400" spans="1:5">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="3"/>
       <c r="B400" s="3"/>
       <c r="E400" s="3"/>
     </row>
-    <row r="401" spans="1:5">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" s="3"/>
       <c r="B401" s="3"/>
       <c r="E401" s="3"/>
     </row>
-    <row r="402" spans="1:5">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" s="3"/>
       <c r="B402" s="3"/>
       <c r="E402" s="3"/>
     </row>
-    <row r="403" spans="1:5">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" s="3"/>
       <c r="B403" s="3"/>
       <c r="E403" s="3"/>
     </row>
-    <row r="404" spans="1:5">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" s="3"/>
       <c r="B404" s="3"/>
       <c r="E404" s="3"/>
     </row>
-    <row r="405" spans="1:5">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" s="3"/>
       <c r="B405" s="3"/>
       <c r="E405" s="3"/>
     </row>
-    <row r="406" spans="1:5">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" s="3"/>
       <c r="B406" s="3"/>
       <c r="E406" s="3"/>
     </row>
-    <row r="407" spans="1:5">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" s="3"/>
       <c r="B407" s="3"/>
       <c r="E407" s="3"/>
     </row>
-    <row r="408" spans="1:5">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" s="3"/>
       <c r="B408" s="3"/>
       <c r="E408" s="3"/>
     </row>
-    <row r="409" spans="1:5">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" s="3"/>
       <c r="B409" s="3"/>
       <c r="E409" s="3"/>
     </row>
-    <row r="410" spans="1:5">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" s="3"/>
       <c r="B410" s="3"/>
       <c r="E410" s="3"/>
     </row>
-    <row r="411" spans="1:5">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" s="3"/>
       <c r="B411" s="3"/>
       <c r="E411" s="3"/>
     </row>
-    <row r="412" spans="1:5">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" s="3"/>
       <c r="B412" s="3"/>
       <c r="E412" s="3"/>
     </row>
-    <row r="413" spans="1:5">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" s="3"/>
       <c r="B413" s="3"/>
       <c r="E413" s="3"/>
     </row>
-    <row r="414" spans="1:5">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" s="3"/>
       <c r="B414" s="3"/>
       <c r="E414" s="3"/>
     </row>
-    <row r="415" spans="1:5">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" s="3"/>
       <c r="B415" s="3"/>
       <c r="E415" s="3"/>
     </row>
-    <row r="416" spans="1:5">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" s="3"/>
       <c r="B416" s="3"/>
       <c r="E416" s="3"/>
     </row>
-    <row r="417" spans="1:5">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" s="3"/>
       <c r="B417" s="3"/>
       <c r="E417" s="3"/>
     </row>
-    <row r="418" spans="1:5">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" s="3"/>
       <c r="B418" s="3"/>
       <c r="E418" s="3"/>
     </row>
-    <row r="419" spans="1:5">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" s="3"/>
       <c r="B419" s="3"/>
       <c r="E419" s="3"/>
     </row>
-    <row r="420" spans="1:5">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" s="3"/>
       <c r="B420" s="3"/>
       <c r="E420" s="3"/>
     </row>
-    <row r="421" spans="1:5">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" s="3"/>
       <c r="B421" s="3"/>
       <c r="E421" s="3"/>
     </row>
-    <row r="422" spans="1:5">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" s="3"/>
       <c r="B422" s="3"/>
       <c r="E422" s="3"/>
     </row>
-    <row r="423" spans="1:5">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" s="3"/>
       <c r="B423" s="3"/>
       <c r="E423" s="3"/>
     </row>
-    <row r="424" spans="1:5">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" s="3"/>
       <c r="B424" s="3"/>
       <c r="E424" s="3"/>
     </row>
-    <row r="425" spans="1:5">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" s="3"/>
       <c r="B425" s="3"/>
       <c r="E425" s="3"/>
     </row>
-    <row r="426" spans="1:5">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" s="3"/>
       <c r="B426" s="3"/>
       <c r="E426" s="3"/>
     </row>
-    <row r="427" spans="1:5">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" s="3"/>
       <c r="B427" s="3"/>
       <c r="E427" s="3"/>
     </row>
-    <row r="428" spans="1:5">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" s="3"/>
       <c r="B428" s="3"/>
       <c r="E428" s="3"/>
     </row>
-    <row r="429" spans="1:5">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" s="3"/>
       <c r="B429" s="3"/>
       <c r="E429" s="3"/>
     </row>
-    <row r="430" spans="1:5">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" s="3"/>
       <c r="B430" s="3"/>
       <c r="E430" s="3"/>
     </row>
-    <row r="431" spans="1:5">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" s="3"/>
       <c r="B431" s="3"/>
       <c r="E431" s="3"/>
     </row>
-    <row r="432" spans="1:5">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" s="3"/>
       <c r="B432" s="3"/>
       <c r="E432" s="3"/>
     </row>
-    <row r="433" spans="1:5">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" s="3"/>
       <c r="B433" s="3"/>
       <c r="E433" s="3"/>
     </row>
-    <row r="434" spans="1:5">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" s="3"/>
       <c r="B434" s="3"/>
       <c r="E434" s="3"/>
     </row>
-    <row r="435" spans="1:5">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" s="3"/>
       <c r="B435" s="3"/>
       <c r="E435" s="3"/>
     </row>
-    <row r="436" spans="1:5">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" s="3"/>
       <c r="B436" s="3"/>
       <c r="E436" s="3"/>
     </row>
-    <row r="437" spans="1:5">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" s="3"/>
       <c r="B437" s="3"/>
       <c r="E437" s="3"/>
     </row>
-    <row r="438" spans="1:5">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" s="3"/>
       <c r="B438" s="3"/>
       <c r="E438" s="3"/>
     </row>
-    <row r="439" spans="1:5">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" s="3"/>
       <c r="B439" s="3"/>
       <c r="E439" s="3"/>
     </row>
-    <row r="440" spans="1:5">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" s="3"/>
       <c r="B440" s="3"/>
       <c r="E440" s="3"/>
     </row>
-    <row r="441" spans="1:5">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" s="3"/>
       <c r="B441" s="3"/>
       <c r="E441" s="3"/>
     </row>
-    <row r="442" spans="1:5">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" s="3"/>
       <c r="B442" s="3"/>
       <c r="E442" s="3"/>
     </row>
-    <row r="443" spans="1:5">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" s="3"/>
       <c r="B443" s="3"/>
       <c r="E443" s="3"/>
     </row>
-    <row r="444" spans="1:5">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" s="3"/>
       <c r="B444" s="3"/>
       <c r="E444" s="3"/>
     </row>
-    <row r="445" spans="1:5">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" s="3"/>
       <c r="B445" s="3"/>
       <c r="E445" s="3"/>
     </row>
-    <row r="446" spans="1:5">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" s="3"/>
       <c r="B446" s="3"/>
       <c r="E446" s="3"/>
     </row>
-    <row r="447" spans="1:5">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" s="3"/>
       <c r="B447" s="3"/>
       <c r="E447" s="3"/>
     </row>
-    <row r="448" spans="1:5">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" s="3"/>
       <c r="B448" s="3"/>
       <c r="E448" s="3"/>
     </row>
-    <row r="449" spans="1:5">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" s="3"/>
       <c r="B449" s="3"/>
       <c r="E449" s="3"/>
     </row>
-    <row r="450" spans="1:5">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" s="3"/>
       <c r="B450" s="3"/>
       <c r="E450" s="3"/>
     </row>
-    <row r="451" spans="1:5">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" s="3"/>
       <c r="B451" s="3"/>
       <c r="E451" s="3"/>
     </row>
-    <row r="452" spans="1:5">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" s="3"/>
       <c r="B452" s="3"/>
       <c r="E452" s="3"/>
     </row>
-    <row r="453" spans="1:5">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" s="3"/>
       <c r="B453" s="3"/>
       <c r="E453" s="3"/>
     </row>
-    <row r="454" spans="1:5">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454" s="3"/>
       <c r="B454" s="3"/>
       <c r="E454" s="3"/>
     </row>
-    <row r="455" spans="1:5">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455" s="3"/>
       <c r="B455" s="3"/>
       <c r="E455" s="3"/>
     </row>
-    <row r="456" spans="1:5">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456" s="3"/>
       <c r="B456" s="3"/>
       <c r="E456" s="3"/>
     </row>
-    <row r="457" spans="1:5">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457" s="3"/>
       <c r="B457" s="3"/>
       <c r="E457" s="3"/>
     </row>
-    <row r="458" spans="1:5">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458" s="3"/>
       <c r="B458" s="3"/>
       <c r="E458" s="3"/>
     </row>
-    <row r="459" spans="1:5">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459" s="3"/>
       <c r="B459" s="3"/>
       <c r="E459" s="3"/>
     </row>
-    <row r="460" spans="1:5">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460" s="3"/>
       <c r="B460" s="3"/>
       <c r="E460" s="3"/>
     </row>
-    <row r="461" spans="1:5">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461" s="3"/>
       <c r="B461" s="3"/>
       <c r="E461" s="3"/>
     </row>
-    <row r="462" spans="1:5">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462" s="3"/>
       <c r="B462" s="3"/>
       <c r="E462" s="3"/>
     </row>
-    <row r="463" spans="1:5">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463" s="3"/>
       <c r="B463" s="3"/>
       <c r="E463" s="3"/>
     </row>
-    <row r="464" spans="1:5">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464" s="3"/>
       <c r="B464" s="3"/>
       <c r="E464" s="3"/>
     </row>
-    <row r="465" spans="1:5">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465" s="3"/>
       <c r="B465" s="3"/>
       <c r="E465" s="3"/>
     </row>
-    <row r="466" spans="1:5">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466" s="3"/>
       <c r="B466" s="3"/>
       <c r="E466" s="3"/>
     </row>
-    <row r="467" spans="1:5">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467" s="3"/>
       <c r="B467" s="3"/>
       <c r="E467" s="3"/>
     </row>
-    <row r="468" spans="1:5">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468" s="3"/>
       <c r="B468" s="3"/>
       <c r="E468" s="3"/>
     </row>
-    <row r="469" spans="1:5">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469" s="3"/>
       <c r="B469" s="3"/>
       <c r="E469" s="3"/>
     </row>
-    <row r="470" spans="1:5">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470" s="3"/>
       <c r="B470" s="3"/>
       <c r="E470" s="3"/>
     </row>
-    <row r="471" spans="1:5">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471" s="3"/>
       <c r="B471" s="3"/>
       <c r="E471" s="3"/>
     </row>
-    <row r="472" spans="1:5">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472" s="3"/>
       <c r="B472" s="3"/>
       <c r="E472" s="3"/>
     </row>
-    <row r="473" spans="1:5">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473" s="3"/>
       <c r="B473" s="3"/>
       <c r="E473" s="3"/>
     </row>
-    <row r="474" spans="1:5">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474" s="3"/>
       <c r="B474" s="3"/>
       <c r="E474" s="3"/>
     </row>
-    <row r="475" spans="1:5">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475" s="3"/>
       <c r="B475" s="3"/>
       <c r="E475" s="3"/>
     </row>
-    <row r="476" spans="1:5">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476" s="3"/>
       <c r="B476" s="3"/>
       <c r="E476" s="3"/>
     </row>
-    <row r="477" spans="1:5">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477" s="3"/>
       <c r="B477" s="3"/>
       <c r="E477" s="3"/>
     </row>
-    <row r="478" spans="1:5">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478" s="3"/>
       <c r="B478" s="3"/>
       <c r="E478" s="3"/>
     </row>
-    <row r="479" spans="1:5">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479" s="3"/>
       <c r="B479" s="3"/>
       <c r="E479" s="3"/>
     </row>
-    <row r="480" spans="1:5">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480" s="3"/>
       <c r="B480" s="3"/>
       <c r="E480" s="3"/>
     </row>
-    <row r="481" spans="1:5">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481" s="3"/>
       <c r="B481" s="3"/>
       <c r="E481" s="3"/>
     </row>
-    <row r="482" spans="1:5">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482" s="3"/>
       <c r="B482" s="3"/>
       <c r="E482" s="3"/>
     </row>
-    <row r="483" spans="1:5">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483" s="3"/>
       <c r="B483" s="3"/>
       <c r="E483" s="3"/>
     </row>
-    <row r="484" spans="1:5">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484" s="3"/>
       <c r="B484" s="3"/>
       <c r="E484" s="3"/>
     </row>
-    <row r="485" spans="1:5">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485" s="3"/>
       <c r="B485" s="3"/>
       <c r="E485" s="3"/>
     </row>
-    <row r="486" spans="1:5">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486" s="3"/>
       <c r="B486" s="3"/>
       <c r="E486" s="3"/>
     </row>
-    <row r="487" spans="1:5">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487" s="3"/>
       <c r="B487" s="3"/>
       <c r="E487" s="3"/>
     </row>
-    <row r="488" spans="1:5">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488" s="3"/>
       <c r="B488" s="3"/>
       <c r="E488" s="3"/>
     </row>
-    <row r="489" spans="1:5">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489" s="3"/>
       <c r="B489" s="3"/>
       <c r="E489" s="3"/>
     </row>
-    <row r="490" spans="1:5">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490" s="3"/>
       <c r="B490" s="3"/>
       <c r="E490" s="3"/>
     </row>
-    <row r="491" spans="1:5">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491" s="3"/>
       <c r="B491" s="3"/>
       <c r="E491" s="3"/>
     </row>
-    <row r="492" spans="1:5">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492" s="3"/>
       <c r="B492" s="3"/>
       <c r="E492" s="3"/>
     </row>
-    <row r="493" spans="1:5">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A493" s="3"/>
       <c r="B493" s="3"/>
       <c r="E493" s="3"/>
     </row>
-    <row r="494" spans="1:5">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494" s="3"/>
       <c r="B494" s="3"/>
       <c r="E494" s="3"/>
     </row>
-    <row r="495" spans="1:5">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495" s="3"/>
       <c r="B495" s="3"/>
       <c r="E495" s="3"/>
     </row>
-    <row r="496" spans="1:5">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496" s="3"/>
       <c r="B496" s="3"/>
       <c r="E496" s="3"/>
     </row>
-    <row r="497" spans="1:5">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497" s="3"/>
       <c r="B497" s="3"/>
       <c r="E497" s="3"/>
     </row>
-    <row r="498" spans="1:5">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498" s="3"/>
       <c r="B498" s="3"/>
       <c r="E498" s="3"/>
     </row>
-    <row r="499" spans="1:5">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499" s="3"/>
       <c r="B499" s="3"/>
       <c r="E499" s="3"/>
     </row>
-    <row r="500" spans="1:5">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500" s="3"/>
       <c r="B500" s="3"/>
       <c r="E500" s="3"/>
     </row>
-    <row r="501" spans="1:5">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501" s="3"/>
       <c r="B501" s="3"/>
       <c r="E501" s="3"/>
     </row>
-    <row r="502" spans="1:5">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A502" s="3"/>
       <c r="B502" s="3"/>
       <c r="E502" s="3"/>
     </row>
-    <row r="503" spans="1:5">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A503" s="3"/>
       <c r="B503" s="3"/>
       <c r="E503" s="3"/>
     </row>
-    <row r="504" spans="1:5">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A504" s="3"/>
       <c r="B504" s="3"/>
       <c r="E504" s="3"/>
     </row>
-    <row r="505" spans="1:5">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A505" s="3"/>
       <c r="B505" s="3"/>
       <c r="E505" s="3"/>
     </row>
-    <row r="506" spans="1:5">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A506" s="3"/>
       <c r="B506" s="3"/>
       <c r="E506" s="3"/>
     </row>
-    <row r="507" spans="1:5">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A507" s="3"/>
       <c r="B507" s="3"/>
       <c r="E507" s="3"/>
     </row>
-    <row r="508" spans="1:5">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A508" s="3"/>
       <c r="B508" s="3"/>
       <c r="E508" s="3"/>
     </row>
-    <row r="509" spans="1:5">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A509" s="3"/>
       <c r="B509" s="3"/>
       <c r="E509" s="3"/>
     </row>
-    <row r="510" spans="1:5">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A510" s="3"/>
       <c r="B510" s="3"/>
       <c r="E510" s="3"/>
     </row>
-    <row r="511" spans="1:5">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A511" s="3"/>
       <c r="B511" s="3"/>
       <c r="E511" s="3"/>
     </row>
-    <row r="512" spans="1:5">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A512" s="3"/>
       <c r="B512" s="3"/>
       <c r="E512" s="3"/>
     </row>
-    <row r="513" spans="1:5">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A513" s="3"/>
       <c r="B513" s="3"/>
       <c r="E513" s="3"/>
     </row>
-    <row r="514" spans="1:5">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A514" s="3"/>
       <c r="B514" s="3"/>
       <c r="E514" s="3"/>
     </row>
-    <row r="515" spans="1:5">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A515" s="3"/>
       <c r="B515" s="3"/>
       <c r="E515" s="3"/>
     </row>
-    <row r="516" spans="1:5">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A516" s="3"/>
       <c r="B516" s="3"/>
       <c r="E516" s="3"/>
     </row>
-    <row r="517" spans="1:5">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A517" s="3"/>
       <c r="B517" s="3"/>
       <c r="E517" s="3"/>
     </row>
-    <row r="518" spans="1:5">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A518" s="3"/>
       <c r="B518" s="3"/>
       <c r="E518" s="3"/>
     </row>
-    <row r="519" spans="1:5">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A519" s="3"/>
       <c r="B519" s="3"/>
       <c r="E519" s="3"/>
     </row>
-    <row r="520" spans="1:5">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A520" s="3"/>
       <c r="B520" s="3"/>
       <c r="E520" s="3"/>
     </row>
-    <row r="521" spans="1:5">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A521" s="3"/>
       <c r="B521" s="3"/>
       <c r="E521" s="3"/>
     </row>
-    <row r="522" spans="1:5">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A522" s="3"/>
       <c r="B522" s="3"/>
       <c r="E522" s="3"/>
     </row>
-    <row r="523" spans="1:5">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A523" s="3"/>
       <c r="B523" s="3"/>
       <c r="E523" s="3"/>
     </row>
-    <row r="524" spans="1:5">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A524" s="3"/>
       <c r="B524" s="3"/>
       <c r="E524" s="3"/>
     </row>
-    <row r="525" spans="1:5">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A525" s="3"/>
       <c r="B525" s="3"/>
       <c r="E525" s="3"/>
     </row>
-    <row r="526" spans="1:5">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A526" s="3"/>
       <c r="B526" s="3"/>
       <c r="E526" s="3"/>
     </row>
-    <row r="527" spans="1:5">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A527" s="3"/>
       <c r="B527" s="3"/>
       <c r="E527" s="3"/>
     </row>
-    <row r="528" spans="1:5">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A528" s="3"/>
       <c r="B528" s="3"/>
       <c r="E528" s="3"/>
     </row>
-    <row r="529" spans="1:5">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A529" s="3"/>
       <c r="B529" s="3"/>
       <c r="E529" s="3"/>
     </row>
-    <row r="530" spans="1:5">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A530" s="3"/>
       <c r="B530" s="3"/>
       <c r="E530" s="3"/>
     </row>
-    <row r="531" spans="1:5">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A531" s="3"/>
       <c r="B531" s="3"/>
       <c r="E531" s="3"/>
     </row>
-    <row r="532" spans="1:5">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A532" s="3"/>
       <c r="B532" s="3"/>
       <c r="E532" s="3"/>
     </row>
-    <row r="533" spans="1:5">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A533" s="3"/>
       <c r="B533" s="3"/>
       <c r="E533" s="3"/>
     </row>
-    <row r="534" spans="1:5">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A534" s="3"/>
       <c r="B534" s="3"/>
       <c r="E534" s="3"/>
     </row>
-    <row r="535" spans="1:5">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A535" s="3"/>
       <c r="B535" s="3"/>
       <c r="E535" s="3"/>
     </row>
-    <row r="536" spans="1:5">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A536" s="3"/>
       <c r="B536" s="3"/>
       <c r="E536" s="3"/>
     </row>
-    <row r="537" spans="1:5">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A537" s="3"/>
       <c r="B537" s="3"/>
       <c r="E537" s="3"/>
     </row>
-    <row r="538" spans="1:5">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A538" s="3"/>
       <c r="B538" s="3"/>
       <c r="E538" s="3"/>
     </row>
-    <row r="539" spans="1:5">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A539" s="3"/>
       <c r="B539" s="3"/>
       <c r="E539" s="3"/>
     </row>
-    <row r="540" spans="1:5">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A540" s="3"/>
       <c r="B540" s="3"/>
       <c r="E540" s="3"/>
     </row>
-    <row r="541" spans="1:5">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A541" s="3"/>
       <c r="B541" s="3"/>
       <c r="E541" s="3"/>
     </row>
-    <row r="542" spans="1:5">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A542" s="3"/>
       <c r="B542" s="3"/>
       <c r="E542" s="3"/>
     </row>
-    <row r="543" spans="1:5">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A543" s="3"/>
       <c r="B543" s="3"/>
       <c r="E543" s="3"/>
     </row>
-    <row r="544" spans="1:5">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A544" s="3"/>
       <c r="B544" s="3"/>
       <c r="E544" s="3"/>
     </row>
-    <row r="545" spans="1:5">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A545" s="3"/>
       <c r="B545" s="3"/>
       <c r="E545" s="3"/>
     </row>
-    <row r="546" spans="1:5">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A546" s="3"/>
       <c r="B546" s="3"/>
       <c r="E546" s="3"/>
     </row>
-    <row r="547" spans="1:5">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A547" s="3"/>
       <c r="B547" s="3"/>
       <c r="E547" s="3"/>
     </row>
-    <row r="548" spans="1:5">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A548" s="3"/>
       <c r="B548" s="3"/>
       <c r="E548" s="3"/>
     </row>
-    <row r="549" spans="1:5">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A549" s="3"/>
       <c r="B549" s="3"/>
       <c r="E549" s="3"/>
     </row>
-    <row r="550" spans="1:5">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A550" s="3"/>
       <c r="B550" s="3"/>
       <c r="E550" s="3"/>
     </row>
-    <row r="551" spans="1:5">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A551" s="3"/>
       <c r="B551" s="3"/>
       <c r="E551" s="3"/>
     </row>
-    <row r="552" spans="1:5">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A552" s="3"/>
       <c r="B552" s="3"/>
       <c r="E552" s="3"/>
     </row>
-    <row r="553" spans="1:5">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A553" s="3"/>
       <c r="B553" s="3"/>
       <c r="E553" s="3"/>
     </row>
-    <row r="554" spans="1:5">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A554" s="3"/>
       <c r="B554" s="3"/>
       <c r="E554" s="3"/>
     </row>
-    <row r="555" spans="1:5">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A555" s="3"/>
       <c r="B555" s="3"/>
       <c r="E555" s="3"/>
     </row>
-    <row r="556" spans="1:5">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A556" s="3"/>
       <c r="B556" s="3"/>
       <c r="E556" s="3"/>
     </row>
-    <row r="557" spans="1:5">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A557" s="3"/>
       <c r="B557" s="3"/>
       <c r="E557" s="3"/>
     </row>
-    <row r="558" spans="1:5">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A558" s="3"/>
       <c r="B558" s="3"/>
       <c r="E558" s="3"/>
     </row>
-    <row r="559" spans="1:5">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A559" s="3"/>
       <c r="B559" s="3"/>
       <c r="E559" s="3"/>
     </row>
-    <row r="560" spans="1:5">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A560" s="3"/>
       <c r="B560" s="3"/>
       <c r="E560" s="3"/>
     </row>
-    <row r="561" spans="1:5">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A561" s="3"/>
       <c r="B561" s="3"/>
       <c r="E561" s="3"/>
     </row>
-    <row r="562" spans="1:5">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A562" s="3"/>
       <c r="B562" s="3"/>
       <c r="E562" s="3"/>
     </row>
-    <row r="563" spans="1:5">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A563" s="3"/>
       <c r="B563" s="3"/>
       <c r="E563" s="3"/>
     </row>
-    <row r="564" spans="1:5">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A564" s="3"/>
       <c r="B564" s="3"/>
       <c r="E564" s="3"/>
     </row>
-    <row r="565" spans="1:5">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A565" s="3"/>
       <c r="B565" s="3"/>
       <c r="E565" s="3"/>
     </row>
-    <row r="566" spans="1:5">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A566" s="3"/>
       <c r="B566" s="3"/>
       <c r="E566" s="3"/>
     </row>
-    <row r="567" spans="1:5">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A567" s="3"/>
       <c r="B567" s="3"/>
       <c r="E567" s="3"/>
     </row>
-    <row r="568" spans="1:5">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A568" s="3"/>
       <c r="B568" s="3"/>
       <c r="E568" s="3"/>
     </row>
-    <row r="569" spans="1:5">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A569" s="3"/>
       <c r="B569" s="3"/>
       <c r="E569" s="3"/>
     </row>
-    <row r="570" spans="1:5">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A570" s="3"/>
       <c r="B570" s="3"/>
       <c r="E570" s="3"/>
     </row>
-    <row r="571" spans="1:5">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A571" s="3"/>
       <c r="B571" s="3"/>
       <c r="E571" s="3"/>
     </row>
-    <row r="572" spans="1:5">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A572" s="3"/>
       <c r="B572" s="3"/>
       <c r="E572" s="3"/>
     </row>
-    <row r="573" spans="1:5">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A573" s="3"/>
       <c r="B573" s="3"/>
       <c r="E573" s="3"/>
     </row>
-    <row r="574" spans="1:5">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A574" s="3"/>
       <c r="B574" s="3"/>
       <c r="E574" s="3"/>
     </row>
-    <row r="575" spans="1:5">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A575" s="3"/>
       <c r="B575" s="3"/>
       <c r="E575" s="3"/>
     </row>
-    <row r="576" spans="1:5">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A576" s="3"/>
       <c r="B576" s="3"/>
       <c r="E576" s="3"/>
     </row>
-    <row r="577" spans="1:5">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A577" s="3"/>
       <c r="B577" s="3"/>
       <c r="E577" s="3"/>
     </row>
-    <row r="578" spans="1:5">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A578" s="3"/>
       <c r="B578" s="3"/>
       <c r="E578" s="3"/>
     </row>
-    <row r="579" spans="1:5">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A579" s="3"/>
       <c r="B579" s="3"/>
       <c r="E579" s="3"/>
     </row>
-    <row r="580" spans="1:5">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A580" s="3"/>
       <c r="B580" s="3"/>
       <c r="E580" s="3"/>
     </row>
-    <row r="581" spans="1:5">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A581" s="3"/>
       <c r="B581" s="3"/>
       <c r="E581" s="3"/>
     </row>
-    <row r="582" spans="1:5">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A582" s="3"/>
       <c r="B582" s="3"/>
       <c r="E582" s="3"/>
     </row>
-    <row r="583" spans="1:5">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A583" s="3"/>
       <c r="B583" s="3"/>
       <c r="E583" s="3"/>
     </row>
-    <row r="584" spans="1:5">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A584" s="3"/>
       <c r="B584" s="3"/>
       <c r="E584" s="3"/>
     </row>
-    <row r="585" spans="1:5">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A585" s="3"/>
       <c r="B585" s="3"/>
       <c r="E585" s="3"/>
     </row>
-    <row r="586" spans="1:5">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A586" s="3"/>
       <c r="B586" s="3"/>
       <c r="E586" s="3"/>
     </row>
-    <row r="587" spans="1:5">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A587" s="3"/>
       <c r="B587" s="3"/>
       <c r="E587" s="3"/>
     </row>
-    <row r="588" spans="1:5">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A588" s="3"/>
       <c r="B588" s="3"/>
       <c r="E588" s="3"/>
     </row>
-    <row r="589" spans="1:5">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A589" s="3"/>
       <c r="B589" s="3"/>
       <c r="E589" s="3"/>
     </row>
-    <row r="590" spans="1:5">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A590" s="3"/>
       <c r="B590" s="3"/>
       <c r="E590" s="3"/>
     </row>
-    <row r="591" spans="1:5">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A591" s="3"/>
       <c r="B591" s="3"/>
       <c r="E591" s="3"/>
     </row>
-    <row r="592" spans="1:5">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A592" s="3"/>
       <c r="B592" s="3"/>
       <c r="E592" s="3"/>
     </row>
-    <row r="593" spans="1:5">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A593" s="3"/>
       <c r="B593" s="3"/>
       <c r="E593" s="3"/>
     </row>
-    <row r="594" spans="1:5">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A594" s="3"/>
       <c r="B594" s="3"/>
       <c r="E594" s="3"/>
     </row>
-    <row r="595" spans="1:5">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A595" s="3"/>
       <c r="B595" s="3"/>
       <c r="E595" s="3"/>
     </row>
-    <row r="596" spans="1:5">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A596" s="3"/>
       <c r="B596" s="3"/>
       <c r="E596" s="3"/>
     </row>
-    <row r="597" spans="1:5">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A597" s="3"/>
       <c r="B597" s="3"/>
       <c r="E597" s="3"/>
     </row>
-    <row r="598" spans="1:5">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A598" s="3"/>
       <c r="B598" s="3"/>
       <c r="E598" s="3"/>
     </row>
-    <row r="599" spans="1:5">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A599" s="3"/>
       <c r="B599" s="3"/>
       <c r="E599" s="3"/>
     </row>
-    <row r="600" spans="1:5">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A600" s="3"/>
       <c r="B600" s="3"/>
       <c r="E600" s="3"/>
     </row>
-    <row r="601" spans="1:5">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A601" s="3"/>
       <c r="B601" s="3"/>
       <c r="E601" s="3"/>
     </row>
-    <row r="602" spans="1:5">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A602" s="3"/>
       <c r="B602" s="3"/>
       <c r="E602" s="3"/>
     </row>
-    <row r="603" spans="1:5">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A603" s="3"/>
       <c r="B603" s="3"/>
       <c r="E603" s="3"/>
     </row>
-    <row r="604" spans="1:5">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A604" s="3"/>
       <c r="B604" s="3"/>
       <c r="E604" s="3"/>
     </row>
-    <row r="605" spans="1:5">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A605" s="3"/>
       <c r="B605" s="3"/>
       <c r="E605" s="3"/>
     </row>
-    <row r="606" spans="1:5">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A606" s="3"/>
       <c r="B606" s="3"/>
       <c r="E606" s="3"/>
     </row>
-    <row r="607" spans="1:5">
+    <row r="607" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A607" s="3"/>
       <c r="B607" s="3"/>
       <c r="E607" s="3"/>
     </row>
-    <row r="608" spans="1:5">
+    <row r="608" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A608" s="3"/>
       <c r="B608" s="3"/>
       <c r="E608" s="3"/>
     </row>
-    <row r="609" spans="1:5">
+    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A609" s="3"/>
       <c r="B609" s="3"/>
       <c r="E609" s="3"/>
     </row>
-    <row r="610" spans="1:5">
+    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A610" s="3"/>
       <c r="B610" s="3"/>
       <c r="E610" s="3"/>
     </row>
-    <row r="611" spans="1:5">
+    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A611" s="3"/>
       <c r="B611" s="3"/>
       <c r="E611" s="3"/>
     </row>
-    <row r="612" spans="1:5">
+    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A612" s="3"/>
       <c r="B612" s="3"/>
       <c r="E612" s="3"/>
     </row>
-    <row r="613" spans="1:5">
+    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A613" s="3"/>
       <c r="B613" s="3"/>
       <c r="E613" s="3"/>
     </row>
-    <row r="614" spans="1:5">
+    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A614" s="3"/>
       <c r="B614" s="3"/>
       <c r="E614" s="3"/>
     </row>
-    <row r="615" spans="1:5">
+    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A615" s="3"/>
       <c r="B615" s="3"/>
       <c r="E615" s="3"/>
     </row>
-    <row r="616" spans="1:5">
+    <row r="616" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A616" s="3"/>
       <c r="B616" s="3"/>
       <c r="E616" s="3"/>
     </row>
-    <row r="617" spans="1:5">
+    <row r="617" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A617" s="3"/>
       <c r="B617" s="3"/>
       <c r="E617" s="3"/>
     </row>
-    <row r="618" spans="1:5">
+    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A618" s="3"/>
       <c r="B618" s="3"/>
       <c r="E618" s="3"/>
     </row>
-    <row r="619" spans="1:5">
+    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A619" s="3"/>
       <c r="B619" s="3"/>
       <c r="E619" s="3"/>
     </row>
-    <row r="620" spans="1:5">
+    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A620" s="3"/>
       <c r="B620" s="3"/>
       <c r="E620" s="3"/>
     </row>
-    <row r="621" spans="1:5">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A621" s="3"/>
       <c r="B621" s="3"/>
       <c r="E621" s="3"/>
     </row>
-    <row r="622" spans="1:5">
+    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A622" s="3"/>
       <c r="B622" s="3"/>
       <c r="E622" s="3"/>
     </row>
-    <row r="623" spans="1:5">
+    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A623" s="3"/>
       <c r="B623" s="3"/>
       <c r="E623" s="3"/>
     </row>
-    <row r="624" spans="1:5">
+    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A624" s="3"/>
       <c r="B624" s="3"/>
       <c r="E624" s="3"/>
     </row>
-    <row r="625" spans="1:5">
+    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A625" s="3"/>
       <c r="B625" s="3"/>
       <c r="E625" s="3"/>
     </row>
-    <row r="626" spans="1:5">
+    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A626" s="3"/>
       <c r="B626" s="3"/>
       <c r="E626" s="3"/>
     </row>
-    <row r="627" spans="1:5">
+    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A627" s="3"/>
       <c r="B627" s="3"/>
       <c r="E627" s="3"/>
     </row>
-    <row r="628" spans="1:5">
+    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A628" s="3"/>
       <c r="B628" s="3"/>
       <c r="E628" s="3"/>
     </row>
-    <row r="629" spans="1:5">
+    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A629" s="3"/>
       <c r="B629" s="3"/>
       <c r="E629" s="3"/>
     </row>
-    <row r="630" spans="1:5">
+    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A630" s="3"/>
       <c r="B630" s="3"/>
       <c r="E630" s="3"/>
     </row>
-    <row r="631" spans="1:5">
+    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A631" s="3"/>
       <c r="B631" s="3"/>
       <c r="E631" s="3"/>
     </row>
-    <row r="632" spans="1:5">
+    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A632" s="3"/>
       <c r="B632" s="3"/>
       <c r="E632" s="3"/>
     </row>
-    <row r="633" spans="1:5">
+    <row r="633" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A633" s="3"/>
       <c r="B633" s="3"/>
       <c r="E633" s="3"/>
     </row>
-    <row r="634" spans="1:5">
+    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A634" s="3"/>
       <c r="B634" s="3"/>
       <c r="E634" s="3"/>
     </row>
-    <row r="635" spans="1:5">
+    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A635" s="3"/>
       <c r="B635" s="3"/>
       <c r="E635" s="3"/>
     </row>
-    <row r="636" spans="1:5">
+    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A636" s="3"/>
       <c r="B636" s="3"/>
       <c r="E636" s="3"/>
     </row>
-    <row r="637" spans="1:5">
+    <row r="637" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A637" s="3"/>
       <c r="B637" s="3"/>
       <c r="E637" s="3"/>
     </row>
-    <row r="638" spans="1:5">
+    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A638" s="3"/>
       <c r="B638" s="3"/>
       <c r="E638" s="3"/>
     </row>
-    <row r="639" spans="1:5">
+    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A639" s="3"/>
       <c r="B639" s="3"/>
       <c r="E639" s="3"/>
     </row>
-    <row r="640" spans="1:5">
+    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A640" s="3"/>
       <c r="B640" s="3"/>
       <c r="E640" s="3"/>
     </row>
-    <row r="641" spans="1:5">
+    <row r="641" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A641" s="3"/>
       <c r="B641" s="3"/>
       <c r="E641" s="3"/>
     </row>
-    <row r="642" spans="1:5">
+    <row r="642" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A642" s="3"/>
       <c r="B642" s="3"/>
       <c r="E642" s="3"/>
     </row>
-    <row r="643" spans="1:5">
+    <row r="643" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A643" s="3"/>
       <c r="B643" s="3"/>
       <c r="E643" s="3"/>
     </row>
-    <row r="644" spans="1:5">
+    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A644" s="3"/>
       <c r="B644" s="3"/>
       <c r="E644" s="3"/>
     </row>
-    <row r="645" spans="1:5">
+    <row r="645" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A645" s="3"/>
       <c r="B645" s="3"/>
       <c r="E645" s="3"/>
     </row>
-    <row r="646" spans="1:5">
+    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A646" s="3"/>
       <c r="B646" s="3"/>
       <c r="E646" s="3"/>
     </row>
-    <row r="647" spans="1:5">
+    <row r="647" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A647" s="3"/>
       <c r="B647" s="3"/>
       <c r="E647" s="3"/>
     </row>
-    <row r="648" spans="1:5">
+    <row r="648" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A648" s="3"/>
       <c r="B648" s="3"/>
       <c r="E648" s="3"/>
     </row>
-    <row r="649" spans="1:5">
+    <row r="649" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A649" s="3"/>
       <c r="B649" s="3"/>
       <c r="E649" s="3"/>
     </row>
-    <row r="650" spans="1:5">
+    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A650" s="3"/>
       <c r="B650" s="3"/>
       <c r="E650" s="3"/>
     </row>
-    <row r="651" spans="1:5">
+    <row r="651" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A651" s="3"/>
       <c r="B651" s="3"/>
       <c r="E651" s="3"/>
     </row>
-    <row r="652" spans="1:5">
+    <row r="652" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A652" s="3"/>
       <c r="B652" s="3"/>
       <c r="E652" s="3"/>
     </row>
-    <row r="653" spans="1:5">
+    <row r="653" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A653" s="3"/>
       <c r="B653" s="3"/>
       <c r="E653" s="3"/>
     </row>
-    <row r="654" spans="1:5">
+    <row r="654" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A654" s="3"/>
       <c r="B654" s="3"/>
       <c r="E654" s="3"/>
     </row>
-    <row r="655" spans="1:5">
+    <row r="655" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A655" s="3"/>
       <c r="B655" s="3"/>
       <c r="E655" s="3"/>
     </row>
-    <row r="656" spans="1:5">
+    <row r="656" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A656" s="3"/>
       <c r="B656" s="3"/>
       <c r="E656" s="3"/>
     </row>
-    <row r="657" spans="1:5">
+    <row r="657" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A657" s="3"/>
       <c r="B657" s="3"/>
       <c r="E657" s="3"/>
     </row>
-    <row r="658" spans="1:5">
+    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A658" s="3"/>
       <c r="B658" s="3"/>
       <c r="E658" s="3"/>
     </row>
-    <row r="659" spans="1:5">
+    <row r="659" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A659" s="3"/>
       <c r="B659" s="3"/>
       <c r="E659" s="3"/>
     </row>
-    <row r="660" spans="1:5">
+    <row r="660" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A660" s="3"/>
       <c r="B660" s="3"/>
       <c r="E660" s="3"/>
     </row>
-    <row r="661" spans="1:5">
+    <row r="661" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A661" s="3"/>
       <c r="B661" s="3"/>
       <c r="E661" s="3"/>
     </row>
-    <row r="662" spans="1:5">
+    <row r="662" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A662" s="3"/>
       <c r="B662" s="3"/>
       <c r="E662" s="3"/>
     </row>
-    <row r="663" spans="1:5">
+    <row r="663" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A663" s="3"/>
       <c r="B663" s="3"/>
       <c r="E663" s="3"/>
     </row>
-    <row r="664" spans="1:5">
+    <row r="664" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A664" s="3"/>
       <c r="B664" s="3"/>
       <c r="E664" s="3"/>
     </row>
-    <row r="665" spans="1:5">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A665" s="3"/>
       <c r="B665" s="3"/>
       <c r="E665" s="3"/>
     </row>
-    <row r="666" spans="1:5">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A666" s="3"/>
       <c r="B666" s="3"/>
       <c r="E666" s="3"/>
     </row>
-    <row r="667" spans="1:5">
+    <row r="667" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A667" s="3"/>
       <c r="B667" s="3"/>
       <c r="E667" s="3"/>
     </row>
-    <row r="668" spans="1:5">
+    <row r="668" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A668" s="3"/>
       <c r="B668" s="3"/>
       <c r="E668" s="3"/>
     </row>
-    <row r="669" spans="1:5">
+    <row r="669" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A669" s="3"/>
       <c r="B669" s="3"/>
       <c r="E669" s="3"/>
     </row>
-    <row r="670" spans="1:5">
+    <row r="670" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A670" s="3"/>
       <c r="B670" s="3"/>
       <c r="E670" s="3"/>
     </row>
-    <row r="671" spans="1:5">
+    <row r="671" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A671" s="3"/>
       <c r="B671" s="3"/>
       <c r="E671" s="3"/>
     </row>
-    <row r="672" spans="1:5">
+    <row r="672" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A672" s="3"/>
       <c r="B672" s="3"/>
       <c r="E672" s="3"/>
     </row>
-    <row r="673" spans="1:5">
+    <row r="673" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A673" s="3"/>
       <c r="B673" s="3"/>
       <c r="E673" s="3"/>
     </row>
-    <row r="674" spans="1:5">
+    <row r="674" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A674" s="3"/>
       <c r="B674" s="3"/>
       <c r="E674" s="3"/>
     </row>
-    <row r="675" spans="1:5">
+    <row r="675" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A675" s="3"/>
       <c r="B675" s="3"/>
       <c r="E675" s="3"/>
     </row>
-    <row r="676" spans="1:5">
+    <row r="676" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A676" s="3"/>
       <c r="B676" s="3"/>
       <c r="E676" s="3"/>
     </row>
-    <row r="677" spans="1:5">
+    <row r="677" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A677" s="3"/>
       <c r="B677" s="3"/>
       <c r="E677" s="3"/>
     </row>
-    <row r="678" spans="1:5">
+    <row r="678" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A678" s="3"/>
       <c r="B678" s="3"/>
       <c r="E678" s="3"/>
     </row>
-    <row r="679" spans="1:5">
+    <row r="679" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A679" s="3"/>
       <c r="B679" s="3"/>
       <c r="E679" s="3"/>
     </row>
-    <row r="680" spans="1:5">
+    <row r="680" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A680" s="3"/>
       <c r="B680" s="3"/>
       <c r="E680" s="3"/>
     </row>
-    <row r="681" spans="1:5">
+    <row r="681" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A681" s="3"/>
       <c r="B681" s="3"/>
       <c r="E681" s="3"/>
     </row>
-    <row r="682" spans="1:5">
+    <row r="682" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A682" s="3"/>
       <c r="B682" s="3"/>
       <c r="E682" s="3"/>
     </row>
-    <row r="683" spans="1:5">
+    <row r="683" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A683" s="3"/>
       <c r="B683" s="3"/>
       <c r="E683" s="3"/>
     </row>
-    <row r="684" spans="1:5">
+    <row r="684" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A684" s="3"/>
       <c r="B684" s="3"/>
       <c r="E684" s="3"/>
     </row>
-    <row r="685" spans="1:5">
+    <row r="685" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A685" s="3"/>
       <c r="B685" s="3"/>
       <c r="E685" s="3"/>
     </row>
-    <row r="686" spans="1:5">
+    <row r="686" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A686" s="3"/>
       <c r="B686" s="3"/>
       <c r="E686" s="3"/>
     </row>
-    <row r="687" spans="1:5">
+    <row r="687" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A687" s="3"/>
       <c r="B687" s="3"/>
       <c r="E687" s="3"/>
     </row>
-    <row r="688" spans="1:5">
+    <row r="688" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A688" s="3"/>
       <c r="B688" s="3"/>
       <c r="E688" s="3"/>
     </row>
-    <row r="689" spans="1:5">
+    <row r="689" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A689" s="3"/>
       <c r="B689" s="3"/>
       <c r="E689" s="3"/>
     </row>
-    <row r="690" spans="1:5">
+    <row r="690" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A690" s="3"/>
       <c r="B690" s="3"/>
       <c r="E690" s="3"/>
     </row>
-    <row r="691" spans="1:5">
+    <row r="691" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A691" s="3"/>
       <c r="B691" s="3"/>
       <c r="E691" s="3"/>
     </row>
-    <row r="692" spans="1:5">
+    <row r="692" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A692" s="3"/>
       <c r="B692" s="3"/>
       <c r="E692" s="3"/>
     </row>
-    <row r="693" spans="1:5">
+    <row r="693" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A693" s="3"/>
       <c r="B693" s="3"/>
       <c r="E693" s="3"/>
     </row>
-    <row r="694" spans="1:5">
+    <row r="694" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A694" s="3"/>
       <c r="B694" s="3"/>
       <c r="E694" s="3"/>
     </row>
-    <row r="695" spans="1:5">
+    <row r="695" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A695" s="3"/>
       <c r="B695" s="3"/>
       <c r="E695" s="3"/>
     </row>
-    <row r="696" spans="1:5">
+    <row r="696" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A696" s="3"/>
       <c r="B696" s="3"/>
       <c r="E696" s="3"/>
     </row>
-    <row r="697" spans="1:5">
+    <row r="697" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A697" s="3"/>
       <c r="B697" s="3"/>
       <c r="E697" s="3"/>
     </row>
-    <row r="698" spans="1:5">
+    <row r="698" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A698" s="3"/>
       <c r="B698" s="3"/>
       <c r="E698" s="3"/>
     </row>
-    <row r="699" spans="1:5">
+    <row r="699" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A699" s="3"/>
       <c r="B699" s="3"/>
       <c r="E699" s="3"/>
     </row>
-    <row r="700" spans="1:5">
+    <row r="700" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A700" s="3"/>
       <c r="B700" s="3"/>
       <c r="E700" s="3"/>
     </row>
-    <row r="701" spans="1:5">
+    <row r="701" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A701" s="3"/>
       <c r="B701" s="3"/>
       <c r="E701" s="3"/>
     </row>
-    <row r="702" spans="1:5">
+    <row r="702" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A702" s="3"/>
       <c r="B702" s="3"/>
       <c r="E702" s="3"/>
     </row>
-    <row r="703" spans="1:5">
+    <row r="703" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A703" s="3"/>
       <c r="B703" s="3"/>
       <c r="E703" s="3"/>
     </row>
-    <row r="704" spans="1:5">
+    <row r="704" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A704" s="3"/>
       <c r="B704" s="3"/>
       <c r="E704" s="3"/>
     </row>
-    <row r="705" spans="1:5">
+    <row r="705" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A705" s="3"/>
       <c r="B705" s="3"/>
       <c r="E705" s="3"/>
     </row>
-    <row r="706" spans="1:5">
+    <row r="706" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A706" s="3"/>
       <c r="B706" s="3"/>
       <c r="E706" s="3"/>
     </row>
-    <row r="707" spans="1:5">
+    <row r="707" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A707" s="3"/>
       <c r="B707" s="3"/>
       <c r="E707" s="3"/>
     </row>
-    <row r="708" spans="1:5">
+    <row r="708" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A708" s="3"/>
       <c r="B708" s="3"/>
       <c r="E708" s="3"/>
     </row>
-    <row r="709" spans="1:5">
+    <row r="709" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A709" s="3"/>
       <c r="B709" s="3"/>
       <c r="E709" s="3"/>
     </row>
-    <row r="710" spans="1:5">
+    <row r="710" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A710" s="3"/>
       <c r="B710" s="3"/>
       <c r="E710" s="3"/>
     </row>
-    <row r="711" spans="1:5">
+    <row r="711" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A711" s="3"/>
       <c r="B711" s="3"/>
       <c r="E711" s="3"/>
     </row>
-    <row r="712" spans="1:5">
+    <row r="712" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A712" s="3"/>
       <c r="B712" s="3"/>
       <c r="E712" s="3"/>
     </row>
-    <row r="713" spans="1:5">
+    <row r="713" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A713" s="3"/>
       <c r="B713" s="3"/>
       <c r="E713" s="3"/>
     </row>
-    <row r="714" spans="1:5">
+    <row r="714" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A714" s="3"/>
       <c r="B714" s="3"/>
       <c r="E714" s="3"/>
     </row>
-    <row r="715" spans="1:5">
+    <row r="715" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A715" s="3"/>
       <c r="B715" s="3"/>
       <c r="E715" s="3"/>
     </row>
-    <row r="716" spans="1:5">
+    <row r="716" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A716" s="3"/>
       <c r="B716" s="3"/>
       <c r="E716" s="3"/>
     </row>
-    <row r="717" spans="1:5">
+    <row r="717" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A717" s="3"/>
       <c r="B717" s="3"/>
       <c r="E717" s="3"/>
     </row>
-    <row r="718" spans="1:5">
+    <row r="718" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A718" s="3"/>
       <c r="B718" s="3"/>
       <c r="E718" s="3"/>
     </row>
-    <row r="719" spans="1:5">
+    <row r="719" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A719" s="3"/>
       <c r="B719" s="3"/>
       <c r="E719" s="3"/>
     </row>
-    <row r="720" spans="1:5">
+    <row r="720" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A720" s="3"/>
       <c r="B720" s="3"/>
       <c r="E720" s="3"/>
     </row>
-    <row r="721" spans="1:5">
+    <row r="721" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A721" s="3"/>
       <c r="B721" s="3"/>
       <c r="E721" s="3"/>
     </row>
-    <row r="722" spans="1:5">
+    <row r="722" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A722" s="3"/>
       <c r="B722" s="3"/>
       <c r="E722" s="3"/>
     </row>
-    <row r="723" spans="1:5">
+    <row r="723" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A723" s="3"/>
       <c r="B723" s="3"/>
       <c r="E723" s="3"/>
     </row>
-    <row r="724" spans="1:5">
+    <row r="724" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A724" s="3"/>
       <c r="B724" s="3"/>
       <c r="E724" s="3"/>
     </row>
-    <row r="725" spans="1:5">
+    <row r="725" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A725" s="3"/>
       <c r="B725" s="3"/>
       <c r="E725" s="3"/>
     </row>
-    <row r="726" spans="1:5">
+    <row r="726" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A726" s="3"/>
       <c r="B726" s="3"/>
       <c r="E726" s="3"/>
     </row>
-    <row r="727" spans="1:5">
+    <row r="727" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A727" s="3"/>
       <c r="B727" s="3"/>
       <c r="E727" s="3"/>
     </row>
-    <row r="728" spans="1:5">
+    <row r="728" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A728" s="3"/>
       <c r="B728" s="3"/>
       <c r="E728" s="3"/>
     </row>
-    <row r="729" spans="1:5">
+    <row r="729" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A729" s="3"/>
       <c r="B729" s="3"/>
       <c r="E729" s="3"/>
     </row>
-    <row r="730" spans="1:5">
+    <row r="730" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A730" s="3"/>
       <c r="B730" s="3"/>
       <c r="E730" s="3"/>
     </row>
-    <row r="731" spans="1:5">
+    <row r="731" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A731" s="3"/>
       <c r="B731" s="3"/>
       <c r="E731" s="3"/>
     </row>
-    <row r="732" spans="1:5">
+    <row r="732" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A732" s="3"/>
       <c r="B732" s="3"/>
       <c r="E732" s="3"/>
     </row>
-    <row r="733" spans="1:5">
+    <row r="733" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A733" s="3"/>
       <c r="B733" s="3"/>
       <c r="E733" s="3"/>
     </row>
-    <row r="734" spans="1:5">
+    <row r="734" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A734" s="3"/>
       <c r="B734" s="3"/>
       <c r="E734" s="3"/>
     </row>
-    <row r="735" spans="1:5">
+    <row r="735" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A735" s="3"/>
       <c r="B735" s="3"/>
       <c r="E735" s="3"/>
     </row>
-    <row r="736" spans="1:5">
+    <row r="736" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A736" s="3"/>
       <c r="B736" s="3"/>
       <c r="E736" s="3"/>
     </row>
-    <row r="737" spans="1:5">
+    <row r="737" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A737" s="3"/>
       <c r="B737" s="3"/>
       <c r="E737" s="3"/>
     </row>
-    <row r="738" spans="1:5">
+    <row r="738" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A738" s="3"/>
       <c r="B738" s="3"/>
       <c r="E738" s="3"/>
     </row>
-    <row r="739" spans="1:5">
+    <row r="739" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A739" s="3"/>
       <c r="B739" s="3"/>
       <c r="E739" s="3"/>
     </row>
-    <row r="740" spans="1:5">
+    <row r="740" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A740" s="3"/>
       <c r="B740" s="3"/>
       <c r="E740" s="3"/>
     </row>
-    <row r="741" spans="1:5">
+    <row r="741" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A741" s="3"/>
       <c r="B741" s="3"/>
       <c r="E741" s="3"/>
     </row>
-    <row r="742" spans="1:5">
+    <row r="742" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A742" s="3"/>
       <c r="B742" s="3"/>
       <c r="E742" s="3"/>
     </row>
-    <row r="743" spans="1:5">
+    <row r="743" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A743" s="3"/>
       <c r="B743" s="3"/>
       <c r="E743" s="3"/>
     </row>
-    <row r="744" spans="1:5">
+    <row r="744" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A744" s="3"/>
       <c r="B744" s="3"/>
       <c r="E744" s="3"/>
     </row>
-    <row r="745" spans="1:5">
+    <row r="745" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A745" s="3"/>
       <c r="B745" s="3"/>
       <c r="E745" s="3"/>
     </row>
-    <row r="746" spans="1:5">
+    <row r="746" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A746" s="3"/>
       <c r="B746" s="3"/>
       <c r="E746" s="3"/>
     </row>
-    <row r="747" spans="1:5">
+    <row r="747" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A747" s="3"/>
       <c r="B747" s="3"/>
       <c r="E747" s="3"/>
     </row>
-    <row r="748" spans="1:5">
+    <row r="748" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A748" s="3"/>
       <c r="B748" s="3"/>
       <c r="E748" s="3"/>
     </row>
-    <row r="749" spans="1:5">
+    <row r="749" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A749" s="3"/>
       <c r="B749" s="3"/>
       <c r="E749" s="3"/>
     </row>
-    <row r="750" spans="1:5">
+    <row r="750" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A750" s="3"/>
       <c r="B750" s="3"/>
       <c r="E750" s="3"/>
     </row>
-    <row r="751" spans="1:5">
+    <row r="751" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A751" s="3"/>
       <c r="B751" s="3"/>
       <c r="E751" s="3"/>
     </row>
-    <row r="752" spans="1:5">
+    <row r="752" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A752" s="3"/>
       <c r="B752" s="3"/>
       <c r="E752" s="3"/>
     </row>
-    <row r="753" spans="1:5">
+    <row r="753" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A753" s="3"/>
       <c r="B753" s="3"/>
       <c r="E753" s="3"/>
     </row>
-    <row r="754" spans="1:5">
+    <row r="754" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A754" s="3"/>
       <c r="B754" s="3"/>
       <c r="E754" s="3"/>
     </row>
-    <row r="755" spans="1:5">
+    <row r="755" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A755" s="3"/>
       <c r="B755" s="3"/>
       <c r="E755" s="3"/>
     </row>
-    <row r="756" spans="1:5">
+    <row r="756" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A756" s="3"/>
       <c r="B756" s="3"/>
       <c r="E756" s="3"/>
     </row>
-    <row r="757" spans="1:5">
+    <row r="757" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A757" s="3"/>
       <c r="B757" s="3"/>
       <c r="E757" s="3"/>
     </row>
-    <row r="758" spans="1:5">
+    <row r="758" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A758" s="3"/>
       <c r="B758" s="3"/>
       <c r="E758" s="3"/>
     </row>
-    <row r="759" spans="1:5">
+    <row r="759" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A759" s="3"/>
       <c r="B759" s="3"/>
       <c r="E759" s="3"/>
     </row>
-    <row r="760" spans="1:5">
+    <row r="760" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A760" s="3"/>
       <c r="B760" s="3"/>
       <c r="E760" s="3"/>
     </row>
-    <row r="761" spans="1:5">
+    <row r="761" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A761" s="3"/>
       <c r="B761" s="3"/>
       <c r="E761" s="3"/>
     </row>
-    <row r="762" spans="1:5">
+    <row r="762" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A762" s="3"/>
       <c r="B762" s="3"/>
       <c r="E762" s="3"/>
     </row>
-    <row r="763" spans="1:5">
+    <row r="763" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A763" s="3"/>
       <c r="B763" s="3"/>
       <c r="E763" s="3"/>
     </row>
-    <row r="764" spans="1:5">
+    <row r="764" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A764" s="3"/>
       <c r="B764" s="3"/>
       <c r="E764" s="3"/>
     </row>
-    <row r="765" spans="1:5">
+    <row r="765" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A765" s="3"/>
       <c r="B765" s="3"/>
       <c r="E765" s="3"/>
     </row>
-    <row r="766" spans="1:5">
+    <row r="766" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A766" s="3"/>
       <c r="B766" s="3"/>
       <c r="E766" s="3"/>
     </row>
-    <row r="767" spans="1:5">
+    <row r="767" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A767" s="3"/>
       <c r="B767" s="3"/>
       <c r="E767" s="3"/>
     </row>
-    <row r="768" spans="1:5">
+    <row r="768" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A768" s="3"/>
       <c r="B768" s="3"/>
       <c r="E768" s="3"/>
     </row>
-    <row r="769" spans="1:5">
+    <row r="769" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A769" s="3"/>
       <c r="B769" s="3"/>
       <c r="E769" s="3"/>
     </row>
-    <row r="770" spans="1:5">
+    <row r="770" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A770" s="3"/>
       <c r="B770" s="3"/>
       <c r="E770" s="3"/>
     </row>
-    <row r="771" spans="1:5">
+    <row r="771" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A771" s="3"/>
       <c r="B771" s="3"/>
       <c r="E771" s="3"/>
     </row>
-    <row r="772" spans="1:5">
+    <row r="772" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A772" s="3"/>
       <c r="B772" s="3"/>
       <c r="E772" s="3"/>
     </row>
-    <row r="773" spans="1:5">
+    <row r="773" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A773" s="3"/>
       <c r="B773" s="3"/>
       <c r="E773" s="3"/>
     </row>
-    <row r="774" spans="1:5">
+    <row r="774" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A774" s="3"/>
       <c r="B774" s="3"/>
       <c r="E774" s="3"/>
     </row>
-    <row r="775" spans="1:5">
+    <row r="775" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A775" s="3"/>
       <c r="B775" s="3"/>
       <c r="E775" s="3"/>
     </row>
-    <row r="776" spans="1:5">
+    <row r="776" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A776" s="3"/>
       <c r="B776" s="3"/>
       <c r="E776" s="3"/>
     </row>
-    <row r="777" spans="1:5">
+    <row r="777" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A777" s="3"/>
       <c r="B777" s="3"/>
       <c r="E777" s="3"/>
     </row>
-    <row r="778" spans="1:5">
+    <row r="778" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A778" s="3"/>
       <c r="B778" s="3"/>
       <c r="E778" s="3"/>
     </row>
-    <row r="779" spans="1:5">
+    <row r="779" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A779" s="3"/>
       <c r="B779" s="3"/>
       <c r="E779" s="3"/>
     </row>
-    <row r="780" spans="1:5">
+    <row r="780" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A780" s="3"/>
       <c r="B780" s="3"/>
       <c r="E780" s="3"/>
     </row>
-    <row r="781" spans="1:5">
+    <row r="781" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A781" s="3"/>
       <c r="B781" s="3"/>
       <c r="E781" s="3"/>
     </row>
-    <row r="782" spans="1:5">
+    <row r="782" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A782" s="3"/>
       <c r="B782" s="3"/>
       <c r="E782" s="3"/>
     </row>
-    <row r="783" spans="1:5">
+    <row r="783" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A783" s="3"/>
       <c r="B783" s="3"/>
       <c r="E783" s="3"/>
     </row>
-    <row r="784" spans="1:5">
+    <row r="784" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A784" s="3"/>
       <c r="B784" s="3"/>
       <c r="E784" s="3"/>
     </row>
-    <row r="785" spans="1:5">
+    <row r="785" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A785" s="3"/>
       <c r="B785" s="3"/>
       <c r="E785" s="3"/>
     </row>
-    <row r="786" spans="1:5">
+    <row r="786" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A786" s="3"/>
       <c r="B786" s="3"/>
       <c r="E786" s="3"/>
     </row>
-    <row r="787" spans="1:5">
+    <row r="787" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A787" s="3"/>
       <c r="B787" s="3"/>
       <c r="E787" s="3"/>
     </row>
-    <row r="788" spans="1:5">
+    <row r="788" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A788" s="3"/>
       <c r="B788" s="3"/>
       <c r="E788" s="3"/>
     </row>
-    <row r="789" spans="1:5">
+    <row r="789" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A789" s="3"/>
       <c r="B789" s="3"/>
       <c r="E789" s="3"/>
     </row>
-    <row r="790" spans="1:5">
+    <row r="790" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A790" s="3"/>
       <c r="B790" s="3"/>
       <c r="E790" s="3"/>
     </row>
-    <row r="791" spans="1:5">
+    <row r="791" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A791" s="3"/>
       <c r="B791" s="3"/>
       <c r="E791" s="3"/>
     </row>
-    <row r="792" spans="1:5">
+    <row r="792" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A792" s="3"/>
       <c r="B792" s="3"/>
       <c r="E792" s="3"/>
     </row>
-    <row r="793" spans="1:5">
+    <row r="793" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A793" s="3"/>
       <c r="B793" s="3"/>
       <c r="E793" s="3"/>
     </row>
-    <row r="794" spans="1:5">
+    <row r="794" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A794" s="3"/>
       <c r="B794" s="3"/>
       <c r="E794" s="3"/>
     </row>
-    <row r="795" spans="1:5">
+    <row r="795" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A795" s="3"/>
       <c r="B795" s="3"/>
       <c r="E795" s="3"/>
     </row>
-    <row r="796" spans="1:5">
+    <row r="796" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A796" s="3"/>
       <c r="B796" s="3"/>
       <c r="E796" s="3"/>
     </row>
-    <row r="797" spans="1:5">
+    <row r="797" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A797" s="3"/>
       <c r="B797" s="3"/>
       <c r="E797" s="3"/>
     </row>
-    <row r="798" spans="1:5">
+    <row r="798" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A798" s="3"/>
       <c r="B798" s="3"/>
       <c r="E798" s="3"/>
     </row>
-    <row r="799" spans="1:5">
+    <row r="799" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A799" s="3"/>
       <c r="B799" s="3"/>
       <c r="E799" s="3"/>
     </row>
-    <row r="800" spans="1:5">
+    <row r="800" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A800" s="3"/>
       <c r="B800" s="3"/>
       <c r="E800" s="3"/>
     </row>
-    <row r="801" spans="1:5">
+    <row r="801" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A801" s="3"/>
       <c r="B801" s="3"/>
       <c r="E801" s="3"/>
     </row>
-    <row r="802" spans="1:5">
+    <row r="802" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A802" s="3"/>
       <c r="B802" s="3"/>
       <c r="E802" s="3"/>
     </row>
-    <row r="803" spans="1:5">
+    <row r="803" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A803" s="3"/>
       <c r="B803" s="3"/>
       <c r="E803" s="3"/>
     </row>
-    <row r="804" spans="1:5">
+    <row r="804" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A804" s="3"/>
       <c r="B804" s="3"/>
       <c r="E804" s="3"/>
     </row>
-    <row r="805" spans="1:5">
+    <row r="805" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A805" s="3"/>
       <c r="B805" s="3"/>
       <c r="E805" s="3"/>
     </row>
-    <row r="806" spans="1:5">
+    <row r="806" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A806" s="3"/>
       <c r="B806" s="3"/>
       <c r="E806" s="3"/>
     </row>
-    <row r="807" spans="1:5">
+    <row r="807" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A807" s="3"/>
       <c r="B807" s="3"/>
       <c r="E807" s="3"/>
     </row>
-    <row r="808" spans="1:5">
+    <row r="808" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A808" s="3"/>
       <c r="B808" s="3"/>
       <c r="E808" s="3"/>
     </row>
-    <row r="809" spans="1:5">
+    <row r="809" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A809" s="3"/>
       <c r="B809" s="3"/>
       <c r="E809" s="3"/>
     </row>
-    <row r="810" spans="1:5">
+    <row r="810" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A810" s="3"/>
       <c r="B810" s="3"/>
       <c r="E810" s="3"/>
     </row>
-    <row r="811" spans="1:5">
+    <row r="811" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A811" s="3"/>
       <c r="B811" s="3"/>
       <c r="E811" s="3"/>
     </row>
-    <row r="812" spans="1:5">
+    <row r="812" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A812" s="3"/>
       <c r="B812" s="3"/>
       <c r="E812" s="3"/>
     </row>
-    <row r="813" spans="1:5">
+    <row r="813" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A813" s="3"/>
       <c r="B813" s="3"/>
       <c r="E813" s="3"/>
     </row>
-    <row r="814" spans="1:5">
+    <row r="814" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A814" s="3"/>
       <c r="B814" s="3"/>
       <c r="E814" s="3"/>
     </row>
-    <row r="815" spans="1:5">
+    <row r="815" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A815" s="3"/>
       <c r="B815" s="3"/>
       <c r="E815" s="3"/>
     </row>
-    <row r="816" spans="1:5">
+    <row r="816" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A816" s="3"/>
       <c r="B816" s="3"/>
       <c r="E816" s="3"/>
     </row>
-    <row r="817" spans="1:5">
+    <row r="817" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A817" s="3"/>
       <c r="B817" s="3"/>
       <c r="E817" s="3"/>
     </row>
-    <row r="818" spans="1:5">
+    <row r="818" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A818" s="3"/>
       <c r="B818" s="3"/>
       <c r="E818" s="3"/>
     </row>
-    <row r="819" spans="1:5">
+    <row r="819" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A819" s="3"/>
       <c r="B819" s="3"/>
       <c r="E819" s="3"/>
     </row>
-    <row r="820" spans="1:5">
+    <row r="820" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A820" s="3"/>
       <c r="B820" s="3"/>
       <c r="E820" s="3"/>
     </row>
-    <row r="821" spans="1:5">
+    <row r="821" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A821" s="3"/>
       <c r="B821" s="3"/>
       <c r="E821" s="3"/>
     </row>
-    <row r="822" spans="1:5">
+    <row r="822" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A822" s="3"/>
       <c r="B822" s="3"/>
       <c r="E822" s="3"/>
     </row>
-    <row r="823" spans="1:5">
+    <row r="823" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A823" s="3"/>
       <c r="B823" s="3"/>
       <c r="E823" s="3"/>
     </row>
-    <row r="824" spans="1:5">
+    <row r="824" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A824" s="3"/>
       <c r="B824" s="3"/>
       <c r="E824" s="3"/>
     </row>
-    <row r="825" spans="1:5">
+    <row r="825" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A825" s="3"/>
       <c r="B825" s="3"/>
       <c r="E825" s="3"/>
     </row>
-    <row r="826" spans="1:5">
+    <row r="826" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A826" s="3"/>
       <c r="B826" s="3"/>
       <c r="E826" s="3"/>
     </row>
-    <row r="827" spans="1:5">
+    <row r="827" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A827" s="3"/>
       <c r="B827" s="3"/>
       <c r="E827" s="3"/>
     </row>
-    <row r="828" spans="1:5">
+    <row r="828" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A828" s="3"/>
       <c r="B828" s="3"/>
       <c r="E828" s="3"/>
     </row>
-    <row r="829" spans="1:5">
+    <row r="829" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A829" s="3"/>
       <c r="B829" s="3"/>
       <c r="E829" s="3"/>
     </row>
-    <row r="830" spans="1:5">
+    <row r="830" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A830" s="3"/>
       <c r="B830" s="3"/>
       <c r="E830" s="3"/>
     </row>
-    <row r="831" spans="1:5">
+    <row r="831" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A831" s="3"/>
       <c r="B831" s="3"/>
       <c r="E831" s="3"/>
     </row>
-    <row r="832" spans="1:5">
+    <row r="832" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A832" s="3"/>
       <c r="B832" s="3"/>
       <c r="E832" s="3"/>
     </row>
-    <row r="833" spans="1:5">
+    <row r="833" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A833" s="3"/>
       <c r="B833" s="3"/>
       <c r="E833" s="3"/>
     </row>
-    <row r="834" spans="1:5">
+    <row r="834" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A834" s="3"/>
       <c r="B834" s="3"/>
       <c r="E834" s="3"/>
     </row>
-    <row r="835" spans="1:5">
+    <row r="835" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A835" s="3"/>
       <c r="B835" s="3"/>
       <c r="E835" s="3"/>
     </row>
-    <row r="836" spans="1:5">
+    <row r="836" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A836" s="3"/>
       <c r="B836" s="3"/>
       <c r="E836" s="3"/>
     </row>
-    <row r="837" spans="1:5">
+    <row r="837" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A837" s="3"/>
       <c r="B837" s="3"/>
       <c r="E837" s="3"/>
     </row>
-    <row r="838" spans="1:5">
+    <row r="838" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A838" s="3"/>
       <c r="B838" s="3"/>
       <c r="E838" s="3"/>
     </row>
-    <row r="839" spans="1:5">
+    <row r="839" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A839" s="3"/>
       <c r="B839" s="3"/>
       <c r="E839" s="3"/>
     </row>
-    <row r="840" spans="1:5">
+    <row r="840" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A840" s="3"/>
       <c r="B840" s="3"/>
       <c r="E840" s="3"/>
     </row>
-    <row r="841" spans="1:5">
+    <row r="841" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A841" s="3"/>
       <c r="B841" s="3"/>
       <c r="E841" s="3"/>
     </row>
-    <row r="842" spans="1:5">
+    <row r="842" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A842" s="3"/>
       <c r="B842" s="3"/>
       <c r="E842" s="3"/>
     </row>
-    <row r="843" spans="1:5">
+    <row r="843" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A843" s="3"/>
       <c r="B843" s="3"/>
       <c r="E843" s="3"/>
     </row>
-    <row r="844" spans="1:5">
+    <row r="844" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A844" s="3"/>
       <c r="B844" s="3"/>
       <c r="E844" s="3"/>
     </row>
-    <row r="845" spans="1:5">
+    <row r="845" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A845" s="3"/>
       <c r="B845" s="3"/>
       <c r="E845" s="3"/>
     </row>
-    <row r="846" spans="1:5">
+    <row r="846" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A846" s="3"/>
       <c r="B846" s="3"/>
       <c r="E846" s="3"/>
     </row>
-    <row r="847" spans="1:5">
+    <row r="847" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A847" s="3"/>
       <c r="B847" s="3"/>
       <c r="E847" s="3"/>
     </row>
-    <row r="848" spans="1:5">
+    <row r="848" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A848" s="3"/>
       <c r="B848" s="3"/>
       <c r="E848" s="3"/>
     </row>
-    <row r="849" spans="1:5">
+    <row r="849" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A849" s="3"/>
       <c r="B849" s="3"/>
       <c r="E849" s="3"/>
     </row>
-    <row r="850" spans="1:5">
+    <row r="850" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A850" s="3"/>
       <c r="B850" s="3"/>
       <c r="E850" s="3"/>
     </row>
-    <row r="851" spans="1:5">
+    <row r="851" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A851" s="3"/>
       <c r="B851" s="3"/>
       <c r="E851" s="3"/>
     </row>
-    <row r="852" spans="1:5">
+    <row r="852" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A852" s="3"/>
       <c r="B852" s="3"/>
       <c r="E852" s="3"/>
     </row>
-    <row r="853" spans="1:5">
+    <row r="853" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A853" s="3"/>
       <c r="B853" s="3"/>
       <c r="E853" s="3"/>
     </row>
-    <row r="854" spans="1:5">
+    <row r="854" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A854" s="3"/>
       <c r="B854" s="3"/>
       <c r="E854" s="3"/>
     </row>
-    <row r="855" spans="1:5">
+    <row r="855" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A855" s="3"/>
       <c r="B855" s="3"/>
       <c r="E855" s="3"/>
     </row>
-    <row r="856" spans="1:5">
+    <row r="856" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A856" s="3"/>
       <c r="B856" s="3"/>
       <c r="E856" s="3"/>
     </row>
-    <row r="857" spans="1:5">
+    <row r="857" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A857" s="3"/>
       <c r="B857" s="3"/>
       <c r="E857" s="3"/>
     </row>
-    <row r="858" spans="1:5">
+    <row r="858" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A858" s="3"/>
       <c r="B858" s="3"/>
       <c r="E858" s="3"/>
     </row>
-    <row r="859" spans="1:5">
+    <row r="859" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A859" s="3"/>
       <c r="B859" s="3"/>
       <c r="E859" s="3"/>
     </row>
-    <row r="860" spans="1:5">
+    <row r="860" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A860" s="3"/>
       <c r="B860" s="3"/>
       <c r="E860" s="3"/>
     </row>
-    <row r="861" spans="1:5">
+    <row r="861" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A861" s="3"/>
       <c r="B861" s="3"/>
       <c r="E861" s="3"/>
     </row>
-    <row r="862" spans="1:5">
+    <row r="862" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A862" s="3"/>
       <c r="B862" s="3"/>
       <c r="E862" s="3"/>
     </row>
-    <row r="863" spans="1:5">
+    <row r="863" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A863" s="3"/>
       <c r="B863" s="3"/>
       <c r="E863" s="3"/>
     </row>
-    <row r="864" spans="1:5">
+    <row r="864" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A864" s="3"/>
       <c r="B864" s="3"/>
       <c r="E864" s="3"/>
     </row>
-    <row r="865" spans="1:5">
+    <row r="865" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A865" s="3"/>
       <c r="B865" s="3"/>
       <c r="E865" s="3"/>
     </row>
-    <row r="866" spans="1:5">
+    <row r="866" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A866" s="3"/>
       <c r="B866" s="3"/>
       <c r="E866" s="3"/>
     </row>
-    <row r="867" spans="1:5">
+    <row r="867" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A867" s="3"/>
       <c r="B867" s="3"/>
       <c r="E867" s="3"/>
     </row>
-    <row r="868" spans="1:5">
+    <row r="868" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A868" s="3"/>
       <c r="B868" s="3"/>
       <c r="E868" s="3"/>
     </row>
-    <row r="869" spans="1:5">
+    <row r="869" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A869" s="3"/>
       <c r="B869" s="3"/>
       <c r="E869" s="3"/>
     </row>
-    <row r="870" spans="1:5">
+    <row r="870" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A870" s="3"/>
       <c r="B870" s="3"/>
       <c r="E870" s="3"/>
     </row>
-    <row r="871" spans="1:5">
+    <row r="871" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A871" s="3"/>
       <c r="B871" s="3"/>
       <c r="E871" s="3"/>
     </row>
-    <row r="872" spans="1:5">
+    <row r="872" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A872" s="3"/>
       <c r="B872" s="3"/>
       <c r="E872" s="3"/>
     </row>
-    <row r="873" spans="1:5">
+    <row r="873" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A873" s="3"/>
       <c r="B873" s="3"/>
       <c r="E873" s="3"/>
     </row>
-    <row r="874" spans="1:5">
+    <row r="874" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A874" s="3"/>
       <c r="B874" s="3"/>
       <c r="E874" s="3"/>
     </row>
-    <row r="875" spans="1:5">
+    <row r="875" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A875" s="3"/>
       <c r="B875" s="3"/>
       <c r="E875" s="3"/>
     </row>
-    <row r="876" spans="1:5">
+    <row r="876" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A876" s="3"/>
       <c r="B876" s="3"/>
       <c r="E876" s="3"/>
     </row>
-    <row r="877" spans="1:5">
+    <row r="877" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A877" s="3"/>
       <c r="B877" s="3"/>
       <c r="E877" s="3"/>
     </row>
-    <row r="878" spans="1:5">
+    <row r="878" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A878" s="3"/>
       <c r="B878" s="3"/>
       <c r="E878" s="3"/>
     </row>
-    <row r="879" spans="1:5">
+    <row r="879" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A879" s="3"/>
       <c r="B879" s="3"/>
       <c r="E879" s="3"/>
     </row>
-    <row r="880" spans="1:5">
+    <row r="880" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A880" s="3"/>
       <c r="B880" s="3"/>
       <c r="E880" s="3"/>
     </row>
-    <row r="881" spans="1:5">
+    <row r="881" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A881" s="3"/>
       <c r="B881" s="3"/>
       <c r="E881" s="3"/>
     </row>
-    <row r="882" spans="1:5">
+    <row r="882" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A882" s="3"/>
       <c r="B882" s="3"/>
       <c r="E882" s="3"/>
     </row>
-    <row r="883" spans="1:5">
+    <row r="883" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A883" s="3"/>
       <c r="B883" s="3"/>
       <c r="E883" s="3"/>
     </row>
-    <row r="884" spans="1:5">
+    <row r="884" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A884" s="3"/>
       <c r="B884" s="3"/>
       <c r="E884" s="3"/>
     </row>
-    <row r="885" spans="1:5">
+    <row r="885" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A885" s="3"/>
       <c r="B885" s="3"/>
       <c r="E885" s="3"/>
     </row>
-    <row r="886" spans="1:5">
+    <row r="886" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A886" s="3"/>
       <c r="B886" s="3"/>
       <c r="E886" s="3"/>
     </row>
-    <row r="887" spans="1:5">
+    <row r="887" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A887" s="3"/>
       <c r="B887" s="3"/>
       <c r="E887" s="3"/>
     </row>
-    <row r="888" spans="1:5">
+    <row r="888" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A888" s="3"/>
       <c r="B888" s="3"/>
       <c r="E888" s="3"/>
     </row>
-    <row r="889" spans="1:5">
+    <row r="889" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A889" s="3"/>
       <c r="B889" s="3"/>
       <c r="E889" s="3"/>
     </row>
-    <row r="890" spans="1:5">
+    <row r="890" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A890" s="3"/>
       <c r="B890" s="3"/>
       <c r="E890" s="3"/>
     </row>
-    <row r="891" spans="1:5">
+    <row r="891" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A891" s="3"/>
       <c r="B891" s="3"/>
       <c r="E891" s="3"/>
     </row>
-    <row r="892" spans="1:5">
+    <row r="892" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A892" s="3"/>
       <c r="B892" s="3"/>
       <c r="E892" s="3"/>
     </row>
-    <row r="893" spans="1:5">
+    <row r="893" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A893" s="3"/>
       <c r="B893" s="3"/>
       <c r="E893" s="3"/>
     </row>
-    <row r="894" spans="1:5">
+    <row r="894" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A894" s="3"/>
       <c r="B894" s="3"/>
       <c r="E894" s="3"/>
     </row>
-    <row r="895" spans="1:5">
+    <row r="895" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A895" s="3"/>
       <c r="B895" s="3"/>
       <c r="E895" s="3"/>
     </row>
-    <row r="896" spans="1:5">
+    <row r="896" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A896" s="3"/>
       <c r="B896" s="3"/>
       <c r="E896" s="3"/>
     </row>
-    <row r="897" spans="1:5">
+    <row r="897" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A897" s="3"/>
       <c r="B897" s="3"/>
       <c r="E897" s="3"/>
     </row>
-    <row r="898" spans="1:5">
+    <row r="898" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A898" s="3"/>
       <c r="B898" s="3"/>
       <c r="E898" s="3"/>
     </row>
-    <row r="899" spans="1:5">
+    <row r="899" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A899" s="3"/>
       <c r="B899" s="3"/>
       <c r="E899" s="3"/>
     </row>
-    <row r="900" spans="1:5">
+    <row r="900" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A900" s="3"/>
       <c r="B900" s="3"/>
       <c r="E900" s="3"/>
     </row>
-    <row r="901" spans="1:5">
+    <row r="901" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A901" s="3"/>
       <c r="B901" s="3"/>
       <c r="E901" s="3"/>
     </row>
-    <row r="902" spans="1:5">
+    <row r="902" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A902" s="3"/>
       <c r="B902" s="3"/>
       <c r="E902" s="3"/>
     </row>
-    <row r="903" spans="1:5">
+    <row r="903" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A903" s="3"/>
       <c r="B903" s="3"/>
       <c r="E903" s="3"/>
     </row>
-    <row r="904" spans="1:5">
+    <row r="904" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A904" s="3"/>
       <c r="B904" s="3"/>
       <c r="E904" s="3"/>
     </row>
-    <row r="905" spans="1:5">
+    <row r="905" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A905" s="3"/>
       <c r="B905" s="3"/>
       <c r="E905" s="3"/>
     </row>
-    <row r="906" spans="1:5">
+    <row r="906" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A906" s="3"/>
       <c r="B906" s="3"/>
       <c r="E906" s="3"/>
     </row>
-    <row r="907" spans="1:5">
+    <row r="907" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A907" s="3"/>
       <c r="B907" s="3"/>
       <c r="E907" s="3"/>
     </row>
-    <row r="908" spans="1:5">
+    <row r="908" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A908" s="3"/>
       <c r="B908" s="3"/>
       <c r="E908" s="3"/>
     </row>
-    <row r="909" spans="1:5">
+    <row r="909" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A909" s="3"/>
       <c r="B909" s="3"/>
       <c r="E909" s="3"/>
     </row>
-    <row r="910" spans="1:5">
+    <row r="910" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A910" s="3"/>
       <c r="B910" s="3"/>
       <c r="E910" s="3"/>
     </row>
-    <row r="911" spans="1:5">
+    <row r="911" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A911" s="3"/>
       <c r="B911" s="3"/>
       <c r="E911" s="3"/>
     </row>
-    <row r="912" spans="1:5">
+    <row r="912" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A912" s="3"/>
       <c r="B912" s="3"/>
       <c r="E912" s="3"/>
     </row>
-    <row r="913" spans="1:5">
+    <row r="913" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A913" s="3"/>
       <c r="B913" s="3"/>
       <c r="E913" s="3"/>
     </row>
-    <row r="914" spans="1:5">
+    <row r="914" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A914" s="3"/>
       <c r="B914" s="3"/>
       <c r="E914" s="3"/>
     </row>
-    <row r="915" spans="1:5">
+    <row r="915" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A915" s="3"/>
       <c r="B915" s="3"/>
       <c r="E915" s="3"/>
     </row>
-    <row r="916" spans="1:5">
+    <row r="916" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A916" s="3"/>
       <c r="B916" s="3"/>
       <c r="E916" s="3"/>
     </row>
-    <row r="917" spans="1:5">
+    <row r="917" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A917" s="3"/>
       <c r="B917" s="3"/>
       <c r="E917" s="3"/>
     </row>
-    <row r="918" spans="1:5">
+    <row r="918" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A918" s="3"/>
       <c r="B918" s="3"/>
       <c r="E918" s="3"/>
     </row>
-    <row r="919" spans="1:5">
+    <row r="919" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A919" s="3"/>
       <c r="B919" s="3"/>
       <c r="E919" s="3"/>
     </row>
-    <row r="920" spans="1:5">
+    <row r="920" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A920" s="3"/>
       <c r="B920" s="3"/>
       <c r="E920" s="3"/>
     </row>
-    <row r="921" spans="1:5">
+    <row r="921" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A921" s="3"/>
       <c r="B921" s="3"/>
       <c r="E921" s="3"/>
     </row>
-    <row r="922" spans="1:5">
+    <row r="922" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A922" s="3"/>
       <c r="B922" s="3"/>
       <c r="E922" s="3"/>
     </row>
-    <row r="923" spans="1:5">
+    <row r="923" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A923" s="3"/>
       <c r="B923" s="3"/>
       <c r="E923" s="3"/>
     </row>
-    <row r="924" spans="1:5">
+    <row r="924" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A924" s="3"/>
       <c r="B924" s="3"/>
       <c r="E924" s="3"/>
     </row>
-    <row r="925" spans="1:5">
+    <row r="925" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A925" s="3"/>
       <c r="B925" s="3"/>
       <c r="E925" s="3"/>
     </row>
-    <row r="926" spans="1:5">
+    <row r="926" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A926" s="3"/>
       <c r="B926" s="3"/>
       <c r="E926" s="3"/>
     </row>
-    <row r="927" spans="1:5">
+    <row r="927" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A927" s="3"/>
       <c r="B927" s="3"/>
       <c r="E927" s="3"/>
     </row>
-    <row r="928" spans="1:5">
+    <row r="928" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A928" s="3"/>
       <c r="B928" s="3"/>
       <c r="E928" s="3"/>
     </row>
-    <row r="929" spans="1:5">
+    <row r="929" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A929" s="3"/>
       <c r="B929" s="3"/>
       <c r="E929" s="3"/>
     </row>
-    <row r="930" spans="1:5">
+    <row r="930" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A930" s="3"/>
       <c r="B930" s="3"/>
       <c r="E930" s="3"/>
     </row>
-    <row r="931" spans="1:5">
+    <row r="931" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A931" s="3"/>
       <c r="B931" s="3"/>
       <c r="E931" s="3"/>
     </row>
-    <row r="932" spans="1:5">
+    <row r="932" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A932" s="3"/>
       <c r="B932" s="3"/>
       <c r="E932" s="3"/>
     </row>
-    <row r="933" spans="1:5">
+    <row r="933" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A933" s="3"/>
       <c r="B933" s="3"/>
       <c r="E933" s="3"/>
     </row>
-    <row r="934" spans="1:5">
+    <row r="934" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A934" s="3"/>
       <c r="B934" s="3"/>
       <c r="E934" s="3"/>
     </row>
-    <row r="935" spans="1:5">
+    <row r="935" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A935" s="3"/>
       <c r="B935" s="3"/>
       <c r="E935" s="3"/>
     </row>
-    <row r="936" spans="1:5">
+    <row r="936" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A936" s="3"/>
       <c r="B936" s="3"/>
       <c r="E936" s="3"/>
     </row>
-    <row r="937" spans="1:5">
+    <row r="937" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A937" s="3"/>
       <c r="B937" s="3"/>
       <c r="E937" s="3"/>
     </row>
-    <row r="938" spans="1:5">
+    <row r="938" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A938" s="3"/>
       <c r="B938" s="3"/>
       <c r="E938" s="3"/>
     </row>
-    <row r="939" spans="1:5">
+    <row r="939" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A939" s="3"/>
       <c r="B939" s="3"/>
       <c r="E939" s="3"/>
     </row>
-    <row r="940" spans="1:5">
+    <row r="940" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A940" s="3"/>
       <c r="B940" s="3"/>
       <c r="E940" s="3"/>
     </row>
-    <row r="941" spans="1:5">
+    <row r="941" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A941" s="3"/>
       <c r="B941" s="3"/>
       <c r="E941" s="3"/>
     </row>
-    <row r="942" spans="1:5">
+    <row r="942" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A942" s="3"/>
       <c r="B942" s="3"/>
       <c r="E942" s="3"/>
     </row>
-    <row r="943" spans="1:5">
+    <row r="943" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A943" s="3"/>
       <c r="B943" s="3"/>
       <c r="E943" s="3"/>
     </row>
-    <row r="944" spans="1:5">
+    <row r="944" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A944" s="3"/>
       <c r="B944" s="3"/>
       <c r="E944" s="3"/>
     </row>
-    <row r="945" spans="1:5">
+    <row r="945" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A945" s="3"/>
       <c r="B945" s="3"/>
       <c r="E945" s="3"/>
     </row>
-    <row r="946" spans="1:5">
+    <row r="946" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A946" s="3"/>
       <c r="B946" s="3"/>
       <c r="E946" s="3"/>
     </row>
-    <row r="947" spans="1:5">
+    <row r="947" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A947" s="3"/>
       <c r="B947" s="3"/>
       <c r="E947" s="3"/>
     </row>
-    <row r="948" spans="1:5">
+    <row r="948" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A948" s="3"/>
       <c r="B948" s="3"/>
       <c r="E948" s="3"/>
     </row>
-    <row r="949" spans="1:5">
+    <row r="949" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A949" s="3"/>
       <c r="B949" s="3"/>
       <c r="E949" s="3"/>
     </row>
-    <row r="950" spans="1:5">
+    <row r="950" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A950" s="3"/>
       <c r="B950" s="3"/>
       <c r="E950" s="3"/>
     </row>
-    <row r="951" spans="1:5">
+    <row r="951" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A951" s="3"/>
       <c r="B951" s="3"/>
       <c r="E951" s="3"/>
     </row>
-    <row r="952" spans="1:5">
+    <row r="952" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A952" s="3"/>
       <c r="B952" s="3"/>
       <c r="E952" s="3"/>
     </row>
-    <row r="953" spans="1:5">
+    <row r="953" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A953" s="3"/>
       <c r="B953" s="3"/>
       <c r="E953" s="3"/>
     </row>
-    <row r="954" spans="1:5">
+    <row r="954" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A954" s="3"/>
       <c r="B954" s="3"/>
       <c r="E954" s="3"/>
     </row>
-    <row r="955" spans="1:5">
+    <row r="955" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A955" s="3"/>
       <c r="B955" s="3"/>
       <c r="E955" s="3"/>
     </row>
-    <row r="956" spans="1:5">
+    <row r="956" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A956" s="3"/>
       <c r="B956" s="3"/>
       <c r="E956" s="3"/>
     </row>
-    <row r="957" spans="1:5">
+    <row r="957" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A957" s="3"/>
       <c r="B957" s="3"/>
       <c r="E957" s="3"/>
     </row>
-    <row r="958" spans="1:5">
+    <row r="958" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A958" s="3"/>
       <c r="B958" s="3"/>
       <c r="E958" s="3"/>
     </row>
-    <row r="959" spans="1:5">
+    <row r="959" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A959" s="3"/>
       <c r="B959" s="3"/>
       <c r="E959" s="3"/>
     </row>
-    <row r="960" spans="1:5">
+    <row r="960" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A960" s="3"/>
       <c r="B960" s="3"/>
       <c r="E960" s="3"/>
     </row>
-    <row r="961" spans="1:5">
+    <row r="961" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A961" s="3"/>
       <c r="B961" s="3"/>
       <c r="E961" s="3"/>
     </row>
-    <row r="962" spans="1:5">
+    <row r="962" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A962" s="3"/>
       <c r="B962" s="3"/>
       <c r="E962" s="3"/>
     </row>
-    <row r="963" spans="1:5">
+    <row r="963" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A963" s="3"/>
       <c r="B963" s="3"/>
       <c r="E963" s="3"/>
     </row>
-    <row r="964" spans="1:5">
+    <row r="964" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A964" s="3"/>
       <c r="B964" s="3"/>
       <c r="E964" s="3"/>
     </row>
-    <row r="965" spans="1:5">
+    <row r="965" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A965" s="3"/>
       <c r="B965" s="3"/>
       <c r="E965" s="3"/>
     </row>
-    <row r="966" spans="1:5">
+    <row r="966" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A966" s="3"/>
       <c r="B966" s="3"/>
       <c r="E966" s="3"/>
     </row>
-    <row r="967" spans="1:5">
+    <row r="967" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A967" s="3"/>
       <c r="B967" s="3"/>
       <c r="E967" s="3"/>
     </row>
-    <row r="968" spans="1:5">
+    <row r="968" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A968" s="3"/>
       <c r="B968" s="3"/>
       <c r="E968" s="3"/>
     </row>
-    <row r="969" spans="1:5">
+    <row r="969" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A969" s="3"/>
       <c r="B969" s="3"/>
       <c r="E969" s="3"/>
     </row>
-    <row r="970" spans="1:5">
+    <row r="970" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A970" s="3"/>
       <c r="B970" s="3"/>
       <c r="E970" s="3"/>
     </row>
-    <row r="971" spans="1:5">
+    <row r="971" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A971" s="3"/>
       <c r="B971" s="3"/>
       <c r="E971" s="3"/>
     </row>
-    <row r="972" spans="1:5">
+    <row r="972" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A972" s="3"/>
       <c r="B972" s="3"/>
       <c r="E972" s="3"/>
     </row>
-    <row r="973" spans="1:5">
+    <row r="973" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A973" s="3"/>
       <c r="B973" s="3"/>
       <c r="E973" s="3"/>
     </row>
-    <row r="974" spans="1:5">
+    <row r="974" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A974" s="3"/>
       <c r="B974" s="3"/>
       <c r="E974" s="3"/>
     </row>
-    <row r="975" spans="1:5">
+    <row r="975" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A975" s="3"/>
       <c r="B975" s="3"/>
       <c r="E975" s="3"/>
     </row>
-    <row r="976" spans="1:5">
+    <row r="976" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A976" s="3"/>
       <c r="B976" s="3"/>
       <c r="E976" s="3"/>
     </row>
-    <row r="977" spans="1:5">
+    <row r="977" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A977" s="3"/>
       <c r="B977" s="3"/>
       <c r="E977" s="3"/>
     </row>
-    <row r="978" spans="1:5">
+    <row r="978" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A978" s="3"/>
       <c r="B978" s="3"/>
       <c r="E978" s="3"/>
     </row>
-    <row r="979" spans="1:5">
+    <row r="979" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A979" s="3"/>
       <c r="B979" s="3"/>
       <c r="E979" s="3"/>
     </row>
-    <row r="980" spans="1:5">
+    <row r="980" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A980" s="3"/>
       <c r="B980" s="3"/>
       <c r="E980" s="3"/>
     </row>
-    <row r="981" spans="1:5">
+    <row r="981" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A981" s="3"/>
       <c r="B981" s="3"/>
       <c r="E981" s="3"/>
     </row>
-    <row r="982" spans="1:5">
+    <row r="982" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A982" s="3"/>
       <c r="B982" s="3"/>
       <c r="E982" s="3"/>
     </row>
-    <row r="983" spans="1:5">
+    <row r="983" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A983" s="3"/>
       <c r="B983" s="3"/>
       <c r="E983" s="3"/>
     </row>
-    <row r="984" spans="1:5">
+    <row r="984" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A984" s="3"/>
       <c r="B984" s="3"/>
       <c r="E984" s="3"/>
     </row>
-    <row r="985" spans="1:5">
+    <row r="985" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A985" s="3"/>
       <c r="B985" s="3"/>
       <c r="E985" s="3"/>
     </row>
-    <row r="986" spans="1:5">
+    <row r="986" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A986" s="3"/>
       <c r="B986" s="3"/>
       <c r="E986" s="3"/>
     </row>
-    <row r="987" spans="1:5">
+    <row r="987" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A987" s="3"/>
       <c r="B987" s="3"/>
       <c r="E987" s="3"/>
     </row>
-    <row r="988" spans="1:5">
+    <row r="988" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A988" s="3"/>
       <c r="B988" s="3"/>
       <c r="E988" s="3"/>
     </row>
-    <row r="989" spans="1:5">
+    <row r="989" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A989" s="3"/>
       <c r="B989" s="3"/>
       <c r="E989" s="3"/>
     </row>
-    <row r="990" spans="1:5">
+    <row r="990" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A990" s="3"/>
       <c r="B990" s="3"/>
       <c r="E990" s="3"/>
     </row>
-    <row r="991" spans="1:5">
+    <row r="991" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A991" s="3"/>
       <c r="B991" s="3"/>
       <c r="E991" s="3"/>
     </row>
-    <row r="992" spans="1:5">
+    <row r="992" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A992" s="3"/>
       <c r="B992" s="3"/>
       <c r="E992" s="3"/>
     </row>
-    <row r="993" spans="1:5">
+    <row r="993" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A993" s="3"/>
       <c r="B993" s="3"/>
       <c r="E993" s="3"/>
     </row>
-    <row r="994" spans="1:5">
+    <row r="994" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A994" s="3"/>
       <c r="B994" s="3"/>
       <c r="E994" s="3"/>
     </row>
-    <row r="995" spans="1:5">
+    <row r="995" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A995" s="3"/>
       <c r="B995" s="3"/>
       <c r="E995" s="3"/>
     </row>
-    <row r="996" spans="1:5">
+    <row r="996" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A996" s="3"/>
       <c r="B996" s="3"/>
       <c r="E996" s="3"/>
     </row>
-    <row r="997" spans="1:5">
+    <row r="997" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A997" s="3"/>
       <c r="B997" s="3"/>
       <c r="E997" s="3"/>
     </row>
-    <row r="998" spans="1:5">
+    <row r="998" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A998" s="3"/>
       <c r="B998" s="3"/>
       <c r="E998" s="3"/>
     </row>
-    <row r="999" spans="1:5">
+    <row r="999" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A999" s="3"/>
       <c r="B999" s="3"/>
       <c r="E999" s="3"/>
     </row>
-    <row r="1000" spans="1:5">
+    <row r="1000" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1000" s="3"/>
       <c r="B1000" s="3"/>
       <c r="E1000" s="3"/>
@@ -6178,760 +6176,832 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22:J23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="11" customFormat="1">
+    <row r="1" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="14">
-        <v>42921</v>
+        <v>38</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>143</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="J1" s="14">
+        <v>146</v>
+      </c>
+      <c r="F1" s="14">
         <v>42743</v>
       </c>
+      <c r="G1" s="14">
+        <v>42774</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
       <c r="K1" s="31"/>
       <c r="L1" s="31"/>
-      <c r="N1"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="5">
-        <v>42.45</v>
-      </c>
-      <c r="D2" s="5">
-        <v>43.75</v>
-      </c>
-      <c r="E2" s="5">
-        <v>44.15</v>
-      </c>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
       <c r="F2" s="5">
-        <v>44.45</v>
-      </c>
-      <c r="G2" s="31">
-        <v>45.1</v>
-      </c>
-      <c r="H2" s="31">
-        <v>45.25</v>
-      </c>
-      <c r="I2" s="31">
-        <v>45.15</v>
-      </c>
-      <c r="J2" s="31">
-        <v>44.25</v>
-      </c>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="5">
-        <v>247.3</v>
-      </c>
-      <c r="D3" s="5">
-        <v>262.5</v>
-      </c>
-      <c r="E3" s="5">
-        <v>258.39999999999998</v>
-      </c>
+        <v>309.25</v>
+      </c>
+      <c r="G2" s="5">
+        <v>306</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
       <c r="F3" s="5">
-        <v>260.5</v>
-      </c>
-      <c r="G3" s="31">
-        <v>255.5</v>
-      </c>
-      <c r="H3" s="31">
-        <v>251.1</v>
-      </c>
-      <c r="I3" s="31">
-        <v>249.65</v>
-      </c>
-      <c r="J3" s="31">
-        <v>251.8</v>
-      </c>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="5">
-        <v>67.3</v>
-      </c>
-      <c r="D4" s="5">
-        <v>70.75</v>
-      </c>
-      <c r="E4" s="5">
-        <v>70.400000000000006</v>
-      </c>
-      <c r="F4" s="5">
-        <v>70.95</v>
+        <v>302.7</v>
+      </c>
+      <c r="G3" s="5">
+        <v>301.39999999999998</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="31">
+        <v>291.7</v>
+      </c>
+      <c r="D4" s="31">
+        <v>290.35000000000002</v>
+      </c>
+      <c r="E4" s="31">
+        <v>285.25</v>
+      </c>
+      <c r="F4" s="31">
+        <v>287.75</v>
       </c>
       <c r="G4" s="31">
-        <v>70.150000000000006</v>
-      </c>
-      <c r="H4" s="31">
-        <v>69.45</v>
-      </c>
-      <c r="I4" s="31">
-        <v>70</v>
-      </c>
-      <c r="J4" s="31">
-        <v>70</v>
-      </c>
+        <v>284.85000000000002</v>
+      </c>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
       <c r="K4" s="31"/>
       <c r="L4" s="31"/>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="5">
-        <v>83.3</v>
-      </c>
-      <c r="D5" s="5">
-        <v>91.65</v>
-      </c>
-      <c r="E5" s="5">
-        <v>96.9</v>
-      </c>
-      <c r="F5" s="5">
-        <v>95.5</v>
-      </c>
-      <c r="G5" s="31">
-        <v>92.35</v>
-      </c>
-      <c r="H5" s="31">
-        <v>95.4</v>
-      </c>
-      <c r="I5" s="31">
-        <v>92.35</v>
-      </c>
-      <c r="J5" s="31">
-        <v>92.3</v>
-      </c>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="33">
+        <v>1592.8</v>
+      </c>
+      <c r="D5" s="33">
+        <v>1594</v>
+      </c>
+      <c r="E5" s="33">
+        <v>1615.45</v>
+      </c>
+      <c r="F5" s="33">
+        <v>1605.8</v>
+      </c>
+      <c r="G5" s="33">
+        <v>1628.55</v>
+      </c>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
       <c r="K5" s="31"/>
       <c r="L5" s="31"/>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="5">
-        <v>134.15</v>
-      </c>
-      <c r="D6" s="5">
-        <v>144.9</v>
-      </c>
-      <c r="E6" s="5">
-        <v>145.4</v>
-      </c>
-      <c r="F6" s="5">
-        <v>143.94999999999999</v>
+        <v>28</v>
+      </c>
+      <c r="C6" s="31">
+        <v>255.5</v>
+      </c>
+      <c r="D6" s="31">
+        <v>251.1</v>
+      </c>
+      <c r="E6" s="31">
+        <v>249.65</v>
+      </c>
+      <c r="F6" s="31">
+        <v>251.8</v>
       </c>
       <c r="G6" s="31">
-        <v>142.5</v>
-      </c>
-      <c r="H6" s="31">
-        <v>143.75</v>
-      </c>
-      <c r="I6" s="31">
-        <v>144.80000000000001</v>
-      </c>
-      <c r="J6" s="31">
-        <v>144.35</v>
-      </c>
+        <v>251.05</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
       <c r="K6" s="31"/>
       <c r="L6" s="31"/>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="5">
+        <v>32</v>
+      </c>
+      <c r="C7" s="31">
+        <v>19.350000000000001</v>
+      </c>
+      <c r="D7" s="31">
         <v>18.95</v>
       </c>
-      <c r="D7" s="5">
-        <v>18</v>
-      </c>
-      <c r="E7" s="5">
+      <c r="E7" s="31">
         <v>18.75</v>
       </c>
-      <c r="F7" s="5">
-        <v>19.100000000000001</v>
+      <c r="F7" s="31">
+        <v>18.7</v>
       </c>
       <c r="G7" s="31">
-        <v>19.350000000000001</v>
-      </c>
-      <c r="H7" s="31">
-        <v>18.95</v>
-      </c>
-      <c r="I7" s="31">
-        <v>18.75</v>
-      </c>
-      <c r="J7" s="31">
-        <v>18.7</v>
-      </c>
+        <v>18.399999999999999</v>
+      </c>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
       <c r="K7" s="31"/>
       <c r="L7" s="31"/>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="5">
-        <v>81.650000000000006</v>
-      </c>
-      <c r="D8" s="5">
-        <v>83.3</v>
-      </c>
-      <c r="E8" s="5">
-        <v>82.95</v>
-      </c>
-      <c r="F8" s="5">
-        <v>82.55</v>
+        <v>36</v>
+      </c>
+      <c r="C8" s="31">
+        <v>63.3</v>
+      </c>
+      <c r="D8" s="31">
+        <v>62.6</v>
+      </c>
+      <c r="E8" s="31">
+        <v>63.3</v>
+      </c>
+      <c r="F8" s="31">
+        <v>63.25</v>
       </c>
       <c r="G8" s="31">
-        <v>82.1</v>
-      </c>
-      <c r="H8" s="31">
-        <v>82.55</v>
-      </c>
-      <c r="I8" s="31">
-        <v>82</v>
-      </c>
-      <c r="J8" s="31">
-        <v>83.25</v>
-      </c>
+        <v>63.2</v>
+      </c>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
       <c r="K8" s="31"/>
       <c r="L8" s="31"/>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="5">
-        <v>52.8</v>
-      </c>
-      <c r="D9" s="5">
-        <v>55.15</v>
-      </c>
-      <c r="E9" s="5">
-        <v>58.1</v>
-      </c>
-      <c r="F9" s="5">
-        <v>58.7</v>
-      </c>
-      <c r="G9" s="31">
-        <v>56.45</v>
-      </c>
-      <c r="H9" s="31">
-        <v>57.15</v>
-      </c>
-      <c r="I9" s="31">
-        <v>55.55</v>
-      </c>
-      <c r="J9" s="31">
-        <v>55.3</v>
-      </c>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="9" t="s">
-        <v>21</v>
+        <v>161</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9">
+        <v>58.2</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="5">
-        <v>36.35</v>
-      </c>
-      <c r="D10" s="5">
-        <v>33.799999999999997</v>
-      </c>
-      <c r="E10" s="5">
-        <v>32.9</v>
-      </c>
-      <c r="F10" s="5">
-        <v>34.4</v>
+        <v>27</v>
+      </c>
+      <c r="C10" s="31">
+        <v>45.1</v>
+      </c>
+      <c r="D10" s="31">
+        <v>45.25</v>
+      </c>
+      <c r="E10" s="31">
+        <v>45.15</v>
+      </c>
+      <c r="F10" s="31">
+        <v>44.25</v>
       </c>
       <c r="G10" s="31">
-        <v>33.200000000000003</v>
-      </c>
-      <c r="H10" s="31">
-        <v>33</v>
-      </c>
-      <c r="I10" s="31">
-        <v>32.5</v>
-      </c>
-      <c r="J10" s="31">
-        <v>32.6</v>
-      </c>
+        <v>43.9</v>
+      </c>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
       <c r="K10" s="31"/>
       <c r="L10" s="31"/>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="5">
-        <v>59.8</v>
-      </c>
-      <c r="D11" s="5">
-        <v>62.4</v>
-      </c>
-      <c r="E11" s="5">
-        <v>63.4</v>
-      </c>
-      <c r="F11" s="5">
-        <v>64</v>
+        <v>29</v>
+      </c>
+      <c r="C11" s="31">
+        <v>70.150000000000006</v>
+      </c>
+      <c r="D11" s="31">
+        <v>69.45</v>
+      </c>
+      <c r="E11" s="31">
+        <v>70</v>
+      </c>
+      <c r="F11" s="31">
+        <v>70</v>
       </c>
       <c r="G11" s="31">
-        <v>63.3</v>
-      </c>
-      <c r="H11" s="31">
-        <v>62.6</v>
-      </c>
-      <c r="I11" s="31">
-        <v>63.3</v>
-      </c>
-      <c r="J11" s="31">
-        <v>63.25</v>
-      </c>
+        <v>69.3</v>
+      </c>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
       <c r="K11" s="31"/>
       <c r="L11" s="31"/>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="10" t="s">
-        <v>23</v>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="5">
-        <v>25.7</v>
-      </c>
-      <c r="D12" s="5">
-        <v>37.450000000000003</v>
-      </c>
-      <c r="E12" s="5">
-        <v>37.049999999999997</v>
-      </c>
-      <c r="F12" s="5">
-        <v>36.65</v>
+        <v>30</v>
+      </c>
+      <c r="C12" s="31">
+        <v>92.35</v>
+      </c>
+      <c r="D12" s="31">
+        <v>95.4</v>
+      </c>
+      <c r="E12" s="31">
+        <v>92.35</v>
+      </c>
+      <c r="F12" s="31">
+        <v>92.3</v>
       </c>
       <c r="G12" s="31">
-        <v>34.85</v>
-      </c>
-      <c r="H12" s="31">
-        <v>36.200000000000003</v>
-      </c>
-      <c r="I12" s="31">
-        <v>37.25</v>
-      </c>
-      <c r="J12" s="31">
-        <v>36.25</v>
-      </c>
+        <v>92.3</v>
+      </c>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
       <c r="K12" s="31"/>
       <c r="L12" s="31"/>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="10" t="s">
-        <v>11</v>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="5">
-        <v>550.29999999999995</v>
-      </c>
-      <c r="D13" s="5">
-        <v>552.20000000000005</v>
-      </c>
-      <c r="E13" s="5">
-        <v>552.79999999999995</v>
-      </c>
-      <c r="F13" s="5">
-        <v>566.15</v>
+        <v>31</v>
+      </c>
+      <c r="C13" s="31">
+        <v>142.5</v>
+      </c>
+      <c r="D13" s="31">
+        <v>143.75</v>
+      </c>
+      <c r="E13" s="31">
+        <v>144.80000000000001</v>
+      </c>
+      <c r="F13" s="31">
+        <v>144.35</v>
       </c>
       <c r="G13" s="31">
-        <v>561.04999999999995</v>
-      </c>
-      <c r="H13" s="31">
-        <v>552</v>
-      </c>
-      <c r="I13" s="31">
-        <v>567.6</v>
-      </c>
-      <c r="J13" s="31">
-        <v>570.95000000000005</v>
-      </c>
+        <v>140.9</v>
+      </c>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
       <c r="K13" s="31"/>
       <c r="L13" s="31"/>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="5">
-        <v>331.65</v>
-      </c>
-      <c r="D14" s="5">
-        <v>288.5</v>
-      </c>
-      <c r="E14" s="5">
-        <v>291.5</v>
-      </c>
-      <c r="F14" s="5">
-        <v>293.35000000000002</v>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="31">
+        <v>82.1</v>
+      </c>
+      <c r="D14" s="31">
+        <v>82.55</v>
+      </c>
+      <c r="E14" s="31">
+        <v>82</v>
+      </c>
+      <c r="F14" s="31">
+        <v>83.25</v>
       </c>
       <c r="G14" s="31">
-        <v>291.7</v>
-      </c>
-      <c r="H14" s="31">
-        <v>290.35000000000002</v>
-      </c>
-      <c r="I14" s="31">
-        <v>285.25</v>
-      </c>
-      <c r="J14" s="31">
-        <v>287.75</v>
-      </c>
+        <v>82.55</v>
+      </c>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
       <c r="K14" s="31"/>
       <c r="L14" s="31"/>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="5">
-        <v>483.4</v>
-      </c>
-      <c r="D15" s="5">
-        <v>537</v>
-      </c>
-      <c r="E15" s="5">
-        <v>523</v>
-      </c>
-      <c r="F15" s="5">
-        <v>524.04999999999995</v>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="31">
+        <v>56.45</v>
+      </c>
+      <c r="D15" s="31">
+        <v>57.15</v>
+      </c>
+      <c r="E15" s="31">
+        <v>55.55</v>
+      </c>
+      <c r="F15" s="31">
+        <v>55.3</v>
       </c>
       <c r="G15" s="31">
-        <v>515</v>
-      </c>
-      <c r="H15" s="31">
-        <v>503.55</v>
-      </c>
-      <c r="I15" s="31">
-        <v>501.4</v>
-      </c>
-      <c r="J15" s="31">
-        <v>497</v>
-      </c>
+        <v>54.25</v>
+      </c>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
       <c r="K15" s="31"/>
       <c r="L15" s="31"/>
-      <c r="N15" s="11"/>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="5">
-        <v>174.25</v>
-      </c>
-      <c r="D16" s="5">
-        <v>180.5</v>
-      </c>
-      <c r="E16" s="5">
-        <v>189.9</v>
-      </c>
-      <c r="F16" s="5">
-        <v>196</v>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="31">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="D16" s="31">
+        <v>33</v>
+      </c>
+      <c r="E16" s="31">
+        <v>32.5</v>
+      </c>
+      <c r="F16" s="31">
+        <v>32.6</v>
       </c>
       <c r="G16" s="31">
-        <v>196.55</v>
-      </c>
-      <c r="H16" s="31">
-        <v>195.2</v>
-      </c>
-      <c r="I16" s="31">
-        <v>190.05</v>
-      </c>
-      <c r="J16" s="31">
-        <v>195.15</v>
-      </c>
+        <v>32.799999999999997</v>
+      </c>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
       <c r="K16" s="31"/>
       <c r="L16" s="31"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5">
-        <v>438.5</v>
-      </c>
-      <c r="E17" s="5">
-        <v>437.4</v>
-      </c>
-      <c r="F17" s="5">
-        <v>439</v>
-      </c>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
       <c r="G17" s="31">
-        <v>450.5</v>
-      </c>
-      <c r="H17" s="31">
-        <v>453</v>
-      </c>
-      <c r="I17" s="31">
-        <v>440.7</v>
-      </c>
-      <c r="J17" s="31">
-        <v>449</v>
-      </c>
+        <v>35.35</v>
+      </c>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
       <c r="K17" s="31"/>
       <c r="L17" s="31"/>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="31"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5">
-        <v>744.65</v>
-      </c>
-      <c r="E18" s="5">
-        <v>751.95</v>
-      </c>
-      <c r="F18" s="5">
-        <v>748.7</v>
-      </c>
-      <c r="G18" s="34">
-        <v>739.1</v>
-      </c>
-      <c r="H18" s="31">
-        <v>724.95</v>
-      </c>
-      <c r="I18" s="31">
-        <v>718.65</v>
-      </c>
-      <c r="J18" s="31">
-        <v>736</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="31">
+        <v>561.04999999999995</v>
+      </c>
+      <c r="D18" s="31">
+        <v>552</v>
+      </c>
+      <c r="E18" s="31">
+        <v>567.6</v>
+      </c>
+      <c r="F18" s="31">
+        <v>570.95000000000005</v>
+      </c>
+      <c r="G18" s="31">
+        <v>568.95000000000005</v>
+      </c>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
       <c r="K18" s="31"/>
       <c r="L18" s="31"/>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="33">
-        <v>1584</v>
-      </c>
-      <c r="E19" s="33">
-        <v>1602.5</v>
-      </c>
-      <c r="F19" s="33">
-        <v>1622.9</v>
-      </c>
-      <c r="G19" s="34">
-        <v>1592.8</v>
-      </c>
-      <c r="H19" s="34">
-        <v>1594</v>
-      </c>
-      <c r="I19" s="34">
-        <v>1615.45</v>
-      </c>
-      <c r="J19" s="34">
-        <v>1605.8</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C19" s="31">
+        <v>515</v>
+      </c>
+      <c r="D19" s="31">
+        <v>503.55</v>
+      </c>
+      <c r="E19" s="31">
+        <v>501.4</v>
+      </c>
+      <c r="F19" s="31">
+        <v>497</v>
+      </c>
+      <c r="G19" s="31">
+        <v>498.05</v>
+      </c>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
       <c r="K19" s="31"/>
       <c r="L19" s="31"/>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>140</v>
+        <v>53</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5">
-        <v>411</v>
-      </c>
-      <c r="E20" s="5">
-        <v>427.5</v>
-      </c>
-      <c r="F20" s="5">
-        <v>426.5</v>
+        <v>53</v>
+      </c>
+      <c r="C20" s="31">
+        <v>196.55</v>
+      </c>
+      <c r="D20" s="31">
+        <v>195.2</v>
+      </c>
+      <c r="E20" s="31">
+        <v>190.05</v>
+      </c>
+      <c r="F20" s="31">
+        <v>195.15</v>
       </c>
       <c r="G20" s="31">
-        <v>414.05</v>
-      </c>
-      <c r="H20" s="31">
-        <v>412.95</v>
-      </c>
-      <c r="I20" s="31">
-        <v>420</v>
-      </c>
-      <c r="J20" s="31">
-        <v>419.5</v>
-      </c>
+        <v>195.3</v>
+      </c>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
       <c r="K20" s="31"/>
       <c r="L20" s="31"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5">
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="31"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="31">
+        <v>450.5</v>
+      </c>
+      <c r="D21" s="31">
+        <v>453</v>
+      </c>
+      <c r="E21" s="31">
+        <v>440.7</v>
+      </c>
+      <c r="F21" s="31">
+        <v>449</v>
+      </c>
+      <c r="G21" s="31">
+        <v>452.75</v>
+      </c>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="31"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" s="33">
+        <v>739.1</v>
+      </c>
+      <c r="D22" s="31">
+        <v>724.95</v>
+      </c>
+      <c r="E22" s="31">
+        <v>718.65</v>
+      </c>
+      <c r="F22" s="31">
+        <v>736</v>
+      </c>
+      <c r="G22" s="31">
+        <v>729.9</v>
+      </c>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="31"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" s="31">
+        <v>414.05</v>
+      </c>
+      <c r="D23" s="31">
+        <v>412.95</v>
+      </c>
+      <c r="E23" s="31">
+        <v>420</v>
+      </c>
+      <c r="F23" s="31">
+        <v>419.5</v>
+      </c>
+      <c r="G23" s="31">
+        <v>415.9</v>
+      </c>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="31"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5">
         <v>89.3</v>
       </c>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5">
-        <v>309.25</v>
-      </c>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5">
-        <v>302.7</v>
-      </c>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
+      <c r="G24" s="5">
+        <v>88.85</v>
+      </c>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5">
+        <v>85.65</v>
+      </c>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
     </row>
   </sheetData>
-  <sortState ref="N1:N37">
-    <sortCondition ref="N13"/>
+  <sortState ref="J1:J37">
+    <sortCondition ref="J13"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6939,14 +7009,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="17.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.85546875" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="17" bestFit="1" customWidth="1"/>
@@ -6967,24 +7037,24 @@
     <col min="18" max="16384" width="17.85546875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B1" s="8">
         <v>25000</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="18"/>
       <c r="G1" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J1" s="5">
         <f>SUM(K2:K100)</f>
@@ -6992,120 +7062,120 @@
       </c>
       <c r="K1" s="5"/>
       <c r="M1" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N1" s="5">
         <v>112000</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Q1" s="5"/>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B2" s="8">
         <v>15000</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E2" s="8">
         <v>40000</v>
       </c>
       <c r="F2" s="18"/>
       <c r="G2" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H2" s="8">
         <v>100000</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K2" s="5">
         <v>5000</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N2" s="5">
         <v>3000</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q2" s="5">
         <v>5000</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B3" s="8">
         <v>20000</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E3" s="8">
         <v>15000</v>
       </c>
       <c r="F3" s="18"/>
       <c r="G3" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H3" s="8">
         <v>50000</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K3" s="5">
         <v>500</v>
       </c>
       <c r="M3" s="28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N3" s="29">
         <v>2200</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Q3" s="5">
         <f>Q2/2</f>
         <v>2500</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B4" s="8">
         <v>40000</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E4" s="8">
         <v>20000</v>
       </c>
       <c r="F4" s="18"/>
       <c r="G4" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H4" s="8">
         <v>30000</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K4" s="5">
         <v>3000</v>
@@ -7118,146 +7188,146 @@
         <v>117200</v>
       </c>
       <c r="P4" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q4" s="5">
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B5" s="8">
         <v>4139</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E5" s="8">
         <v>20000</v>
       </c>
       <c r="F5" s="18"/>
       <c r="G5" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H5" s="8">
         <v>50000</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K5" s="15">
         <v>500</v>
       </c>
       <c r="P5" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Q5" s="5">
         <f>Q3*Q4</f>
         <v>1250000</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="8">
         <v>6000</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="8">
         <v>3000</v>
       </c>
       <c r="F6" s="18"/>
       <c r="G6" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H6" s="8">
         <v>100000</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K6" s="15">
         <v>900</v>
       </c>
       <c r="M6" s="21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N6" s="17">
         <f>J1-N4</f>
         <v>25150</v>
       </c>
       <c r="P6" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q6" s="5">
         <f>Q5/20</f>
         <v>62500</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="8">
         <v>3000</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E7" s="8">
         <v>5000</v>
       </c>
       <c r="F7" s="18"/>
       <c r="G7" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H7" s="8">
         <v>40000</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K7" s="15">
         <v>400</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="8">
         <v>10000</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E8" s="8">
         <v>10000</v>
       </c>
       <c r="F8" s="18"/>
       <c r="G8" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H8" s="8">
         <v>30000</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K8" s="15">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>5</v>
       </c>
@@ -7272,77 +7342,77 @@
         <v>113000</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H9" s="8">
         <v>200000</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K9" s="15">
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G10" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H10" s="8">
         <v>187000</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K10" s="15">
         <v>3000</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N10" s="5"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G11" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H11" s="8">
         <v>300000</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K11" s="15">
         <v>1000</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N11" s="5">
         <v>5000</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G12" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H12" s="8">
         <v>250000</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K12" s="15">
         <v>2000</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N12" s="5">
         <v>5000</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G13" s="8" t="s">
         <v>5</v>
       </c>
@@ -7350,116 +7420,116 @@
         <v>1337000</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K13" s="15">
         <v>750</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D14" s="22"/>
       <c r="J14" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K14" s="15">
         <v>2000</v>
       </c>
-      <c r="P14" s="36"/>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="P14" s="35"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D15" s="22"/>
       <c r="J15" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K15" s="15">
         <v>13000</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D16" s="22"/>
       <c r="J16" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K16" s="15">
         <v>500</v>
       </c>
     </row>
-    <row r="17" spans="4:11">
+    <row r="17" spans="4:11" x14ac:dyDescent="0.25">
       <c r="J17" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K17" s="15">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="4:11">
+    <row r="18" spans="4:11" x14ac:dyDescent="0.25">
       <c r="J18" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K18" s="15">
         <v>500</v>
       </c>
     </row>
-    <row r="19" spans="4:11">
+    <row r="19" spans="4:11" x14ac:dyDescent="0.25">
       <c r="J19" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K19" s="15">
         <v>2000</v>
       </c>
     </row>
-    <row r="20" spans="4:11">
+    <row r="20" spans="4:11" x14ac:dyDescent="0.25">
       <c r="J20" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K20" s="15">
         <v>6000</v>
       </c>
     </row>
-    <row r="21" spans="4:11">
+    <row r="21" spans="4:11" x14ac:dyDescent="0.25">
       <c r="J21" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K21" s="15">
         <v>5000</v>
       </c>
     </row>
-    <row r="22" spans="4:11">
+    <row r="22" spans="4:11" x14ac:dyDescent="0.25">
       <c r="J22" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K22" s="15">
         <v>15000</v>
       </c>
     </row>
-    <row r="23" spans="4:11">
+    <row r="23" spans="4:11" x14ac:dyDescent="0.25">
       <c r="J23" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K23" s="15">
         <v>20000</v>
       </c>
     </row>
-    <row r="24" spans="4:11">
+    <row r="24" spans="4:11" x14ac:dyDescent="0.25">
       <c r="J24" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K24" s="15">
         <v>40000</v>
       </c>
     </row>
-    <row r="25" spans="4:11">
+    <row r="25" spans="4:11" x14ac:dyDescent="0.25">
       <c r="J25" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K25" s="15">
         <v>10000</v>
       </c>
     </row>
-    <row r="26" spans="4:11">
+    <row r="26" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D26" s="21"/>
       <c r="J26" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K26" s="15">
         <v>10000</v>
@@ -7472,14 +7542,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:P11"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -7491,39 +7561,39 @@
     <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="E1" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>107</v>
-      </c>
       <c r="G1" s="30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I1">
         <f>SUM(H2:H200)</f>
         <v>297.70000000000039</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15" customHeight="1">
+    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B2" s="5">
         <v>296</v>
@@ -7546,15 +7616,15 @@
         <v>126</v>
       </c>
       <c r="K2" t="s">
-        <v>133</v>
-      </c>
-      <c r="N2" s="35" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="15" customHeight="1">
+        <v>131</v>
+      </c>
+      <c r="N2" s="34" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B3" s="5">
         <v>170</v>
@@ -7584,10 +7654,10 @@
         <v>172</v>
       </c>
       <c r="K3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="N3" s="5">
         <v>2</v>
@@ -7600,9 +7670,9 @@
         <v>618.5</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15" customHeight="1">
+    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B4" s="5">
         <v>34</v>
@@ -7632,10 +7702,10 @@
         <v>180</v>
       </c>
       <c r="K4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="N4" s="5">
         <v>2</v>
@@ -7648,9 +7718,9 @@
         <v>605.4</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15" customHeight="1">
+    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B5" s="5">
         <v>38</v>
@@ -7680,10 +7750,10 @@
         <v>298</v>
       </c>
       <c r="K5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N5" s="5">
         <v>2</v>
@@ -7696,9 +7766,9 @@
         <v>574</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15" customHeight="1">
+    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B6" s="5">
         <v>71.010000000000005</v>
@@ -7718,7 +7788,7 @@
       </c>
       <c r="H6" s="5"/>
       <c r="M6" s="13" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="N6" s="5">
         <v>1</v>
@@ -7731,9 +7801,9 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1">
+    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B7" s="5">
         <v>92.1</v>
@@ -7755,7 +7825,7 @@
       </c>
       <c r="H7" s="5"/>
       <c r="M7" s="13" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N7" s="5">
         <v>2</v>
@@ -7768,9 +7838,9 @@
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1">
+    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B8" s="5">
         <v>762</v>
@@ -7790,7 +7860,7 @@
       </c>
       <c r="H8" s="5"/>
       <c r="M8" s="13" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="N8" s="5">
         <v>50</v>
@@ -7803,9 +7873,9 @@
         <v>950</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15" customHeight="1">
+    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B9" s="5">
         <v>1595</v>
@@ -7825,7 +7895,7 @@
       </c>
       <c r="H9" s="5"/>
       <c r="M9" s="13" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N9" s="5">
         <v>2</v>
@@ -7838,9 +7908,9 @@
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15" customHeight="1">
+    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B10" s="5">
         <v>90.2</v>
@@ -7860,7 +7930,7 @@
       </c>
       <c r="H10" s="5"/>
       <c r="M10" s="28" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="N10" s="29">
         <v>2</v>
@@ -7873,9 +7943,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15" customHeight="1">
+    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B11" s="5">
         <v>410.1</v>
@@ -7917,9 +7987,9 @@
         <v>5093.8999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15" customHeight="1">
+    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B12" s="5">
         <v>121</v>
@@ -7946,9 +8016,9 @@
         <v>117.60000000000036</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15" customHeight="1">
+    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B13" s="5">
         <v>200.25</v>
@@ -7968,9 +8038,9 @@
       </c>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:16" ht="15" customHeight="1">
+    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B14" s="5">
         <v>34.25</v>
@@ -7990,7 +8060,7 @@
       </c>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:16" ht="15" customHeight="1">
+    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -8006,7 +8076,7 @@
       </c>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:16" ht="15" customHeight="1">
+    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -8022,7 +8092,7 @@
       </c>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -8038,7 +8108,7 @@
       </c>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -8051,7 +8121,7 @@
       </c>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -8061,7 +8131,7 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -8071,7 +8141,7 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -8081,7 +8151,7 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -8091,7 +8161,7 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1">
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -8101,7 +8171,7 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1">
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -8111,7 +8181,7 @@
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1">
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -8128,14 +8198,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -8143,258 +8213,258 @@
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B2" s="5">
         <v>36.5</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E2" s="5">
         <v>41.5</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B3" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E3" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B4" s="5">
         <f>B2*B3</f>
         <v>0.1825</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E4" s="5">
         <f>E2*E3</f>
         <v>0.20750000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B5" s="5">
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B6" s="5">
         <f>B4*B5</f>
         <v>0.1825</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E6" s="5">
         <f>E4*E5</f>
         <v>0.20750000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B7" s="5">
         <f>B2+B4</f>
         <v>36.682499999999997</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E7" s="5">
         <f>E2-E4</f>
         <v>41.292499999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B8" s="5">
         <f>ROUND(B7*B5,2)</f>
         <v>36.68</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E8" s="5">
         <f>ROUND(E7*E5,2)</f>
         <v>41.29</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B9" s="5">
         <v>0.18</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E9" s="5">
         <v>0.18</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B10" s="5">
         <f>B9*B6</f>
         <v>3.2849999999999997E-2</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E10" s="5">
         <f>E9*E6</f>
         <v>3.7350000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B11" s="5">
         <v>1E-3</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E11" s="5">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B12" s="5">
         <f>B11*B8</f>
         <v>3.6679999999999997E-2</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E12" s="5">
         <f>E11*E8</f>
         <v>4.129E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B13" s="5">
         <v>3.2499999999999997E-5</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E13" s="5">
         <v>3.2499999999999997E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B14" s="5">
         <f>B13*B8</f>
         <v>1.1921E-3</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E14" s="5">
         <f>E13*E8</f>
         <v>1.3419249999999999E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B15" s="32">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E15" s="32">
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B16" s="5">
         <f>B8*B15</f>
         <v>7.3360000000000005E-3</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E16" s="5">
         <f>E8*E15</f>
         <v>8.2579999999999997E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B17" s="5">
         <f>B10+B12+B14+B16</f>
         <v>7.8058099999999991E-2</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E17" s="5">
         <f>E10+E12+E14+E16</f>
         <v>8.8239924999999997E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B18" s="5">
         <f>B8+B17</f>
         <v>36.7580581</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E18" s="5">
         <f>E8-E17</f>
@@ -8408,14 +8478,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
@@ -8424,9 +8494,9 @@
     <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -8435,38 +8505,38 @@
         <v>0</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F1" s="5">
         <v>1475389</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B2" s="5">
         <v>7600</v>
       </c>
-      <c r="C2" s="37">
+      <c r="C2" s="36">
         <v>42941</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F2" s="5">
         <f>SUM(B2:B200)</f>
         <v>205600</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B3" s="5">
         <v>50000</v>
       </c>
-      <c r="C3" s="37">
+      <c r="C3" s="36">
         <v>42948</v>
       </c>
       <c r="E3" s="12" t="s">
@@ -8477,36 +8547,36 @@
         <v>1269789</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="5">
         <v>23000</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="36">
         <v>42948</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B5" s="5">
         <v>25000</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5" s="36">
         <v>42948</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B6" s="5">
         <v>100000</v>
       </c>
-      <c r="C6" s="37">
+      <c r="C6" s="36">
         <v>42941</v>
       </c>
     </row>

--- a/documents/Home.xlsx
+++ b/documents/Home.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="13965" windowHeight="5625" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="13965" windowHeight="5625" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="PaidTillDate" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
     <sheet name="Actual Price Calculator" sheetId="8" r:id="rId5"/>
     <sheet name="Spent" sheetId="9" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="164">
   <si>
     <t>Date</t>
   </si>
@@ -516,11 +516,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -769,7 +769,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -804,7 +803,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -980,14 +978,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
@@ -996,7 +994,7 @@
     <col min="6" max="26" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -1030,7 +1028,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26">
       <c r="A2" s="24">
         <v>42190</v>
       </c>
@@ -1060,7 +1058,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26">
       <c r="A3" s="24">
         <v>42192</v>
       </c>
@@ -1089,7 +1087,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26">
       <c r="A4" s="24">
         <v>42229</v>
       </c>
@@ -1099,7 +1097,7 @@
       <c r="D4" s="27"/>
       <c r="E4" s="27"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26">
       <c r="A5" s="24">
         <v>42230</v>
       </c>
@@ -1111,7 +1109,7 @@
       </c>
       <c r="E5" s="27"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26">
       <c r="A6" s="24">
         <v>42255</v>
       </c>
@@ -1120,7 +1118,7 @@
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26">
       <c r="A7" s="24">
         <v>42262</v>
       </c>
@@ -1129,7 +1127,7 @@
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26">
       <c r="A8" s="24">
         <v>42282</v>
       </c>
@@ -1138,7 +1136,7 @@
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26">
       <c r="A9" s="24">
         <v>42299</v>
       </c>
@@ -1147,7 +1145,7 @@
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26">
       <c r="A10" s="24">
         <v>42373</v>
       </c>
@@ -1156,7 +1154,7 @@
       </c>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26">
       <c r="A11" s="24">
         <v>42553</v>
       </c>
@@ -1165,7 +1163,7 @@
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26">
       <c r="A12" s="24">
         <v>42640</v>
       </c>
@@ -1174,7 +1172,7 @@
       </c>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26">
       <c r="A13" s="25">
         <v>42768</v>
       </c>
@@ -1183,7 +1181,7 @@
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26">
       <c r="A14" s="25">
         <v>42796</v>
       </c>
@@ -1192,7 +1190,7 @@
       </c>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26">
       <c r="A15" s="25">
         <v>42829</v>
       </c>
@@ -1201,7 +1199,7 @@
       </c>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26">
       <c r="A16" s="26">
         <v>42856</v>
       </c>
@@ -1210,7 +1208,7 @@
       </c>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26">
       <c r="A17" s="26">
         <v>42887</v>
       </c>
@@ -1219,7 +1217,7 @@
       </c>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26">
       <c r="A18" s="26">
         <v>42917</v>
       </c>
@@ -1228,7 +1226,7 @@
       </c>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26">
       <c r="A19" s="26">
         <v>42948</v>
       </c>
@@ -1237,32 +1235,32 @@
       </c>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26">
       <c r="A20" s="26"/>
       <c r="B20" s="23"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26">
       <c r="A21" s="26"/>
       <c r="B21" s="23"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26">
       <c r="A22" s="26"/>
       <c r="B22" s="23"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26">
       <c r="A23" s="26"/>
       <c r="B23" s="23"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26">
       <c r="A24" s="27"/>
       <c r="B24" s="27"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26">
       <c r="A25" s="25" t="s">
         <v>5</v>
       </c>
@@ -1295,4877 +1293,4877 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="E45" s="3"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="E48" s="3"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="E53" s="3"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="E54" s="3"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="E61" s="3"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="E62" s="3"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="E63" s="3"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="E64" s="3"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="E65" s="3"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="E66" s="3"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="E67" s="3"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="E68" s="3"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="E69" s="3"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="E70" s="3"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="E71" s="3"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="E72" s="3"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="E73" s="3"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="E74" s="3"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="E75" s="3"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="E76" s="3"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="E77" s="3"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="E78" s="3"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="E79" s="3"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="E80" s="3"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="E81" s="3"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="E82" s="3"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="E83" s="3"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="E84" s="3"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="E85" s="3"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="E86" s="3"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="E87" s="3"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="E88" s="3"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="E89" s="3"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="E90" s="3"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="E91" s="3"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="E92" s="3"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="E93" s="3"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="E94" s="3"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="E95" s="3"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="E96" s="3"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="E97" s="3"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="E98" s="3"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="E99" s="3"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="E100" s="3"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="E101" s="3"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="E102" s="3"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="E103" s="3"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="E104" s="3"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="E105" s="3"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="E106" s="3"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="E107" s="3"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="E108" s="3"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="E109" s="3"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="E110" s="3"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="E111" s="3"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="E112" s="3"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="E113" s="3"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="E114" s="3"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="E115" s="3"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="E116" s="3"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="E117" s="3"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="E118" s="3"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="E119" s="3"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="E120" s="3"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="E121" s="3"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="E122" s="3"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="E123" s="3"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="E124" s="3"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="E125" s="3"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="E126" s="3"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="E127" s="3"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="E128" s="3"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="E129" s="3"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="E130" s="3"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="E131" s="3"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="E132" s="3"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="E133" s="3"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="E134" s="3"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="E135" s="3"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="E136" s="3"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="E137" s="3"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="E138" s="3"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="E139" s="3"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="E140" s="3"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="E141" s="3"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="E142" s="3"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="E143" s="3"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="E144" s="3"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="E145" s="3"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="E146" s="3"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="E147" s="3"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="E148" s="3"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="E149" s="3"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="E150" s="3"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="E151" s="3"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="E152" s="3"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="E153" s="3"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="E154" s="3"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="E155" s="3"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="E156" s="3"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="E157" s="3"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="E158" s="3"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="E159" s="3"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="E160" s="3"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="E161" s="3"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="E162" s="3"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="E163" s="3"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="E164" s="3"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="E165" s="3"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="E166" s="3"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="E167" s="3"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="E168" s="3"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="E169" s="3"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="E170" s="3"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="E171" s="3"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="E172" s="3"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="E173" s="3"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="E174" s="3"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="E175" s="3"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="E176" s="3"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="E177" s="3"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="E178" s="3"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="E179" s="3"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="E180" s="3"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="E181" s="3"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="E182" s="3"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="E183" s="3"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="E184" s="3"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="E185" s="3"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="E186" s="3"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="E187" s="3"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="E188" s="3"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="E189" s="3"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="E190" s="3"/>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="E191" s="3"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="E192" s="3"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="E193" s="3"/>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="E194" s="3"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="E195" s="3"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="E196" s="3"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="E197" s="3"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="E198" s="3"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="E199" s="3"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="E200" s="3"/>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="E201" s="3"/>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="E202" s="3"/>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="E203" s="3"/>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="E204" s="3"/>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="E205" s="3"/>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="E206" s="3"/>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="E207" s="3"/>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="E208" s="3"/>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="E209" s="3"/>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="E210" s="3"/>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="E211" s="3"/>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="E212" s="3"/>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="E213" s="3"/>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="E214" s="3"/>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="E215" s="3"/>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="E216" s="3"/>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="E217" s="3"/>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="E218" s="3"/>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="E219" s="3"/>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="E220" s="3"/>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5">
       <c r="A221" s="3"/>
       <c r="B221" s="3"/>
       <c r="E221" s="3"/>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5">
       <c r="A222" s="3"/>
       <c r="B222" s="3"/>
       <c r="E222" s="3"/>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5">
       <c r="A223" s="3"/>
       <c r="B223" s="3"/>
       <c r="E223" s="3"/>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5">
       <c r="A224" s="3"/>
       <c r="B224" s="3"/>
       <c r="E224" s="3"/>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5">
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
       <c r="E225" s="3"/>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5">
       <c r="A226" s="3"/>
       <c r="B226" s="3"/>
       <c r="E226" s="3"/>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5">
       <c r="A227" s="3"/>
       <c r="B227" s="3"/>
       <c r="E227" s="3"/>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5">
       <c r="A228" s="3"/>
       <c r="B228" s="3"/>
       <c r="E228" s="3"/>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5">
       <c r="A229" s="3"/>
       <c r="B229" s="3"/>
       <c r="E229" s="3"/>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5">
       <c r="A230" s="3"/>
       <c r="B230" s="3"/>
       <c r="E230" s="3"/>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5">
       <c r="A231" s="3"/>
       <c r="B231" s="3"/>
       <c r="E231" s="3"/>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5">
       <c r="A232" s="3"/>
       <c r="B232" s="3"/>
       <c r="E232" s="3"/>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5">
       <c r="A233" s="3"/>
       <c r="B233" s="3"/>
       <c r="E233" s="3"/>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5">
       <c r="A234" s="3"/>
       <c r="B234" s="3"/>
       <c r="E234" s="3"/>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5">
       <c r="A235" s="3"/>
       <c r="B235" s="3"/>
       <c r="E235" s="3"/>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5">
       <c r="A236" s="3"/>
       <c r="B236" s="3"/>
       <c r="E236" s="3"/>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5">
       <c r="A237" s="3"/>
       <c r="B237" s="3"/>
       <c r="E237" s="3"/>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5">
       <c r="A238" s="3"/>
       <c r="B238" s="3"/>
       <c r="E238" s="3"/>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5">
       <c r="A239" s="3"/>
       <c r="B239" s="3"/>
       <c r="E239" s="3"/>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5">
       <c r="A240" s="3"/>
       <c r="B240" s="3"/>
       <c r="E240" s="3"/>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5">
       <c r="A241" s="3"/>
       <c r="B241" s="3"/>
       <c r="E241" s="3"/>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5">
       <c r="A242" s="3"/>
       <c r="B242" s="3"/>
       <c r="E242" s="3"/>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5">
       <c r="A243" s="3"/>
       <c r="B243" s="3"/>
       <c r="E243" s="3"/>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5">
       <c r="A244" s="3"/>
       <c r="B244" s="3"/>
       <c r="E244" s="3"/>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5">
       <c r="A245" s="3"/>
       <c r="B245" s="3"/>
       <c r="E245" s="3"/>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5">
       <c r="A246" s="3"/>
       <c r="B246" s="3"/>
       <c r="E246" s="3"/>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5">
       <c r="A247" s="3"/>
       <c r="B247" s="3"/>
       <c r="E247" s="3"/>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5">
       <c r="A248" s="3"/>
       <c r="B248" s="3"/>
       <c r="E248" s="3"/>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5">
       <c r="A249" s="3"/>
       <c r="B249" s="3"/>
       <c r="E249" s="3"/>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5">
       <c r="A250" s="3"/>
       <c r="B250" s="3"/>
       <c r="E250" s="3"/>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5">
       <c r="A251" s="3"/>
       <c r="B251" s="3"/>
       <c r="E251" s="3"/>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5">
       <c r="A252" s="3"/>
       <c r="B252" s="3"/>
       <c r="E252" s="3"/>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5">
       <c r="A253" s="3"/>
       <c r="B253" s="3"/>
       <c r="E253" s="3"/>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5">
       <c r="A254" s="3"/>
       <c r="B254" s="3"/>
       <c r="E254" s="3"/>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
       <c r="E255" s="3"/>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5">
       <c r="A256" s="3"/>
       <c r="B256" s="3"/>
       <c r="E256" s="3"/>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5">
       <c r="A257" s="3"/>
       <c r="B257" s="3"/>
       <c r="E257" s="3"/>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5">
       <c r="A258" s="3"/>
       <c r="B258" s="3"/>
       <c r="E258" s="3"/>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5">
       <c r="A259" s="3"/>
       <c r="B259" s="3"/>
       <c r="E259" s="3"/>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5">
       <c r="A260" s="3"/>
       <c r="B260" s="3"/>
       <c r="E260" s="3"/>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5">
       <c r="A261" s="3"/>
       <c r="B261" s="3"/>
       <c r="E261" s="3"/>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5">
       <c r="A262" s="3"/>
       <c r="B262" s="3"/>
       <c r="E262" s="3"/>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5">
       <c r="A263" s="3"/>
       <c r="B263" s="3"/>
       <c r="E263" s="3"/>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5">
       <c r="A264" s="3"/>
       <c r="B264" s="3"/>
       <c r="E264" s="3"/>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5">
       <c r="A265" s="3"/>
       <c r="B265" s="3"/>
       <c r="E265" s="3"/>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5">
       <c r="A266" s="3"/>
       <c r="B266" s="3"/>
       <c r="E266" s="3"/>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5">
       <c r="A267" s="3"/>
       <c r="B267" s="3"/>
       <c r="E267" s="3"/>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5">
       <c r="A268" s="3"/>
       <c r="B268" s="3"/>
       <c r="E268" s="3"/>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5">
       <c r="A269" s="3"/>
       <c r="B269" s="3"/>
       <c r="E269" s="3"/>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5">
       <c r="A270" s="3"/>
       <c r="B270" s="3"/>
       <c r="E270" s="3"/>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5">
       <c r="A271" s="3"/>
       <c r="B271" s="3"/>
       <c r="E271" s="3"/>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5">
       <c r="A272" s="3"/>
       <c r="B272" s="3"/>
       <c r="E272" s="3"/>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5">
       <c r="A273" s="3"/>
       <c r="B273" s="3"/>
       <c r="E273" s="3"/>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5">
       <c r="A274" s="3"/>
       <c r="B274" s="3"/>
       <c r="E274" s="3"/>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5">
       <c r="A275" s="3"/>
       <c r="B275" s="3"/>
       <c r="E275" s="3"/>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5">
       <c r="A276" s="3"/>
       <c r="B276" s="3"/>
       <c r="E276" s="3"/>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5">
       <c r="A277" s="3"/>
       <c r="B277" s="3"/>
       <c r="E277" s="3"/>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5">
       <c r="A278" s="3"/>
       <c r="B278" s="3"/>
       <c r="E278" s="3"/>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5">
       <c r="A279" s="3"/>
       <c r="B279" s="3"/>
       <c r="E279" s="3"/>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5">
       <c r="A280" s="3"/>
       <c r="B280" s="3"/>
       <c r="E280" s="3"/>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5">
       <c r="A281" s="3"/>
       <c r="B281" s="3"/>
       <c r="E281" s="3"/>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5">
       <c r="A282" s="3"/>
       <c r="B282" s="3"/>
       <c r="E282" s="3"/>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5">
       <c r="A283" s="3"/>
       <c r="B283" s="3"/>
       <c r="E283" s="3"/>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5">
       <c r="A284" s="3"/>
       <c r="B284" s="3"/>
       <c r="E284" s="3"/>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5">
       <c r="A285" s="3"/>
       <c r="B285" s="3"/>
       <c r="E285" s="3"/>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5">
       <c r="A286" s="3"/>
       <c r="B286" s="3"/>
       <c r="E286" s="3"/>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5">
       <c r="A287" s="3"/>
       <c r="B287" s="3"/>
       <c r="E287" s="3"/>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5">
       <c r="A288" s="3"/>
       <c r="B288" s="3"/>
       <c r="E288" s="3"/>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5">
       <c r="A289" s="3"/>
       <c r="B289" s="3"/>
       <c r="E289" s="3"/>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5">
       <c r="A290" s="3"/>
       <c r="B290" s="3"/>
       <c r="E290" s="3"/>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5">
       <c r="A291" s="3"/>
       <c r="B291" s="3"/>
       <c r="E291" s="3"/>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5">
       <c r="A292" s="3"/>
       <c r="B292" s="3"/>
       <c r="E292" s="3"/>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5">
       <c r="A293" s="3"/>
       <c r="B293" s="3"/>
       <c r="E293" s="3"/>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5">
       <c r="A294" s="3"/>
       <c r="B294" s="3"/>
       <c r="E294" s="3"/>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5">
       <c r="A295" s="3"/>
       <c r="B295" s="3"/>
       <c r="E295" s="3"/>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5">
       <c r="A296" s="3"/>
       <c r="B296" s="3"/>
       <c r="E296" s="3"/>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5">
       <c r="A297" s="3"/>
       <c r="B297" s="3"/>
       <c r="E297" s="3"/>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5">
       <c r="A298" s="3"/>
       <c r="B298" s="3"/>
       <c r="E298" s="3"/>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5">
       <c r="A299" s="3"/>
       <c r="B299" s="3"/>
       <c r="E299" s="3"/>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5">
       <c r="A300" s="3"/>
       <c r="B300" s="3"/>
       <c r="E300" s="3"/>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5">
       <c r="A301" s="3"/>
       <c r="B301" s="3"/>
       <c r="E301" s="3"/>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5">
       <c r="A302" s="3"/>
       <c r="B302" s="3"/>
       <c r="E302" s="3"/>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5">
       <c r="A303" s="3"/>
       <c r="B303" s="3"/>
       <c r="E303" s="3"/>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5">
       <c r="A304" s="3"/>
       <c r="B304" s="3"/>
       <c r="E304" s="3"/>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5">
       <c r="A305" s="3"/>
       <c r="B305" s="3"/>
       <c r="E305" s="3"/>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5">
       <c r="A306" s="3"/>
       <c r="B306" s="3"/>
       <c r="E306" s="3"/>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5">
       <c r="A307" s="3"/>
       <c r="B307" s="3"/>
       <c r="E307" s="3"/>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5">
       <c r="A308" s="3"/>
       <c r="B308" s="3"/>
       <c r="E308" s="3"/>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5">
       <c r="A309" s="3"/>
       <c r="B309" s="3"/>
       <c r="E309" s="3"/>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5">
       <c r="A310" s="3"/>
       <c r="B310" s="3"/>
       <c r="E310" s="3"/>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5">
       <c r="A311" s="3"/>
       <c r="B311" s="3"/>
       <c r="E311" s="3"/>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5">
       <c r="A312" s="3"/>
       <c r="B312" s="3"/>
       <c r="E312" s="3"/>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5">
       <c r="A313" s="3"/>
       <c r="B313" s="3"/>
       <c r="E313" s="3"/>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5">
       <c r="A314" s="3"/>
       <c r="B314" s="3"/>
       <c r="E314" s="3"/>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5">
       <c r="A315" s="3"/>
       <c r="B315" s="3"/>
       <c r="E315" s="3"/>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5">
       <c r="A316" s="3"/>
       <c r="B316" s="3"/>
       <c r="E316" s="3"/>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5">
       <c r="A317" s="3"/>
       <c r="B317" s="3"/>
       <c r="E317" s="3"/>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5">
       <c r="A318" s="3"/>
       <c r="B318" s="3"/>
       <c r="E318" s="3"/>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5">
       <c r="A319" s="3"/>
       <c r="B319" s="3"/>
       <c r="E319" s="3"/>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5">
       <c r="A320" s="3"/>
       <c r="B320" s="3"/>
       <c r="E320" s="3"/>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5">
       <c r="A321" s="3"/>
       <c r="B321" s="3"/>
       <c r="E321" s="3"/>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5">
       <c r="A322" s="3"/>
       <c r="B322" s="3"/>
       <c r="E322" s="3"/>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5">
       <c r="A323" s="3"/>
       <c r="B323" s="3"/>
       <c r="E323" s="3"/>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5">
       <c r="A324" s="3"/>
       <c r="B324" s="3"/>
       <c r="E324" s="3"/>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5">
       <c r="A325" s="3"/>
       <c r="B325" s="3"/>
       <c r="E325" s="3"/>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5">
       <c r="A326" s="3"/>
       <c r="B326" s="3"/>
       <c r="E326" s="3"/>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5">
       <c r="A327" s="3"/>
       <c r="B327" s="3"/>
       <c r="E327" s="3"/>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5">
       <c r="A328" s="3"/>
       <c r="B328" s="3"/>
       <c r="E328" s="3"/>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5">
       <c r="A329" s="3"/>
       <c r="B329" s="3"/>
       <c r="E329" s="3"/>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5">
       <c r="A330" s="3"/>
       <c r="B330" s="3"/>
       <c r="E330" s="3"/>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5">
       <c r="A331" s="3"/>
       <c r="B331" s="3"/>
       <c r="E331" s="3"/>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5">
       <c r="A332" s="3"/>
       <c r="B332" s="3"/>
       <c r="E332" s="3"/>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5">
       <c r="A333" s="3"/>
       <c r="B333" s="3"/>
       <c r="E333" s="3"/>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5">
       <c r="A334" s="3"/>
       <c r="B334" s="3"/>
       <c r="E334" s="3"/>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5">
       <c r="A335" s="3"/>
       <c r="B335" s="3"/>
       <c r="E335" s="3"/>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5">
       <c r="A336" s="3"/>
       <c r="B336" s="3"/>
       <c r="E336" s="3"/>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5">
       <c r="A337" s="3"/>
       <c r="B337" s="3"/>
       <c r="E337" s="3"/>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5">
       <c r="A338" s="3"/>
       <c r="B338" s="3"/>
       <c r="E338" s="3"/>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5">
       <c r="A339" s="3"/>
       <c r="B339" s="3"/>
       <c r="E339" s="3"/>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5">
       <c r="A340" s="3"/>
       <c r="B340" s="3"/>
       <c r="E340" s="3"/>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5">
       <c r="A341" s="3"/>
       <c r="B341" s="3"/>
       <c r="E341" s="3"/>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5">
       <c r="A342" s="3"/>
       <c r="B342" s="3"/>
       <c r="E342" s="3"/>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5">
       <c r="A343" s="3"/>
       <c r="B343" s="3"/>
       <c r="E343" s="3"/>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5">
       <c r="A344" s="3"/>
       <c r="B344" s="3"/>
       <c r="E344" s="3"/>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5">
       <c r="A345" s="3"/>
       <c r="B345" s="3"/>
       <c r="E345" s="3"/>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5">
       <c r="A346" s="3"/>
       <c r="B346" s="3"/>
       <c r="E346" s="3"/>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5">
       <c r="A347" s="3"/>
       <c r="B347" s="3"/>
       <c r="E347" s="3"/>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5">
       <c r="A348" s="3"/>
       <c r="B348" s="3"/>
       <c r="E348" s="3"/>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5">
       <c r="A349" s="3"/>
       <c r="B349" s="3"/>
       <c r="E349" s="3"/>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5">
       <c r="A350" s="3"/>
       <c r="B350" s="3"/>
       <c r="E350" s="3"/>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5">
       <c r="A351" s="3"/>
       <c r="B351" s="3"/>
       <c r="E351" s="3"/>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5">
       <c r="A352" s="3"/>
       <c r="B352" s="3"/>
       <c r="E352" s="3"/>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5">
       <c r="A353" s="3"/>
       <c r="B353" s="3"/>
       <c r="E353" s="3"/>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5">
       <c r="A354" s="3"/>
       <c r="B354" s="3"/>
       <c r="E354" s="3"/>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5">
       <c r="A355" s="3"/>
       <c r="B355" s="3"/>
       <c r="E355" s="3"/>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5">
       <c r="A356" s="3"/>
       <c r="B356" s="3"/>
       <c r="E356" s="3"/>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5">
       <c r="A357" s="3"/>
       <c r="B357" s="3"/>
       <c r="E357" s="3"/>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5">
       <c r="A358" s="3"/>
       <c r="B358" s="3"/>
       <c r="E358" s="3"/>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5">
       <c r="A359" s="3"/>
       <c r="B359" s="3"/>
       <c r="E359" s="3"/>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5">
       <c r="A360" s="3"/>
       <c r="B360" s="3"/>
       <c r="E360" s="3"/>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5">
       <c r="A361" s="3"/>
       <c r="B361" s="3"/>
       <c r="E361" s="3"/>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5">
       <c r="A362" s="3"/>
       <c r="B362" s="3"/>
       <c r="E362" s="3"/>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5">
       <c r="A363" s="3"/>
       <c r="B363" s="3"/>
       <c r="E363" s="3"/>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5">
       <c r="A364" s="3"/>
       <c r="B364" s="3"/>
       <c r="E364" s="3"/>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5">
       <c r="A365" s="3"/>
       <c r="B365" s="3"/>
       <c r="E365" s="3"/>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5">
       <c r="A366" s="3"/>
       <c r="B366" s="3"/>
       <c r="E366" s="3"/>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5">
       <c r="A367" s="3"/>
       <c r="B367" s="3"/>
       <c r="E367" s="3"/>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5">
       <c r="A368" s="3"/>
       <c r="B368" s="3"/>
       <c r="E368" s="3"/>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5">
       <c r="A369" s="3"/>
       <c r="B369" s="3"/>
       <c r="E369" s="3"/>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5">
       <c r="A370" s="3"/>
       <c r="B370" s="3"/>
       <c r="E370" s="3"/>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5">
       <c r="A371" s="3"/>
       <c r="B371" s="3"/>
       <c r="E371" s="3"/>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5">
       <c r="A372" s="3"/>
       <c r="B372" s="3"/>
       <c r="E372" s="3"/>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5">
       <c r="A373" s="3"/>
       <c r="B373" s="3"/>
       <c r="E373" s="3"/>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5">
       <c r="A374" s="3"/>
       <c r="B374" s="3"/>
       <c r="E374" s="3"/>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5">
       <c r="A375" s="3"/>
       <c r="B375" s="3"/>
       <c r="E375" s="3"/>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5">
       <c r="A376" s="3"/>
       <c r="B376" s="3"/>
       <c r="E376" s="3"/>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5">
       <c r="A377" s="3"/>
       <c r="B377" s="3"/>
       <c r="E377" s="3"/>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5">
       <c r="A378" s="3"/>
       <c r="B378" s="3"/>
       <c r="E378" s="3"/>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5">
       <c r="A379" s="3"/>
       <c r="B379" s="3"/>
       <c r="E379" s="3"/>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5">
       <c r="A380" s="3"/>
       <c r="B380" s="3"/>
       <c r="E380" s="3"/>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5">
       <c r="A381" s="3"/>
       <c r="B381" s="3"/>
       <c r="E381" s="3"/>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5">
       <c r="A382" s="3"/>
       <c r="B382" s="3"/>
       <c r="E382" s="3"/>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5">
       <c r="A383" s="3"/>
       <c r="B383" s="3"/>
       <c r="E383" s="3"/>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5">
       <c r="A384" s="3"/>
       <c r="B384" s="3"/>
       <c r="E384" s="3"/>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5">
       <c r="A385" s="3"/>
       <c r="B385" s="3"/>
       <c r="E385" s="3"/>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5">
       <c r="A386" s="3"/>
       <c r="B386" s="3"/>
       <c r="E386" s="3"/>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5">
       <c r="A387" s="3"/>
       <c r="B387" s="3"/>
       <c r="E387" s="3"/>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5">
       <c r="A388" s="3"/>
       <c r="B388" s="3"/>
       <c r="E388" s="3"/>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5">
       <c r="A389" s="3"/>
       <c r="B389" s="3"/>
       <c r="E389" s="3"/>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5">
       <c r="A390" s="3"/>
       <c r="B390" s="3"/>
       <c r="E390" s="3"/>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5">
       <c r="A391" s="3"/>
       <c r="B391" s="3"/>
       <c r="E391" s="3"/>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5">
       <c r="A392" s="3"/>
       <c r="B392" s="3"/>
       <c r="E392" s="3"/>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5">
       <c r="A393" s="3"/>
       <c r="B393" s="3"/>
       <c r="E393" s="3"/>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5">
       <c r="A394" s="3"/>
       <c r="B394" s="3"/>
       <c r="E394" s="3"/>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5">
       <c r="A395" s="3"/>
       <c r="B395" s="3"/>
       <c r="E395" s="3"/>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5">
       <c r="A396" s="3"/>
       <c r="B396" s="3"/>
       <c r="E396" s="3"/>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5">
       <c r="A397" s="3"/>
       <c r="B397" s="3"/>
       <c r="E397" s="3"/>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5">
       <c r="A398" s="3"/>
       <c r="B398" s="3"/>
       <c r="E398" s="3"/>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5">
       <c r="A399" s="3"/>
       <c r="B399" s="3"/>
       <c r="E399" s="3"/>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5">
       <c r="A400" s="3"/>
       <c r="B400" s="3"/>
       <c r="E400" s="3"/>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5">
       <c r="A401" s="3"/>
       <c r="B401" s="3"/>
       <c r="E401" s="3"/>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5">
       <c r="A402" s="3"/>
       <c r="B402" s="3"/>
       <c r="E402" s="3"/>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5">
       <c r="A403" s="3"/>
       <c r="B403" s="3"/>
       <c r="E403" s="3"/>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5">
       <c r="A404" s="3"/>
       <c r="B404" s="3"/>
       <c r="E404" s="3"/>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5">
       <c r="A405" s="3"/>
       <c r="B405" s="3"/>
       <c r="E405" s="3"/>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5">
       <c r="A406" s="3"/>
       <c r="B406" s="3"/>
       <c r="E406" s="3"/>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5">
       <c r="A407" s="3"/>
       <c r="B407" s="3"/>
       <c r="E407" s="3"/>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5">
       <c r="A408" s="3"/>
       <c r="B408" s="3"/>
       <c r="E408" s="3"/>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5">
       <c r="A409" s="3"/>
       <c r="B409" s="3"/>
       <c r="E409" s="3"/>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5">
       <c r="A410" s="3"/>
       <c r="B410" s="3"/>
       <c r="E410" s="3"/>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5">
       <c r="A411" s="3"/>
       <c r="B411" s="3"/>
       <c r="E411" s="3"/>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:5">
       <c r="A412" s="3"/>
       <c r="B412" s="3"/>
       <c r="E412" s="3"/>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5">
       <c r="A413" s="3"/>
       <c r="B413" s="3"/>
       <c r="E413" s="3"/>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5">
       <c r="A414" s="3"/>
       <c r="B414" s="3"/>
       <c r="E414" s="3"/>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5">
       <c r="A415" s="3"/>
       <c r="B415" s="3"/>
       <c r="E415" s="3"/>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5">
       <c r="A416" s="3"/>
       <c r="B416" s="3"/>
       <c r="E416" s="3"/>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5">
       <c r="A417" s="3"/>
       <c r="B417" s="3"/>
       <c r="E417" s="3"/>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:5">
       <c r="A418" s="3"/>
       <c r="B418" s="3"/>
       <c r="E418" s="3"/>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5">
       <c r="A419" s="3"/>
       <c r="B419" s="3"/>
       <c r="E419" s="3"/>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5">
       <c r="A420" s="3"/>
       <c r="B420" s="3"/>
       <c r="E420" s="3"/>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:5">
       <c r="A421" s="3"/>
       <c r="B421" s="3"/>
       <c r="E421" s="3"/>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:5">
       <c r="A422" s="3"/>
       <c r="B422" s="3"/>
       <c r="E422" s="3"/>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:5">
       <c r="A423" s="3"/>
       <c r="B423" s="3"/>
       <c r="E423" s="3"/>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:5">
       <c r="A424" s="3"/>
       <c r="B424" s="3"/>
       <c r="E424" s="3"/>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:5">
       <c r="A425" s="3"/>
       <c r="B425" s="3"/>
       <c r="E425" s="3"/>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:5">
       <c r="A426" s="3"/>
       <c r="B426" s="3"/>
       <c r="E426" s="3"/>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:5">
       <c r="A427" s="3"/>
       <c r="B427" s="3"/>
       <c r="E427" s="3"/>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:5">
       <c r="A428" s="3"/>
       <c r="B428" s="3"/>
       <c r="E428" s="3"/>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:5">
       <c r="A429" s="3"/>
       <c r="B429" s="3"/>
       <c r="E429" s="3"/>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:5">
       <c r="A430" s="3"/>
       <c r="B430" s="3"/>
       <c r="E430" s="3"/>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:5">
       <c r="A431" s="3"/>
       <c r="B431" s="3"/>
       <c r="E431" s="3"/>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:5">
       <c r="A432" s="3"/>
       <c r="B432" s="3"/>
       <c r="E432" s="3"/>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:5">
       <c r="A433" s="3"/>
       <c r="B433" s="3"/>
       <c r="E433" s="3"/>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5">
       <c r="A434" s="3"/>
       <c r="B434" s="3"/>
       <c r="E434" s="3"/>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5">
       <c r="A435" s="3"/>
       <c r="B435" s="3"/>
       <c r="E435" s="3"/>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:5">
       <c r="A436" s="3"/>
       <c r="B436" s="3"/>
       <c r="E436" s="3"/>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:5">
       <c r="A437" s="3"/>
       <c r="B437" s="3"/>
       <c r="E437" s="3"/>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:5">
       <c r="A438" s="3"/>
       <c r="B438" s="3"/>
       <c r="E438" s="3"/>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5">
       <c r="A439" s="3"/>
       <c r="B439" s="3"/>
       <c r="E439" s="3"/>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:5">
       <c r="A440" s="3"/>
       <c r="B440" s="3"/>
       <c r="E440" s="3"/>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:5">
       <c r="A441" s="3"/>
       <c r="B441" s="3"/>
       <c r="E441" s="3"/>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:5">
       <c r="A442" s="3"/>
       <c r="B442" s="3"/>
       <c r="E442" s="3"/>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:5">
       <c r="A443" s="3"/>
       <c r="B443" s="3"/>
       <c r="E443" s="3"/>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:5">
       <c r="A444" s="3"/>
       <c r="B444" s="3"/>
       <c r="E444" s="3"/>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:5">
       <c r="A445" s="3"/>
       <c r="B445" s="3"/>
       <c r="E445" s="3"/>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:5">
       <c r="A446" s="3"/>
       <c r="B446" s="3"/>
       <c r="E446" s="3"/>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:5">
       <c r="A447" s="3"/>
       <c r="B447" s="3"/>
       <c r="E447" s="3"/>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:5">
       <c r="A448" s="3"/>
       <c r="B448" s="3"/>
       <c r="E448" s="3"/>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:5">
       <c r="A449" s="3"/>
       <c r="B449" s="3"/>
       <c r="E449" s="3"/>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:5">
       <c r="A450" s="3"/>
       <c r="B450" s="3"/>
       <c r="E450" s="3"/>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:5">
       <c r="A451" s="3"/>
       <c r="B451" s="3"/>
       <c r="E451" s="3"/>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:5">
       <c r="A452" s="3"/>
       <c r="B452" s="3"/>
       <c r="E452" s="3"/>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:5">
       <c r="A453" s="3"/>
       <c r="B453" s="3"/>
       <c r="E453" s="3"/>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:5">
       <c r="A454" s="3"/>
       <c r="B454" s="3"/>
       <c r="E454" s="3"/>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:5">
       <c r="A455" s="3"/>
       <c r="B455" s="3"/>
       <c r="E455" s="3"/>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:5">
       <c r="A456" s="3"/>
       <c r="B456" s="3"/>
       <c r="E456" s="3"/>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:5">
       <c r="A457" s="3"/>
       <c r="B457" s="3"/>
       <c r="E457" s="3"/>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:5">
       <c r="A458" s="3"/>
       <c r="B458" s="3"/>
       <c r="E458" s="3"/>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:5">
       <c r="A459" s="3"/>
       <c r="B459" s="3"/>
       <c r="E459" s="3"/>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:5">
       <c r="A460" s="3"/>
       <c r="B460" s="3"/>
       <c r="E460" s="3"/>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:5">
       <c r="A461" s="3"/>
       <c r="B461" s="3"/>
       <c r="E461" s="3"/>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:5">
       <c r="A462" s="3"/>
       <c r="B462" s="3"/>
       <c r="E462" s="3"/>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:5">
       <c r="A463" s="3"/>
       <c r="B463" s="3"/>
       <c r="E463" s="3"/>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:5">
       <c r="A464" s="3"/>
       <c r="B464" s="3"/>
       <c r="E464" s="3"/>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:5">
       <c r="A465" s="3"/>
       <c r="B465" s="3"/>
       <c r="E465" s="3"/>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:5">
       <c r="A466" s="3"/>
       <c r="B466" s="3"/>
       <c r="E466" s="3"/>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:5">
       <c r="A467" s="3"/>
       <c r="B467" s="3"/>
       <c r="E467" s="3"/>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:5">
       <c r="A468" s="3"/>
       <c r="B468" s="3"/>
       <c r="E468" s="3"/>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:5">
       <c r="A469" s="3"/>
       <c r="B469" s="3"/>
       <c r="E469" s="3"/>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:5">
       <c r="A470" s="3"/>
       <c r="B470" s="3"/>
       <c r="E470" s="3"/>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:5">
       <c r="A471" s="3"/>
       <c r="B471" s="3"/>
       <c r="E471" s="3"/>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:5">
       <c r="A472" s="3"/>
       <c r="B472" s="3"/>
       <c r="E472" s="3"/>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:5">
       <c r="A473" s="3"/>
       <c r="B473" s="3"/>
       <c r="E473" s="3"/>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:5">
       <c r="A474" s="3"/>
       <c r="B474" s="3"/>
       <c r="E474" s="3"/>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:5">
       <c r="A475" s="3"/>
       <c r="B475" s="3"/>
       <c r="E475" s="3"/>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:5">
       <c r="A476" s="3"/>
       <c r="B476" s="3"/>
       <c r="E476" s="3"/>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:5">
       <c r="A477" s="3"/>
       <c r="B477" s="3"/>
       <c r="E477" s="3"/>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:5">
       <c r="A478" s="3"/>
       <c r="B478" s="3"/>
       <c r="E478" s="3"/>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:5">
       <c r="A479" s="3"/>
       <c r="B479" s="3"/>
       <c r="E479" s="3"/>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:5">
       <c r="A480" s="3"/>
       <c r="B480" s="3"/>
       <c r="E480" s="3"/>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:5">
       <c r="A481" s="3"/>
       <c r="B481" s="3"/>
       <c r="E481" s="3"/>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:5">
       <c r="A482" s="3"/>
       <c r="B482" s="3"/>
       <c r="E482" s="3"/>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:5">
       <c r="A483" s="3"/>
       <c r="B483" s="3"/>
       <c r="E483" s="3"/>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:5">
       <c r="A484" s="3"/>
       <c r="B484" s="3"/>
       <c r="E484" s="3"/>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:5">
       <c r="A485" s="3"/>
       <c r="B485" s="3"/>
       <c r="E485" s="3"/>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:5">
       <c r="A486" s="3"/>
       <c r="B486" s="3"/>
       <c r="E486" s="3"/>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:5">
       <c r="A487" s="3"/>
       <c r="B487" s="3"/>
       <c r="E487" s="3"/>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:5">
       <c r="A488" s="3"/>
       <c r="B488" s="3"/>
       <c r="E488" s="3"/>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:5">
       <c r="A489" s="3"/>
       <c r="B489" s="3"/>
       <c r="E489" s="3"/>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:5">
       <c r="A490" s="3"/>
       <c r="B490" s="3"/>
       <c r="E490" s="3"/>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:5">
       <c r="A491" s="3"/>
       <c r="B491" s="3"/>
       <c r="E491" s="3"/>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:5">
       <c r="A492" s="3"/>
       <c r="B492" s="3"/>
       <c r="E492" s="3"/>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:5">
       <c r="A493" s="3"/>
       <c r="B493" s="3"/>
       <c r="E493" s="3"/>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:5">
       <c r="A494" s="3"/>
       <c r="B494" s="3"/>
       <c r="E494" s="3"/>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:5">
       <c r="A495" s="3"/>
       <c r="B495" s="3"/>
       <c r="E495" s="3"/>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:5">
       <c r="A496" s="3"/>
       <c r="B496" s="3"/>
       <c r="E496" s="3"/>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:5">
       <c r="A497" s="3"/>
       <c r="B497" s="3"/>
       <c r="E497" s="3"/>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:5">
       <c r="A498" s="3"/>
       <c r="B498" s="3"/>
       <c r="E498" s="3"/>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:5">
       <c r="A499" s="3"/>
       <c r="B499" s="3"/>
       <c r="E499" s="3"/>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:5">
       <c r="A500" s="3"/>
       <c r="B500" s="3"/>
       <c r="E500" s="3"/>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:5">
       <c r="A501" s="3"/>
       <c r="B501" s="3"/>
       <c r="E501" s="3"/>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:5">
       <c r="A502" s="3"/>
       <c r="B502" s="3"/>
       <c r="E502" s="3"/>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:5">
       <c r="A503" s="3"/>
       <c r="B503" s="3"/>
       <c r="E503" s="3"/>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:5">
       <c r="A504" s="3"/>
       <c r="B504" s="3"/>
       <c r="E504" s="3"/>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:5">
       <c r="A505" s="3"/>
       <c r="B505" s="3"/>
       <c r="E505" s="3"/>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:5">
       <c r="A506" s="3"/>
       <c r="B506" s="3"/>
       <c r="E506" s="3"/>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:5">
       <c r="A507" s="3"/>
       <c r="B507" s="3"/>
       <c r="E507" s="3"/>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:5">
       <c r="A508" s="3"/>
       <c r="B508" s="3"/>
       <c r="E508" s="3"/>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:5">
       <c r="A509" s="3"/>
       <c r="B509" s="3"/>
       <c r="E509" s="3"/>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:5">
       <c r="A510" s="3"/>
       <c r="B510" s="3"/>
       <c r="E510" s="3"/>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:5">
       <c r="A511" s="3"/>
       <c r="B511" s="3"/>
       <c r="E511" s="3"/>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:5">
       <c r="A512" s="3"/>
       <c r="B512" s="3"/>
       <c r="E512" s="3"/>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:5">
       <c r="A513" s="3"/>
       <c r="B513" s="3"/>
       <c r="E513" s="3"/>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:5">
       <c r="A514" s="3"/>
       <c r="B514" s="3"/>
       <c r="E514" s="3"/>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:5">
       <c r="A515" s="3"/>
       <c r="B515" s="3"/>
       <c r="E515" s="3"/>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:5">
       <c r="A516" s="3"/>
       <c r="B516" s="3"/>
       <c r="E516" s="3"/>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:5">
       <c r="A517" s="3"/>
       <c r="B517" s="3"/>
       <c r="E517" s="3"/>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:5">
       <c r="A518" s="3"/>
       <c r="B518" s="3"/>
       <c r="E518" s="3"/>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:5">
       <c r="A519" s="3"/>
       <c r="B519" s="3"/>
       <c r="E519" s="3"/>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:5">
       <c r="A520" s="3"/>
       <c r="B520" s="3"/>
       <c r="E520" s="3"/>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:5">
       <c r="A521" s="3"/>
       <c r="B521" s="3"/>
       <c r="E521" s="3"/>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:5">
       <c r="A522" s="3"/>
       <c r="B522" s="3"/>
       <c r="E522" s="3"/>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:5">
       <c r="A523" s="3"/>
       <c r="B523" s="3"/>
       <c r="E523" s="3"/>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:5">
       <c r="A524" s="3"/>
       <c r="B524" s="3"/>
       <c r="E524" s="3"/>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:5">
       <c r="A525" s="3"/>
       <c r="B525" s="3"/>
       <c r="E525" s="3"/>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:5">
       <c r="A526" s="3"/>
       <c r="B526" s="3"/>
       <c r="E526" s="3"/>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:5">
       <c r="A527" s="3"/>
       <c r="B527" s="3"/>
       <c r="E527" s="3"/>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:5">
       <c r="A528" s="3"/>
       <c r="B528" s="3"/>
       <c r="E528" s="3"/>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:5">
       <c r="A529" s="3"/>
       <c r="B529" s="3"/>
       <c r="E529" s="3"/>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:5">
       <c r="A530" s="3"/>
       <c r="B530" s="3"/>
       <c r="E530" s="3"/>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:5">
       <c r="A531" s="3"/>
       <c r="B531" s="3"/>
       <c r="E531" s="3"/>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:5">
       <c r="A532" s="3"/>
       <c r="B532" s="3"/>
       <c r="E532" s="3"/>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:5">
       <c r="A533" s="3"/>
       <c r="B533" s="3"/>
       <c r="E533" s="3"/>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:5">
       <c r="A534" s="3"/>
       <c r="B534" s="3"/>
       <c r="E534" s="3"/>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:5">
       <c r="A535" s="3"/>
       <c r="B535" s="3"/>
       <c r="E535" s="3"/>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:5">
       <c r="A536" s="3"/>
       <c r="B536" s="3"/>
       <c r="E536" s="3"/>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:5">
       <c r="A537" s="3"/>
       <c r="B537" s="3"/>
       <c r="E537" s="3"/>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:5">
       <c r="A538" s="3"/>
       <c r="B538" s="3"/>
       <c r="E538" s="3"/>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:5">
       <c r="A539" s="3"/>
       <c r="B539" s="3"/>
       <c r="E539" s="3"/>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:5">
       <c r="A540" s="3"/>
       <c r="B540" s="3"/>
       <c r="E540" s="3"/>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:5">
       <c r="A541" s="3"/>
       <c r="B541" s="3"/>
       <c r="E541" s="3"/>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:5">
       <c r="A542" s="3"/>
       <c r="B542" s="3"/>
       <c r="E542" s="3"/>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:5">
       <c r="A543" s="3"/>
       <c r="B543" s="3"/>
       <c r="E543" s="3"/>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:5">
       <c r="A544" s="3"/>
       <c r="B544" s="3"/>
       <c r="E544" s="3"/>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:5">
       <c r="A545" s="3"/>
       <c r="B545" s="3"/>
       <c r="E545" s="3"/>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:5">
       <c r="A546" s="3"/>
       <c r="B546" s="3"/>
       <c r="E546" s="3"/>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:5">
       <c r="A547" s="3"/>
       <c r="B547" s="3"/>
       <c r="E547" s="3"/>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:5">
       <c r="A548" s="3"/>
       <c r="B548" s="3"/>
       <c r="E548" s="3"/>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:5">
       <c r="A549" s="3"/>
       <c r="B549" s="3"/>
       <c r="E549" s="3"/>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:5">
       <c r="A550" s="3"/>
       <c r="B550" s="3"/>
       <c r="E550" s="3"/>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:5">
       <c r="A551" s="3"/>
       <c r="B551" s="3"/>
       <c r="E551" s="3"/>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:5">
       <c r="A552" s="3"/>
       <c r="B552" s="3"/>
       <c r="E552" s="3"/>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:5">
       <c r="A553" s="3"/>
       <c r="B553" s="3"/>
       <c r="E553" s="3"/>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:5">
       <c r="A554" s="3"/>
       <c r="B554" s="3"/>
       <c r="E554" s="3"/>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:5">
       <c r="A555" s="3"/>
       <c r="B555" s="3"/>
       <c r="E555" s="3"/>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:5">
       <c r="A556" s="3"/>
       <c r="B556" s="3"/>
       <c r="E556" s="3"/>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:5">
       <c r="A557" s="3"/>
       <c r="B557" s="3"/>
       <c r="E557" s="3"/>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:5">
       <c r="A558" s="3"/>
       <c r="B558" s="3"/>
       <c r="E558" s="3"/>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:5">
       <c r="A559" s="3"/>
       <c r="B559" s="3"/>
       <c r="E559" s="3"/>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:5">
       <c r="A560" s="3"/>
       <c r="B560" s="3"/>
       <c r="E560" s="3"/>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:5">
       <c r="A561" s="3"/>
       <c r="B561" s="3"/>
       <c r="E561" s="3"/>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:5">
       <c r="A562" s="3"/>
       <c r="B562" s="3"/>
       <c r="E562" s="3"/>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:5">
       <c r="A563" s="3"/>
       <c r="B563" s="3"/>
       <c r="E563" s="3"/>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:5">
       <c r="A564" s="3"/>
       <c r="B564" s="3"/>
       <c r="E564" s="3"/>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:5">
       <c r="A565" s="3"/>
       <c r="B565" s="3"/>
       <c r="E565" s="3"/>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:5">
       <c r="A566" s="3"/>
       <c r="B566" s="3"/>
       <c r="E566" s="3"/>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:5">
       <c r="A567" s="3"/>
       <c r="B567" s="3"/>
       <c r="E567" s="3"/>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:5">
       <c r="A568" s="3"/>
       <c r="B568" s="3"/>
       <c r="E568" s="3"/>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:5">
       <c r="A569" s="3"/>
       <c r="B569" s="3"/>
       <c r="E569" s="3"/>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:5">
       <c r="A570" s="3"/>
       <c r="B570" s="3"/>
       <c r="E570" s="3"/>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:5">
       <c r="A571" s="3"/>
       <c r="B571" s="3"/>
       <c r="E571" s="3"/>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:5">
       <c r="A572" s="3"/>
       <c r="B572" s="3"/>
       <c r="E572" s="3"/>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:5">
       <c r="A573" s="3"/>
       <c r="B573" s="3"/>
       <c r="E573" s="3"/>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:5">
       <c r="A574" s="3"/>
       <c r="B574" s="3"/>
       <c r="E574" s="3"/>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:5">
       <c r="A575" s="3"/>
       <c r="B575" s="3"/>
       <c r="E575" s="3"/>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:5">
       <c r="A576" s="3"/>
       <c r="B576" s="3"/>
       <c r="E576" s="3"/>
     </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:5">
       <c r="A577" s="3"/>
       <c r="B577" s="3"/>
       <c r="E577" s="3"/>
     </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:5">
       <c r="A578" s="3"/>
       <c r="B578" s="3"/>
       <c r="E578" s="3"/>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:5">
       <c r="A579" s="3"/>
       <c r="B579" s="3"/>
       <c r="E579" s="3"/>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:5">
       <c r="A580" s="3"/>
       <c r="B580" s="3"/>
       <c r="E580" s="3"/>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:5">
       <c r="A581" s="3"/>
       <c r="B581" s="3"/>
       <c r="E581" s="3"/>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:5">
       <c r="A582" s="3"/>
       <c r="B582" s="3"/>
       <c r="E582" s="3"/>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:5">
       <c r="A583" s="3"/>
       <c r="B583" s="3"/>
       <c r="E583" s="3"/>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:5">
       <c r="A584" s="3"/>
       <c r="B584" s="3"/>
       <c r="E584" s="3"/>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:5">
       <c r="A585" s="3"/>
       <c r="B585" s="3"/>
       <c r="E585" s="3"/>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:5">
       <c r="A586" s="3"/>
       <c r="B586" s="3"/>
       <c r="E586" s="3"/>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:5">
       <c r="A587" s="3"/>
       <c r="B587" s="3"/>
       <c r="E587" s="3"/>
     </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:5">
       <c r="A588" s="3"/>
       <c r="B588" s="3"/>
       <c r="E588" s="3"/>
     </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:5">
       <c r="A589" s="3"/>
       <c r="B589" s="3"/>
       <c r="E589" s="3"/>
     </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:5">
       <c r="A590" s="3"/>
       <c r="B590" s="3"/>
       <c r="E590" s="3"/>
     </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:5">
       <c r="A591" s="3"/>
       <c r="B591" s="3"/>
       <c r="E591" s="3"/>
     </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:5">
       <c r="A592" s="3"/>
       <c r="B592" s="3"/>
       <c r="E592" s="3"/>
     </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:5">
       <c r="A593" s="3"/>
       <c r="B593" s="3"/>
       <c r="E593" s="3"/>
     </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:5">
       <c r="A594" s="3"/>
       <c r="B594" s="3"/>
       <c r="E594" s="3"/>
     </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:5">
       <c r="A595" s="3"/>
       <c r="B595" s="3"/>
       <c r="E595" s="3"/>
     </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:5">
       <c r="A596" s="3"/>
       <c r="B596" s="3"/>
       <c r="E596" s="3"/>
     </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:5">
       <c r="A597" s="3"/>
       <c r="B597" s="3"/>
       <c r="E597" s="3"/>
     </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:5">
       <c r="A598" s="3"/>
       <c r="B598" s="3"/>
       <c r="E598" s="3"/>
     </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:5">
       <c r="A599" s="3"/>
       <c r="B599" s="3"/>
       <c r="E599" s="3"/>
     </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:5">
       <c r="A600" s="3"/>
       <c r="B600" s="3"/>
       <c r="E600" s="3"/>
     </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:5">
       <c r="A601" s="3"/>
       <c r="B601" s="3"/>
       <c r="E601" s="3"/>
     </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:5">
       <c r="A602" s="3"/>
       <c r="B602" s="3"/>
       <c r="E602" s="3"/>
     </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:5">
       <c r="A603" s="3"/>
       <c r="B603" s="3"/>
       <c r="E603" s="3"/>
     </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:5">
       <c r="A604" s="3"/>
       <c r="B604" s="3"/>
       <c r="E604" s="3"/>
     </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:5">
       <c r="A605" s="3"/>
       <c r="B605" s="3"/>
       <c r="E605" s="3"/>
     </row>
-    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:5">
       <c r="A606" s="3"/>
       <c r="B606" s="3"/>
       <c r="E606" s="3"/>
     </row>
-    <row r="607" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:5">
       <c r="A607" s="3"/>
       <c r="B607" s="3"/>
       <c r="E607" s="3"/>
     </row>
-    <row r="608" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:5">
       <c r="A608" s="3"/>
       <c r="B608" s="3"/>
       <c r="E608" s="3"/>
     </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:5">
       <c r="A609" s="3"/>
       <c r="B609" s="3"/>
       <c r="E609" s="3"/>
     </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:5">
       <c r="A610" s="3"/>
       <c r="B610" s="3"/>
       <c r="E610" s="3"/>
     </row>
-    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:5">
       <c r="A611" s="3"/>
       <c r="B611" s="3"/>
       <c r="E611" s="3"/>
     </row>
-    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:5">
       <c r="A612" s="3"/>
       <c r="B612" s="3"/>
       <c r="E612" s="3"/>
     </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:5">
       <c r="A613" s="3"/>
       <c r="B613" s="3"/>
       <c r="E613" s="3"/>
     </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:5">
       <c r="A614" s="3"/>
       <c r="B614" s="3"/>
       <c r="E614" s="3"/>
     </row>
-    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:5">
       <c r="A615" s="3"/>
       <c r="B615" s="3"/>
       <c r="E615" s="3"/>
     </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:5">
       <c r="A616" s="3"/>
       <c r="B616" s="3"/>
       <c r="E616" s="3"/>
     </row>
-    <row r="617" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:5">
       <c r="A617" s="3"/>
       <c r="B617" s="3"/>
       <c r="E617" s="3"/>
     </row>
-    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:5">
       <c r="A618" s="3"/>
       <c r="B618" s="3"/>
       <c r="E618" s="3"/>
     </row>
-    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:5">
       <c r="A619" s="3"/>
       <c r="B619" s="3"/>
       <c r="E619" s="3"/>
     </row>
-    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:5">
       <c r="A620" s="3"/>
       <c r="B620" s="3"/>
       <c r="E620" s="3"/>
     </row>
-    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:5">
       <c r="A621" s="3"/>
       <c r="B621" s="3"/>
       <c r="E621" s="3"/>
     </row>
-    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:5">
       <c r="A622" s="3"/>
       <c r="B622" s="3"/>
       <c r="E622" s="3"/>
     </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:5">
       <c r="A623" s="3"/>
       <c r="B623" s="3"/>
       <c r="E623" s="3"/>
     </row>
-    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:5">
       <c r="A624" s="3"/>
       <c r="B624" s="3"/>
       <c r="E624" s="3"/>
     </row>
-    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:5">
       <c r="A625" s="3"/>
       <c r="B625" s="3"/>
       <c r="E625" s="3"/>
     </row>
-    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:5">
       <c r="A626" s="3"/>
       <c r="B626" s="3"/>
       <c r="E626" s="3"/>
     </row>
-    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:5">
       <c r="A627" s="3"/>
       <c r="B627" s="3"/>
       <c r="E627" s="3"/>
     </row>
-    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:5">
       <c r="A628" s="3"/>
       <c r="B628" s="3"/>
       <c r="E628" s="3"/>
     </row>
-    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:5">
       <c r="A629" s="3"/>
       <c r="B629" s="3"/>
       <c r="E629" s="3"/>
     </row>
-    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:5">
       <c r="A630" s="3"/>
       <c r="B630" s="3"/>
       <c r="E630" s="3"/>
     </row>
-    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:5">
       <c r="A631" s="3"/>
       <c r="B631" s="3"/>
       <c r="E631" s="3"/>
     </row>
-    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:5">
       <c r="A632" s="3"/>
       <c r="B632" s="3"/>
       <c r="E632" s="3"/>
     </row>
-    <row r="633" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:5">
       <c r="A633" s="3"/>
       <c r="B633" s="3"/>
       <c r="E633" s="3"/>
     </row>
-    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:5">
       <c r="A634" s="3"/>
       <c r="B634" s="3"/>
       <c r="E634" s="3"/>
     </row>
-    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:5">
       <c r="A635" s="3"/>
       <c r="B635" s="3"/>
       <c r="E635" s="3"/>
     </row>
-    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:5">
       <c r="A636" s="3"/>
       <c r="B636" s="3"/>
       <c r="E636" s="3"/>
     </row>
-    <row r="637" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:5">
       <c r="A637" s="3"/>
       <c r="B637" s="3"/>
       <c r="E637" s="3"/>
     </row>
-    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:5">
       <c r="A638" s="3"/>
       <c r="B638" s="3"/>
       <c r="E638" s="3"/>
     </row>
-    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:5">
       <c r="A639" s="3"/>
       <c r="B639" s="3"/>
       <c r="E639" s="3"/>
     </row>
-    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:5">
       <c r="A640" s="3"/>
       <c r="B640" s="3"/>
       <c r="E640" s="3"/>
     </row>
-    <row r="641" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:5">
       <c r="A641" s="3"/>
       <c r="B641" s="3"/>
       <c r="E641" s="3"/>
     </row>
-    <row r="642" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:5">
       <c r="A642" s="3"/>
       <c r="B642" s="3"/>
       <c r="E642" s="3"/>
     </row>
-    <row r="643" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:5">
       <c r="A643" s="3"/>
       <c r="B643" s="3"/>
       <c r="E643" s="3"/>
     </row>
-    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:5">
       <c r="A644" s="3"/>
       <c r="B644" s="3"/>
       <c r="E644" s="3"/>
     </row>
-    <row r="645" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:5">
       <c r="A645" s="3"/>
       <c r="B645" s="3"/>
       <c r="E645" s="3"/>
     </row>
-    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:5">
       <c r="A646" s="3"/>
       <c r="B646" s="3"/>
       <c r="E646" s="3"/>
     </row>
-    <row r="647" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:5">
       <c r="A647" s="3"/>
       <c r="B647" s="3"/>
       <c r="E647" s="3"/>
     </row>
-    <row r="648" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:5">
       <c r="A648" s="3"/>
       <c r="B648" s="3"/>
       <c r="E648" s="3"/>
     </row>
-    <row r="649" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:5">
       <c r="A649" s="3"/>
       <c r="B649" s="3"/>
       <c r="E649" s="3"/>
     </row>
-    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:5">
       <c r="A650" s="3"/>
       <c r="B650" s="3"/>
       <c r="E650" s="3"/>
     </row>
-    <row r="651" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:5">
       <c r="A651" s="3"/>
       <c r="B651" s="3"/>
       <c r="E651" s="3"/>
     </row>
-    <row r="652" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:5">
       <c r="A652" s="3"/>
       <c r="B652" s="3"/>
       <c r="E652" s="3"/>
     </row>
-    <row r="653" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:5">
       <c r="A653" s="3"/>
       <c r="B653" s="3"/>
       <c r="E653" s="3"/>
     </row>
-    <row r="654" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:5">
       <c r="A654" s="3"/>
       <c r="B654" s="3"/>
       <c r="E654" s="3"/>
     </row>
-    <row r="655" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:5">
       <c r="A655" s="3"/>
       <c r="B655" s="3"/>
       <c r="E655" s="3"/>
     </row>
-    <row r="656" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:5">
       <c r="A656" s="3"/>
       <c r="B656" s="3"/>
       <c r="E656" s="3"/>
     </row>
-    <row r="657" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:5">
       <c r="A657" s="3"/>
       <c r="B657" s="3"/>
       <c r="E657" s="3"/>
     </row>
-    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:5">
       <c r="A658" s="3"/>
       <c r="B658" s="3"/>
       <c r="E658" s="3"/>
     </row>
-    <row r="659" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:5">
       <c r="A659" s="3"/>
       <c r="B659" s="3"/>
       <c r="E659" s="3"/>
     </row>
-    <row r="660" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:5">
       <c r="A660" s="3"/>
       <c r="B660" s="3"/>
       <c r="E660" s="3"/>
     </row>
-    <row r="661" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:5">
       <c r="A661" s="3"/>
       <c r="B661" s="3"/>
       <c r="E661" s="3"/>
     </row>
-    <row r="662" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:5">
       <c r="A662" s="3"/>
       <c r="B662" s="3"/>
       <c r="E662" s="3"/>
     </row>
-    <row r="663" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:5">
       <c r="A663" s="3"/>
       <c r="B663" s="3"/>
       <c r="E663" s="3"/>
     </row>
-    <row r="664" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:5">
       <c r="A664" s="3"/>
       <c r="B664" s="3"/>
       <c r="E664" s="3"/>
     </row>
-    <row r="665" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:5">
       <c r="A665" s="3"/>
       <c r="B665" s="3"/>
       <c r="E665" s="3"/>
     </row>
-    <row r="666" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:5">
       <c r="A666" s="3"/>
       <c r="B666" s="3"/>
       <c r="E666" s="3"/>
     </row>
-    <row r="667" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:5">
       <c r="A667" s="3"/>
       <c r="B667" s="3"/>
       <c r="E667" s="3"/>
     </row>
-    <row r="668" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:5">
       <c r="A668" s="3"/>
       <c r="B668" s="3"/>
       <c r="E668" s="3"/>
     </row>
-    <row r="669" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:5">
       <c r="A669" s="3"/>
       <c r="B669" s="3"/>
       <c r="E669" s="3"/>
     </row>
-    <row r="670" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:5">
       <c r="A670" s="3"/>
       <c r="B670" s="3"/>
       <c r="E670" s="3"/>
     </row>
-    <row r="671" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:5">
       <c r="A671" s="3"/>
       <c r="B671" s="3"/>
       <c r="E671" s="3"/>
     </row>
-    <row r="672" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:5">
       <c r="A672" s="3"/>
       <c r="B672" s="3"/>
       <c r="E672" s="3"/>
     </row>
-    <row r="673" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:5">
       <c r="A673" s="3"/>
       <c r="B673" s="3"/>
       <c r="E673" s="3"/>
     </row>
-    <row r="674" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:5">
       <c r="A674" s="3"/>
       <c r="B674" s="3"/>
       <c r="E674" s="3"/>
     </row>
-    <row r="675" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:5">
       <c r="A675" s="3"/>
       <c r="B675" s="3"/>
       <c r="E675" s="3"/>
     </row>
-    <row r="676" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:5">
       <c r="A676" s="3"/>
       <c r="B676" s="3"/>
       <c r="E676" s="3"/>
     </row>
-    <row r="677" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:5">
       <c r="A677" s="3"/>
       <c r="B677" s="3"/>
       <c r="E677" s="3"/>
     </row>
-    <row r="678" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:5">
       <c r="A678" s="3"/>
       <c r="B678" s="3"/>
       <c r="E678" s="3"/>
     </row>
-    <row r="679" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:5">
       <c r="A679" s="3"/>
       <c r="B679" s="3"/>
       <c r="E679" s="3"/>
     </row>
-    <row r="680" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:5">
       <c r="A680" s="3"/>
       <c r="B680" s="3"/>
       <c r="E680" s="3"/>
     </row>
-    <row r="681" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:5">
       <c r="A681" s="3"/>
       <c r="B681" s="3"/>
       <c r="E681" s="3"/>
     </row>
-    <row r="682" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:5">
       <c r="A682" s="3"/>
       <c r="B682" s="3"/>
       <c r="E682" s="3"/>
     </row>
-    <row r="683" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:5">
       <c r="A683" s="3"/>
       <c r="B683" s="3"/>
       <c r="E683" s="3"/>
     </row>
-    <row r="684" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:5">
       <c r="A684" s="3"/>
       <c r="B684" s="3"/>
       <c r="E684" s="3"/>
     </row>
-    <row r="685" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:5">
       <c r="A685" s="3"/>
       <c r="B685" s="3"/>
       <c r="E685" s="3"/>
     </row>
-    <row r="686" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:5">
       <c r="A686" s="3"/>
       <c r="B686" s="3"/>
       <c r="E686" s="3"/>
     </row>
-    <row r="687" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:5">
       <c r="A687" s="3"/>
       <c r="B687" s="3"/>
       <c r="E687" s="3"/>
     </row>
-    <row r="688" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:5">
       <c r="A688" s="3"/>
       <c r="B688" s="3"/>
       <c r="E688" s="3"/>
     </row>
-    <row r="689" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:5">
       <c r="A689" s="3"/>
       <c r="B689" s="3"/>
       <c r="E689" s="3"/>
     </row>
-    <row r="690" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:5">
       <c r="A690" s="3"/>
       <c r="B690" s="3"/>
       <c r="E690" s="3"/>
     </row>
-    <row r="691" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:5">
       <c r="A691" s="3"/>
       <c r="B691" s="3"/>
       <c r="E691" s="3"/>
     </row>
-    <row r="692" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:5">
       <c r="A692" s="3"/>
       <c r="B692" s="3"/>
       <c r="E692" s="3"/>
     </row>
-    <row r="693" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:5">
       <c r="A693" s="3"/>
       <c r="B693" s="3"/>
       <c r="E693" s="3"/>
     </row>
-    <row r="694" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:5">
       <c r="A694" s="3"/>
       <c r="B694" s="3"/>
       <c r="E694" s="3"/>
     </row>
-    <row r="695" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:5">
       <c r="A695" s="3"/>
       <c r="B695" s="3"/>
       <c r="E695" s="3"/>
     </row>
-    <row r="696" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:5">
       <c r="A696" s="3"/>
       <c r="B696" s="3"/>
       <c r="E696" s="3"/>
     </row>
-    <row r="697" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:5">
       <c r="A697" s="3"/>
       <c r="B697" s="3"/>
       <c r="E697" s="3"/>
     </row>
-    <row r="698" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:5">
       <c r="A698" s="3"/>
       <c r="B698" s="3"/>
       <c r="E698" s="3"/>
     </row>
-    <row r="699" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:5">
       <c r="A699" s="3"/>
       <c r="B699" s="3"/>
       <c r="E699" s="3"/>
     </row>
-    <row r="700" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:5">
       <c r="A700" s="3"/>
       <c r="B700" s="3"/>
       <c r="E700" s="3"/>
     </row>
-    <row r="701" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:5">
       <c r="A701" s="3"/>
       <c r="B701" s="3"/>
       <c r="E701" s="3"/>
     </row>
-    <row r="702" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:5">
       <c r="A702" s="3"/>
       <c r="B702" s="3"/>
       <c r="E702" s="3"/>
     </row>
-    <row r="703" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:5">
       <c r="A703" s="3"/>
       <c r="B703" s="3"/>
       <c r="E703" s="3"/>
     </row>
-    <row r="704" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:5">
       <c r="A704" s="3"/>
       <c r="B704" s="3"/>
       <c r="E704" s="3"/>
     </row>
-    <row r="705" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:5">
       <c r="A705" s="3"/>
       <c r="B705" s="3"/>
       <c r="E705" s="3"/>
     </row>
-    <row r="706" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:5">
       <c r="A706" s="3"/>
       <c r="B706" s="3"/>
       <c r="E706" s="3"/>
     </row>
-    <row r="707" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:5">
       <c r="A707" s="3"/>
       <c r="B707" s="3"/>
       <c r="E707" s="3"/>
     </row>
-    <row r="708" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:5">
       <c r="A708" s="3"/>
       <c r="B708" s="3"/>
       <c r="E708" s="3"/>
     </row>
-    <row r="709" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:5">
       <c r="A709" s="3"/>
       <c r="B709" s="3"/>
       <c r="E709" s="3"/>
     </row>
-    <row r="710" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:5">
       <c r="A710" s="3"/>
       <c r="B710" s="3"/>
       <c r="E710" s="3"/>
     </row>
-    <row r="711" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:5">
       <c r="A711" s="3"/>
       <c r="B711" s="3"/>
       <c r="E711" s="3"/>
     </row>
-    <row r="712" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:5">
       <c r="A712" s="3"/>
       <c r="B712" s="3"/>
       <c r="E712" s="3"/>
     </row>
-    <row r="713" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:5">
       <c r="A713" s="3"/>
       <c r="B713" s="3"/>
       <c r="E713" s="3"/>
     </row>
-    <row r="714" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:5">
       <c r="A714" s="3"/>
       <c r="B714" s="3"/>
       <c r="E714" s="3"/>
     </row>
-    <row r="715" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:5">
       <c r="A715" s="3"/>
       <c r="B715" s="3"/>
       <c r="E715" s="3"/>
     </row>
-    <row r="716" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:5">
       <c r="A716" s="3"/>
       <c r="B716" s="3"/>
       <c r="E716" s="3"/>
     </row>
-    <row r="717" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:5">
       <c r="A717" s="3"/>
       <c r="B717" s="3"/>
       <c r="E717" s="3"/>
     </row>
-    <row r="718" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:5">
       <c r="A718" s="3"/>
       <c r="B718" s="3"/>
       <c r="E718" s="3"/>
     </row>
-    <row r="719" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:5">
       <c r="A719" s="3"/>
       <c r="B719" s="3"/>
       <c r="E719" s="3"/>
     </row>
-    <row r="720" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:5">
       <c r="A720" s="3"/>
       <c r="B720" s="3"/>
       <c r="E720" s="3"/>
     </row>
-    <row r="721" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:5">
       <c r="A721" s="3"/>
       <c r="B721" s="3"/>
       <c r="E721" s="3"/>
     </row>
-    <row r="722" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:5">
       <c r="A722" s="3"/>
       <c r="B722" s="3"/>
       <c r="E722" s="3"/>
     </row>
-    <row r="723" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:5">
       <c r="A723" s="3"/>
       <c r="B723" s="3"/>
       <c r="E723" s="3"/>
     </row>
-    <row r="724" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:5">
       <c r="A724" s="3"/>
       <c r="B724" s="3"/>
       <c r="E724" s="3"/>
     </row>
-    <row r="725" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:5">
       <c r="A725" s="3"/>
       <c r="B725" s="3"/>
       <c r="E725" s="3"/>
     </row>
-    <row r="726" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:5">
       <c r="A726" s="3"/>
       <c r="B726" s="3"/>
       <c r="E726" s="3"/>
     </row>
-    <row r="727" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:5">
       <c r="A727" s="3"/>
       <c r="B727" s="3"/>
       <c r="E727" s="3"/>
     </row>
-    <row r="728" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:5">
       <c r="A728" s="3"/>
       <c r="B728" s="3"/>
       <c r="E728" s="3"/>
     </row>
-    <row r="729" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:5">
       <c r="A729" s="3"/>
       <c r="B729" s="3"/>
       <c r="E729" s="3"/>
     </row>
-    <row r="730" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:5">
       <c r="A730" s="3"/>
       <c r="B730" s="3"/>
       <c r="E730" s="3"/>
     </row>
-    <row r="731" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:5">
       <c r="A731" s="3"/>
       <c r="B731" s="3"/>
       <c r="E731" s="3"/>
     </row>
-    <row r="732" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:5">
       <c r="A732" s="3"/>
       <c r="B732" s="3"/>
       <c r="E732" s="3"/>
     </row>
-    <row r="733" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:5">
       <c r="A733" s="3"/>
       <c r="B733" s="3"/>
       <c r="E733" s="3"/>
     </row>
-    <row r="734" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:5">
       <c r="A734" s="3"/>
       <c r="B734" s="3"/>
       <c r="E734" s="3"/>
     </row>
-    <row r="735" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:5">
       <c r="A735" s="3"/>
       <c r="B735" s="3"/>
       <c r="E735" s="3"/>
     </row>
-    <row r="736" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:5">
       <c r="A736" s="3"/>
       <c r="B736" s="3"/>
       <c r="E736" s="3"/>
     </row>
-    <row r="737" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:5">
       <c r="A737" s="3"/>
       <c r="B737" s="3"/>
       <c r="E737" s="3"/>
     </row>
-    <row r="738" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:5">
       <c r="A738" s="3"/>
       <c r="B738" s="3"/>
       <c r="E738" s="3"/>
     </row>
-    <row r="739" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:5">
       <c r="A739" s="3"/>
       <c r="B739" s="3"/>
       <c r="E739" s="3"/>
     </row>
-    <row r="740" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:5">
       <c r="A740" s="3"/>
       <c r="B740" s="3"/>
       <c r="E740" s="3"/>
     </row>
-    <row r="741" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:5">
       <c r="A741" s="3"/>
       <c r="B741" s="3"/>
       <c r="E741" s="3"/>
     </row>
-    <row r="742" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:5">
       <c r="A742" s="3"/>
       <c r="B742" s="3"/>
       <c r="E742" s="3"/>
     </row>
-    <row r="743" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:5">
       <c r="A743" s="3"/>
       <c r="B743" s="3"/>
       <c r="E743" s="3"/>
     </row>
-    <row r="744" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:5">
       <c r="A744" s="3"/>
       <c r="B744" s="3"/>
       <c r="E744" s="3"/>
     </row>
-    <row r="745" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:5">
       <c r="A745" s="3"/>
       <c r="B745" s="3"/>
       <c r="E745" s="3"/>
     </row>
-    <row r="746" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:5">
       <c r="A746" s="3"/>
       <c r="B746" s="3"/>
       <c r="E746" s="3"/>
     </row>
-    <row r="747" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:5">
       <c r="A747" s="3"/>
       <c r="B747" s="3"/>
       <c r="E747" s="3"/>
     </row>
-    <row r="748" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:5">
       <c r="A748" s="3"/>
       <c r="B748" s="3"/>
       <c r="E748" s="3"/>
     </row>
-    <row r="749" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:5">
       <c r="A749" s="3"/>
       <c r="B749" s="3"/>
       <c r="E749" s="3"/>
     </row>
-    <row r="750" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:5">
       <c r="A750" s="3"/>
       <c r="B750" s="3"/>
       <c r="E750" s="3"/>
     </row>
-    <row r="751" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:5">
       <c r="A751" s="3"/>
       <c r="B751" s="3"/>
       <c r="E751" s="3"/>
     </row>
-    <row r="752" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:5">
       <c r="A752" s="3"/>
       <c r="B752" s="3"/>
       <c r="E752" s="3"/>
     </row>
-    <row r="753" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:5">
       <c r="A753" s="3"/>
       <c r="B753" s="3"/>
       <c r="E753" s="3"/>
     </row>
-    <row r="754" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:5">
       <c r="A754" s="3"/>
       <c r="B754" s="3"/>
       <c r="E754" s="3"/>
     </row>
-    <row r="755" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:5">
       <c r="A755" s="3"/>
       <c r="B755" s="3"/>
       <c r="E755" s="3"/>
     </row>
-    <row r="756" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:5">
       <c r="A756" s="3"/>
       <c r="B756" s="3"/>
       <c r="E756" s="3"/>
     </row>
-    <row r="757" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:5">
       <c r="A757" s="3"/>
       <c r="B757" s="3"/>
       <c r="E757" s="3"/>
     </row>
-    <row r="758" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:5">
       <c r="A758" s="3"/>
       <c r="B758" s="3"/>
       <c r="E758" s="3"/>
     </row>
-    <row r="759" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:5">
       <c r="A759" s="3"/>
       <c r="B759" s="3"/>
       <c r="E759" s="3"/>
     </row>
-    <row r="760" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:5">
       <c r="A760" s="3"/>
       <c r="B760" s="3"/>
       <c r="E760" s="3"/>
     </row>
-    <row r="761" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:5">
       <c r="A761" s="3"/>
       <c r="B761" s="3"/>
       <c r="E761" s="3"/>
     </row>
-    <row r="762" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:5">
       <c r="A762" s="3"/>
       <c r="B762" s="3"/>
       <c r="E762" s="3"/>
     </row>
-    <row r="763" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:5">
       <c r="A763" s="3"/>
       <c r="B763" s="3"/>
       <c r="E763" s="3"/>
     </row>
-    <row r="764" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:5">
       <c r="A764" s="3"/>
       <c r="B764" s="3"/>
       <c r="E764" s="3"/>
     </row>
-    <row r="765" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:5">
       <c r="A765" s="3"/>
       <c r="B765" s="3"/>
       <c r="E765" s="3"/>
     </row>
-    <row r="766" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:5">
       <c r="A766" s="3"/>
       <c r="B766" s="3"/>
       <c r="E766" s="3"/>
     </row>
-    <row r="767" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:5">
       <c r="A767" s="3"/>
       <c r="B767" s="3"/>
       <c r="E767" s="3"/>
     </row>
-    <row r="768" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:5">
       <c r="A768" s="3"/>
       <c r="B768" s="3"/>
       <c r="E768" s="3"/>
     </row>
-    <row r="769" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:5">
       <c r="A769" s="3"/>
       <c r="B769" s="3"/>
       <c r="E769" s="3"/>
     </row>
-    <row r="770" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:5">
       <c r="A770" s="3"/>
       <c r="B770" s="3"/>
       <c r="E770" s="3"/>
     </row>
-    <row r="771" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:5">
       <c r="A771" s="3"/>
       <c r="B771" s="3"/>
       <c r="E771" s="3"/>
     </row>
-    <row r="772" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:5">
       <c r="A772" s="3"/>
       <c r="B772" s="3"/>
       <c r="E772" s="3"/>
     </row>
-    <row r="773" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:5">
       <c r="A773" s="3"/>
       <c r="B773" s="3"/>
       <c r="E773" s="3"/>
     </row>
-    <row r="774" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:5">
       <c r="A774" s="3"/>
       <c r="B774" s="3"/>
       <c r="E774" s="3"/>
     </row>
-    <row r="775" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:5">
       <c r="A775" s="3"/>
       <c r="B775" s="3"/>
       <c r="E775" s="3"/>
     </row>
-    <row r="776" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:5">
       <c r="A776" s="3"/>
       <c r="B776" s="3"/>
       <c r="E776" s="3"/>
     </row>
-    <row r="777" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:5">
       <c r="A777" s="3"/>
       <c r="B777" s="3"/>
       <c r="E777" s="3"/>
     </row>
-    <row r="778" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:5">
       <c r="A778" s="3"/>
       <c r="B778" s="3"/>
       <c r="E778" s="3"/>
     </row>
-    <row r="779" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:5">
       <c r="A779" s="3"/>
       <c r="B779" s="3"/>
       <c r="E779" s="3"/>
     </row>
-    <row r="780" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:5">
       <c r="A780" s="3"/>
       <c r="B780" s="3"/>
       <c r="E780" s="3"/>
     </row>
-    <row r="781" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:5">
       <c r="A781" s="3"/>
       <c r="B781" s="3"/>
       <c r="E781" s="3"/>
     </row>
-    <row r="782" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:5">
       <c r="A782" s="3"/>
       <c r="B782" s="3"/>
       <c r="E782" s="3"/>
     </row>
-    <row r="783" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:5">
       <c r="A783" s="3"/>
       <c r="B783" s="3"/>
       <c r="E783" s="3"/>
     </row>
-    <row r="784" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:5">
       <c r="A784" s="3"/>
       <c r="B784" s="3"/>
       <c r="E784" s="3"/>
     </row>
-    <row r="785" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:5">
       <c r="A785" s="3"/>
       <c r="B785" s="3"/>
       <c r="E785" s="3"/>
     </row>
-    <row r="786" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:5">
       <c r="A786" s="3"/>
       <c r="B786" s="3"/>
       <c r="E786" s="3"/>
     </row>
-    <row r="787" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:5">
       <c r="A787" s="3"/>
       <c r="B787" s="3"/>
       <c r="E787" s="3"/>
     </row>
-    <row r="788" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:5">
       <c r="A788" s="3"/>
       <c r="B788" s="3"/>
       <c r="E788" s="3"/>
     </row>
-    <row r="789" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:5">
       <c r="A789" s="3"/>
       <c r="B789" s="3"/>
       <c r="E789" s="3"/>
     </row>
-    <row r="790" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:5">
       <c r="A790" s="3"/>
       <c r="B790" s="3"/>
       <c r="E790" s="3"/>
     </row>
-    <row r="791" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:5">
       <c r="A791" s="3"/>
       <c r="B791" s="3"/>
       <c r="E791" s="3"/>
     </row>
-    <row r="792" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:5">
       <c r="A792" s="3"/>
       <c r="B792" s="3"/>
       <c r="E792" s="3"/>
     </row>
-    <row r="793" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:5">
       <c r="A793" s="3"/>
       <c r="B793" s="3"/>
       <c r="E793" s="3"/>
     </row>
-    <row r="794" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:5">
       <c r="A794" s="3"/>
       <c r="B794" s="3"/>
       <c r="E794" s="3"/>
     </row>
-    <row r="795" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:5">
       <c r="A795" s="3"/>
       <c r="B795" s="3"/>
       <c r="E795" s="3"/>
     </row>
-    <row r="796" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:5">
       <c r="A796" s="3"/>
       <c r="B796" s="3"/>
       <c r="E796" s="3"/>
     </row>
-    <row r="797" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:5">
       <c r="A797" s="3"/>
       <c r="B797" s="3"/>
       <c r="E797" s="3"/>
     </row>
-    <row r="798" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:5">
       <c r="A798" s="3"/>
       <c r="B798" s="3"/>
       <c r="E798" s="3"/>
     </row>
-    <row r="799" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:5">
       <c r="A799" s="3"/>
       <c r="B799" s="3"/>
       <c r="E799" s="3"/>
     </row>
-    <row r="800" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:5">
       <c r="A800" s="3"/>
       <c r="B800" s="3"/>
       <c r="E800" s="3"/>
     </row>
-    <row r="801" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:5">
       <c r="A801" s="3"/>
       <c r="B801" s="3"/>
       <c r="E801" s="3"/>
     </row>
-    <row r="802" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:5">
       <c r="A802" s="3"/>
       <c r="B802" s="3"/>
       <c r="E802" s="3"/>
     </row>
-    <row r="803" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:5">
       <c r="A803" s="3"/>
       <c r="B803" s="3"/>
       <c r="E803" s="3"/>
     </row>
-    <row r="804" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:5">
       <c r="A804" s="3"/>
       <c r="B804" s="3"/>
       <c r="E804" s="3"/>
     </row>
-    <row r="805" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:5">
       <c r="A805" s="3"/>
       <c r="B805" s="3"/>
       <c r="E805" s="3"/>
     </row>
-    <row r="806" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:5">
       <c r="A806" s="3"/>
       <c r="B806" s="3"/>
       <c r="E806" s="3"/>
     </row>
-    <row r="807" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:5">
       <c r="A807" s="3"/>
       <c r="B807" s="3"/>
       <c r="E807" s="3"/>
     </row>
-    <row r="808" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:5">
       <c r="A808" s="3"/>
       <c r="B808" s="3"/>
       <c r="E808" s="3"/>
     </row>
-    <row r="809" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:5">
       <c r="A809" s="3"/>
       <c r="B809" s="3"/>
       <c r="E809" s="3"/>
     </row>
-    <row r="810" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:5">
       <c r="A810" s="3"/>
       <c r="B810" s="3"/>
       <c r="E810" s="3"/>
     </row>
-    <row r="811" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:5">
       <c r="A811" s="3"/>
       <c r="B811" s="3"/>
       <c r="E811" s="3"/>
     </row>
-    <row r="812" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:5">
       <c r="A812" s="3"/>
       <c r="B812" s="3"/>
       <c r="E812" s="3"/>
     </row>
-    <row r="813" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:5">
       <c r="A813" s="3"/>
       <c r="B813" s="3"/>
       <c r="E813" s="3"/>
     </row>
-    <row r="814" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:5">
       <c r="A814" s="3"/>
       <c r="B814" s="3"/>
       <c r="E814" s="3"/>
     </row>
-    <row r="815" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:5">
       <c r="A815" s="3"/>
       <c r="B815" s="3"/>
       <c r="E815" s="3"/>
     </row>
-    <row r="816" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:5">
       <c r="A816" s="3"/>
       <c r="B816" s="3"/>
       <c r="E816" s="3"/>
     </row>
-    <row r="817" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:5">
       <c r="A817" s="3"/>
       <c r="B817" s="3"/>
       <c r="E817" s="3"/>
     </row>
-    <row r="818" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:5">
       <c r="A818" s="3"/>
       <c r="B818" s="3"/>
       <c r="E818" s="3"/>
     </row>
-    <row r="819" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:5">
       <c r="A819" s="3"/>
       <c r="B819" s="3"/>
       <c r="E819" s="3"/>
     </row>
-    <row r="820" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:5">
       <c r="A820" s="3"/>
       <c r="B820" s="3"/>
       <c r="E820" s="3"/>
     </row>
-    <row r="821" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:5">
       <c r="A821" s="3"/>
       <c r="B821" s="3"/>
       <c r="E821" s="3"/>
     </row>
-    <row r="822" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:5">
       <c r="A822" s="3"/>
       <c r="B822" s="3"/>
       <c r="E822" s="3"/>
     </row>
-    <row r="823" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:5">
       <c r="A823" s="3"/>
       <c r="B823" s="3"/>
       <c r="E823" s="3"/>
     </row>
-    <row r="824" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:5">
       <c r="A824" s="3"/>
       <c r="B824" s="3"/>
       <c r="E824" s="3"/>
     </row>
-    <row r="825" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:5">
       <c r="A825" s="3"/>
       <c r="B825" s="3"/>
       <c r="E825" s="3"/>
     </row>
-    <row r="826" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:5">
       <c r="A826" s="3"/>
       <c r="B826" s="3"/>
       <c r="E826" s="3"/>
     </row>
-    <row r="827" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:5">
       <c r="A827" s="3"/>
       <c r="B827" s="3"/>
       <c r="E827" s="3"/>
     </row>
-    <row r="828" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:5">
       <c r="A828" s="3"/>
       <c r="B828" s="3"/>
       <c r="E828" s="3"/>
     </row>
-    <row r="829" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:5">
       <c r="A829" s="3"/>
       <c r="B829" s="3"/>
       <c r="E829" s="3"/>
     </row>
-    <row r="830" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:5">
       <c r="A830" s="3"/>
       <c r="B830" s="3"/>
       <c r="E830" s="3"/>
     </row>
-    <row r="831" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:5">
       <c r="A831" s="3"/>
       <c r="B831" s="3"/>
       <c r="E831" s="3"/>
     </row>
-    <row r="832" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:5">
       <c r="A832" s="3"/>
       <c r="B832" s="3"/>
       <c r="E832" s="3"/>
     </row>
-    <row r="833" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:5">
       <c r="A833" s="3"/>
       <c r="B833" s="3"/>
       <c r="E833" s="3"/>
     </row>
-    <row r="834" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:5">
       <c r="A834" s="3"/>
       <c r="B834" s="3"/>
       <c r="E834" s="3"/>
     </row>
-    <row r="835" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:5">
       <c r="A835" s="3"/>
       <c r="B835" s="3"/>
       <c r="E835" s="3"/>
     </row>
-    <row r="836" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:5">
       <c r="A836" s="3"/>
       <c r="B836" s="3"/>
       <c r="E836" s="3"/>
     </row>
-    <row r="837" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:5">
       <c r="A837" s="3"/>
       <c r="B837" s="3"/>
       <c r="E837" s="3"/>
     </row>
-    <row r="838" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:5">
       <c r="A838" s="3"/>
       <c r="B838" s="3"/>
       <c r="E838" s="3"/>
     </row>
-    <row r="839" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:5">
       <c r="A839" s="3"/>
       <c r="B839" s="3"/>
       <c r="E839" s="3"/>
     </row>
-    <row r="840" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:5">
       <c r="A840" s="3"/>
       <c r="B840" s="3"/>
       <c r="E840" s="3"/>
     </row>
-    <row r="841" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:5">
       <c r="A841" s="3"/>
       <c r="B841" s="3"/>
       <c r="E841" s="3"/>
     </row>
-    <row r="842" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:5">
       <c r="A842" s="3"/>
       <c r="B842" s="3"/>
       <c r="E842" s="3"/>
     </row>
-    <row r="843" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:5">
       <c r="A843" s="3"/>
       <c r="B843" s="3"/>
       <c r="E843" s="3"/>
     </row>
-    <row r="844" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:5">
       <c r="A844" s="3"/>
       <c r="B844" s="3"/>
       <c r="E844" s="3"/>
     </row>
-    <row r="845" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:5">
       <c r="A845" s="3"/>
       <c r="B845" s="3"/>
       <c r="E845" s="3"/>
     </row>
-    <row r="846" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:5">
       <c r="A846" s="3"/>
       <c r="B846" s="3"/>
       <c r="E846" s="3"/>
     </row>
-    <row r="847" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:5">
       <c r="A847" s="3"/>
       <c r="B847" s="3"/>
       <c r="E847" s="3"/>
     </row>
-    <row r="848" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:5">
       <c r="A848" s="3"/>
       <c r="B848" s="3"/>
       <c r="E848" s="3"/>
     </row>
-    <row r="849" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:5">
       <c r="A849" s="3"/>
       <c r="B849" s="3"/>
       <c r="E849" s="3"/>
     </row>
-    <row r="850" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:5">
       <c r="A850" s="3"/>
       <c r="B850" s="3"/>
       <c r="E850" s="3"/>
     </row>
-    <row r="851" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:5">
       <c r="A851" s="3"/>
       <c r="B851" s="3"/>
       <c r="E851" s="3"/>
     </row>
-    <row r="852" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:5">
       <c r="A852" s="3"/>
       <c r="B852" s="3"/>
       <c r="E852" s="3"/>
     </row>
-    <row r="853" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:5">
       <c r="A853" s="3"/>
       <c r="B853" s="3"/>
       <c r="E853" s="3"/>
     </row>
-    <row r="854" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:5">
       <c r="A854" s="3"/>
       <c r="B854" s="3"/>
       <c r="E854" s="3"/>
     </row>
-    <row r="855" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:5">
       <c r="A855" s="3"/>
       <c r="B855" s="3"/>
       <c r="E855" s="3"/>
     </row>
-    <row r="856" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:5">
       <c r="A856" s="3"/>
       <c r="B856" s="3"/>
       <c r="E856" s="3"/>
     </row>
-    <row r="857" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:5">
       <c r="A857" s="3"/>
       <c r="B857" s="3"/>
       <c r="E857" s="3"/>
     </row>
-    <row r="858" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:5">
       <c r="A858" s="3"/>
       <c r="B858" s="3"/>
       <c r="E858" s="3"/>
     </row>
-    <row r="859" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:5">
       <c r="A859" s="3"/>
       <c r="B859" s="3"/>
       <c r="E859" s="3"/>
     </row>
-    <row r="860" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:5">
       <c r="A860" s="3"/>
       <c r="B860" s="3"/>
       <c r="E860" s="3"/>
     </row>
-    <row r="861" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:5">
       <c r="A861" s="3"/>
       <c r="B861" s="3"/>
       <c r="E861" s="3"/>
     </row>
-    <row r="862" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:5">
       <c r="A862" s="3"/>
       <c r="B862" s="3"/>
       <c r="E862" s="3"/>
     </row>
-    <row r="863" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:5">
       <c r="A863" s="3"/>
       <c r="B863" s="3"/>
       <c r="E863" s="3"/>
     </row>
-    <row r="864" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:5">
       <c r="A864" s="3"/>
       <c r="B864" s="3"/>
       <c r="E864" s="3"/>
     </row>
-    <row r="865" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:5">
       <c r="A865" s="3"/>
       <c r="B865" s="3"/>
       <c r="E865" s="3"/>
     </row>
-    <row r="866" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:5">
       <c r="A866" s="3"/>
       <c r="B866" s="3"/>
       <c r="E866" s="3"/>
     </row>
-    <row r="867" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:5">
       <c r="A867" s="3"/>
       <c r="B867" s="3"/>
       <c r="E867" s="3"/>
     </row>
-    <row r="868" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:5">
       <c r="A868" s="3"/>
       <c r="B868" s="3"/>
       <c r="E868" s="3"/>
     </row>
-    <row r="869" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:5">
       <c r="A869" s="3"/>
       <c r="B869" s="3"/>
       <c r="E869" s="3"/>
     </row>
-    <row r="870" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:5">
       <c r="A870" s="3"/>
       <c r="B870" s="3"/>
       <c r="E870" s="3"/>
     </row>
-    <row r="871" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:5">
       <c r="A871" s="3"/>
       <c r="B871" s="3"/>
       <c r="E871" s="3"/>
     </row>
-    <row r="872" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:5">
       <c r="A872" s="3"/>
       <c r="B872" s="3"/>
       <c r="E872" s="3"/>
     </row>
-    <row r="873" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:5">
       <c r="A873" s="3"/>
       <c r="B873" s="3"/>
       <c r="E873" s="3"/>
     </row>
-    <row r="874" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:5">
       <c r="A874" s="3"/>
       <c r="B874" s="3"/>
       <c r="E874" s="3"/>
     </row>
-    <row r="875" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:5">
       <c r="A875" s="3"/>
       <c r="B875" s="3"/>
       <c r="E875" s="3"/>
     </row>
-    <row r="876" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:5">
       <c r="A876" s="3"/>
       <c r="B876" s="3"/>
       <c r="E876" s="3"/>
     </row>
-    <row r="877" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:5">
       <c r="A877" s="3"/>
       <c r="B877" s="3"/>
       <c r="E877" s="3"/>
     </row>
-    <row r="878" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:5">
       <c r="A878" s="3"/>
       <c r="B878" s="3"/>
       <c r="E878" s="3"/>
     </row>
-    <row r="879" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:5">
       <c r="A879" s="3"/>
       <c r="B879" s="3"/>
       <c r="E879" s="3"/>
     </row>
-    <row r="880" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:5">
       <c r="A880" s="3"/>
       <c r="B880" s="3"/>
       <c r="E880" s="3"/>
     </row>
-    <row r="881" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:5">
       <c r="A881" s="3"/>
       <c r="B881" s="3"/>
       <c r="E881" s="3"/>
     </row>
-    <row r="882" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:5">
       <c r="A882" s="3"/>
       <c r="B882" s="3"/>
       <c r="E882" s="3"/>
     </row>
-    <row r="883" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:5">
       <c r="A883" s="3"/>
       <c r="B883" s="3"/>
       <c r="E883" s="3"/>
     </row>
-    <row r="884" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:5">
       <c r="A884" s="3"/>
       <c r="B884" s="3"/>
       <c r="E884" s="3"/>
     </row>
-    <row r="885" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:5">
       <c r="A885" s="3"/>
       <c r="B885" s="3"/>
       <c r="E885" s="3"/>
     </row>
-    <row r="886" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:5">
       <c r="A886" s="3"/>
       <c r="B886" s="3"/>
       <c r="E886" s="3"/>
     </row>
-    <row r="887" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:5">
       <c r="A887" s="3"/>
       <c r="B887" s="3"/>
       <c r="E887" s="3"/>
     </row>
-    <row r="888" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:5">
       <c r="A888" s="3"/>
       <c r="B888" s="3"/>
       <c r="E888" s="3"/>
     </row>
-    <row r="889" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:5">
       <c r="A889" s="3"/>
       <c r="B889" s="3"/>
       <c r="E889" s="3"/>
     </row>
-    <row r="890" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:5">
       <c r="A890" s="3"/>
       <c r="B890" s="3"/>
       <c r="E890" s="3"/>
     </row>
-    <row r="891" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:5">
       <c r="A891" s="3"/>
       <c r="B891" s="3"/>
       <c r="E891" s="3"/>
     </row>
-    <row r="892" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:5">
       <c r="A892" s="3"/>
       <c r="B892" s="3"/>
       <c r="E892" s="3"/>
     </row>
-    <row r="893" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:5">
       <c r="A893" s="3"/>
       <c r="B893" s="3"/>
       <c r="E893" s="3"/>
     </row>
-    <row r="894" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:5">
       <c r="A894" s="3"/>
       <c r="B894" s="3"/>
       <c r="E894" s="3"/>
     </row>
-    <row r="895" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:5">
       <c r="A895" s="3"/>
       <c r="B895" s="3"/>
       <c r="E895" s="3"/>
     </row>
-    <row r="896" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:5">
       <c r="A896" s="3"/>
       <c r="B896" s="3"/>
       <c r="E896" s="3"/>
     </row>
-    <row r="897" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:5">
       <c r="A897" s="3"/>
       <c r="B897" s="3"/>
       <c r="E897" s="3"/>
     </row>
-    <row r="898" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:5">
       <c r="A898" s="3"/>
       <c r="B898" s="3"/>
       <c r="E898" s="3"/>
     </row>
-    <row r="899" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:5">
       <c r="A899" s="3"/>
       <c r="B899" s="3"/>
       <c r="E899" s="3"/>
     </row>
-    <row r="900" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:5">
       <c r="A900" s="3"/>
       <c r="B900" s="3"/>
       <c r="E900" s="3"/>
     </row>
-    <row r="901" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:5">
       <c r="A901" s="3"/>
       <c r="B901" s="3"/>
       <c r="E901" s="3"/>
     </row>
-    <row r="902" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:5">
       <c r="A902" s="3"/>
       <c r="B902" s="3"/>
       <c r="E902" s="3"/>
     </row>
-    <row r="903" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:5">
       <c r="A903" s="3"/>
       <c r="B903" s="3"/>
       <c r="E903" s="3"/>
     </row>
-    <row r="904" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:5">
       <c r="A904" s="3"/>
       <c r="B904" s="3"/>
       <c r="E904" s="3"/>
     </row>
-    <row r="905" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:5">
       <c r="A905" s="3"/>
       <c r="B905" s="3"/>
       <c r="E905" s="3"/>
     </row>
-    <row r="906" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:5">
       <c r="A906" s="3"/>
       <c r="B906" s="3"/>
       <c r="E906" s="3"/>
     </row>
-    <row r="907" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:5">
       <c r="A907" s="3"/>
       <c r="B907" s="3"/>
       <c r="E907" s="3"/>
     </row>
-    <row r="908" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:5">
       <c r="A908" s="3"/>
       <c r="B908" s="3"/>
       <c r="E908" s="3"/>
     </row>
-    <row r="909" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:5">
       <c r="A909" s="3"/>
       <c r="B909" s="3"/>
       <c r="E909" s="3"/>
     </row>
-    <row r="910" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:5">
       <c r="A910" s="3"/>
       <c r="B910" s="3"/>
       <c r="E910" s="3"/>
     </row>
-    <row r="911" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:5">
       <c r="A911" s="3"/>
       <c r="B911" s="3"/>
       <c r="E911" s="3"/>
     </row>
-    <row r="912" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:5">
       <c r="A912" s="3"/>
       <c r="B912" s="3"/>
       <c r="E912" s="3"/>
     </row>
-    <row r="913" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:5">
       <c r="A913" s="3"/>
       <c r="B913" s="3"/>
       <c r="E913" s="3"/>
     </row>
-    <row r="914" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:5">
       <c r="A914" s="3"/>
       <c r="B914" s="3"/>
       <c r="E914" s="3"/>
     </row>
-    <row r="915" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:5">
       <c r="A915" s="3"/>
       <c r="B915" s="3"/>
       <c r="E915" s="3"/>
     </row>
-    <row r="916" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:5">
       <c r="A916" s="3"/>
       <c r="B916" s="3"/>
       <c r="E916" s="3"/>
     </row>
-    <row r="917" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:5">
       <c r="A917" s="3"/>
       <c r="B917" s="3"/>
       <c r="E917" s="3"/>
     </row>
-    <row r="918" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:5">
       <c r="A918" s="3"/>
       <c r="B918" s="3"/>
       <c r="E918" s="3"/>
     </row>
-    <row r="919" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:5">
       <c r="A919" s="3"/>
       <c r="B919" s="3"/>
       <c r="E919" s="3"/>
     </row>
-    <row r="920" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:5">
       <c r="A920" s="3"/>
       <c r="B920" s="3"/>
       <c r="E920" s="3"/>
     </row>
-    <row r="921" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:5">
       <c r="A921" s="3"/>
       <c r="B921" s="3"/>
       <c r="E921" s="3"/>
     </row>
-    <row r="922" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:5">
       <c r="A922" s="3"/>
       <c r="B922" s="3"/>
       <c r="E922" s="3"/>
     </row>
-    <row r="923" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:5">
       <c r="A923" s="3"/>
       <c r="B923" s="3"/>
       <c r="E923" s="3"/>
     </row>
-    <row r="924" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:5">
       <c r="A924" s="3"/>
       <c r="B924" s="3"/>
       <c r="E924" s="3"/>
     </row>
-    <row r="925" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:5">
       <c r="A925" s="3"/>
       <c r="B925" s="3"/>
       <c r="E925" s="3"/>
     </row>
-    <row r="926" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:5">
       <c r="A926" s="3"/>
       <c r="B926" s="3"/>
       <c r="E926" s="3"/>
     </row>
-    <row r="927" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:5">
       <c r="A927" s="3"/>
       <c r="B927" s="3"/>
       <c r="E927" s="3"/>
     </row>
-    <row r="928" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:5">
       <c r="A928" s="3"/>
       <c r="B928" s="3"/>
       <c r="E928" s="3"/>
     </row>
-    <row r="929" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:5">
       <c r="A929" s="3"/>
       <c r="B929" s="3"/>
       <c r="E929" s="3"/>
     </row>
-    <row r="930" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:5">
       <c r="A930" s="3"/>
       <c r="B930" s="3"/>
       <c r="E930" s="3"/>
     </row>
-    <row r="931" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:5">
       <c r="A931" s="3"/>
       <c r="B931" s="3"/>
       <c r="E931" s="3"/>
     </row>
-    <row r="932" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:5">
       <c r="A932" s="3"/>
       <c r="B932" s="3"/>
       <c r="E932" s="3"/>
     </row>
-    <row r="933" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:5">
       <c r="A933" s="3"/>
       <c r="B933" s="3"/>
       <c r="E933" s="3"/>
     </row>
-    <row r="934" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:5">
       <c r="A934" s="3"/>
       <c r="B934" s="3"/>
       <c r="E934" s="3"/>
     </row>
-    <row r="935" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:5">
       <c r="A935" s="3"/>
       <c r="B935" s="3"/>
       <c r="E935" s="3"/>
     </row>
-    <row r="936" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:5">
       <c r="A936" s="3"/>
       <c r="B936" s="3"/>
       <c r="E936" s="3"/>
     </row>
-    <row r="937" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:5">
       <c r="A937" s="3"/>
       <c r="B937" s="3"/>
       <c r="E937" s="3"/>
     </row>
-    <row r="938" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:5">
       <c r="A938" s="3"/>
       <c r="B938" s="3"/>
       <c r="E938" s="3"/>
     </row>
-    <row r="939" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:5">
       <c r="A939" s="3"/>
       <c r="B939" s="3"/>
       <c r="E939" s="3"/>
     </row>
-    <row r="940" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:5">
       <c r="A940" s="3"/>
       <c r="B940" s="3"/>
       <c r="E940" s="3"/>
     </row>
-    <row r="941" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:5">
       <c r="A941" s="3"/>
       <c r="B941" s="3"/>
       <c r="E941" s="3"/>
     </row>
-    <row r="942" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:5">
       <c r="A942" s="3"/>
       <c r="B942" s="3"/>
       <c r="E942" s="3"/>
     </row>
-    <row r="943" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:5">
       <c r="A943" s="3"/>
       <c r="B943" s="3"/>
       <c r="E943" s="3"/>
     </row>
-    <row r="944" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:5">
       <c r="A944" s="3"/>
       <c r="B944" s="3"/>
       <c r="E944" s="3"/>
     </row>
-    <row r="945" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:5">
       <c r="A945" s="3"/>
       <c r="B945" s="3"/>
       <c r="E945" s="3"/>
     </row>
-    <row r="946" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:5">
       <c r="A946" s="3"/>
       <c r="B946" s="3"/>
       <c r="E946" s="3"/>
     </row>
-    <row r="947" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:5">
       <c r="A947" s="3"/>
       <c r="B947" s="3"/>
       <c r="E947" s="3"/>
     </row>
-    <row r="948" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:5">
       <c r="A948" s="3"/>
       <c r="B948" s="3"/>
       <c r="E948" s="3"/>
     </row>
-    <row r="949" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:5">
       <c r="A949" s="3"/>
       <c r="B949" s="3"/>
       <c r="E949" s="3"/>
     </row>
-    <row r="950" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:5">
       <c r="A950" s="3"/>
       <c r="B950" s="3"/>
       <c r="E950" s="3"/>
     </row>
-    <row r="951" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:5">
       <c r="A951" s="3"/>
       <c r="B951" s="3"/>
       <c r="E951" s="3"/>
     </row>
-    <row r="952" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:5">
       <c r="A952" s="3"/>
       <c r="B952" s="3"/>
       <c r="E952" s="3"/>
     </row>
-    <row r="953" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:5">
       <c r="A953" s="3"/>
       <c r="B953" s="3"/>
       <c r="E953" s="3"/>
     </row>
-    <row r="954" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:5">
       <c r="A954" s="3"/>
       <c r="B954" s="3"/>
       <c r="E954" s="3"/>
     </row>
-    <row r="955" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:5">
       <c r="A955" s="3"/>
       <c r="B955" s="3"/>
       <c r="E955" s="3"/>
     </row>
-    <row r="956" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:5">
       <c r="A956" s="3"/>
       <c r="B956" s="3"/>
       <c r="E956" s="3"/>
     </row>
-    <row r="957" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:5">
       <c r="A957" s="3"/>
       <c r="B957" s="3"/>
       <c r="E957" s="3"/>
     </row>
-    <row r="958" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:5">
       <c r="A958" s="3"/>
       <c r="B958" s="3"/>
       <c r="E958" s="3"/>
     </row>
-    <row r="959" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:5">
       <c r="A959" s="3"/>
       <c r="B959" s="3"/>
       <c r="E959" s="3"/>
     </row>
-    <row r="960" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:5">
       <c r="A960" s="3"/>
       <c r="B960" s="3"/>
       <c r="E960" s="3"/>
     </row>
-    <row r="961" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:5">
       <c r="A961" s="3"/>
       <c r="B961" s="3"/>
       <c r="E961" s="3"/>
     </row>
-    <row r="962" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:5">
       <c r="A962" s="3"/>
       <c r="B962" s="3"/>
       <c r="E962" s="3"/>
     </row>
-    <row r="963" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:5">
       <c r="A963" s="3"/>
       <c r="B963" s="3"/>
       <c r="E963" s="3"/>
     </row>
-    <row r="964" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:5">
       <c r="A964" s="3"/>
       <c r="B964" s="3"/>
       <c r="E964" s="3"/>
     </row>
-    <row r="965" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:5">
       <c r="A965" s="3"/>
       <c r="B965" s="3"/>
       <c r="E965" s="3"/>
     </row>
-    <row r="966" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:5">
       <c r="A966" s="3"/>
       <c r="B966" s="3"/>
       <c r="E966" s="3"/>
     </row>
-    <row r="967" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:5">
       <c r="A967" s="3"/>
       <c r="B967" s="3"/>
       <c r="E967" s="3"/>
     </row>
-    <row r="968" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:5">
       <c r="A968" s="3"/>
       <c r="B968" s="3"/>
       <c r="E968" s="3"/>
     </row>
-    <row r="969" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:5">
       <c r="A969" s="3"/>
       <c r="B969" s="3"/>
       <c r="E969" s="3"/>
     </row>
-    <row r="970" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:5">
       <c r="A970" s="3"/>
       <c r="B970" s="3"/>
       <c r="E970" s="3"/>
     </row>
-    <row r="971" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:5">
       <c r="A971" s="3"/>
       <c r="B971" s="3"/>
       <c r="E971" s="3"/>
     </row>
-    <row r="972" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:5">
       <c r="A972" s="3"/>
       <c r="B972" s="3"/>
       <c r="E972" s="3"/>
     </row>
-    <row r="973" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:5">
       <c r="A973" s="3"/>
       <c r="B973" s="3"/>
       <c r="E973" s="3"/>
     </row>
-    <row r="974" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:5">
       <c r="A974" s="3"/>
       <c r="B974" s="3"/>
       <c r="E974" s="3"/>
     </row>
-    <row r="975" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:5">
       <c r="A975" s="3"/>
       <c r="B975" s="3"/>
       <c r="E975" s="3"/>
     </row>
-    <row r="976" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:5">
       <c r="A976" s="3"/>
       <c r="B976" s="3"/>
       <c r="E976" s="3"/>
     </row>
-    <row r="977" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:5">
       <c r="A977" s="3"/>
       <c r="B977" s="3"/>
       <c r="E977" s="3"/>
     </row>
-    <row r="978" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:5">
       <c r="A978" s="3"/>
       <c r="B978" s="3"/>
       <c r="E978" s="3"/>
     </row>
-    <row r="979" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:5">
       <c r="A979" s="3"/>
       <c r="B979" s="3"/>
       <c r="E979" s="3"/>
     </row>
-    <row r="980" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:5">
       <c r="A980" s="3"/>
       <c r="B980" s="3"/>
       <c r="E980" s="3"/>
     </row>
-    <row r="981" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:5">
       <c r="A981" s="3"/>
       <c r="B981" s="3"/>
       <c r="E981" s="3"/>
     </row>
-    <row r="982" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:5">
       <c r="A982" s="3"/>
       <c r="B982" s="3"/>
       <c r="E982" s="3"/>
     </row>
-    <row r="983" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:5">
       <c r="A983" s="3"/>
       <c r="B983" s="3"/>
       <c r="E983" s="3"/>
     </row>
-    <row r="984" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:5">
       <c r="A984" s="3"/>
       <c r="B984" s="3"/>
       <c r="E984" s="3"/>
     </row>
-    <row r="985" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:5">
       <c r="A985" s="3"/>
       <c r="B985" s="3"/>
       <c r="E985" s="3"/>
     </row>
-    <row r="986" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:5">
       <c r="A986" s="3"/>
       <c r="B986" s="3"/>
       <c r="E986" s="3"/>
     </row>
-    <row r="987" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:5">
       <c r="A987" s="3"/>
       <c r="B987" s="3"/>
       <c r="E987" s="3"/>
     </row>
-    <row r="988" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:5">
       <c r="A988" s="3"/>
       <c r="B988" s="3"/>
       <c r="E988" s="3"/>
     </row>
-    <row r="989" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:5">
       <c r="A989" s="3"/>
       <c r="B989" s="3"/>
       <c r="E989" s="3"/>
     </row>
-    <row r="990" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:5">
       <c r="A990" s="3"/>
       <c r="B990" s="3"/>
       <c r="E990" s="3"/>
     </row>
-    <row r="991" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:5">
       <c r="A991" s="3"/>
       <c r="B991" s="3"/>
       <c r="E991" s="3"/>
     </row>
-    <row r="992" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:5">
       <c r="A992" s="3"/>
       <c r="B992" s="3"/>
       <c r="E992" s="3"/>
     </row>
-    <row r="993" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:5">
       <c r="A993" s="3"/>
       <c r="B993" s="3"/>
       <c r="E993" s="3"/>
     </row>
-    <row r="994" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:5">
       <c r="A994" s="3"/>
       <c r="B994" s="3"/>
       <c r="E994" s="3"/>
     </row>
-    <row r="995" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:5">
       <c r="A995" s="3"/>
       <c r="B995" s="3"/>
       <c r="E995" s="3"/>
     </row>
-    <row r="996" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:5">
       <c r="A996" s="3"/>
       <c r="B996" s="3"/>
       <c r="E996" s="3"/>
     </row>
-    <row r="997" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:5">
       <c r="A997" s="3"/>
       <c r="B997" s="3"/>
       <c r="E997" s="3"/>
     </row>
-    <row r="998" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:5">
       <c r="A998" s="3"/>
       <c r="B998" s="3"/>
       <c r="E998" s="3"/>
     </row>
-    <row r="999" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:5">
       <c r="A999" s="3"/>
       <c r="B999" s="3"/>
       <c r="E999" s="3"/>
     </row>
-    <row r="1000" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:5">
       <c r="A1000" s="3"/>
       <c r="B1000" s="3"/>
       <c r="E1000" s="3"/>
@@ -6176,14 +6174,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
@@ -6191,7 +6189,7 @@
     <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="11" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
@@ -6225,7 +6223,7 @@
       <c r="Q1" s="31"/>
       <c r="R1" s="31"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="A2" s="10" t="s">
         <v>148</v>
       </c>
@@ -6253,7 +6251,7 @@
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3" s="10" t="s">
         <v>149</v>
       </c>
@@ -6281,7 +6279,7 @@
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4" s="10" t="s">
         <v>39</v>
       </c>
@@ -6315,7 +6313,7 @@
       <c r="Q4" s="31"/>
       <c r="R4" s="31"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="A5" s="10" t="s">
         <v>136</v>
       </c>
@@ -6349,7 +6347,7 @@
       <c r="Q5" s="31"/>
       <c r="R5" s="31"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
@@ -6383,7 +6381,7 @@
       <c r="Q6" s="31"/>
       <c r="R6" s="31"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="A7" s="9" t="s">
         <v>18</v>
       </c>
@@ -6417,7 +6415,7 @@
       <c r="Q7" s="31"/>
       <c r="R7" s="31"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="A8" s="9" t="s">
         <v>22</v>
       </c>
@@ -6451,7 +6449,7 @@
       <c r="Q8" s="31"/>
       <c r="R8" s="31"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="A9" s="9" t="s">
         <v>161</v>
       </c>
@@ -6477,7 +6475,7 @@
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="A10" s="7" t="s">
         <v>13</v>
       </c>
@@ -6511,7 +6509,7 @@
       <c r="Q10" s="31"/>
       <c r="R10" s="31"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="A11" s="9" t="s">
         <v>15</v>
       </c>
@@ -6545,7 +6543,7 @@
       <c r="Q11" s="31"/>
       <c r="R11" s="31"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="A12" s="9" t="s">
         <v>16</v>
       </c>
@@ -6579,7 +6577,7 @@
       <c r="Q12" s="31"/>
       <c r="R12" s="31"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="A13" s="9" t="s">
         <v>17</v>
       </c>
@@ -6613,7 +6611,7 @@
       <c r="Q13" s="31"/>
       <c r="R13" s="31"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="A14" s="9" t="s">
         <v>19</v>
       </c>
@@ -6647,7 +6645,7 @@
       <c r="Q14" s="31"/>
       <c r="R14" s="31"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="A15" s="9" t="s">
         <v>20</v>
       </c>
@@ -6681,7 +6679,7 @@
       <c r="Q15" s="31"/>
       <c r="R15" s="31"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18">
       <c r="A16" s="9" t="s">
         <v>21</v>
       </c>
@@ -6715,7 +6713,7 @@
       <c r="Q16" s="31"/>
       <c r="R16" s="31"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18">
       <c r="A17" s="9" t="s">
         <v>162</v>
       </c>
@@ -6741,7 +6739,7 @@
       <c r="Q17" s="31"/>
       <c r="R17" s="31"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18">
       <c r="A18" s="10" t="s">
         <v>11</v>
       </c>
@@ -6775,7 +6773,7 @@
       <c r="Q18" s="31"/>
       <c r="R18" s="31"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18">
       <c r="A19" s="10" t="s">
         <v>40</v>
       </c>
@@ -6809,7 +6807,7 @@
       <c r="Q19" s="31"/>
       <c r="R19" s="31"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18">
       <c r="A20" s="10" t="s">
         <v>53</v>
       </c>
@@ -6843,7 +6841,7 @@
       <c r="Q20" s="31"/>
       <c r="R20" s="31"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18">
       <c r="A21" s="10" t="s">
         <v>62</v>
       </c>
@@ -6877,7 +6875,7 @@
       <c r="Q21" s="31"/>
       <c r="R21" s="31"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18">
       <c r="A22" s="10" t="s">
         <v>133</v>
       </c>
@@ -6911,7 +6909,7 @@
       <c r="Q22" s="31"/>
       <c r="R22" s="31"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18">
       <c r="A23" s="10" t="s">
         <v>138</v>
       </c>
@@ -6945,7 +6943,7 @@
       <c r="Q23" s="31"/>
       <c r="R23" s="31"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18">
       <c r="A24" s="5" t="s">
         <v>147</v>
       </c>
@@ -6973,7 +6971,7 @@
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18">
       <c r="A25" s="5" t="s">
         <v>163</v>
       </c>
@@ -7009,14 +7007,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31.85546875" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="17" bestFit="1" customWidth="1"/>
@@ -7037,7 +7035,7 @@
     <col min="18" max="16384" width="17.85546875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="8" t="s">
         <v>41</v>
       </c>
@@ -7072,7 +7070,7 @@
       </c>
       <c r="Q1" s="5"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" s="8" t="s">
         <v>42</v>
       </c>
@@ -7112,7 +7110,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3" s="8" t="s">
         <v>42</v>
       </c>
@@ -7153,7 +7151,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4" s="8" t="s">
         <v>84</v>
       </c>
@@ -7194,7 +7192,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5" s="8" t="s">
         <v>43</v>
       </c>
@@ -7229,7 +7227,7 @@
         <v>1250000</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6" s="8" t="s">
         <v>26</v>
       </c>
@@ -7271,7 +7269,7 @@
         <v>62500</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7" s="8" t="s">
         <v>24</v>
       </c>
@@ -7299,7 +7297,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="A8" s="8" t="s">
         <v>25</v>
       </c>
@@ -7327,7 +7325,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9" s="8" t="s">
         <v>5</v>
       </c>
@@ -7354,7 +7352,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="G10" s="8" t="s">
         <v>60</v>
       </c>
@@ -7372,7 +7370,7 @@
       </c>
       <c r="N10" s="5"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="G11" s="8" t="s">
         <v>61</v>
       </c>
@@ -7392,7 +7390,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="G12" s="8" t="s">
         <v>64</v>
       </c>
@@ -7412,7 +7410,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="G13" s="8" t="s">
         <v>5</v>
       </c>
@@ -7426,7 +7424,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="D14" s="22"/>
       <c r="J14" s="13" t="s">
         <v>74</v>
@@ -7436,7 +7434,7 @@
       </c>
       <c r="P14" s="35"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="D15" s="22"/>
       <c r="J15" s="13" t="s">
         <v>75</v>
@@ -7445,7 +7443,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="D16" s="22"/>
       <c r="J16" s="13" t="s">
         <v>76</v>
@@ -7454,7 +7452,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="17" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:11">
       <c r="J17" s="13" t="s">
         <v>66</v>
       </c>
@@ -7462,7 +7460,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:11">
       <c r="J18" s="13" t="s">
         <v>77</v>
       </c>
@@ -7470,7 +7468,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="19" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:11">
       <c r="J19" s="13" t="s">
         <v>78</v>
       </c>
@@ -7478,7 +7476,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="20" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:11">
       <c r="J20" s="13" t="s">
         <v>26</v>
       </c>
@@ -7486,7 +7484,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="21" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:11">
       <c r="J21" s="13" t="s">
         <v>79</v>
       </c>
@@ -7494,7 +7492,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="22" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:11">
       <c r="J22" s="13" t="s">
         <v>80</v>
       </c>
@@ -7502,7 +7500,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="23" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:11">
       <c r="J23" s="13" t="s">
         <v>81</v>
       </c>
@@ -7510,7 +7508,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="24" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:11">
       <c r="J24" s="13" t="s">
         <v>82</v>
       </c>
@@ -7518,7 +7516,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="25" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:11">
       <c r="J25" s="13" t="s">
         <v>83</v>
       </c>
@@ -7526,7 +7524,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="26" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:11">
       <c r="D26" s="21"/>
       <c r="J26" s="13" t="s">
         <v>89</v>
@@ -7542,14 +7540,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -7561,7 +7559,7 @@
     <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" s="30" t="s">
         <v>100</v>
       </c>
@@ -7591,7 +7589,7 @@
         <v>297.70000000000039</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="15" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>39</v>
       </c>
@@ -7622,7 +7620,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="15" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>106</v>
       </c>
@@ -7670,7 +7668,7 @@
         <v>618.5</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="15" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>107</v>
       </c>
@@ -7718,7 +7716,7 @@
         <v>605.4</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="15" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>109</v>
       </c>
@@ -7766,7 +7764,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="15" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>110</v>
       </c>
@@ -7801,7 +7799,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>118</v>
       </c>
@@ -7838,7 +7836,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="15" customHeight="1">
       <c r="A8" s="31" t="s">
         <v>132</v>
       </c>
@@ -7873,7 +7871,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="15" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>135</v>
       </c>
@@ -7908,7 +7906,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="15" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>137</v>
       </c>
@@ -7943,7 +7941,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="15" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>138</v>
       </c>
@@ -7987,7 +7985,7 @@
         <v>5093.8999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="15" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>140</v>
       </c>
@@ -8016,7 +8014,7 @@
         <v>117.60000000000036</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="15" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>106</v>
       </c>
@@ -8038,7 +8036,7 @@
       </c>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="15" customHeight="1">
       <c r="A14" s="5" t="s">
         <v>144</v>
       </c>
@@ -8060,7 +8058,7 @@
       </c>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="15" customHeight="1">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -8076,7 +8074,7 @@
       </c>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="15" customHeight="1">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -8092,7 +8090,7 @@
       </c>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15" customHeight="1">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -8108,7 +8106,7 @@
       </c>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15" customHeight="1">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -8121,7 +8119,7 @@
       </c>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15" customHeight="1">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -8131,7 +8129,7 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15" customHeight="1">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -8141,7 +8139,7 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15" customHeight="1">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -8151,7 +8149,7 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15" customHeight="1">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -8161,7 +8159,7 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15" customHeight="1">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -8171,7 +8169,7 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15" customHeight="1">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -8181,7 +8179,7 @@
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15" customHeight="1">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -8198,14 +8196,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -8213,7 +8211,7 @@
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
         <v>111</v>
       </c>
@@ -8227,7 +8225,7 @@
         <v>41.5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
         <v>112</v>
       </c>
@@ -8241,7 +8239,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
         <v>113</v>
       </c>
@@ -8257,7 +8255,7 @@
         <v>0.20750000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
         <v>114</v>
       </c>
@@ -8271,7 +8269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
         <v>115</v>
       </c>
@@ -8287,7 +8285,7 @@
         <v>0.20750000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
         <v>116</v>
       </c>
@@ -8303,7 +8301,7 @@
         <v>41.292499999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
         <v>120</v>
       </c>
@@ -8319,7 +8317,7 @@
         <v>41.29</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
         <v>117</v>
       </c>
@@ -8333,7 +8331,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
         <v>119</v>
       </c>
@@ -8349,7 +8347,7 @@
         <v>3.7350000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
         <v>121</v>
       </c>
@@ -8363,7 +8361,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
         <v>122</v>
       </c>
@@ -8379,7 +8377,7 @@
         <v>4.129E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
         <v>123</v>
       </c>
@@ -8393,7 +8391,7 @@
         <v>3.2499999999999997E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="5" t="s">
         <v>124</v>
       </c>
@@ -8409,7 +8407,7 @@
         <v>1.3419249999999999E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="31" t="s">
         <v>125</v>
       </c>
@@ -8423,7 +8421,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="31" t="s">
         <v>126</v>
       </c>
@@ -8439,7 +8437,7 @@
         <v>8.2579999999999997E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="31" t="s">
         <v>130</v>
       </c>
@@ -8455,7 +8453,7 @@
         <v>8.8239924999999997E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="31" t="s">
         <v>127</v>
       </c>
@@ -8478,14 +8476,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
@@ -8494,7 +8492,7 @@
     <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
         <v>142</v>
       </c>
@@ -8511,7 +8509,7 @@
         <v>1475389</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
         <v>141</v>
       </c>
@@ -8526,10 +8524,10 @@
       </c>
       <c r="F2" s="5">
         <f>SUM(B2:B200)</f>
-        <v>205600</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>514993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="12" t="s">
         <v>64</v>
       </c>
@@ -8544,10 +8542,10 @@
       </c>
       <c r="F3" s="5">
         <f>F1-F2</f>
-        <v>1269789</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>960396</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="12" t="s">
         <v>25</v>
       </c>
@@ -8558,7 +8556,7 @@
         <v>42948</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="12" t="s">
         <v>88</v>
       </c>
@@ -8569,7 +8567,7 @@
         <v>42948</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="12" t="s">
         <v>158</v>
       </c>
@@ -8578,6 +8576,17 @@
       </c>
       <c r="C6" s="36">
         <v>42941</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" s="5">
+        <v>309393</v>
+      </c>
+      <c r="C7" s="36">
+        <v>42949</v>
       </c>
     </row>
   </sheetData>

--- a/documents/Home.xlsx
+++ b/documents/Home.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="13965" windowHeight="5625" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="13965" windowHeight="5625" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PaidTillDate" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
     <sheet name="Actual Price Calculator" sheetId="8" r:id="rId5"/>
     <sheet name="Spent" sheetId="9" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="166">
   <si>
     <t>Date</t>
   </si>
@@ -511,16 +511,22 @@
   </si>
   <si>
     <t>HDIL</t>
+  </si>
+  <si>
+    <t>IOC</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -637,7 +643,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -676,9 +682,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -769,6 +780,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -803,6 +815,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -978,14 +991,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
@@ -994,7 +1007,7 @@
     <col min="6" max="26" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -1028,7 +1041,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="24">
         <v>42190</v>
       </c>
@@ -1058,7 +1071,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="24">
         <v>42192</v>
       </c>
@@ -1087,7 +1100,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="24">
         <v>42229</v>
       </c>
@@ -1097,7 +1110,7 @@
       <c r="D4" s="27"/>
       <c r="E4" s="27"/>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="24">
         <v>42230</v>
       </c>
@@ -1109,7 +1122,7 @@
       </c>
       <c r="E5" s="27"/>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="24">
         <v>42255</v>
       </c>
@@ -1118,7 +1131,7 @@
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="24">
         <v>42262</v>
       </c>
@@ -1127,7 +1140,7 @@
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="24">
         <v>42282</v>
       </c>
@@ -1136,7 +1149,7 @@
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="24">
         <v>42299</v>
       </c>
@@ -1145,7 +1158,7 @@
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="24">
         <v>42373</v>
       </c>
@@ -1154,7 +1167,7 @@
       </c>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
         <v>42553</v>
       </c>
@@ -1163,7 +1176,7 @@
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
         <v>42640</v>
       </c>
@@ -1172,7 +1185,7 @@
       </c>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
         <v>42768</v>
       </c>
@@ -1181,7 +1194,7 @@
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
         <v>42796</v>
       </c>
@@ -1190,7 +1203,7 @@
       </c>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="25">
         <v>42829</v>
       </c>
@@ -1199,7 +1212,7 @@
       </c>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="26">
         <v>42856</v>
       </c>
@@ -1208,7 +1221,7 @@
       </c>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="26">
         <v>42887</v>
       </c>
@@ -1217,7 +1230,7 @@
       </c>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="26">
         <v>42917</v>
       </c>
@@ -1226,7 +1239,7 @@
       </c>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="26">
         <v>42948</v>
       </c>
@@ -1235,32 +1248,32 @@
       </c>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="26"/>
       <c r="B20" s="23"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="26"/>
       <c r="B21" s="23"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="23"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="26"/>
       <c r="B23" s="23"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="27"/>
       <c r="B24" s="27"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
         <v>5</v>
       </c>
@@ -1293,4877 +1306,4877 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="E45" s="3"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="E48" s="3"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="E53" s="3"/>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="E54" s="3"/>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="E61" s="3"/>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="E62" s="3"/>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="E63" s="3"/>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="E64" s="3"/>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="E65" s="3"/>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="E66" s="3"/>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="E67" s="3"/>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="E68" s="3"/>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="E69" s="3"/>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="E70" s="3"/>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="E71" s="3"/>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="E72" s="3"/>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="E73" s="3"/>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="E74" s="3"/>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="E75" s="3"/>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="E76" s="3"/>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="E77" s="3"/>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="E78" s="3"/>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="E79" s="3"/>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="E80" s="3"/>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="E81" s="3"/>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="E82" s="3"/>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="E83" s="3"/>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="E84" s="3"/>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="E85" s="3"/>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="E86" s="3"/>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="E87" s="3"/>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="E88" s="3"/>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="E89" s="3"/>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="E90" s="3"/>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="E91" s="3"/>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="E92" s="3"/>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="E93" s="3"/>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="E94" s="3"/>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="E95" s="3"/>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="E96" s="3"/>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="E97" s="3"/>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="E98" s="3"/>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="E99" s="3"/>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="E100" s="3"/>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="E101" s="3"/>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="E102" s="3"/>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="E103" s="3"/>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="E104" s="3"/>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="E105" s="3"/>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="E106" s="3"/>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="E107" s="3"/>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="E108" s="3"/>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="E109" s="3"/>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="E110" s="3"/>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="E111" s="3"/>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="E112" s="3"/>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="E113" s="3"/>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="E114" s="3"/>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="E115" s="3"/>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="E116" s="3"/>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="E117" s="3"/>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="E118" s="3"/>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="E119" s="3"/>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="E120" s="3"/>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="E121" s="3"/>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="E122" s="3"/>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="E123" s="3"/>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="E124" s="3"/>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="E125" s="3"/>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="E126" s="3"/>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="E127" s="3"/>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="E128" s="3"/>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="E129" s="3"/>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="E130" s="3"/>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="E131" s="3"/>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="E132" s="3"/>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="E133" s="3"/>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="E134" s="3"/>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="E135" s="3"/>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="E136" s="3"/>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="E137" s="3"/>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="E138" s="3"/>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="E139" s="3"/>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="E140" s="3"/>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="E141" s="3"/>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="E142" s="3"/>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="E143" s="3"/>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="E144" s="3"/>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="E145" s="3"/>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="E146" s="3"/>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="E147" s="3"/>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="E148" s="3"/>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="E149" s="3"/>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="E150" s="3"/>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="E151" s="3"/>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="E152" s="3"/>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="E153" s="3"/>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="E154" s="3"/>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="E155" s="3"/>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="E156" s="3"/>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="E157" s="3"/>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="E158" s="3"/>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="E159" s="3"/>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="E160" s="3"/>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="E161" s="3"/>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="E162" s="3"/>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="E163" s="3"/>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="E164" s="3"/>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="E165" s="3"/>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="E166" s="3"/>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="E167" s="3"/>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="E168" s="3"/>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="E169" s="3"/>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="E170" s="3"/>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="E171" s="3"/>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="E172" s="3"/>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="E173" s="3"/>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="E174" s="3"/>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="E175" s="3"/>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="E176" s="3"/>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="E177" s="3"/>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="E178" s="3"/>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="E179" s="3"/>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="E180" s="3"/>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="E181" s="3"/>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="E182" s="3"/>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="E183" s="3"/>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="E184" s="3"/>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="E185" s="3"/>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="E186" s="3"/>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="E187" s="3"/>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="E188" s="3"/>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="E189" s="3"/>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="E190" s="3"/>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="E191" s="3"/>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="E192" s="3"/>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="E193" s="3"/>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="E194" s="3"/>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="E195" s="3"/>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="E196" s="3"/>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="E197" s="3"/>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="E198" s="3"/>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="E199" s="3"/>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="E200" s="3"/>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="E201" s="3"/>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="E202" s="3"/>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="E203" s="3"/>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="E204" s="3"/>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="E205" s="3"/>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="E206" s="3"/>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="E207" s="3"/>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="E208" s="3"/>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="E209" s="3"/>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="E210" s="3"/>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="E211" s="3"/>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="E212" s="3"/>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="E213" s="3"/>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="E214" s="3"/>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="E215" s="3"/>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="E216" s="3"/>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="E217" s="3"/>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="E218" s="3"/>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="E219" s="3"/>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="E220" s="3"/>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="3"/>
       <c r="B221" s="3"/>
       <c r="E221" s="3"/>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="3"/>
       <c r="B222" s="3"/>
       <c r="E222" s="3"/>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="3"/>
       <c r="B223" s="3"/>
       <c r="E223" s="3"/>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="3"/>
       <c r="B224" s="3"/>
       <c r="E224" s="3"/>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
       <c r="E225" s="3"/>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="3"/>
       <c r="B226" s="3"/>
       <c r="E226" s="3"/>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="3"/>
       <c r="B227" s="3"/>
       <c r="E227" s="3"/>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="3"/>
       <c r="B228" s="3"/>
       <c r="E228" s="3"/>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="3"/>
       <c r="B229" s="3"/>
       <c r="E229" s="3"/>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="3"/>
       <c r="B230" s="3"/>
       <c r="E230" s="3"/>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="3"/>
       <c r="B231" s="3"/>
       <c r="E231" s="3"/>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="3"/>
       <c r="B232" s="3"/>
       <c r="E232" s="3"/>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="3"/>
       <c r="B233" s="3"/>
       <c r="E233" s="3"/>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="3"/>
       <c r="B234" s="3"/>
       <c r="E234" s="3"/>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="3"/>
       <c r="B235" s="3"/>
       <c r="E235" s="3"/>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="3"/>
       <c r="B236" s="3"/>
       <c r="E236" s="3"/>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="3"/>
       <c r="B237" s="3"/>
       <c r="E237" s="3"/>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="3"/>
       <c r="B238" s="3"/>
       <c r="E238" s="3"/>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="3"/>
       <c r="B239" s="3"/>
       <c r="E239" s="3"/>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="3"/>
       <c r="B240" s="3"/>
       <c r="E240" s="3"/>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="3"/>
       <c r="B241" s="3"/>
       <c r="E241" s="3"/>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="3"/>
       <c r="B242" s="3"/>
       <c r="E242" s="3"/>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="3"/>
       <c r="B243" s="3"/>
       <c r="E243" s="3"/>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="3"/>
       <c r="B244" s="3"/>
       <c r="E244" s="3"/>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="3"/>
       <c r="B245" s="3"/>
       <c r="E245" s="3"/>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="3"/>
       <c r="B246" s="3"/>
       <c r="E246" s="3"/>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="3"/>
       <c r="B247" s="3"/>
       <c r="E247" s="3"/>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="3"/>
       <c r="B248" s="3"/>
       <c r="E248" s="3"/>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="3"/>
       <c r="B249" s="3"/>
       <c r="E249" s="3"/>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="3"/>
       <c r="B250" s="3"/>
       <c r="E250" s="3"/>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="3"/>
       <c r="B251" s="3"/>
       <c r="E251" s="3"/>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="3"/>
       <c r="B252" s="3"/>
       <c r="E252" s="3"/>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="3"/>
       <c r="B253" s="3"/>
       <c r="E253" s="3"/>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="3"/>
       <c r="B254" s="3"/>
       <c r="E254" s="3"/>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
       <c r="E255" s="3"/>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="3"/>
       <c r="B256" s="3"/>
       <c r="E256" s="3"/>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="3"/>
       <c r="B257" s="3"/>
       <c r="E257" s="3"/>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="3"/>
       <c r="B258" s="3"/>
       <c r="E258" s="3"/>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="3"/>
       <c r="B259" s="3"/>
       <c r="E259" s="3"/>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="3"/>
       <c r="B260" s="3"/>
       <c r="E260" s="3"/>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="3"/>
       <c r="B261" s="3"/>
       <c r="E261" s="3"/>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="3"/>
       <c r="B262" s="3"/>
       <c r="E262" s="3"/>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="3"/>
       <c r="B263" s="3"/>
       <c r="E263" s="3"/>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="3"/>
       <c r="B264" s="3"/>
       <c r="E264" s="3"/>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="3"/>
       <c r="B265" s="3"/>
       <c r="E265" s="3"/>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="3"/>
       <c r="B266" s="3"/>
       <c r="E266" s="3"/>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="3"/>
       <c r="B267" s="3"/>
       <c r="E267" s="3"/>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="3"/>
       <c r="B268" s="3"/>
       <c r="E268" s="3"/>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="3"/>
       <c r="B269" s="3"/>
       <c r="E269" s="3"/>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="3"/>
       <c r="B270" s="3"/>
       <c r="E270" s="3"/>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="3"/>
       <c r="B271" s="3"/>
       <c r="E271" s="3"/>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="3"/>
       <c r="B272" s="3"/>
       <c r="E272" s="3"/>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="3"/>
       <c r="B273" s="3"/>
       <c r="E273" s="3"/>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="3"/>
       <c r="B274" s="3"/>
       <c r="E274" s="3"/>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="3"/>
       <c r="B275" s="3"/>
       <c r="E275" s="3"/>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="3"/>
       <c r="B276" s="3"/>
       <c r="E276" s="3"/>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="3"/>
       <c r="B277" s="3"/>
       <c r="E277" s="3"/>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="3"/>
       <c r="B278" s="3"/>
       <c r="E278" s="3"/>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="3"/>
       <c r="B279" s="3"/>
       <c r="E279" s="3"/>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="3"/>
       <c r="B280" s="3"/>
       <c r="E280" s="3"/>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="3"/>
       <c r="B281" s="3"/>
       <c r="E281" s="3"/>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="3"/>
       <c r="B282" s="3"/>
       <c r="E282" s="3"/>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="3"/>
       <c r="B283" s="3"/>
       <c r="E283" s="3"/>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="3"/>
       <c r="B284" s="3"/>
       <c r="E284" s="3"/>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="3"/>
       <c r="B285" s="3"/>
       <c r="E285" s="3"/>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="3"/>
       <c r="B286" s="3"/>
       <c r="E286" s="3"/>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="3"/>
       <c r="B287" s="3"/>
       <c r="E287" s="3"/>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="3"/>
       <c r="B288" s="3"/>
       <c r="E288" s="3"/>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="3"/>
       <c r="B289" s="3"/>
       <c r="E289" s="3"/>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="3"/>
       <c r="B290" s="3"/>
       <c r="E290" s="3"/>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="3"/>
       <c r="B291" s="3"/>
       <c r="E291" s="3"/>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="3"/>
       <c r="B292" s="3"/>
       <c r="E292" s="3"/>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="3"/>
       <c r="B293" s="3"/>
       <c r="E293" s="3"/>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="3"/>
       <c r="B294" s="3"/>
       <c r="E294" s="3"/>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="3"/>
       <c r="B295" s="3"/>
       <c r="E295" s="3"/>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="3"/>
       <c r="B296" s="3"/>
       <c r="E296" s="3"/>
     </row>
-    <row r="297" spans="1:5">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="3"/>
       <c r="B297" s="3"/>
       <c r="E297" s="3"/>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="3"/>
       <c r="B298" s="3"/>
       <c r="E298" s="3"/>
     </row>
-    <row r="299" spans="1:5">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="3"/>
       <c r="B299" s="3"/>
       <c r="E299" s="3"/>
     </row>
-    <row r="300" spans="1:5">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="3"/>
       <c r="B300" s="3"/>
       <c r="E300" s="3"/>
     </row>
-    <row r="301" spans="1:5">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="3"/>
       <c r="B301" s="3"/>
       <c r="E301" s="3"/>
     </row>
-    <row r="302" spans="1:5">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="3"/>
       <c r="B302" s="3"/>
       <c r="E302" s="3"/>
     </row>
-    <row r="303" spans="1:5">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="3"/>
       <c r="B303" s="3"/>
       <c r="E303" s="3"/>
     </row>
-    <row r="304" spans="1:5">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="3"/>
       <c r="B304" s="3"/>
       <c r="E304" s="3"/>
     </row>
-    <row r="305" spans="1:5">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="3"/>
       <c r="B305" s="3"/>
       <c r="E305" s="3"/>
     </row>
-    <row r="306" spans="1:5">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="3"/>
       <c r="B306" s="3"/>
       <c r="E306" s="3"/>
     </row>
-    <row r="307" spans="1:5">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="3"/>
       <c r="B307" s="3"/>
       <c r="E307" s="3"/>
     </row>
-    <row r="308" spans="1:5">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="3"/>
       <c r="B308" s="3"/>
       <c r="E308" s="3"/>
     </row>
-    <row r="309" spans="1:5">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="3"/>
       <c r="B309" s="3"/>
       <c r="E309" s="3"/>
     </row>
-    <row r="310" spans="1:5">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="3"/>
       <c r="B310" s="3"/>
       <c r="E310" s="3"/>
     </row>
-    <row r="311" spans="1:5">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="3"/>
       <c r="B311" s="3"/>
       <c r="E311" s="3"/>
     </row>
-    <row r="312" spans="1:5">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="3"/>
       <c r="B312" s="3"/>
       <c r="E312" s="3"/>
     </row>
-    <row r="313" spans="1:5">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="3"/>
       <c r="B313" s="3"/>
       <c r="E313" s="3"/>
     </row>
-    <row r="314" spans="1:5">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="3"/>
       <c r="B314" s="3"/>
       <c r="E314" s="3"/>
     </row>
-    <row r="315" spans="1:5">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="3"/>
       <c r="B315" s="3"/>
       <c r="E315" s="3"/>
     </row>
-    <row r="316" spans="1:5">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="3"/>
       <c r="B316" s="3"/>
       <c r="E316" s="3"/>
     </row>
-    <row r="317" spans="1:5">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="3"/>
       <c r="B317" s="3"/>
       <c r="E317" s="3"/>
     </row>
-    <row r="318" spans="1:5">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="3"/>
       <c r="B318" s="3"/>
       <c r="E318" s="3"/>
     </row>
-    <row r="319" spans="1:5">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="3"/>
       <c r="B319" s="3"/>
       <c r="E319" s="3"/>
     </row>
-    <row r="320" spans="1:5">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="3"/>
       <c r="B320" s="3"/>
       <c r="E320" s="3"/>
     </row>
-    <row r="321" spans="1:5">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="3"/>
       <c r="B321" s="3"/>
       <c r="E321" s="3"/>
     </row>
-    <row r="322" spans="1:5">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="3"/>
       <c r="B322" s="3"/>
       <c r="E322" s="3"/>
     </row>
-    <row r="323" spans="1:5">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="3"/>
       <c r="B323" s="3"/>
       <c r="E323" s="3"/>
     </row>
-    <row r="324" spans="1:5">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="3"/>
       <c r="B324" s="3"/>
       <c r="E324" s="3"/>
     </row>
-    <row r="325" spans="1:5">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="3"/>
       <c r="B325" s="3"/>
       <c r="E325" s="3"/>
     </row>
-    <row r="326" spans="1:5">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="3"/>
       <c r="B326" s="3"/>
       <c r="E326" s="3"/>
     </row>
-    <row r="327" spans="1:5">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="3"/>
       <c r="B327" s="3"/>
       <c r="E327" s="3"/>
     </row>
-    <row r="328" spans="1:5">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="3"/>
       <c r="B328" s="3"/>
       <c r="E328" s="3"/>
     </row>
-    <row r="329" spans="1:5">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="3"/>
       <c r="B329" s="3"/>
       <c r="E329" s="3"/>
     </row>
-    <row r="330" spans="1:5">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="3"/>
       <c r="B330" s="3"/>
       <c r="E330" s="3"/>
     </row>
-    <row r="331" spans="1:5">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="3"/>
       <c r="B331" s="3"/>
       <c r="E331" s="3"/>
     </row>
-    <row r="332" spans="1:5">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="3"/>
       <c r="B332" s="3"/>
       <c r="E332" s="3"/>
     </row>
-    <row r="333" spans="1:5">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="3"/>
       <c r="B333" s="3"/>
       <c r="E333" s="3"/>
     </row>
-    <row r="334" spans="1:5">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="3"/>
       <c r="B334" s="3"/>
       <c r="E334" s="3"/>
     </row>
-    <row r="335" spans="1:5">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="3"/>
       <c r="B335" s="3"/>
       <c r="E335" s="3"/>
     </row>
-    <row r="336" spans="1:5">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="3"/>
       <c r="B336" s="3"/>
       <c r="E336" s="3"/>
     </row>
-    <row r="337" spans="1:5">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="3"/>
       <c r="B337" s="3"/>
       <c r="E337" s="3"/>
     </row>
-    <row r="338" spans="1:5">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="3"/>
       <c r="B338" s="3"/>
       <c r="E338" s="3"/>
     </row>
-    <row r="339" spans="1:5">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="3"/>
       <c r="B339" s="3"/>
       <c r="E339" s="3"/>
     </row>
-    <row r="340" spans="1:5">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="3"/>
       <c r="B340" s="3"/>
       <c r="E340" s="3"/>
     </row>
-    <row r="341" spans="1:5">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="3"/>
       <c r="B341" s="3"/>
       <c r="E341" s="3"/>
     </row>
-    <row r="342" spans="1:5">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="3"/>
       <c r="B342" s="3"/>
       <c r="E342" s="3"/>
     </row>
-    <row r="343" spans="1:5">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="3"/>
       <c r="B343" s="3"/>
       <c r="E343" s="3"/>
     </row>
-    <row r="344" spans="1:5">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="3"/>
       <c r="B344" s="3"/>
       <c r="E344" s="3"/>
     </row>
-    <row r="345" spans="1:5">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="3"/>
       <c r="B345" s="3"/>
       <c r="E345" s="3"/>
     </row>
-    <row r="346" spans="1:5">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="3"/>
       <c r="B346" s="3"/>
       <c r="E346" s="3"/>
     </row>
-    <row r="347" spans="1:5">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="3"/>
       <c r="B347" s="3"/>
       <c r="E347" s="3"/>
     </row>
-    <row r="348" spans="1:5">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="3"/>
       <c r="B348" s="3"/>
       <c r="E348" s="3"/>
     </row>
-    <row r="349" spans="1:5">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="3"/>
       <c r="B349" s="3"/>
       <c r="E349" s="3"/>
     </row>
-    <row r="350" spans="1:5">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="3"/>
       <c r="B350" s="3"/>
       <c r="E350" s="3"/>
     </row>
-    <row r="351" spans="1:5">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="3"/>
       <c r="B351" s="3"/>
       <c r="E351" s="3"/>
     </row>
-    <row r="352" spans="1:5">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="3"/>
       <c r="B352" s="3"/>
       <c r="E352" s="3"/>
     </row>
-    <row r="353" spans="1:5">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="3"/>
       <c r="B353" s="3"/>
       <c r="E353" s="3"/>
     </row>
-    <row r="354" spans="1:5">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="3"/>
       <c r="B354" s="3"/>
       <c r="E354" s="3"/>
     </row>
-    <row r="355" spans="1:5">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="3"/>
       <c r="B355" s="3"/>
       <c r="E355" s="3"/>
     </row>
-    <row r="356" spans="1:5">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="3"/>
       <c r="B356" s="3"/>
       <c r="E356" s="3"/>
     </row>
-    <row r="357" spans="1:5">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="3"/>
       <c r="B357" s="3"/>
       <c r="E357" s="3"/>
     </row>
-    <row r="358" spans="1:5">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="3"/>
       <c r="B358" s="3"/>
       <c r="E358" s="3"/>
     </row>
-    <row r="359" spans="1:5">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="3"/>
       <c r="B359" s="3"/>
       <c r="E359" s="3"/>
     </row>
-    <row r="360" spans="1:5">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="3"/>
       <c r="B360" s="3"/>
       <c r="E360" s="3"/>
     </row>
-    <row r="361" spans="1:5">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="3"/>
       <c r="B361" s="3"/>
       <c r="E361" s="3"/>
     </row>
-    <row r="362" spans="1:5">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="3"/>
       <c r="B362" s="3"/>
       <c r="E362" s="3"/>
     </row>
-    <row r="363" spans="1:5">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="3"/>
       <c r="B363" s="3"/>
       <c r="E363" s="3"/>
     </row>
-    <row r="364" spans="1:5">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="3"/>
       <c r="B364" s="3"/>
       <c r="E364" s="3"/>
     </row>
-    <row r="365" spans="1:5">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="3"/>
       <c r="B365" s="3"/>
       <c r="E365" s="3"/>
     </row>
-    <row r="366" spans="1:5">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="3"/>
       <c r="B366" s="3"/>
       <c r="E366" s="3"/>
     </row>
-    <row r="367" spans="1:5">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="3"/>
       <c r="B367" s="3"/>
       <c r="E367" s="3"/>
     </row>
-    <row r="368" spans="1:5">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="3"/>
       <c r="B368" s="3"/>
       <c r="E368" s="3"/>
     </row>
-    <row r="369" spans="1:5">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="3"/>
       <c r="B369" s="3"/>
       <c r="E369" s="3"/>
     </row>
-    <row r="370" spans="1:5">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="3"/>
       <c r="B370" s="3"/>
       <c r="E370" s="3"/>
     </row>
-    <row r="371" spans="1:5">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="3"/>
       <c r="B371" s="3"/>
       <c r="E371" s="3"/>
     </row>
-    <row r="372" spans="1:5">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="3"/>
       <c r="B372" s="3"/>
       <c r="E372" s="3"/>
     </row>
-    <row r="373" spans="1:5">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="3"/>
       <c r="B373" s="3"/>
       <c r="E373" s="3"/>
     </row>
-    <row r="374" spans="1:5">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="3"/>
       <c r="B374" s="3"/>
       <c r="E374" s="3"/>
     </row>
-    <row r="375" spans="1:5">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="3"/>
       <c r="B375" s="3"/>
       <c r="E375" s="3"/>
     </row>
-    <row r="376" spans="1:5">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="3"/>
       <c r="B376" s="3"/>
       <c r="E376" s="3"/>
     </row>
-    <row r="377" spans="1:5">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="3"/>
       <c r="B377" s="3"/>
       <c r="E377" s="3"/>
     </row>
-    <row r="378" spans="1:5">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="3"/>
       <c r="B378" s="3"/>
       <c r="E378" s="3"/>
     </row>
-    <row r="379" spans="1:5">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="3"/>
       <c r="B379" s="3"/>
       <c r="E379" s="3"/>
     </row>
-    <row r="380" spans="1:5">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="3"/>
       <c r="B380" s="3"/>
       <c r="E380" s="3"/>
     </row>
-    <row r="381" spans="1:5">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="3"/>
       <c r="B381" s="3"/>
       <c r="E381" s="3"/>
     </row>
-    <row r="382" spans="1:5">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="3"/>
       <c r="B382" s="3"/>
       <c r="E382" s="3"/>
     </row>
-    <row r="383" spans="1:5">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="3"/>
       <c r="B383" s="3"/>
       <c r="E383" s="3"/>
     </row>
-    <row r="384" spans="1:5">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="3"/>
       <c r="B384" s="3"/>
       <c r="E384" s="3"/>
     </row>
-    <row r="385" spans="1:5">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="3"/>
       <c r="B385" s="3"/>
       <c r="E385" s="3"/>
     </row>
-    <row r="386" spans="1:5">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="3"/>
       <c r="B386" s="3"/>
       <c r="E386" s="3"/>
     </row>
-    <row r="387" spans="1:5">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" s="3"/>
       <c r="B387" s="3"/>
       <c r="E387" s="3"/>
     </row>
-    <row r="388" spans="1:5">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="3"/>
       <c r="B388" s="3"/>
       <c r="E388" s="3"/>
     </row>
-    <row r="389" spans="1:5">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="3"/>
       <c r="B389" s="3"/>
       <c r="E389" s="3"/>
     </row>
-    <row r="390" spans="1:5">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" s="3"/>
       <c r="B390" s="3"/>
       <c r="E390" s="3"/>
     </row>
-    <row r="391" spans="1:5">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" s="3"/>
       <c r="B391" s="3"/>
       <c r="E391" s="3"/>
     </row>
-    <row r="392" spans="1:5">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" s="3"/>
       <c r="B392" s="3"/>
       <c r="E392" s="3"/>
     </row>
-    <row r="393" spans="1:5">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" s="3"/>
       <c r="B393" s="3"/>
       <c r="E393" s="3"/>
     </row>
-    <row r="394" spans="1:5">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="3"/>
       <c r="B394" s="3"/>
       <c r="E394" s="3"/>
     </row>
-    <row r="395" spans="1:5">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="3"/>
       <c r="B395" s="3"/>
       <c r="E395" s="3"/>
     </row>
-    <row r="396" spans="1:5">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" s="3"/>
       <c r="B396" s="3"/>
       <c r="E396" s="3"/>
     </row>
-    <row r="397" spans="1:5">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" s="3"/>
       <c r="B397" s="3"/>
       <c r="E397" s="3"/>
     </row>
-    <row r="398" spans="1:5">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" s="3"/>
       <c r="B398" s="3"/>
       <c r="E398" s="3"/>
     </row>
-    <row r="399" spans="1:5">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" s="3"/>
       <c r="B399" s="3"/>
       <c r="E399" s="3"/>
     </row>
-    <row r="400" spans="1:5">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="3"/>
       <c r="B400" s="3"/>
       <c r="E400" s="3"/>
     </row>
-    <row r="401" spans="1:5">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" s="3"/>
       <c r="B401" s="3"/>
       <c r="E401" s="3"/>
     </row>
-    <row r="402" spans="1:5">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" s="3"/>
       <c r="B402" s="3"/>
       <c r="E402" s="3"/>
     </row>
-    <row r="403" spans="1:5">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" s="3"/>
       <c r="B403" s="3"/>
       <c r="E403" s="3"/>
     </row>
-    <row r="404" spans="1:5">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" s="3"/>
       <c r="B404" s="3"/>
       <c r="E404" s="3"/>
     </row>
-    <row r="405" spans="1:5">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" s="3"/>
       <c r="B405" s="3"/>
       <c r="E405" s="3"/>
     </row>
-    <row r="406" spans="1:5">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" s="3"/>
       <c r="B406" s="3"/>
       <c r="E406" s="3"/>
     </row>
-    <row r="407" spans="1:5">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" s="3"/>
       <c r="B407" s="3"/>
       <c r="E407" s="3"/>
     </row>
-    <row r="408" spans="1:5">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" s="3"/>
       <c r="B408" s="3"/>
       <c r="E408" s="3"/>
     </row>
-    <row r="409" spans="1:5">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" s="3"/>
       <c r="B409" s="3"/>
       <c r="E409" s="3"/>
     </row>
-    <row r="410" spans="1:5">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" s="3"/>
       <c r="B410" s="3"/>
       <c r="E410" s="3"/>
     </row>
-    <row r="411" spans="1:5">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" s="3"/>
       <c r="B411" s="3"/>
       <c r="E411" s="3"/>
     </row>
-    <row r="412" spans="1:5">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" s="3"/>
       <c r="B412" s="3"/>
       <c r="E412" s="3"/>
     </row>
-    <row r="413" spans="1:5">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" s="3"/>
       <c r="B413" s="3"/>
       <c r="E413" s="3"/>
     </row>
-    <row r="414" spans="1:5">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" s="3"/>
       <c r="B414" s="3"/>
       <c r="E414" s="3"/>
     </row>
-    <row r="415" spans="1:5">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" s="3"/>
       <c r="B415" s="3"/>
       <c r="E415" s="3"/>
     </row>
-    <row r="416" spans="1:5">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" s="3"/>
       <c r="B416" s="3"/>
       <c r="E416" s="3"/>
     </row>
-    <row r="417" spans="1:5">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" s="3"/>
       <c r="B417" s="3"/>
       <c r="E417" s="3"/>
     </row>
-    <row r="418" spans="1:5">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" s="3"/>
       <c r="B418" s="3"/>
       <c r="E418" s="3"/>
     </row>
-    <row r="419" spans="1:5">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" s="3"/>
       <c r="B419" s="3"/>
       <c r="E419" s="3"/>
     </row>
-    <row r="420" spans="1:5">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" s="3"/>
       <c r="B420" s="3"/>
       <c r="E420" s="3"/>
     </row>
-    <row r="421" spans="1:5">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" s="3"/>
       <c r="B421" s="3"/>
       <c r="E421" s="3"/>
     </row>
-    <row r="422" spans="1:5">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" s="3"/>
       <c r="B422" s="3"/>
       <c r="E422" s="3"/>
     </row>
-    <row r="423" spans="1:5">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" s="3"/>
       <c r="B423" s="3"/>
       <c r="E423" s="3"/>
     </row>
-    <row r="424" spans="1:5">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" s="3"/>
       <c r="B424" s="3"/>
       <c r="E424" s="3"/>
     </row>
-    <row r="425" spans="1:5">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" s="3"/>
       <c r="B425" s="3"/>
       <c r="E425" s="3"/>
     </row>
-    <row r="426" spans="1:5">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" s="3"/>
       <c r="B426" s="3"/>
       <c r="E426" s="3"/>
     </row>
-    <row r="427" spans="1:5">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" s="3"/>
       <c r="B427" s="3"/>
       <c r="E427" s="3"/>
     </row>
-    <row r="428" spans="1:5">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" s="3"/>
       <c r="B428" s="3"/>
       <c r="E428" s="3"/>
     </row>
-    <row r="429" spans="1:5">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" s="3"/>
       <c r="B429" s="3"/>
       <c r="E429" s="3"/>
     </row>
-    <row r="430" spans="1:5">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" s="3"/>
       <c r="B430" s="3"/>
       <c r="E430" s="3"/>
     </row>
-    <row r="431" spans="1:5">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" s="3"/>
       <c r="B431" s="3"/>
       <c r="E431" s="3"/>
     </row>
-    <row r="432" spans="1:5">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" s="3"/>
       <c r="B432" s="3"/>
       <c r="E432" s="3"/>
     </row>
-    <row r="433" spans="1:5">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" s="3"/>
       <c r="B433" s="3"/>
       <c r="E433" s="3"/>
     </row>
-    <row r="434" spans="1:5">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" s="3"/>
       <c r="B434" s="3"/>
       <c r="E434" s="3"/>
     </row>
-    <row r="435" spans="1:5">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" s="3"/>
       <c r="B435" s="3"/>
       <c r="E435" s="3"/>
     </row>
-    <row r="436" spans="1:5">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" s="3"/>
       <c r="B436" s="3"/>
       <c r="E436" s="3"/>
     </row>
-    <row r="437" spans="1:5">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" s="3"/>
       <c r="B437" s="3"/>
       <c r="E437" s="3"/>
     </row>
-    <row r="438" spans="1:5">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" s="3"/>
       <c r="B438" s="3"/>
       <c r="E438" s="3"/>
     </row>
-    <row r="439" spans="1:5">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" s="3"/>
       <c r="B439" s="3"/>
       <c r="E439" s="3"/>
     </row>
-    <row r="440" spans="1:5">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" s="3"/>
       <c r="B440" s="3"/>
       <c r="E440" s="3"/>
     </row>
-    <row r="441" spans="1:5">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" s="3"/>
       <c r="B441" s="3"/>
       <c r="E441" s="3"/>
     </row>
-    <row r="442" spans="1:5">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" s="3"/>
       <c r="B442" s="3"/>
       <c r="E442" s="3"/>
     </row>
-    <row r="443" spans="1:5">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" s="3"/>
       <c r="B443" s="3"/>
       <c r="E443" s="3"/>
     </row>
-    <row r="444" spans="1:5">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" s="3"/>
       <c r="B444" s="3"/>
       <c r="E444" s="3"/>
     </row>
-    <row r="445" spans="1:5">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" s="3"/>
       <c r="B445" s="3"/>
       <c r="E445" s="3"/>
     </row>
-    <row r="446" spans="1:5">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" s="3"/>
       <c r="B446" s="3"/>
       <c r="E446" s="3"/>
     </row>
-    <row r="447" spans="1:5">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" s="3"/>
       <c r="B447" s="3"/>
       <c r="E447" s="3"/>
     </row>
-    <row r="448" spans="1:5">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" s="3"/>
       <c r="B448" s="3"/>
       <c r="E448" s="3"/>
     </row>
-    <row r="449" spans="1:5">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" s="3"/>
       <c r="B449" s="3"/>
       <c r="E449" s="3"/>
     </row>
-    <row r="450" spans="1:5">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" s="3"/>
       <c r="B450" s="3"/>
       <c r="E450" s="3"/>
     </row>
-    <row r="451" spans="1:5">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" s="3"/>
       <c r="B451" s="3"/>
       <c r="E451" s="3"/>
     </row>
-    <row r="452" spans="1:5">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" s="3"/>
       <c r="B452" s="3"/>
       <c r="E452" s="3"/>
     </row>
-    <row r="453" spans="1:5">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" s="3"/>
       <c r="B453" s="3"/>
       <c r="E453" s="3"/>
     </row>
-    <row r="454" spans="1:5">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454" s="3"/>
       <c r="B454" s="3"/>
       <c r="E454" s="3"/>
     </row>
-    <row r="455" spans="1:5">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455" s="3"/>
       <c r="B455" s="3"/>
       <c r="E455" s="3"/>
     </row>
-    <row r="456" spans="1:5">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456" s="3"/>
       <c r="B456" s="3"/>
       <c r="E456" s="3"/>
     </row>
-    <row r="457" spans="1:5">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457" s="3"/>
       <c r="B457" s="3"/>
       <c r="E457" s="3"/>
     </row>
-    <row r="458" spans="1:5">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458" s="3"/>
       <c r="B458" s="3"/>
       <c r="E458" s="3"/>
     </row>
-    <row r="459" spans="1:5">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459" s="3"/>
       <c r="B459" s="3"/>
       <c r="E459" s="3"/>
     </row>
-    <row r="460" spans="1:5">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460" s="3"/>
       <c r="B460" s="3"/>
       <c r="E460" s="3"/>
     </row>
-    <row r="461" spans="1:5">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461" s="3"/>
       <c r="B461" s="3"/>
       <c r="E461" s="3"/>
     </row>
-    <row r="462" spans="1:5">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462" s="3"/>
       <c r="B462" s="3"/>
       <c r="E462" s="3"/>
     </row>
-    <row r="463" spans="1:5">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463" s="3"/>
       <c r="B463" s="3"/>
       <c r="E463" s="3"/>
     </row>
-    <row r="464" spans="1:5">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464" s="3"/>
       <c r="B464" s="3"/>
       <c r="E464" s="3"/>
     </row>
-    <row r="465" spans="1:5">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465" s="3"/>
       <c r="B465" s="3"/>
       <c r="E465" s="3"/>
     </row>
-    <row r="466" spans="1:5">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466" s="3"/>
       <c r="B466" s="3"/>
       <c r="E466" s="3"/>
     </row>
-    <row r="467" spans="1:5">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467" s="3"/>
       <c r="B467" s="3"/>
       <c r="E467" s="3"/>
     </row>
-    <row r="468" spans="1:5">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468" s="3"/>
       <c r="B468" s="3"/>
       <c r="E468" s="3"/>
     </row>
-    <row r="469" spans="1:5">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469" s="3"/>
       <c r="B469" s="3"/>
       <c r="E469" s="3"/>
     </row>
-    <row r="470" spans="1:5">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470" s="3"/>
       <c r="B470" s="3"/>
       <c r="E470" s="3"/>
     </row>
-    <row r="471" spans="1:5">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471" s="3"/>
       <c r="B471" s="3"/>
       <c r="E471" s="3"/>
     </row>
-    <row r="472" spans="1:5">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472" s="3"/>
       <c r="B472" s="3"/>
       <c r="E472" s="3"/>
     </row>
-    <row r="473" spans="1:5">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473" s="3"/>
       <c r="B473" s="3"/>
       <c r="E473" s="3"/>
     </row>
-    <row r="474" spans="1:5">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474" s="3"/>
       <c r="B474" s="3"/>
       <c r="E474" s="3"/>
     </row>
-    <row r="475" spans="1:5">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475" s="3"/>
       <c r="B475" s="3"/>
       <c r="E475" s="3"/>
     </row>
-    <row r="476" spans="1:5">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476" s="3"/>
       <c r="B476" s="3"/>
       <c r="E476" s="3"/>
     </row>
-    <row r="477" spans="1:5">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477" s="3"/>
       <c r="B477" s="3"/>
       <c r="E477" s="3"/>
     </row>
-    <row r="478" spans="1:5">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478" s="3"/>
       <c r="B478" s="3"/>
       <c r="E478" s="3"/>
     </row>
-    <row r="479" spans="1:5">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479" s="3"/>
       <c r="B479" s="3"/>
       <c r="E479" s="3"/>
     </row>
-    <row r="480" spans="1:5">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480" s="3"/>
       <c r="B480" s="3"/>
       <c r="E480" s="3"/>
     </row>
-    <row r="481" spans="1:5">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481" s="3"/>
       <c r="B481" s="3"/>
       <c r="E481" s="3"/>
     </row>
-    <row r="482" spans="1:5">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482" s="3"/>
       <c r="B482" s="3"/>
       <c r="E482" s="3"/>
     </row>
-    <row r="483" spans="1:5">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483" s="3"/>
       <c r="B483" s="3"/>
       <c r="E483" s="3"/>
     </row>
-    <row r="484" spans="1:5">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484" s="3"/>
       <c r="B484" s="3"/>
       <c r="E484" s="3"/>
     </row>
-    <row r="485" spans="1:5">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485" s="3"/>
       <c r="B485" s="3"/>
       <c r="E485" s="3"/>
     </row>
-    <row r="486" spans="1:5">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486" s="3"/>
       <c r="B486" s="3"/>
       <c r="E486" s="3"/>
     </row>
-    <row r="487" spans="1:5">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487" s="3"/>
       <c r="B487" s="3"/>
       <c r="E487" s="3"/>
     </row>
-    <row r="488" spans="1:5">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488" s="3"/>
       <c r="B488" s="3"/>
       <c r="E488" s="3"/>
     </row>
-    <row r="489" spans="1:5">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489" s="3"/>
       <c r="B489" s="3"/>
       <c r="E489" s="3"/>
     </row>
-    <row r="490" spans="1:5">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490" s="3"/>
       <c r="B490" s="3"/>
       <c r="E490" s="3"/>
     </row>
-    <row r="491" spans="1:5">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491" s="3"/>
       <c r="B491" s="3"/>
       <c r="E491" s="3"/>
     </row>
-    <row r="492" spans="1:5">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492" s="3"/>
       <c r="B492" s="3"/>
       <c r="E492" s="3"/>
     </row>
-    <row r="493" spans="1:5">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A493" s="3"/>
       <c r="B493" s="3"/>
       <c r="E493" s="3"/>
     </row>
-    <row r="494" spans="1:5">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494" s="3"/>
       <c r="B494" s="3"/>
       <c r="E494" s="3"/>
     </row>
-    <row r="495" spans="1:5">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495" s="3"/>
       <c r="B495" s="3"/>
       <c r="E495" s="3"/>
     </row>
-    <row r="496" spans="1:5">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496" s="3"/>
       <c r="B496" s="3"/>
       <c r="E496" s="3"/>
     </row>
-    <row r="497" spans="1:5">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497" s="3"/>
       <c r="B497" s="3"/>
       <c r="E497" s="3"/>
     </row>
-    <row r="498" spans="1:5">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498" s="3"/>
       <c r="B498" s="3"/>
       <c r="E498" s="3"/>
     </row>
-    <row r="499" spans="1:5">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499" s="3"/>
       <c r="B499" s="3"/>
       <c r="E499" s="3"/>
     </row>
-    <row r="500" spans="1:5">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500" s="3"/>
       <c r="B500" s="3"/>
       <c r="E500" s="3"/>
     </row>
-    <row r="501" spans="1:5">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501" s="3"/>
       <c r="B501" s="3"/>
       <c r="E501" s="3"/>
     </row>
-    <row r="502" spans="1:5">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A502" s="3"/>
       <c r="B502" s="3"/>
       <c r="E502" s="3"/>
     </row>
-    <row r="503" spans="1:5">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A503" s="3"/>
       <c r="B503" s="3"/>
       <c r="E503" s="3"/>
     </row>
-    <row r="504" spans="1:5">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A504" s="3"/>
       <c r="B504" s="3"/>
       <c r="E504" s="3"/>
     </row>
-    <row r="505" spans="1:5">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A505" s="3"/>
       <c r="B505" s="3"/>
       <c r="E505" s="3"/>
     </row>
-    <row r="506" spans="1:5">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A506" s="3"/>
       <c r="B506" s="3"/>
       <c r="E506" s="3"/>
     </row>
-    <row r="507" spans="1:5">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A507" s="3"/>
       <c r="B507" s="3"/>
       <c r="E507" s="3"/>
     </row>
-    <row r="508" spans="1:5">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A508" s="3"/>
       <c r="B508" s="3"/>
       <c r="E508" s="3"/>
     </row>
-    <row r="509" spans="1:5">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A509" s="3"/>
       <c r="B509" s="3"/>
       <c r="E509" s="3"/>
     </row>
-    <row r="510" spans="1:5">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A510" s="3"/>
       <c r="B510" s="3"/>
       <c r="E510" s="3"/>
     </row>
-    <row r="511" spans="1:5">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A511" s="3"/>
       <c r="B511" s="3"/>
       <c r="E511" s="3"/>
     </row>
-    <row r="512" spans="1:5">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A512" s="3"/>
       <c r="B512" s="3"/>
       <c r="E512" s="3"/>
     </row>
-    <row r="513" spans="1:5">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A513" s="3"/>
       <c r="B513" s="3"/>
       <c r="E513" s="3"/>
     </row>
-    <row r="514" spans="1:5">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A514" s="3"/>
       <c r="B514" s="3"/>
       <c r="E514" s="3"/>
     </row>
-    <row r="515" spans="1:5">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A515" s="3"/>
       <c r="B515" s="3"/>
       <c r="E515" s="3"/>
     </row>
-    <row r="516" spans="1:5">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A516" s="3"/>
       <c r="B516" s="3"/>
       <c r="E516" s="3"/>
     </row>
-    <row r="517" spans="1:5">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A517" s="3"/>
       <c r="B517" s="3"/>
       <c r="E517" s="3"/>
     </row>
-    <row r="518" spans="1:5">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A518" s="3"/>
       <c r="B518" s="3"/>
       <c r="E518" s="3"/>
     </row>
-    <row r="519" spans="1:5">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A519" s="3"/>
       <c r="B519" s="3"/>
       <c r="E519" s="3"/>
     </row>
-    <row r="520" spans="1:5">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A520" s="3"/>
       <c r="B520" s="3"/>
       <c r="E520" s="3"/>
     </row>
-    <row r="521" spans="1:5">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A521" s="3"/>
       <c r="B521" s="3"/>
       <c r="E521" s="3"/>
     </row>
-    <row r="522" spans="1:5">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A522" s="3"/>
       <c r="B522" s="3"/>
       <c r="E522" s="3"/>
     </row>
-    <row r="523" spans="1:5">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A523" s="3"/>
       <c r="B523" s="3"/>
       <c r="E523" s="3"/>
     </row>
-    <row r="524" spans="1:5">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A524" s="3"/>
       <c r="B524" s="3"/>
       <c r="E524" s="3"/>
     </row>
-    <row r="525" spans="1:5">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A525" s="3"/>
       <c r="B525" s="3"/>
       <c r="E525" s="3"/>
     </row>
-    <row r="526" spans="1:5">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A526" s="3"/>
       <c r="B526" s="3"/>
       <c r="E526" s="3"/>
     </row>
-    <row r="527" spans="1:5">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A527" s="3"/>
       <c r="B527" s="3"/>
       <c r="E527" s="3"/>
     </row>
-    <row r="528" spans="1:5">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A528" s="3"/>
       <c r="B528" s="3"/>
       <c r="E528" s="3"/>
     </row>
-    <row r="529" spans="1:5">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A529" s="3"/>
       <c r="B529" s="3"/>
       <c r="E529" s="3"/>
     </row>
-    <row r="530" spans="1:5">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A530" s="3"/>
       <c r="B530" s="3"/>
       <c r="E530" s="3"/>
     </row>
-    <row r="531" spans="1:5">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A531" s="3"/>
       <c r="B531" s="3"/>
       <c r="E531" s="3"/>
     </row>
-    <row r="532" spans="1:5">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A532" s="3"/>
       <c r="B532" s="3"/>
       <c r="E532" s="3"/>
     </row>
-    <row r="533" spans="1:5">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A533" s="3"/>
       <c r="B533" s="3"/>
       <c r="E533" s="3"/>
     </row>
-    <row r="534" spans="1:5">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A534" s="3"/>
       <c r="B534" s="3"/>
       <c r="E534" s="3"/>
     </row>
-    <row r="535" spans="1:5">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A535" s="3"/>
       <c r="B535" s="3"/>
       <c r="E535" s="3"/>
     </row>
-    <row r="536" spans="1:5">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A536" s="3"/>
       <c r="B536" s="3"/>
       <c r="E536" s="3"/>
     </row>
-    <row r="537" spans="1:5">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A537" s="3"/>
       <c r="B537" s="3"/>
       <c r="E537" s="3"/>
     </row>
-    <row r="538" spans="1:5">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A538" s="3"/>
       <c r="B538" s="3"/>
       <c r="E538" s="3"/>
     </row>
-    <row r="539" spans="1:5">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A539" s="3"/>
       <c r="B539" s="3"/>
       <c r="E539" s="3"/>
     </row>
-    <row r="540" spans="1:5">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A540" s="3"/>
       <c r="B540" s="3"/>
       <c r="E540" s="3"/>
     </row>
-    <row r="541" spans="1:5">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A541" s="3"/>
       <c r="B541" s="3"/>
       <c r="E541" s="3"/>
     </row>
-    <row r="542" spans="1:5">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A542" s="3"/>
       <c r="B542" s="3"/>
       <c r="E542" s="3"/>
     </row>
-    <row r="543" spans="1:5">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A543" s="3"/>
       <c r="B543" s="3"/>
       <c r="E543" s="3"/>
     </row>
-    <row r="544" spans="1:5">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A544" s="3"/>
       <c r="B544" s="3"/>
       <c r="E544" s="3"/>
     </row>
-    <row r="545" spans="1:5">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A545" s="3"/>
       <c r="B545" s="3"/>
       <c r="E545" s="3"/>
     </row>
-    <row r="546" spans="1:5">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A546" s="3"/>
       <c r="B546" s="3"/>
       <c r="E546" s="3"/>
     </row>
-    <row r="547" spans="1:5">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A547" s="3"/>
       <c r="B547" s="3"/>
       <c r="E547" s="3"/>
     </row>
-    <row r="548" spans="1:5">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A548" s="3"/>
       <c r="B548" s="3"/>
       <c r="E548" s="3"/>
     </row>
-    <row r="549" spans="1:5">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A549" s="3"/>
       <c r="B549" s="3"/>
       <c r="E549" s="3"/>
     </row>
-    <row r="550" spans="1:5">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A550" s="3"/>
       <c r="B550" s="3"/>
       <c r="E550" s="3"/>
     </row>
-    <row r="551" spans="1:5">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A551" s="3"/>
       <c r="B551" s="3"/>
       <c r="E551" s="3"/>
     </row>
-    <row r="552" spans="1:5">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A552" s="3"/>
       <c r="B552" s="3"/>
       <c r="E552" s="3"/>
     </row>
-    <row r="553" spans="1:5">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A553" s="3"/>
       <c r="B553" s="3"/>
       <c r="E553" s="3"/>
     </row>
-    <row r="554" spans="1:5">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A554" s="3"/>
       <c r="B554" s="3"/>
       <c r="E554" s="3"/>
     </row>
-    <row r="555" spans="1:5">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A555" s="3"/>
       <c r="B555" s="3"/>
       <c r="E555" s="3"/>
     </row>
-    <row r="556" spans="1:5">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A556" s="3"/>
       <c r="B556" s="3"/>
       <c r="E556" s="3"/>
     </row>
-    <row r="557" spans="1:5">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A557" s="3"/>
       <c r="B557" s="3"/>
       <c r="E557" s="3"/>
     </row>
-    <row r="558" spans="1:5">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A558" s="3"/>
       <c r="B558" s="3"/>
       <c r="E558" s="3"/>
     </row>
-    <row r="559" spans="1:5">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A559" s="3"/>
       <c r="B559" s="3"/>
       <c r="E559" s="3"/>
     </row>
-    <row r="560" spans="1:5">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A560" s="3"/>
       <c r="B560" s="3"/>
       <c r="E560" s="3"/>
     </row>
-    <row r="561" spans="1:5">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A561" s="3"/>
       <c r="B561" s="3"/>
       <c r="E561" s="3"/>
     </row>
-    <row r="562" spans="1:5">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A562" s="3"/>
       <c r="B562" s="3"/>
       <c r="E562" s="3"/>
     </row>
-    <row r="563" spans="1:5">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A563" s="3"/>
       <c r="B563" s="3"/>
       <c r="E563" s="3"/>
     </row>
-    <row r="564" spans="1:5">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A564" s="3"/>
       <c r="B564" s="3"/>
       <c r="E564" s="3"/>
     </row>
-    <row r="565" spans="1:5">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A565" s="3"/>
       <c r="B565" s="3"/>
       <c r="E565" s="3"/>
     </row>
-    <row r="566" spans="1:5">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A566" s="3"/>
       <c r="B566" s="3"/>
       <c r="E566" s="3"/>
     </row>
-    <row r="567" spans="1:5">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A567" s="3"/>
       <c r="B567" s="3"/>
       <c r="E567" s="3"/>
     </row>
-    <row r="568" spans="1:5">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A568" s="3"/>
       <c r="B568" s="3"/>
       <c r="E568" s="3"/>
     </row>
-    <row r="569" spans="1:5">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A569" s="3"/>
       <c r="B569" s="3"/>
       <c r="E569" s="3"/>
     </row>
-    <row r="570" spans="1:5">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A570" s="3"/>
       <c r="B570" s="3"/>
       <c r="E570" s="3"/>
     </row>
-    <row r="571" spans="1:5">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A571" s="3"/>
       <c r="B571" s="3"/>
       <c r="E571" s="3"/>
     </row>
-    <row r="572" spans="1:5">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A572" s="3"/>
       <c r="B572" s="3"/>
       <c r="E572" s="3"/>
     </row>
-    <row r="573" spans="1:5">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A573" s="3"/>
       <c r="B573" s="3"/>
       <c r="E573" s="3"/>
     </row>
-    <row r="574" spans="1:5">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A574" s="3"/>
       <c r="B574" s="3"/>
       <c r="E574" s="3"/>
     </row>
-    <row r="575" spans="1:5">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A575" s="3"/>
       <c r="B575" s="3"/>
       <c r="E575" s="3"/>
     </row>
-    <row r="576" spans="1:5">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A576" s="3"/>
       <c r="B576" s="3"/>
       <c r="E576" s="3"/>
     </row>
-    <row r="577" spans="1:5">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A577" s="3"/>
       <c r="B577" s="3"/>
       <c r="E577" s="3"/>
     </row>
-    <row r="578" spans="1:5">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A578" s="3"/>
       <c r="B578" s="3"/>
       <c r="E578" s="3"/>
     </row>
-    <row r="579" spans="1:5">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A579" s="3"/>
       <c r="B579" s="3"/>
       <c r="E579" s="3"/>
     </row>
-    <row r="580" spans="1:5">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A580" s="3"/>
       <c r="B580" s="3"/>
       <c r="E580" s="3"/>
     </row>
-    <row r="581" spans="1:5">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A581" s="3"/>
       <c r="B581" s="3"/>
       <c r="E581" s="3"/>
     </row>
-    <row r="582" spans="1:5">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A582" s="3"/>
       <c r="B582" s="3"/>
       <c r="E582" s="3"/>
     </row>
-    <row r="583" spans="1:5">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A583" s="3"/>
       <c r="B583" s="3"/>
       <c r="E583" s="3"/>
     </row>
-    <row r="584" spans="1:5">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A584" s="3"/>
       <c r="B584" s="3"/>
       <c r="E584" s="3"/>
     </row>
-    <row r="585" spans="1:5">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A585" s="3"/>
       <c r="B585" s="3"/>
       <c r="E585" s="3"/>
     </row>
-    <row r="586" spans="1:5">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A586" s="3"/>
       <c r="B586" s="3"/>
       <c r="E586" s="3"/>
     </row>
-    <row r="587" spans="1:5">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A587" s="3"/>
       <c r="B587" s="3"/>
       <c r="E587" s="3"/>
     </row>
-    <row r="588" spans="1:5">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A588" s="3"/>
       <c r="B588" s="3"/>
       <c r="E588" s="3"/>
     </row>
-    <row r="589" spans="1:5">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A589" s="3"/>
       <c r="B589" s="3"/>
       <c r="E589" s="3"/>
     </row>
-    <row r="590" spans="1:5">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A590" s="3"/>
       <c r="B590" s="3"/>
       <c r="E590" s="3"/>
     </row>
-    <row r="591" spans="1:5">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A591" s="3"/>
       <c r="B591" s="3"/>
       <c r="E591" s="3"/>
     </row>
-    <row r="592" spans="1:5">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A592" s="3"/>
       <c r="B592" s="3"/>
       <c r="E592" s="3"/>
     </row>
-    <row r="593" spans="1:5">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A593" s="3"/>
       <c r="B593" s="3"/>
       <c r="E593" s="3"/>
     </row>
-    <row r="594" spans="1:5">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A594" s="3"/>
       <c r="B594" s="3"/>
       <c r="E594" s="3"/>
     </row>
-    <row r="595" spans="1:5">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A595" s="3"/>
       <c r="B595" s="3"/>
       <c r="E595" s="3"/>
     </row>
-    <row r="596" spans="1:5">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A596" s="3"/>
       <c r="B596" s="3"/>
       <c r="E596" s="3"/>
     </row>
-    <row r="597" spans="1:5">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A597" s="3"/>
       <c r="B597" s="3"/>
       <c r="E597" s="3"/>
     </row>
-    <row r="598" spans="1:5">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A598" s="3"/>
       <c r="B598" s="3"/>
       <c r="E598" s="3"/>
     </row>
-    <row r="599" spans="1:5">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A599" s="3"/>
       <c r="B599" s="3"/>
       <c r="E599" s="3"/>
     </row>
-    <row r="600" spans="1:5">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A600" s="3"/>
       <c r="B600" s="3"/>
       <c r="E600" s="3"/>
     </row>
-    <row r="601" spans="1:5">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A601" s="3"/>
       <c r="B601" s="3"/>
       <c r="E601" s="3"/>
     </row>
-    <row r="602" spans="1:5">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A602" s="3"/>
       <c r="B602" s="3"/>
       <c r="E602" s="3"/>
     </row>
-    <row r="603" spans="1:5">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A603" s="3"/>
       <c r="B603" s="3"/>
       <c r="E603" s="3"/>
     </row>
-    <row r="604" spans="1:5">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A604" s="3"/>
       <c r="B604" s="3"/>
       <c r="E604" s="3"/>
     </row>
-    <row r="605" spans="1:5">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A605" s="3"/>
       <c r="B605" s="3"/>
       <c r="E605" s="3"/>
     </row>
-    <row r="606" spans="1:5">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A606" s="3"/>
       <c r="B606" s="3"/>
       <c r="E606" s="3"/>
     </row>
-    <row r="607" spans="1:5">
+    <row r="607" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A607" s="3"/>
       <c r="B607" s="3"/>
       <c r="E607" s="3"/>
     </row>
-    <row r="608" spans="1:5">
+    <row r="608" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A608" s="3"/>
       <c r="B608" s="3"/>
       <c r="E608" s="3"/>
     </row>
-    <row r="609" spans="1:5">
+    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A609" s="3"/>
       <c r="B609" s="3"/>
       <c r="E609" s="3"/>
     </row>
-    <row r="610" spans="1:5">
+    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A610" s="3"/>
       <c r="B610" s="3"/>
       <c r="E610" s="3"/>
     </row>
-    <row r="611" spans="1:5">
+    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A611" s="3"/>
       <c r="B611" s="3"/>
       <c r="E611" s="3"/>
     </row>
-    <row r="612" spans="1:5">
+    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A612" s="3"/>
       <c r="B612" s="3"/>
       <c r="E612" s="3"/>
     </row>
-    <row r="613" spans="1:5">
+    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A613" s="3"/>
       <c r="B613" s="3"/>
       <c r="E613" s="3"/>
     </row>
-    <row r="614" spans="1:5">
+    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A614" s="3"/>
       <c r="B614" s="3"/>
       <c r="E614" s="3"/>
     </row>
-    <row r="615" spans="1:5">
+    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A615" s="3"/>
       <c r="B615" s="3"/>
       <c r="E615" s="3"/>
     </row>
-    <row r="616" spans="1:5">
+    <row r="616" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A616" s="3"/>
       <c r="B616" s="3"/>
       <c r="E616" s="3"/>
     </row>
-    <row r="617" spans="1:5">
+    <row r="617" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A617" s="3"/>
       <c r="B617" s="3"/>
       <c r="E617" s="3"/>
     </row>
-    <row r="618" spans="1:5">
+    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A618" s="3"/>
       <c r="B618" s="3"/>
       <c r="E618" s="3"/>
     </row>
-    <row r="619" spans="1:5">
+    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A619" s="3"/>
       <c r="B619" s="3"/>
       <c r="E619" s="3"/>
     </row>
-    <row r="620" spans="1:5">
+    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A620" s="3"/>
       <c r="B620" s="3"/>
       <c r="E620" s="3"/>
     </row>
-    <row r="621" spans="1:5">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A621" s="3"/>
       <c r="B621" s="3"/>
       <c r="E621" s="3"/>
     </row>
-    <row r="622" spans="1:5">
+    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A622" s="3"/>
       <c r="B622" s="3"/>
       <c r="E622" s="3"/>
     </row>
-    <row r="623" spans="1:5">
+    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A623" s="3"/>
       <c r="B623" s="3"/>
       <c r="E623" s="3"/>
     </row>
-    <row r="624" spans="1:5">
+    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A624" s="3"/>
       <c r="B624" s="3"/>
       <c r="E624" s="3"/>
     </row>
-    <row r="625" spans="1:5">
+    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A625" s="3"/>
       <c r="B625" s="3"/>
       <c r="E625" s="3"/>
     </row>
-    <row r="626" spans="1:5">
+    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A626" s="3"/>
       <c r="B626" s="3"/>
       <c r="E626" s="3"/>
     </row>
-    <row r="627" spans="1:5">
+    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A627" s="3"/>
       <c r="B627" s="3"/>
       <c r="E627" s="3"/>
     </row>
-    <row r="628" spans="1:5">
+    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A628" s="3"/>
       <c r="B628" s="3"/>
       <c r="E628" s="3"/>
     </row>
-    <row r="629" spans="1:5">
+    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A629" s="3"/>
       <c r="B629" s="3"/>
       <c r="E629" s="3"/>
     </row>
-    <row r="630" spans="1:5">
+    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A630" s="3"/>
       <c r="B630" s="3"/>
       <c r="E630" s="3"/>
     </row>
-    <row r="631" spans="1:5">
+    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A631" s="3"/>
       <c r="B631" s="3"/>
       <c r="E631" s="3"/>
     </row>
-    <row r="632" spans="1:5">
+    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A632" s="3"/>
       <c r="B632" s="3"/>
       <c r="E632" s="3"/>
     </row>
-    <row r="633" spans="1:5">
+    <row r="633" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A633" s="3"/>
       <c r="B633" s="3"/>
       <c r="E633" s="3"/>
     </row>
-    <row r="634" spans="1:5">
+    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A634" s="3"/>
       <c r="B634" s="3"/>
       <c r="E634" s="3"/>
     </row>
-    <row r="635" spans="1:5">
+    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A635" s="3"/>
       <c r="B635" s="3"/>
       <c r="E635" s="3"/>
     </row>
-    <row r="636" spans="1:5">
+    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A636" s="3"/>
       <c r="B636" s="3"/>
       <c r="E636" s="3"/>
     </row>
-    <row r="637" spans="1:5">
+    <row r="637" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A637" s="3"/>
       <c r="B637" s="3"/>
       <c r="E637" s="3"/>
     </row>
-    <row r="638" spans="1:5">
+    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A638" s="3"/>
       <c r="B638" s="3"/>
       <c r="E638" s="3"/>
     </row>
-    <row r="639" spans="1:5">
+    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A639" s="3"/>
       <c r="B639" s="3"/>
       <c r="E639" s="3"/>
     </row>
-    <row r="640" spans="1:5">
+    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A640" s="3"/>
       <c r="B640" s="3"/>
       <c r="E640" s="3"/>
     </row>
-    <row r="641" spans="1:5">
+    <row r="641" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A641" s="3"/>
       <c r="B641" s="3"/>
       <c r="E641" s="3"/>
     </row>
-    <row r="642" spans="1:5">
+    <row r="642" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A642" s="3"/>
       <c r="B642" s="3"/>
       <c r="E642" s="3"/>
     </row>
-    <row r="643" spans="1:5">
+    <row r="643" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A643" s="3"/>
       <c r="B643" s="3"/>
       <c r="E643" s="3"/>
     </row>
-    <row r="644" spans="1:5">
+    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A644" s="3"/>
       <c r="B644" s="3"/>
       <c r="E644" s="3"/>
     </row>
-    <row r="645" spans="1:5">
+    <row r="645" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A645" s="3"/>
       <c r="B645" s="3"/>
       <c r="E645" s="3"/>
     </row>
-    <row r="646" spans="1:5">
+    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A646" s="3"/>
       <c r="B646" s="3"/>
       <c r="E646" s="3"/>
     </row>
-    <row r="647" spans="1:5">
+    <row r="647" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A647" s="3"/>
       <c r="B647" s="3"/>
       <c r="E647" s="3"/>
     </row>
-    <row r="648" spans="1:5">
+    <row r="648" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A648" s="3"/>
       <c r="B648" s="3"/>
       <c r="E648" s="3"/>
     </row>
-    <row r="649" spans="1:5">
+    <row r="649" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A649" s="3"/>
       <c r="B649" s="3"/>
       <c r="E649" s="3"/>
     </row>
-    <row r="650" spans="1:5">
+    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A650" s="3"/>
       <c r="B650" s="3"/>
       <c r="E650" s="3"/>
     </row>
-    <row r="651" spans="1:5">
+    <row r="651" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A651" s="3"/>
       <c r="B651" s="3"/>
       <c r="E651" s="3"/>
     </row>
-    <row r="652" spans="1:5">
+    <row r="652" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A652" s="3"/>
       <c r="B652" s="3"/>
       <c r="E652" s="3"/>
     </row>
-    <row r="653" spans="1:5">
+    <row r="653" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A653" s="3"/>
       <c r="B653" s="3"/>
       <c r="E653" s="3"/>
     </row>
-    <row r="654" spans="1:5">
+    <row r="654" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A654" s="3"/>
       <c r="B654" s="3"/>
       <c r="E654" s="3"/>
     </row>
-    <row r="655" spans="1:5">
+    <row r="655" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A655" s="3"/>
       <c r="B655" s="3"/>
       <c r="E655" s="3"/>
     </row>
-    <row r="656" spans="1:5">
+    <row r="656" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A656" s="3"/>
       <c r="B656" s="3"/>
       <c r="E656" s="3"/>
     </row>
-    <row r="657" spans="1:5">
+    <row r="657" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A657" s="3"/>
       <c r="B657" s="3"/>
       <c r="E657" s="3"/>
     </row>
-    <row r="658" spans="1:5">
+    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A658" s="3"/>
       <c r="B658" s="3"/>
       <c r="E658" s="3"/>
     </row>
-    <row r="659" spans="1:5">
+    <row r="659" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A659" s="3"/>
       <c r="B659" s="3"/>
       <c r="E659" s="3"/>
     </row>
-    <row r="660" spans="1:5">
+    <row r="660" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A660" s="3"/>
       <c r="B660" s="3"/>
       <c r="E660" s="3"/>
     </row>
-    <row r="661" spans="1:5">
+    <row r="661" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A661" s="3"/>
       <c r="B661" s="3"/>
       <c r="E661" s="3"/>
     </row>
-    <row r="662" spans="1:5">
+    <row r="662" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A662" s="3"/>
       <c r="B662" s="3"/>
       <c r="E662" s="3"/>
     </row>
-    <row r="663" spans="1:5">
+    <row r="663" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A663" s="3"/>
       <c r="B663" s="3"/>
       <c r="E663" s="3"/>
     </row>
-    <row r="664" spans="1:5">
+    <row r="664" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A664" s="3"/>
       <c r="B664" s="3"/>
       <c r="E664" s="3"/>
     </row>
-    <row r="665" spans="1:5">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A665" s="3"/>
       <c r="B665" s="3"/>
       <c r="E665" s="3"/>
     </row>
-    <row r="666" spans="1:5">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A666" s="3"/>
       <c r="B666" s="3"/>
       <c r="E666" s="3"/>
     </row>
-    <row r="667" spans="1:5">
+    <row r="667" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A667" s="3"/>
       <c r="B667" s="3"/>
       <c r="E667" s="3"/>
     </row>
-    <row r="668" spans="1:5">
+    <row r="668" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A668" s="3"/>
       <c r="B668" s="3"/>
       <c r="E668" s="3"/>
     </row>
-    <row r="669" spans="1:5">
+    <row r="669" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A669" s="3"/>
       <c r="B669" s="3"/>
       <c r="E669" s="3"/>
     </row>
-    <row r="670" spans="1:5">
+    <row r="670" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A670" s="3"/>
       <c r="B670" s="3"/>
       <c r="E670" s="3"/>
     </row>
-    <row r="671" spans="1:5">
+    <row r="671" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A671" s="3"/>
       <c r="B671" s="3"/>
       <c r="E671" s="3"/>
     </row>
-    <row r="672" spans="1:5">
+    <row r="672" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A672" s="3"/>
       <c r="B672" s="3"/>
       <c r="E672" s="3"/>
     </row>
-    <row r="673" spans="1:5">
+    <row r="673" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A673" s="3"/>
       <c r="B673" s="3"/>
       <c r="E673" s="3"/>
     </row>
-    <row r="674" spans="1:5">
+    <row r="674" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A674" s="3"/>
       <c r="B674" s="3"/>
       <c r="E674" s="3"/>
     </row>
-    <row r="675" spans="1:5">
+    <row r="675" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A675" s="3"/>
       <c r="B675" s="3"/>
       <c r="E675" s="3"/>
     </row>
-    <row r="676" spans="1:5">
+    <row r="676" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A676" s="3"/>
       <c r="B676" s="3"/>
       <c r="E676" s="3"/>
     </row>
-    <row r="677" spans="1:5">
+    <row r="677" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A677" s="3"/>
       <c r="B677" s="3"/>
       <c r="E677" s="3"/>
     </row>
-    <row r="678" spans="1:5">
+    <row r="678" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A678" s="3"/>
       <c r="B678" s="3"/>
       <c r="E678" s="3"/>
     </row>
-    <row r="679" spans="1:5">
+    <row r="679" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A679" s="3"/>
       <c r="B679" s="3"/>
       <c r="E679" s="3"/>
     </row>
-    <row r="680" spans="1:5">
+    <row r="680" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A680" s="3"/>
       <c r="B680" s="3"/>
       <c r="E680" s="3"/>
     </row>
-    <row r="681" spans="1:5">
+    <row r="681" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A681" s="3"/>
       <c r="B681" s="3"/>
       <c r="E681" s="3"/>
     </row>
-    <row r="682" spans="1:5">
+    <row r="682" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A682" s="3"/>
       <c r="B682" s="3"/>
       <c r="E682" s="3"/>
     </row>
-    <row r="683" spans="1:5">
+    <row r="683" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A683" s="3"/>
       <c r="B683" s="3"/>
       <c r="E683" s="3"/>
     </row>
-    <row r="684" spans="1:5">
+    <row r="684" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A684" s="3"/>
       <c r="B684" s="3"/>
       <c r="E684" s="3"/>
     </row>
-    <row r="685" spans="1:5">
+    <row r="685" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A685" s="3"/>
       <c r="B685" s="3"/>
       <c r="E685" s="3"/>
     </row>
-    <row r="686" spans="1:5">
+    <row r="686" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A686" s="3"/>
       <c r="B686" s="3"/>
       <c r="E686" s="3"/>
     </row>
-    <row r="687" spans="1:5">
+    <row r="687" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A687" s="3"/>
       <c r="B687" s="3"/>
       <c r="E687" s="3"/>
     </row>
-    <row r="688" spans="1:5">
+    <row r="688" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A688" s="3"/>
       <c r="B688" s="3"/>
       <c r="E688" s="3"/>
     </row>
-    <row r="689" spans="1:5">
+    <row r="689" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A689" s="3"/>
       <c r="B689" s="3"/>
       <c r="E689" s="3"/>
     </row>
-    <row r="690" spans="1:5">
+    <row r="690" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A690" s="3"/>
       <c r="B690" s="3"/>
       <c r="E690" s="3"/>
     </row>
-    <row r="691" spans="1:5">
+    <row r="691" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A691" s="3"/>
       <c r="B691" s="3"/>
       <c r="E691" s="3"/>
     </row>
-    <row r="692" spans="1:5">
+    <row r="692" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A692" s="3"/>
       <c r="B692" s="3"/>
       <c r="E692" s="3"/>
     </row>
-    <row r="693" spans="1:5">
+    <row r="693" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A693" s="3"/>
       <c r="B693" s="3"/>
       <c r="E693" s="3"/>
     </row>
-    <row r="694" spans="1:5">
+    <row r="694" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A694" s="3"/>
       <c r="B694" s="3"/>
       <c r="E694" s="3"/>
     </row>
-    <row r="695" spans="1:5">
+    <row r="695" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A695" s="3"/>
       <c r="B695" s="3"/>
       <c r="E695" s="3"/>
     </row>
-    <row r="696" spans="1:5">
+    <row r="696" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A696" s="3"/>
       <c r="B696" s="3"/>
       <c r="E696" s="3"/>
     </row>
-    <row r="697" spans="1:5">
+    <row r="697" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A697" s="3"/>
       <c r="B697" s="3"/>
       <c r="E697" s="3"/>
     </row>
-    <row r="698" spans="1:5">
+    <row r="698" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A698" s="3"/>
       <c r="B698" s="3"/>
       <c r="E698" s="3"/>
     </row>
-    <row r="699" spans="1:5">
+    <row r="699" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A699" s="3"/>
       <c r="B699" s="3"/>
       <c r="E699" s="3"/>
     </row>
-    <row r="700" spans="1:5">
+    <row r="700" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A700" s="3"/>
       <c r="B700" s="3"/>
       <c r="E700" s="3"/>
     </row>
-    <row r="701" spans="1:5">
+    <row r="701" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A701" s="3"/>
       <c r="B701" s="3"/>
       <c r="E701" s="3"/>
     </row>
-    <row r="702" spans="1:5">
+    <row r="702" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A702" s="3"/>
       <c r="B702" s="3"/>
       <c r="E702" s="3"/>
     </row>
-    <row r="703" spans="1:5">
+    <row r="703" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A703" s="3"/>
       <c r="B703" s="3"/>
       <c r="E703" s="3"/>
     </row>
-    <row r="704" spans="1:5">
+    <row r="704" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A704" s="3"/>
       <c r="B704" s="3"/>
       <c r="E704" s="3"/>
     </row>
-    <row r="705" spans="1:5">
+    <row r="705" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A705" s="3"/>
       <c r="B705" s="3"/>
       <c r="E705" s="3"/>
     </row>
-    <row r="706" spans="1:5">
+    <row r="706" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A706" s="3"/>
       <c r="B706" s="3"/>
       <c r="E706" s="3"/>
     </row>
-    <row r="707" spans="1:5">
+    <row r="707" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A707" s="3"/>
       <c r="B707" s="3"/>
       <c r="E707" s="3"/>
     </row>
-    <row r="708" spans="1:5">
+    <row r="708" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A708" s="3"/>
       <c r="B708" s="3"/>
       <c r="E708" s="3"/>
     </row>
-    <row r="709" spans="1:5">
+    <row r="709" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A709" s="3"/>
       <c r="B709" s="3"/>
       <c r="E709" s="3"/>
     </row>
-    <row r="710" spans="1:5">
+    <row r="710" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A710" s="3"/>
       <c r="B710" s="3"/>
       <c r="E710" s="3"/>
     </row>
-    <row r="711" spans="1:5">
+    <row r="711" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A711" s="3"/>
       <c r="B711" s="3"/>
       <c r="E711" s="3"/>
     </row>
-    <row r="712" spans="1:5">
+    <row r="712" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A712" s="3"/>
       <c r="B712" s="3"/>
       <c r="E712" s="3"/>
     </row>
-    <row r="713" spans="1:5">
+    <row r="713" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A713" s="3"/>
       <c r="B713" s="3"/>
       <c r="E713" s="3"/>
     </row>
-    <row r="714" spans="1:5">
+    <row r="714" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A714" s="3"/>
       <c r="B714" s="3"/>
       <c r="E714" s="3"/>
     </row>
-    <row r="715" spans="1:5">
+    <row r="715" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A715" s="3"/>
       <c r="B715" s="3"/>
       <c r="E715" s="3"/>
     </row>
-    <row r="716" spans="1:5">
+    <row r="716" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A716" s="3"/>
       <c r="B716" s="3"/>
       <c r="E716" s="3"/>
     </row>
-    <row r="717" spans="1:5">
+    <row r="717" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A717" s="3"/>
       <c r="B717" s="3"/>
       <c r="E717" s="3"/>
     </row>
-    <row r="718" spans="1:5">
+    <row r="718" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A718" s="3"/>
       <c r="B718" s="3"/>
       <c r="E718" s="3"/>
     </row>
-    <row r="719" spans="1:5">
+    <row r="719" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A719" s="3"/>
       <c r="B719" s="3"/>
       <c r="E719" s="3"/>
     </row>
-    <row r="720" spans="1:5">
+    <row r="720" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A720" s="3"/>
       <c r="B720" s="3"/>
       <c r="E720" s="3"/>
     </row>
-    <row r="721" spans="1:5">
+    <row r="721" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A721" s="3"/>
       <c r="B721" s="3"/>
       <c r="E721" s="3"/>
     </row>
-    <row r="722" spans="1:5">
+    <row r="722" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A722" s="3"/>
       <c r="B722" s="3"/>
       <c r="E722" s="3"/>
     </row>
-    <row r="723" spans="1:5">
+    <row r="723" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A723" s="3"/>
       <c r="B723" s="3"/>
       <c r="E723" s="3"/>
     </row>
-    <row r="724" spans="1:5">
+    <row r="724" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A724" s="3"/>
       <c r="B724" s="3"/>
       <c r="E724" s="3"/>
     </row>
-    <row r="725" spans="1:5">
+    <row r="725" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A725" s="3"/>
       <c r="B725" s="3"/>
       <c r="E725" s="3"/>
     </row>
-    <row r="726" spans="1:5">
+    <row r="726" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A726" s="3"/>
       <c r="B726" s="3"/>
       <c r="E726" s="3"/>
     </row>
-    <row r="727" spans="1:5">
+    <row r="727" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A727" s="3"/>
       <c r="B727" s="3"/>
       <c r="E727" s="3"/>
     </row>
-    <row r="728" spans="1:5">
+    <row r="728" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A728" s="3"/>
       <c r="B728" s="3"/>
       <c r="E728" s="3"/>
     </row>
-    <row r="729" spans="1:5">
+    <row r="729" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A729" s="3"/>
       <c r="B729" s="3"/>
       <c r="E729" s="3"/>
     </row>
-    <row r="730" spans="1:5">
+    <row r="730" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A730" s="3"/>
       <c r="B730" s="3"/>
       <c r="E730" s="3"/>
     </row>
-    <row r="731" spans="1:5">
+    <row r="731" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A731" s="3"/>
       <c r="B731" s="3"/>
       <c r="E731" s="3"/>
     </row>
-    <row r="732" spans="1:5">
+    <row r="732" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A732" s="3"/>
       <c r="B732" s="3"/>
       <c r="E732" s="3"/>
     </row>
-    <row r="733" spans="1:5">
+    <row r="733" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A733" s="3"/>
       <c r="B733" s="3"/>
       <c r="E733" s="3"/>
     </row>
-    <row r="734" spans="1:5">
+    <row r="734" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A734" s="3"/>
       <c r="B734" s="3"/>
       <c r="E734" s="3"/>
     </row>
-    <row r="735" spans="1:5">
+    <row r="735" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A735" s="3"/>
       <c r="B735" s="3"/>
       <c r="E735" s="3"/>
     </row>
-    <row r="736" spans="1:5">
+    <row r="736" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A736" s="3"/>
       <c r="B736" s="3"/>
       <c r="E736" s="3"/>
     </row>
-    <row r="737" spans="1:5">
+    <row r="737" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A737" s="3"/>
       <c r="B737" s="3"/>
       <c r="E737" s="3"/>
     </row>
-    <row r="738" spans="1:5">
+    <row r="738" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A738" s="3"/>
       <c r="B738" s="3"/>
       <c r="E738" s="3"/>
     </row>
-    <row r="739" spans="1:5">
+    <row r="739" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A739" s="3"/>
       <c r="B739" s="3"/>
       <c r="E739" s="3"/>
     </row>
-    <row r="740" spans="1:5">
+    <row r="740" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A740" s="3"/>
       <c r="B740" s="3"/>
       <c r="E740" s="3"/>
     </row>
-    <row r="741" spans="1:5">
+    <row r="741" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A741" s="3"/>
       <c r="B741" s="3"/>
       <c r="E741" s="3"/>
     </row>
-    <row r="742" spans="1:5">
+    <row r="742" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A742" s="3"/>
       <c r="B742" s="3"/>
       <c r="E742" s="3"/>
     </row>
-    <row r="743" spans="1:5">
+    <row r="743" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A743" s="3"/>
       <c r="B743" s="3"/>
       <c r="E743" s="3"/>
     </row>
-    <row r="744" spans="1:5">
+    <row r="744" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A744" s="3"/>
       <c r="B744" s="3"/>
       <c r="E744" s="3"/>
     </row>
-    <row r="745" spans="1:5">
+    <row r="745" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A745" s="3"/>
       <c r="B745" s="3"/>
       <c r="E745" s="3"/>
     </row>
-    <row r="746" spans="1:5">
+    <row r="746" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A746" s="3"/>
       <c r="B746" s="3"/>
       <c r="E746" s="3"/>
     </row>
-    <row r="747" spans="1:5">
+    <row r="747" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A747" s="3"/>
       <c r="B747" s="3"/>
       <c r="E747" s="3"/>
     </row>
-    <row r="748" spans="1:5">
+    <row r="748" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A748" s="3"/>
       <c r="B748" s="3"/>
       <c r="E748" s="3"/>
     </row>
-    <row r="749" spans="1:5">
+    <row r="749" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A749" s="3"/>
       <c r="B749" s="3"/>
       <c r="E749" s="3"/>
     </row>
-    <row r="750" spans="1:5">
+    <row r="750" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A750" s="3"/>
       <c r="B750" s="3"/>
       <c r="E750" s="3"/>
     </row>
-    <row r="751" spans="1:5">
+    <row r="751" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A751" s="3"/>
       <c r="B751" s="3"/>
       <c r="E751" s="3"/>
     </row>
-    <row r="752" spans="1:5">
+    <row r="752" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A752" s="3"/>
       <c r="B752" s="3"/>
       <c r="E752" s="3"/>
     </row>
-    <row r="753" spans="1:5">
+    <row r="753" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A753" s="3"/>
       <c r="B753" s="3"/>
       <c r="E753" s="3"/>
     </row>
-    <row r="754" spans="1:5">
+    <row r="754" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A754" s="3"/>
       <c r="B754" s="3"/>
       <c r="E754" s="3"/>
     </row>
-    <row r="755" spans="1:5">
+    <row r="755" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A755" s="3"/>
       <c r="B755" s="3"/>
       <c r="E755" s="3"/>
     </row>
-    <row r="756" spans="1:5">
+    <row r="756" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A756" s="3"/>
       <c r="B756" s="3"/>
       <c r="E756" s="3"/>
     </row>
-    <row r="757" spans="1:5">
+    <row r="757" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A757" s="3"/>
       <c r="B757" s="3"/>
       <c r="E757" s="3"/>
     </row>
-    <row r="758" spans="1:5">
+    <row r="758" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A758" s="3"/>
       <c r="B758" s="3"/>
       <c r="E758" s="3"/>
     </row>
-    <row r="759" spans="1:5">
+    <row r="759" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A759" s="3"/>
       <c r="B759" s="3"/>
       <c r="E759" s="3"/>
     </row>
-    <row r="760" spans="1:5">
+    <row r="760" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A760" s="3"/>
       <c r="B760" s="3"/>
       <c r="E760" s="3"/>
     </row>
-    <row r="761" spans="1:5">
+    <row r="761" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A761" s="3"/>
       <c r="B761" s="3"/>
       <c r="E761" s="3"/>
     </row>
-    <row r="762" spans="1:5">
+    <row r="762" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A762" s="3"/>
       <c r="B762" s="3"/>
       <c r="E762" s="3"/>
     </row>
-    <row r="763" spans="1:5">
+    <row r="763" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A763" s="3"/>
       <c r="B763" s="3"/>
       <c r="E763" s="3"/>
     </row>
-    <row r="764" spans="1:5">
+    <row r="764" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A764" s="3"/>
       <c r="B764" s="3"/>
       <c r="E764" s="3"/>
     </row>
-    <row r="765" spans="1:5">
+    <row r="765" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A765" s="3"/>
       <c r="B765" s="3"/>
       <c r="E765" s="3"/>
     </row>
-    <row r="766" spans="1:5">
+    <row r="766" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A766" s="3"/>
       <c r="B766" s="3"/>
       <c r="E766" s="3"/>
     </row>
-    <row r="767" spans="1:5">
+    <row r="767" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A767" s="3"/>
       <c r="B767" s="3"/>
       <c r="E767" s="3"/>
     </row>
-    <row r="768" spans="1:5">
+    <row r="768" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A768" s="3"/>
       <c r="B768" s="3"/>
       <c r="E768" s="3"/>
     </row>
-    <row r="769" spans="1:5">
+    <row r="769" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A769" s="3"/>
       <c r="B769" s="3"/>
       <c r="E769" s="3"/>
     </row>
-    <row r="770" spans="1:5">
+    <row r="770" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A770" s="3"/>
       <c r="B770" s="3"/>
       <c r="E770" s="3"/>
     </row>
-    <row r="771" spans="1:5">
+    <row r="771" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A771" s="3"/>
       <c r="B771" s="3"/>
       <c r="E771" s="3"/>
     </row>
-    <row r="772" spans="1:5">
+    <row r="772" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A772" s="3"/>
       <c r="B772" s="3"/>
       <c r="E772" s="3"/>
     </row>
-    <row r="773" spans="1:5">
+    <row r="773" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A773" s="3"/>
       <c r="B773" s="3"/>
       <c r="E773" s="3"/>
     </row>
-    <row r="774" spans="1:5">
+    <row r="774" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A774" s="3"/>
       <c r="B774" s="3"/>
       <c r="E774" s="3"/>
     </row>
-    <row r="775" spans="1:5">
+    <row r="775" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A775" s="3"/>
       <c r="B775" s="3"/>
       <c r="E775" s="3"/>
     </row>
-    <row r="776" spans="1:5">
+    <row r="776" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A776" s="3"/>
       <c r="B776" s="3"/>
       <c r="E776" s="3"/>
     </row>
-    <row r="777" spans="1:5">
+    <row r="777" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A777" s="3"/>
       <c r="B777" s="3"/>
       <c r="E777" s="3"/>
     </row>
-    <row r="778" spans="1:5">
+    <row r="778" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A778" s="3"/>
       <c r="B778" s="3"/>
       <c r="E778" s="3"/>
     </row>
-    <row r="779" spans="1:5">
+    <row r="779" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A779" s="3"/>
       <c r="B779" s="3"/>
       <c r="E779" s="3"/>
     </row>
-    <row r="780" spans="1:5">
+    <row r="780" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A780" s="3"/>
       <c r="B780" s="3"/>
       <c r="E780" s="3"/>
     </row>
-    <row r="781" spans="1:5">
+    <row r="781" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A781" s="3"/>
       <c r="B781" s="3"/>
       <c r="E781" s="3"/>
     </row>
-    <row r="782" spans="1:5">
+    <row r="782" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A782" s="3"/>
       <c r="B782" s="3"/>
       <c r="E782" s="3"/>
     </row>
-    <row r="783" spans="1:5">
+    <row r="783" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A783" s="3"/>
       <c r="B783" s="3"/>
       <c r="E783" s="3"/>
     </row>
-    <row r="784" spans="1:5">
+    <row r="784" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A784" s="3"/>
       <c r="B784" s="3"/>
       <c r="E784" s="3"/>
     </row>
-    <row r="785" spans="1:5">
+    <row r="785" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A785" s="3"/>
       <c r="B785" s="3"/>
       <c r="E785" s="3"/>
     </row>
-    <row r="786" spans="1:5">
+    <row r="786" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A786" s="3"/>
       <c r="B786" s="3"/>
       <c r="E786" s="3"/>
     </row>
-    <row r="787" spans="1:5">
+    <row r="787" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A787" s="3"/>
       <c r="B787" s="3"/>
       <c r="E787" s="3"/>
     </row>
-    <row r="788" spans="1:5">
+    <row r="788" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A788" s="3"/>
       <c r="B788" s="3"/>
       <c r="E788" s="3"/>
     </row>
-    <row r="789" spans="1:5">
+    <row r="789" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A789" s="3"/>
       <c r="B789" s="3"/>
       <c r="E789" s="3"/>
     </row>
-    <row r="790" spans="1:5">
+    <row r="790" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A790" s="3"/>
       <c r="B790" s="3"/>
       <c r="E790" s="3"/>
     </row>
-    <row r="791" spans="1:5">
+    <row r="791" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A791" s="3"/>
       <c r="B791" s="3"/>
       <c r="E791" s="3"/>
     </row>
-    <row r="792" spans="1:5">
+    <row r="792" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A792" s="3"/>
       <c r="B792" s="3"/>
       <c r="E792" s="3"/>
     </row>
-    <row r="793" spans="1:5">
+    <row r="793" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A793" s="3"/>
       <c r="B793" s="3"/>
       <c r="E793" s="3"/>
     </row>
-    <row r="794" spans="1:5">
+    <row r="794" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A794" s="3"/>
       <c r="B794" s="3"/>
       <c r="E794" s="3"/>
     </row>
-    <row r="795" spans="1:5">
+    <row r="795" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A795" s="3"/>
       <c r="B795" s="3"/>
       <c r="E795" s="3"/>
     </row>
-    <row r="796" spans="1:5">
+    <row r="796" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A796" s="3"/>
       <c r="B796" s="3"/>
       <c r="E796" s="3"/>
     </row>
-    <row r="797" spans="1:5">
+    <row r="797" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A797" s="3"/>
       <c r="B797" s="3"/>
       <c r="E797" s="3"/>
     </row>
-    <row r="798" spans="1:5">
+    <row r="798" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A798" s="3"/>
       <c r="B798" s="3"/>
       <c r="E798" s="3"/>
     </row>
-    <row r="799" spans="1:5">
+    <row r="799" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A799" s="3"/>
       <c r="B799" s="3"/>
       <c r="E799" s="3"/>
     </row>
-    <row r="800" spans="1:5">
+    <row r="800" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A800" s="3"/>
       <c r="B800" s="3"/>
       <c r="E800" s="3"/>
     </row>
-    <row r="801" spans="1:5">
+    <row r="801" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A801" s="3"/>
       <c r="B801" s="3"/>
       <c r="E801" s="3"/>
     </row>
-    <row r="802" spans="1:5">
+    <row r="802" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A802" s="3"/>
       <c r="B802" s="3"/>
       <c r="E802" s="3"/>
     </row>
-    <row r="803" spans="1:5">
+    <row r="803" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A803" s="3"/>
       <c r="B803" s="3"/>
       <c r="E803" s="3"/>
     </row>
-    <row r="804" spans="1:5">
+    <row r="804" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A804" s="3"/>
       <c r="B804" s="3"/>
       <c r="E804" s="3"/>
     </row>
-    <row r="805" spans="1:5">
+    <row r="805" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A805" s="3"/>
       <c r="B805" s="3"/>
       <c r="E805" s="3"/>
     </row>
-    <row r="806" spans="1:5">
+    <row r="806" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A806" s="3"/>
       <c r="B806" s="3"/>
       <c r="E806" s="3"/>
     </row>
-    <row r="807" spans="1:5">
+    <row r="807" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A807" s="3"/>
       <c r="B807" s="3"/>
       <c r="E807" s="3"/>
     </row>
-    <row r="808" spans="1:5">
+    <row r="808" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A808" s="3"/>
       <c r="B808" s="3"/>
       <c r="E808" s="3"/>
     </row>
-    <row r="809" spans="1:5">
+    <row r="809" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A809" s="3"/>
       <c r="B809" s="3"/>
       <c r="E809" s="3"/>
     </row>
-    <row r="810" spans="1:5">
+    <row r="810" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A810" s="3"/>
       <c r="B810" s="3"/>
       <c r="E810" s="3"/>
     </row>
-    <row r="811" spans="1:5">
+    <row r="811" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A811" s="3"/>
       <c r="B811" s="3"/>
       <c r="E811" s="3"/>
     </row>
-    <row r="812" spans="1:5">
+    <row r="812" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A812" s="3"/>
       <c r="B812" s="3"/>
       <c r="E812" s="3"/>
     </row>
-    <row r="813" spans="1:5">
+    <row r="813" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A813" s="3"/>
       <c r="B813" s="3"/>
       <c r="E813" s="3"/>
     </row>
-    <row r="814" spans="1:5">
+    <row r="814" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A814" s="3"/>
       <c r="B814" s="3"/>
       <c r="E814" s="3"/>
     </row>
-    <row r="815" spans="1:5">
+    <row r="815" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A815" s="3"/>
       <c r="B815" s="3"/>
       <c r="E815" s="3"/>
     </row>
-    <row r="816" spans="1:5">
+    <row r="816" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A816" s="3"/>
       <c r="B816" s="3"/>
       <c r="E816" s="3"/>
     </row>
-    <row r="817" spans="1:5">
+    <row r="817" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A817" s="3"/>
       <c r="B817" s="3"/>
       <c r="E817" s="3"/>
     </row>
-    <row r="818" spans="1:5">
+    <row r="818" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A818" s="3"/>
       <c r="B818" s="3"/>
       <c r="E818" s="3"/>
     </row>
-    <row r="819" spans="1:5">
+    <row r="819" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A819" s="3"/>
       <c r="B819" s="3"/>
       <c r="E819" s="3"/>
     </row>
-    <row r="820" spans="1:5">
+    <row r="820" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A820" s="3"/>
       <c r="B820" s="3"/>
       <c r="E820" s="3"/>
     </row>
-    <row r="821" spans="1:5">
+    <row r="821" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A821" s="3"/>
       <c r="B821" s="3"/>
       <c r="E821" s="3"/>
     </row>
-    <row r="822" spans="1:5">
+    <row r="822" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A822" s="3"/>
       <c r="B822" s="3"/>
       <c r="E822" s="3"/>
     </row>
-    <row r="823" spans="1:5">
+    <row r="823" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A823" s="3"/>
       <c r="B823" s="3"/>
       <c r="E823" s="3"/>
     </row>
-    <row r="824" spans="1:5">
+    <row r="824" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A824" s="3"/>
       <c r="B824" s="3"/>
       <c r="E824" s="3"/>
     </row>
-    <row r="825" spans="1:5">
+    <row r="825" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A825" s="3"/>
       <c r="B825" s="3"/>
       <c r="E825" s="3"/>
     </row>
-    <row r="826" spans="1:5">
+    <row r="826" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A826" s="3"/>
       <c r="B826" s="3"/>
       <c r="E826" s="3"/>
     </row>
-    <row r="827" spans="1:5">
+    <row r="827" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A827" s="3"/>
       <c r="B827" s="3"/>
       <c r="E827" s="3"/>
     </row>
-    <row r="828" spans="1:5">
+    <row r="828" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A828" s="3"/>
       <c r="B828" s="3"/>
       <c r="E828" s="3"/>
     </row>
-    <row r="829" spans="1:5">
+    <row r="829" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A829" s="3"/>
       <c r="B829" s="3"/>
       <c r="E829" s="3"/>
     </row>
-    <row r="830" spans="1:5">
+    <row r="830" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A830" s="3"/>
       <c r="B830" s="3"/>
       <c r="E830" s="3"/>
     </row>
-    <row r="831" spans="1:5">
+    <row r="831" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A831" s="3"/>
       <c r="B831" s="3"/>
       <c r="E831" s="3"/>
     </row>
-    <row r="832" spans="1:5">
+    <row r="832" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A832" s="3"/>
       <c r="B832" s="3"/>
       <c r="E832" s="3"/>
     </row>
-    <row r="833" spans="1:5">
+    <row r="833" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A833" s="3"/>
       <c r="B833" s="3"/>
       <c r="E833" s="3"/>
     </row>
-    <row r="834" spans="1:5">
+    <row r="834" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A834" s="3"/>
       <c r="B834" s="3"/>
       <c r="E834" s="3"/>
     </row>
-    <row r="835" spans="1:5">
+    <row r="835" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A835" s="3"/>
       <c r="B835" s="3"/>
       <c r="E835" s="3"/>
     </row>
-    <row r="836" spans="1:5">
+    <row r="836" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A836" s="3"/>
       <c r="B836" s="3"/>
       <c r="E836" s="3"/>
     </row>
-    <row r="837" spans="1:5">
+    <row r="837" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A837" s="3"/>
       <c r="B837" s="3"/>
       <c r="E837" s="3"/>
     </row>
-    <row r="838" spans="1:5">
+    <row r="838" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A838" s="3"/>
       <c r="B838" s="3"/>
       <c r="E838" s="3"/>
     </row>
-    <row r="839" spans="1:5">
+    <row r="839" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A839" s="3"/>
       <c r="B839" s="3"/>
       <c r="E839" s="3"/>
     </row>
-    <row r="840" spans="1:5">
+    <row r="840" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A840" s="3"/>
       <c r="B840" s="3"/>
       <c r="E840" s="3"/>
     </row>
-    <row r="841" spans="1:5">
+    <row r="841" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A841" s="3"/>
       <c r="B841" s="3"/>
       <c r="E841" s="3"/>
     </row>
-    <row r="842" spans="1:5">
+    <row r="842" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A842" s="3"/>
       <c r="B842" s="3"/>
       <c r="E842" s="3"/>
     </row>
-    <row r="843" spans="1:5">
+    <row r="843" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A843" s="3"/>
       <c r="B843" s="3"/>
       <c r="E843" s="3"/>
     </row>
-    <row r="844" spans="1:5">
+    <row r="844" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A844" s="3"/>
       <c r="B844" s="3"/>
       <c r="E844" s="3"/>
     </row>
-    <row r="845" spans="1:5">
+    <row r="845" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A845" s="3"/>
       <c r="B845" s="3"/>
       <c r="E845" s="3"/>
     </row>
-    <row r="846" spans="1:5">
+    <row r="846" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A846" s="3"/>
       <c r="B846" s="3"/>
       <c r="E846" s="3"/>
     </row>
-    <row r="847" spans="1:5">
+    <row r="847" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A847" s="3"/>
       <c r="B847" s="3"/>
       <c r="E847" s="3"/>
     </row>
-    <row r="848" spans="1:5">
+    <row r="848" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A848" s="3"/>
       <c r="B848" s="3"/>
       <c r="E848" s="3"/>
     </row>
-    <row r="849" spans="1:5">
+    <row r="849" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A849" s="3"/>
       <c r="B849" s="3"/>
       <c r="E849" s="3"/>
     </row>
-    <row r="850" spans="1:5">
+    <row r="850" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A850" s="3"/>
       <c r="B850" s="3"/>
       <c r="E850" s="3"/>
     </row>
-    <row r="851" spans="1:5">
+    <row r="851" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A851" s="3"/>
       <c r="B851" s="3"/>
       <c r="E851" s="3"/>
     </row>
-    <row r="852" spans="1:5">
+    <row r="852" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A852" s="3"/>
       <c r="B852" s="3"/>
       <c r="E852" s="3"/>
     </row>
-    <row r="853" spans="1:5">
+    <row r="853" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A853" s="3"/>
       <c r="B853" s="3"/>
       <c r="E853" s="3"/>
     </row>
-    <row r="854" spans="1:5">
+    <row r="854" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A854" s="3"/>
       <c r="B854" s="3"/>
       <c r="E854" s="3"/>
     </row>
-    <row r="855" spans="1:5">
+    <row r="855" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A855" s="3"/>
       <c r="B855" s="3"/>
       <c r="E855" s="3"/>
     </row>
-    <row r="856" spans="1:5">
+    <row r="856" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A856" s="3"/>
       <c r="B856" s="3"/>
       <c r="E856" s="3"/>
     </row>
-    <row r="857" spans="1:5">
+    <row r="857" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A857" s="3"/>
       <c r="B857" s="3"/>
       <c r="E857" s="3"/>
     </row>
-    <row r="858" spans="1:5">
+    <row r="858" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A858" s="3"/>
       <c r="B858" s="3"/>
       <c r="E858" s="3"/>
     </row>
-    <row r="859" spans="1:5">
+    <row r="859" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A859" s="3"/>
       <c r="B859" s="3"/>
       <c r="E859" s="3"/>
     </row>
-    <row r="860" spans="1:5">
+    <row r="860" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A860" s="3"/>
       <c r="B860" s="3"/>
       <c r="E860" s="3"/>
     </row>
-    <row r="861" spans="1:5">
+    <row r="861" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A861" s="3"/>
       <c r="B861" s="3"/>
       <c r="E861" s="3"/>
     </row>
-    <row r="862" spans="1:5">
+    <row r="862" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A862" s="3"/>
       <c r="B862" s="3"/>
       <c r="E862" s="3"/>
     </row>
-    <row r="863" spans="1:5">
+    <row r="863" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A863" s="3"/>
       <c r="B863" s="3"/>
       <c r="E863" s="3"/>
     </row>
-    <row r="864" spans="1:5">
+    <row r="864" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A864" s="3"/>
       <c r="B864" s="3"/>
       <c r="E864" s="3"/>
     </row>
-    <row r="865" spans="1:5">
+    <row r="865" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A865" s="3"/>
       <c r="B865" s="3"/>
       <c r="E865" s="3"/>
     </row>
-    <row r="866" spans="1:5">
+    <row r="866" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A866" s="3"/>
       <c r="B866" s="3"/>
       <c r="E866" s="3"/>
     </row>
-    <row r="867" spans="1:5">
+    <row r="867" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A867" s="3"/>
       <c r="B867" s="3"/>
       <c r="E867" s="3"/>
     </row>
-    <row r="868" spans="1:5">
+    <row r="868" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A868" s="3"/>
       <c r="B868" s="3"/>
       <c r="E868" s="3"/>
     </row>
-    <row r="869" spans="1:5">
+    <row r="869" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A869" s="3"/>
       <c r="B869" s="3"/>
       <c r="E869" s="3"/>
     </row>
-    <row r="870" spans="1:5">
+    <row r="870" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A870" s="3"/>
       <c r="B870" s="3"/>
       <c r="E870" s="3"/>
     </row>
-    <row r="871" spans="1:5">
+    <row r="871" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A871" s="3"/>
       <c r="B871" s="3"/>
       <c r="E871" s="3"/>
     </row>
-    <row r="872" spans="1:5">
+    <row r="872" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A872" s="3"/>
       <c r="B872" s="3"/>
       <c r="E872" s="3"/>
     </row>
-    <row r="873" spans="1:5">
+    <row r="873" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A873" s="3"/>
       <c r="B873" s="3"/>
       <c r="E873" s="3"/>
     </row>
-    <row r="874" spans="1:5">
+    <row r="874" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A874" s="3"/>
       <c r="B874" s="3"/>
       <c r="E874" s="3"/>
     </row>
-    <row r="875" spans="1:5">
+    <row r="875" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A875" s="3"/>
       <c r="B875" s="3"/>
       <c r="E875" s="3"/>
     </row>
-    <row r="876" spans="1:5">
+    <row r="876" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A876" s="3"/>
       <c r="B876" s="3"/>
       <c r="E876" s="3"/>
     </row>
-    <row r="877" spans="1:5">
+    <row r="877" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A877" s="3"/>
       <c r="B877" s="3"/>
       <c r="E877" s="3"/>
     </row>
-    <row r="878" spans="1:5">
+    <row r="878" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A878" s="3"/>
       <c r="B878" s="3"/>
       <c r="E878" s="3"/>
     </row>
-    <row r="879" spans="1:5">
+    <row r="879" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A879" s="3"/>
       <c r="B879" s="3"/>
       <c r="E879" s="3"/>
     </row>
-    <row r="880" spans="1:5">
+    <row r="880" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A880" s="3"/>
       <c r="B880" s="3"/>
       <c r="E880" s="3"/>
     </row>
-    <row r="881" spans="1:5">
+    <row r="881" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A881" s="3"/>
       <c r="B881" s="3"/>
       <c r="E881" s="3"/>
     </row>
-    <row r="882" spans="1:5">
+    <row r="882" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A882" s="3"/>
       <c r="B882" s="3"/>
       <c r="E882" s="3"/>
     </row>
-    <row r="883" spans="1:5">
+    <row r="883" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A883" s="3"/>
       <c r="B883" s="3"/>
       <c r="E883" s="3"/>
     </row>
-    <row r="884" spans="1:5">
+    <row r="884" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A884" s="3"/>
       <c r="B884" s="3"/>
       <c r="E884" s="3"/>
     </row>
-    <row r="885" spans="1:5">
+    <row r="885" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A885" s="3"/>
       <c r="B885" s="3"/>
       <c r="E885" s="3"/>
     </row>
-    <row r="886" spans="1:5">
+    <row r="886" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A886" s="3"/>
       <c r="B886" s="3"/>
       <c r="E886" s="3"/>
     </row>
-    <row r="887" spans="1:5">
+    <row r="887" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A887" s="3"/>
       <c r="B887" s="3"/>
       <c r="E887" s="3"/>
     </row>
-    <row r="888" spans="1:5">
+    <row r="888" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A888" s="3"/>
       <c r="B888" s="3"/>
       <c r="E888" s="3"/>
     </row>
-    <row r="889" spans="1:5">
+    <row r="889" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A889" s="3"/>
       <c r="B889" s="3"/>
       <c r="E889" s="3"/>
     </row>
-    <row r="890" spans="1:5">
+    <row r="890" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A890" s="3"/>
       <c r="B890" s="3"/>
       <c r="E890" s="3"/>
     </row>
-    <row r="891" spans="1:5">
+    <row r="891" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A891" s="3"/>
       <c r="B891" s="3"/>
       <c r="E891" s="3"/>
     </row>
-    <row r="892" spans="1:5">
+    <row r="892" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A892" s="3"/>
       <c r="B892" s="3"/>
       <c r="E892" s="3"/>
     </row>
-    <row r="893" spans="1:5">
+    <row r="893" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A893" s="3"/>
       <c r="B893" s="3"/>
       <c r="E893" s="3"/>
     </row>
-    <row r="894" spans="1:5">
+    <row r="894" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A894" s="3"/>
       <c r="B894" s="3"/>
       <c r="E894" s="3"/>
     </row>
-    <row r="895" spans="1:5">
+    <row r="895" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A895" s="3"/>
       <c r="B895" s="3"/>
       <c r="E895" s="3"/>
     </row>
-    <row r="896" spans="1:5">
+    <row r="896" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A896" s="3"/>
       <c r="B896" s="3"/>
       <c r="E896" s="3"/>
     </row>
-    <row r="897" spans="1:5">
+    <row r="897" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A897" s="3"/>
       <c r="B897" s="3"/>
       <c r="E897" s="3"/>
     </row>
-    <row r="898" spans="1:5">
+    <row r="898" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A898" s="3"/>
       <c r="B898" s="3"/>
       <c r="E898" s="3"/>
     </row>
-    <row r="899" spans="1:5">
+    <row r="899" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A899" s="3"/>
       <c r="B899" s="3"/>
       <c r="E899" s="3"/>
     </row>
-    <row r="900" spans="1:5">
+    <row r="900" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A900" s="3"/>
       <c r="B900" s="3"/>
       <c r="E900" s="3"/>
     </row>
-    <row r="901" spans="1:5">
+    <row r="901" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A901" s="3"/>
       <c r="B901" s="3"/>
       <c r="E901" s="3"/>
     </row>
-    <row r="902" spans="1:5">
+    <row r="902" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A902" s="3"/>
       <c r="B902" s="3"/>
       <c r="E902" s="3"/>
     </row>
-    <row r="903" spans="1:5">
+    <row r="903" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A903" s="3"/>
       <c r="B903" s="3"/>
       <c r="E903" s="3"/>
     </row>
-    <row r="904" spans="1:5">
+    <row r="904" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A904" s="3"/>
       <c r="B904" s="3"/>
       <c r="E904" s="3"/>
     </row>
-    <row r="905" spans="1:5">
+    <row r="905" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A905" s="3"/>
       <c r="B905" s="3"/>
       <c r="E905" s="3"/>
     </row>
-    <row r="906" spans="1:5">
+    <row r="906" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A906" s="3"/>
       <c r="B906" s="3"/>
       <c r="E906" s="3"/>
     </row>
-    <row r="907" spans="1:5">
+    <row r="907" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A907" s="3"/>
       <c r="B907" s="3"/>
       <c r="E907" s="3"/>
     </row>
-    <row r="908" spans="1:5">
+    <row r="908" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A908" s="3"/>
       <c r="B908" s="3"/>
       <c r="E908" s="3"/>
     </row>
-    <row r="909" spans="1:5">
+    <row r="909" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A909" s="3"/>
       <c r="B909" s="3"/>
       <c r="E909" s="3"/>
     </row>
-    <row r="910" spans="1:5">
+    <row r="910" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A910" s="3"/>
       <c r="B910" s="3"/>
       <c r="E910" s="3"/>
     </row>
-    <row r="911" spans="1:5">
+    <row r="911" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A911" s="3"/>
       <c r="B911" s="3"/>
       <c r="E911" s="3"/>
     </row>
-    <row r="912" spans="1:5">
+    <row r="912" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A912" s="3"/>
       <c r="B912" s="3"/>
       <c r="E912" s="3"/>
     </row>
-    <row r="913" spans="1:5">
+    <row r="913" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A913" s="3"/>
       <c r="B913" s="3"/>
       <c r="E913" s="3"/>
     </row>
-    <row r="914" spans="1:5">
+    <row r="914" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A914" s="3"/>
       <c r="B914" s="3"/>
       <c r="E914" s="3"/>
     </row>
-    <row r="915" spans="1:5">
+    <row r="915" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A915" s="3"/>
       <c r="B915" s="3"/>
       <c r="E915" s="3"/>
     </row>
-    <row r="916" spans="1:5">
+    <row r="916" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A916" s="3"/>
       <c r="B916" s="3"/>
       <c r="E916" s="3"/>
     </row>
-    <row r="917" spans="1:5">
+    <row r="917" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A917" s="3"/>
       <c r="B917" s="3"/>
       <c r="E917" s="3"/>
     </row>
-    <row r="918" spans="1:5">
+    <row r="918" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A918" s="3"/>
       <c r="B918" s="3"/>
       <c r="E918" s="3"/>
     </row>
-    <row r="919" spans="1:5">
+    <row r="919" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A919" s="3"/>
       <c r="B919" s="3"/>
       <c r="E919" s="3"/>
     </row>
-    <row r="920" spans="1:5">
+    <row r="920" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A920" s="3"/>
       <c r="B920" s="3"/>
       <c r="E920" s="3"/>
     </row>
-    <row r="921" spans="1:5">
+    <row r="921" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A921" s="3"/>
       <c r="B921" s="3"/>
       <c r="E921" s="3"/>
     </row>
-    <row r="922" spans="1:5">
+    <row r="922" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A922" s="3"/>
       <c r="B922" s="3"/>
       <c r="E922" s="3"/>
     </row>
-    <row r="923" spans="1:5">
+    <row r="923" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A923" s="3"/>
       <c r="B923" s="3"/>
       <c r="E923" s="3"/>
     </row>
-    <row r="924" spans="1:5">
+    <row r="924" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A924" s="3"/>
       <c r="B924" s="3"/>
       <c r="E924" s="3"/>
     </row>
-    <row r="925" spans="1:5">
+    <row r="925" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A925" s="3"/>
       <c r="B925" s="3"/>
       <c r="E925" s="3"/>
     </row>
-    <row r="926" spans="1:5">
+    <row r="926" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A926" s="3"/>
       <c r="B926" s="3"/>
       <c r="E926" s="3"/>
     </row>
-    <row r="927" spans="1:5">
+    <row r="927" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A927" s="3"/>
       <c r="B927" s="3"/>
       <c r="E927" s="3"/>
     </row>
-    <row r="928" spans="1:5">
+    <row r="928" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A928" s="3"/>
       <c r="B928" s="3"/>
       <c r="E928" s="3"/>
     </row>
-    <row r="929" spans="1:5">
+    <row r="929" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A929" s="3"/>
       <c r="B929" s="3"/>
       <c r="E929" s="3"/>
     </row>
-    <row r="930" spans="1:5">
+    <row r="930" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A930" s="3"/>
       <c r="B930" s="3"/>
       <c r="E930" s="3"/>
     </row>
-    <row r="931" spans="1:5">
+    <row r="931" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A931" s="3"/>
       <c r="B931" s="3"/>
       <c r="E931" s="3"/>
     </row>
-    <row r="932" spans="1:5">
+    <row r="932" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A932" s="3"/>
       <c r="B932" s="3"/>
       <c r="E932" s="3"/>
     </row>
-    <row r="933" spans="1:5">
+    <row r="933" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A933" s="3"/>
       <c r="B933" s="3"/>
       <c r="E933" s="3"/>
     </row>
-    <row r="934" spans="1:5">
+    <row r="934" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A934" s="3"/>
       <c r="B934" s="3"/>
       <c r="E934" s="3"/>
     </row>
-    <row r="935" spans="1:5">
+    <row r="935" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A935" s="3"/>
       <c r="B935" s="3"/>
       <c r="E935" s="3"/>
     </row>
-    <row r="936" spans="1:5">
+    <row r="936" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A936" s="3"/>
       <c r="B936" s="3"/>
       <c r="E936" s="3"/>
     </row>
-    <row r="937" spans="1:5">
+    <row r="937" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A937" s="3"/>
       <c r="B937" s="3"/>
       <c r="E937" s="3"/>
     </row>
-    <row r="938" spans="1:5">
+    <row r="938" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A938" s="3"/>
       <c r="B938" s="3"/>
       <c r="E938" s="3"/>
     </row>
-    <row r="939" spans="1:5">
+    <row r="939" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A939" s="3"/>
       <c r="B939" s="3"/>
       <c r="E939" s="3"/>
     </row>
-    <row r="940" spans="1:5">
+    <row r="940" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A940" s="3"/>
       <c r="B940" s="3"/>
       <c r="E940" s="3"/>
     </row>
-    <row r="941" spans="1:5">
+    <row r="941" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A941" s="3"/>
       <c r="B941" s="3"/>
       <c r="E941" s="3"/>
     </row>
-    <row r="942" spans="1:5">
+    <row r="942" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A942" s="3"/>
       <c r="B942" s="3"/>
       <c r="E942" s="3"/>
     </row>
-    <row r="943" spans="1:5">
+    <row r="943" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A943" s="3"/>
       <c r="B943" s="3"/>
       <c r="E943" s="3"/>
     </row>
-    <row r="944" spans="1:5">
+    <row r="944" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A944" s="3"/>
       <c r="B944" s="3"/>
       <c r="E944" s="3"/>
     </row>
-    <row r="945" spans="1:5">
+    <row r="945" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A945" s="3"/>
       <c r="B945" s="3"/>
       <c r="E945" s="3"/>
     </row>
-    <row r="946" spans="1:5">
+    <row r="946" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A946" s="3"/>
       <c r="B946" s="3"/>
       <c r="E946" s="3"/>
     </row>
-    <row r="947" spans="1:5">
+    <row r="947" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A947" s="3"/>
       <c r="B947" s="3"/>
       <c r="E947" s="3"/>
     </row>
-    <row r="948" spans="1:5">
+    <row r="948" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A948" s="3"/>
       <c r="B948" s="3"/>
       <c r="E948" s="3"/>
     </row>
-    <row r="949" spans="1:5">
+    <row r="949" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A949" s="3"/>
       <c r="B949" s="3"/>
       <c r="E949" s="3"/>
     </row>
-    <row r="950" spans="1:5">
+    <row r="950" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A950" s="3"/>
       <c r="B950" s="3"/>
       <c r="E950" s="3"/>
     </row>
-    <row r="951" spans="1:5">
+    <row r="951" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A951" s="3"/>
       <c r="B951" s="3"/>
       <c r="E951" s="3"/>
     </row>
-    <row r="952" spans="1:5">
+    <row r="952" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A952" s="3"/>
       <c r="B952" s="3"/>
       <c r="E952" s="3"/>
     </row>
-    <row r="953" spans="1:5">
+    <row r="953" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A953" s="3"/>
       <c r="B953" s="3"/>
       <c r="E953" s="3"/>
     </row>
-    <row r="954" spans="1:5">
+    <row r="954" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A954" s="3"/>
       <c r="B954" s="3"/>
       <c r="E954" s="3"/>
     </row>
-    <row r="955" spans="1:5">
+    <row r="955" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A955" s="3"/>
       <c r="B955" s="3"/>
       <c r="E955" s="3"/>
     </row>
-    <row r="956" spans="1:5">
+    <row r="956" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A956" s="3"/>
       <c r="B956" s="3"/>
       <c r="E956" s="3"/>
     </row>
-    <row r="957" spans="1:5">
+    <row r="957" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A957" s="3"/>
       <c r="B957" s="3"/>
       <c r="E957" s="3"/>
     </row>
-    <row r="958" spans="1:5">
+    <row r="958" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A958" s="3"/>
       <c r="B958" s="3"/>
       <c r="E958" s="3"/>
     </row>
-    <row r="959" spans="1:5">
+    <row r="959" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A959" s="3"/>
       <c r="B959" s="3"/>
       <c r="E959" s="3"/>
     </row>
-    <row r="960" spans="1:5">
+    <row r="960" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A960" s="3"/>
       <c r="B960" s="3"/>
       <c r="E960" s="3"/>
     </row>
-    <row r="961" spans="1:5">
+    <row r="961" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A961" s="3"/>
       <c r="B961" s="3"/>
       <c r="E961" s="3"/>
     </row>
-    <row r="962" spans="1:5">
+    <row r="962" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A962" s="3"/>
       <c r="B962" s="3"/>
       <c r="E962" s="3"/>
     </row>
-    <row r="963" spans="1:5">
+    <row r="963" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A963" s="3"/>
       <c r="B963" s="3"/>
       <c r="E963" s="3"/>
     </row>
-    <row r="964" spans="1:5">
+    <row r="964" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A964" s="3"/>
       <c r="B964" s="3"/>
       <c r="E964" s="3"/>
     </row>
-    <row r="965" spans="1:5">
+    <row r="965" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A965" s="3"/>
       <c r="B965" s="3"/>
       <c r="E965" s="3"/>
     </row>
-    <row r="966" spans="1:5">
+    <row r="966" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A966" s="3"/>
       <c r="B966" s="3"/>
       <c r="E966" s="3"/>
     </row>
-    <row r="967" spans="1:5">
+    <row r="967" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A967" s="3"/>
       <c r="B967" s="3"/>
       <c r="E967" s="3"/>
     </row>
-    <row r="968" spans="1:5">
+    <row r="968" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A968" s="3"/>
       <c r="B968" s="3"/>
       <c r="E968" s="3"/>
     </row>
-    <row r="969" spans="1:5">
+    <row r="969" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A969" s="3"/>
       <c r="B969" s="3"/>
       <c r="E969" s="3"/>
     </row>
-    <row r="970" spans="1:5">
+    <row r="970" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A970" s="3"/>
       <c r="B970" s="3"/>
       <c r="E970" s="3"/>
     </row>
-    <row r="971" spans="1:5">
+    <row r="971" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A971" s="3"/>
       <c r="B971" s="3"/>
       <c r="E971" s="3"/>
     </row>
-    <row r="972" spans="1:5">
+    <row r="972" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A972" s="3"/>
       <c r="B972" s="3"/>
       <c r="E972" s="3"/>
     </row>
-    <row r="973" spans="1:5">
+    <row r="973" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A973" s="3"/>
       <c r="B973" s="3"/>
       <c r="E973" s="3"/>
     </row>
-    <row r="974" spans="1:5">
+    <row r="974" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A974" s="3"/>
       <c r="B974" s="3"/>
       <c r="E974" s="3"/>
     </row>
-    <row r="975" spans="1:5">
+    <row r="975" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A975" s="3"/>
       <c r="B975" s="3"/>
       <c r="E975" s="3"/>
     </row>
-    <row r="976" spans="1:5">
+    <row r="976" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A976" s="3"/>
       <c r="B976" s="3"/>
       <c r="E976" s="3"/>
     </row>
-    <row r="977" spans="1:5">
+    <row r="977" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A977" s="3"/>
       <c r="B977" s="3"/>
       <c r="E977" s="3"/>
     </row>
-    <row r="978" spans="1:5">
+    <row r="978" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A978" s="3"/>
       <c r="B978" s="3"/>
       <c r="E978" s="3"/>
     </row>
-    <row r="979" spans="1:5">
+    <row r="979" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A979" s="3"/>
       <c r="B979" s="3"/>
       <c r="E979" s="3"/>
     </row>
-    <row r="980" spans="1:5">
+    <row r="980" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A980" s="3"/>
       <c r="B980" s="3"/>
       <c r="E980" s="3"/>
     </row>
-    <row r="981" spans="1:5">
+    <row r="981" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A981" s="3"/>
       <c r="B981" s="3"/>
       <c r="E981" s="3"/>
     </row>
-    <row r="982" spans="1:5">
+    <row r="982" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A982" s="3"/>
       <c r="B982" s="3"/>
       <c r="E982" s="3"/>
     </row>
-    <row r="983" spans="1:5">
+    <row r="983" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A983" s="3"/>
       <c r="B983" s="3"/>
       <c r="E983" s="3"/>
     </row>
-    <row r="984" spans="1:5">
+    <row r="984" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A984" s="3"/>
       <c r="B984" s="3"/>
       <c r="E984" s="3"/>
     </row>
-    <row r="985" spans="1:5">
+    <row r="985" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A985" s="3"/>
       <c r="B985" s="3"/>
       <c r="E985" s="3"/>
     </row>
-    <row r="986" spans="1:5">
+    <row r="986" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A986" s="3"/>
       <c r="B986" s="3"/>
       <c r="E986" s="3"/>
     </row>
-    <row r="987" spans="1:5">
+    <row r="987" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A987" s="3"/>
       <c r="B987" s="3"/>
       <c r="E987" s="3"/>
     </row>
-    <row r="988" spans="1:5">
+    <row r="988" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A988" s="3"/>
       <c r="B988" s="3"/>
       <c r="E988" s="3"/>
     </row>
-    <row r="989" spans="1:5">
+    <row r="989" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A989" s="3"/>
       <c r="B989" s="3"/>
       <c r="E989" s="3"/>
     </row>
-    <row r="990" spans="1:5">
+    <row r="990" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A990" s="3"/>
       <c r="B990" s="3"/>
       <c r="E990" s="3"/>
     </row>
-    <row r="991" spans="1:5">
+    <row r="991" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A991" s="3"/>
       <c r="B991" s="3"/>
       <c r="E991" s="3"/>
     </row>
-    <row r="992" spans="1:5">
+    <row r="992" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A992" s="3"/>
       <c r="B992" s="3"/>
       <c r="E992" s="3"/>
     </row>
-    <row r="993" spans="1:5">
+    <row r="993" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A993" s="3"/>
       <c r="B993" s="3"/>
       <c r="E993" s="3"/>
     </row>
-    <row r="994" spans="1:5">
+    <row r="994" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A994" s="3"/>
       <c r="B994" s="3"/>
       <c r="E994" s="3"/>
     </row>
-    <row r="995" spans="1:5">
+    <row r="995" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A995" s="3"/>
       <c r="B995" s="3"/>
       <c r="E995" s="3"/>
     </row>
-    <row r="996" spans="1:5">
+    <row r="996" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A996" s="3"/>
       <c r="B996" s="3"/>
       <c r="E996" s="3"/>
     </row>
-    <row r="997" spans="1:5">
+    <row r="997" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A997" s="3"/>
       <c r="B997" s="3"/>
       <c r="E997" s="3"/>
     </row>
-    <row r="998" spans="1:5">
+    <row r="998" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A998" s="3"/>
       <c r="B998" s="3"/>
       <c r="E998" s="3"/>
     </row>
-    <row r="999" spans="1:5">
+    <row r="999" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A999" s="3"/>
       <c r="B999" s="3"/>
       <c r="E999" s="3"/>
     </row>
-    <row r="1000" spans="1:5">
+    <row r="1000" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1000" s="3"/>
       <c r="B1000" s="3"/>
       <c r="E1000" s="3"/>
@@ -6174,14 +6187,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
@@ -6189,7 +6202,7 @@
     <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="11" customFormat="1">
+    <row r="1" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
@@ -6211,7 +6224,9 @@
       <c r="G1" s="14">
         <v>42774</v>
       </c>
-      <c r="H1" s="31"/>
+      <c r="H1" s="14">
+        <v>42802</v>
+      </c>
       <c r="I1" s="31"/>
       <c r="J1" s="31"/>
       <c r="K1" s="31"/>
@@ -6223,7 +6238,7 @@
       <c r="Q1" s="31"/>
       <c r="R1" s="31"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>148</v>
       </c>
@@ -6239,7 +6254,9 @@
       <c r="G2" s="5">
         <v>306</v>
       </c>
-      <c r="H2" s="5"/>
+      <c r="H2" s="5">
+        <v>300.55</v>
+      </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
@@ -6251,7 +6268,7 @@
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>149</v>
       </c>
@@ -6267,7 +6284,9 @@
       <c r="G3" s="5">
         <v>301.39999999999998</v>
       </c>
-      <c r="H3" s="5"/>
+      <c r="H3" s="5">
+        <v>295.95</v>
+      </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
@@ -6279,7 +6298,7 @@
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>39</v>
       </c>
@@ -6301,7 +6320,9 @@
       <c r="G4" s="31">
         <v>284.85000000000002</v>
       </c>
-      <c r="H4" s="31"/>
+      <c r="H4" s="31">
+        <v>281.3</v>
+      </c>
       <c r="I4" s="31"/>
       <c r="J4" s="31"/>
       <c r="K4" s="31"/>
@@ -6313,7 +6334,7 @@
       <c r="Q4" s="31"/>
       <c r="R4" s="31"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>136</v>
       </c>
@@ -6335,7 +6356,9 @@
       <c r="G5" s="33">
         <v>1628.55</v>
       </c>
-      <c r="H5" s="31"/>
+      <c r="H5" s="33">
+        <v>1651.5</v>
+      </c>
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
       <c r="K5" s="31"/>
@@ -6347,7 +6370,7 @@
       <c r="Q5" s="31"/>
       <c r="R5" s="31"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
@@ -6369,7 +6392,9 @@
       <c r="G6" s="31">
         <v>251.05</v>
       </c>
-      <c r="H6" s="31"/>
+      <c r="H6" s="31">
+        <v>241.7</v>
+      </c>
       <c r="I6" s="31"/>
       <c r="J6" s="31"/>
       <c r="K6" s="31"/>
@@ -6381,7 +6406,7 @@
       <c r="Q6" s="31"/>
       <c r="R6" s="31"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>18</v>
       </c>
@@ -6403,7 +6428,9 @@
       <c r="G7" s="31">
         <v>18.399999999999999</v>
       </c>
-      <c r="H7" s="31"/>
+      <c r="H7" s="31">
+        <v>17.899999999999999</v>
+      </c>
       <c r="I7" s="31"/>
       <c r="J7" s="31"/>
       <c r="K7" s="31"/>
@@ -6415,7 +6442,7 @@
       <c r="Q7" s="31"/>
       <c r="R7" s="31"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>22</v>
       </c>
@@ -6437,7 +6464,9 @@
       <c r="G8" s="31">
         <v>63.2</v>
       </c>
-      <c r="H8" s="31"/>
+      <c r="H8" s="31">
+        <v>60.9</v>
+      </c>
       <c r="I8" s="31"/>
       <c r="J8" s="31"/>
       <c r="K8" s="31"/>
@@ -6449,7 +6478,7 @@
       <c r="Q8" s="31"/>
       <c r="R8" s="31"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>161</v>
       </c>
@@ -6463,7 +6492,9 @@
       <c r="G9" s="9">
         <v>58.2</v>
       </c>
-      <c r="H9" s="9"/>
+      <c r="H9" s="9">
+        <v>58.05</v>
+      </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
@@ -6475,7 +6506,7 @@
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>13</v>
       </c>
@@ -6497,7 +6528,9 @@
       <c r="G10" s="31">
         <v>43.9</v>
       </c>
-      <c r="H10" s="31"/>
+      <c r="H10" s="31">
+        <v>42.55</v>
+      </c>
       <c r="I10" s="31"/>
       <c r="J10" s="31"/>
       <c r="K10" s="31"/>
@@ -6509,7 +6542,7 @@
       <c r="Q10" s="31"/>
       <c r="R10" s="31"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>15</v>
       </c>
@@ -6531,7 +6564,9 @@
       <c r="G11" s="31">
         <v>69.3</v>
       </c>
-      <c r="H11" s="31"/>
+      <c r="H11" s="31">
+        <v>66.5</v>
+      </c>
       <c r="I11" s="31"/>
       <c r="J11" s="31"/>
       <c r="K11" s="31"/>
@@ -6543,7 +6578,7 @@
       <c r="Q11" s="31"/>
       <c r="R11" s="31"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>16</v>
       </c>
@@ -6565,7 +6600,9 @@
       <c r="G12" s="31">
         <v>92.3</v>
       </c>
-      <c r="H12" s="31"/>
+      <c r="H12" s="31">
+        <v>93.2</v>
+      </c>
       <c r="I12" s="31"/>
       <c r="J12" s="31"/>
       <c r="K12" s="31"/>
@@ -6577,7 +6614,7 @@
       <c r="Q12" s="31"/>
       <c r="R12" s="31"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>17</v>
       </c>
@@ -6599,7 +6636,9 @@
       <c r="G13" s="31">
         <v>140.9</v>
       </c>
-      <c r="H13" s="31"/>
+      <c r="H13" s="31">
+        <v>138.55000000000001</v>
+      </c>
       <c r="I13" s="31"/>
       <c r="J13" s="31"/>
       <c r="K13" s="31"/>
@@ -6611,7 +6650,7 @@
       <c r="Q13" s="31"/>
       <c r="R13" s="31"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>19</v>
       </c>
@@ -6633,7 +6672,9 @@
       <c r="G14" s="31">
         <v>82.55</v>
       </c>
-      <c r="H14" s="31"/>
+      <c r="H14" s="31">
+        <v>82.5</v>
+      </c>
       <c r="I14" s="31"/>
       <c r="J14" s="31"/>
       <c r="K14" s="31"/>
@@ -6645,7 +6686,7 @@
       <c r="Q14" s="31"/>
       <c r="R14" s="31"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>20</v>
       </c>
@@ -6667,7 +6708,9 @@
       <c r="G15" s="31">
         <v>54.25</v>
       </c>
-      <c r="H15" s="31"/>
+      <c r="H15" s="31">
+        <v>54</v>
+      </c>
       <c r="I15" s="31"/>
       <c r="J15" s="31"/>
       <c r="K15" s="31"/>
@@ -6679,7 +6722,7 @@
       <c r="Q15" s="31"/>
       <c r="R15" s="31"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>21</v>
       </c>
@@ -6701,7 +6744,9 @@
       <c r="G16" s="31">
         <v>32.799999999999997</v>
       </c>
-      <c r="H16" s="31"/>
+      <c r="H16" s="31">
+        <v>32</v>
+      </c>
       <c r="I16" s="31"/>
       <c r="J16" s="31"/>
       <c r="K16" s="31"/>
@@ -6713,7 +6758,7 @@
       <c r="Q16" s="31"/>
       <c r="R16" s="31"/>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>162</v>
       </c>
@@ -6727,7 +6772,9 @@
       <c r="G17" s="31">
         <v>35.35</v>
       </c>
-      <c r="H17" s="31"/>
+      <c r="H17" s="31">
+        <v>34.049999999999997</v>
+      </c>
       <c r="I17" s="31"/>
       <c r="J17" s="31"/>
       <c r="K17" s="31"/>
@@ -6739,7 +6786,7 @@
       <c r="Q17" s="31"/>
       <c r="R17" s="31"/>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>11</v>
       </c>
@@ -6761,7 +6808,9 @@
       <c r="G18" s="31">
         <v>568.95000000000005</v>
       </c>
-      <c r="H18" s="31"/>
+      <c r="H18" s="31">
+        <v>559.20000000000005</v>
+      </c>
       <c r="I18" s="31"/>
       <c r="J18" s="31"/>
       <c r="K18" s="31"/>
@@ -6773,7 +6822,7 @@
       <c r="Q18" s="31"/>
       <c r="R18" s="31"/>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>40</v>
       </c>
@@ -6795,7 +6844,9 @@
       <c r="G19" s="31">
         <v>498.05</v>
       </c>
-      <c r="H19" s="31"/>
+      <c r="H19" s="31">
+        <v>487.25</v>
+      </c>
       <c r="I19" s="31"/>
       <c r="J19" s="31"/>
       <c r="K19" s="31"/>
@@ -6807,7 +6858,7 @@
       <c r="Q19" s="31"/>
       <c r="R19" s="31"/>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>53</v>
       </c>
@@ -6829,7 +6880,9 @@
       <c r="G20" s="31">
         <v>195.3</v>
       </c>
-      <c r="H20" s="31"/>
+      <c r="H20" s="31">
+        <v>196</v>
+      </c>
       <c r="I20" s="31"/>
       <c r="J20" s="31"/>
       <c r="K20" s="31"/>
@@ -6841,7 +6894,7 @@
       <c r="Q20" s="31"/>
       <c r="R20" s="31"/>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>62</v>
       </c>
@@ -6863,7 +6916,9 @@
       <c r="G21" s="31">
         <v>452.75</v>
       </c>
-      <c r="H21" s="31"/>
+      <c r="H21" s="31">
+        <v>451.2</v>
+      </c>
       <c r="I21" s="31"/>
       <c r="J21" s="31"/>
       <c r="K21" s="31"/>
@@ -6875,7 +6930,7 @@
       <c r="Q21" s="31"/>
       <c r="R21" s="31"/>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>133</v>
       </c>
@@ -6897,7 +6952,9 @@
       <c r="G22" s="31">
         <v>729.9</v>
       </c>
-      <c r="H22" s="31"/>
+      <c r="H22" s="31">
+        <v>741.05</v>
+      </c>
       <c r="I22" s="31"/>
       <c r="J22" s="31"/>
       <c r="K22" s="31"/>
@@ -6909,7 +6966,7 @@
       <c r="Q22" s="31"/>
       <c r="R22" s="31"/>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>138</v>
       </c>
@@ -6931,7 +6988,9 @@
       <c r="G23" s="31">
         <v>415.9</v>
       </c>
-      <c r="H23" s="31"/>
+      <c r="H23" s="31">
+        <v>424.75</v>
+      </c>
       <c r="I23" s="31"/>
       <c r="J23" s="31"/>
       <c r="K23" s="31"/>
@@ -6943,7 +7002,7 @@
       <c r="Q23" s="31"/>
       <c r="R23" s="31"/>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>147</v>
       </c>
@@ -6959,7 +7018,9 @@
       <c r="G24" s="5">
         <v>88.85</v>
       </c>
-      <c r="H24" s="5"/>
+      <c r="H24" s="5">
+        <v>86.9</v>
+      </c>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
@@ -6971,7 +7032,7 @@
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>163</v>
       </c>
@@ -6985,7 +7046,9 @@
       <c r="G25" s="5">
         <v>85.65</v>
       </c>
-      <c r="H25" s="5"/>
+      <c r="H25" s="5">
+        <v>84.45</v>
+      </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
@@ -7007,14 +7070,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="17.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.85546875" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="17" bestFit="1" customWidth="1"/>
@@ -7035,7 +7098,7 @@
     <col min="18" max="16384" width="17.85546875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>41</v>
       </c>
@@ -7070,7 +7133,7 @@
       </c>
       <c r="Q1" s="5"/>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>42</v>
       </c>
@@ -7110,7 +7173,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>42</v>
       </c>
@@ -7151,7 +7214,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>84</v>
       </c>
@@ -7192,7 +7255,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>43</v>
       </c>
@@ -7227,7 +7290,7 @@
         <v>1250000</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>26</v>
       </c>
@@ -7269,7 +7332,7 @@
         <v>62500</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>24</v>
       </c>
@@ -7297,7 +7360,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>25</v>
       </c>
@@ -7325,7 +7388,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>5</v>
       </c>
@@ -7352,7 +7415,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G10" s="8" t="s">
         <v>60</v>
       </c>
@@ -7370,7 +7433,7 @@
       </c>
       <c r="N10" s="5"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G11" s="8" t="s">
         <v>61</v>
       </c>
@@ -7390,7 +7453,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G12" s="8" t="s">
         <v>64</v>
       </c>
@@ -7410,7 +7473,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G13" s="8" t="s">
         <v>5</v>
       </c>
@@ -7424,7 +7487,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D14" s="22"/>
       <c r="J14" s="13" t="s">
         <v>74</v>
@@ -7432,9 +7495,9 @@
       <c r="K14" s="15">
         <v>2000</v>
       </c>
-      <c r="P14" s="35"/>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="P14" s="34"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D15" s="22"/>
       <c r="J15" s="13" t="s">
         <v>75</v>
@@ -7443,7 +7506,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D16" s="22"/>
       <c r="J16" s="13" t="s">
         <v>76</v>
@@ -7452,7 +7515,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="17" spans="4:11">
+    <row r="17" spans="4:11" x14ac:dyDescent="0.25">
       <c r="J17" s="13" t="s">
         <v>66</v>
       </c>
@@ -7460,7 +7523,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="4:11">
+    <row r="18" spans="4:11" x14ac:dyDescent="0.25">
       <c r="J18" s="13" t="s">
         <v>77</v>
       </c>
@@ -7468,7 +7531,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="19" spans="4:11">
+    <row r="19" spans="4:11" x14ac:dyDescent="0.25">
       <c r="J19" s="13" t="s">
         <v>78</v>
       </c>
@@ -7476,7 +7539,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="20" spans="4:11">
+    <row r="20" spans="4:11" x14ac:dyDescent="0.25">
       <c r="J20" s="13" t="s">
         <v>26</v>
       </c>
@@ -7484,7 +7547,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="21" spans="4:11">
+    <row r="21" spans="4:11" x14ac:dyDescent="0.25">
       <c r="J21" s="13" t="s">
         <v>79</v>
       </c>
@@ -7492,7 +7555,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="22" spans="4:11">
+    <row r="22" spans="4:11" x14ac:dyDescent="0.25">
       <c r="J22" s="13" t="s">
         <v>80</v>
       </c>
@@ -7500,7 +7563,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="23" spans="4:11">
+    <row r="23" spans="4:11" x14ac:dyDescent="0.25">
       <c r="J23" s="13" t="s">
         <v>81</v>
       </c>
@@ -7508,7 +7571,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="24" spans="4:11">
+    <row r="24" spans="4:11" x14ac:dyDescent="0.25">
       <c r="J24" s="13" t="s">
         <v>82</v>
       </c>
@@ -7516,7 +7579,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="25" spans="4:11">
+    <row r="25" spans="4:11" x14ac:dyDescent="0.25">
       <c r="J25" s="13" t="s">
         <v>83</v>
       </c>
@@ -7524,7 +7587,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="26" spans="4:11">
+    <row r="26" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D26" s="21"/>
       <c r="J26" s="13" t="s">
         <v>89</v>
@@ -7540,14 +7603,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="Q2" sqref="Q2:Q11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -7559,7 +7622,7 @@
     <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>100</v>
       </c>
@@ -7586,10 +7649,10 @@
       </c>
       <c r="I1">
         <f>SUM(H2:H200)</f>
-        <v>297.70000000000039</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="15" customHeight="1">
+        <v>317.70000000000039</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>39</v>
       </c>
@@ -7616,11 +7679,17 @@
       <c r="K2" t="s">
         <v>131</v>
       </c>
-      <c r="N2" s="34" t="s">
+      <c r="M2" s="39" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="15" customHeight="1">
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>106</v>
       </c>
@@ -7667,8 +7736,9 @@
         <f>N3*O3</f>
         <v>618.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="15" customHeight="1">
+      <c r="Q3" s="5"/>
+    </row>
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>107</v>
       </c>
@@ -7715,8 +7785,9 @@
         <f t="shared" ref="P4:P10" si="3">N4*O4</f>
         <v>605.4</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="15" customHeight="1">
+      <c r="Q4" s="5"/>
+    </row>
+    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>109</v>
       </c>
@@ -7750,7 +7821,7 @@
       <c r="K5" t="s">
         <v>146</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="30" t="s">
         <v>39</v>
       </c>
       <c r="N5" s="5">
@@ -7763,8 +7834,9 @@
         <f t="shared" si="3"/>
         <v>574</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="15" customHeight="1">
+      <c r="Q5" s="5"/>
+    </row>
+    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>110</v>
       </c>
@@ -7772,11 +7844,11 @@
         <v>71.010000000000005</v>
       </c>
       <c r="C6" s="5">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D6" s="5">
         <f t="shared" si="0"/>
-        <v>1420.2</v>
+        <v>2485.3500000000004</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -7785,7 +7857,13 @@
         <v>0</v>
       </c>
       <c r="H6" s="5"/>
-      <c r="M6" s="13" t="s">
+      <c r="J6">
+        <v>318</v>
+      </c>
+      <c r="K6" s="38">
+        <v>42802</v>
+      </c>
+      <c r="M6" s="36" t="s">
         <v>152</v>
       </c>
       <c r="N6" s="5">
@@ -7798,8 +7876,9 @@
         <f t="shared" si="3"/>
         <v>1600</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1">
+      <c r="Q6" s="5"/>
+    </row>
+    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>118</v>
       </c>
@@ -7822,7 +7901,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="5"/>
-      <c r="M7" s="13" t="s">
+      <c r="M7" s="36" t="s">
         <v>153</v>
       </c>
       <c r="N7" s="5">
@@ -7835,8 +7914,9 @@
         <f t="shared" si="3"/>
         <v>500</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1">
+      <c r="Q7" s="5"/>
+    </row>
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>132</v>
       </c>
@@ -7857,7 +7937,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="5"/>
-      <c r="M8" s="13" t="s">
+      <c r="M8" s="36" t="s">
         <v>154</v>
       </c>
       <c r="N8" s="5">
@@ -7870,8 +7950,9 @@
         <f t="shared" si="3"/>
         <v>950</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="15" customHeight="1">
+      <c r="Q8" s="5"/>
+    </row>
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>135</v>
       </c>
@@ -7892,7 +7973,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="5"/>
-      <c r="M9" s="13" t="s">
+      <c r="M9" s="36" t="s">
         <v>155</v>
       </c>
       <c r="N9" s="5">
@@ -7905,8 +7986,9 @@
         <f t="shared" si="3"/>
         <v>126</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="15" customHeight="1">
+      <c r="Q9" s="5"/>
+    </row>
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>137</v>
       </c>
@@ -7927,7 +8009,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="5"/>
-      <c r="M10" s="28" t="s">
+      <c r="M10" s="37" t="s">
         <v>160</v>
       </c>
       <c r="N10" s="29">
@@ -7940,8 +8022,9 @@
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="15" customHeight="1">
+      <c r="Q10" s="5"/>
+    </row>
+    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>138</v>
       </c>
@@ -7969,7 +8052,7 @@
         <f t="shared" ref="H11:H12" si="5">G11-D11</f>
         <v>7.8999999999999773</v>
       </c>
-      <c r="M11" s="13" t="s">
+      <c r="M11" s="36" t="s">
         <v>5</v>
       </c>
       <c r="N11" s="5">
@@ -7984,8 +8067,9 @@
         <f>SUM(P3:P10)</f>
         <v>5093.8999999999996</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="15" customHeight="1">
+      <c r="Q11" s="5"/>
+    </row>
+    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>140</v>
       </c>
@@ -8014,7 +8098,7 @@
         <v>117.60000000000036</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15" customHeight="1">
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>106</v>
       </c>
@@ -8022,11 +8106,11 @@
         <v>200.25</v>
       </c>
       <c r="C13" s="5">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D13" s="5">
         <f t="shared" si="4"/>
-        <v>14017.5</v>
+        <v>14618.25</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -8036,7 +8120,7 @@
       </c>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:16" ht="15" customHeight="1">
+    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>144</v>
       </c>
@@ -8058,23 +8142,36 @@
       </c>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:16" ht="15" customHeight="1">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B15" s="5">
+        <v>373</v>
+      </c>
+      <c r="C15" s="5">
+        <v>2</v>
+      </c>
       <c r="D15" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+        <v>746</v>
+      </c>
+      <c r="E15" s="5">
+        <v>383</v>
+      </c>
+      <c r="F15" s="5">
+        <v>2</v>
+      </c>
       <c r="G15" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:16" ht="15" customHeight="1">
+        <v>766</v>
+      </c>
+      <c r="H15" s="5">
+        <f t="shared" ref="H15" si="6">G15-D15</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -8090,7 +8187,7 @@
       </c>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -8106,7 +8203,7 @@
       </c>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -8119,7 +8216,7 @@
       </c>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -8129,7 +8226,7 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -8139,7 +8236,7 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -8149,7 +8246,7 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -8159,7 +8256,7 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1">
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -8169,7 +8266,7 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1">
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -8179,7 +8276,7 @@
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1">
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -8190,20 +8287,23 @@
       <c r="H25" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="M2:P2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -8211,7 +8311,7 @@
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>111</v>
       </c>
@@ -8225,7 +8325,7 @@
         <v>41.5</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>112</v>
       </c>
@@ -8239,7 +8339,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>113</v>
       </c>
@@ -8255,7 +8355,7 @@
         <v>0.20750000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>114</v>
       </c>
@@ -8269,7 +8369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>115</v>
       </c>
@@ -8285,7 +8385,7 @@
         <v>0.20750000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>116</v>
       </c>
@@ -8301,7 +8401,7 @@
         <v>41.292499999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>120</v>
       </c>
@@ -8317,7 +8417,7 @@
         <v>41.29</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>117</v>
       </c>
@@ -8331,7 +8431,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>119</v>
       </c>
@@ -8347,7 +8447,7 @@
         <v>3.7350000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>121</v>
       </c>
@@ -8361,7 +8461,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>122</v>
       </c>
@@ -8377,7 +8477,7 @@
         <v>4.129E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>123</v>
       </c>
@@ -8391,7 +8491,7 @@
         <v>3.2499999999999997E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>124</v>
       </c>
@@ -8407,7 +8507,7 @@
         <v>1.3419249999999999E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
         <v>125</v>
       </c>
@@ -8421,7 +8521,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
         <v>126</v>
       </c>
@@ -8437,7 +8537,7 @@
         <v>8.2579999999999997E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
         <v>130</v>
       </c>
@@ -8453,7 +8553,7 @@
         <v>8.8239924999999997E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
         <v>127</v>
       </c>
@@ -8476,14 +8576,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
@@ -8492,14 +8592,14 @@
     <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="30" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="12" t="s">
@@ -8509,14 +8609,14 @@
         <v>1475389</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>141</v>
       </c>
       <c r="B2" s="5">
         <v>7600</v>
       </c>
-      <c r="C2" s="36">
+      <c r="C2" s="35">
         <v>42941</v>
       </c>
       <c r="E2" s="12" t="s">
@@ -8527,14 +8627,14 @@
         <v>514993</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>64</v>
       </c>
       <c r="B3" s="5">
         <v>50000</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C3" s="35">
         <v>42948</v>
       </c>
       <c r="E3" s="12" t="s">
@@ -8545,51 +8645,52 @@
         <v>960396</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="5">
         <v>23000</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="35">
         <v>42948</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>88</v>
       </c>
       <c r="B5" s="5">
         <v>25000</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="35">
         <v>42948</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>158</v>
       </c>
       <c r="B6" s="5">
         <v>100000</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="35">
         <v>42941</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>159</v>
       </c>
       <c r="B7" s="5">
         <v>309393</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="35">
         <v>42949</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/documents/Home.xlsx
+++ b/documents/Home.xlsx
@@ -13,13 +13,14 @@
     <sheet name="Profit" sheetId="7" r:id="rId4"/>
     <sheet name="Actual Price Calculator" sheetId="8" r:id="rId5"/>
     <sheet name="Spent" sheetId="9" r:id="rId6"/>
+    <sheet name="Papa" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="175">
   <si>
     <t>Date</t>
   </si>
@@ -517,6 +518,33 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>TATAMTRDVR</t>
+  </si>
+  <si>
+    <t>Total Principal</t>
+  </si>
+  <si>
+    <t>Total Paid Till Date</t>
+  </si>
+  <si>
+    <t>Needed to be paid</t>
+  </si>
+  <si>
+    <t>Interest</t>
+  </si>
+  <si>
+    <t>Principal Paid Till Date</t>
+  </si>
+  <si>
+    <t>Interest Paid Till Date</t>
+  </si>
+  <si>
+    <t>To be paid</t>
+  </si>
+  <si>
+    <t>Outstanding Principal</t>
   </si>
 </sst>
 </file>
@@ -526,7 +554,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -578,6 +606,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -643,7 +677,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -690,6 +724,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6188,10 +6226,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H24"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6227,7 +6265,9 @@
       <c r="H1" s="14">
         <v>42802</v>
       </c>
-      <c r="I1" s="31"/>
+      <c r="I1" s="14">
+        <v>42833</v>
+      </c>
       <c r="J1" s="31"/>
       <c r="K1" s="31"/>
       <c r="L1" s="31"/>
@@ -6255,9 +6295,11 @@
         <v>306</v>
       </c>
       <c r="H2" s="5">
-        <v>300.55</v>
-      </c>
-      <c r="I2" s="5"/>
+        <v>300.64999999999998</v>
+      </c>
+      <c r="I2" s="5">
+        <v>305.8</v>
+      </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
@@ -6285,9 +6327,11 @@
         <v>301.39999999999998</v>
       </c>
       <c r="H3" s="5">
-        <v>295.95</v>
-      </c>
-      <c r="I3" s="5"/>
+        <v>295.10000000000002</v>
+      </c>
+      <c r="I3" s="5">
+        <v>296.8</v>
+      </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -6321,9 +6365,11 @@
         <v>284.85000000000002</v>
       </c>
       <c r="H4" s="31">
-        <v>281.3</v>
-      </c>
-      <c r="I4" s="31"/>
+        <v>280.89999999999998</v>
+      </c>
+      <c r="I4" s="31">
+        <v>280.8</v>
+      </c>
       <c r="J4" s="31"/>
       <c r="K4" s="31"/>
       <c r="L4" s="31"/>
@@ -6357,9 +6403,11 @@
         <v>1628.55</v>
       </c>
       <c r="H5" s="33">
-        <v>1651.5</v>
-      </c>
-      <c r="I5" s="31"/>
+        <v>1654</v>
+      </c>
+      <c r="I5" s="33">
+        <v>1626.5</v>
+      </c>
       <c r="J5" s="31"/>
       <c r="K5" s="31"/>
       <c r="L5" s="31"/>
@@ -6393,9 +6441,11 @@
         <v>251.05</v>
       </c>
       <c r="H6" s="31">
-        <v>241.7</v>
-      </c>
-      <c r="I6" s="31"/>
+        <v>242</v>
+      </c>
+      <c r="I6" s="31">
+        <v>249.2</v>
+      </c>
       <c r="J6" s="31"/>
       <c r="K6" s="31"/>
       <c r="L6" s="31"/>
@@ -6429,9 +6479,11 @@
         <v>18.399999999999999</v>
       </c>
       <c r="H7" s="31">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="I7" s="31"/>
+        <v>17.95</v>
+      </c>
+      <c r="I7" s="31">
+        <v>17.649999999999999</v>
+      </c>
       <c r="J7" s="31"/>
       <c r="K7" s="31"/>
       <c r="L7" s="31"/>
@@ -6465,9 +6517,11 @@
         <v>63.2</v>
       </c>
       <c r="H8" s="31">
-        <v>60.9</v>
-      </c>
-      <c r="I8" s="31"/>
+        <v>60.75</v>
+      </c>
+      <c r="I8" s="31">
+        <v>61.9</v>
+      </c>
       <c r="J8" s="31"/>
       <c r="K8" s="31"/>
       <c r="L8" s="31"/>
@@ -6493,9 +6547,11 @@
         <v>58.2</v>
       </c>
       <c r="H9" s="9">
-        <v>58.05</v>
-      </c>
-      <c r="I9" s="9"/>
+        <v>57.95</v>
+      </c>
+      <c r="I9" s="9">
+        <v>57.25</v>
+      </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
@@ -6529,9 +6585,11 @@
         <v>43.9</v>
       </c>
       <c r="H10" s="31">
-        <v>42.55</v>
-      </c>
-      <c r="I10" s="31"/>
+        <v>42.5</v>
+      </c>
+      <c r="I10" s="31">
+        <v>42.4</v>
+      </c>
       <c r="J10" s="31"/>
       <c r="K10" s="31"/>
       <c r="L10" s="31"/>
@@ -6567,7 +6625,9 @@
       <c r="H11" s="31">
         <v>66.5</v>
       </c>
-      <c r="I11" s="31"/>
+      <c r="I11" s="31">
+        <v>69.099999999999994</v>
+      </c>
       <c r="J11" s="31"/>
       <c r="K11" s="31"/>
       <c r="L11" s="31"/>
@@ -6601,9 +6661,11 @@
         <v>92.3</v>
       </c>
       <c r="H12" s="31">
-        <v>93.2</v>
-      </c>
-      <c r="I12" s="31"/>
+        <v>93.45</v>
+      </c>
+      <c r="I12" s="31">
+        <v>92.9</v>
+      </c>
       <c r="J12" s="31"/>
       <c r="K12" s="31"/>
       <c r="L12" s="31"/>
@@ -6637,9 +6699,11 @@
         <v>140.9</v>
       </c>
       <c r="H13" s="31">
-        <v>138.55000000000001</v>
-      </c>
-      <c r="I13" s="31"/>
+        <v>138.65</v>
+      </c>
+      <c r="I13" s="31">
+        <v>137.1</v>
+      </c>
       <c r="J13" s="31"/>
       <c r="K13" s="31"/>
       <c r="L13" s="31"/>
@@ -6673,9 +6737,11 @@
         <v>82.55</v>
       </c>
       <c r="H14" s="31">
-        <v>82.5</v>
-      </c>
-      <c r="I14" s="31"/>
+        <v>82.45</v>
+      </c>
+      <c r="I14" s="31">
+        <v>80.2</v>
+      </c>
       <c r="J14" s="31"/>
       <c r="K14" s="31"/>
       <c r="L14" s="31"/>
@@ -6709,9 +6775,11 @@
         <v>54.25</v>
       </c>
       <c r="H15" s="31">
+        <v>53.8</v>
+      </c>
+      <c r="I15" s="31">
         <v>54</v>
       </c>
-      <c r="I15" s="31"/>
       <c r="J15" s="31"/>
       <c r="K15" s="31"/>
       <c r="L15" s="31"/>
@@ -6745,9 +6813,11 @@
         <v>32.799999999999997</v>
       </c>
       <c r="H16" s="31">
-        <v>32</v>
-      </c>
-      <c r="I16" s="31"/>
+        <v>31.95</v>
+      </c>
+      <c r="I16" s="31">
+        <v>32.700000000000003</v>
+      </c>
       <c r="J16" s="31"/>
       <c r="K16" s="31"/>
       <c r="L16" s="31"/>
@@ -6775,7 +6845,9 @@
       <c r="H17" s="31">
         <v>34.049999999999997</v>
       </c>
-      <c r="I17" s="31"/>
+      <c r="I17" s="31">
+        <v>33.65</v>
+      </c>
       <c r="J17" s="31"/>
       <c r="K17" s="31"/>
       <c r="L17" s="31"/>
@@ -6809,9 +6881,11 @@
         <v>568.95000000000005</v>
       </c>
       <c r="H18" s="31">
-        <v>559.20000000000005</v>
-      </c>
-      <c r="I18" s="31"/>
+        <v>559.75</v>
+      </c>
+      <c r="I18" s="31">
+        <v>580.79999999999995</v>
+      </c>
       <c r="J18" s="31"/>
       <c r="K18" s="31"/>
       <c r="L18" s="31"/>
@@ -6845,9 +6919,11 @@
         <v>498.05</v>
       </c>
       <c r="H19" s="31">
-        <v>487.25</v>
-      </c>
-      <c r="I19" s="31"/>
+        <v>485.2</v>
+      </c>
+      <c r="I19" s="31">
+        <v>500.5</v>
+      </c>
       <c r="J19" s="31"/>
       <c r="K19" s="31"/>
       <c r="L19" s="31"/>
@@ -6881,9 +6957,11 @@
         <v>195.3</v>
       </c>
       <c r="H20" s="31">
-        <v>196</v>
-      </c>
-      <c r="I20" s="31"/>
+        <v>195.75</v>
+      </c>
+      <c r="I20" s="31">
+        <v>197</v>
+      </c>
       <c r="J20" s="31"/>
       <c r="K20" s="31"/>
       <c r="L20" s="31"/>
@@ -6917,9 +6995,11 @@
         <v>452.75</v>
       </c>
       <c r="H21" s="31">
-        <v>451.2</v>
-      </c>
-      <c r="I21" s="31"/>
+        <v>450</v>
+      </c>
+      <c r="I21" s="31">
+        <v>447.8</v>
+      </c>
       <c r="J21" s="31"/>
       <c r="K21" s="31"/>
       <c r="L21" s="31"/>
@@ -6955,7 +7035,9 @@
       <c r="H22" s="31">
         <v>741.05</v>
       </c>
-      <c r="I22" s="31"/>
+      <c r="I22" s="31">
+        <v>724.7</v>
+      </c>
       <c r="J22" s="31"/>
       <c r="K22" s="31"/>
       <c r="L22" s="31"/>
@@ -6989,9 +7071,11 @@
         <v>415.9</v>
       </c>
       <c r="H23" s="31">
-        <v>424.75</v>
-      </c>
-      <c r="I23" s="31"/>
+        <v>423.4</v>
+      </c>
+      <c r="I23" s="31">
+        <v>421.1</v>
+      </c>
       <c r="J23" s="31"/>
       <c r="K23" s="31"/>
       <c r="L23" s="31"/>
@@ -7019,9 +7103,11 @@
         <v>88.85</v>
       </c>
       <c r="H24" s="5">
-        <v>86.9</v>
-      </c>
-      <c r="I24" s="5"/>
+        <v>86.5</v>
+      </c>
+      <c r="I24" s="5">
+        <v>87.25</v>
+      </c>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
@@ -7049,7 +7135,9 @@
       <c r="H25" s="5">
         <v>84.45</v>
       </c>
-      <c r="I25" s="5"/>
+      <c r="I25" s="5">
+        <v>75.7</v>
+      </c>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
@@ -7059,6 +7147,32 @@
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5">
+        <v>255.75</v>
+      </c>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
     </row>
   </sheetData>
   <sortState ref="J1:J37">
@@ -7607,7 +7721,7 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:Q11"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8580,7 +8694,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A2" sqref="A2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8693,4 +8807,460 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="42"/>
+    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="40">
+        <v>42522</v>
+      </c>
+      <c r="B1">
+        <v>5800</v>
+      </c>
+      <c r="C1" s="41">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="40">
+        <v>42552</v>
+      </c>
+      <c r="B2">
+        <v>5800</v>
+      </c>
+      <c r="C2" s="41">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="40">
+        <v>42583</v>
+      </c>
+      <c r="B3">
+        <v>5800</v>
+      </c>
+      <c r="C3" s="41">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="40"/>
+      <c r="B4">
+        <v>5800</v>
+      </c>
+      <c r="C4" s="41">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="40"/>
+      <c r="B5">
+        <v>5800</v>
+      </c>
+      <c r="C5" s="41">
+        <v>2185</v>
+      </c>
+      <c r="E5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F5">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="40"/>
+      <c r="B6">
+        <v>5800</v>
+      </c>
+      <c r="C6" s="41">
+        <v>2185</v>
+      </c>
+      <c r="E6" t="s">
+        <v>169</v>
+      </c>
+      <c r="F6">
+        <f>SUM(B:B)</f>
+        <v>348000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>5800</v>
+      </c>
+      <c r="C7" s="41">
+        <v>2185</v>
+      </c>
+      <c r="E7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F7">
+        <f>F6-F5</f>
+        <v>98000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="40">
+        <v>42736</v>
+      </c>
+      <c r="B8">
+        <v>5800</v>
+      </c>
+      <c r="C8" s="41">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>5800</v>
+      </c>
+      <c r="C9" s="41">
+        <v>2185</v>
+      </c>
+      <c r="E9" t="s">
+        <v>168</v>
+      </c>
+      <c r="F9">
+        <v>87000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>5800</v>
+      </c>
+      <c r="C10" s="41">
+        <v>2185</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>174</v>
+      </c>
+      <c r="F10">
+        <v>178149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>5800</v>
+      </c>
+      <c r="C11" s="41">
+        <v>2185</v>
+      </c>
+      <c r="E11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F11">
+        <f>F5-F10</f>
+        <v>71851</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>5800</v>
+      </c>
+      <c r="C12" s="41">
+        <v>2185</v>
+      </c>
+      <c r="E12" t="s">
+        <v>172</v>
+      </c>
+      <c r="F12">
+        <f>F9-F11</f>
+        <v>15149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>5800</v>
+      </c>
+      <c r="C13" s="41">
+        <v>2185</v>
+      </c>
+      <c r="E13" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="F13">
+        <v>261000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>5800</v>
+      </c>
+      <c r="C14" s="41">
+        <v>2185</v>
+      </c>
+      <c r="E14" s="43"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="40">
+        <v>42948</v>
+      </c>
+      <c r="B15">
+        <v>5800</v>
+      </c>
+      <c r="C15" s="41">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>5800</v>
+      </c>
+      <c r="C16" s="42">
+        <f>SUM(C1:C15)</f>
+        <v>32775</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="40">
+        <v>43101</v>
+      </c>
+      <c r="B20">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="40">
+        <v>43466</v>
+      </c>
+      <c r="B32">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="40">
+        <v>43831</v>
+      </c>
+      <c r="B44">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="40">
+        <v>44197</v>
+      </c>
+      <c r="B56">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>5800</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/documents/Home.xlsx
+++ b/documents/Home.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2520" windowWidth="13965" windowHeight="5625" activeTab="1"/>
@@ -15,12 +15,12 @@
     <sheet name="Spent" sheetId="9" r:id="rId6"/>
     <sheet name="Papa" sheetId="10" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="176">
   <si>
     <t>Date</t>
   </si>
@@ -545,16 +545,19 @@
   </si>
   <si>
     <t>Outstanding Principal</t>
+  </si>
+  <si>
+    <t>VAKRANGEE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -721,13 +724,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -818,7 +821,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -853,7 +855,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1029,14 +1030,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
@@ -1045,7 +1046,7 @@
     <col min="6" max="26" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -1079,7 +1080,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26">
       <c r="A2" s="24">
         <v>42190</v>
       </c>
@@ -1109,7 +1110,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26">
       <c r="A3" s="24">
         <v>42192</v>
       </c>
@@ -1138,7 +1139,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26">
       <c r="A4" s="24">
         <v>42229</v>
       </c>
@@ -1148,7 +1149,7 @@
       <c r="D4" s="27"/>
       <c r="E4" s="27"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26">
       <c r="A5" s="24">
         <v>42230</v>
       </c>
@@ -1160,7 +1161,7 @@
       </c>
       <c r="E5" s="27"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26">
       <c r="A6" s="24">
         <v>42255</v>
       </c>
@@ -1169,7 +1170,7 @@
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26">
       <c r="A7" s="24">
         <v>42262</v>
       </c>
@@ -1178,7 +1179,7 @@
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26">
       <c r="A8" s="24">
         <v>42282</v>
       </c>
@@ -1187,7 +1188,7 @@
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26">
       <c r="A9" s="24">
         <v>42299</v>
       </c>
@@ -1196,7 +1197,7 @@
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26">
       <c r="A10" s="24">
         <v>42373</v>
       </c>
@@ -1205,7 +1206,7 @@
       </c>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26">
       <c r="A11" s="24">
         <v>42553</v>
       </c>
@@ -1214,7 +1215,7 @@
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26">
       <c r="A12" s="24">
         <v>42640</v>
       </c>
@@ -1223,7 +1224,7 @@
       </c>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26">
       <c r="A13" s="25">
         <v>42768</v>
       </c>
@@ -1232,7 +1233,7 @@
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26">
       <c r="A14" s="25">
         <v>42796</v>
       </c>
@@ -1241,7 +1242,7 @@
       </c>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26">
       <c r="A15" s="25">
         <v>42829</v>
       </c>
@@ -1250,7 +1251,7 @@
       </c>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26">
       <c r="A16" s="26">
         <v>42856</v>
       </c>
@@ -1259,7 +1260,7 @@
       </c>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26">
       <c r="A17" s="26">
         <v>42887</v>
       </c>
@@ -1268,7 +1269,7 @@
       </c>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26">
       <c r="A18" s="26">
         <v>42917</v>
       </c>
@@ -1277,7 +1278,7 @@
       </c>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26">
       <c r="A19" s="26">
         <v>42948</v>
       </c>
@@ -1286,32 +1287,32 @@
       </c>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26">
       <c r="A20" s="26"/>
       <c r="B20" s="23"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26">
       <c r="A21" s="26"/>
       <c r="B21" s="23"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26">
       <c r="A22" s="26"/>
       <c r="B22" s="23"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26">
       <c r="A23" s="26"/>
       <c r="B23" s="23"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26">
       <c r="A24" s="27"/>
       <c r="B24" s="27"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26">
       <c r="A25" s="25" t="s">
         <v>5</v>
       </c>
@@ -1344,4877 +1345,4877 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="E45" s="3"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="E48" s="3"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="E53" s="3"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="E54" s="3"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="E61" s="3"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="E62" s="3"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="E63" s="3"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="E64" s="3"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="E65" s="3"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="E66" s="3"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="E67" s="3"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="E68" s="3"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="E69" s="3"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="E70" s="3"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="E71" s="3"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="E72" s="3"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="E73" s="3"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="E74" s="3"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="E75" s="3"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="E76" s="3"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="E77" s="3"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="E78" s="3"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="E79" s="3"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="E80" s="3"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="E81" s="3"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="E82" s="3"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="E83" s="3"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="E84" s="3"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="E85" s="3"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="E86" s="3"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="E87" s="3"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="E88" s="3"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="E89" s="3"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="E90" s="3"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="E91" s="3"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="E92" s="3"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="E93" s="3"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="E94" s="3"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="E95" s="3"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="E96" s="3"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="E97" s="3"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="E98" s="3"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="E99" s="3"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="E100" s="3"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="E101" s="3"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="E102" s="3"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="E103" s="3"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="E104" s="3"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="E105" s="3"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="E106" s="3"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="E107" s="3"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="E108" s="3"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="E109" s="3"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="E110" s="3"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="E111" s="3"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="E112" s="3"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="E113" s="3"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="E114" s="3"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="E115" s="3"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="E116" s="3"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="E117" s="3"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="E118" s="3"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="E119" s="3"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="E120" s="3"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="E121" s="3"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="E122" s="3"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="E123" s="3"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="E124" s="3"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="E125" s="3"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="E126" s="3"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="E127" s="3"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="E128" s="3"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="E129" s="3"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="E130" s="3"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="E131" s="3"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="E132" s="3"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="E133" s="3"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="E134" s="3"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="E135" s="3"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="E136" s="3"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="E137" s="3"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="E138" s="3"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="E139" s="3"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="E140" s="3"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="E141" s="3"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="E142" s="3"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="E143" s="3"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="E144" s="3"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="E145" s="3"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="E146" s="3"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="E147" s="3"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="E148" s="3"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="E149" s="3"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="E150" s="3"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="E151" s="3"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="E152" s="3"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="E153" s="3"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="E154" s="3"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="E155" s="3"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="E156" s="3"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="E157" s="3"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="E158" s="3"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="E159" s="3"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="E160" s="3"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="E161" s="3"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="E162" s="3"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="E163" s="3"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="E164" s="3"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="E165" s="3"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="E166" s="3"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="E167" s="3"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="E168" s="3"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="E169" s="3"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="E170" s="3"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="E171" s="3"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="E172" s="3"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="E173" s="3"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="E174" s="3"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="E175" s="3"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="E176" s="3"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="E177" s="3"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="E178" s="3"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="E179" s="3"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="E180" s="3"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="E181" s="3"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="E182" s="3"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="E183" s="3"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="E184" s="3"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="E185" s="3"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="E186" s="3"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="E187" s="3"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="E188" s="3"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="E189" s="3"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="E190" s="3"/>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="E191" s="3"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="E192" s="3"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="E193" s="3"/>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="E194" s="3"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="E195" s="3"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="E196" s="3"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="E197" s="3"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="E198" s="3"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="E199" s="3"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="E200" s="3"/>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="E201" s="3"/>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="E202" s="3"/>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="E203" s="3"/>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="E204" s="3"/>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="E205" s="3"/>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="E206" s="3"/>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="E207" s="3"/>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="E208" s="3"/>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="E209" s="3"/>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="E210" s="3"/>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="E211" s="3"/>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="E212" s="3"/>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="E213" s="3"/>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="E214" s="3"/>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="E215" s="3"/>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="E216" s="3"/>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="E217" s="3"/>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="E218" s="3"/>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="E219" s="3"/>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="E220" s="3"/>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5">
       <c r="A221" s="3"/>
       <c r="B221" s="3"/>
       <c r="E221" s="3"/>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5">
       <c r="A222" s="3"/>
       <c r="B222" s="3"/>
       <c r="E222" s="3"/>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5">
       <c r="A223" s="3"/>
       <c r="B223" s="3"/>
       <c r="E223" s="3"/>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5">
       <c r="A224" s="3"/>
       <c r="B224" s="3"/>
       <c r="E224" s="3"/>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5">
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
       <c r="E225" s="3"/>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5">
       <c r="A226" s="3"/>
       <c r="B226" s="3"/>
       <c r="E226" s="3"/>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5">
       <c r="A227" s="3"/>
       <c r="B227" s="3"/>
       <c r="E227" s="3"/>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5">
       <c r="A228" s="3"/>
       <c r="B228" s="3"/>
       <c r="E228" s="3"/>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5">
       <c r="A229" s="3"/>
       <c r="B229" s="3"/>
       <c r="E229" s="3"/>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5">
       <c r="A230" s="3"/>
       <c r="B230" s="3"/>
       <c r="E230" s="3"/>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5">
       <c r="A231" s="3"/>
       <c r="B231" s="3"/>
       <c r="E231" s="3"/>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5">
       <c r="A232" s="3"/>
       <c r="B232" s="3"/>
       <c r="E232" s="3"/>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5">
       <c r="A233" s="3"/>
       <c r="B233" s="3"/>
       <c r="E233" s="3"/>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5">
       <c r="A234" s="3"/>
       <c r="B234" s="3"/>
       <c r="E234" s="3"/>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5">
       <c r="A235" s="3"/>
       <c r="B235" s="3"/>
       <c r="E235" s="3"/>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5">
       <c r="A236" s="3"/>
       <c r="B236" s="3"/>
       <c r="E236" s="3"/>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5">
       <c r="A237" s="3"/>
       <c r="B237" s="3"/>
       <c r="E237" s="3"/>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5">
       <c r="A238" s="3"/>
       <c r="B238" s="3"/>
       <c r="E238" s="3"/>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5">
       <c r="A239" s="3"/>
       <c r="B239" s="3"/>
       <c r="E239" s="3"/>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5">
       <c r="A240" s="3"/>
       <c r="B240" s="3"/>
       <c r="E240" s="3"/>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5">
       <c r="A241" s="3"/>
       <c r="B241" s="3"/>
       <c r="E241" s="3"/>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5">
       <c r="A242" s="3"/>
       <c r="B242" s="3"/>
       <c r="E242" s="3"/>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5">
       <c r="A243" s="3"/>
       <c r="B243" s="3"/>
       <c r="E243" s="3"/>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5">
       <c r="A244" s="3"/>
       <c r="B244" s="3"/>
       <c r="E244" s="3"/>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5">
       <c r="A245" s="3"/>
       <c r="B245" s="3"/>
       <c r="E245" s="3"/>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5">
       <c r="A246" s="3"/>
       <c r="B246" s="3"/>
       <c r="E246" s="3"/>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5">
       <c r="A247" s="3"/>
       <c r="B247" s="3"/>
       <c r="E247" s="3"/>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5">
       <c r="A248" s="3"/>
       <c r="B248" s="3"/>
       <c r="E248" s="3"/>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5">
       <c r="A249" s="3"/>
       <c r="B249" s="3"/>
       <c r="E249" s="3"/>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5">
       <c r="A250" s="3"/>
       <c r="B250" s="3"/>
       <c r="E250" s="3"/>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5">
       <c r="A251" s="3"/>
       <c r="B251" s="3"/>
       <c r="E251" s="3"/>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5">
       <c r="A252" s="3"/>
       <c r="B252" s="3"/>
       <c r="E252" s="3"/>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5">
       <c r="A253" s="3"/>
       <c r="B253" s="3"/>
       <c r="E253" s="3"/>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5">
       <c r="A254" s="3"/>
       <c r="B254" s="3"/>
       <c r="E254" s="3"/>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
       <c r="E255" s="3"/>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5">
       <c r="A256" s="3"/>
       <c r="B256" s="3"/>
       <c r="E256" s="3"/>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5">
       <c r="A257" s="3"/>
       <c r="B257" s="3"/>
       <c r="E257" s="3"/>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5">
       <c r="A258" s="3"/>
       <c r="B258" s="3"/>
       <c r="E258" s="3"/>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5">
       <c r="A259" s="3"/>
       <c r="B259" s="3"/>
       <c r="E259" s="3"/>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5">
       <c r="A260" s="3"/>
       <c r="B260" s="3"/>
       <c r="E260" s="3"/>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5">
       <c r="A261" s="3"/>
       <c r="B261" s="3"/>
       <c r="E261" s="3"/>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5">
       <c r="A262" s="3"/>
       <c r="B262" s="3"/>
       <c r="E262" s="3"/>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5">
       <c r="A263" s="3"/>
       <c r="B263" s="3"/>
       <c r="E263" s="3"/>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5">
       <c r="A264" s="3"/>
       <c r="B264" s="3"/>
       <c r="E264" s="3"/>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5">
       <c r="A265" s="3"/>
       <c r="B265" s="3"/>
       <c r="E265" s="3"/>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5">
       <c r="A266" s="3"/>
       <c r="B266" s="3"/>
       <c r="E266" s="3"/>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5">
       <c r="A267" s="3"/>
       <c r="B267" s="3"/>
       <c r="E267" s="3"/>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5">
       <c r="A268" s="3"/>
       <c r="B268" s="3"/>
       <c r="E268" s="3"/>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5">
       <c r="A269" s="3"/>
       <c r="B269" s="3"/>
       <c r="E269" s="3"/>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5">
       <c r="A270" s="3"/>
       <c r="B270" s="3"/>
       <c r="E270" s="3"/>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5">
       <c r="A271" s="3"/>
       <c r="B271" s="3"/>
       <c r="E271" s="3"/>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5">
       <c r="A272" s="3"/>
       <c r="B272" s="3"/>
       <c r="E272" s="3"/>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5">
       <c r="A273" s="3"/>
       <c r="B273" s="3"/>
       <c r="E273" s="3"/>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5">
       <c r="A274" s="3"/>
       <c r="B274" s="3"/>
       <c r="E274" s="3"/>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5">
       <c r="A275" s="3"/>
       <c r="B275" s="3"/>
       <c r="E275" s="3"/>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5">
       <c r="A276" s="3"/>
       <c r="B276" s="3"/>
       <c r="E276" s="3"/>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5">
       <c r="A277" s="3"/>
       <c r="B277" s="3"/>
       <c r="E277" s="3"/>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5">
       <c r="A278" s="3"/>
       <c r="B278" s="3"/>
       <c r="E278" s="3"/>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5">
       <c r="A279" s="3"/>
       <c r="B279" s="3"/>
       <c r="E279" s="3"/>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5">
       <c r="A280" s="3"/>
       <c r="B280" s="3"/>
       <c r="E280" s="3"/>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5">
       <c r="A281" s="3"/>
       <c r="B281" s="3"/>
       <c r="E281" s="3"/>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5">
       <c r="A282" s="3"/>
       <c r="B282" s="3"/>
       <c r="E282" s="3"/>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5">
       <c r="A283" s="3"/>
       <c r="B283" s="3"/>
       <c r="E283" s="3"/>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5">
       <c r="A284" s="3"/>
       <c r="B284" s="3"/>
       <c r="E284" s="3"/>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5">
       <c r="A285" s="3"/>
       <c r="B285" s="3"/>
       <c r="E285" s="3"/>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5">
       <c r="A286" s="3"/>
       <c r="B286" s="3"/>
       <c r="E286" s="3"/>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5">
       <c r="A287" s="3"/>
       <c r="B287" s="3"/>
       <c r="E287" s="3"/>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5">
       <c r="A288" s="3"/>
       <c r="B288" s="3"/>
       <c r="E288" s="3"/>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5">
       <c r="A289" s="3"/>
       <c r="B289" s="3"/>
       <c r="E289" s="3"/>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5">
       <c r="A290" s="3"/>
       <c r="B290" s="3"/>
       <c r="E290" s="3"/>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5">
       <c r="A291" s="3"/>
       <c r="B291" s="3"/>
       <c r="E291" s="3"/>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5">
       <c r="A292" s="3"/>
       <c r="B292" s="3"/>
       <c r="E292" s="3"/>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5">
       <c r="A293" s="3"/>
       <c r="B293" s="3"/>
       <c r="E293" s="3"/>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5">
       <c r="A294" s="3"/>
       <c r="B294" s="3"/>
       <c r="E294" s="3"/>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5">
       <c r="A295" s="3"/>
       <c r="B295" s="3"/>
       <c r="E295" s="3"/>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5">
       <c r="A296" s="3"/>
       <c r="B296" s="3"/>
       <c r="E296" s="3"/>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5">
       <c r="A297" s="3"/>
       <c r="B297" s="3"/>
       <c r="E297" s="3"/>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5">
       <c r="A298" s="3"/>
       <c r="B298" s="3"/>
       <c r="E298" s="3"/>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5">
       <c r="A299" s="3"/>
       <c r="B299" s="3"/>
       <c r="E299" s="3"/>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5">
       <c r="A300" s="3"/>
       <c r="B300" s="3"/>
       <c r="E300" s="3"/>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5">
       <c r="A301" s="3"/>
       <c r="B301" s="3"/>
       <c r="E301" s="3"/>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5">
       <c r="A302" s="3"/>
       <c r="B302" s="3"/>
       <c r="E302" s="3"/>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5">
       <c r="A303" s="3"/>
       <c r="B303" s="3"/>
       <c r="E303" s="3"/>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5">
       <c r="A304" s="3"/>
       <c r="B304" s="3"/>
       <c r="E304" s="3"/>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5">
       <c r="A305" s="3"/>
       <c r="B305" s="3"/>
       <c r="E305" s="3"/>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5">
       <c r="A306" s="3"/>
       <c r="B306" s="3"/>
       <c r="E306" s="3"/>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5">
       <c r="A307" s="3"/>
       <c r="B307" s="3"/>
       <c r="E307" s="3"/>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5">
       <c r="A308" s="3"/>
       <c r="B308" s="3"/>
       <c r="E308" s="3"/>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5">
       <c r="A309" s="3"/>
       <c r="B309" s="3"/>
       <c r="E309" s="3"/>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5">
       <c r="A310" s="3"/>
       <c r="B310" s="3"/>
       <c r="E310" s="3"/>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5">
       <c r="A311" s="3"/>
       <c r="B311" s="3"/>
       <c r="E311" s="3"/>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5">
       <c r="A312" s="3"/>
       <c r="B312" s="3"/>
       <c r="E312" s="3"/>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5">
       <c r="A313" s="3"/>
       <c r="B313" s="3"/>
       <c r="E313" s="3"/>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5">
       <c r="A314" s="3"/>
       <c r="B314" s="3"/>
       <c r="E314" s="3"/>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5">
       <c r="A315" s="3"/>
       <c r="B315" s="3"/>
       <c r="E315" s="3"/>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5">
       <c r="A316" s="3"/>
       <c r="B316" s="3"/>
       <c r="E316" s="3"/>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5">
       <c r="A317" s="3"/>
       <c r="B317" s="3"/>
       <c r="E317" s="3"/>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5">
       <c r="A318" s="3"/>
       <c r="B318" s="3"/>
       <c r="E318" s="3"/>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5">
       <c r="A319" s="3"/>
       <c r="B319" s="3"/>
       <c r="E319" s="3"/>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5">
       <c r="A320" s="3"/>
       <c r="B320" s="3"/>
       <c r="E320" s="3"/>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5">
       <c r="A321" s="3"/>
       <c r="B321" s="3"/>
       <c r="E321" s="3"/>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5">
       <c r="A322" s="3"/>
       <c r="B322" s="3"/>
       <c r="E322" s="3"/>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5">
       <c r="A323" s="3"/>
       <c r="B323" s="3"/>
       <c r="E323" s="3"/>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5">
       <c r="A324" s="3"/>
       <c r="B324" s="3"/>
       <c r="E324" s="3"/>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5">
       <c r="A325" s="3"/>
       <c r="B325" s="3"/>
       <c r="E325" s="3"/>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5">
       <c r="A326" s="3"/>
       <c r="B326" s="3"/>
       <c r="E326" s="3"/>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5">
       <c r="A327" s="3"/>
       <c r="B327" s="3"/>
       <c r="E327" s="3"/>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5">
       <c r="A328" s="3"/>
       <c r="B328" s="3"/>
       <c r="E328" s="3"/>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5">
       <c r="A329" s="3"/>
       <c r="B329" s="3"/>
       <c r="E329" s="3"/>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5">
       <c r="A330" s="3"/>
       <c r="B330" s="3"/>
       <c r="E330" s="3"/>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5">
       <c r="A331" s="3"/>
       <c r="B331" s="3"/>
       <c r="E331" s="3"/>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5">
       <c r="A332" s="3"/>
       <c r="B332" s="3"/>
       <c r="E332" s="3"/>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5">
       <c r="A333" s="3"/>
       <c r="B333" s="3"/>
       <c r="E333" s="3"/>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5">
       <c r="A334" s="3"/>
       <c r="B334" s="3"/>
       <c r="E334" s="3"/>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5">
       <c r="A335" s="3"/>
       <c r="B335" s="3"/>
       <c r="E335" s="3"/>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5">
       <c r="A336" s="3"/>
       <c r="B336" s="3"/>
       <c r="E336" s="3"/>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5">
       <c r="A337" s="3"/>
       <c r="B337" s="3"/>
       <c r="E337" s="3"/>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5">
       <c r="A338" s="3"/>
       <c r="B338" s="3"/>
       <c r="E338" s="3"/>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5">
       <c r="A339" s="3"/>
       <c r="B339" s="3"/>
       <c r="E339" s="3"/>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5">
       <c r="A340" s="3"/>
       <c r="B340" s="3"/>
       <c r="E340" s="3"/>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5">
       <c r="A341" s="3"/>
       <c r="B341" s="3"/>
       <c r="E341" s="3"/>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5">
       <c r="A342" s="3"/>
       <c r="B342" s="3"/>
       <c r="E342" s="3"/>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5">
       <c r="A343" s="3"/>
       <c r="B343" s="3"/>
       <c r="E343" s="3"/>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5">
       <c r="A344" s="3"/>
       <c r="B344" s="3"/>
       <c r="E344" s="3"/>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5">
       <c r="A345" s="3"/>
       <c r="B345" s="3"/>
       <c r="E345" s="3"/>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5">
       <c r="A346" s="3"/>
       <c r="B346" s="3"/>
       <c r="E346" s="3"/>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5">
       <c r="A347" s="3"/>
       <c r="B347" s="3"/>
       <c r="E347" s="3"/>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5">
       <c r="A348" s="3"/>
       <c r="B348" s="3"/>
       <c r="E348" s="3"/>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5">
       <c r="A349" s="3"/>
       <c r="B349" s="3"/>
       <c r="E349" s="3"/>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5">
       <c r="A350" s="3"/>
       <c r="B350" s="3"/>
       <c r="E350" s="3"/>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5">
       <c r="A351" s="3"/>
       <c r="B351" s="3"/>
       <c r="E351" s="3"/>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5">
       <c r="A352" s="3"/>
       <c r="B352" s="3"/>
       <c r="E352" s="3"/>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5">
       <c r="A353" s="3"/>
       <c r="B353" s="3"/>
       <c r="E353" s="3"/>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5">
       <c r="A354" s="3"/>
       <c r="B354" s="3"/>
       <c r="E354" s="3"/>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5">
       <c r="A355" s="3"/>
       <c r="B355" s="3"/>
       <c r="E355" s="3"/>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5">
       <c r="A356" s="3"/>
       <c r="B356" s="3"/>
       <c r="E356" s="3"/>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5">
       <c r="A357" s="3"/>
       <c r="B357" s="3"/>
       <c r="E357" s="3"/>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5">
       <c r="A358" s="3"/>
       <c r="B358" s="3"/>
       <c r="E358" s="3"/>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5">
       <c r="A359" s="3"/>
       <c r="B359" s="3"/>
       <c r="E359" s="3"/>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5">
       <c r="A360" s="3"/>
       <c r="B360" s="3"/>
       <c r="E360" s="3"/>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5">
       <c r="A361" s="3"/>
       <c r="B361" s="3"/>
       <c r="E361" s="3"/>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5">
       <c r="A362" s="3"/>
       <c r="B362" s="3"/>
       <c r="E362" s="3"/>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5">
       <c r="A363" s="3"/>
       <c r="B363" s="3"/>
       <c r="E363" s="3"/>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5">
       <c r="A364" s="3"/>
       <c r="B364" s="3"/>
       <c r="E364" s="3"/>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5">
       <c r="A365" s="3"/>
       <c r="B365" s="3"/>
       <c r="E365" s="3"/>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5">
       <c r="A366" s="3"/>
       <c r="B366" s="3"/>
       <c r="E366" s="3"/>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5">
       <c r="A367" s="3"/>
       <c r="B367" s="3"/>
       <c r="E367" s="3"/>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5">
       <c r="A368" s="3"/>
       <c r="B368" s="3"/>
       <c r="E368" s="3"/>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5">
       <c r="A369" s="3"/>
       <c r="B369" s="3"/>
       <c r="E369" s="3"/>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5">
       <c r="A370" s="3"/>
       <c r="B370" s="3"/>
       <c r="E370" s="3"/>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5">
       <c r="A371" s="3"/>
       <c r="B371" s="3"/>
       <c r="E371" s="3"/>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5">
       <c r="A372" s="3"/>
       <c r="B372" s="3"/>
       <c r="E372" s="3"/>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5">
       <c r="A373" s="3"/>
       <c r="B373" s="3"/>
       <c r="E373" s="3"/>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5">
       <c r="A374" s="3"/>
       <c r="B374" s="3"/>
       <c r="E374" s="3"/>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5">
       <c r="A375" s="3"/>
       <c r="B375" s="3"/>
       <c r="E375" s="3"/>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5">
       <c r="A376" s="3"/>
       <c r="B376" s="3"/>
       <c r="E376" s="3"/>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5">
       <c r="A377" s="3"/>
       <c r="B377" s="3"/>
       <c r="E377" s="3"/>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5">
       <c r="A378" s="3"/>
       <c r="B378" s="3"/>
       <c r="E378" s="3"/>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5">
       <c r="A379" s="3"/>
       <c r="B379" s="3"/>
       <c r="E379" s="3"/>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5">
       <c r="A380" s="3"/>
       <c r="B380" s="3"/>
       <c r="E380" s="3"/>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5">
       <c r="A381" s="3"/>
       <c r="B381" s="3"/>
       <c r="E381" s="3"/>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5">
       <c r="A382" s="3"/>
       <c r="B382" s="3"/>
       <c r="E382" s="3"/>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5">
       <c r="A383" s="3"/>
       <c r="B383" s="3"/>
       <c r="E383" s="3"/>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5">
       <c r="A384" s="3"/>
       <c r="B384" s="3"/>
       <c r="E384" s="3"/>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5">
       <c r="A385" s="3"/>
       <c r="B385" s="3"/>
       <c r="E385" s="3"/>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5">
       <c r="A386" s="3"/>
       <c r="B386" s="3"/>
       <c r="E386" s="3"/>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5">
       <c r="A387" s="3"/>
       <c r="B387" s="3"/>
       <c r="E387" s="3"/>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5">
       <c r="A388" s="3"/>
       <c r="B388" s="3"/>
       <c r="E388" s="3"/>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5">
       <c r="A389" s="3"/>
       <c r="B389" s="3"/>
       <c r="E389" s="3"/>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5">
       <c r="A390" s="3"/>
       <c r="B390" s="3"/>
       <c r="E390" s="3"/>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5">
       <c r="A391" s="3"/>
       <c r="B391" s="3"/>
       <c r="E391" s="3"/>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5">
       <c r="A392" s="3"/>
       <c r="B392" s="3"/>
       <c r="E392" s="3"/>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5">
       <c r="A393" s="3"/>
       <c r="B393" s="3"/>
       <c r="E393" s="3"/>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5">
       <c r="A394" s="3"/>
       <c r="B394" s="3"/>
       <c r="E394" s="3"/>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5">
       <c r="A395" s="3"/>
       <c r="B395" s="3"/>
       <c r="E395" s="3"/>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5">
       <c r="A396" s="3"/>
       <c r="B396" s="3"/>
       <c r="E396" s="3"/>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5">
       <c r="A397" s="3"/>
       <c r="B397" s="3"/>
       <c r="E397" s="3"/>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5">
       <c r="A398" s="3"/>
       <c r="B398" s="3"/>
       <c r="E398" s="3"/>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5">
       <c r="A399" s="3"/>
       <c r="B399" s="3"/>
       <c r="E399" s="3"/>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5">
       <c r="A400" s="3"/>
       <c r="B400" s="3"/>
       <c r="E400" s="3"/>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5">
       <c r="A401" s="3"/>
       <c r="B401" s="3"/>
       <c r="E401" s="3"/>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5">
       <c r="A402" s="3"/>
       <c r="B402" s="3"/>
       <c r="E402" s="3"/>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5">
       <c r="A403" s="3"/>
       <c r="B403" s="3"/>
       <c r="E403" s="3"/>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5">
       <c r="A404" s="3"/>
       <c r="B404" s="3"/>
       <c r="E404" s="3"/>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5">
       <c r="A405" s="3"/>
       <c r="B405" s="3"/>
       <c r="E405" s="3"/>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5">
       <c r="A406" s="3"/>
       <c r="B406" s="3"/>
       <c r="E406" s="3"/>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5">
       <c r="A407" s="3"/>
       <c r="B407" s="3"/>
       <c r="E407" s="3"/>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5">
       <c r="A408" s="3"/>
       <c r="B408" s="3"/>
       <c r="E408" s="3"/>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5">
       <c r="A409" s="3"/>
       <c r="B409" s="3"/>
       <c r="E409" s="3"/>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5">
       <c r="A410" s="3"/>
       <c r="B410" s="3"/>
       <c r="E410" s="3"/>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5">
       <c r="A411" s="3"/>
       <c r="B411" s="3"/>
       <c r="E411" s="3"/>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:5">
       <c r="A412" s="3"/>
       <c r="B412" s="3"/>
       <c r="E412" s="3"/>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5">
       <c r="A413" s="3"/>
       <c r="B413" s="3"/>
       <c r="E413" s="3"/>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5">
       <c r="A414" s="3"/>
       <c r="B414" s="3"/>
       <c r="E414" s="3"/>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5">
       <c r="A415" s="3"/>
       <c r="B415" s="3"/>
       <c r="E415" s="3"/>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5">
       <c r="A416" s="3"/>
       <c r="B416" s="3"/>
       <c r="E416" s="3"/>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5">
       <c r="A417" s="3"/>
       <c r="B417" s="3"/>
       <c r="E417" s="3"/>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:5">
       <c r="A418" s="3"/>
       <c r="B418" s="3"/>
       <c r="E418" s="3"/>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5">
       <c r="A419" s="3"/>
       <c r="B419" s="3"/>
       <c r="E419" s="3"/>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5">
       <c r="A420" s="3"/>
       <c r="B420" s="3"/>
       <c r="E420" s="3"/>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:5">
       <c r="A421" s="3"/>
       <c r="B421" s="3"/>
       <c r="E421" s="3"/>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:5">
       <c r="A422" s="3"/>
       <c r="B422" s="3"/>
       <c r="E422" s="3"/>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:5">
       <c r="A423" s="3"/>
       <c r="B423" s="3"/>
       <c r="E423" s="3"/>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:5">
       <c r="A424" s="3"/>
       <c r="B424" s="3"/>
       <c r="E424" s="3"/>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:5">
       <c r="A425" s="3"/>
       <c r="B425" s="3"/>
       <c r="E425" s="3"/>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:5">
       <c r="A426" s="3"/>
       <c r="B426" s="3"/>
       <c r="E426" s="3"/>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:5">
       <c r="A427" s="3"/>
       <c r="B427" s="3"/>
       <c r="E427" s="3"/>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:5">
       <c r="A428" s="3"/>
       <c r="B428" s="3"/>
       <c r="E428" s="3"/>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:5">
       <c r="A429" s="3"/>
       <c r="B429" s="3"/>
       <c r="E429" s="3"/>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:5">
       <c r="A430" s="3"/>
       <c r="B430" s="3"/>
       <c r="E430" s="3"/>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:5">
       <c r="A431" s="3"/>
       <c r="B431" s="3"/>
       <c r="E431" s="3"/>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:5">
       <c r="A432" s="3"/>
       <c r="B432" s="3"/>
       <c r="E432" s="3"/>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:5">
       <c r="A433" s="3"/>
       <c r="B433" s="3"/>
       <c r="E433" s="3"/>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5">
       <c r="A434" s="3"/>
       <c r="B434" s="3"/>
       <c r="E434" s="3"/>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5">
       <c r="A435" s="3"/>
       <c r="B435" s="3"/>
       <c r="E435" s="3"/>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:5">
       <c r="A436" s="3"/>
       <c r="B436" s="3"/>
       <c r="E436" s="3"/>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:5">
       <c r="A437" s="3"/>
       <c r="B437" s="3"/>
       <c r="E437" s="3"/>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:5">
       <c r="A438" s="3"/>
       <c r="B438" s="3"/>
       <c r="E438" s="3"/>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5">
       <c r="A439" s="3"/>
       <c r="B439" s="3"/>
       <c r="E439" s="3"/>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:5">
       <c r="A440" s="3"/>
       <c r="B440" s="3"/>
       <c r="E440" s="3"/>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:5">
       <c r="A441" s="3"/>
       <c r="B441" s="3"/>
       <c r="E441" s="3"/>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:5">
       <c r="A442" s="3"/>
       <c r="B442" s="3"/>
       <c r="E442" s="3"/>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:5">
       <c r="A443" s="3"/>
       <c r="B443" s="3"/>
       <c r="E443" s="3"/>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:5">
       <c r="A444" s="3"/>
       <c r="B444" s="3"/>
       <c r="E444" s="3"/>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:5">
       <c r="A445" s="3"/>
       <c r="B445" s="3"/>
       <c r="E445" s="3"/>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:5">
       <c r="A446" s="3"/>
       <c r="B446" s="3"/>
       <c r="E446" s="3"/>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:5">
       <c r="A447" s="3"/>
       <c r="B447" s="3"/>
       <c r="E447" s="3"/>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:5">
       <c r="A448" s="3"/>
       <c r="B448" s="3"/>
       <c r="E448" s="3"/>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:5">
       <c r="A449" s="3"/>
       <c r="B449" s="3"/>
       <c r="E449" s="3"/>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:5">
       <c r="A450" s="3"/>
       <c r="B450" s="3"/>
       <c r="E450" s="3"/>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:5">
       <c r="A451" s="3"/>
       <c r="B451" s="3"/>
       <c r="E451" s="3"/>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:5">
       <c r="A452" s="3"/>
       <c r="B452" s="3"/>
       <c r="E452" s="3"/>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:5">
       <c r="A453" s="3"/>
       <c r="B453" s="3"/>
       <c r="E453" s="3"/>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:5">
       <c r="A454" s="3"/>
       <c r="B454" s="3"/>
       <c r="E454" s="3"/>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:5">
       <c r="A455" s="3"/>
       <c r="B455" s="3"/>
       <c r="E455" s="3"/>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:5">
       <c r="A456" s="3"/>
       <c r="B456" s="3"/>
       <c r="E456" s="3"/>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:5">
       <c r="A457" s="3"/>
       <c r="B457" s="3"/>
       <c r="E457" s="3"/>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:5">
       <c r="A458" s="3"/>
       <c r="B458" s="3"/>
       <c r="E458" s="3"/>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:5">
       <c r="A459" s="3"/>
       <c r="B459" s="3"/>
       <c r="E459" s="3"/>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:5">
       <c r="A460" s="3"/>
       <c r="B460" s="3"/>
       <c r="E460" s="3"/>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:5">
       <c r="A461" s="3"/>
       <c r="B461" s="3"/>
       <c r="E461" s="3"/>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:5">
       <c r="A462" s="3"/>
       <c r="B462" s="3"/>
       <c r="E462" s="3"/>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:5">
       <c r="A463" s="3"/>
       <c r="B463" s="3"/>
       <c r="E463" s="3"/>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:5">
       <c r="A464" s="3"/>
       <c r="B464" s="3"/>
       <c r="E464" s="3"/>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:5">
       <c r="A465" s="3"/>
       <c r="B465" s="3"/>
       <c r="E465" s="3"/>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:5">
       <c r="A466" s="3"/>
       <c r="B466" s="3"/>
       <c r="E466" s="3"/>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:5">
       <c r="A467" s="3"/>
       <c r="B467" s="3"/>
       <c r="E467" s="3"/>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:5">
       <c r="A468" s="3"/>
       <c r="B468" s="3"/>
       <c r="E468" s="3"/>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:5">
       <c r="A469" s="3"/>
       <c r="B469" s="3"/>
       <c r="E469" s="3"/>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:5">
       <c r="A470" s="3"/>
       <c r="B470" s="3"/>
       <c r="E470" s="3"/>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:5">
       <c r="A471" s="3"/>
       <c r="B471" s="3"/>
       <c r="E471" s="3"/>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:5">
       <c r="A472" s="3"/>
       <c r="B472" s="3"/>
       <c r="E472" s="3"/>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:5">
       <c r="A473" s="3"/>
       <c r="B473" s="3"/>
       <c r="E473" s="3"/>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:5">
       <c r="A474" s="3"/>
       <c r="B474" s="3"/>
       <c r="E474" s="3"/>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:5">
       <c r="A475" s="3"/>
       <c r="B475" s="3"/>
       <c r="E475" s="3"/>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:5">
       <c r="A476" s="3"/>
       <c r="B476" s="3"/>
       <c r="E476" s="3"/>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:5">
       <c r="A477" s="3"/>
       <c r="B477" s="3"/>
       <c r="E477" s="3"/>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:5">
       <c r="A478" s="3"/>
       <c r="B478" s="3"/>
       <c r="E478" s="3"/>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:5">
       <c r="A479" s="3"/>
       <c r="B479" s="3"/>
       <c r="E479" s="3"/>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:5">
       <c r="A480" s="3"/>
       <c r="B480" s="3"/>
       <c r="E480" s="3"/>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:5">
       <c r="A481" s="3"/>
       <c r="B481" s="3"/>
       <c r="E481" s="3"/>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:5">
       <c r="A482" s="3"/>
       <c r="B482" s="3"/>
       <c r="E482" s="3"/>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:5">
       <c r="A483" s="3"/>
       <c r="B483" s="3"/>
       <c r="E483" s="3"/>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:5">
       <c r="A484" s="3"/>
       <c r="B484" s="3"/>
       <c r="E484" s="3"/>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:5">
       <c r="A485" s="3"/>
       <c r="B485" s="3"/>
       <c r="E485" s="3"/>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:5">
       <c r="A486" s="3"/>
       <c r="B486" s="3"/>
       <c r="E486" s="3"/>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:5">
       <c r="A487" s="3"/>
       <c r="B487" s="3"/>
       <c r="E487" s="3"/>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:5">
       <c r="A488" s="3"/>
       <c r="B488" s="3"/>
       <c r="E488" s="3"/>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:5">
       <c r="A489" s="3"/>
       <c r="B489" s="3"/>
       <c r="E489" s="3"/>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:5">
       <c r="A490" s="3"/>
       <c r="B490" s="3"/>
       <c r="E490" s="3"/>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:5">
       <c r="A491" s="3"/>
       <c r="B491" s="3"/>
       <c r="E491" s="3"/>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:5">
       <c r="A492" s="3"/>
       <c r="B492" s="3"/>
       <c r="E492" s="3"/>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:5">
       <c r="A493" s="3"/>
       <c r="B493" s="3"/>
       <c r="E493" s="3"/>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:5">
       <c r="A494" s="3"/>
       <c r="B494" s="3"/>
       <c r="E494" s="3"/>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:5">
       <c r="A495" s="3"/>
       <c r="B495" s="3"/>
       <c r="E495" s="3"/>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:5">
       <c r="A496" s="3"/>
       <c r="B496" s="3"/>
       <c r="E496" s="3"/>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:5">
       <c r="A497" s="3"/>
       <c r="B497" s="3"/>
       <c r="E497" s="3"/>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:5">
       <c r="A498" s="3"/>
       <c r="B498" s="3"/>
       <c r="E498" s="3"/>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:5">
       <c r="A499" s="3"/>
       <c r="B499" s="3"/>
       <c r="E499" s="3"/>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:5">
       <c r="A500" s="3"/>
       <c r="B500" s="3"/>
       <c r="E500" s="3"/>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:5">
       <c r="A501" s="3"/>
       <c r="B501" s="3"/>
       <c r="E501" s="3"/>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:5">
       <c r="A502" s="3"/>
       <c r="B502" s="3"/>
       <c r="E502" s="3"/>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:5">
       <c r="A503" s="3"/>
       <c r="B503" s="3"/>
       <c r="E503" s="3"/>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:5">
       <c r="A504" s="3"/>
       <c r="B504" s="3"/>
       <c r="E504" s="3"/>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:5">
       <c r="A505" s="3"/>
       <c r="B505" s="3"/>
       <c r="E505" s="3"/>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:5">
       <c r="A506" s="3"/>
       <c r="B506" s="3"/>
       <c r="E506" s="3"/>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:5">
       <c r="A507" s="3"/>
       <c r="B507" s="3"/>
       <c r="E507" s="3"/>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:5">
       <c r="A508" s="3"/>
       <c r="B508" s="3"/>
       <c r="E508" s="3"/>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:5">
       <c r="A509" s="3"/>
       <c r="B509" s="3"/>
       <c r="E509" s="3"/>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:5">
       <c r="A510" s="3"/>
       <c r="B510" s="3"/>
       <c r="E510" s="3"/>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:5">
       <c r="A511" s="3"/>
       <c r="B511" s="3"/>
       <c r="E511" s="3"/>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:5">
       <c r="A512" s="3"/>
       <c r="B512" s="3"/>
       <c r="E512" s="3"/>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:5">
       <c r="A513" s="3"/>
       <c r="B513" s="3"/>
       <c r="E513" s="3"/>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:5">
       <c r="A514" s="3"/>
       <c r="B514" s="3"/>
       <c r="E514" s="3"/>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:5">
       <c r="A515" s="3"/>
       <c r="B515" s="3"/>
       <c r="E515" s="3"/>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:5">
       <c r="A516" s="3"/>
       <c r="B516" s="3"/>
       <c r="E516" s="3"/>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:5">
       <c r="A517" s="3"/>
       <c r="B517" s="3"/>
       <c r="E517" s="3"/>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:5">
       <c r="A518" s="3"/>
       <c r="B518" s="3"/>
       <c r="E518" s="3"/>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:5">
       <c r="A519" s="3"/>
       <c r="B519" s="3"/>
       <c r="E519" s="3"/>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:5">
       <c r="A520" s="3"/>
       <c r="B520" s="3"/>
       <c r="E520" s="3"/>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:5">
       <c r="A521" s="3"/>
       <c r="B521" s="3"/>
       <c r="E521" s="3"/>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:5">
       <c r="A522" s="3"/>
       <c r="B522" s="3"/>
       <c r="E522" s="3"/>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:5">
       <c r="A523" s="3"/>
       <c r="B523" s="3"/>
       <c r="E523" s="3"/>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:5">
       <c r="A524" s="3"/>
       <c r="B524" s="3"/>
       <c r="E524" s="3"/>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:5">
       <c r="A525" s="3"/>
       <c r="B525" s="3"/>
       <c r="E525" s="3"/>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:5">
       <c r="A526" s="3"/>
       <c r="B526" s="3"/>
       <c r="E526" s="3"/>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:5">
       <c r="A527" s="3"/>
       <c r="B527" s="3"/>
       <c r="E527" s="3"/>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:5">
       <c r="A528" s="3"/>
       <c r="B528" s="3"/>
       <c r="E528" s="3"/>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:5">
       <c r="A529" s="3"/>
       <c r="B529" s="3"/>
       <c r="E529" s="3"/>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:5">
       <c r="A530" s="3"/>
       <c r="B530" s="3"/>
       <c r="E530" s="3"/>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:5">
       <c r="A531" s="3"/>
       <c r="B531" s="3"/>
       <c r="E531" s="3"/>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:5">
       <c r="A532" s="3"/>
       <c r="B532" s="3"/>
       <c r="E532" s="3"/>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:5">
       <c r="A533" s="3"/>
       <c r="B533" s="3"/>
       <c r="E533" s="3"/>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:5">
       <c r="A534" s="3"/>
       <c r="B534" s="3"/>
       <c r="E534" s="3"/>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:5">
       <c r="A535" s="3"/>
       <c r="B535" s="3"/>
       <c r="E535" s="3"/>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:5">
       <c r="A536" s="3"/>
       <c r="B536" s="3"/>
       <c r="E536" s="3"/>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:5">
       <c r="A537" s="3"/>
       <c r="B537" s="3"/>
       <c r="E537" s="3"/>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:5">
       <c r="A538" s="3"/>
       <c r="B538" s="3"/>
       <c r="E538" s="3"/>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:5">
       <c r="A539" s="3"/>
       <c r="B539" s="3"/>
       <c r="E539" s="3"/>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:5">
       <c r="A540" s="3"/>
       <c r="B540" s="3"/>
       <c r="E540" s="3"/>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:5">
       <c r="A541" s="3"/>
       <c r="B541" s="3"/>
       <c r="E541" s="3"/>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:5">
       <c r="A542" s="3"/>
       <c r="B542" s="3"/>
       <c r="E542" s="3"/>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:5">
       <c r="A543" s="3"/>
       <c r="B543" s="3"/>
       <c r="E543" s="3"/>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:5">
       <c r="A544" s="3"/>
       <c r="B544" s="3"/>
       <c r="E544" s="3"/>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:5">
       <c r="A545" s="3"/>
       <c r="B545" s="3"/>
       <c r="E545" s="3"/>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:5">
       <c r="A546" s="3"/>
       <c r="B546" s="3"/>
       <c r="E546" s="3"/>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:5">
       <c r="A547" s="3"/>
       <c r="B547" s="3"/>
       <c r="E547" s="3"/>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:5">
       <c r="A548" s="3"/>
       <c r="B548" s="3"/>
       <c r="E548" s="3"/>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:5">
       <c r="A549" s="3"/>
       <c r="B549" s="3"/>
       <c r="E549" s="3"/>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:5">
       <c r="A550" s="3"/>
       <c r="B550" s="3"/>
       <c r="E550" s="3"/>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:5">
       <c r="A551" s="3"/>
       <c r="B551" s="3"/>
       <c r="E551" s="3"/>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:5">
       <c r="A552" s="3"/>
       <c r="B552" s="3"/>
       <c r="E552" s="3"/>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:5">
       <c r="A553" s="3"/>
       <c r="B553" s="3"/>
       <c r="E553" s="3"/>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:5">
       <c r="A554" s="3"/>
       <c r="B554" s="3"/>
       <c r="E554" s="3"/>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:5">
       <c r="A555" s="3"/>
       <c r="B555" s="3"/>
       <c r="E555" s="3"/>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:5">
       <c r="A556" s="3"/>
       <c r="B556" s="3"/>
       <c r="E556" s="3"/>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:5">
       <c r="A557" s="3"/>
       <c r="B557" s="3"/>
       <c r="E557" s="3"/>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:5">
       <c r="A558" s="3"/>
       <c r="B558" s="3"/>
       <c r="E558" s="3"/>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:5">
       <c r="A559" s="3"/>
       <c r="B559" s="3"/>
       <c r="E559" s="3"/>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:5">
       <c r="A560" s="3"/>
       <c r="B560" s="3"/>
       <c r="E560" s="3"/>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:5">
       <c r="A561" s="3"/>
       <c r="B561" s="3"/>
       <c r="E561" s="3"/>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:5">
       <c r="A562" s="3"/>
       <c r="B562" s="3"/>
       <c r="E562" s="3"/>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:5">
       <c r="A563" s="3"/>
       <c r="B563" s="3"/>
       <c r="E563" s="3"/>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:5">
       <c r="A564" s="3"/>
       <c r="B564" s="3"/>
       <c r="E564" s="3"/>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:5">
       <c r="A565" s="3"/>
       <c r="B565" s="3"/>
       <c r="E565" s="3"/>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:5">
       <c r="A566" s="3"/>
       <c r="B566" s="3"/>
       <c r="E566" s="3"/>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:5">
       <c r="A567" s="3"/>
       <c r="B567" s="3"/>
       <c r="E567" s="3"/>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:5">
       <c r="A568" s="3"/>
       <c r="B568" s="3"/>
       <c r="E568" s="3"/>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:5">
       <c r="A569" s="3"/>
       <c r="B569" s="3"/>
       <c r="E569" s="3"/>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:5">
       <c r="A570" s="3"/>
       <c r="B570" s="3"/>
       <c r="E570" s="3"/>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:5">
       <c r="A571" s="3"/>
       <c r="B571" s="3"/>
       <c r="E571" s="3"/>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:5">
       <c r="A572" s="3"/>
       <c r="B572" s="3"/>
       <c r="E572" s="3"/>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:5">
       <c r="A573" s="3"/>
       <c r="B573" s="3"/>
       <c r="E573" s="3"/>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:5">
       <c r="A574" s="3"/>
       <c r="B574" s="3"/>
       <c r="E574" s="3"/>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:5">
       <c r="A575" s="3"/>
       <c r="B575" s="3"/>
       <c r="E575" s="3"/>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:5">
       <c r="A576" s="3"/>
       <c r="B576" s="3"/>
       <c r="E576" s="3"/>
     </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:5">
       <c r="A577" s="3"/>
       <c r="B577" s="3"/>
       <c r="E577" s="3"/>
     </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:5">
       <c r="A578" s="3"/>
       <c r="B578" s="3"/>
       <c r="E578" s="3"/>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:5">
       <c r="A579" s="3"/>
       <c r="B579" s="3"/>
       <c r="E579" s="3"/>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:5">
       <c r="A580" s="3"/>
       <c r="B580" s="3"/>
       <c r="E580" s="3"/>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:5">
       <c r="A581" s="3"/>
       <c r="B581" s="3"/>
       <c r="E581" s="3"/>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:5">
       <c r="A582" s="3"/>
       <c r="B582" s="3"/>
       <c r="E582" s="3"/>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:5">
       <c r="A583" s="3"/>
       <c r="B583" s="3"/>
       <c r="E583" s="3"/>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:5">
       <c r="A584" s="3"/>
       <c r="B584" s="3"/>
       <c r="E584" s="3"/>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:5">
       <c r="A585" s="3"/>
       <c r="B585" s="3"/>
       <c r="E585" s="3"/>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:5">
       <c r="A586" s="3"/>
       <c r="B586" s="3"/>
       <c r="E586" s="3"/>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:5">
       <c r="A587" s="3"/>
       <c r="B587" s="3"/>
       <c r="E587" s="3"/>
     </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:5">
       <c r="A588" s="3"/>
       <c r="B588" s="3"/>
       <c r="E588" s="3"/>
     </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:5">
       <c r="A589" s="3"/>
       <c r="B589" s="3"/>
       <c r="E589" s="3"/>
     </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:5">
       <c r="A590" s="3"/>
       <c r="B590" s="3"/>
       <c r="E590" s="3"/>
     </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:5">
       <c r="A591" s="3"/>
       <c r="B591" s="3"/>
       <c r="E591" s="3"/>
     </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:5">
       <c r="A592" s="3"/>
       <c r="B592" s="3"/>
       <c r="E592" s="3"/>
     </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:5">
       <c r="A593" s="3"/>
       <c r="B593" s="3"/>
       <c r="E593" s="3"/>
     </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:5">
       <c r="A594" s="3"/>
       <c r="B594" s="3"/>
       <c r="E594" s="3"/>
     </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:5">
       <c r="A595" s="3"/>
       <c r="B595" s="3"/>
       <c r="E595" s="3"/>
     </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:5">
       <c r="A596" s="3"/>
       <c r="B596" s="3"/>
       <c r="E596" s="3"/>
     </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:5">
       <c r="A597" s="3"/>
       <c r="B597" s="3"/>
       <c r="E597" s="3"/>
     </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:5">
       <c r="A598" s="3"/>
       <c r="B598" s="3"/>
       <c r="E598" s="3"/>
     </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:5">
       <c r="A599" s="3"/>
       <c r="B599" s="3"/>
       <c r="E599" s="3"/>
     </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:5">
       <c r="A600" s="3"/>
       <c r="B600" s="3"/>
       <c r="E600" s="3"/>
     </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:5">
       <c r="A601" s="3"/>
       <c r="B601" s="3"/>
       <c r="E601" s="3"/>
     </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:5">
       <c r="A602" s="3"/>
       <c r="B602" s="3"/>
       <c r="E602" s="3"/>
     </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:5">
       <c r="A603" s="3"/>
       <c r="B603" s="3"/>
       <c r="E603" s="3"/>
     </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:5">
       <c r="A604" s="3"/>
       <c r="B604" s="3"/>
       <c r="E604" s="3"/>
     </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:5">
       <c r="A605" s="3"/>
       <c r="B605" s="3"/>
       <c r="E605" s="3"/>
     </row>
-    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:5">
       <c r="A606" s="3"/>
       <c r="B606" s="3"/>
       <c r="E606" s="3"/>
     </row>
-    <row r="607" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:5">
       <c r="A607" s="3"/>
       <c r="B607" s="3"/>
       <c r="E607" s="3"/>
     </row>
-    <row r="608" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:5">
       <c r="A608" s="3"/>
       <c r="B608" s="3"/>
       <c r="E608" s="3"/>
     </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:5">
       <c r="A609" s="3"/>
       <c r="B609" s="3"/>
       <c r="E609" s="3"/>
     </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:5">
       <c r="A610" s="3"/>
       <c r="B610" s="3"/>
       <c r="E610" s="3"/>
     </row>
-    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:5">
       <c r="A611" s="3"/>
       <c r="B611" s="3"/>
       <c r="E611" s="3"/>
     </row>
-    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:5">
       <c r="A612" s="3"/>
       <c r="B612" s="3"/>
       <c r="E612" s="3"/>
     </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:5">
       <c r="A613" s="3"/>
       <c r="B613" s="3"/>
       <c r="E613" s="3"/>
     </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:5">
       <c r="A614" s="3"/>
       <c r="B614" s="3"/>
       <c r="E614" s="3"/>
     </row>
-    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:5">
       <c r="A615" s="3"/>
       <c r="B615" s="3"/>
       <c r="E615" s="3"/>
     </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:5">
       <c r="A616" s="3"/>
       <c r="B616" s="3"/>
       <c r="E616" s="3"/>
     </row>
-    <row r="617" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:5">
       <c r="A617" s="3"/>
       <c r="B617" s="3"/>
       <c r="E617" s="3"/>
     </row>
-    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:5">
       <c r="A618" s="3"/>
       <c r="B618" s="3"/>
       <c r="E618" s="3"/>
     </row>
-    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:5">
       <c r="A619" s="3"/>
       <c r="B619" s="3"/>
       <c r="E619" s="3"/>
     </row>
-    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:5">
       <c r="A620" s="3"/>
       <c r="B620" s="3"/>
       <c r="E620" s="3"/>
     </row>
-    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:5">
       <c r="A621" s="3"/>
       <c r="B621" s="3"/>
       <c r="E621" s="3"/>
     </row>
-    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:5">
       <c r="A622" s="3"/>
       <c r="B622" s="3"/>
       <c r="E622" s="3"/>
     </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:5">
       <c r="A623" s="3"/>
       <c r="B623" s="3"/>
       <c r="E623" s="3"/>
     </row>
-    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:5">
       <c r="A624" s="3"/>
       <c r="B624" s="3"/>
       <c r="E624" s="3"/>
     </row>
-    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:5">
       <c r="A625" s="3"/>
       <c r="B625" s="3"/>
       <c r="E625" s="3"/>
     </row>
-    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:5">
       <c r="A626" s="3"/>
       <c r="B626" s="3"/>
       <c r="E626" s="3"/>
     </row>
-    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:5">
       <c r="A627" s="3"/>
       <c r="B627" s="3"/>
       <c r="E627" s="3"/>
     </row>
-    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:5">
       <c r="A628" s="3"/>
       <c r="B628" s="3"/>
       <c r="E628" s="3"/>
     </row>
-    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:5">
       <c r="A629" s="3"/>
       <c r="B629" s="3"/>
       <c r="E629" s="3"/>
     </row>
-    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:5">
       <c r="A630" s="3"/>
       <c r="B630" s="3"/>
       <c r="E630" s="3"/>
     </row>
-    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:5">
       <c r="A631" s="3"/>
       <c r="B631" s="3"/>
       <c r="E631" s="3"/>
     </row>
-    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:5">
       <c r="A632" s="3"/>
       <c r="B632" s="3"/>
       <c r="E632" s="3"/>
     </row>
-    <row r="633" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:5">
       <c r="A633" s="3"/>
       <c r="B633" s="3"/>
       <c r="E633" s="3"/>
     </row>
-    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:5">
       <c r="A634" s="3"/>
       <c r="B634" s="3"/>
       <c r="E634" s="3"/>
     </row>
-    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:5">
       <c r="A635" s="3"/>
       <c r="B635" s="3"/>
       <c r="E635" s="3"/>
     </row>
-    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:5">
       <c r="A636" s="3"/>
       <c r="B636" s="3"/>
       <c r="E636" s="3"/>
     </row>
-    <row r="637" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:5">
       <c r="A637" s="3"/>
       <c r="B637" s="3"/>
       <c r="E637" s="3"/>
     </row>
-    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:5">
       <c r="A638" s="3"/>
       <c r="B638" s="3"/>
       <c r="E638" s="3"/>
     </row>
-    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:5">
       <c r="A639" s="3"/>
       <c r="B639" s="3"/>
       <c r="E639" s="3"/>
     </row>
-    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:5">
       <c r="A640" s="3"/>
       <c r="B640" s="3"/>
       <c r="E640" s="3"/>
     </row>
-    <row r="641" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:5">
       <c r="A641" s="3"/>
       <c r="B641" s="3"/>
       <c r="E641" s="3"/>
     </row>
-    <row r="642" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:5">
       <c r="A642" s="3"/>
       <c r="B642" s="3"/>
       <c r="E642" s="3"/>
     </row>
-    <row r="643" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:5">
       <c r="A643" s="3"/>
       <c r="B643" s="3"/>
       <c r="E643" s="3"/>
     </row>
-    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:5">
       <c r="A644" s="3"/>
       <c r="B644" s="3"/>
       <c r="E644" s="3"/>
     </row>
-    <row r="645" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:5">
       <c r="A645" s="3"/>
       <c r="B645" s="3"/>
       <c r="E645" s="3"/>
     </row>
-    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:5">
       <c r="A646" s="3"/>
       <c r="B646" s="3"/>
       <c r="E646" s="3"/>
     </row>
-    <row r="647" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:5">
       <c r="A647" s="3"/>
       <c r="B647" s="3"/>
       <c r="E647" s="3"/>
     </row>
-    <row r="648" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:5">
       <c r="A648" s="3"/>
       <c r="B648" s="3"/>
       <c r="E648" s="3"/>
     </row>
-    <row r="649" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:5">
       <c r="A649" s="3"/>
       <c r="B649" s="3"/>
       <c r="E649" s="3"/>
     </row>
-    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:5">
       <c r="A650" s="3"/>
       <c r="B650" s="3"/>
       <c r="E650" s="3"/>
     </row>
-    <row r="651" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:5">
       <c r="A651" s="3"/>
       <c r="B651" s="3"/>
       <c r="E651" s="3"/>
     </row>
-    <row r="652" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:5">
       <c r="A652" s="3"/>
       <c r="B652" s="3"/>
       <c r="E652" s="3"/>
     </row>
-    <row r="653" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:5">
       <c r="A653" s="3"/>
       <c r="B653" s="3"/>
       <c r="E653" s="3"/>
     </row>
-    <row r="654" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:5">
       <c r="A654" s="3"/>
       <c r="B654" s="3"/>
       <c r="E654" s="3"/>
     </row>
-    <row r="655" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:5">
       <c r="A655" s="3"/>
       <c r="B655" s="3"/>
       <c r="E655" s="3"/>
     </row>
-    <row r="656" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:5">
       <c r="A656" s="3"/>
       <c r="B656" s="3"/>
       <c r="E656" s="3"/>
     </row>
-    <row r="657" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:5">
       <c r="A657" s="3"/>
       <c r="B657" s="3"/>
       <c r="E657" s="3"/>
     </row>
-    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:5">
       <c r="A658" s="3"/>
       <c r="B658" s="3"/>
       <c r="E658" s="3"/>
     </row>
-    <row r="659" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:5">
       <c r="A659" s="3"/>
       <c r="B659" s="3"/>
       <c r="E659" s="3"/>
     </row>
-    <row r="660" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:5">
       <c r="A660" s="3"/>
       <c r="B660" s="3"/>
       <c r="E660" s="3"/>
     </row>
-    <row r="661" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:5">
       <c r="A661" s="3"/>
       <c r="B661" s="3"/>
       <c r="E661" s="3"/>
     </row>
-    <row r="662" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:5">
       <c r="A662" s="3"/>
       <c r="B662" s="3"/>
       <c r="E662" s="3"/>
     </row>
-    <row r="663" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:5">
       <c r="A663" s="3"/>
       <c r="B663" s="3"/>
       <c r="E663" s="3"/>
     </row>
-    <row r="664" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:5">
       <c r="A664" s="3"/>
       <c r="B664" s="3"/>
       <c r="E664" s="3"/>
     </row>
-    <row r="665" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:5">
       <c r="A665" s="3"/>
       <c r="B665" s="3"/>
       <c r="E665" s="3"/>
     </row>
-    <row r="666" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:5">
       <c r="A666" s="3"/>
       <c r="B666" s="3"/>
       <c r="E666" s="3"/>
     </row>
-    <row r="667" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:5">
       <c r="A667" s="3"/>
       <c r="B667" s="3"/>
       <c r="E667" s="3"/>
     </row>
-    <row r="668" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:5">
       <c r="A668" s="3"/>
       <c r="B668" s="3"/>
       <c r="E668" s="3"/>
     </row>
-    <row r="669" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:5">
       <c r="A669" s="3"/>
       <c r="B669" s="3"/>
       <c r="E669" s="3"/>
     </row>
-    <row r="670" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:5">
       <c r="A670" s="3"/>
       <c r="B670" s="3"/>
       <c r="E670" s="3"/>
     </row>
-    <row r="671" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:5">
       <c r="A671" s="3"/>
       <c r="B671" s="3"/>
       <c r="E671" s="3"/>
     </row>
-    <row r="672" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:5">
       <c r="A672" s="3"/>
       <c r="B672" s="3"/>
       <c r="E672" s="3"/>
     </row>
-    <row r="673" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:5">
       <c r="A673" s="3"/>
       <c r="B673" s="3"/>
       <c r="E673" s="3"/>
     </row>
-    <row r="674" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:5">
       <c r="A674" s="3"/>
       <c r="B674" s="3"/>
       <c r="E674" s="3"/>
     </row>
-    <row r="675" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:5">
       <c r="A675" s="3"/>
       <c r="B675" s="3"/>
       <c r="E675" s="3"/>
     </row>
-    <row r="676" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:5">
       <c r="A676" s="3"/>
       <c r="B676" s="3"/>
       <c r="E676" s="3"/>
     </row>
-    <row r="677" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:5">
       <c r="A677" s="3"/>
       <c r="B677" s="3"/>
       <c r="E677" s="3"/>
     </row>
-    <row r="678" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:5">
       <c r="A678" s="3"/>
       <c r="B678" s="3"/>
       <c r="E678" s="3"/>
     </row>
-    <row r="679" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:5">
       <c r="A679" s="3"/>
       <c r="B679" s="3"/>
       <c r="E679" s="3"/>
     </row>
-    <row r="680" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:5">
       <c r="A680" s="3"/>
       <c r="B680" s="3"/>
       <c r="E680" s="3"/>
     </row>
-    <row r="681" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:5">
       <c r="A681" s="3"/>
       <c r="B681" s="3"/>
       <c r="E681" s="3"/>
     </row>
-    <row r="682" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:5">
       <c r="A682" s="3"/>
       <c r="B682" s="3"/>
       <c r="E682" s="3"/>
     </row>
-    <row r="683" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:5">
       <c r="A683" s="3"/>
       <c r="B683" s="3"/>
       <c r="E683" s="3"/>
     </row>
-    <row r="684" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:5">
       <c r="A684" s="3"/>
       <c r="B684" s="3"/>
       <c r="E684" s="3"/>
     </row>
-    <row r="685" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:5">
       <c r="A685" s="3"/>
       <c r="B685" s="3"/>
       <c r="E685" s="3"/>
     </row>
-    <row r="686" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:5">
       <c r="A686" s="3"/>
       <c r="B686" s="3"/>
       <c r="E686" s="3"/>
     </row>
-    <row r="687" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:5">
       <c r="A687" s="3"/>
       <c r="B687" s="3"/>
       <c r="E687" s="3"/>
     </row>
-    <row r="688" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:5">
       <c r="A688" s="3"/>
       <c r="B688" s="3"/>
       <c r="E688" s="3"/>
     </row>
-    <row r="689" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:5">
       <c r="A689" s="3"/>
       <c r="B689" s="3"/>
       <c r="E689" s="3"/>
     </row>
-    <row r="690" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:5">
       <c r="A690" s="3"/>
       <c r="B690" s="3"/>
       <c r="E690" s="3"/>
     </row>
-    <row r="691" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:5">
       <c r="A691" s="3"/>
       <c r="B691" s="3"/>
       <c r="E691" s="3"/>
     </row>
-    <row r="692" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:5">
       <c r="A692" s="3"/>
       <c r="B692" s="3"/>
       <c r="E692" s="3"/>
     </row>
-    <row r="693" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:5">
       <c r="A693" s="3"/>
       <c r="B693" s="3"/>
       <c r="E693" s="3"/>
     </row>
-    <row r="694" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:5">
       <c r="A694" s="3"/>
       <c r="B694" s="3"/>
       <c r="E694" s="3"/>
     </row>
-    <row r="695" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:5">
       <c r="A695" s="3"/>
       <c r="B695" s="3"/>
       <c r="E695" s="3"/>
     </row>
-    <row r="696" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:5">
       <c r="A696" s="3"/>
       <c r="B696" s="3"/>
       <c r="E696" s="3"/>
     </row>
-    <row r="697" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:5">
       <c r="A697" s="3"/>
       <c r="B697" s="3"/>
       <c r="E697" s="3"/>
     </row>
-    <row r="698" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:5">
       <c r="A698" s="3"/>
       <c r="B698" s="3"/>
       <c r="E698" s="3"/>
     </row>
-    <row r="699" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:5">
       <c r="A699" s="3"/>
       <c r="B699" s="3"/>
       <c r="E699" s="3"/>
     </row>
-    <row r="700" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:5">
       <c r="A700" s="3"/>
       <c r="B700" s="3"/>
       <c r="E700" s="3"/>
     </row>
-    <row r="701" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:5">
       <c r="A701" s="3"/>
       <c r="B701" s="3"/>
       <c r="E701" s="3"/>
     </row>
-    <row r="702" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:5">
       <c r="A702" s="3"/>
       <c r="B702" s="3"/>
       <c r="E702" s="3"/>
     </row>
-    <row r="703" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:5">
       <c r="A703" s="3"/>
       <c r="B703" s="3"/>
       <c r="E703" s="3"/>
     </row>
-    <row r="704" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:5">
       <c r="A704" s="3"/>
       <c r="B704" s="3"/>
       <c r="E704" s="3"/>
     </row>
-    <row r="705" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:5">
       <c r="A705" s="3"/>
       <c r="B705" s="3"/>
       <c r="E705" s="3"/>
     </row>
-    <row r="706" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:5">
       <c r="A706" s="3"/>
       <c r="B706" s="3"/>
       <c r="E706" s="3"/>
     </row>
-    <row r="707" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:5">
       <c r="A707" s="3"/>
       <c r="B707" s="3"/>
       <c r="E707" s="3"/>
     </row>
-    <row r="708" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:5">
       <c r="A708" s="3"/>
       <c r="B708" s="3"/>
       <c r="E708" s="3"/>
     </row>
-    <row r="709" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:5">
       <c r="A709" s="3"/>
       <c r="B709" s="3"/>
       <c r="E709" s="3"/>
     </row>
-    <row r="710" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:5">
       <c r="A710" s="3"/>
       <c r="B710" s="3"/>
       <c r="E710" s="3"/>
     </row>
-    <row r="711" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:5">
       <c r="A711" s="3"/>
       <c r="B711" s="3"/>
       <c r="E711" s="3"/>
     </row>
-    <row r="712" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:5">
       <c r="A712" s="3"/>
       <c r="B712" s="3"/>
       <c r="E712" s="3"/>
     </row>
-    <row r="713" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:5">
       <c r="A713" s="3"/>
       <c r="B713" s="3"/>
       <c r="E713" s="3"/>
     </row>
-    <row r="714" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:5">
       <c r="A714" s="3"/>
       <c r="B714" s="3"/>
       <c r="E714" s="3"/>
     </row>
-    <row r="715" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:5">
       <c r="A715" s="3"/>
       <c r="B715" s="3"/>
       <c r="E715" s="3"/>
     </row>
-    <row r="716" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:5">
       <c r="A716" s="3"/>
       <c r="B716" s="3"/>
       <c r="E716" s="3"/>
     </row>
-    <row r="717" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:5">
       <c r="A717" s="3"/>
       <c r="B717" s="3"/>
       <c r="E717" s="3"/>
     </row>
-    <row r="718" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:5">
       <c r="A718" s="3"/>
       <c r="B718" s="3"/>
       <c r="E718" s="3"/>
     </row>
-    <row r="719" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:5">
       <c r="A719" s="3"/>
       <c r="B719" s="3"/>
       <c r="E719" s="3"/>
     </row>
-    <row r="720" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:5">
       <c r="A720" s="3"/>
       <c r="B720" s="3"/>
       <c r="E720" s="3"/>
     </row>
-    <row r="721" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:5">
       <c r="A721" s="3"/>
       <c r="B721" s="3"/>
       <c r="E721" s="3"/>
     </row>
-    <row r="722" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:5">
       <c r="A722" s="3"/>
       <c r="B722" s="3"/>
       <c r="E722" s="3"/>
     </row>
-    <row r="723" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:5">
       <c r="A723" s="3"/>
       <c r="B723" s="3"/>
       <c r="E723" s="3"/>
     </row>
-    <row r="724" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:5">
       <c r="A724" s="3"/>
       <c r="B724" s="3"/>
       <c r="E724" s="3"/>
     </row>
-    <row r="725" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:5">
       <c r="A725" s="3"/>
       <c r="B725" s="3"/>
       <c r="E725" s="3"/>
     </row>
-    <row r="726" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:5">
       <c r="A726" s="3"/>
       <c r="B726" s="3"/>
       <c r="E726" s="3"/>
     </row>
-    <row r="727" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:5">
       <c r="A727" s="3"/>
       <c r="B727" s="3"/>
       <c r="E727" s="3"/>
     </row>
-    <row r="728" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:5">
       <c r="A728" s="3"/>
       <c r="B728" s="3"/>
       <c r="E728" s="3"/>
     </row>
-    <row r="729" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:5">
       <c r="A729" s="3"/>
       <c r="B729" s="3"/>
       <c r="E729" s="3"/>
     </row>
-    <row r="730" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:5">
       <c r="A730" s="3"/>
       <c r="B730" s="3"/>
       <c r="E730" s="3"/>
     </row>
-    <row r="731" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:5">
       <c r="A731" s="3"/>
       <c r="B731" s="3"/>
       <c r="E731" s="3"/>
     </row>
-    <row r="732" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:5">
       <c r="A732" s="3"/>
       <c r="B732" s="3"/>
       <c r="E732" s="3"/>
     </row>
-    <row r="733" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:5">
       <c r="A733" s="3"/>
       <c r="B733" s="3"/>
       <c r="E733" s="3"/>
     </row>
-    <row r="734" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:5">
       <c r="A734" s="3"/>
       <c r="B734" s="3"/>
       <c r="E734" s="3"/>
     </row>
-    <row r="735" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:5">
       <c r="A735" s="3"/>
       <c r="B735" s="3"/>
       <c r="E735" s="3"/>
     </row>
-    <row r="736" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:5">
       <c r="A736" s="3"/>
       <c r="B736" s="3"/>
       <c r="E736" s="3"/>
     </row>
-    <row r="737" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:5">
       <c r="A737" s="3"/>
       <c r="B737" s="3"/>
       <c r="E737" s="3"/>
     </row>
-    <row r="738" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:5">
       <c r="A738" s="3"/>
       <c r="B738" s="3"/>
       <c r="E738" s="3"/>
     </row>
-    <row r="739" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:5">
       <c r="A739" s="3"/>
       <c r="B739" s="3"/>
       <c r="E739" s="3"/>
     </row>
-    <row r="740" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:5">
       <c r="A740" s="3"/>
       <c r="B740" s="3"/>
       <c r="E740" s="3"/>
     </row>
-    <row r="741" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:5">
       <c r="A741" s="3"/>
       <c r="B741" s="3"/>
       <c r="E741" s="3"/>
     </row>
-    <row r="742" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:5">
       <c r="A742" s="3"/>
       <c r="B742" s="3"/>
       <c r="E742" s="3"/>
     </row>
-    <row r="743" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:5">
       <c r="A743" s="3"/>
       <c r="B743" s="3"/>
       <c r="E743" s="3"/>
     </row>
-    <row r="744" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:5">
       <c r="A744" s="3"/>
       <c r="B744" s="3"/>
       <c r="E744" s="3"/>
     </row>
-    <row r="745" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:5">
       <c r="A745" s="3"/>
       <c r="B745" s="3"/>
       <c r="E745" s="3"/>
     </row>
-    <row r="746" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:5">
       <c r="A746" s="3"/>
       <c r="B746" s="3"/>
       <c r="E746" s="3"/>
     </row>
-    <row r="747" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:5">
       <c r="A747" s="3"/>
       <c r="B747" s="3"/>
       <c r="E747" s="3"/>
     </row>
-    <row r="748" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:5">
       <c r="A748" s="3"/>
       <c r="B748" s="3"/>
       <c r="E748" s="3"/>
     </row>
-    <row r="749" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:5">
       <c r="A749" s="3"/>
       <c r="B749" s="3"/>
       <c r="E749" s="3"/>
     </row>
-    <row r="750" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:5">
       <c r="A750" s="3"/>
       <c r="B750" s="3"/>
       <c r="E750" s="3"/>
     </row>
-    <row r="751" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:5">
       <c r="A751" s="3"/>
       <c r="B751" s="3"/>
       <c r="E751" s="3"/>
     </row>
-    <row r="752" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:5">
       <c r="A752" s="3"/>
       <c r="B752" s="3"/>
       <c r="E752" s="3"/>
     </row>
-    <row r="753" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:5">
       <c r="A753" s="3"/>
       <c r="B753" s="3"/>
       <c r="E753" s="3"/>
     </row>
-    <row r="754" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:5">
       <c r="A754" s="3"/>
       <c r="B754" s="3"/>
       <c r="E754" s="3"/>
     </row>
-    <row r="755" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:5">
       <c r="A755" s="3"/>
       <c r="B755" s="3"/>
       <c r="E755" s="3"/>
     </row>
-    <row r="756" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:5">
       <c r="A756" s="3"/>
       <c r="B756" s="3"/>
       <c r="E756" s="3"/>
     </row>
-    <row r="757" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:5">
       <c r="A757" s="3"/>
       <c r="B757" s="3"/>
       <c r="E757" s="3"/>
     </row>
-    <row r="758" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:5">
       <c r="A758" s="3"/>
       <c r="B758" s="3"/>
       <c r="E758" s="3"/>
     </row>
-    <row r="759" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:5">
       <c r="A759" s="3"/>
       <c r="B759" s="3"/>
       <c r="E759" s="3"/>
     </row>
-    <row r="760" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:5">
       <c r="A760" s="3"/>
       <c r="B760" s="3"/>
       <c r="E760" s="3"/>
     </row>
-    <row r="761" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:5">
       <c r="A761" s="3"/>
       <c r="B761" s="3"/>
       <c r="E761" s="3"/>
     </row>
-    <row r="762" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:5">
       <c r="A762" s="3"/>
       <c r="B762" s="3"/>
       <c r="E762" s="3"/>
     </row>
-    <row r="763" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:5">
       <c r="A763" s="3"/>
       <c r="B763" s="3"/>
       <c r="E763" s="3"/>
     </row>
-    <row r="764" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:5">
       <c r="A764" s="3"/>
       <c r="B764" s="3"/>
       <c r="E764" s="3"/>
     </row>
-    <row 